--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -7,23 +7,23 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Australia_Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Brazil_Table" sheetId="2" r:id="rId2"/>
-    <sheet name="Canada_Table" sheetId="3" r:id="rId3"/>
-    <sheet name="China_Table" sheetId="4" r:id="rId4"/>
-    <sheet name="France_Table" sheetId="5" r:id="rId5"/>
-    <sheet name="Germany_Table" sheetId="6" r:id="rId6"/>
-    <sheet name="India_Table" sheetId="7" r:id="rId7"/>
-    <sheet name="Italy_Table" sheetId="8" r:id="rId8"/>
-    <sheet name="Japan_Table" sheetId="9" r:id="rId9"/>
-    <sheet name="Poland_Table" sheetId="10" r:id="rId10"/>
-    <sheet name="Portugal_Table" sheetId="11" r:id="rId11"/>
-    <sheet name="Russia_Table" sheetId="12" r:id="rId12"/>
-    <sheet name="South Africa_Table" sheetId="13" r:id="rId13"/>
-    <sheet name="Switzerland_Table" sheetId="14" r:id="rId14"/>
-    <sheet name="Turkey_Table" sheetId="15" r:id="rId15"/>
-    <sheet name="U.S._Table" sheetId="16" r:id="rId16"/>
-    <sheet name="UK_Table" sheetId="17" r:id="rId17"/>
+    <sheet name="Australia" sheetId="1" r:id="rId1"/>
+    <sheet name="Brazil" sheetId="2" r:id="rId2"/>
+    <sheet name="Canada" sheetId="3" r:id="rId3"/>
+    <sheet name="China" sheetId="4" r:id="rId4"/>
+    <sheet name="France" sheetId="5" r:id="rId5"/>
+    <sheet name="Germany" sheetId="6" r:id="rId6"/>
+    <sheet name="India" sheetId="7" r:id="rId7"/>
+    <sheet name="Italy" sheetId="8" r:id="rId8"/>
+    <sheet name="Japan" sheetId="9" r:id="rId9"/>
+    <sheet name="Poland" sheetId="10" r:id="rId10"/>
+    <sheet name="Portugal" sheetId="11" r:id="rId11"/>
+    <sheet name="Russia" sheetId="12" r:id="rId12"/>
+    <sheet name="South Africa" sheetId="13" r:id="rId13"/>
+    <sheet name="Switzerland" sheetId="14" r:id="rId14"/>
+    <sheet name="Turkey" sheetId="15" r:id="rId15"/>
+    <sheet name="U.S." sheetId="16" r:id="rId16"/>
+    <sheet name="UK" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -7,30 +7,29 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Australia" sheetId="1" r:id="rId1"/>
-    <sheet name="Brazil" sheetId="2" r:id="rId2"/>
-    <sheet name="Canada" sheetId="3" r:id="rId3"/>
-    <sheet name="China" sheetId="4" r:id="rId4"/>
-    <sheet name="France" sheetId="5" r:id="rId5"/>
-    <sheet name="Germany" sheetId="6" r:id="rId6"/>
-    <sheet name="India" sheetId="7" r:id="rId7"/>
-    <sheet name="Italy" sheetId="8" r:id="rId8"/>
+    <sheet name="Canada" sheetId="1" r:id="rId1"/>
+    <sheet name="India" sheetId="2" r:id="rId2"/>
+    <sheet name="France" sheetId="3" r:id="rId3"/>
+    <sheet name="Germany" sheetId="4" r:id="rId4"/>
+    <sheet name="Poland" sheetId="5" r:id="rId5"/>
+    <sheet name="Brazil" sheetId="6" r:id="rId6"/>
+    <sheet name="Portugal" sheetId="7" r:id="rId7"/>
+    <sheet name="UK" sheetId="8" r:id="rId8"/>
     <sheet name="Japan" sheetId="9" r:id="rId9"/>
-    <sheet name="Poland" sheetId="10" r:id="rId10"/>
-    <sheet name="Portugal" sheetId="11" r:id="rId11"/>
-    <sheet name="Russia" sheetId="12" r:id="rId12"/>
-    <sheet name="South Africa" sheetId="13" r:id="rId13"/>
-    <sheet name="Switzerland" sheetId="14" r:id="rId14"/>
-    <sheet name="Turkey" sheetId="15" r:id="rId15"/>
-    <sheet name="U.S." sheetId="16" r:id="rId16"/>
-    <sheet name="UK" sheetId="17" r:id="rId17"/>
+    <sheet name="Russia" sheetId="10" r:id="rId10"/>
+    <sheet name="Australia" sheetId="11" r:id="rId11"/>
+    <sheet name="Italy" sheetId="12" r:id="rId12"/>
+    <sheet name="Switzerland" sheetId="13" r:id="rId13"/>
+    <sheet name="China" sheetId="14" r:id="rId14"/>
+    <sheet name="South Africa" sheetId="15" r:id="rId15"/>
+    <sheet name="Turkey" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="16">
   <si>
     <t>Period</t>
   </si>
@@ -483,104 +482,140 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>5.125</v>
+      </c>
+      <c r="C2">
+        <v>5.213</v>
+      </c>
       <c r="D2">
-        <v>4.202</v>
+        <v>5.201</v>
       </c>
       <c r="E2">
-        <v>4.066</v>
+        <v>4.664</v>
       </c>
       <c r="F2">
-        <v>3.919</v>
+        <v>4.434</v>
       </c>
       <c r="G2">
-        <v>3.85</v>
+        <v>3.899</v>
       </c>
       <c r="H2">
-        <v>3.922</v>
+        <v>3.646</v>
       </c>
       <c r="I2">
-        <v>3.99</v>
-      </c>
-      <c r="J2">
-        <v>4.132</v>
+        <v>3.514</v>
+      </c>
+      <c r="K2">
+        <v>3.487</v>
+      </c>
+      <c r="L2">
+        <v>3.337</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>4.9</v>
+      </c>
+      <c r="C3">
+        <v>5.03</v>
+      </c>
       <c r="D3">
-        <v>4.363</v>
+        <v>5.14</v>
       </c>
       <c r="E3">
-        <v>4.186</v>
+        <v>4.572</v>
       </c>
       <c r="F3">
-        <v>4.009</v>
+        <v>4.146</v>
       </c>
       <c r="G3">
-        <v>3.936</v>
+        <v>3.697</v>
       </c>
       <c r="H3">
-        <v>3.959</v>
+        <v>3.456</v>
       </c>
       <c r="I3">
-        <v>4.009</v>
-      </c>
-      <c r="J3">
-        <v>4.173</v>
+        <v>3.353</v>
+      </c>
+      <c r="K3">
+        <v>3.345</v>
+      </c>
+      <c r="L3">
+        <v>3.208</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>4.4</v>
+      </c>
+      <c r="C4">
+        <v>4.5</v>
+      </c>
       <c r="D4">
-        <v>3.451</v>
+        <v>4.46</v>
       </c>
       <c r="E4">
-        <v>3.171</v>
+        <v>3.8</v>
       </c>
       <c r="F4">
-        <v>3.146</v>
+        <v>3.564</v>
       </c>
       <c r="G4">
-        <v>3.228</v>
+        <v>3.064</v>
       </c>
       <c r="H4">
-        <v>3.351</v>
+        <v>2.922</v>
       </c>
       <c r="I4">
-        <v>3.465</v>
-      </c>
-      <c r="J4">
-        <v>3.711</v>
+        <v>2.911</v>
+      </c>
+      <c r="K4">
+        <v>3.097</v>
+      </c>
+      <c r="L4">
+        <v>2.995</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>2.69</v>
+      </c>
+      <c r="C5">
+        <v>3.2</v>
+      </c>
       <c r="D5">
-        <v>2.525</v>
+        <v>3.45</v>
       </c>
       <c r="E5">
-        <v>2.858</v>
+        <v>3.298</v>
       </c>
       <c r="F5">
-        <v>3.131</v>
+        <v>3.265</v>
       </c>
       <c r="G5">
-        <v>3.244</v>
+        <v>3.143</v>
       </c>
       <c r="H5">
-        <v>3.365</v>
+        <v>3.108</v>
       </c>
       <c r="I5">
-        <v>3.474</v>
-      </c>
-      <c r="J5">
-        <v>3.641</v>
+        <v>3.117</v>
+      </c>
+      <c r="K5">
+        <v>3.14</v>
+      </c>
+      <c r="L5">
+        <v>3.036</v>
       </c>
     </row>
   </sheetData>
@@ -639,22 +674,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>5.614</v>
+        <v>10.21</v>
       </c>
       <c r="E2">
-        <v>5.199</v>
+        <v>9.055</v>
       </c>
       <c r="F2">
-        <v>5.174</v>
+        <v>10.47</v>
       </c>
       <c r="G2">
-        <v>5.255</v>
-      </c>
-      <c r="H2">
-        <v>5.278</v>
+        <v>11.155</v>
       </c>
       <c r="I2">
-        <v>5.501</v>
+        <v>11.455</v>
+      </c>
+      <c r="J2">
+        <v>11.675</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -662,22 +697,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>6.103</v>
+        <v>9.27</v>
       </c>
       <c r="E3">
-        <v>5.929</v>
+        <v>9.84</v>
       </c>
       <c r="F3">
-        <v>5.839</v>
+        <v>9.41</v>
       </c>
       <c r="G3">
-        <v>5.821</v>
-      </c>
-      <c r="H3">
-        <v>5.86</v>
+        <v>10.29</v>
       </c>
       <c r="I3">
-        <v>5.979</v>
+        <v>10.96</v>
+      </c>
+      <c r="J3">
+        <v>11.28</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -685,22 +720,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>6.271</v>
+        <v>10.52</v>
       </c>
       <c r="E4">
-        <v>6.152</v>
+        <v>10.73</v>
       </c>
       <c r="F4">
-        <v>6.019</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="G4">
-        <v>6.041</v>
-      </c>
-      <c r="H4">
-        <v>5.997</v>
+        <v>10.36</v>
       </c>
       <c r="I4">
-        <v>6.087</v>
+        <v>10.47</v>
+      </c>
+      <c r="J4">
+        <v>11.02</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -708,22 +743,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>6.764</v>
+        <v>11.33</v>
       </c>
       <c r="E5">
-        <v>8.035</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="F5">
-        <v>7.579</v>
+        <v>8.48</v>
       </c>
       <c r="G5">
-        <v>7.253</v>
-      </c>
-      <c r="H5">
-        <v>6.91</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="I5">
-        <v>6.913</v>
+        <v>9.380000000000001</v>
+      </c>
+      <c r="J5">
+        <v>9.550000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -781,104 +816,104 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="D2">
+        <v>4.216</v>
+      </c>
       <c r="E2">
-        <v>2.941</v>
+        <v>4.131</v>
       </c>
       <c r="F2">
-        <v>2.899</v>
+        <v>3.989</v>
       </c>
       <c r="G2">
-        <v>2.986</v>
+        <v>3.898</v>
       </c>
       <c r="H2">
-        <v>3.016</v>
+        <v>3.962</v>
       </c>
       <c r="I2">
-        <v>3.181</v>
+        <v>4.014</v>
       </c>
       <c r="J2">
-        <v>3.553</v>
-      </c>
-      <c r="L2">
-        <v>3.522</v>
+        <v>4.155</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="D3">
+        <v>4.292</v>
+      </c>
       <c r="E3">
-        <v>2.763</v>
+        <v>4.133</v>
       </c>
       <c r="F3">
-        <v>2.76</v>
+        <v>3.956</v>
       </c>
       <c r="G3">
-        <v>2.803</v>
+        <v>3.875</v>
       </c>
       <c r="H3">
-        <v>2.901</v>
+        <v>3.902</v>
       </c>
       <c r="I3">
-        <v>3.107</v>
+        <v>3.939</v>
       </c>
       <c r="J3">
-        <v>3.56</v>
-      </c>
-      <c r="L3">
-        <v>3.55</v>
+        <v>4.082</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="D4">
+        <v>3.416</v>
+      </c>
       <c r="E4">
-        <v>2.562</v>
+        <v>3.056</v>
       </c>
       <c r="F4">
-        <v>2.566</v>
+        <v>3.021</v>
       </c>
       <c r="G4">
-        <v>2.625</v>
+        <v>3.094</v>
       </c>
       <c r="H4">
-        <v>2.782</v>
+        <v>3.218</v>
       </c>
       <c r="I4">
-        <v>3.043</v>
+        <v>3.348</v>
       </c>
       <c r="J4">
-        <v>3.388</v>
-      </c>
-      <c r="L4">
-        <v>3.49</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="D5">
+        <v>2.655</v>
+      </c>
       <c r="E5">
-        <v>0.89</v>
+        <v>3.042</v>
       </c>
       <c r="F5">
-        <v>1.138</v>
+        <v>3.271</v>
       </c>
       <c r="G5">
-        <v>1.568</v>
+        <v>3.372</v>
       </c>
       <c r="H5">
-        <v>1.794</v>
+        <v>3.467</v>
       </c>
       <c r="I5">
-        <v>2.359</v>
+        <v>3.578</v>
       </c>
       <c r="J5">
-        <v>2.518</v>
-      </c>
-      <c r="L5">
-        <v>2.767</v>
+        <v>3.722</v>
       </c>
     </row>
   </sheetData>
@@ -936,92 +971,128 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>3.566</v>
+      </c>
+      <c r="C2">
+        <v>3.592</v>
+      </c>
       <c r="D2">
-        <v>9.904999999999999</v>
+        <v>3.812</v>
       </c>
       <c r="E2">
-        <v>10.25</v>
+        <v>3.769</v>
       </c>
       <c r="F2">
-        <v>10.17</v>
+        <v>3.671</v>
       </c>
       <c r="G2">
-        <v>10.87</v>
+        <v>3.705</v>
+      </c>
+      <c r="H2">
+        <v>3.868</v>
       </c>
       <c r="I2">
-        <v>11.37</v>
+        <v>4.115</v>
       </c>
       <c r="J2">
-        <v>11.65</v>
+        <v>4.292</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>3.282</v>
+      </c>
+      <c r="C3">
+        <v>3.57</v>
+      </c>
       <c r="D3">
-        <v>9.02</v>
+        <v>3.739</v>
       </c>
       <c r="E3">
-        <v>9.66</v>
+        <v>3.747</v>
       </c>
       <c r="F3">
-        <v>9.31</v>
+        <v>3.625</v>
       </c>
       <c r="G3">
-        <v>10.21</v>
+        <v>3.683</v>
+      </c>
+      <c r="H3">
+        <v>3.881</v>
       </c>
       <c r="I3">
-        <v>10.9</v>
+        <v>4.129</v>
       </c>
       <c r="J3">
-        <v>11.24</v>
+        <v>4.341</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>2.83</v>
+      </c>
+      <c r="C4">
+        <v>3.21</v>
+      </c>
       <c r="D4">
-        <v>10.32</v>
+        <v>3.384</v>
       </c>
       <c r="E4">
-        <v>10.76</v>
+        <v>3.302</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>3.481</v>
       </c>
       <c r="G4">
-        <v>10.32</v>
+        <v>3.697</v>
+      </c>
+      <c r="H4">
+        <v>3.967</v>
       </c>
       <c r="I4">
-        <v>10.36</v>
+        <v>4.211</v>
       </c>
       <c r="J4">
-        <v>10.91</v>
+        <v>4.446</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>-0.16</v>
+      </c>
+      <c r="C5">
+        <v>0.228</v>
+      </c>
       <c r="D5">
-        <v>11.17</v>
+        <v>0.838</v>
       </c>
       <c r="E5">
-        <v>9.220000000000001</v>
+        <v>1.414</v>
       </c>
       <c r="F5">
-        <v>9.449999999999999</v>
+        <v>2.184</v>
       </c>
       <c r="G5">
-        <v>9.41</v>
+        <v>2.622</v>
+      </c>
+      <c r="H5">
+        <v>2.986</v>
       </c>
       <c r="I5">
-        <v>9.359999999999999</v>
+        <v>3.468</v>
       </c>
       <c r="J5">
-        <v>9.56</v>
+        <v>3.453</v>
       </c>
     </row>
   </sheetData>
@@ -1080,19 +1151,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8.84</v>
+        <v>1.65</v>
+      </c>
+      <c r="C2">
+        <v>1.71</v>
+      </c>
+      <c r="D2">
+        <v>1.92</v>
+      </c>
+      <c r="E2">
+        <v>1.128</v>
+      </c>
+      <c r="F2">
+        <v>1.09</v>
       </c>
       <c r="G2">
-        <v>9.185</v>
+        <v>0.966</v>
+      </c>
+      <c r="H2">
+        <v>0.956</v>
       </c>
       <c r="I2">
-        <v>10.43</v>
+        <v>0.944</v>
+      </c>
+      <c r="J2">
+        <v>0.922</v>
       </c>
       <c r="K2">
-        <v>12.335</v>
+        <v>0.906</v>
       </c>
       <c r="L2">
-        <v>12.33</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1100,19 +1189,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>9.199999999999999</v>
+        <v>1.65</v>
+      </c>
+      <c r="C3">
+        <v>1.75</v>
+      </c>
+      <c r="D3">
+        <v>1.98</v>
+      </c>
+      <c r="E3">
+        <v>1.232</v>
+      </c>
+      <c r="F3">
+        <v>1.17</v>
       </c>
       <c r="G3">
-        <v>9.445</v>
+        <v>1.115</v>
+      </c>
+      <c r="H3">
+        <v>1.095</v>
       </c>
       <c r="I3">
-        <v>10.765</v>
+        <v>1.059</v>
+      </c>
+      <c r="J3">
+        <v>1.175</v>
       </c>
       <c r="K3">
-        <v>12.31</v>
+        <v>1.19</v>
       </c>
       <c r="L3">
-        <v>12.28</v>
+        <v>1.155</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1120,19 +1227,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8.25</v>
+        <v>1.35</v>
+      </c>
+      <c r="C4">
+        <v>1.46</v>
+      </c>
+      <c r="D4">
+        <v>1.73</v>
+      </c>
+      <c r="E4">
+        <v>1.093</v>
+      </c>
+      <c r="F4">
+        <v>1.142</v>
       </c>
       <c r="G4">
-        <v>8.435</v>
+        <v>1.128</v>
+      </c>
+      <c r="H4">
+        <v>1.053</v>
       </c>
       <c r="I4">
-        <v>9.83</v>
+        <v>1.132</v>
+      </c>
+      <c r="J4">
+        <v>1.158</v>
       </c>
       <c r="K4">
-        <v>11.545</v>
+        <v>1.148</v>
       </c>
       <c r="L4">
-        <v>11.625</v>
+        <v>1.076</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1140,19 +1265,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.61</v>
+        <v>-0.18</v>
+      </c>
+      <c r="C5">
+        <v>0.21</v>
+      </c>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+      <c r="E5">
+        <v>0.15</v>
+      </c>
+      <c r="F5">
+        <v>0.285</v>
       </c>
       <c r="G5">
-        <v>9.425000000000001</v>
+        <v>0.511</v>
+      </c>
+      <c r="H5">
+        <v>0.637</v>
       </c>
       <c r="I5">
-        <v>11.01</v>
+        <v>0.836</v>
+      </c>
+      <c r="J5">
+        <v>1.072</v>
       </c>
       <c r="K5">
-        <v>12.03</v>
+        <v>1.168</v>
       </c>
       <c r="L5">
-        <v>12</v>
+        <v>1.169</v>
       </c>
     </row>
   </sheetData>
@@ -1210,152 +1353,128 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>1.7</v>
-      </c>
-      <c r="C2">
-        <v>1.74</v>
-      </c>
       <c r="D2">
-        <v>1.97</v>
+        <v>1.722</v>
       </c>
       <c r="E2">
-        <v>1.14</v>
+        <v>2.053</v>
       </c>
       <c r="F2">
-        <v>1.094</v>
+        <v>2.2</v>
       </c>
       <c r="G2">
-        <v>0.982</v>
+        <v>2.397</v>
       </c>
       <c r="H2">
-        <v>0.9399999999999999</v>
+        <v>2.589</v>
       </c>
       <c r="I2">
-        <v>0.958</v>
+        <v>2.67</v>
       </c>
       <c r="J2">
-        <v>0.962</v>
+        <v>2.744</v>
       </c>
       <c r="K2">
-        <v>0.9379999999999999</v>
+        <v>3.017</v>
       </c>
       <c r="L2">
-        <v>0.9360000000000001</v>
+        <v>3.015</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>1.62</v>
-      </c>
-      <c r="C3">
-        <v>1.76</v>
-      </c>
       <c r="D3">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="E3">
-        <v>1.455</v>
+        <v>2.148</v>
       </c>
       <c r="F3">
-        <v>1.19</v>
+        <v>2.271</v>
       </c>
       <c r="G3">
-        <v>1.06</v>
+        <v>2.445</v>
       </c>
       <c r="H3">
-        <v>0.91</v>
+        <v>2.653</v>
       </c>
       <c r="I3">
-        <v>0.961</v>
+        <v>2.699</v>
       </c>
       <c r="J3">
-        <v>1.131</v>
+        <v>2.78</v>
       </c>
       <c r="K3">
-        <v>1.156</v>
+        <v>3.143</v>
       </c>
       <c r="L3">
-        <v>1.055</v>
+        <v>3.054</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>1.36</v>
-      </c>
-      <c r="C4">
-        <v>1.46</v>
-      </c>
       <c r="D4">
-        <v>1.84</v>
+        <v>2.195</v>
       </c>
       <c r="E4">
-        <v>1.206</v>
+        <v>2.363</v>
       </c>
       <c r="F4">
-        <v>1.278</v>
+        <v>2.491</v>
       </c>
       <c r="G4">
-        <v>1.268</v>
+        <v>2.665</v>
       </c>
       <c r="H4">
-        <v>1.174</v>
+        <v>2.813</v>
       </c>
       <c r="I4">
-        <v>1.225</v>
+        <v>2.83</v>
       </c>
       <c r="J4">
-        <v>1.287</v>
+        <v>2.961</v>
       </c>
       <c r="K4">
-        <v>1.268</v>
+        <v>3.264</v>
       </c>
       <c r="L4">
-        <v>1.221</v>
+        <v>3.227</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>-0.15</v>
-      </c>
-      <c r="C5">
-        <v>0.02</v>
-      </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>1.763</v>
       </c>
       <c r="E5">
-        <v>0.011</v>
+        <v>2.185</v>
       </c>
       <c r="F5">
-        <v>0.15</v>
+        <v>2.363</v>
       </c>
       <c r="G5">
-        <v>0.394</v>
+        <v>2.553</v>
       </c>
       <c r="H5">
-        <v>0.543</v>
+        <v>2.763</v>
       </c>
       <c r="I5">
-        <v>0.763</v>
+        <v>2.78</v>
       </c>
       <c r="J5">
-        <v>0.983</v>
+        <v>3.072</v>
       </c>
       <c r="K5">
-        <v>1.079</v>
+        <v>3.337</v>
       </c>
       <c r="L5">
-        <v>1.082</v>
+        <v>3.273</v>
       </c>
     </row>
   </sheetData>
@@ -1414,25 +1533,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>9.475</v>
-      </c>
-      <c r="C2">
-        <v>12.787</v>
-      </c>
-      <c r="D2">
-        <v>7.77</v>
-      </c>
-      <c r="E2">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="F2">
-        <v>14.385</v>
+        <v>8.85</v>
       </c>
       <c r="G2">
-        <v>17.945</v>
+        <v>9.015000000000001</v>
       </c>
       <c r="I2">
-        <v>17.155</v>
+        <v>10.355</v>
+      </c>
+      <c r="K2">
+        <v>12.285</v>
+      </c>
+      <c r="L2">
+        <v>12.28</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1440,25 +1553,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>11.263</v>
-      </c>
-      <c r="C3">
-        <v>11.74</v>
-      </c>
-      <c r="D3">
-        <v>7.77</v>
-      </c>
-      <c r="E3">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="F3">
-        <v>13.83</v>
+        <v>9.25</v>
       </c>
       <c r="G3">
-        <v>15.26</v>
+        <v>9.51</v>
       </c>
       <c r="I3">
-        <v>16.22</v>
+        <v>10.78</v>
+      </c>
+      <c r="K3">
+        <v>12.34</v>
+      </c>
+      <c r="L3">
+        <v>12.305</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1466,25 +1573,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>12.029</v>
-      </c>
-      <c r="C4">
-        <v>12.752</v>
-      </c>
-      <c r="D4">
-        <v>7.77</v>
-      </c>
-      <c r="E4">
-        <v>13.1</v>
-      </c>
-      <c r="F4">
-        <v>14.09</v>
+        <v>8.4</v>
       </c>
       <c r="G4">
-        <v>16.3</v>
+        <v>8.43</v>
       </c>
       <c r="I4">
-        <v>16.44</v>
+        <v>9.84</v>
+      </c>
+      <c r="K4">
+        <v>11.68</v>
+      </c>
+      <c r="L4">
+        <v>11.71</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1492,25 +1593,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>18.825</v>
-      </c>
-      <c r="C5">
-        <v>21.004</v>
-      </c>
-      <c r="D5">
-        <v>21.5</v>
-      </c>
-      <c r="E5">
-        <v>22.59</v>
-      </c>
-      <c r="F5">
-        <v>23.3</v>
+        <v>5.75</v>
       </c>
       <c r="G5">
-        <v>18.59</v>
+        <v>9.4</v>
       </c>
       <c r="I5">
-        <v>18.14</v>
+        <v>10.95</v>
+      </c>
+      <c r="K5">
+        <v>11.88</v>
+      </c>
+      <c r="L5">
+        <v>11.825</v>
       </c>
     </row>
   </sheetData>
@@ -1569,28 +1664,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.422</v>
+        <v>13.584</v>
       </c>
       <c r="C2">
-        <v>5.498</v>
+        <v>13.585</v>
+      </c>
+      <c r="D2">
+        <v>7.77</v>
       </c>
       <c r="E2">
-        <v>4.668</v>
+        <v>10.28</v>
       </c>
       <c r="F2">
-        <v>4.286</v>
+        <v>14.585</v>
       </c>
       <c r="G2">
-        <v>3.987</v>
-      </c>
-      <c r="H2">
-        <v>3.895</v>
+        <v>18.525</v>
       </c>
       <c r="I2">
-        <v>3.787</v>
-      </c>
-      <c r="L2">
-        <v>3.912</v>
+        <v>18.97</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1598,28 +1690,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.263</v>
+        <v>12.186</v>
       </c>
       <c r="C3">
-        <v>5.357</v>
+        <v>13.974</v>
+      </c>
+      <c r="D3">
+        <v>7.77</v>
       </c>
       <c r="E3">
-        <v>4.677</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F3">
-        <v>4.293</v>
+        <v>14.05</v>
       </c>
       <c r="G3">
-        <v>4.001</v>
-      </c>
-      <c r="H3">
-        <v>3.926</v>
+        <v>17.54</v>
       </c>
       <c r="I3">
-        <v>3.827</v>
-      </c>
-      <c r="L3">
-        <v>3.932</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1627,28 +1716,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.002</v>
+        <v>13.323</v>
       </c>
       <c r="C4">
-        <v>4.971</v>
+        <v>15.222</v>
+      </c>
+      <c r="D4">
+        <v>7.77</v>
       </c>
       <c r="E4">
-        <v>4.01</v>
+        <v>11.63</v>
       </c>
       <c r="F4">
-        <v>3.773</v>
+        <v>10.94</v>
       </c>
       <c r="G4">
-        <v>3.519</v>
-      </c>
-      <c r="H4">
-        <v>3.468</v>
+        <v>11.47</v>
       </c>
       <c r="I4">
-        <v>3.415</v>
-      </c>
-      <c r="L4">
-        <v>3.627</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1656,231 +1742,25 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.399</v>
+        <v>17.634</v>
       </c>
       <c r="C5">
-        <v>2.924</v>
+        <v>20.9</v>
+      </c>
+      <c r="D5">
+        <v>21.15</v>
       </c>
       <c r="E5">
-        <v>3.128</v>
+        <v>21.24</v>
       </c>
       <c r="F5">
-        <v>3.154</v>
+        <v>22.5</v>
       </c>
       <c r="G5">
-        <v>3.063</v>
-      </c>
-      <c r="H5">
-        <v>3.049</v>
+        <v>17.43</v>
       </c>
       <c r="I5">
-        <v>2.958</v>
-      </c>
-      <c r="L5">
-        <v>3.108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>5.459</v>
-      </c>
-      <c r="C2">
-        <v>5.815</v>
-      </c>
-      <c r="D2">
-        <v>5.235</v>
-      </c>
-      <c r="E2">
-        <v>5.156</v>
-      </c>
-      <c r="F2">
-        <v>4.897</v>
-      </c>
-      <c r="G2">
-        <v>4.5685</v>
-      </c>
-      <c r="H2">
-        <v>4.424</v>
-      </c>
-      <c r="I2">
-        <v>4.4405</v>
-      </c>
-      <c r="J2">
-        <v>4.636</v>
-      </c>
-      <c r="K2">
-        <v>4.638</v>
-      </c>
-      <c r="L2">
-        <v>4.587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>4.67</v>
-      </c>
-      <c r="C3">
-        <v>5.27</v>
-      </c>
-      <c r="D3">
-        <v>5.152</v>
-      </c>
-      <c r="E3">
-        <v>5.043</v>
-      </c>
-      <c r="F3">
-        <v>4.907</v>
-      </c>
-      <c r="G3">
-        <v>4.593</v>
-      </c>
-      <c r="H3">
-        <v>4.424</v>
-      </c>
-      <c r="I3">
-        <v>4.406</v>
-      </c>
-      <c r="J3">
-        <v>4.575</v>
-      </c>
-      <c r="K3">
-        <v>4.566</v>
-      </c>
-      <c r="L3">
-        <v>4.51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>4.393</v>
-      </c>
-      <c r="C4">
-        <v>4.687</v>
-      </c>
-      <c r="D4">
-        <v>4.344</v>
-      </c>
-      <c r="E4">
-        <v>3.724</v>
-      </c>
-      <c r="F4">
-        <v>3.731</v>
-      </c>
-      <c r="G4">
-        <v>3.618</v>
-      </c>
-      <c r="H4">
-        <v>3.642</v>
-      </c>
-      <c r="I4">
-        <v>3.76</v>
-      </c>
-      <c r="J4">
-        <v>4.034</v>
-      </c>
-      <c r="K4">
-        <v>4.085</v>
-      </c>
-      <c r="L4">
-        <v>4.098</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>1.553</v>
-      </c>
-      <c r="C5">
-        <v>1.939</v>
-      </c>
-      <c r="D5">
-        <v>2.123</v>
-      </c>
-      <c r="E5">
-        <v>1.946</v>
-      </c>
-      <c r="F5">
-        <v>1.832</v>
-      </c>
-      <c r="G5">
-        <v>1.834</v>
-      </c>
-      <c r="H5">
-        <v>1.956</v>
-      </c>
-      <c r="I5">
-        <v>2.102</v>
-      </c>
-      <c r="J5">
-        <v>2.539</v>
-      </c>
-      <c r="K5">
-        <v>2.584</v>
-      </c>
-      <c r="L5">
-        <v>2.549</v>
+        <v>16.93</v>
       </c>
     </row>
   </sheetData>
@@ -1938,80 +1818,140 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>6.73</v>
+      </c>
+      <c r="C2">
+        <v>6.88</v>
+      </c>
       <c r="D2">
-        <v>11.722</v>
+        <v>6.935</v>
       </c>
       <c r="E2">
-        <v>10.002</v>
+        <v>6.996</v>
       </c>
       <c r="F2">
-        <v>10.27</v>
+        <v>7.028</v>
       </c>
       <c r="G2">
-        <v>10.507</v>
+        <v>7.059</v>
+      </c>
+      <c r="H2">
+        <v>7.075</v>
       </c>
       <c r="I2">
-        <v>10.673</v>
+        <v>7.083</v>
+      </c>
+      <c r="J2">
+        <v>7.235</v>
+      </c>
+      <c r="L2">
+        <v>7.281</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>6.77</v>
+      </c>
+      <c r="C3">
+        <v>6.88</v>
+      </c>
       <c r="D3">
-        <v>12.505</v>
+        <v>6.822</v>
       </c>
       <c r="E3">
-        <v>10.955</v>
+        <v>6.89</v>
       </c>
       <c r="F3">
-        <v>10.612</v>
+        <v>6.966</v>
       </c>
       <c r="G3">
-        <v>10.975</v>
+        <v>6.968</v>
+      </c>
+      <c r="H3">
+        <v>7.026</v>
       </c>
       <c r="I3">
-        <v>11.192</v>
+        <v>7.034</v>
+      </c>
+      <c r="J3">
+        <v>7.138</v>
+      </c>
+      <c r="L3">
+        <v>7.278</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>6.78</v>
+      </c>
+      <c r="C4">
+        <v>7.06</v>
+      </c>
       <c r="D4">
-        <v>12.895</v>
+        <v>6.95</v>
       </c>
       <c r="E4">
-        <v>11.85</v>
+        <v>6.919</v>
       </c>
       <c r="F4">
-        <v>11.709</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>12.065</v>
+        <v>7.057</v>
+      </c>
+      <c r="H4">
+        <v>7.11</v>
       </c>
       <c r="I4">
-        <v>12.162</v>
+        <v>7.219</v>
+      </c>
+      <c r="J4">
+        <v>7.268</v>
+      </c>
+      <c r="L4">
+        <v>7.336</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>5.37</v>
+      </c>
+      <c r="C5">
+        <v>5.82</v>
+      </c>
       <c r="D5">
-        <v>14.16</v>
+        <v>6.288</v>
       </c>
       <c r="E5">
-        <v>13.815</v>
+        <v>6.414</v>
       </c>
       <c r="F5">
-        <v>13.345</v>
+        <v>6.874</v>
       </c>
       <c r="G5">
-        <v>13.24</v>
+        <v>7.198</v>
+      </c>
+      <c r="H5">
+        <v>7.335</v>
       </c>
       <c r="I5">
-        <v>13.345</v>
+        <v>7.449</v>
+      </c>
+      <c r="J5">
+        <v>7.63</v>
+      </c>
+      <c r="L5">
+        <v>7.758</v>
       </c>
     </row>
   </sheetData>
@@ -2070,34 +2010,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3.642</v>
       </c>
       <c r="C2">
-        <v>5.1</v>
+        <v>3.694</v>
       </c>
       <c r="D2">
-        <v>5.17</v>
+        <v>3.674</v>
       </c>
       <c r="E2">
-        <v>4.58</v>
+        <v>3.312</v>
       </c>
       <c r="F2">
-        <v>4.244</v>
+        <v>3.089</v>
       </c>
       <c r="G2">
-        <v>3.72</v>
+        <v>2.915</v>
       </c>
       <c r="H2">
-        <v>3.487</v>
+        <v>2.8605</v>
       </c>
       <c r="I2">
-        <v>3.349</v>
+        <v>3.011</v>
+      </c>
+      <c r="J2">
+        <v>3.234</v>
       </c>
       <c r="K2">
-        <v>3.368</v>
+        <v>3.333</v>
       </c>
       <c r="L2">
-        <v>3.226</v>
+        <v>3.384</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2105,34 +2048,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.9</v>
+        <v>3.412</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>3.525</v>
       </c>
       <c r="D3">
-        <v>5.1</v>
+        <v>3.641</v>
       </c>
       <c r="E3">
-        <v>4.49</v>
+        <v>3.282</v>
       </c>
       <c r="F3">
-        <v>4.09</v>
+        <v>3.075</v>
       </c>
       <c r="G3">
-        <v>3.688</v>
+        <v>2.928</v>
       </c>
       <c r="H3">
-        <v>3.498</v>
+        <v>2.8959</v>
       </c>
       <c r="I3">
-        <v>3.375</v>
+        <v>3.032</v>
+      </c>
+      <c r="J3">
+        <v>3.268</v>
       </c>
       <c r="K3">
-        <v>3.376</v>
+        <v>3.389</v>
       </c>
       <c r="L3">
-        <v>3.252</v>
+        <v>3.446</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2140,34 +2086,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.41</v>
+        <v>2.934</v>
       </c>
       <c r="C4">
-        <v>4.45</v>
+        <v>3.093</v>
       </c>
       <c r="D4">
-        <v>4.39</v>
+        <v>3.287</v>
       </c>
       <c r="E4">
-        <v>3.662</v>
+        <v>2.886</v>
       </c>
       <c r="F4">
-        <v>3.45</v>
+        <v>2.76</v>
       </c>
       <c r="G4">
-        <v>2.946</v>
+        <v>2.724</v>
       </c>
       <c r="H4">
-        <v>2.829</v>
+        <v>2.726</v>
       </c>
       <c r="I4">
-        <v>2.851</v>
+        <v>2.885</v>
+      </c>
+      <c r="J4">
+        <v>3.2</v>
       </c>
       <c r="K4">
-        <v>3.062</v>
+        <v>3.292</v>
       </c>
       <c r="L4">
-        <v>2.977</v>
+        <v>3.259</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2175,34 +2124,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.59</v>
+        <v>-0.182</v>
       </c>
       <c r="C5">
-        <v>2.96</v>
+        <v>0.157</v>
       </c>
       <c r="D5">
-        <v>3.38</v>
+        <v>0.41</v>
       </c>
       <c r="E5">
-        <v>3.269</v>
+        <v>0.571</v>
       </c>
       <c r="F5">
-        <v>3.231</v>
+        <v>0.92</v>
       </c>
       <c r="G5">
-        <v>3.135</v>
+        <v>1.234</v>
       </c>
       <c r="H5">
-        <v>3.113</v>
+        <v>1.4177</v>
       </c>
       <c r="I5">
-        <v>3.142</v>
+        <v>1.835</v>
+      </c>
+      <c r="J5">
+        <v>2.167</v>
       </c>
       <c r="K5">
-        <v>3.181</v>
+        <v>2.287</v>
       </c>
       <c r="L5">
-        <v>3.051</v>
+        <v>2.384</v>
       </c>
     </row>
   </sheetData>
@@ -2260,128 +2212,152 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>3.49</v>
+      </c>
+      <c r="C2">
+        <v>3.557</v>
+      </c>
       <c r="D2">
-        <v>1.803</v>
+        <v>3.656</v>
       </c>
       <c r="E2">
-        <v>2.095</v>
+        <v>3.25</v>
       </c>
       <c r="F2">
-        <v>2.232</v>
+        <v>2.947</v>
       </c>
       <c r="G2">
-        <v>2.427</v>
+        <v>2.592</v>
       </c>
       <c r="H2">
-        <v>2.616</v>
+        <v>2.454</v>
       </c>
       <c r="I2">
-        <v>2.694</v>
+        <v>2.454</v>
       </c>
       <c r="J2">
-        <v>2.776</v>
+        <v>2.581</v>
       </c>
       <c r="K2">
-        <v>3.056</v>
+        <v>2.583</v>
       </c>
       <c r="L2">
-        <v>3.036</v>
+        <v>2.501</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>3.323</v>
+      </c>
+      <c r="C3">
+        <v>3.517</v>
+      </c>
       <c r="D3">
-        <v>1.86</v>
+        <v>3.642</v>
       </c>
       <c r="E3">
-        <v>2.124</v>
+        <v>3.271</v>
       </c>
       <c r="F3">
-        <v>2.25</v>
+        <v>2.992</v>
       </c>
       <c r="G3">
-        <v>2.44</v>
+        <v>2.655</v>
       </c>
       <c r="H3">
-        <v>2.634</v>
+        <v>2.496</v>
       </c>
       <c r="I3">
-        <v>2.69</v>
+        <v>2.488</v>
       </c>
       <c r="J3">
-        <v>2.808</v>
+        <v>2.598</v>
       </c>
       <c r="K3">
-        <v>3.15</v>
+        <v>2.596</v>
       </c>
       <c r="L3">
-        <v>3.06</v>
+        <v>2.498</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>2.784</v>
+      </c>
+      <c r="C4">
+        <v>3.016</v>
+      </c>
       <c r="D4">
-        <v>2.205</v>
+        <v>3.127</v>
       </c>
       <c r="E4">
-        <v>2.38</v>
+        <v>2.653</v>
       </c>
       <c r="F4">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="G4">
-        <v>2.686</v>
+        <v>2.24</v>
       </c>
       <c r="H4">
-        <v>2.84</v>
+        <v>2.181</v>
       </c>
       <c r="I4">
-        <v>2.866</v>
+        <v>2.251</v>
       </c>
       <c r="J4">
-        <v>3.041</v>
+        <v>2.42</v>
       </c>
       <c r="K4">
-        <v>3.272</v>
+        <v>2.417</v>
       </c>
       <c r="L4">
-        <v>3.255</v>
+        <v>2.366</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>-0.194</v>
+      </c>
+      <c r="C5">
+        <v>0.045</v>
+      </c>
       <c r="D5">
-        <v>1.858</v>
+        <v>0.46</v>
       </c>
       <c r="E5">
-        <v>2.22</v>
+        <v>0.613</v>
       </c>
       <c r="F5">
-        <v>2.391</v>
+        <v>0.647</v>
       </c>
       <c r="G5">
-        <v>2.575</v>
+        <v>1.017</v>
       </c>
       <c r="H5">
-        <v>2.778</v>
+        <v>1.033</v>
       </c>
       <c r="I5">
-        <v>2.797</v>
+        <v>1.26</v>
       </c>
       <c r="J5">
-        <v>3.085</v>
+        <v>1.466</v>
       </c>
       <c r="K5">
-        <v>3.375</v>
+        <v>1.433</v>
       </c>
       <c r="L5">
-        <v>3.31</v>
+        <v>1.461</v>
       </c>
     </row>
   </sheetData>
@@ -2439,152 +2415,92 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>3.608</v>
-      </c>
-      <c r="C2">
-        <v>3.739</v>
-      </c>
       <c r="D2">
-        <v>3.75</v>
+        <v>5.728</v>
       </c>
       <c r="E2">
-        <v>3.321</v>
+        <v>5.359</v>
       </c>
       <c r="F2">
-        <v>3.119</v>
+        <v>5.283</v>
       </c>
       <c r="G2">
-        <v>2.941</v>
+        <v>5.298</v>
       </c>
       <c r="H2">
-        <v>2.873</v>
+        <v>5.289</v>
       </c>
       <c r="I2">
-        <v>3.013</v>
-      </c>
-      <c r="J2">
-        <v>3.237</v>
-      </c>
-      <c r="K2">
-        <v>3.341</v>
-      </c>
-      <c r="L2">
-        <v>3.381</v>
+        <v>5.475</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>3.3</v>
-      </c>
-      <c r="C3">
-        <v>3.455</v>
-      </c>
       <c r="D3">
-        <v>3.466</v>
+        <v>6.139</v>
       </c>
       <c r="E3">
-        <v>3.129</v>
+        <v>5.975</v>
       </c>
       <c r="F3">
-        <v>2.94</v>
+        <v>5.937</v>
       </c>
       <c r="G3">
-        <v>2.809</v>
+        <v>5.939</v>
       </c>
       <c r="H3">
-        <v>2.7804</v>
+        <v>5.921</v>
       </c>
       <c r="I3">
-        <v>2.952</v>
-      </c>
-      <c r="J3">
-        <v>3.24</v>
-      </c>
-      <c r="K3">
-        <v>3.371</v>
-      </c>
-      <c r="L3">
-        <v>3.435</v>
+        <v>6.049</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>2.965</v>
-      </c>
-      <c r="C4">
-        <v>3.071</v>
-      </c>
       <c r="D4">
-        <v>3.236</v>
+        <v>6.14</v>
       </c>
       <c r="E4">
-        <v>2.784</v>
+        <v>6.128</v>
       </c>
       <c r="F4">
-        <v>2.672</v>
+        <v>6.107</v>
       </c>
       <c r="G4">
-        <v>2.641</v>
+        <v>6.144</v>
       </c>
       <c r="H4">
-        <v>2.6498</v>
+        <v>6.114</v>
       </c>
       <c r="I4">
-        <v>2.825</v>
-      </c>
-      <c r="J4">
-        <v>3.153</v>
-      </c>
-      <c r="K4">
-        <v>3.248</v>
-      </c>
-      <c r="L4">
-        <v>3.216</v>
+        <v>6.198</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>-0.225</v>
-      </c>
-      <c r="C5">
-        <v>0.076</v>
-      </c>
       <c r="D5">
-        <v>0.45</v>
+        <v>6.643</v>
       </c>
       <c r="E5">
-        <v>0.44</v>
+        <v>7.727</v>
       </c>
       <c r="F5">
-        <v>0.778</v>
+        <v>7.157</v>
       </c>
       <c r="G5">
-        <v>1.112</v>
+        <v>6.913</v>
       </c>
       <c r="H5">
-        <v>1.3222</v>
+        <v>6.61</v>
       </c>
       <c r="I5">
-        <v>1.685</v>
-      </c>
-      <c r="J5">
-        <v>2.096</v>
-      </c>
-      <c r="K5">
-        <v>2.226</v>
-      </c>
-      <c r="L5">
-        <v>2.308</v>
+        <v>6.589</v>
       </c>
     </row>
   </sheetData>
@@ -2642,152 +2558,80 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>3.552</v>
-      </c>
-      <c r="C2">
-        <v>3.661</v>
-      </c>
       <c r="D2">
-        <v>3.733</v>
+        <v>11.705</v>
       </c>
       <c r="E2">
-        <v>3.232</v>
+        <v>10.019</v>
       </c>
       <c r="F2">
-        <v>2.952</v>
+        <v>10.353</v>
       </c>
       <c r="G2">
-        <v>2.603</v>
-      </c>
-      <c r="H2">
-        <v>2.461</v>
+        <v>10.66</v>
       </c>
       <c r="I2">
-        <v>2.457</v>
-      </c>
-      <c r="J2">
-        <v>2.587</v>
-      </c>
-      <c r="K2">
-        <v>2.589</v>
-      </c>
-      <c r="L2">
-        <v>2.513</v>
+        <v>10.838</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>3.239</v>
-      </c>
-      <c r="C3">
-        <v>3.417</v>
-      </c>
       <c r="D3">
-        <v>3.49</v>
+        <v>12.505</v>
       </c>
       <c r="E3">
-        <v>3.163</v>
+        <v>10.955</v>
       </c>
       <c r="F3">
-        <v>2.884</v>
+        <v>10.612</v>
       </c>
       <c r="G3">
-        <v>2.59</v>
-      </c>
-      <c r="H3">
-        <v>2.457</v>
+        <v>10.975</v>
       </c>
       <c r="I3">
-        <v>2.461</v>
-      </c>
-      <c r="J3">
-        <v>2.613</v>
-      </c>
-      <c r="K3">
-        <v>2.61</v>
-      </c>
-      <c r="L3">
-        <v>2.53</v>
+        <v>11.192</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>2.72</v>
-      </c>
-      <c r="C4">
-        <v>3.14</v>
-      </c>
       <c r="D4">
-        <v>3.28</v>
+        <v>12.91</v>
       </c>
       <c r="E4">
-        <v>2.891</v>
+        <v>11.97</v>
       </c>
       <c r="F4">
-        <v>2.684</v>
+        <v>12.05</v>
       </c>
       <c r="G4">
-        <v>2.485</v>
-      </c>
-      <c r="H4">
-        <v>2.405</v>
+        <v>12.44</v>
       </c>
       <c r="I4">
-        <v>2.444</v>
-      </c>
-      <c r="J4">
-        <v>2.592</v>
-      </c>
-      <c r="K4">
-        <v>2.579</v>
-      </c>
-      <c r="L4">
-        <v>2.504</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>-0.222</v>
-      </c>
-      <c r="C5">
-        <v>0.008999999999999999</v>
-      </c>
       <c r="D5">
-        <v>0.45</v>
+        <v>14.165</v>
       </c>
       <c r="E5">
-        <v>0.501</v>
+        <v>13.725</v>
       </c>
       <c r="F5">
-        <v>0.537</v>
+        <v>13.525</v>
       </c>
       <c r="G5">
-        <v>0.874</v>
-      </c>
-      <c r="H5">
-        <v>0.915</v>
+        <v>13.53</v>
       </c>
       <c r="I5">
-        <v>1.179</v>
-      </c>
-      <c r="J5">
-        <v>1.384</v>
-      </c>
-      <c r="K5">
-        <v>1.363</v>
-      </c>
-      <c r="L5">
-        <v>1.38</v>
+        <v>13.7</v>
       </c>
     </row>
   </sheetData>
@@ -2845,140 +2689,104 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>6.73</v>
-      </c>
-      <c r="C2">
-        <v>6.87</v>
-      </c>
-      <c r="D2">
-        <v>6.906</v>
-      </c>
       <c r="E2">
-        <v>6.991</v>
+        <v>3.008</v>
       </c>
       <c r="F2">
-        <v>7.057</v>
+        <v>2.904</v>
       </c>
       <c r="G2">
-        <v>7.064</v>
+        <v>2.951</v>
       </c>
       <c r="H2">
-        <v>7.086</v>
+        <v>3.009</v>
       </c>
       <c r="I2">
-        <v>7.087</v>
+        <v>3.171</v>
       </c>
       <c r="J2">
-        <v>7.211</v>
+        <v>3.53</v>
       </c>
       <c r="L2">
-        <v>7.32</v>
+        <v>3.524</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>6.75</v>
-      </c>
-      <c r="C3">
-        <v>6.85</v>
-      </c>
-      <c r="D3">
-        <v>6.828</v>
-      </c>
       <c r="E3">
-        <v>6.862</v>
+        <v>2.947</v>
       </c>
       <c r="F3">
-        <v>6.93</v>
+        <v>2.965</v>
       </c>
       <c r="G3">
-        <v>6.948</v>
+        <v>2.926</v>
       </c>
       <c r="H3">
-        <v>7.004</v>
+        <v>2.989</v>
       </c>
       <c r="I3">
-        <v>7.016</v>
+        <v>3.166</v>
       </c>
       <c r="J3">
-        <v>7.112</v>
+        <v>3.575</v>
       </c>
       <c r="L3">
-        <v>7.225</v>
+        <v>3.555</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>7.18</v>
-      </c>
-      <c r="C4">
-        <v>7.26</v>
-      </c>
-      <c r="D4">
-        <v>7.192</v>
-      </c>
       <c r="E4">
-        <v>7.063</v>
+        <v>2.754</v>
       </c>
       <c r="F4">
-        <v>7.148</v>
+        <v>2.743</v>
       </c>
       <c r="G4">
-        <v>7.184</v>
+        <v>2.809</v>
       </c>
       <c r="H4">
-        <v>7.198</v>
+        <v>2.963</v>
       </c>
       <c r="I4">
-        <v>7.296</v>
+        <v>3.247</v>
       </c>
       <c r="J4">
-        <v>7.342</v>
+        <v>3.57</v>
       </c>
       <c r="L4">
-        <v>7.366</v>
+        <v>3.662</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>5.22</v>
-      </c>
-      <c r="C5">
-        <v>5.75</v>
-      </c>
-      <c r="D5">
-        <v>6.253</v>
-      </c>
       <c r="E5">
-        <v>6.463</v>
+        <v>0.927</v>
       </c>
       <c r="F5">
-        <v>6.822</v>
+        <v>1.236</v>
       </c>
       <c r="G5">
-        <v>7.149</v>
+        <v>1.651</v>
       </c>
       <c r="H5">
-        <v>7.27</v>
+        <v>1.861</v>
       </c>
       <c r="I5">
-        <v>7.384</v>
+        <v>2.402</v>
       </c>
       <c r="J5">
-        <v>7.6</v>
+        <v>2.559</v>
       </c>
       <c r="L5">
-        <v>7.688</v>
+        <v>2.796</v>
       </c>
     </row>
   </sheetData>
@@ -3037,31 +2845,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.67</v>
+        <v>5.582</v>
       </c>
       <c r="C2">
-        <v>3.655</v>
+        <v>5.758</v>
       </c>
       <c r="D2">
-        <v>3.842</v>
+        <v>5.27</v>
       </c>
       <c r="E2">
-        <v>3.805</v>
+        <v>5.0275</v>
       </c>
       <c r="F2">
-        <v>3.69</v>
+        <v>4.7215</v>
       </c>
       <c r="G2">
-        <v>3.719</v>
+        <v>4.395</v>
       </c>
       <c r="H2">
-        <v>3.905</v>
+        <v>4.2845</v>
       </c>
       <c r="I2">
-        <v>4.147</v>
+        <v>4.324</v>
       </c>
       <c r="J2">
-        <v>4.324</v>
+        <v>4.515</v>
+      </c>
+      <c r="K2">
+        <v>4.52</v>
+      </c>
+      <c r="L2">
+        <v>4.471</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3069,31 +2883,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.298</v>
+        <v>5.225</v>
       </c>
       <c r="C3">
-        <v>3.508</v>
+        <v>5.581</v>
       </c>
       <c r="D3">
-        <v>3.614</v>
+        <v>5.355</v>
       </c>
       <c r="E3">
-        <v>3.534</v>
+        <v>5.253</v>
       </c>
       <c r="F3">
-        <v>3.438</v>
+        <v>5.051</v>
       </c>
       <c r="G3">
-        <v>3.527</v>
+        <v>4.664</v>
       </c>
       <c r="H3">
-        <v>3.782</v>
+        <v>4.405</v>
       </c>
       <c r="I3">
-        <v>4.067</v>
+        <v>4.374</v>
       </c>
       <c r="J3">
-        <v>4.304</v>
+        <v>4.505</v>
+      </c>
+      <c r="K3">
+        <v>4.465</v>
+      </c>
+      <c r="L3">
+        <v>4.372</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3101,31 +2921,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2.866</v>
+        <v>4.469</v>
       </c>
       <c r="C4">
-        <v>3.103</v>
+        <v>4.781</v>
       </c>
       <c r="D4">
-        <v>3.19</v>
+        <v>4.244</v>
       </c>
       <c r="E4">
-        <v>3.082</v>
+        <v>3.726</v>
       </c>
       <c r="F4">
-        <v>3.271</v>
+        <v>3.662</v>
       </c>
       <c r="G4">
-        <v>3.504</v>
+        <v>3.533</v>
       </c>
       <c r="H4">
-        <v>3.753</v>
+        <v>3.58</v>
       </c>
       <c r="I4">
-        <v>4.029</v>
+        <v>3.705</v>
       </c>
       <c r="J4">
-        <v>4.262</v>
+        <v>4.001</v>
+      </c>
+      <c r="K4">
+        <v>4.087</v>
+      </c>
+      <c r="L4">
+        <v>4.135</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3133,31 +2959,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.271</v>
+        <v>1.775</v>
       </c>
       <c r="C5">
-        <v>0.23</v>
+        <v>2.03</v>
       </c>
       <c r="D5">
-        <v>0.74</v>
+        <v>2.233</v>
       </c>
       <c r="E5">
-        <v>1.317</v>
+        <v>2.1</v>
       </c>
       <c r="F5">
-        <v>2.068</v>
+        <v>1.944</v>
       </c>
       <c r="G5">
-        <v>2.506</v>
+        <v>1.921</v>
       </c>
       <c r="H5">
-        <v>2.91</v>
+        <v>2.012</v>
       </c>
       <c r="I5">
-        <v>3.407</v>
+        <v>2.144</v>
       </c>
       <c r="J5">
-        <v>3.443</v>
+        <v>2.66</v>
+      </c>
+      <c r="K5">
+        <v>2.708</v>
+      </c>
+      <c r="L5">
+        <v>2.663</v>
       </c>
     </row>
   </sheetData>
@@ -3216,37 +3048,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.137</v>
+        <v>-0.126</v>
       </c>
       <c r="C2">
-        <v>-0.201</v>
+        <v>-0.197</v>
       </c>
       <c r="D2">
-        <v>-0.13</v>
+        <v>-0.129</v>
       </c>
       <c r="E2">
-        <v>-0.04</v>
+        <v>-0.042</v>
       </c>
       <c r="F2">
-        <v>-0.023</v>
+        <v>-0.036</v>
       </c>
       <c r="G2">
-        <v>0.125</v>
+        <v>0.108</v>
       </c>
       <c r="H2">
-        <v>0.322</v>
+        <v>0.28</v>
       </c>
       <c r="I2">
-        <v>0.474</v>
+        <v>0.458</v>
       </c>
       <c r="J2">
-        <v>0.879</v>
+        <v>0.854</v>
       </c>
       <c r="K2">
-        <v>1.118</v>
+        <v>1.098</v>
       </c>
       <c r="L2">
-        <v>1.368</v>
+        <v>1.345</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3254,37 +3086,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-0.156</v>
+        <v>-0.147</v>
       </c>
       <c r="C3">
-        <v>-0.171</v>
+        <v>-0.167</v>
       </c>
       <c r="D3">
-        <v>-0.15</v>
+        <v>-0.139</v>
       </c>
       <c r="E3">
-        <v>-0.07000000000000001</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="F3">
-        <v>-0.058</v>
+        <v>-0.045</v>
       </c>
       <c r="G3">
-        <v>0.067</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H3">
-        <v>0.184</v>
+        <v>0.187</v>
       </c>
       <c r="I3">
-        <v>0.389</v>
+        <v>0.371</v>
       </c>
       <c r="J3">
-        <v>0.737</v>
+        <v>0.752</v>
       </c>
       <c r="K3">
-        <v>0.992</v>
+        <v>0.981</v>
       </c>
       <c r="L3">
-        <v>1.246</v>
+        <v>1.217</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3292,37 +3124,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.171</v>
+        <v>-0.186</v>
       </c>
       <c r="C4">
-        <v>-0.13</v>
+        <v>-0.155</v>
       </c>
       <c r="D4">
-        <v>-0.117</v>
+        <v>-0.124</v>
       </c>
       <c r="E4">
-        <v>-0.04</v>
+        <v>-0.038</v>
       </c>
       <c r="F4">
-        <v>-0.003</v>
+        <v>-0.006</v>
       </c>
       <c r="G4">
-        <v>0.167</v>
+        <v>0.159</v>
       </c>
       <c r="H4">
-        <v>0.319</v>
+        <v>0.295</v>
       </c>
       <c r="I4">
-        <v>0.476</v>
+        <v>0.47</v>
       </c>
       <c r="J4">
-        <v>0.902</v>
+        <v>0.901</v>
       </c>
       <c r="K4">
-        <v>1.077</v>
+        <v>1.133</v>
       </c>
       <c r="L4">
-        <v>1.319</v>
+        <v>1.359</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3330,37 +3162,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.14</v>
+        <v>-0.149</v>
       </c>
       <c r="C5">
-        <v>-0.192</v>
+        <v>-0.148</v>
       </c>
       <c r="D5">
-        <v>-0.109</v>
+        <v>-0.135</v>
       </c>
       <c r="E5">
-        <v>-0.06</v>
+        <v>-0.075</v>
       </c>
       <c r="F5">
-        <v>-0.055</v>
+        <v>-0.064</v>
       </c>
       <c r="G5">
-        <v>0.032</v>
+        <v>0.028</v>
       </c>
       <c r="H5">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I5">
-        <v>0.234</v>
+        <v>0.243</v>
       </c>
       <c r="J5">
-        <v>0.616</v>
+        <v>0.639</v>
       </c>
       <c r="K5">
-        <v>0.896</v>
+        <v>0.92</v>
       </c>
       <c r="L5">
-        <v>1.241</v>
+        <v>1.276</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -483,34 +483,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.125</v>
+        <v>5.08</v>
       </c>
       <c r="C2">
-        <v>5.213</v>
+        <v>5.18</v>
       </c>
       <c r="D2">
-        <v>5.201</v>
+        <v>5.23</v>
       </c>
       <c r="E2">
-        <v>4.664</v>
+        <v>4.579</v>
       </c>
       <c r="F2">
-        <v>4.434</v>
+        <v>4.329</v>
       </c>
       <c r="G2">
-        <v>3.899</v>
+        <v>3.872</v>
       </c>
       <c r="H2">
-        <v>3.646</v>
+        <v>3.643</v>
       </c>
       <c r="I2">
-        <v>3.514</v>
+        <v>3.553</v>
       </c>
       <c r="K2">
-        <v>3.487</v>
+        <v>3.592</v>
       </c>
       <c r="L2">
-        <v>3.337</v>
+        <v>3.453</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -518,34 +518,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.9</v>
+        <v>4.93</v>
       </c>
       <c r="C3">
-        <v>5.03</v>
+        <v>5.07</v>
       </c>
       <c r="D3">
-        <v>5.14</v>
+        <v>5.17</v>
       </c>
       <c r="E3">
-        <v>4.572</v>
+        <v>4.643</v>
       </c>
       <c r="F3">
-        <v>4.146</v>
+        <v>4.262</v>
       </c>
       <c r="G3">
-        <v>3.697</v>
+        <v>3.744</v>
       </c>
       <c r="H3">
-        <v>3.456</v>
+        <v>3.488</v>
       </c>
       <c r="I3">
-        <v>3.353</v>
+        <v>3.315</v>
       </c>
       <c r="K3">
-        <v>3.345</v>
+        <v>3.254</v>
       </c>
       <c r="L3">
-        <v>3.208</v>
+        <v>3.114</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -553,34 +553,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.4</v>
+        <v>4.43</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="D4">
-        <v>4.46</v>
+        <v>4.43</v>
       </c>
       <c r="E4">
-        <v>3.8</v>
+        <v>3.637</v>
       </c>
       <c r="F4">
-        <v>3.564</v>
+        <v>3.489</v>
       </c>
       <c r="G4">
-        <v>3.064</v>
+        <v>2.99</v>
       </c>
       <c r="H4">
-        <v>2.922</v>
+        <v>2.841</v>
       </c>
       <c r="I4">
-        <v>2.911</v>
+        <v>2.863</v>
       </c>
       <c r="K4">
-        <v>3.097</v>
+        <v>3.056</v>
       </c>
       <c r="L4">
-        <v>2.995</v>
+        <v>2.983</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -588,34 +588,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.69</v>
+        <v>2.87</v>
       </c>
       <c r="C5">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="D5">
-        <v>3.45</v>
+        <v>3.43</v>
       </c>
       <c r="E5">
-        <v>3.298</v>
+        <v>3.249</v>
       </c>
       <c r="F5">
-        <v>3.265</v>
+        <v>3.155</v>
       </c>
       <c r="G5">
-        <v>3.143</v>
+        <v>2.839</v>
       </c>
       <c r="H5">
-        <v>3.108</v>
+        <v>2.787</v>
       </c>
       <c r="I5">
-        <v>3.117</v>
+        <v>2.748</v>
       </c>
       <c r="K5">
-        <v>3.14</v>
+        <v>2.878</v>
       </c>
       <c r="L5">
-        <v>3.036</v>
+        <v>2.822</v>
       </c>
     </row>
   </sheetData>
@@ -674,22 +674,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>10.21</v>
+        <v>11.31</v>
       </c>
       <c r="E2">
-        <v>9.055</v>
+        <v>9.66</v>
       </c>
       <c r="F2">
-        <v>10.47</v>
+        <v>11.08</v>
       </c>
       <c r="G2">
-        <v>11.155</v>
+        <v>10.29</v>
       </c>
       <c r="I2">
-        <v>11.455</v>
+        <v>11.58</v>
       </c>
       <c r="J2">
-        <v>11.675</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -697,22 +697,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>9.27</v>
+        <v>9.6</v>
       </c>
       <c r="E3">
-        <v>9.84</v>
+        <v>10.07</v>
       </c>
       <c r="F3">
-        <v>9.41</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="G3">
-        <v>10.29</v>
+        <v>10.64</v>
       </c>
       <c r="I3">
-        <v>10.96</v>
+        <v>11.19</v>
       </c>
       <c r="J3">
-        <v>11.28</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -720,22 +720,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>10.52</v>
+        <v>11.9</v>
       </c>
       <c r="E4">
-        <v>10.73</v>
+        <v>7.88</v>
       </c>
       <c r="F4">
-        <v>9.050000000000001</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="G4">
-        <v>10.36</v>
+        <v>9.44</v>
       </c>
       <c r="I4">
-        <v>10.47</v>
+        <v>10.58</v>
       </c>
       <c r="J4">
-        <v>11.02</v>
+        <v>11.07</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -743,22 +743,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>11.33</v>
+        <v>11.12</v>
       </c>
       <c r="E5">
-        <v>9.289999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="F5">
-        <v>8.48</v>
+        <v>7.93</v>
       </c>
       <c r="G5">
-        <v>9.449999999999999</v>
+        <v>9</v>
       </c>
       <c r="I5">
-        <v>9.380000000000001</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="J5">
-        <v>9.550000000000001</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -817,25 +817,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.216</v>
+        <v>4.05</v>
       </c>
       <c r="E2">
-        <v>4.131</v>
+        <v>3.903</v>
       </c>
       <c r="F2">
-        <v>3.989</v>
+        <v>3.79</v>
       </c>
       <c r="G2">
-        <v>3.898</v>
+        <v>3.79</v>
       </c>
       <c r="H2">
-        <v>3.962</v>
+        <v>3.927</v>
       </c>
       <c r="I2">
-        <v>4.014</v>
+        <v>4.059</v>
       </c>
       <c r="J2">
-        <v>4.155</v>
+        <v>4.237</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -843,25 +843,25 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.292</v>
+        <v>4.38</v>
       </c>
       <c r="E3">
-        <v>4.133</v>
+        <v>4.3</v>
       </c>
       <c r="F3">
-        <v>3.956</v>
+        <v>4.151</v>
       </c>
       <c r="G3">
-        <v>3.875</v>
+        <v>4.103</v>
       </c>
       <c r="H3">
-        <v>3.902</v>
+        <v>4.15</v>
       </c>
       <c r="I3">
-        <v>3.939</v>
+        <v>4.195</v>
       </c>
       <c r="J3">
-        <v>4.082</v>
+        <v>4.326</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -869,25 +869,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>3.416</v>
+        <v>3.592</v>
       </c>
       <c r="E4">
-        <v>3.056</v>
+        <v>3.311</v>
       </c>
       <c r="F4">
-        <v>3.021</v>
+        <v>3.144</v>
       </c>
       <c r="G4">
-        <v>3.094</v>
+        <v>3.18</v>
       </c>
       <c r="H4">
-        <v>3.218</v>
+        <v>3.299</v>
       </c>
       <c r="I4">
-        <v>3.348</v>
+        <v>3.43</v>
       </c>
       <c r="J4">
-        <v>3.6</v>
+        <v>3.683</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -895,25 +895,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>2.655</v>
+        <v>2.622</v>
       </c>
       <c r="E5">
-        <v>3.042</v>
+        <v>2.747</v>
       </c>
       <c r="F5">
-        <v>3.271</v>
+        <v>2.859</v>
       </c>
       <c r="G5">
-        <v>3.372</v>
+        <v>2.922</v>
       </c>
       <c r="H5">
-        <v>3.467</v>
+        <v>3.014</v>
       </c>
       <c r="I5">
-        <v>3.578</v>
+        <v>3.116</v>
       </c>
       <c r="J5">
-        <v>3.722</v>
+        <v>3.317</v>
       </c>
     </row>
   </sheetData>
@@ -972,31 +972,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.566</v>
+        <v>3.494</v>
       </c>
       <c r="C2">
-        <v>3.592</v>
+        <v>3.486</v>
       </c>
       <c r="D2">
-        <v>3.812</v>
+        <v>3.806</v>
       </c>
       <c r="E2">
-        <v>3.769</v>
+        <v>3.724</v>
       </c>
       <c r="F2">
-        <v>3.671</v>
+        <v>3.61</v>
       </c>
       <c r="G2">
-        <v>3.705</v>
+        <v>3.708</v>
       </c>
       <c r="H2">
-        <v>3.868</v>
+        <v>3.945</v>
       </c>
       <c r="I2">
-        <v>4.115</v>
+        <v>4.226</v>
       </c>
       <c r="J2">
-        <v>4.292</v>
+        <v>4.459</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1004,31 +1004,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.282</v>
+        <v>3.651</v>
       </c>
       <c r="C3">
-        <v>3.57</v>
+        <v>3.569</v>
       </c>
       <c r="D3">
-        <v>3.739</v>
+        <v>3.912</v>
       </c>
       <c r="E3">
-        <v>3.747</v>
+        <v>3.942</v>
       </c>
       <c r="F3">
-        <v>3.625</v>
+        <v>3.828</v>
       </c>
       <c r="G3">
-        <v>3.683</v>
+        <v>3.835</v>
       </c>
       <c r="H3">
-        <v>3.881</v>
+        <v>3.979</v>
       </c>
       <c r="I3">
-        <v>4.129</v>
+        <v>4.203</v>
       </c>
       <c r="J3">
-        <v>4.341</v>
+        <v>4.348</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1036,31 +1036,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2.83</v>
+        <v>3.041</v>
       </c>
       <c r="C4">
-        <v>3.21</v>
+        <v>3.373</v>
       </c>
       <c r="D4">
-        <v>3.384</v>
+        <v>3.471</v>
       </c>
       <c r="E4">
-        <v>3.302</v>
+        <v>3.396</v>
       </c>
       <c r="F4">
-        <v>3.481</v>
+        <v>3.53</v>
       </c>
       <c r="G4">
-        <v>3.697</v>
+        <v>3.729</v>
       </c>
       <c r="H4">
-        <v>3.967</v>
+        <v>4.004</v>
       </c>
       <c r="I4">
-        <v>4.211</v>
+        <v>4.261</v>
       </c>
       <c r="J4">
-        <v>4.446</v>
+        <v>4.501</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1068,31 +1068,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.16</v>
+        <v>0.061</v>
       </c>
       <c r="C5">
-        <v>0.228</v>
+        <v>0.525</v>
       </c>
       <c r="D5">
-        <v>0.838</v>
+        <v>0.794</v>
       </c>
       <c r="E5">
-        <v>1.414</v>
+        <v>1.295</v>
       </c>
       <c r="F5">
-        <v>2.184</v>
+        <v>1.681</v>
       </c>
       <c r="G5">
-        <v>2.622</v>
+        <v>2.126</v>
       </c>
       <c r="H5">
-        <v>2.986</v>
+        <v>2.511</v>
       </c>
       <c r="I5">
-        <v>3.468</v>
+        <v>3.026</v>
       </c>
       <c r="J5">
-        <v>3.453</v>
+        <v>3.085</v>
       </c>
     </row>
   </sheetData>
@@ -1151,37 +1151,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="C2">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="D2">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="E2">
-        <v>1.128</v>
+        <v>1.117</v>
       </c>
       <c r="F2">
-        <v>1.09</v>
+        <v>1.082</v>
       </c>
       <c r="G2">
-        <v>0.966</v>
+        <v>1.014</v>
       </c>
       <c r="H2">
-        <v>0.956</v>
+        <v>1.007</v>
       </c>
       <c r="I2">
-        <v>0.944</v>
+        <v>1.036</v>
       </c>
       <c r="J2">
-        <v>0.922</v>
+        <v>1.065</v>
       </c>
       <c r="K2">
-        <v>0.906</v>
+        <v>1.052</v>
       </c>
       <c r="L2">
-        <v>0.883</v>
+        <v>1.072</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1192,34 +1192,34 @@
         <v>1.65</v>
       </c>
       <c r="C3">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="D3">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="E3">
-        <v>1.232</v>
+        <v>1.202</v>
       </c>
       <c r="F3">
-        <v>1.17</v>
+        <v>1.151</v>
       </c>
       <c r="G3">
-        <v>1.115</v>
+        <v>1.004</v>
       </c>
       <c r="H3">
-        <v>1.095</v>
+        <v>0.971</v>
       </c>
       <c r="I3">
-        <v>1.059</v>
+        <v>0.957</v>
       </c>
       <c r="J3">
-        <v>1.175</v>
+        <v>0.979</v>
       </c>
       <c r="K3">
-        <v>1.19</v>
+        <v>0.953</v>
       </c>
       <c r="L3">
-        <v>1.155</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1227,37 +1227,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="C4">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="D4">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="E4">
-        <v>1.093</v>
+        <v>1.177</v>
       </c>
       <c r="F4">
+        <v>1.236</v>
+      </c>
+      <c r="G4">
+        <v>1.166</v>
+      </c>
+      <c r="H4">
         <v>1.142</v>
       </c>
-      <c r="G4">
-        <v>1.128</v>
-      </c>
-      <c r="H4">
-        <v>1.053</v>
-      </c>
       <c r="I4">
-        <v>1.132</v>
+        <v>1.174</v>
       </c>
       <c r="J4">
-        <v>1.158</v>
+        <v>1.271</v>
       </c>
       <c r="K4">
-        <v>1.148</v>
+        <v>1.257</v>
       </c>
       <c r="L4">
-        <v>1.076</v>
+        <v>1.225</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1265,37 +1265,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.18</v>
+        <v>-0.01</v>
       </c>
       <c r="C5">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="D5">
         <v>0.6</v>
       </c>
       <c r="E5">
-        <v>0.15</v>
+        <v>0.138</v>
       </c>
       <c r="F5">
-        <v>0.285</v>
+        <v>0.141</v>
       </c>
       <c r="G5">
-        <v>0.511</v>
+        <v>0.313</v>
       </c>
       <c r="H5">
-        <v>0.637</v>
+        <v>0.377</v>
       </c>
       <c r="I5">
-        <v>0.836</v>
+        <v>0.542</v>
       </c>
       <c r="J5">
-        <v>1.072</v>
+        <v>0.77</v>
       </c>
       <c r="K5">
-        <v>1.168</v>
+        <v>0.831</v>
       </c>
       <c r="L5">
-        <v>1.169</v>
+        <v>0.907</v>
       </c>
     </row>
   </sheetData>
@@ -1354,31 +1354,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1.722</v>
+        <v>1.664</v>
       </c>
       <c r="E2">
         <v>2.053</v>
       </c>
       <c r="F2">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G2">
-        <v>2.397</v>
+        <v>2.428</v>
       </c>
       <c r="H2">
-        <v>2.589</v>
+        <v>2.623</v>
       </c>
       <c r="I2">
-        <v>2.67</v>
+        <v>2.678</v>
       </c>
       <c r="J2">
-        <v>2.744</v>
+        <v>2.822</v>
       </c>
       <c r="K2">
-        <v>3.017</v>
+        <v>3.058</v>
       </c>
       <c r="L2">
-        <v>3.015</v>
+        <v>3.008</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1386,31 +1386,31 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>1.87</v>
+        <v>1.823</v>
       </c>
       <c r="E3">
-        <v>2.148</v>
+        <v>2.116</v>
       </c>
       <c r="F3">
-        <v>2.271</v>
+        <v>2.242</v>
       </c>
       <c r="G3">
-        <v>2.445</v>
+        <v>2.435</v>
       </c>
       <c r="H3">
-        <v>2.653</v>
+        <v>2.642</v>
       </c>
       <c r="I3">
-        <v>2.699</v>
+        <v>2.705</v>
       </c>
       <c r="J3">
-        <v>2.78</v>
+        <v>2.771</v>
       </c>
       <c r="K3">
-        <v>3.143</v>
+        <v>3.13</v>
       </c>
       <c r="L3">
-        <v>3.054</v>
+        <v>3.045</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1418,31 +1418,31 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>2.195</v>
+        <v>2.132</v>
       </c>
       <c r="E4">
-        <v>2.363</v>
+        <v>2.356</v>
       </c>
       <c r="F4">
-        <v>2.491</v>
+        <v>2.481</v>
       </c>
       <c r="G4">
-        <v>2.665</v>
+        <v>2.661</v>
       </c>
       <c r="H4">
-        <v>2.813</v>
+        <v>2.801</v>
       </c>
       <c r="I4">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="J4">
-        <v>2.961</v>
+        <v>3.063</v>
       </c>
       <c r="K4">
-        <v>3.264</v>
+        <v>3.194</v>
       </c>
       <c r="L4">
-        <v>3.227</v>
+        <v>3.181</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1450,31 +1450,31 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1.763</v>
+        <v>1.585</v>
       </c>
       <c r="E5">
-        <v>2.185</v>
+        <v>2.018</v>
       </c>
       <c r="F5">
-        <v>2.363</v>
+        <v>2.245</v>
       </c>
       <c r="G5">
-        <v>2.553</v>
+        <v>2.47</v>
       </c>
       <c r="H5">
-        <v>2.763</v>
+        <v>2.7</v>
       </c>
       <c r="I5">
-        <v>2.78</v>
+        <v>2.738</v>
       </c>
       <c r="J5">
-        <v>3.072</v>
+        <v>2.982</v>
       </c>
       <c r="K5">
-        <v>3.337</v>
+        <v>3.345</v>
       </c>
       <c r="L5">
-        <v>3.273</v>
+        <v>3.255</v>
       </c>
     </row>
   </sheetData>
@@ -1536,16 +1536,16 @@
         <v>8.85</v>
       </c>
       <c r="G2">
-        <v>9.015000000000001</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="I2">
-        <v>10.355</v>
+        <v>10.26</v>
       </c>
       <c r="K2">
-        <v>12.285</v>
+        <v>12.22</v>
       </c>
       <c r="L2">
-        <v>12.28</v>
+        <v>12.195</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1553,19 +1553,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>9.25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G3">
-        <v>9.51</v>
+        <v>9.234999999999999</v>
       </c>
       <c r="I3">
-        <v>10.78</v>
+        <v>10.54</v>
       </c>
       <c r="K3">
-        <v>12.34</v>
+        <v>12.32</v>
       </c>
       <c r="L3">
-        <v>12.305</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1573,19 +1573,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8.4</v>
+        <v>8.65</v>
       </c>
       <c r="G4">
-        <v>8.43</v>
+        <v>8.855</v>
       </c>
       <c r="I4">
-        <v>9.84</v>
+        <v>10.225</v>
       </c>
       <c r="K4">
-        <v>11.68</v>
+        <v>11.945</v>
       </c>
       <c r="L4">
-        <v>11.71</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1593,19 +1593,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="G5">
-        <v>9.4</v>
+        <v>8.904999999999999</v>
       </c>
       <c r="I5">
-        <v>10.95</v>
+        <v>10.285</v>
       </c>
       <c r="K5">
-        <v>11.88</v>
+        <v>11.15</v>
       </c>
       <c r="L5">
-        <v>11.825</v>
+        <v>11.09</v>
       </c>
     </row>
   </sheetData>
@@ -1664,25 +1664,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>13.584</v>
+        <v>13.873</v>
       </c>
       <c r="C2">
-        <v>13.585</v>
+        <v>14.943</v>
       </c>
       <c r="D2">
         <v>7.77</v>
       </c>
       <c r="E2">
-        <v>10.28</v>
+        <v>16.07</v>
       </c>
       <c r="F2">
-        <v>14.585</v>
+        <v>15.72</v>
       </c>
       <c r="G2">
-        <v>18.525</v>
+        <v>19.29</v>
       </c>
       <c r="I2">
-        <v>18.97</v>
+        <v>18.46</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1690,25 +1690,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>12.186</v>
+        <v>13.57</v>
       </c>
       <c r="C3">
-        <v>13.974</v>
+        <v>14.29</v>
       </c>
       <c r="D3">
         <v>7.77</v>
       </c>
       <c r="E3">
-        <v>9.279999999999999</v>
+        <v>11.36</v>
       </c>
       <c r="F3">
-        <v>14.05</v>
+        <v>14.43</v>
       </c>
       <c r="G3">
-        <v>17.54</v>
+        <v>18.29</v>
       </c>
       <c r="I3">
-        <v>16.63</v>
+        <v>18.09</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1716,25 +1716,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>13.323</v>
+        <v>21.211</v>
       </c>
       <c r="C4">
-        <v>15.222</v>
+        <v>21.534</v>
       </c>
       <c r="D4">
         <v>7.77</v>
       </c>
       <c r="E4">
-        <v>11.63</v>
+        <v>10.61</v>
       </c>
       <c r="F4">
         <v>10.94</v>
       </c>
       <c r="G4">
-        <v>11.47</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="I4">
-        <v>10.23</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1742,25 +1742,25 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>17.634</v>
+        <v>16.53</v>
       </c>
       <c r="C5">
-        <v>20.9</v>
+        <v>19.681</v>
       </c>
       <c r="D5">
-        <v>21.15</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>21.24</v>
+        <v>20.52</v>
       </c>
       <c r="F5">
-        <v>22.5</v>
+        <v>20.02</v>
       </c>
       <c r="G5">
-        <v>17.43</v>
+        <v>17.36</v>
       </c>
       <c r="I5">
-        <v>16.93</v>
+        <v>16.45</v>
       </c>
     </row>
   </sheetData>
@@ -1822,31 +1822,31 @@
         <v>6.73</v>
       </c>
       <c r="C2">
-        <v>6.88</v>
+        <v>6.9</v>
       </c>
       <c r="D2">
-        <v>6.935</v>
+        <v>6.947</v>
       </c>
       <c r="E2">
-        <v>6.996</v>
+        <v>7.085</v>
       </c>
       <c r="F2">
-        <v>7.028</v>
+        <v>7.161</v>
       </c>
       <c r="G2">
-        <v>7.059</v>
+        <v>7.172</v>
       </c>
       <c r="H2">
-        <v>7.075</v>
+        <v>7.191</v>
       </c>
       <c r="I2">
-        <v>7.083</v>
+        <v>7.193</v>
       </c>
       <c r="J2">
-        <v>7.235</v>
+        <v>7.34</v>
       </c>
       <c r="L2">
-        <v>7.281</v>
+        <v>7.389</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1854,34 +1854,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.77</v>
+        <v>6.73</v>
       </c>
       <c r="C3">
-        <v>6.88</v>
+        <v>6.83</v>
       </c>
       <c r="D3">
-        <v>6.822</v>
+        <v>6.808</v>
       </c>
       <c r="E3">
-        <v>6.89</v>
+        <v>7.023</v>
       </c>
       <c r="F3">
-        <v>6.966</v>
+        <v>7.036</v>
       </c>
       <c r="G3">
-        <v>6.968</v>
+        <v>7.09</v>
       </c>
       <c r="H3">
-        <v>7.026</v>
+        <v>7.121</v>
       </c>
       <c r="I3">
-        <v>7.034</v>
+        <v>7.119</v>
       </c>
       <c r="J3">
-        <v>7.138</v>
+        <v>7.267</v>
       </c>
       <c r="L3">
-        <v>7.278</v>
+        <v>7.367</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1889,34 +1889,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.78</v>
+        <v>6.75</v>
       </c>
       <c r="C4">
-        <v>7.06</v>
+        <v>6.95</v>
       </c>
       <c r="D4">
-        <v>6.95</v>
+        <v>6.92</v>
       </c>
       <c r="E4">
-        <v>6.919</v>
+        <v>6.887</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>6.94</v>
       </c>
       <c r="G4">
-        <v>7.057</v>
+        <v>6.993</v>
       </c>
       <c r="H4">
+        <v>7.123</v>
+      </c>
+      <c r="I4">
         <v>7.11</v>
       </c>
-      <c r="I4">
-        <v>7.219</v>
-      </c>
       <c r="J4">
-        <v>7.268</v>
+        <v>7.23</v>
       </c>
       <c r="L4">
-        <v>7.336</v>
+        <v>7.253</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1924,34 +1924,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.37</v>
+        <v>5.58</v>
       </c>
       <c r="C5">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="D5">
-        <v>6.288</v>
+        <v>6.299</v>
       </c>
       <c r="E5">
-        <v>6.414</v>
+        <v>6.622</v>
       </c>
       <c r="F5">
-        <v>6.874</v>
+        <v>6.879</v>
       </c>
       <c r="G5">
-        <v>7.198</v>
+        <v>7.015</v>
       </c>
       <c r="H5">
-        <v>7.335</v>
+        <v>7.194</v>
       </c>
       <c r="I5">
-        <v>7.449</v>
+        <v>7.3</v>
       </c>
       <c r="J5">
-        <v>7.63</v>
+        <v>7.4</v>
       </c>
       <c r="L5">
-        <v>7.758</v>
+        <v>7.652</v>
       </c>
     </row>
   </sheetData>
@@ -2010,37 +2010,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.642</v>
+        <v>3.608</v>
       </c>
       <c r="C2">
-        <v>3.694</v>
+        <v>3.66</v>
       </c>
       <c r="D2">
-        <v>3.674</v>
+        <v>3.656</v>
       </c>
       <c r="E2">
-        <v>3.312</v>
+        <v>3.253</v>
       </c>
       <c r="F2">
-        <v>3.089</v>
+        <v>2.997</v>
       </c>
       <c r="G2">
-        <v>2.915</v>
+        <v>2.898</v>
       </c>
       <c r="H2">
-        <v>2.8605</v>
+        <v>2.876</v>
       </c>
       <c r="I2">
-        <v>3.011</v>
+        <v>3.071</v>
       </c>
       <c r="J2">
-        <v>3.234</v>
+        <v>3.309</v>
       </c>
       <c r="K2">
-        <v>3.333</v>
+        <v>3.424</v>
       </c>
       <c r="L2">
-        <v>3.384</v>
+        <v>3.504</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2048,37 +2048,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.412</v>
+        <v>3.478</v>
       </c>
       <c r="C3">
-        <v>3.525</v>
+        <v>3.583</v>
       </c>
       <c r="D3">
-        <v>3.641</v>
+        <v>3.704</v>
       </c>
       <c r="E3">
-        <v>3.282</v>
+        <v>3.366</v>
       </c>
       <c r="F3">
-        <v>3.075</v>
+        <v>3.12</v>
       </c>
       <c r="G3">
-        <v>2.928</v>
+        <v>2.948</v>
       </c>
       <c r="H3">
-        <v>2.8959</v>
+        <v>2.874</v>
       </c>
       <c r="I3">
-        <v>3.032</v>
+        <v>3.002</v>
       </c>
       <c r="J3">
-        <v>3.268</v>
+        <v>3.205</v>
       </c>
       <c r="K3">
-        <v>3.389</v>
+        <v>3.314</v>
       </c>
       <c r="L3">
-        <v>3.446</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2086,37 +2086,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2.934</v>
+        <v>3.078</v>
       </c>
       <c r="C4">
-        <v>3.093</v>
+        <v>3.216</v>
       </c>
       <c r="D4">
-        <v>3.287</v>
+        <v>3.278</v>
       </c>
       <c r="E4">
-        <v>2.886</v>
+        <v>2.957</v>
       </c>
       <c r="F4">
-        <v>2.76</v>
+        <v>2.844</v>
       </c>
       <c r="G4">
-        <v>2.724</v>
+        <v>2.8</v>
       </c>
       <c r="H4">
-        <v>2.726</v>
+        <v>2.8188</v>
       </c>
       <c r="I4">
-        <v>2.885</v>
+        <v>3.028</v>
       </c>
       <c r="J4">
-        <v>3.2</v>
+        <v>3.304</v>
       </c>
       <c r="K4">
-        <v>3.292</v>
+        <v>3.389</v>
       </c>
       <c r="L4">
-        <v>3.259</v>
+        <v>3.447</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2124,37 +2124,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.182</v>
+        <v>0.01</v>
       </c>
       <c r="C5">
-        <v>0.157</v>
+        <v>0.191</v>
       </c>
       <c r="D5">
-        <v>0.41</v>
+        <v>0.535</v>
       </c>
       <c r="E5">
-        <v>0.571</v>
+        <v>0.382</v>
       </c>
       <c r="F5">
-        <v>0.92</v>
+        <v>0.752</v>
       </c>
       <c r="G5">
-        <v>1.234</v>
+        <v>0.909</v>
       </c>
       <c r="H5">
-        <v>1.4177</v>
+        <v>1.0927</v>
       </c>
       <c r="I5">
-        <v>1.835</v>
+        <v>1.495</v>
       </c>
       <c r="J5">
-        <v>2.167</v>
+        <v>1.81</v>
       </c>
       <c r="K5">
-        <v>2.287</v>
+        <v>1.92</v>
       </c>
       <c r="L5">
-        <v>2.384</v>
+        <v>2.046</v>
       </c>
     </row>
   </sheetData>
@@ -2213,37 +2213,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.49</v>
+        <v>3.557</v>
       </c>
       <c r="C2">
-        <v>3.557</v>
+        <v>3.593</v>
       </c>
       <c r="D2">
-        <v>3.656</v>
+        <v>3.643</v>
       </c>
       <c r="E2">
-        <v>3.25</v>
+        <v>3.178</v>
       </c>
       <c r="F2">
-        <v>2.947</v>
+        <v>2.884</v>
       </c>
       <c r="G2">
-        <v>2.592</v>
+        <v>2.594</v>
       </c>
       <c r="H2">
-        <v>2.454</v>
+        <v>2.491</v>
       </c>
       <c r="I2">
-        <v>2.454</v>
+        <v>2.541</v>
       </c>
       <c r="J2">
-        <v>2.581</v>
+        <v>2.707</v>
       </c>
       <c r="K2">
-        <v>2.583</v>
+        <v>2.715</v>
       </c>
       <c r="L2">
-        <v>2.501</v>
+        <v>2.641</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2251,37 +2251,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.323</v>
+        <v>3.412</v>
       </c>
       <c r="C3">
-        <v>3.517</v>
+        <v>3.605</v>
       </c>
       <c r="D3">
-        <v>3.642</v>
+        <v>3.669</v>
       </c>
       <c r="E3">
-        <v>3.271</v>
+        <v>3.308</v>
       </c>
       <c r="F3">
-        <v>2.992</v>
+        <v>3.05</v>
       </c>
       <c r="G3">
-        <v>2.655</v>
+        <v>2.756</v>
       </c>
       <c r="H3">
-        <v>2.496</v>
+        <v>2.622</v>
       </c>
       <c r="I3">
-        <v>2.488</v>
+        <v>2.635</v>
       </c>
       <c r="J3">
-        <v>2.598</v>
+        <v>2.737</v>
       </c>
       <c r="K3">
-        <v>2.596</v>
+        <v>2.74</v>
       </c>
       <c r="L3">
-        <v>2.498</v>
+        <v>2.644</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2289,37 +2289,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2.784</v>
+        <v>2.954</v>
       </c>
       <c r="C4">
-        <v>3.016</v>
+        <v>3.03</v>
       </c>
       <c r="D4">
-        <v>3.127</v>
+        <v>3.158</v>
       </c>
       <c r="E4">
-        <v>2.653</v>
+        <v>2.642</v>
       </c>
       <c r="F4">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G4">
-        <v>2.24</v>
+        <v>2.245</v>
       </c>
       <c r="H4">
-        <v>2.181</v>
+        <v>2.206</v>
       </c>
       <c r="I4">
-        <v>2.251</v>
+        <v>2.309</v>
       </c>
       <c r="J4">
-        <v>2.42</v>
+        <v>2.523</v>
       </c>
       <c r="K4">
-        <v>2.417</v>
+        <v>2.533</v>
       </c>
       <c r="L4">
-        <v>2.366</v>
+        <v>2.507</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2327,37 +2327,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.194</v>
+        <v>0.068</v>
       </c>
       <c r="C5">
-        <v>0.045</v>
+        <v>0.093</v>
       </c>
       <c r="D5">
-        <v>0.46</v>
+        <v>0.455</v>
       </c>
       <c r="E5">
-        <v>0.613</v>
+        <v>0.472</v>
       </c>
       <c r="F5">
-        <v>0.647</v>
+        <v>0.464</v>
       </c>
       <c r="G5">
-        <v>1.017</v>
+        <v>0.721</v>
       </c>
       <c r="H5">
-        <v>1.033</v>
+        <v>0.722</v>
       </c>
       <c r="I5">
-        <v>1.26</v>
+        <v>0.961</v>
       </c>
       <c r="J5">
-        <v>1.466</v>
+        <v>1.157</v>
       </c>
       <c r="K5">
-        <v>1.433</v>
+        <v>1.126</v>
       </c>
       <c r="L5">
-        <v>1.461</v>
+        <v>1.172</v>
       </c>
     </row>
   </sheetData>
@@ -2416,22 +2416,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>5.728</v>
+        <v>5.627</v>
       </c>
       <c r="E2">
-        <v>5.359</v>
+        <v>5.449</v>
       </c>
       <c r="F2">
-        <v>5.283</v>
+        <v>5.34</v>
       </c>
       <c r="G2">
-        <v>5.298</v>
+        <v>5.374</v>
       </c>
       <c r="H2">
-        <v>5.289</v>
+        <v>5.361</v>
       </c>
       <c r="I2">
-        <v>5.475</v>
+        <v>5.574</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2439,22 +2439,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>6.139</v>
+        <v>6.047</v>
       </c>
       <c r="E3">
-        <v>5.975</v>
+        <v>5.787</v>
       </c>
       <c r="F3">
-        <v>5.937</v>
+        <v>5.731</v>
       </c>
       <c r="G3">
-        <v>5.939</v>
+        <v>5.6</v>
       </c>
       <c r="H3">
-        <v>5.921</v>
+        <v>5.638</v>
       </c>
       <c r="I3">
-        <v>6.049</v>
+        <v>5.717</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2462,22 +2462,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>6.14</v>
+        <v>5.794</v>
       </c>
       <c r="E4">
-        <v>6.128</v>
+        <v>5.891</v>
       </c>
       <c r="F4">
-        <v>6.107</v>
+        <v>5.932</v>
       </c>
       <c r="G4">
-        <v>6.144</v>
+        <v>5.85</v>
       </c>
       <c r="H4">
-        <v>6.114</v>
+        <v>5.846</v>
       </c>
       <c r="I4">
-        <v>6.198</v>
+        <v>5.909</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2485,22 +2485,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>6.643</v>
+        <v>6.649</v>
       </c>
       <c r="E5">
-        <v>7.727</v>
+        <v>6.712</v>
       </c>
       <c r="F5">
-        <v>7.157</v>
+        <v>6.271</v>
       </c>
       <c r="G5">
-        <v>6.913</v>
+        <v>5.979</v>
       </c>
       <c r="H5">
-        <v>6.61</v>
+        <v>5.56</v>
       </c>
       <c r="I5">
-        <v>6.589</v>
+        <v>5.528</v>
       </c>
     </row>
   </sheetData>
@@ -2559,19 +2559,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>11.705</v>
+        <v>11.369</v>
       </c>
       <c r="E2">
-        <v>10.019</v>
+        <v>9.760999999999999</v>
       </c>
       <c r="F2">
-        <v>10.353</v>
+        <v>10.17</v>
       </c>
       <c r="G2">
-        <v>10.66</v>
+        <v>10.569</v>
       </c>
       <c r="I2">
-        <v>10.838</v>
+        <v>10.803</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2579,19 +2579,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>12.505</v>
+        <v>11.595</v>
       </c>
       <c r="E3">
-        <v>10.955</v>
+        <v>10.351</v>
       </c>
       <c r="F3">
-        <v>10.612</v>
+        <v>10.161</v>
       </c>
       <c r="G3">
-        <v>10.975</v>
+        <v>10.52</v>
       </c>
       <c r="I3">
-        <v>11.192</v>
+        <v>10.643</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2599,19 +2599,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>12.91</v>
+        <v>12.885</v>
       </c>
       <c r="E4">
-        <v>11.97</v>
+        <v>11.85</v>
       </c>
       <c r="F4">
-        <v>12.05</v>
+        <v>11.825</v>
       </c>
       <c r="G4">
-        <v>12.44</v>
+        <v>12.21</v>
       </c>
       <c r="I4">
-        <v>12.69</v>
+        <v>12.338</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2619,19 +2619,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>14.165</v>
+        <v>13.705</v>
       </c>
       <c r="E5">
-        <v>13.725</v>
+        <v>12.87</v>
       </c>
       <c r="F5">
-        <v>13.525</v>
+        <v>12.195</v>
       </c>
       <c r="G5">
-        <v>13.53</v>
+        <v>12.14</v>
       </c>
       <c r="I5">
-        <v>13.7</v>
+        <v>12.46</v>
       </c>
     </row>
   </sheetData>
@@ -2690,25 +2690,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>3.008</v>
+        <v>3.003</v>
       </c>
       <c r="F2">
-        <v>2.904</v>
+        <v>2.965</v>
       </c>
       <c r="G2">
-        <v>2.951</v>
+        <v>2.995</v>
       </c>
       <c r="H2">
-        <v>3.009</v>
+        <v>3.117</v>
       </c>
       <c r="I2">
-        <v>3.171</v>
+        <v>3.295</v>
       </c>
       <c r="J2">
-        <v>3.53</v>
+        <v>3.656</v>
       </c>
       <c r="L2">
-        <v>3.524</v>
+        <v>3.678</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2716,25 +2716,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>2.947</v>
+        <v>3.031</v>
       </c>
       <c r="F3">
-        <v>2.965</v>
+        <v>3.016</v>
       </c>
       <c r="G3">
-        <v>2.926</v>
+        <v>3.016</v>
       </c>
       <c r="H3">
-        <v>2.989</v>
+        <v>3.063</v>
       </c>
       <c r="I3">
-        <v>3.166</v>
+        <v>3.207</v>
       </c>
       <c r="J3">
         <v>3.575</v>
       </c>
       <c r="L3">
-        <v>3.555</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2742,25 +2742,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>2.754</v>
+        <v>2.753</v>
       </c>
       <c r="F4">
-        <v>2.743</v>
+        <v>2.696</v>
       </c>
       <c r="G4">
-        <v>2.809</v>
+        <v>2.737</v>
       </c>
       <c r="H4">
-        <v>2.963</v>
+        <v>2.879</v>
       </c>
       <c r="I4">
-        <v>3.247</v>
+        <v>3.155</v>
       </c>
       <c r="J4">
-        <v>3.57</v>
+        <v>3.496</v>
       </c>
       <c r="L4">
-        <v>3.662</v>
+        <v>3.565</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2768,25 +2768,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>0.927</v>
+        <v>0.591</v>
       </c>
       <c r="F5">
-        <v>1.236</v>
+        <v>0.836</v>
       </c>
       <c r="G5">
-        <v>1.651</v>
+        <v>1.182</v>
       </c>
       <c r="H5">
-        <v>1.861</v>
+        <v>1.414</v>
       </c>
       <c r="I5">
-        <v>2.402</v>
+        <v>1.966</v>
       </c>
       <c r="J5">
-        <v>2.559</v>
+        <v>2.217</v>
       </c>
       <c r="L5">
-        <v>2.796</v>
+        <v>2.408</v>
       </c>
     </row>
   </sheetData>
@@ -2845,37 +2845,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.582</v>
+        <v>5.626</v>
       </c>
       <c r="C2">
-        <v>5.758</v>
+        <v>5.552</v>
       </c>
       <c r="D2">
-        <v>5.27</v>
+        <v>5.0745</v>
       </c>
       <c r="E2">
-        <v>5.0275</v>
+        <v>4.887</v>
       </c>
       <c r="F2">
-        <v>4.7215</v>
+        <v>4.658</v>
       </c>
       <c r="G2">
-        <v>4.395</v>
+        <v>4.4115</v>
       </c>
       <c r="H2">
-        <v>4.2845</v>
+        <v>4.3465</v>
       </c>
       <c r="I2">
-        <v>4.324</v>
+        <v>4.4235</v>
       </c>
       <c r="J2">
-        <v>4.515</v>
+        <v>4.65</v>
       </c>
       <c r="K2">
-        <v>4.52</v>
+        <v>4.663</v>
       </c>
       <c r="L2">
-        <v>4.471</v>
+        <v>4.621</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2883,37 +2883,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.225</v>
+        <v>5.391</v>
       </c>
       <c r="C3">
-        <v>5.581</v>
+        <v>5.742</v>
       </c>
       <c r="D3">
-        <v>5.355</v>
+        <v>5.208</v>
       </c>
       <c r="E3">
-        <v>5.253</v>
+        <v>5.134</v>
       </c>
       <c r="F3">
-        <v>5.051</v>
+        <v>4.887</v>
       </c>
       <c r="G3">
-        <v>4.664</v>
+        <v>4.562</v>
       </c>
       <c r="H3">
-        <v>4.405</v>
+        <v>4.419</v>
       </c>
       <c r="I3">
-        <v>4.374</v>
+        <v>4.424</v>
       </c>
       <c r="J3">
-        <v>4.505</v>
+        <v>4.606</v>
       </c>
       <c r="K3">
-        <v>4.465</v>
+        <v>4.596</v>
       </c>
       <c r="L3">
-        <v>4.372</v>
+        <v>4.539</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2921,37 +2921,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.469</v>
+        <v>4.795</v>
       </c>
       <c r="C4">
-        <v>4.781</v>
+        <v>5.083</v>
       </c>
       <c r="D4">
-        <v>4.244</v>
+        <v>4.898</v>
       </c>
       <c r="E4">
-        <v>3.726</v>
+        <v>4.5195</v>
       </c>
       <c r="F4">
-        <v>3.662</v>
+        <v>4.4865</v>
       </c>
       <c r="G4">
-        <v>3.533</v>
+        <v>4.306</v>
       </c>
       <c r="H4">
-        <v>3.58</v>
+        <v>4.2615</v>
       </c>
       <c r="I4">
-        <v>3.705</v>
+        <v>4.338</v>
       </c>
       <c r="J4">
-        <v>4.001</v>
+        <v>4.627</v>
       </c>
       <c r="K4">
-        <v>4.087</v>
+        <v>4.669</v>
       </c>
       <c r="L4">
-        <v>4.135</v>
+        <v>4.648</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2959,37 +2959,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.775</v>
+        <v>1.812</v>
       </c>
       <c r="C5">
-        <v>2.03</v>
+        <v>2.151</v>
       </c>
       <c r="D5">
-        <v>2.233</v>
+        <v>2.145</v>
       </c>
       <c r="E5">
-        <v>2.1</v>
+        <v>1.965</v>
       </c>
       <c r="F5">
-        <v>1.944</v>
+        <v>1.85</v>
       </c>
       <c r="G5">
-        <v>1.921</v>
+        <v>1.875</v>
       </c>
       <c r="H5">
-        <v>2.012</v>
+        <v>1.957</v>
       </c>
       <c r="I5">
-        <v>2.144</v>
+        <v>2.052</v>
       </c>
       <c r="J5">
-        <v>2.66</v>
+        <v>2.414</v>
       </c>
       <c r="K5">
-        <v>2.708</v>
+        <v>2.471</v>
       </c>
       <c r="L5">
-        <v>2.663</v>
+        <v>2.433</v>
       </c>
     </row>
   </sheetData>
@@ -3048,37 +3048,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.126</v>
+        <v>-0.106</v>
       </c>
       <c r="C2">
-        <v>-0.197</v>
+        <v>-0.174</v>
       </c>
       <c r="D2">
-        <v>-0.129</v>
+        <v>-0.081</v>
       </c>
       <c r="E2">
-        <v>-0.042</v>
+        <v>0.026</v>
       </c>
       <c r="F2">
-        <v>-0.036</v>
+        <v>0.05</v>
       </c>
       <c r="G2">
-        <v>0.108</v>
+        <v>0.215</v>
       </c>
       <c r="H2">
-        <v>0.28</v>
-      </c>
-      <c r="I2">
-        <v>0.458</v>
+        <v>0.44</v>
       </c>
       <c r="J2">
-        <v>0.854</v>
+        <v>1.085</v>
       </c>
       <c r="K2">
-        <v>1.098</v>
+        <v>1.336</v>
       </c>
       <c r="L2">
-        <v>1.345</v>
+        <v>1.618</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3086,37 +3083,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-0.147</v>
+        <v>-0.22</v>
       </c>
       <c r="C3">
-        <v>-0.167</v>
+        <v>-0.199</v>
       </c>
       <c r="D3">
-        <v>-0.139</v>
+        <v>-0.115</v>
       </c>
       <c r="E3">
-        <v>-0.07099999999999999</v>
+        <v>-0.038</v>
       </c>
       <c r="F3">
-        <v>-0.045</v>
+        <v>-0.021</v>
       </c>
       <c r="G3">
-        <v>0.06900000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="H3">
-        <v>0.187</v>
-      </c>
-      <c r="I3">
-        <v>0.371</v>
+        <v>0.256</v>
       </c>
       <c r="J3">
-        <v>0.752</v>
+        <v>0.805</v>
       </c>
       <c r="K3">
-        <v>0.981</v>
+        <v>1.027</v>
       </c>
       <c r="L3">
-        <v>1.217</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3124,37 +3118,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.186</v>
+        <v>-0.171</v>
       </c>
       <c r="C4">
-        <v>-0.155</v>
+        <v>-0.159</v>
       </c>
       <c r="D4">
-        <v>-0.124</v>
+        <v>-0.132</v>
       </c>
       <c r="E4">
-        <v>-0.038</v>
+        <v>-0.052</v>
       </c>
       <c r="F4">
-        <v>-0.006</v>
+        <v>-0.042</v>
       </c>
       <c r="G4">
-        <v>0.159</v>
+        <v>0.101</v>
       </c>
       <c r="H4">
-        <v>0.295</v>
-      </c>
-      <c r="I4">
-        <v>0.47</v>
+        <v>0.191</v>
       </c>
       <c r="J4">
-        <v>0.901</v>
+        <v>0.767</v>
       </c>
       <c r="K4">
-        <v>1.133</v>
+        <v>1.006</v>
       </c>
       <c r="L4">
-        <v>1.359</v>
+        <v>1.239</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3162,37 +3153,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.149</v>
+        <v>-0.134</v>
       </c>
       <c r="C5">
-        <v>-0.148</v>
+        <v>-0.206</v>
       </c>
       <c r="D5">
-        <v>-0.135</v>
+        <v>-0.15</v>
       </c>
       <c r="E5">
-        <v>-0.075</v>
+        <v>-0.099</v>
       </c>
       <c r="F5">
-        <v>-0.064</v>
+        <v>-0.103</v>
       </c>
       <c r="G5">
-        <v>0.028</v>
+        <v>-0.035</v>
       </c>
       <c r="H5">
-        <v>0.16</v>
-      </c>
-      <c r="I5">
-        <v>0.243</v>
+        <v>0.026</v>
       </c>
       <c r="J5">
-        <v>0.639</v>
+        <v>0.533</v>
       </c>
       <c r="K5">
-        <v>0.92</v>
+        <v>0.804</v>
       </c>
       <c r="L5">
-        <v>1.276</v>
+        <v>1.155</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -483,34 +483,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.08</v>
+        <v>5.095</v>
       </c>
       <c r="C2">
-        <v>5.18</v>
+        <v>5.17</v>
       </c>
       <c r="D2">
-        <v>5.23</v>
+        <v>5.24</v>
       </c>
       <c r="E2">
-        <v>4.579</v>
-      </c>
-      <c r="F2">
-        <v>4.329</v>
+        <v>4.675</v>
       </c>
       <c r="G2">
-        <v>3.872</v>
+        <v>3.986</v>
       </c>
       <c r="H2">
-        <v>3.643</v>
+        <v>3.76</v>
       </c>
       <c r="I2">
-        <v>3.553</v>
+        <v>3.648</v>
       </c>
       <c r="K2">
-        <v>3.592</v>
+        <v>3.613</v>
       </c>
       <c r="L2">
-        <v>3.453</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -518,34 +515,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.93</v>
+        <v>4.95</v>
       </c>
       <c r="C3">
-        <v>5.07</v>
+        <v>5.09</v>
       </c>
       <c r="D3">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="E3">
-        <v>4.643</v>
-      </c>
-      <c r="F3">
-        <v>4.262</v>
+        <v>4.738</v>
       </c>
       <c r="G3">
-        <v>3.744</v>
+        <v>3.907</v>
       </c>
       <c r="H3">
-        <v>3.488</v>
+        <v>3.668</v>
       </c>
       <c r="I3">
-        <v>3.315</v>
+        <v>3.513</v>
       </c>
       <c r="K3">
-        <v>3.254</v>
+        <v>3.465</v>
       </c>
       <c r="L3">
-        <v>3.114</v>
+        <v>3.309</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -553,34 +547,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="C4">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="D4">
-        <v>4.43</v>
+        <v>4.47</v>
       </c>
       <c r="E4">
-        <v>3.637</v>
-      </c>
-      <c r="F4">
-        <v>3.489</v>
+        <v>3.652</v>
       </c>
       <c r="G4">
-        <v>2.99</v>
+        <v>2.953</v>
       </c>
       <c r="H4">
-        <v>2.841</v>
+        <v>2.808</v>
       </c>
       <c r="I4">
-        <v>2.863</v>
+        <v>2.822</v>
       </c>
       <c r="K4">
-        <v>3.056</v>
+        <v>3.034</v>
       </c>
       <c r="L4">
-        <v>2.983</v>
+        <v>2.957</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -588,34 +579,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="C5">
         <v>3.22</v>
       </c>
       <c r="D5">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="E5">
-        <v>3.249</v>
-      </c>
-      <c r="F5">
-        <v>3.155</v>
+        <v>3.209</v>
       </c>
       <c r="G5">
-        <v>2.839</v>
+        <v>2.809</v>
       </c>
       <c r="H5">
-        <v>2.787</v>
+        <v>2.748</v>
       </c>
       <c r="I5">
-        <v>2.748</v>
+        <v>2.695</v>
       </c>
       <c r="K5">
-        <v>2.878</v>
+        <v>2.874</v>
       </c>
       <c r="L5">
-        <v>2.822</v>
+        <v>2.837</v>
       </c>
     </row>
   </sheetData>
@@ -674,22 +662,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>11.31</v>
+        <v>12.315</v>
       </c>
       <c r="E2">
-        <v>9.66</v>
+        <v>10.32</v>
       </c>
       <c r="F2">
-        <v>11.08</v>
+        <v>11.8</v>
       </c>
       <c r="G2">
-        <v>10.29</v>
+        <v>10.8</v>
       </c>
       <c r="I2">
-        <v>11.58</v>
+        <v>11.88</v>
       </c>
       <c r="J2">
-        <v>11.8</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -697,22 +685,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>9.6</v>
+        <v>9.82</v>
       </c>
       <c r="E3">
-        <v>10.07</v>
+        <v>10.25</v>
       </c>
       <c r="F3">
-        <v>9.779999999999999</v>
+        <v>10.05</v>
       </c>
       <c r="G3">
-        <v>10.64</v>
+        <v>10.82</v>
       </c>
       <c r="I3">
-        <v>11.19</v>
+        <v>11.35</v>
       </c>
       <c r="J3">
-        <v>11.5</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -720,22 +708,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>11.9</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>7.88</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F4">
-        <v>8.960000000000001</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G4">
-        <v>9.44</v>
+        <v>9.91</v>
       </c>
       <c r="I4">
-        <v>10.58</v>
+        <v>10.63</v>
       </c>
       <c r="J4">
-        <v>11.07</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -743,22 +731,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>11.12</v>
+        <v>11.46</v>
       </c>
       <c r="E5">
-        <v>8.880000000000001</v>
+        <v>9.07</v>
       </c>
       <c r="F5">
-        <v>7.93</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>9.07</v>
       </c>
       <c r="I5">
-        <v>9.050000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="J5">
-        <v>9.390000000000001</v>
+        <v>9.57</v>
       </c>
     </row>
   </sheetData>
@@ -817,25 +805,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.05</v>
+        <v>4.126</v>
       </c>
       <c r="E2">
-        <v>3.903</v>
+        <v>3.963</v>
       </c>
       <c r="F2">
-        <v>3.79</v>
+        <v>3.915</v>
       </c>
       <c r="G2">
-        <v>3.79</v>
+        <v>3.966</v>
       </c>
       <c r="H2">
-        <v>3.927</v>
+        <v>4.104</v>
       </c>
       <c r="I2">
-        <v>4.059</v>
+        <v>4.205</v>
       </c>
       <c r="J2">
-        <v>4.237</v>
+        <v>4.449</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -843,25 +831,25 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.38</v>
+        <v>4.193</v>
       </c>
       <c r="E3">
-        <v>4.3</v>
+        <v>4.085</v>
       </c>
       <c r="F3">
-        <v>4.151</v>
+        <v>3.956</v>
       </c>
       <c r="G3">
-        <v>4.103</v>
+        <v>3.86</v>
       </c>
       <c r="H3">
-        <v>4.15</v>
+        <v>3.91</v>
       </c>
       <c r="I3">
-        <v>4.195</v>
+        <v>3.955</v>
       </c>
       <c r="J3">
-        <v>4.326</v>
+        <v>4.095</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -869,25 +857,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>3.592</v>
+        <v>3.79</v>
       </c>
       <c r="E4">
-        <v>3.311</v>
+        <v>3.605</v>
       </c>
       <c r="F4">
-        <v>3.144</v>
+        <v>3.451</v>
       </c>
       <c r="G4">
-        <v>3.18</v>
+        <v>3.472</v>
       </c>
       <c r="H4">
-        <v>3.299</v>
+        <v>3.598</v>
       </c>
       <c r="I4">
-        <v>3.43</v>
+        <v>3.716</v>
       </c>
       <c r="J4">
-        <v>3.683</v>
+        <v>3.943</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -895,25 +883,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>2.622</v>
+        <v>2.824</v>
       </c>
       <c r="E5">
-        <v>2.747</v>
+        <v>2.977</v>
       </c>
       <c r="F5">
-        <v>2.859</v>
+        <v>3.114</v>
       </c>
       <c r="G5">
-        <v>2.922</v>
+        <v>3.192</v>
       </c>
       <c r="H5">
-        <v>3.014</v>
+        <v>3.283</v>
       </c>
       <c r="I5">
-        <v>3.116</v>
+        <v>3.388</v>
       </c>
       <c r="J5">
-        <v>3.317</v>
+        <v>3.591</v>
       </c>
     </row>
   </sheetData>
@@ -972,31 +960,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.494</v>
+        <v>3.307</v>
       </c>
       <c r="C2">
-        <v>3.486</v>
+        <v>3.734</v>
       </c>
       <c r="D2">
-        <v>3.806</v>
+        <v>3.78</v>
       </c>
       <c r="E2">
-        <v>3.724</v>
+        <v>3.648</v>
       </c>
       <c r="F2">
-        <v>3.61</v>
+        <v>3.598</v>
       </c>
       <c r="G2">
-        <v>3.708</v>
+        <v>3.751</v>
       </c>
       <c r="H2">
         <v>3.945</v>
       </c>
       <c r="I2">
-        <v>4.226</v>
+        <v>4.217</v>
       </c>
       <c r="J2">
-        <v>4.459</v>
+        <v>4.413</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1004,31 +992,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.651</v>
+        <v>3.604</v>
       </c>
       <c r="C3">
-        <v>3.569</v>
+        <v>3.721</v>
       </c>
       <c r="D3">
-        <v>3.912</v>
+        <v>3.908</v>
       </c>
       <c r="E3">
-        <v>3.942</v>
+        <v>3.884</v>
       </c>
       <c r="F3">
-        <v>3.828</v>
+        <v>3.786</v>
       </c>
       <c r="G3">
-        <v>3.835</v>
+        <v>3.839</v>
       </c>
       <c r="H3">
-        <v>3.979</v>
+        <v>4.032</v>
       </c>
       <c r="I3">
-        <v>4.203</v>
+        <v>4.277</v>
       </c>
       <c r="J3">
-        <v>4.348</v>
+        <v>4.468</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1036,31 +1024,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.041</v>
+        <v>3.193</v>
       </c>
       <c r="C4">
-        <v>3.373</v>
+        <v>3.297</v>
       </c>
       <c r="D4">
-        <v>3.471</v>
+        <v>3.386</v>
       </c>
       <c r="E4">
-        <v>3.396</v>
+        <v>3.299</v>
       </c>
       <c r="F4">
-        <v>3.53</v>
+        <v>3.432</v>
       </c>
       <c r="G4">
-        <v>3.729</v>
+        <v>3.658</v>
       </c>
       <c r="H4">
-        <v>4.004</v>
+        <v>3.988</v>
       </c>
       <c r="I4">
-        <v>4.261</v>
+        <v>4.236</v>
       </c>
       <c r="J4">
-        <v>4.501</v>
+        <v>4.531</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1068,31 +1056,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.061</v>
+        <v>0.01</v>
       </c>
       <c r="C5">
-        <v>0.525</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="D5">
-        <v>0.794</v>
+        <v>0.973</v>
       </c>
       <c r="E5">
-        <v>1.295</v>
+        <v>1.33</v>
       </c>
       <c r="F5">
-        <v>1.681</v>
+        <v>1.728</v>
       </c>
       <c r="G5">
-        <v>2.126</v>
+        <v>2.189</v>
       </c>
       <c r="H5">
-        <v>2.511</v>
+        <v>2.582</v>
       </c>
       <c r="I5">
-        <v>3.026</v>
+        <v>3.072</v>
       </c>
       <c r="J5">
-        <v>3.085</v>
+        <v>3.186</v>
       </c>
     </row>
   </sheetData>
@@ -1154,34 +1142,34 @@
         <v>1.67</v>
       </c>
       <c r="C2">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="D2">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="E2">
-        <v>1.117</v>
+        <v>1.081</v>
       </c>
       <c r="F2">
-        <v>1.082</v>
+        <v>1.056</v>
       </c>
       <c r="G2">
-        <v>1.014</v>
+        <v>1.001</v>
       </c>
       <c r="H2">
-        <v>1.007</v>
+        <v>0.999</v>
       </c>
       <c r="I2">
-        <v>1.036</v>
+        <v>1.03</v>
       </c>
       <c r="J2">
-        <v>1.065</v>
+        <v>1.053</v>
       </c>
       <c r="K2">
-        <v>1.052</v>
+        <v>1.037</v>
       </c>
       <c r="L2">
-        <v>1.072</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1192,34 +1180,34 @@
         <v>1.65</v>
       </c>
       <c r="C3">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="D3">
         <v>1.96</v>
       </c>
       <c r="E3">
-        <v>1.202</v>
+        <v>1.5</v>
       </c>
       <c r="F3">
-        <v>1.151</v>
+        <v>1.296</v>
       </c>
       <c r="G3">
-        <v>1.004</v>
+        <v>1.14</v>
       </c>
       <c r="H3">
-        <v>0.971</v>
+        <v>1.175</v>
       </c>
       <c r="I3">
-        <v>0.957</v>
+        <v>1.136</v>
       </c>
       <c r="J3">
-        <v>0.979</v>
+        <v>1.152</v>
       </c>
       <c r="K3">
-        <v>0.953</v>
+        <v>1.133</v>
       </c>
       <c r="L3">
-        <v>0.894</v>
+        <v>1.056</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1227,37 +1215,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
       <c r="C4">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="D4">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="E4">
-        <v>1.177</v>
+        <v>1.176</v>
       </c>
       <c r="F4">
-        <v>1.236</v>
+        <v>1.087</v>
       </c>
       <c r="G4">
-        <v>1.166</v>
+        <v>1.002</v>
       </c>
       <c r="H4">
-        <v>1.142</v>
+        <v>1.016</v>
       </c>
       <c r="I4">
-        <v>1.174</v>
+        <v>1.101</v>
       </c>
       <c r="J4">
-        <v>1.271</v>
+        <v>1.143</v>
       </c>
       <c r="K4">
-        <v>1.257</v>
+        <v>1.179</v>
       </c>
       <c r="L4">
-        <v>1.225</v>
+        <v>1.137</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1265,37 +1253,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.01</v>
+        <v>-0.1</v>
       </c>
       <c r="C5">
         <v>0.28</v>
       </c>
       <c r="D5">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="E5">
-        <v>0.138</v>
+        <v>0.12</v>
       </c>
       <c r="F5">
-        <v>0.141</v>
+        <v>0.081</v>
       </c>
       <c r="G5">
-        <v>0.313</v>
+        <v>0.196</v>
       </c>
       <c r="H5">
-        <v>0.377</v>
+        <v>0.248</v>
       </c>
       <c r="I5">
-        <v>0.542</v>
+        <v>0.427</v>
       </c>
       <c r="J5">
-        <v>0.77</v>
+        <v>0.62</v>
       </c>
       <c r="K5">
-        <v>0.831</v>
+        <v>0.66</v>
       </c>
       <c r="L5">
-        <v>0.907</v>
+        <v>0.641</v>
       </c>
     </row>
   </sheetData>
@@ -1354,31 +1342,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1.664</v>
+        <v>1.806</v>
       </c>
       <c r="E2">
-        <v>2.053</v>
+        <v>2.102</v>
       </c>
       <c r="F2">
-        <v>2.22</v>
+        <v>2.216</v>
       </c>
       <c r="G2">
-        <v>2.428</v>
+        <v>2.4</v>
       </c>
       <c r="H2">
-        <v>2.623</v>
+        <v>2.597</v>
       </c>
       <c r="I2">
-        <v>2.678</v>
+        <v>2.638</v>
       </c>
       <c r="J2">
-        <v>2.822</v>
+        <v>2.814</v>
       </c>
       <c r="K2">
-        <v>3.058</v>
+        <v>3.009</v>
       </c>
       <c r="L2">
-        <v>3.008</v>
+        <v>2.984</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1386,31 +1374,31 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>1.823</v>
+        <v>1.809</v>
       </c>
       <c r="E3">
-        <v>2.116</v>
+        <v>2.108</v>
       </c>
       <c r="F3">
-        <v>2.242</v>
+        <v>2.247</v>
       </c>
       <c r="G3">
-        <v>2.435</v>
+        <v>2.428</v>
       </c>
       <c r="H3">
-        <v>2.642</v>
+        <v>2.629</v>
       </c>
       <c r="I3">
-        <v>2.705</v>
+        <v>2.683</v>
       </c>
       <c r="J3">
-        <v>2.771</v>
+        <v>2.775</v>
       </c>
       <c r="K3">
-        <v>3.13</v>
+        <v>3.102</v>
       </c>
       <c r="L3">
-        <v>3.045</v>
+        <v>3.019</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1418,31 +1406,31 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>2.132</v>
+        <v>2.055</v>
       </c>
       <c r="E4">
-        <v>2.356</v>
+        <v>2.243</v>
       </c>
       <c r="F4">
-        <v>2.481</v>
+        <v>2.386</v>
       </c>
       <c r="G4">
-        <v>2.661</v>
+        <v>2.556</v>
       </c>
       <c r="H4">
-        <v>2.801</v>
+        <v>2.71</v>
       </c>
       <c r="I4">
-        <v>2.82</v>
+        <v>2.746</v>
       </c>
       <c r="J4">
-        <v>3.063</v>
+        <v>3.01</v>
       </c>
       <c r="K4">
-        <v>3.194</v>
+        <v>3.16</v>
       </c>
       <c r="L4">
-        <v>3.181</v>
+        <v>3.122</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1450,31 +1438,31 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1.585</v>
+        <v>1.712</v>
       </c>
       <c r="E5">
-        <v>2.018</v>
+        <v>2.093</v>
       </c>
       <c r="F5">
-        <v>2.245</v>
+        <v>2.228</v>
       </c>
       <c r="G5">
-        <v>2.47</v>
+        <v>2.417</v>
       </c>
       <c r="H5">
-        <v>2.7</v>
+        <v>2.633</v>
       </c>
       <c r="I5">
-        <v>2.738</v>
+        <v>2.672</v>
       </c>
       <c r="J5">
-        <v>2.982</v>
+        <v>2.987</v>
       </c>
       <c r="K5">
-        <v>3.345</v>
+        <v>3.337</v>
       </c>
       <c r="L5">
-        <v>3.255</v>
+        <v>3.199</v>
       </c>
     </row>
   </sheetData>
@@ -1533,19 +1521,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8.85</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="G2">
-        <v>8.970000000000001</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="I2">
-        <v>10.26</v>
+        <v>10.29</v>
       </c>
       <c r="K2">
-        <v>12.22</v>
+        <v>12.38</v>
       </c>
       <c r="L2">
-        <v>12.195</v>
+        <v>12.325</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1553,19 +1541,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>9.199999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="G3">
-        <v>9.234999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="I3">
-        <v>10.54</v>
+        <v>10.725</v>
       </c>
       <c r="K3">
-        <v>12.32</v>
+        <v>12.575</v>
       </c>
       <c r="L3">
-        <v>12.32</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1573,19 +1561,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8.65</v>
+        <v>8.9</v>
       </c>
       <c r="G4">
-        <v>8.855</v>
+        <v>8.734999999999999</v>
       </c>
       <c r="I4">
-        <v>10.225</v>
+        <v>10.105</v>
       </c>
       <c r="K4">
-        <v>11.945</v>
+        <v>11.91</v>
       </c>
       <c r="L4">
-        <v>11.95</v>
+        <v>11.925</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1593,19 +1581,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.25</v>
+        <v>6.3</v>
       </c>
       <c r="G5">
-        <v>8.904999999999999</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="I5">
-        <v>10.285</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>11.15</v>
+        <v>11.07</v>
       </c>
       <c r="L5">
-        <v>11.09</v>
+        <v>10.985</v>
       </c>
     </row>
   </sheetData>
@@ -1664,25 +1652,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>13.873</v>
+        <v>17.676</v>
       </c>
       <c r="C2">
-        <v>14.943</v>
+        <v>17.03</v>
       </c>
       <c r="D2">
         <v>7.77</v>
       </c>
       <c r="E2">
-        <v>16.07</v>
+        <v>17.565</v>
       </c>
       <c r="F2">
-        <v>15.72</v>
+        <v>17.545</v>
       </c>
       <c r="G2">
-        <v>19.29</v>
+        <v>20.955</v>
       </c>
       <c r="I2">
-        <v>18.46</v>
+        <v>19.045</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1690,25 +1678,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>13.57</v>
+        <v>14.387</v>
       </c>
       <c r="C3">
-        <v>14.29</v>
+        <v>14.443</v>
       </c>
       <c r="D3">
         <v>7.77</v>
       </c>
       <c r="E3">
-        <v>11.36</v>
+        <v>13.83</v>
       </c>
       <c r="F3">
-        <v>14.43</v>
+        <v>15.62</v>
       </c>
       <c r="G3">
-        <v>18.29</v>
+        <v>18.51</v>
       </c>
       <c r="I3">
-        <v>18.09</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1716,25 +1704,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>21.211</v>
+        <v>13.323</v>
       </c>
       <c r="C4">
-        <v>21.534</v>
+        <v>15.222</v>
       </c>
       <c r="D4">
         <v>7.77</v>
       </c>
       <c r="E4">
-        <v>10.61</v>
+        <v>11.63</v>
       </c>
       <c r="F4">
         <v>10.94</v>
       </c>
       <c r="G4">
-        <v>9.630000000000001</v>
+        <v>11.47</v>
       </c>
       <c r="I4">
-        <v>9.039999999999999</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1742,25 +1730,10 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>16.53</v>
+        <v>16.264</v>
       </c>
       <c r="C5">
-        <v>19.681</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>20.52</v>
-      </c>
-      <c r="F5">
-        <v>20.02</v>
-      </c>
-      <c r="G5">
-        <v>17.36</v>
-      </c>
-      <c r="I5">
-        <v>16.45</v>
+        <v>18.041</v>
       </c>
     </row>
   </sheetData>
@@ -1819,34 +1792,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.73</v>
+        <v>6.77</v>
       </c>
       <c r="C2">
-        <v>6.9</v>
+        <v>6.93</v>
       </c>
       <c r="D2">
-        <v>6.947</v>
+        <v>7.06</v>
       </c>
       <c r="E2">
-        <v>7.085</v>
+        <v>7.123</v>
       </c>
       <c r="F2">
-        <v>7.161</v>
+        <v>7.172</v>
       </c>
       <c r="G2">
-        <v>7.172</v>
+        <v>7.185</v>
       </c>
       <c r="H2">
-        <v>7.191</v>
+        <v>7.194</v>
       </c>
       <c r="I2">
-        <v>7.193</v>
+        <v>7.198</v>
       </c>
       <c r="J2">
-        <v>7.34</v>
+        <v>7.328</v>
       </c>
       <c r="L2">
-        <v>7.389</v>
+        <v>7.382</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1854,34 +1827,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.73</v>
+        <v>6.72</v>
       </c>
       <c r="C3">
-        <v>6.83</v>
+        <v>6.84</v>
       </c>
       <c r="D3">
-        <v>6.808</v>
+        <v>6.857</v>
       </c>
       <c r="E3">
-        <v>7.023</v>
+        <v>7.012</v>
       </c>
       <c r="F3">
-        <v>7.036</v>
+        <v>7.071</v>
       </c>
       <c r="G3">
-        <v>7.09</v>
+        <v>7.077</v>
       </c>
       <c r="H3">
-        <v>7.121</v>
+        <v>7.1</v>
       </c>
       <c r="I3">
-        <v>7.119</v>
+        <v>7.095</v>
       </c>
       <c r="J3">
-        <v>7.267</v>
+        <v>7.243</v>
       </c>
       <c r="L3">
-        <v>7.367</v>
+        <v>7.351</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1889,34 +1862,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.75</v>
+        <v>6.88</v>
       </c>
       <c r="C4">
-        <v>6.95</v>
+        <v>6.99</v>
       </c>
       <c r="D4">
-        <v>6.92</v>
+        <v>6.908</v>
       </c>
       <c r="E4">
-        <v>6.887</v>
+        <v>6.875</v>
       </c>
       <c r="F4">
-        <v>6.94</v>
+        <v>6.894</v>
       </c>
       <c r="G4">
-        <v>6.993</v>
+        <v>6.948</v>
       </c>
       <c r="H4">
-        <v>7.123</v>
+        <v>7.008</v>
       </c>
       <c r="I4">
-        <v>7.11</v>
+        <v>7.011</v>
       </c>
       <c r="J4">
-        <v>7.23</v>
+        <v>7.156</v>
       </c>
       <c r="L4">
-        <v>7.253</v>
+        <v>7.174</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1924,34 +1897,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.58</v>
+        <v>5.54</v>
       </c>
       <c r="C5">
-        <v>5.88</v>
+        <v>5.9</v>
       </c>
       <c r="D5">
-        <v>6.299</v>
+        <v>6.16</v>
       </c>
       <c r="E5">
-        <v>6.622</v>
+        <v>6.452</v>
       </c>
       <c r="F5">
-        <v>6.879</v>
+        <v>6.751</v>
       </c>
       <c r="G5">
-        <v>7.015</v>
+        <v>6.872</v>
       </c>
       <c r="H5">
-        <v>7.194</v>
+        <v>7.059</v>
       </c>
       <c r="I5">
-        <v>7.3</v>
+        <v>7.182</v>
       </c>
       <c r="J5">
-        <v>7.4</v>
+        <v>7.398</v>
       </c>
       <c r="L5">
-        <v>7.652</v>
+        <v>7.544</v>
       </c>
     </row>
   </sheetData>
@@ -2010,37 +1983,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.608</v>
+        <v>3.713</v>
       </c>
       <c r="C2">
-        <v>3.66</v>
+        <v>3.655</v>
       </c>
       <c r="D2">
-        <v>3.656</v>
+        <v>3.602</v>
       </c>
       <c r="E2">
-        <v>3.253</v>
+        <v>3.227</v>
       </c>
       <c r="F2">
-        <v>2.997</v>
+        <v>3.02</v>
       </c>
       <c r="G2">
-        <v>2.898</v>
+        <v>2.944</v>
       </c>
       <c r="H2">
-        <v>2.876</v>
+        <v>2.9325</v>
       </c>
       <c r="I2">
-        <v>3.071</v>
+        <v>3.132</v>
       </c>
       <c r="J2">
-        <v>3.309</v>
+        <v>3.38</v>
       </c>
       <c r="K2">
-        <v>3.424</v>
+        <v>3.493</v>
       </c>
       <c r="L2">
-        <v>3.504</v>
+        <v>3.552</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2048,37 +2021,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.478</v>
+        <v>3.545</v>
       </c>
       <c r="C3">
-        <v>3.583</v>
+        <v>3.717</v>
       </c>
       <c r="D3">
-        <v>3.704</v>
+        <v>3.79</v>
       </c>
       <c r="E3">
-        <v>3.366</v>
+        <v>3.405</v>
       </c>
       <c r="F3">
-        <v>3.12</v>
+        <v>3.195</v>
       </c>
       <c r="G3">
-        <v>2.948</v>
+        <v>3.015</v>
       </c>
       <c r="H3">
-        <v>2.874</v>
+        <v>2.9504</v>
       </c>
       <c r="I3">
-        <v>3.002</v>
+        <v>3.098</v>
       </c>
       <c r="J3">
-        <v>3.205</v>
+        <v>3.334</v>
       </c>
       <c r="K3">
-        <v>3.314</v>
+        <v>3.436</v>
       </c>
       <c r="L3">
-        <v>3.33</v>
+        <v>3.469</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2086,37 +2059,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.078</v>
+        <v>3.125</v>
       </c>
       <c r="C4">
-        <v>3.216</v>
+        <v>3.19</v>
       </c>
       <c r="D4">
-        <v>3.278</v>
+        <v>3.22</v>
       </c>
       <c r="E4">
-        <v>2.957</v>
+        <v>2.764</v>
       </c>
       <c r="F4">
-        <v>2.844</v>
+        <v>2.645</v>
       </c>
       <c r="G4">
-        <v>2.8</v>
+        <v>2.627</v>
       </c>
       <c r="H4">
-        <v>2.8188</v>
+        <v>2.6672</v>
       </c>
       <c r="I4">
-        <v>3.028</v>
+        <v>2.91</v>
       </c>
       <c r="J4">
-        <v>3.304</v>
+        <v>3.21</v>
       </c>
       <c r="K4">
-        <v>3.389</v>
+        <v>3.323</v>
       </c>
       <c r="L4">
-        <v>3.447</v>
+        <v>3.414</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2124,37 +2097,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="C5">
-        <v>0.191</v>
+        <v>0.175</v>
       </c>
       <c r="D5">
-        <v>0.535</v>
+        <v>0.53</v>
       </c>
       <c r="E5">
-        <v>0.382</v>
+        <v>0.48</v>
       </c>
       <c r="F5">
-        <v>0.752</v>
+        <v>0.756</v>
       </c>
       <c r="G5">
-        <v>0.909</v>
+        <v>0.898</v>
       </c>
       <c r="H5">
-        <v>1.0927</v>
+        <v>1.0618</v>
       </c>
       <c r="I5">
-        <v>1.495</v>
+        <v>1.467</v>
       </c>
       <c r="J5">
-        <v>1.81</v>
+        <v>1.801</v>
       </c>
       <c r="K5">
-        <v>1.92</v>
+        <v>1.906</v>
       </c>
       <c r="L5">
-        <v>2.046</v>
+        <v>2.063</v>
       </c>
     </row>
   </sheetData>
@@ -2213,37 +2186,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.557</v>
+        <v>3.588</v>
       </c>
       <c r="C2">
-        <v>3.593</v>
+        <v>3.54</v>
       </c>
       <c r="D2">
-        <v>3.643</v>
+        <v>3.574</v>
       </c>
       <c r="E2">
-        <v>3.178</v>
+        <v>3.026</v>
       </c>
       <c r="F2">
-        <v>2.884</v>
+        <v>2.886</v>
       </c>
       <c r="G2">
-        <v>2.594</v>
+        <v>2.607</v>
       </c>
       <c r="H2">
-        <v>2.491</v>
+        <v>2.525</v>
       </c>
       <c r="I2">
-        <v>2.541</v>
+        <v>2.6055</v>
       </c>
       <c r="J2">
-        <v>2.707</v>
+        <v>2.737</v>
       </c>
       <c r="K2">
-        <v>2.715</v>
+        <v>2.745</v>
       </c>
       <c r="L2">
-        <v>2.641</v>
+        <v>2.688</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2251,37 +2224,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.412</v>
+        <v>3.516</v>
       </c>
       <c r="C3">
-        <v>3.605</v>
+        <v>3.568</v>
       </c>
       <c r="D3">
-        <v>3.669</v>
+        <v>3.627</v>
       </c>
       <c r="E3">
-        <v>3.308</v>
+        <v>3.179</v>
       </c>
       <c r="F3">
-        <v>3.05</v>
+        <v>2.872</v>
       </c>
       <c r="G3">
-        <v>2.756</v>
+        <v>2.501</v>
       </c>
       <c r="H3">
-        <v>2.622</v>
+        <v>2.358</v>
       </c>
       <c r="I3">
-        <v>2.635</v>
+        <v>2.35</v>
       </c>
       <c r="J3">
-        <v>2.737</v>
+        <v>2.491</v>
       </c>
       <c r="K3">
-        <v>2.74</v>
+        <v>2.499</v>
       </c>
       <c r="L3">
-        <v>2.644</v>
+        <v>2.421</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2289,37 +2262,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2.954</v>
+        <v>2.916</v>
       </c>
       <c r="C4">
-        <v>3.03</v>
+        <v>3.077</v>
       </c>
       <c r="D4">
-        <v>3.158</v>
+        <v>3.167</v>
       </c>
       <c r="E4">
-        <v>2.642</v>
+        <v>2.849</v>
       </c>
       <c r="F4">
-        <v>2.42</v>
+        <v>2.627</v>
       </c>
       <c r="G4">
-        <v>2.245</v>
+        <v>2.449</v>
       </c>
       <c r="H4">
-        <v>2.206</v>
+        <v>2.377</v>
       </c>
       <c r="I4">
-        <v>2.309</v>
+        <v>2.465</v>
       </c>
       <c r="J4">
-        <v>2.523</v>
+        <v>2.675</v>
       </c>
       <c r="K4">
-        <v>2.533</v>
+        <v>2.676</v>
       </c>
       <c r="L4">
-        <v>2.507</v>
+        <v>2.634</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2327,37 +2300,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.068</v>
+        <v>0.064</v>
       </c>
       <c r="C5">
-        <v>0.093</v>
+        <v>0.083</v>
       </c>
       <c r="D5">
-        <v>0.455</v>
+        <v>0.4</v>
       </c>
       <c r="E5">
-        <v>0.472</v>
+        <v>0.523</v>
       </c>
       <c r="F5">
-        <v>0.464</v>
+        <v>0.46</v>
       </c>
       <c r="G5">
-        <v>0.721</v>
+        <v>0.674</v>
       </c>
       <c r="H5">
-        <v>0.722</v>
+        <v>0.666</v>
       </c>
       <c r="I5">
-        <v>0.961</v>
+        <v>0.903</v>
       </c>
       <c r="J5">
-        <v>1.157</v>
+        <v>1.12</v>
       </c>
       <c r="K5">
-        <v>1.126</v>
+        <v>1.1</v>
       </c>
       <c r="L5">
-        <v>1.172</v>
+        <v>1.158</v>
       </c>
     </row>
   </sheetData>
@@ -2416,22 +2389,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>5.627</v>
+        <v>5.58</v>
       </c>
       <c r="E2">
-        <v>5.449</v>
+        <v>5.347</v>
       </c>
       <c r="F2">
-        <v>5.34</v>
+        <v>5.26</v>
       </c>
       <c r="G2">
-        <v>5.374</v>
+        <v>5.298</v>
       </c>
       <c r="H2">
-        <v>5.361</v>
+        <v>5.295</v>
       </c>
       <c r="I2">
-        <v>5.574</v>
+        <v>5.534</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2439,22 +2412,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>6.047</v>
+        <v>5.77</v>
       </c>
       <c r="E3">
-        <v>5.787</v>
+        <v>5.434</v>
       </c>
       <c r="F3">
-        <v>5.731</v>
+        <v>5.458</v>
       </c>
       <c r="G3">
-        <v>5.6</v>
+        <v>5.403</v>
       </c>
       <c r="H3">
-        <v>5.638</v>
+        <v>5.487</v>
       </c>
       <c r="I3">
-        <v>5.717</v>
+        <v>5.624</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2462,22 +2435,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5.794</v>
+        <v>5.755</v>
       </c>
       <c r="E4">
-        <v>5.891</v>
+        <v>5.803</v>
       </c>
       <c r="F4">
-        <v>5.932</v>
+        <v>5.825</v>
       </c>
       <c r="G4">
-        <v>5.85</v>
+        <v>5.778</v>
       </c>
       <c r="H4">
-        <v>5.846</v>
+        <v>5.758</v>
       </c>
       <c r="I4">
-        <v>5.909</v>
+        <v>5.838</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2485,22 +2458,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>6.649</v>
+        <v>6.778</v>
       </c>
       <c r="E5">
-        <v>6.712</v>
+        <v>6.696</v>
       </c>
       <c r="F5">
-        <v>6.271</v>
+        <v>6.23</v>
       </c>
       <c r="G5">
-        <v>5.979</v>
+        <v>5.845</v>
       </c>
       <c r="H5">
-        <v>5.56</v>
+        <v>5.552</v>
       </c>
       <c r="I5">
-        <v>5.528</v>
+        <v>5.519</v>
       </c>
     </row>
   </sheetData>
@@ -2559,19 +2532,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>11.369</v>
+        <v>11.22</v>
       </c>
       <c r="E2">
-        <v>9.760999999999999</v>
+        <v>10.05</v>
       </c>
       <c r="F2">
-        <v>10.17</v>
+        <v>10.13</v>
       </c>
       <c r="G2">
-        <v>10.569</v>
+        <v>10.61</v>
       </c>
       <c r="I2">
-        <v>10.803</v>
+        <v>10.926</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2579,19 +2552,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>11.595</v>
+        <v>11.685</v>
       </c>
       <c r="E3">
-        <v>10.351</v>
+        <v>10.388</v>
       </c>
       <c r="F3">
-        <v>10.161</v>
+        <v>10.202</v>
       </c>
       <c r="G3">
-        <v>10.52</v>
+        <v>10.525</v>
       </c>
       <c r="I3">
-        <v>10.643</v>
+        <v>10.673</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2599,19 +2572,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>12.885</v>
+        <v>12.84</v>
       </c>
       <c r="E4">
-        <v>11.85</v>
+        <v>11.69</v>
       </c>
       <c r="F4">
-        <v>11.825</v>
+        <v>11.546</v>
       </c>
       <c r="G4">
-        <v>12.21</v>
+        <v>11.895</v>
       </c>
       <c r="I4">
-        <v>12.338</v>
+        <v>12.077</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2619,19 +2592,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>13.705</v>
+        <v>13.57</v>
       </c>
       <c r="E5">
-        <v>12.87</v>
+        <v>12.26</v>
       </c>
       <c r="F5">
-        <v>12.195</v>
+        <v>11.785</v>
       </c>
       <c r="G5">
-        <v>12.14</v>
+        <v>11.62</v>
       </c>
       <c r="I5">
-        <v>12.46</v>
+        <v>11.95</v>
       </c>
     </row>
   </sheetData>
@@ -2690,25 +2663,25 @@
         <v>12</v>
       </c>
       <c r="E2">
+        <v>2.985</v>
+      </c>
+      <c r="F2">
+        <v>2.917</v>
+      </c>
+      <c r="G2">
         <v>3.003</v>
       </c>
-      <c r="F2">
-        <v>2.965</v>
-      </c>
-      <c r="G2">
-        <v>2.995</v>
-      </c>
       <c r="H2">
-        <v>3.117</v>
+        <v>3.152</v>
       </c>
       <c r="I2">
-        <v>3.295</v>
+        <v>3.305</v>
       </c>
       <c r="J2">
-        <v>3.656</v>
+        <v>3.671</v>
       </c>
       <c r="L2">
-        <v>3.678</v>
+        <v>3.701</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2716,25 +2689,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>3.031</v>
+        <v>3.072</v>
       </c>
       <c r="F3">
-        <v>3.016</v>
+        <v>3.04</v>
       </c>
       <c r="G3">
-        <v>3.016</v>
+        <v>3.077</v>
       </c>
       <c r="H3">
-        <v>3.063</v>
+        <v>3.122</v>
       </c>
       <c r="I3">
-        <v>3.207</v>
+        <v>3.308</v>
       </c>
       <c r="J3">
-        <v>3.575</v>
+        <v>3.668</v>
       </c>
       <c r="L3">
-        <v>3.55</v>
+        <v>3.641</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2742,25 +2715,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>2.753</v>
+        <v>2.713</v>
       </c>
       <c r="F4">
-        <v>2.696</v>
+        <v>2.682</v>
       </c>
       <c r="G4">
-        <v>2.737</v>
+        <v>2.742</v>
       </c>
       <c r="H4">
-        <v>2.879</v>
+        <v>2.878</v>
       </c>
       <c r="I4">
-        <v>3.155</v>
+        <v>3.181</v>
       </c>
       <c r="J4">
-        <v>3.496</v>
+        <v>3.545</v>
       </c>
       <c r="L4">
-        <v>3.565</v>
+        <v>3.619</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2768,22 +2741,22 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>0.591</v>
+        <v>0.595</v>
       </c>
       <c r="F5">
-        <v>0.836</v>
+        <v>0.844</v>
       </c>
       <c r="G5">
-        <v>1.182</v>
+        <v>1.181</v>
       </c>
       <c r="H5">
-        <v>1.414</v>
+        <v>1.383</v>
       </c>
       <c r="I5">
-        <v>1.966</v>
+        <v>1.92</v>
       </c>
       <c r="J5">
-        <v>2.217</v>
+        <v>2.161</v>
       </c>
       <c r="L5">
         <v>2.408</v>
@@ -2845,37 +2818,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.626</v>
+        <v>5.502</v>
       </c>
       <c r="C2">
-        <v>5.552</v>
+        <v>5.674</v>
       </c>
       <c r="D2">
-        <v>5.0745</v>
+        <v>5.187</v>
       </c>
       <c r="E2">
-        <v>4.887</v>
+        <v>5.0865</v>
       </c>
       <c r="F2">
-        <v>4.658</v>
+        <v>4.8375</v>
       </c>
       <c r="G2">
-        <v>4.4115</v>
+        <v>4.5865</v>
       </c>
       <c r="H2">
-        <v>4.3465</v>
+        <v>4.5175</v>
       </c>
       <c r="I2">
-        <v>4.4235</v>
+        <v>4.581</v>
       </c>
       <c r="J2">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="K2">
-        <v>4.663</v>
+        <v>4.823</v>
       </c>
       <c r="L2">
-        <v>4.621</v>
+        <v>4.779</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2883,37 +2856,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.391</v>
+        <v>5.522</v>
       </c>
       <c r="C3">
-        <v>5.742</v>
+        <v>5.734</v>
       </c>
       <c r="D3">
-        <v>5.208</v>
+        <v>5.2285</v>
       </c>
       <c r="E3">
-        <v>5.134</v>
+        <v>4.993</v>
       </c>
       <c r="F3">
-        <v>4.887</v>
+        <v>4.704</v>
       </c>
       <c r="G3">
-        <v>4.562</v>
+        <v>4.409</v>
       </c>
       <c r="H3">
-        <v>4.419</v>
+        <v>4.2725</v>
       </c>
       <c r="I3">
-        <v>4.424</v>
+        <v>4.3125</v>
       </c>
       <c r="J3">
-        <v>4.606</v>
+        <v>4.508</v>
       </c>
       <c r="K3">
-        <v>4.596</v>
+        <v>4.512</v>
       </c>
       <c r="L3">
-        <v>4.539</v>
+        <v>4.417</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2921,37 +2894,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.795</v>
+        <v>4.864</v>
       </c>
       <c r="C4">
-        <v>5.083</v>
+        <v>5.085</v>
       </c>
       <c r="D4">
-        <v>4.898</v>
+        <v>4.854</v>
       </c>
       <c r="E4">
-        <v>4.5195</v>
+        <v>4.435</v>
       </c>
       <c r="F4">
-        <v>4.4865</v>
+        <v>4.349</v>
       </c>
       <c r="G4">
-        <v>4.306</v>
+        <v>4.163</v>
       </c>
       <c r="H4">
-        <v>4.2615</v>
+        <v>4.114</v>
       </c>
       <c r="I4">
-        <v>4.338</v>
+        <v>4.203</v>
       </c>
       <c r="J4">
-        <v>4.627</v>
+        <v>4.445</v>
       </c>
       <c r="K4">
-        <v>4.669</v>
+        <v>4.475</v>
       </c>
       <c r="L4">
-        <v>4.648</v>
+        <v>4.504</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2959,37 +2932,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.812</v>
+        <v>1.872</v>
       </c>
       <c r="C5">
-        <v>2.151</v>
+        <v>2.23</v>
       </c>
       <c r="D5">
-        <v>2.145</v>
+        <v>2.17</v>
       </c>
       <c r="E5">
-        <v>1.965</v>
+        <v>2.035</v>
       </c>
       <c r="F5">
-        <v>1.85</v>
+        <v>1.822</v>
       </c>
       <c r="G5">
-        <v>1.875</v>
+        <v>1.859</v>
       </c>
       <c r="H5">
-        <v>1.957</v>
+        <v>1.944</v>
       </c>
       <c r="I5">
-        <v>2.052</v>
+        <v>2.023</v>
       </c>
       <c r="J5">
-        <v>2.414</v>
+        <v>2.423</v>
       </c>
       <c r="K5">
-        <v>2.471</v>
+        <v>2.479</v>
       </c>
       <c r="L5">
-        <v>2.433</v>
+        <v>2.436</v>
       </c>
     </row>
   </sheetData>
@@ -3048,34 +3021,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.106</v>
+        <v>-0.211</v>
       </c>
       <c r="C2">
-        <v>-0.174</v>
+        <v>-0.162</v>
       </c>
       <c r="D2">
-        <v>-0.081</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="E2">
-        <v>0.026</v>
+        <v>0.014</v>
       </c>
       <c r="F2">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G2">
-        <v>0.215</v>
+        <v>0.197</v>
       </c>
       <c r="H2">
-        <v>0.44</v>
+        <v>0.409</v>
+      </c>
+      <c r="I2">
+        <v>0.608</v>
       </c>
       <c r="J2">
-        <v>1.085</v>
+        <v>1.018</v>
       </c>
       <c r="K2">
-        <v>1.336</v>
+        <v>1.285</v>
       </c>
       <c r="L2">
-        <v>1.618</v>
+        <v>1.534</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3083,34 +3059,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-0.22</v>
+        <v>-0.152</v>
       </c>
       <c r="C3">
-        <v>-0.199</v>
+        <v>-0.195</v>
       </c>
       <c r="D3">
-        <v>-0.115</v>
+        <v>-0.131</v>
       </c>
       <c r="E3">
-        <v>-0.038</v>
+        <v>-0.044</v>
       </c>
       <c r="F3">
-        <v>-0.021</v>
+        <v>-0.025</v>
       </c>
       <c r="G3">
-        <v>0.1</v>
+        <v>0.119</v>
       </c>
       <c r="H3">
-        <v>0.256</v>
+        <v>0.322</v>
+      </c>
+      <c r="I3">
+        <v>0.468</v>
       </c>
       <c r="J3">
-        <v>0.805</v>
+        <v>0.873</v>
       </c>
       <c r="K3">
-        <v>1.027</v>
+        <v>1.12</v>
       </c>
       <c r="L3">
-        <v>1.28</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3118,34 +3097,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.171</v>
+        <v>-0.167</v>
       </c>
       <c r="C4">
-        <v>-0.159</v>
+        <v>-0.176</v>
       </c>
       <c r="D4">
-        <v>-0.132</v>
+        <v>-0.125</v>
       </c>
       <c r="E4">
-        <v>-0.052</v>
+        <v>-0.065</v>
       </c>
       <c r="F4">
-        <v>-0.042</v>
+        <v>-0.043</v>
       </c>
       <c r="G4">
-        <v>0.101</v>
+        <v>0.097</v>
       </c>
       <c r="H4">
-        <v>0.191</v>
+        <v>0.201</v>
+      </c>
+      <c r="I4">
+        <v>0.393</v>
       </c>
       <c r="J4">
-        <v>0.767</v>
+        <v>0.74</v>
       </c>
       <c r="K4">
-        <v>1.006</v>
+        <v>0.994</v>
       </c>
       <c r="L4">
-        <v>1.239</v>
+        <v>1.252</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3153,34 +3135,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.134</v>
+        <v>-0.119</v>
       </c>
       <c r="C5">
-        <v>-0.206</v>
+        <v>-0.169</v>
       </c>
       <c r="D5">
-        <v>-0.15</v>
+        <v>-0.138</v>
       </c>
       <c r="E5">
-        <v>-0.099</v>
+        <v>-0.089</v>
       </c>
       <c r="F5">
-        <v>-0.103</v>
-      </c>
-      <c r="G5">
-        <v>-0.035</v>
+        <v>-0.083</v>
       </c>
       <c r="H5">
-        <v>0.026</v>
+        <v>0.067</v>
+      </c>
+      <c r="I5">
+        <v>0.191</v>
       </c>
       <c r="J5">
-        <v>0.533</v>
+        <v>0.529</v>
       </c>
       <c r="K5">
-        <v>0.804</v>
+        <v>0.787</v>
       </c>
       <c r="L5">
-        <v>1.155</v>
+        <v>1.119</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -8,28 +8,27 @@
   </bookViews>
   <sheets>
     <sheet name="Canada" sheetId="1" r:id="rId1"/>
-    <sheet name="India" sheetId="2" r:id="rId2"/>
-    <sheet name="France" sheetId="3" r:id="rId3"/>
-    <sheet name="Germany" sheetId="4" r:id="rId4"/>
-    <sheet name="Poland" sheetId="5" r:id="rId5"/>
-    <sheet name="Brazil" sheetId="6" r:id="rId6"/>
-    <sheet name="Portugal" sheetId="7" r:id="rId7"/>
-    <sheet name="UK" sheetId="8" r:id="rId8"/>
-    <sheet name="Japan" sheetId="9" r:id="rId9"/>
-    <sheet name="Russia" sheetId="10" r:id="rId10"/>
-    <sheet name="Australia" sheetId="11" r:id="rId11"/>
-    <sheet name="Italy" sheetId="12" r:id="rId12"/>
-    <sheet name="Switzerland" sheetId="13" r:id="rId13"/>
-    <sheet name="China" sheetId="14" r:id="rId14"/>
-    <sheet name="South Africa" sheetId="15" r:id="rId15"/>
-    <sheet name="Turkey" sheetId="16" r:id="rId16"/>
+    <sheet name="France" sheetId="2" r:id="rId2"/>
+    <sheet name="Germany" sheetId="3" r:id="rId3"/>
+    <sheet name="Poland" sheetId="4" r:id="rId4"/>
+    <sheet name="Brazil" sheetId="5" r:id="rId5"/>
+    <sheet name="Portugal" sheetId="6" r:id="rId6"/>
+    <sheet name="UK" sheetId="7" r:id="rId7"/>
+    <sheet name="Japan" sheetId="8" r:id="rId8"/>
+    <sheet name="Russia" sheetId="9" r:id="rId9"/>
+    <sheet name="Australia" sheetId="10" r:id="rId10"/>
+    <sheet name="Italy" sheetId="11" r:id="rId11"/>
+    <sheet name="Switzerland" sheetId="12" r:id="rId12"/>
+    <sheet name="China" sheetId="13" r:id="rId13"/>
+    <sheet name="South Africa" sheetId="14" r:id="rId14"/>
+    <sheet name="Turkey" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="16">
   <si>
     <t>Period</t>
   </si>
@@ -483,31 +482,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.095</v>
+        <v>5.193</v>
       </c>
       <c r="C2">
-        <v>5.17</v>
+        <v>5.243</v>
       </c>
       <c r="D2">
-        <v>5.24</v>
+        <v>5.261</v>
       </c>
       <c r="E2">
-        <v>4.675</v>
+        <v>4.773</v>
+      </c>
+      <c r="F2">
+        <v>4.518</v>
       </c>
       <c r="G2">
-        <v>3.986</v>
+        <v>4.071</v>
       </c>
       <c r="H2">
-        <v>3.76</v>
+        <v>3.828</v>
       </c>
       <c r="I2">
-        <v>3.648</v>
+        <v>3.702</v>
       </c>
       <c r="K2">
-        <v>3.613</v>
+        <v>3.665</v>
       </c>
       <c r="L2">
-        <v>3.49</v>
+        <v>3.535</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -521,25 +523,28 @@
         <v>5.09</v>
       </c>
       <c r="D3">
-        <v>5.19</v>
+        <v>5.2</v>
       </c>
       <c r="E3">
-        <v>4.738</v>
+        <v>4.805</v>
+      </c>
+      <c r="F3">
+        <v>4.465</v>
       </c>
       <c r="G3">
-        <v>3.907</v>
+        <v>3.952</v>
       </c>
       <c r="H3">
-        <v>3.668</v>
+        <v>3.714</v>
       </c>
       <c r="I3">
-        <v>3.513</v>
+        <v>3.536</v>
       </c>
       <c r="K3">
-        <v>3.465</v>
+        <v>3.484</v>
       </c>
       <c r="L3">
-        <v>3.309</v>
+        <v>3.329</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -553,25 +558,28 @@
         <v>4.51</v>
       </c>
       <c r="D4">
-        <v>4.47</v>
+        <v>4.46</v>
       </c>
       <c r="E4">
-        <v>3.652</v>
+        <v>3.586</v>
+      </c>
+      <c r="F4">
+        <v>3.39</v>
       </c>
       <c r="G4">
-        <v>2.953</v>
+        <v>2.87</v>
       </c>
       <c r="H4">
-        <v>2.808</v>
+        <v>2.731</v>
       </c>
       <c r="I4">
-        <v>2.822</v>
+        <v>2.761</v>
       </c>
       <c r="K4">
-        <v>3.034</v>
+        <v>3.001</v>
       </c>
       <c r="L4">
-        <v>2.957</v>
+        <v>2.933</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -589,6 +597,9 @@
       </c>
       <c r="E5">
         <v>3.209</v>
+      </c>
+      <c r="F5">
+        <v>3.111</v>
       </c>
       <c r="G5">
         <v>2.809</v>
@@ -662,22 +673,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>12.315</v>
+        <v>4.144</v>
       </c>
       <c r="E2">
-        <v>10.32</v>
+        <v>4.006</v>
       </c>
       <c r="F2">
-        <v>11.8</v>
+        <v>3.957</v>
       </c>
       <c r="G2">
-        <v>10.8</v>
+        <v>4.005</v>
+      </c>
+      <c r="H2">
+        <v>4.14</v>
       </c>
       <c r="I2">
-        <v>11.88</v>
+        <v>4.238</v>
       </c>
       <c r="J2">
-        <v>12.07</v>
+        <v>4.483</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -685,22 +699,25 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>9.82</v>
+        <v>4.193</v>
       </c>
       <c r="E3">
-        <v>10.25</v>
+        <v>4.085</v>
       </c>
       <c r="F3">
-        <v>10.05</v>
+        <v>3.956</v>
       </c>
       <c r="G3">
-        <v>10.82</v>
+        <v>3.86</v>
+      </c>
+      <c r="H3">
+        <v>3.91</v>
       </c>
       <c r="I3">
-        <v>11.35</v>
+        <v>3.955</v>
       </c>
       <c r="J3">
-        <v>11.62</v>
+        <v>4.095</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -708,22 +725,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>3.79</v>
       </c>
       <c r="E4">
-        <v>8.949999999999999</v>
+        <v>3.605</v>
       </c>
       <c r="F4">
-        <v>8.720000000000001</v>
+        <v>3.451</v>
       </c>
       <c r="G4">
-        <v>9.91</v>
+        <v>3.472</v>
+      </c>
+      <c r="H4">
+        <v>3.598</v>
       </c>
       <c r="I4">
-        <v>10.63</v>
+        <v>3.716</v>
       </c>
       <c r="J4">
-        <v>11.06</v>
+        <v>3.943</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -731,22 +751,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>11.46</v>
+        <v>2.824</v>
       </c>
       <c r="E5">
-        <v>9.07</v>
+        <v>2.977</v>
       </c>
       <c r="F5">
-        <v>8.140000000000001</v>
+        <v>3.114</v>
       </c>
       <c r="G5">
-        <v>9.07</v>
+        <v>3.192</v>
+      </c>
+      <c r="H5">
+        <v>3.283</v>
       </c>
       <c r="I5">
-        <v>9.17</v>
+        <v>3.388</v>
       </c>
       <c r="J5">
-        <v>9.57</v>
+        <v>3.591</v>
       </c>
     </row>
   </sheetData>
@@ -804,104 +827,128 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>3.343</v>
+      </c>
+      <c r="C2">
+        <v>3.737</v>
+      </c>
       <c r="D2">
-        <v>4.126</v>
+        <v>3.81</v>
       </c>
       <c r="E2">
-        <v>3.963</v>
+        <v>3.724</v>
       </c>
       <c r="F2">
-        <v>3.915</v>
+        <v>3.669</v>
       </c>
       <c r="G2">
-        <v>3.966</v>
+        <v>3.819</v>
       </c>
       <c r="H2">
-        <v>4.104</v>
+        <v>4.004</v>
       </c>
       <c r="I2">
-        <v>4.205</v>
+        <v>4.274</v>
       </c>
       <c r="J2">
-        <v>4.449</v>
+        <v>4.466</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>3.604</v>
+      </c>
+      <c r="C3">
+        <v>3.721</v>
+      </c>
       <c r="D3">
-        <v>4.193</v>
+        <v>3.908</v>
       </c>
       <c r="E3">
-        <v>4.085</v>
+        <v>3.884</v>
       </c>
       <c r="F3">
-        <v>3.956</v>
+        <v>3.786</v>
       </c>
       <c r="G3">
-        <v>3.86</v>
+        <v>3.839</v>
       </c>
       <c r="H3">
-        <v>3.91</v>
+        <v>4.032</v>
       </c>
       <c r="I3">
-        <v>3.955</v>
+        <v>4.277</v>
       </c>
       <c r="J3">
-        <v>4.095</v>
+        <v>4.468</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>3.193</v>
+      </c>
+      <c r="C4">
+        <v>3.297</v>
+      </c>
       <c r="D4">
-        <v>3.79</v>
+        <v>3.386</v>
       </c>
       <c r="E4">
-        <v>3.605</v>
+        <v>3.299</v>
       </c>
       <c r="F4">
-        <v>3.451</v>
+        <v>3.432</v>
       </c>
       <c r="G4">
-        <v>3.472</v>
+        <v>3.658</v>
       </c>
       <c r="H4">
-        <v>3.598</v>
+        <v>3.988</v>
       </c>
       <c r="I4">
-        <v>3.716</v>
+        <v>4.236</v>
       </c>
       <c r="J4">
-        <v>3.943</v>
+        <v>4.531</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>0.01</v>
+      </c>
+      <c r="C5">
+        <v>0.5610000000000001</v>
+      </c>
       <c r="D5">
-        <v>2.824</v>
+        <v>0.973</v>
       </c>
       <c r="E5">
-        <v>2.977</v>
+        <v>1.33</v>
       </c>
       <c r="F5">
-        <v>3.114</v>
+        <v>1.728</v>
       </c>
       <c r="G5">
-        <v>3.192</v>
+        <v>2.189</v>
       </c>
       <c r="H5">
-        <v>3.283</v>
+        <v>2.582</v>
       </c>
       <c r="I5">
-        <v>3.388</v>
+        <v>3.072</v>
       </c>
       <c r="J5">
-        <v>3.591</v>
+        <v>3.186</v>
       </c>
     </row>
   </sheetData>
@@ -960,31 +1007,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.307</v>
+        <v>1.65</v>
       </c>
       <c r="C2">
-        <v>3.734</v>
+        <v>1.73</v>
       </c>
       <c r="D2">
-        <v>3.78</v>
+        <v>1.91</v>
       </c>
       <c r="E2">
-        <v>3.648</v>
+        <v>1.081</v>
       </c>
       <c r="F2">
-        <v>3.598</v>
+        <v>1.055</v>
       </c>
       <c r="G2">
-        <v>3.751</v>
+        <v>0.99</v>
       </c>
       <c r="H2">
-        <v>3.945</v>
+        <v>0.989</v>
       </c>
       <c r="I2">
-        <v>4.217</v>
+        <v>1.03</v>
       </c>
       <c r="J2">
-        <v>4.413</v>
+        <v>1.047</v>
+      </c>
+      <c r="K2">
+        <v>1.022</v>
+      </c>
+      <c r="L2">
+        <v>0.998</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -992,31 +1045,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.604</v>
+        <v>1.65</v>
       </c>
       <c r="C3">
-        <v>3.721</v>
+        <v>1.74</v>
       </c>
       <c r="D3">
-        <v>3.908</v>
+        <v>1.96</v>
       </c>
       <c r="E3">
-        <v>3.884</v>
+        <v>1.5</v>
       </c>
       <c r="F3">
-        <v>3.786</v>
+        <v>1.296</v>
       </c>
       <c r="G3">
-        <v>3.839</v>
+        <v>1.14</v>
       </c>
       <c r="H3">
-        <v>4.032</v>
+        <v>1.175</v>
       </c>
       <c r="I3">
-        <v>4.277</v>
+        <v>1.136</v>
       </c>
       <c r="J3">
-        <v>4.468</v>
+        <v>1.152</v>
+      </c>
+      <c r="K3">
+        <v>1.133</v>
+      </c>
+      <c r="L3">
+        <v>1.056</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1024,31 +1083,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.193</v>
+        <v>1.36</v>
       </c>
       <c r="C4">
-        <v>3.297</v>
+        <v>1.48</v>
       </c>
       <c r="D4">
-        <v>3.386</v>
+        <v>1.74</v>
       </c>
       <c r="E4">
-        <v>3.299</v>
+        <v>1.176</v>
       </c>
       <c r="F4">
-        <v>3.432</v>
+        <v>1.087</v>
       </c>
       <c r="G4">
-        <v>3.658</v>
+        <v>1.002</v>
       </c>
       <c r="H4">
-        <v>3.988</v>
+        <v>1.016</v>
       </c>
       <c r="I4">
-        <v>4.236</v>
+        <v>1.101</v>
       </c>
       <c r="J4">
-        <v>4.531</v>
+        <v>1.143</v>
+      </c>
+      <c r="K4">
+        <v>1.179</v>
+      </c>
+      <c r="L4">
+        <v>1.137</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1056,31 +1121,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.01</v>
+        <v>-0.1</v>
       </c>
       <c r="C5">
-        <v>0.5610000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="D5">
-        <v>0.973</v>
+        <v>0.67</v>
       </c>
       <c r="E5">
-        <v>1.33</v>
+        <v>0.12</v>
       </c>
       <c r="F5">
-        <v>1.728</v>
+        <v>0.081</v>
       </c>
       <c r="G5">
-        <v>2.189</v>
+        <v>0.196</v>
       </c>
       <c r="H5">
-        <v>2.582</v>
+        <v>0.248</v>
       </c>
       <c r="I5">
-        <v>3.072</v>
+        <v>0.427</v>
       </c>
       <c r="J5">
-        <v>3.186</v>
+        <v>0.62</v>
+      </c>
+      <c r="K5">
+        <v>0.66</v>
+      </c>
+      <c r="L5">
+        <v>0.641</v>
       </c>
     </row>
   </sheetData>
@@ -1138,152 +1209,128 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>1.67</v>
-      </c>
-      <c r="C2">
-        <v>1.71</v>
-      </c>
       <c r="D2">
-        <v>1.86</v>
+        <v>1.806</v>
       </c>
       <c r="E2">
-        <v>1.081</v>
+        <v>2.102</v>
       </c>
       <c r="F2">
-        <v>1.056</v>
+        <v>2.216</v>
       </c>
       <c r="G2">
-        <v>1.001</v>
+        <v>2.4</v>
       </c>
       <c r="H2">
-        <v>0.999</v>
+        <v>2.597</v>
       </c>
       <c r="I2">
-        <v>1.03</v>
+        <v>2.638</v>
       </c>
       <c r="J2">
-        <v>1.053</v>
+        <v>2.814</v>
       </c>
       <c r="K2">
-        <v>1.037</v>
+        <v>3.007</v>
       </c>
       <c r="L2">
-        <v>1.008</v>
+        <v>2.984</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>1.65</v>
-      </c>
-      <c r="C3">
-        <v>1.74</v>
-      </c>
       <c r="D3">
-        <v>1.96</v>
+        <v>1.809</v>
       </c>
       <c r="E3">
-        <v>1.5</v>
+        <v>2.108</v>
       </c>
       <c r="F3">
-        <v>1.296</v>
+        <v>2.247</v>
       </c>
       <c r="G3">
-        <v>1.14</v>
+        <v>2.428</v>
       </c>
       <c r="H3">
-        <v>1.175</v>
+        <v>2.629</v>
       </c>
       <c r="I3">
-        <v>1.136</v>
+        <v>2.683</v>
       </c>
       <c r="J3">
-        <v>1.152</v>
+        <v>2.775</v>
       </c>
       <c r="K3">
-        <v>1.133</v>
+        <v>3.102</v>
       </c>
       <c r="L3">
-        <v>1.056</v>
+        <v>3.019</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>1.36</v>
-      </c>
-      <c r="C4">
-        <v>1.48</v>
-      </c>
       <c r="D4">
-        <v>1.74</v>
+        <v>2.055</v>
       </c>
       <c r="E4">
-        <v>1.176</v>
+        <v>2.243</v>
       </c>
       <c r="F4">
-        <v>1.087</v>
+        <v>2.386</v>
       </c>
       <c r="G4">
-        <v>1.002</v>
+        <v>2.556</v>
       </c>
       <c r="H4">
-        <v>1.016</v>
+        <v>2.71</v>
       </c>
       <c r="I4">
-        <v>1.101</v>
+        <v>2.746</v>
       </c>
       <c r="J4">
-        <v>1.143</v>
+        <v>3.01</v>
       </c>
       <c r="K4">
-        <v>1.179</v>
+        <v>3.16</v>
       </c>
       <c r="L4">
-        <v>1.137</v>
+        <v>3.122</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>-0.1</v>
-      </c>
-      <c r="C5">
-        <v>0.28</v>
-      </c>
       <c r="D5">
-        <v>0.67</v>
+        <v>1.712</v>
       </c>
       <c r="E5">
-        <v>0.12</v>
+        <v>2.093</v>
       </c>
       <c r="F5">
-        <v>0.081</v>
+        <v>2.228</v>
       </c>
       <c r="G5">
-        <v>0.196</v>
+        <v>2.417</v>
       </c>
       <c r="H5">
-        <v>0.248</v>
+        <v>2.633</v>
       </c>
       <c r="I5">
-        <v>0.427</v>
+        <v>2.672</v>
       </c>
       <c r="J5">
-        <v>0.62</v>
+        <v>2.987</v>
       </c>
       <c r="K5">
-        <v>0.66</v>
+        <v>3.337</v>
       </c>
       <c r="L5">
-        <v>0.641</v>
+        <v>3.199</v>
       </c>
     </row>
   </sheetData>
@@ -1341,128 +1388,80 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>1.806</v>
-      </c>
-      <c r="E2">
-        <v>2.102</v>
-      </c>
-      <c r="F2">
-        <v>2.216</v>
+      <c r="B2">
+        <v>8.550000000000001</v>
       </c>
       <c r="G2">
-        <v>2.4</v>
-      </c>
-      <c r="H2">
-        <v>2.597</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>2.638</v>
-      </c>
-      <c r="J2">
-        <v>2.814</v>
+        <v>10.33</v>
       </c>
       <c r="K2">
-        <v>3.009</v>
+        <v>12.42</v>
       </c>
       <c r="L2">
-        <v>2.984</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>1.809</v>
-      </c>
-      <c r="E3">
-        <v>2.108</v>
-      </c>
-      <c r="F3">
-        <v>2.247</v>
+      <c r="B3">
+        <v>9.25</v>
       </c>
       <c r="G3">
-        <v>2.428</v>
-      </c>
-      <c r="H3">
-        <v>2.629</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="I3">
-        <v>2.683</v>
-      </c>
-      <c r="J3">
-        <v>2.775</v>
+        <v>10.725</v>
       </c>
       <c r="K3">
-        <v>3.102</v>
+        <v>12.575</v>
       </c>
       <c r="L3">
-        <v>3.019</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>2.055</v>
-      </c>
-      <c r="E4">
-        <v>2.243</v>
-      </c>
-      <c r="F4">
-        <v>2.386</v>
+      <c r="B4">
+        <v>8.9</v>
       </c>
       <c r="G4">
-        <v>2.556</v>
-      </c>
-      <c r="H4">
-        <v>2.71</v>
+        <v>8.734999999999999</v>
       </c>
       <c r="I4">
-        <v>2.746</v>
-      </c>
-      <c r="J4">
-        <v>3.01</v>
+        <v>10.105</v>
       </c>
       <c r="K4">
-        <v>3.16</v>
+        <v>11.91</v>
       </c>
       <c r="L4">
-        <v>3.122</v>
+        <v>11.925</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>1.712</v>
-      </c>
-      <c r="E5">
-        <v>2.093</v>
-      </c>
-      <c r="F5">
-        <v>2.228</v>
+      <c r="B5">
+        <v>6.3</v>
       </c>
       <c r="G5">
-        <v>2.417</v>
-      </c>
-      <c r="H5">
-        <v>2.633</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="I5">
-        <v>2.672</v>
-      </c>
-      <c r="J5">
-        <v>2.987</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>3.337</v>
+        <v>11.07</v>
       </c>
       <c r="L5">
-        <v>3.199</v>
+        <v>10.985</v>
       </c>
     </row>
   </sheetData>
@@ -1521,156 +1520,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="G2">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="I2">
-        <v>10.29</v>
-      </c>
-      <c r="K2">
-        <v>12.38</v>
-      </c>
-      <c r="L2">
-        <v>12.325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>9.25</v>
-      </c>
-      <c r="G3">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="I3">
-        <v>10.725</v>
-      </c>
-      <c r="K3">
-        <v>12.575</v>
-      </c>
-      <c r="L3">
-        <v>12.57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>8.9</v>
-      </c>
-      <c r="G4">
-        <v>8.734999999999999</v>
-      </c>
-      <c r="I4">
-        <v>10.105</v>
-      </c>
-      <c r="K4">
-        <v>11.91</v>
-      </c>
-      <c r="L4">
-        <v>11.925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>6.3</v>
-      </c>
-      <c r="G5">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>11.07</v>
-      </c>
-      <c r="L5">
-        <v>10.985</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>17.676</v>
+        <v>14.621</v>
       </c>
       <c r="C2">
-        <v>17.03</v>
+        <v>15.612</v>
       </c>
       <c r="D2">
         <v>7.77</v>
       </c>
       <c r="E2">
-        <v>17.565</v>
+        <v>17.57</v>
       </c>
       <c r="F2">
-        <v>17.545</v>
+        <v>17.52</v>
       </c>
       <c r="G2">
-        <v>20.955</v>
+        <v>20.715</v>
       </c>
       <c r="I2">
-        <v>19.045</v>
+        <v>19.005</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1792,34 +1660,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.77</v>
+        <v>3.715</v>
       </c>
       <c r="C2">
-        <v>6.93</v>
+        <v>3.652</v>
       </c>
       <c r="D2">
-        <v>7.06</v>
+        <v>3.619</v>
       </c>
       <c r="E2">
-        <v>7.123</v>
+        <v>3.263</v>
       </c>
       <c r="F2">
-        <v>7.172</v>
+        <v>3.064</v>
       </c>
       <c r="G2">
-        <v>7.185</v>
+        <v>2.987</v>
       </c>
       <c r="H2">
-        <v>7.194</v>
+        <v>2.9725</v>
       </c>
       <c r="I2">
-        <v>7.198</v>
+        <v>3.171</v>
       </c>
       <c r="J2">
-        <v>7.328</v>
+        <v>3.412</v>
+      </c>
+      <c r="K2">
+        <v>3.517</v>
       </c>
       <c r="L2">
-        <v>7.382</v>
+        <v>3.578</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1827,34 +1698,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.72</v>
+        <v>3.545</v>
       </c>
       <c r="C3">
-        <v>6.84</v>
+        <v>3.717</v>
       </c>
       <c r="D3">
-        <v>6.857</v>
+        <v>3.79</v>
       </c>
       <c r="E3">
-        <v>7.012</v>
+        <v>3.405</v>
       </c>
       <c r="F3">
-        <v>7.071</v>
+        <v>3.195</v>
       </c>
       <c r="G3">
-        <v>7.077</v>
+        <v>3.015</v>
       </c>
       <c r="H3">
-        <v>7.1</v>
+        <v>2.9504</v>
       </c>
       <c r="I3">
-        <v>7.095</v>
+        <v>3.098</v>
       </c>
       <c r="J3">
-        <v>7.243</v>
+        <v>3.334</v>
+      </c>
+      <c r="K3">
+        <v>3.436</v>
       </c>
       <c r="L3">
-        <v>7.351</v>
+        <v>3.469</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1862,34 +1736,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.88</v>
+        <v>3.125</v>
       </c>
       <c r="C4">
-        <v>6.99</v>
+        <v>3.19</v>
       </c>
       <c r="D4">
-        <v>6.908</v>
+        <v>3.22</v>
       </c>
       <c r="E4">
-        <v>6.875</v>
+        <v>2.764</v>
       </c>
       <c r="F4">
-        <v>6.894</v>
+        <v>2.645</v>
       </c>
       <c r="G4">
-        <v>6.948</v>
+        <v>2.627</v>
       </c>
       <c r="H4">
-        <v>7.008</v>
+        <v>2.6672</v>
       </c>
       <c r="I4">
-        <v>7.011</v>
+        <v>2.91</v>
       </c>
       <c r="J4">
-        <v>7.156</v>
+        <v>3.21</v>
+      </c>
+      <c r="K4">
+        <v>3.323</v>
       </c>
       <c r="L4">
-        <v>7.174</v>
+        <v>3.414</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1897,34 +1774,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.54</v>
+        <v>0.06</v>
       </c>
       <c r="C5">
-        <v>5.9</v>
+        <v>0.175</v>
       </c>
       <c r="D5">
-        <v>6.16</v>
+        <v>0.53</v>
       </c>
       <c r="E5">
-        <v>6.452</v>
+        <v>0.48</v>
       </c>
       <c r="F5">
-        <v>6.751</v>
+        <v>0.756</v>
       </c>
       <c r="G5">
-        <v>6.872</v>
+        <v>0.898</v>
       </c>
       <c r="H5">
-        <v>7.059</v>
+        <v>1.0618</v>
       </c>
       <c r="I5">
-        <v>7.182</v>
+        <v>1.467</v>
       </c>
       <c r="J5">
-        <v>7.398</v>
+        <v>1.801</v>
+      </c>
+      <c r="K5">
+        <v>1.906</v>
       </c>
       <c r="L5">
-        <v>7.544</v>
+        <v>2.063</v>
       </c>
     </row>
   </sheetData>
@@ -1983,37 +1863,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.713</v>
+        <v>3.589</v>
       </c>
       <c r="C2">
-        <v>3.655</v>
+        <v>3.545</v>
       </c>
       <c r="D2">
-        <v>3.602</v>
+        <v>3.59</v>
       </c>
       <c r="E2">
-        <v>3.227</v>
+        <v>3.067</v>
       </c>
       <c r="F2">
-        <v>3.02</v>
+        <v>2.923</v>
       </c>
       <c r="G2">
-        <v>2.944</v>
+        <v>2.647</v>
       </c>
       <c r="H2">
-        <v>2.9325</v>
+        <v>2.559</v>
       </c>
       <c r="I2">
-        <v>3.132</v>
+        <v>2.6345</v>
       </c>
       <c r="J2">
-        <v>3.38</v>
+        <v>2.761</v>
       </c>
       <c r="K2">
-        <v>3.493</v>
+        <v>2.767</v>
       </c>
       <c r="L2">
-        <v>3.552</v>
+        <v>2.705</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2021,37 +1901,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.545</v>
+        <v>3.516</v>
       </c>
       <c r="C3">
-        <v>3.717</v>
+        <v>3.568</v>
       </c>
       <c r="D3">
-        <v>3.79</v>
+        <v>3.627</v>
       </c>
       <c r="E3">
-        <v>3.405</v>
+        <v>3.179</v>
       </c>
       <c r="F3">
-        <v>3.195</v>
+        <v>2.872</v>
       </c>
       <c r="G3">
-        <v>3.015</v>
+        <v>2.501</v>
       </c>
       <c r="H3">
-        <v>2.9504</v>
+        <v>2.358</v>
       </c>
       <c r="I3">
-        <v>3.098</v>
+        <v>2.35</v>
       </c>
       <c r="J3">
-        <v>3.334</v>
+        <v>2.491</v>
       </c>
       <c r="K3">
-        <v>3.436</v>
+        <v>2.499</v>
       </c>
       <c r="L3">
-        <v>3.469</v>
+        <v>2.421</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2059,37 +1939,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.125</v>
+        <v>2.916</v>
       </c>
       <c r="C4">
-        <v>3.19</v>
+        <v>3.077</v>
       </c>
       <c r="D4">
-        <v>3.22</v>
+        <v>3.167</v>
       </c>
       <c r="E4">
-        <v>2.764</v>
+        <v>2.849</v>
       </c>
       <c r="F4">
-        <v>2.645</v>
+        <v>2.627</v>
       </c>
       <c r="G4">
-        <v>2.627</v>
+        <v>2.449</v>
       </c>
       <c r="H4">
-        <v>2.6672</v>
+        <v>2.377</v>
       </c>
       <c r="I4">
-        <v>2.91</v>
+        <v>2.465</v>
       </c>
       <c r="J4">
-        <v>3.21</v>
+        <v>2.675</v>
       </c>
       <c r="K4">
-        <v>3.323</v>
+        <v>2.676</v>
       </c>
       <c r="L4">
-        <v>3.414</v>
+        <v>2.634</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2097,37 +1977,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.06</v>
+        <v>0.064</v>
       </c>
       <c r="C5">
-        <v>0.175</v>
+        <v>0.083</v>
       </c>
       <c r="D5">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="E5">
-        <v>0.48</v>
+        <v>0.523</v>
       </c>
       <c r="F5">
-        <v>0.756</v>
+        <v>0.46</v>
       </c>
       <c r="G5">
-        <v>0.898</v>
+        <v>0.674</v>
       </c>
       <c r="H5">
-        <v>1.0618</v>
+        <v>0.666</v>
       </c>
       <c r="I5">
-        <v>1.467</v>
+        <v>0.903</v>
       </c>
       <c r="J5">
-        <v>1.801</v>
+        <v>1.12</v>
       </c>
       <c r="K5">
-        <v>1.906</v>
+        <v>1.1</v>
       </c>
       <c r="L5">
-        <v>2.063</v>
+        <v>1.158</v>
       </c>
     </row>
   </sheetData>
@@ -2185,152 +2065,92 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>3.588</v>
-      </c>
-      <c r="C2">
-        <v>3.54</v>
-      </c>
       <c r="D2">
-        <v>3.574</v>
+        <v>5.576</v>
       </c>
       <c r="E2">
-        <v>3.026</v>
+        <v>5.374</v>
       </c>
       <c r="F2">
-        <v>2.886</v>
+        <v>5.288</v>
       </c>
       <c r="G2">
-        <v>2.607</v>
+        <v>5.328</v>
       </c>
       <c r="H2">
-        <v>2.525</v>
+        <v>5.321</v>
       </c>
       <c r="I2">
-        <v>2.6055</v>
-      </c>
-      <c r="J2">
-        <v>2.737</v>
-      </c>
-      <c r="K2">
-        <v>2.745</v>
-      </c>
-      <c r="L2">
-        <v>2.688</v>
+        <v>5.559</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>3.516</v>
-      </c>
-      <c r="C3">
-        <v>3.568</v>
-      </c>
       <c r="D3">
-        <v>3.627</v>
+        <v>5.77</v>
       </c>
       <c r="E3">
-        <v>3.179</v>
+        <v>5.434</v>
       </c>
       <c r="F3">
-        <v>2.872</v>
+        <v>5.458</v>
       </c>
       <c r="G3">
-        <v>2.501</v>
+        <v>5.403</v>
       </c>
       <c r="H3">
-        <v>2.358</v>
+        <v>5.487</v>
       </c>
       <c r="I3">
-        <v>2.35</v>
-      </c>
-      <c r="J3">
-        <v>2.491</v>
-      </c>
-      <c r="K3">
-        <v>2.499</v>
-      </c>
-      <c r="L3">
-        <v>2.421</v>
+        <v>5.624</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>2.916</v>
-      </c>
-      <c r="C4">
-        <v>3.077</v>
-      </c>
       <c r="D4">
-        <v>3.167</v>
+        <v>5.755</v>
       </c>
       <c r="E4">
-        <v>2.849</v>
+        <v>5.803</v>
       </c>
       <c r="F4">
-        <v>2.627</v>
+        <v>5.825</v>
       </c>
       <c r="G4">
-        <v>2.449</v>
+        <v>5.778</v>
       </c>
       <c r="H4">
-        <v>2.377</v>
+        <v>5.758</v>
       </c>
       <c r="I4">
-        <v>2.465</v>
-      </c>
-      <c r="J4">
-        <v>2.675</v>
-      </c>
-      <c r="K4">
-        <v>2.676</v>
-      </c>
-      <c r="L4">
-        <v>2.634</v>
+        <v>5.838</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>0.064</v>
-      </c>
-      <c r="C5">
-        <v>0.083</v>
-      </c>
       <c r="D5">
-        <v>0.4</v>
+        <v>6.778</v>
       </c>
       <c r="E5">
-        <v>0.523</v>
+        <v>6.696</v>
       </c>
       <c r="F5">
-        <v>0.46</v>
+        <v>6.23</v>
       </c>
       <c r="G5">
-        <v>0.674</v>
+        <v>5.845</v>
       </c>
       <c r="H5">
-        <v>0.666</v>
+        <v>5.552</v>
       </c>
       <c r="I5">
-        <v>0.903</v>
-      </c>
-      <c r="J5">
-        <v>1.12</v>
-      </c>
-      <c r="K5">
-        <v>1.1</v>
-      </c>
-      <c r="L5">
-        <v>1.158</v>
+        <v>5.519</v>
       </c>
     </row>
   </sheetData>
@@ -2389,22 +2209,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>5.58</v>
+        <v>11.22</v>
       </c>
       <c r="E2">
-        <v>5.347</v>
+        <v>10.05</v>
       </c>
       <c r="F2">
-        <v>5.26</v>
+        <v>10.13</v>
       </c>
       <c r="G2">
-        <v>5.298</v>
-      </c>
-      <c r="H2">
-        <v>5.295</v>
+        <v>10.61</v>
       </c>
       <c r="I2">
-        <v>5.534</v>
+        <v>10.926</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2412,22 +2229,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>5.77</v>
+        <v>11.685</v>
       </c>
       <c r="E3">
-        <v>5.434</v>
+        <v>10.388</v>
       </c>
       <c r="F3">
-        <v>5.458</v>
+        <v>10.202</v>
       </c>
       <c r="G3">
-        <v>5.403</v>
-      </c>
-      <c r="H3">
-        <v>5.487</v>
+        <v>10.525</v>
       </c>
       <c r="I3">
-        <v>5.624</v>
+        <v>10.673</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2435,22 +2249,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5.755</v>
+        <v>12.84</v>
       </c>
       <c r="E4">
-        <v>5.803</v>
+        <v>11.69</v>
       </c>
       <c r="F4">
-        <v>5.825</v>
+        <v>11.546</v>
       </c>
       <c r="G4">
-        <v>5.778</v>
-      </c>
-      <c r="H4">
-        <v>5.758</v>
+        <v>11.895</v>
       </c>
       <c r="I4">
-        <v>5.838</v>
+        <v>12.077</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2458,22 +2269,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>6.778</v>
+        <v>13.57</v>
       </c>
       <c r="E5">
-        <v>6.696</v>
+        <v>12.26</v>
       </c>
       <c r="F5">
-        <v>6.23</v>
+        <v>11.785</v>
       </c>
       <c r="G5">
-        <v>5.845</v>
-      </c>
-      <c r="H5">
-        <v>5.552</v>
+        <v>11.62</v>
       </c>
       <c r="I5">
-        <v>5.519</v>
+        <v>11.95</v>
       </c>
     </row>
   </sheetData>
@@ -2531,80 +2339,104 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>11.22</v>
-      </c>
       <c r="E2">
-        <v>10.05</v>
+        <v>3.007</v>
       </c>
       <c r="F2">
-        <v>10.13</v>
+        <v>2.951</v>
       </c>
       <c r="G2">
-        <v>10.61</v>
+        <v>3.03</v>
+      </c>
+      <c r="H2">
+        <v>3.175</v>
       </c>
       <c r="I2">
-        <v>10.926</v>
+        <v>3.325</v>
+      </c>
+      <c r="J2">
+        <v>3.699</v>
+      </c>
+      <c r="L2">
+        <v>3.721</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>11.685</v>
-      </c>
       <c r="E3">
-        <v>10.388</v>
+        <v>3.072</v>
       </c>
       <c r="F3">
-        <v>10.202</v>
+        <v>3.04</v>
       </c>
       <c r="G3">
-        <v>10.525</v>
+        <v>3.077</v>
+      </c>
+      <c r="H3">
+        <v>3.122</v>
       </c>
       <c r="I3">
-        <v>10.673</v>
+        <v>3.308</v>
+      </c>
+      <c r="J3">
+        <v>3.668</v>
+      </c>
+      <c r="L3">
+        <v>3.641</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>12.84</v>
-      </c>
       <c r="E4">
-        <v>11.69</v>
+        <v>2.713</v>
       </c>
       <c r="F4">
-        <v>11.546</v>
+        <v>2.682</v>
       </c>
       <c r="G4">
-        <v>11.895</v>
+        <v>2.742</v>
+      </c>
+      <c r="H4">
+        <v>2.878</v>
       </c>
       <c r="I4">
-        <v>12.077</v>
+        <v>3.181</v>
+      </c>
+      <c r="J4">
+        <v>3.545</v>
+      </c>
+      <c r="L4">
+        <v>3.619</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>13.57</v>
-      </c>
       <c r="E5">
-        <v>12.26</v>
+        <v>0.595</v>
       </c>
       <c r="F5">
-        <v>11.785</v>
+        <v>0.844</v>
       </c>
       <c r="G5">
-        <v>11.62</v>
+        <v>1.181</v>
+      </c>
+      <c r="H5">
+        <v>1.383</v>
       </c>
       <c r="I5">
-        <v>11.95</v>
+        <v>1.92</v>
+      </c>
+      <c r="J5">
+        <v>2.161</v>
+      </c>
+      <c r="L5">
+        <v>2.408</v>
       </c>
     </row>
   </sheetData>
@@ -2662,104 +2494,152 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>5.507</v>
+      </c>
+      <c r="C2">
+        <v>5.69</v>
+      </c>
+      <c r="D2">
+        <v>5.193</v>
+      </c>
       <c r="E2">
-        <v>2.985</v>
+        <v>5.1125</v>
       </c>
       <c r="F2">
-        <v>2.917</v>
+        <v>4.8625</v>
       </c>
       <c r="G2">
-        <v>3.003</v>
+        <v>4.611</v>
       </c>
       <c r="H2">
-        <v>3.152</v>
+        <v>4.541</v>
       </c>
       <c r="I2">
-        <v>3.305</v>
+        <v>4.6065</v>
       </c>
       <c r="J2">
-        <v>3.671</v>
+        <v>4.8265</v>
+      </c>
+      <c r="K2">
+        <v>4.845</v>
       </c>
       <c r="L2">
-        <v>3.701</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>5.522</v>
+      </c>
+      <c r="C3">
+        <v>5.734</v>
+      </c>
+      <c r="D3">
+        <v>5.2285</v>
+      </c>
       <c r="E3">
-        <v>3.072</v>
+        <v>4.993</v>
       </c>
       <c r="F3">
-        <v>3.04</v>
+        <v>4.704</v>
       </c>
       <c r="G3">
-        <v>3.077</v>
+        <v>4.409</v>
       </c>
       <c r="H3">
-        <v>3.122</v>
+        <v>4.2725</v>
       </c>
       <c r="I3">
-        <v>3.308</v>
+        <v>4.3125</v>
       </c>
       <c r="J3">
-        <v>3.668</v>
+        <v>4.508</v>
+      </c>
+      <c r="K3">
+        <v>4.512</v>
       </c>
       <c r="L3">
-        <v>3.641</v>
+        <v>4.417</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>4.864</v>
+      </c>
+      <c r="C4">
+        <v>5.085</v>
+      </c>
+      <c r="D4">
+        <v>4.854</v>
+      </c>
       <c r="E4">
-        <v>2.713</v>
+        <v>4.435</v>
       </c>
       <c r="F4">
-        <v>2.682</v>
+        <v>4.349</v>
       </c>
       <c r="G4">
-        <v>2.742</v>
+        <v>4.163</v>
       </c>
       <c r="H4">
-        <v>2.878</v>
+        <v>4.114</v>
       </c>
       <c r="I4">
-        <v>3.181</v>
+        <v>4.203</v>
       </c>
       <c r="J4">
-        <v>3.545</v>
+        <v>4.445</v>
+      </c>
+      <c r="K4">
+        <v>4.475</v>
       </c>
       <c r="L4">
-        <v>3.619</v>
+        <v>4.504</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>1.872</v>
+      </c>
+      <c r="C5">
+        <v>2.23</v>
+      </c>
+      <c r="D5">
+        <v>2.17</v>
+      </c>
       <c r="E5">
-        <v>0.595</v>
+        <v>2.035</v>
       </c>
       <c r="F5">
-        <v>0.844</v>
+        <v>1.822</v>
       </c>
       <c r="G5">
-        <v>1.181</v>
+        <v>1.859</v>
       </c>
       <c r="H5">
-        <v>1.383</v>
+        <v>1.944</v>
       </c>
       <c r="I5">
-        <v>1.92</v>
+        <v>2.023</v>
       </c>
       <c r="J5">
-        <v>2.161</v>
+        <v>2.423</v>
+      </c>
+      <c r="K5">
+        <v>2.479</v>
       </c>
       <c r="L5">
-        <v>2.408</v>
+        <v>2.436</v>
       </c>
     </row>
   </sheetData>
@@ -2818,37 +2698,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.502</v>
+        <v>-0.211</v>
       </c>
       <c r="C2">
-        <v>5.674</v>
+        <v>-0.162</v>
       </c>
       <c r="D2">
-        <v>5.187</v>
+        <v>-0.08699999999999999</v>
       </c>
       <c r="E2">
-        <v>5.0865</v>
+        <v>0.015</v>
       </c>
       <c r="F2">
-        <v>4.8375</v>
+        <v>0.045</v>
       </c>
       <c r="G2">
-        <v>4.5865</v>
+        <v>0.199</v>
       </c>
       <c r="H2">
-        <v>4.5175</v>
+        <v>0.411</v>
       </c>
       <c r="I2">
-        <v>4.581</v>
+        <v>0.61</v>
       </c>
       <c r="J2">
-        <v>4.8</v>
+        <v>1.021</v>
       </c>
       <c r="K2">
-        <v>4.823</v>
+        <v>1.289</v>
       </c>
       <c r="L2">
-        <v>4.779</v>
+        <v>1.535</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2856,37 +2736,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.522</v>
+        <v>-0.152</v>
       </c>
       <c r="C3">
-        <v>5.734</v>
+        <v>-0.195</v>
       </c>
       <c r="D3">
-        <v>5.2285</v>
+        <v>-0.131</v>
       </c>
       <c r="E3">
-        <v>4.993</v>
+        <v>-0.044</v>
       </c>
       <c r="F3">
-        <v>4.704</v>
+        <v>-0.025</v>
       </c>
       <c r="G3">
-        <v>4.409</v>
+        <v>0.119</v>
       </c>
       <c r="H3">
-        <v>4.2725</v>
+        <v>0.322</v>
       </c>
       <c r="I3">
-        <v>4.3125</v>
+        <v>0.468</v>
       </c>
       <c r="J3">
-        <v>4.508</v>
+        <v>0.873</v>
       </c>
       <c r="K3">
-        <v>4.512</v>
+        <v>1.12</v>
       </c>
       <c r="L3">
-        <v>4.417</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2894,37 +2774,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.864</v>
+        <v>-0.167</v>
       </c>
       <c r="C4">
-        <v>5.085</v>
+        <v>-0.176</v>
       </c>
       <c r="D4">
-        <v>4.854</v>
+        <v>-0.125</v>
       </c>
       <c r="E4">
-        <v>4.435</v>
+        <v>-0.065</v>
       </c>
       <c r="F4">
-        <v>4.349</v>
+        <v>-0.043</v>
       </c>
       <c r="G4">
-        <v>4.163</v>
+        <v>0.097</v>
       </c>
       <c r="H4">
-        <v>4.114</v>
+        <v>0.201</v>
       </c>
       <c r="I4">
-        <v>4.203</v>
+        <v>0.393</v>
       </c>
       <c r="J4">
-        <v>4.445</v>
+        <v>0.74</v>
       </c>
       <c r="K4">
-        <v>4.475</v>
+        <v>0.994</v>
       </c>
       <c r="L4">
-        <v>4.504</v>
+        <v>1.252</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2932,37 +2812,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.872</v>
+        <v>-0.119</v>
       </c>
       <c r="C5">
-        <v>2.23</v>
+        <v>-0.169</v>
       </c>
       <c r="D5">
-        <v>2.17</v>
+        <v>-0.138</v>
       </c>
       <c r="E5">
-        <v>2.035</v>
+        <v>-0.089</v>
       </c>
       <c r="F5">
-        <v>1.822</v>
-      </c>
-      <c r="G5">
-        <v>1.859</v>
+        <v>-0.083</v>
       </c>
       <c r="H5">
-        <v>1.944</v>
+        <v>0.067</v>
       </c>
       <c r="I5">
-        <v>2.023</v>
+        <v>0.191</v>
       </c>
       <c r="J5">
-        <v>2.423</v>
+        <v>0.529</v>
       </c>
       <c r="K5">
-        <v>2.479</v>
+        <v>0.787</v>
       </c>
       <c r="L5">
-        <v>2.436</v>
+        <v>1.119</v>
       </c>
     </row>
   </sheetData>
@@ -3020,149 +2897,92 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>-0.211</v>
-      </c>
-      <c r="C2">
-        <v>-0.162</v>
-      </c>
       <c r="D2">
-        <v>-0.08799999999999999</v>
+        <v>12.515</v>
       </c>
       <c r="E2">
-        <v>0.014</v>
+        <v>10.58</v>
       </c>
       <c r="F2">
-        <v>0.045</v>
+        <v>11.895</v>
       </c>
       <c r="G2">
-        <v>0.197</v>
-      </c>
-      <c r="H2">
-        <v>0.409</v>
+        <v>10.945</v>
       </c>
       <c r="I2">
-        <v>0.608</v>
+        <v>11.95</v>
       </c>
       <c r="J2">
-        <v>1.018</v>
-      </c>
-      <c r="K2">
-        <v>1.285</v>
-      </c>
-      <c r="L2">
-        <v>1.534</v>
+        <v>12.125</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>-0.152</v>
-      </c>
-      <c r="C3">
-        <v>-0.195</v>
-      </c>
       <c r="D3">
-        <v>-0.131</v>
+        <v>9.82</v>
       </c>
       <c r="E3">
-        <v>-0.044</v>
+        <v>10.25</v>
       </c>
       <c r="F3">
-        <v>-0.025</v>
+        <v>10.05</v>
       </c>
       <c r="G3">
-        <v>0.119</v>
-      </c>
-      <c r="H3">
-        <v>0.322</v>
+        <v>10.82</v>
       </c>
       <c r="I3">
-        <v>0.468</v>
+        <v>11.35</v>
       </c>
       <c r="J3">
-        <v>0.873</v>
-      </c>
-      <c r="K3">
-        <v>1.12</v>
-      </c>
-      <c r="L3">
-        <v>1.368</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>-0.167</v>
-      </c>
-      <c r="C4">
-        <v>-0.176</v>
-      </c>
       <c r="D4">
-        <v>-0.125</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>-0.065</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F4">
-        <v>-0.043</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G4">
-        <v>0.097</v>
-      </c>
-      <c r="H4">
-        <v>0.201</v>
+        <v>9.91</v>
       </c>
       <c r="I4">
-        <v>0.393</v>
+        <v>10.63</v>
       </c>
       <c r="J4">
-        <v>0.74</v>
-      </c>
-      <c r="K4">
-        <v>0.994</v>
-      </c>
-      <c r="L4">
-        <v>1.252</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>-0.119</v>
-      </c>
-      <c r="C5">
-        <v>-0.169</v>
-      </c>
       <c r="D5">
-        <v>-0.138</v>
+        <v>11.46</v>
       </c>
       <c r="E5">
-        <v>-0.089</v>
+        <v>9.07</v>
       </c>
       <c r="F5">
-        <v>-0.083</v>
-      </c>
-      <c r="H5">
-        <v>0.067</v>
+        <v>8.140000000000001</v>
+      </c>
+      <c r="G5">
+        <v>9.07</v>
       </c>
       <c r="I5">
-        <v>0.191</v>
+        <v>9.17</v>
       </c>
       <c r="J5">
-        <v>0.529</v>
-      </c>
-      <c r="K5">
-        <v>0.787</v>
-      </c>
-      <c r="L5">
-        <v>1.119</v>
+        <v>9.57</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -8,27 +8,28 @@
   </bookViews>
   <sheets>
     <sheet name="Canada" sheetId="1" r:id="rId1"/>
-    <sheet name="France" sheetId="2" r:id="rId2"/>
-    <sheet name="Germany" sheetId="3" r:id="rId3"/>
-    <sheet name="Poland" sheetId="4" r:id="rId4"/>
-    <sheet name="Brazil" sheetId="5" r:id="rId5"/>
-    <sheet name="Portugal" sheetId="6" r:id="rId6"/>
-    <sheet name="UK" sheetId="7" r:id="rId7"/>
-    <sheet name="Japan" sheetId="8" r:id="rId8"/>
-    <sheet name="Russia" sheetId="9" r:id="rId9"/>
-    <sheet name="Australia" sheetId="10" r:id="rId10"/>
-    <sheet name="Italy" sheetId="11" r:id="rId11"/>
-    <sheet name="Switzerland" sheetId="12" r:id="rId12"/>
-    <sheet name="China" sheetId="13" r:id="rId13"/>
-    <sheet name="South Africa" sheetId="14" r:id="rId14"/>
-    <sheet name="Turkey" sheetId="15" r:id="rId15"/>
+    <sheet name="India" sheetId="2" r:id="rId2"/>
+    <sheet name="France" sheetId="3" r:id="rId3"/>
+    <sheet name="Germany" sheetId="4" r:id="rId4"/>
+    <sheet name="Poland" sheetId="5" r:id="rId5"/>
+    <sheet name="Brazil" sheetId="6" r:id="rId6"/>
+    <sheet name="Portugal" sheetId="7" r:id="rId7"/>
+    <sheet name="UK" sheetId="8" r:id="rId8"/>
+    <sheet name="Japan" sheetId="9" r:id="rId9"/>
+    <sheet name="Russia" sheetId="10" r:id="rId10"/>
+    <sheet name="Australia" sheetId="11" r:id="rId11"/>
+    <sheet name="Italy" sheetId="12" r:id="rId12"/>
+    <sheet name="Switzerland" sheetId="13" r:id="rId13"/>
+    <sheet name="China" sheetId="14" r:id="rId14"/>
+    <sheet name="South Africa" sheetId="15" r:id="rId15"/>
+    <sheet name="Turkey" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="16">
   <si>
     <t>Period</t>
   </si>
@@ -482,34 +483,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.193</v>
+        <v>5.15</v>
       </c>
       <c r="C2">
-        <v>5.243</v>
+        <v>5.25</v>
       </c>
       <c r="D2">
-        <v>5.261</v>
+        <v>5.31</v>
       </c>
       <c r="E2">
-        <v>4.773</v>
+        <v>4.758</v>
       </c>
       <c r="F2">
-        <v>4.518</v>
+        <v>4.514</v>
       </c>
       <c r="G2">
-        <v>4.071</v>
+        <v>4.089</v>
       </c>
       <c r="H2">
-        <v>3.828</v>
+        <v>3.859</v>
       </c>
       <c r="I2">
-        <v>3.702</v>
+        <v>3.715</v>
       </c>
       <c r="K2">
-        <v>3.665</v>
+        <v>3.672</v>
       </c>
       <c r="L2">
-        <v>3.535</v>
+        <v>3.528</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -517,34 +518,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.95</v>
+        <v>5.02</v>
       </c>
       <c r="C3">
-        <v>5.09</v>
+        <v>5.11</v>
       </c>
       <c r="D3">
-        <v>5.2</v>
+        <v>5.19</v>
       </c>
       <c r="E3">
-        <v>4.805</v>
+        <v>4.687</v>
       </c>
       <c r="F3">
-        <v>4.465</v>
+        <v>4.332</v>
       </c>
       <c r="G3">
-        <v>3.952</v>
+        <v>3.814</v>
       </c>
       <c r="H3">
-        <v>3.714</v>
+        <v>3.577</v>
       </c>
       <c r="I3">
-        <v>3.536</v>
+        <v>3.401</v>
       </c>
       <c r="K3">
-        <v>3.484</v>
+        <v>3.416</v>
       </c>
       <c r="L3">
-        <v>3.329</v>
+        <v>3.272</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -555,31 +556,31 @@
         <v>4.44</v>
       </c>
       <c r="C4">
-        <v>4.51</v>
+        <v>4.52</v>
       </c>
       <c r="D4">
-        <v>4.46</v>
+        <v>4.49</v>
       </c>
       <c r="E4">
-        <v>3.586</v>
+        <v>3.781</v>
       </c>
       <c r="F4">
-        <v>3.39</v>
+        <v>3.625</v>
       </c>
       <c r="G4">
-        <v>2.87</v>
+        <v>3.073</v>
       </c>
       <c r="H4">
-        <v>2.731</v>
+        <v>2.928</v>
       </c>
       <c r="I4">
-        <v>2.761</v>
+        <v>2.956</v>
       </c>
       <c r="K4">
-        <v>3.001</v>
+        <v>3.144</v>
       </c>
       <c r="L4">
-        <v>2.933</v>
+        <v>3.075</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -587,34 +588,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.84</v>
+        <v>3.04</v>
       </c>
       <c r="C5">
-        <v>3.22</v>
+        <v>3.46</v>
       </c>
       <c r="D5">
-        <v>3.42</v>
+        <v>3.63</v>
       </c>
       <c r="E5">
-        <v>3.209</v>
+        <v>3.423</v>
       </c>
       <c r="F5">
-        <v>3.111</v>
+        <v>3.357</v>
       </c>
       <c r="G5">
-        <v>2.809</v>
+        <v>3.074</v>
       </c>
       <c r="H5">
-        <v>2.748</v>
+        <v>3.002</v>
       </c>
       <c r="I5">
-        <v>2.695</v>
+        <v>2.948</v>
       </c>
       <c r="K5">
-        <v>2.874</v>
+        <v>2.991</v>
       </c>
       <c r="L5">
-        <v>2.837</v>
+        <v>2.941</v>
       </c>
     </row>
   </sheetData>
@@ -673,25 +674,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.144</v>
+        <v>12.75</v>
       </c>
       <c r="E2">
-        <v>4.006</v>
+        <v>10.65</v>
       </c>
       <c r="F2">
-        <v>3.957</v>
+        <v>11.96</v>
       </c>
       <c r="G2">
-        <v>4.005</v>
-      </c>
-      <c r="H2">
-        <v>4.14</v>
+        <v>10.96</v>
       </c>
       <c r="I2">
-        <v>4.238</v>
+        <v>11.76</v>
       </c>
       <c r="J2">
-        <v>4.483</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -699,25 +697,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.193</v>
+        <v>10.23</v>
       </c>
       <c r="E3">
-        <v>4.085</v>
+        <v>10.52</v>
       </c>
       <c r="F3">
-        <v>3.956</v>
+        <v>10.49</v>
       </c>
       <c r="G3">
-        <v>3.86</v>
-      </c>
-      <c r="H3">
-        <v>3.91</v>
+        <v>11.15</v>
       </c>
       <c r="I3">
-        <v>3.955</v>
+        <v>11.45</v>
       </c>
       <c r="J3">
-        <v>4.095</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -725,25 +720,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>3.79</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E4">
-        <v>3.605</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="F4">
-        <v>3.451</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G4">
-        <v>3.472</v>
-      </c>
-      <c r="H4">
-        <v>3.598</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="I4">
-        <v>3.716</v>
+        <v>10.66</v>
       </c>
       <c r="J4">
-        <v>3.943</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -751,25 +743,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>2.824</v>
+        <v>7.6</v>
       </c>
       <c r="E5">
-        <v>2.977</v>
+        <v>9.06</v>
       </c>
       <c r="F5">
-        <v>3.114</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="G5">
-        <v>3.192</v>
-      </c>
-      <c r="H5">
-        <v>3.283</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="I5">
-        <v>3.388</v>
+        <v>9.26</v>
       </c>
       <c r="J5">
-        <v>3.591</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -827,128 +816,104 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>3.343</v>
-      </c>
-      <c r="C2">
-        <v>3.737</v>
-      </c>
       <c r="D2">
-        <v>3.81</v>
+        <v>4.046</v>
       </c>
       <c r="E2">
-        <v>3.724</v>
+        <v>3.931</v>
       </c>
       <c r="F2">
-        <v>3.669</v>
+        <v>3.889</v>
       </c>
       <c r="G2">
-        <v>3.819</v>
+        <v>3.961</v>
       </c>
       <c r="H2">
-        <v>4.004</v>
+        <v>4.119</v>
       </c>
       <c r="I2">
-        <v>4.274</v>
+        <v>4.227</v>
       </c>
       <c r="J2">
-        <v>4.466</v>
+        <v>4.488</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>3.604</v>
-      </c>
-      <c r="C3">
-        <v>3.721</v>
-      </c>
       <c r="D3">
-        <v>3.908</v>
+        <v>4.193</v>
       </c>
       <c r="E3">
-        <v>3.884</v>
+        <v>4.09</v>
       </c>
       <c r="F3">
-        <v>3.786</v>
+        <v>3.96</v>
       </c>
       <c r="G3">
-        <v>3.839</v>
+        <v>3.869</v>
       </c>
       <c r="H3">
-        <v>4.032</v>
+        <v>3.929</v>
       </c>
       <c r="I3">
-        <v>4.277</v>
+        <v>3.989</v>
       </c>
       <c r="J3">
-        <v>4.468</v>
+        <v>4.125</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>3.193</v>
-      </c>
-      <c r="C4">
-        <v>3.297</v>
-      </c>
       <c r="D4">
-        <v>3.386</v>
+        <v>3.865</v>
       </c>
       <c r="E4">
-        <v>3.299</v>
+        <v>3.612</v>
       </c>
       <c r="F4">
-        <v>3.432</v>
+        <v>3.409</v>
       </c>
       <c r="G4">
-        <v>3.658</v>
+        <v>3.418</v>
       </c>
       <c r="H4">
-        <v>3.988</v>
+        <v>3.534</v>
       </c>
       <c r="I4">
-        <v>4.236</v>
+        <v>3.648</v>
       </c>
       <c r="J4">
-        <v>4.531</v>
+        <v>3.872</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>0.01</v>
-      </c>
-      <c r="C5">
-        <v>0.5610000000000001</v>
-      </c>
       <c r="D5">
-        <v>0.973</v>
+        <v>2.772</v>
       </c>
       <c r="E5">
-        <v>1.33</v>
+        <v>2.992</v>
       </c>
       <c r="F5">
-        <v>1.728</v>
+        <v>3.131</v>
       </c>
       <c r="G5">
-        <v>2.189</v>
+        <v>3.21</v>
       </c>
       <c r="H5">
-        <v>2.582</v>
+        <v>3.307</v>
       </c>
       <c r="I5">
-        <v>3.072</v>
+        <v>3.413</v>
       </c>
       <c r="J5">
-        <v>3.186</v>
+        <v>3.631</v>
       </c>
     </row>
   </sheetData>
@@ -1007,37 +972,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1.65</v>
+        <v>3.368</v>
       </c>
       <c r="C2">
-        <v>1.73</v>
+        <v>3.826</v>
       </c>
       <c r="D2">
-        <v>1.91</v>
+        <v>3.837</v>
       </c>
       <c r="E2">
-        <v>1.081</v>
+        <v>3.762</v>
       </c>
       <c r="F2">
-        <v>1.055</v>
+        <v>3.684</v>
       </c>
       <c r="G2">
-        <v>0.99</v>
+        <v>3.858</v>
       </c>
       <c r="H2">
-        <v>0.989</v>
+        <v>4.059</v>
       </c>
       <c r="I2">
-        <v>1.03</v>
+        <v>4.326</v>
       </c>
       <c r="J2">
-        <v>1.047</v>
-      </c>
-      <c r="K2">
-        <v>1.022</v>
-      </c>
-      <c r="L2">
-        <v>0.998</v>
+        <v>4.557</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1045,37 +1004,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.65</v>
+        <v>3.482</v>
       </c>
       <c r="C3">
-        <v>1.74</v>
+        <v>3.592</v>
       </c>
       <c r="D3">
-        <v>1.96</v>
+        <v>3.8</v>
       </c>
       <c r="E3">
-        <v>1.5</v>
+        <v>3.711</v>
       </c>
       <c r="F3">
-        <v>1.296</v>
+        <v>3.56</v>
       </c>
       <c r="G3">
-        <v>1.14</v>
+        <v>3.586</v>
       </c>
       <c r="H3">
-        <v>1.175</v>
+        <v>3.769</v>
       </c>
       <c r="I3">
-        <v>1.136</v>
+        <v>4.013</v>
       </c>
       <c r="J3">
-        <v>1.152</v>
-      </c>
-      <c r="K3">
-        <v>1.133</v>
-      </c>
-      <c r="L3">
-        <v>1.056</v>
+        <v>4.209</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1083,37 +1036,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.36</v>
+        <v>3.127</v>
       </c>
       <c r="C4">
-        <v>1.48</v>
+        <v>3.299</v>
       </c>
       <c r="D4">
-        <v>1.74</v>
+        <v>3.373</v>
       </c>
       <c r="E4">
-        <v>1.176</v>
+        <v>3.257</v>
       </c>
       <c r="F4">
-        <v>1.087</v>
+        <v>3.342</v>
       </c>
       <c r="G4">
-        <v>1.002</v>
+        <v>3.551</v>
       </c>
       <c r="H4">
-        <v>1.016</v>
+        <v>3.887</v>
       </c>
       <c r="I4">
-        <v>1.101</v>
+        <v>4.117</v>
       </c>
       <c r="J4">
-        <v>1.143</v>
-      </c>
-      <c r="K4">
-        <v>1.179</v>
-      </c>
-      <c r="L4">
-        <v>1.137</v>
+        <v>4.446</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1121,37 +1068,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.1</v>
+        <v>0.038</v>
       </c>
       <c r="C5">
-        <v>0.28</v>
+        <v>0.597</v>
       </c>
       <c r="D5">
-        <v>0.67</v>
+        <v>1.118</v>
       </c>
       <c r="E5">
-        <v>0.12</v>
+        <v>1.751</v>
       </c>
       <c r="F5">
-        <v>0.081</v>
+        <v>2.158</v>
       </c>
       <c r="G5">
-        <v>0.196</v>
+        <v>2.622</v>
       </c>
       <c r="H5">
-        <v>0.248</v>
+        <v>2.99</v>
       </c>
       <c r="I5">
-        <v>0.427</v>
+        <v>3.491</v>
       </c>
       <c r="J5">
-        <v>0.62</v>
-      </c>
-      <c r="K5">
-        <v>0.66</v>
-      </c>
-      <c r="L5">
-        <v>0.641</v>
+        <v>3.535</v>
       </c>
     </row>
   </sheetData>
@@ -1209,128 +1150,140 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>1.68</v>
+      </c>
+      <c r="C2">
+        <v>1.75</v>
+      </c>
       <c r="D2">
-        <v>1.806</v>
+        <v>1.94</v>
       </c>
       <c r="E2">
-        <v>2.102</v>
-      </c>
-      <c r="F2">
-        <v>2.216</v>
+        <v>1.127</v>
       </c>
       <c r="G2">
-        <v>2.4</v>
+        <v>1.036</v>
       </c>
       <c r="H2">
-        <v>2.597</v>
+        <v>1.034</v>
       </c>
       <c r="I2">
-        <v>2.638</v>
+        <v>1.045</v>
       </c>
       <c r="J2">
-        <v>2.814</v>
+        <v>1.068</v>
       </c>
       <c r="K2">
-        <v>3.007</v>
+        <v>1.024</v>
       </c>
       <c r="L2">
-        <v>2.984</v>
+        <v>1.004</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>1.65</v>
+      </c>
+      <c r="C3">
+        <v>1.73</v>
+      </c>
       <c r="D3">
-        <v>1.809</v>
+        <v>1.96</v>
       </c>
       <c r="E3">
-        <v>2.108</v>
-      </c>
-      <c r="F3">
-        <v>2.247</v>
+        <v>1.166</v>
       </c>
       <c r="G3">
-        <v>2.428</v>
+        <v>1.016</v>
       </c>
       <c r="H3">
-        <v>2.629</v>
+        <v>0.99</v>
       </c>
       <c r="I3">
-        <v>2.683</v>
+        <v>0.977</v>
       </c>
       <c r="J3">
-        <v>2.775</v>
+        <v>1.004</v>
       </c>
       <c r="K3">
-        <v>3.102</v>
+        <v>0.983</v>
       </c>
       <c r="L3">
-        <v>3.019</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>1.26</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
       <c r="D4">
-        <v>2.055</v>
+        <v>1.75</v>
       </c>
       <c r="E4">
-        <v>2.243</v>
-      </c>
-      <c r="F4">
-        <v>2.386</v>
+        <v>1.128</v>
       </c>
       <c r="G4">
-        <v>2.556</v>
+        <v>0.951</v>
       </c>
       <c r="H4">
-        <v>2.71</v>
+        <v>1.014</v>
       </c>
       <c r="I4">
-        <v>2.746</v>
+        <v>1.105</v>
       </c>
       <c r="J4">
-        <v>3.01</v>
+        <v>1.185</v>
       </c>
       <c r="K4">
-        <v>3.16</v>
+        <v>1.216</v>
       </c>
       <c r="L4">
-        <v>3.122</v>
+        <v>1.179</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>-0.04</v>
+      </c>
+      <c r="C5">
+        <v>0.31</v>
+      </c>
       <c r="D5">
-        <v>1.712</v>
+        <v>0.65</v>
       </c>
       <c r="E5">
-        <v>2.093</v>
-      </c>
-      <c r="F5">
-        <v>2.228</v>
+        <v>0.351</v>
       </c>
       <c r="G5">
-        <v>2.417</v>
+        <v>0.498</v>
       </c>
       <c r="H5">
-        <v>2.633</v>
+        <v>0.544</v>
       </c>
       <c r="I5">
-        <v>2.672</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="J5">
-        <v>2.987</v>
+        <v>0.834</v>
       </c>
       <c r="K5">
-        <v>3.337</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L5">
-        <v>3.199</v>
+        <v>0.883</v>
       </c>
     </row>
   </sheetData>
@@ -1388,80 +1341,128 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>8.550000000000001</v>
+      <c r="D2">
+        <v>1.805</v>
+      </c>
+      <c r="E2">
+        <v>2.078</v>
+      </c>
+      <c r="F2">
+        <v>2.188</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>2.354</v>
+      </c>
+      <c r="H2">
+        <v>2.544</v>
       </c>
       <c r="I2">
-        <v>10.33</v>
+        <v>2.579</v>
+      </c>
+      <c r="J2">
+        <v>2.779</v>
       </c>
       <c r="K2">
-        <v>12.42</v>
+        <v>2.983</v>
       </c>
       <c r="L2">
-        <v>12.36</v>
+        <v>2.941</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>9.25</v>
+      <c r="D3">
+        <v>1.753</v>
+      </c>
+      <c r="E3">
+        <v>2.072</v>
+      </c>
+      <c r="F3">
+        <v>2.212</v>
       </c>
       <c r="G3">
-        <v>9.369999999999999</v>
+        <v>2.403</v>
+      </c>
+      <c r="H3">
+        <v>2.61</v>
       </c>
       <c r="I3">
-        <v>10.725</v>
+        <v>2.662</v>
+      </c>
+      <c r="J3">
+        <v>2.752</v>
       </c>
       <c r="K3">
-        <v>12.575</v>
+        <v>3.065</v>
       </c>
       <c r="L3">
-        <v>12.57</v>
+        <v>3.013</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>8.9</v>
+      <c r="D4">
+        <v>2.015</v>
+      </c>
+      <c r="E4">
+        <v>2.209</v>
+      </c>
+      <c r="F4">
+        <v>2.344</v>
       </c>
       <c r="G4">
-        <v>8.734999999999999</v>
+        <v>2.526</v>
+      </c>
+      <c r="H4">
+        <v>2.688</v>
       </c>
       <c r="I4">
-        <v>10.105</v>
+        <v>2.705</v>
+      </c>
+      <c r="J4">
+        <v>2.841</v>
       </c>
       <c r="K4">
-        <v>11.91</v>
+        <v>3.148</v>
       </c>
       <c r="L4">
-        <v>11.925</v>
+        <v>3.096</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>6.3</v>
+      <c r="D5">
+        <v>1.697</v>
+      </c>
+      <c r="E5">
+        <v>2.058</v>
+      </c>
+      <c r="F5">
+        <v>2.203</v>
       </c>
       <c r="G5">
-        <v>8.630000000000001</v>
+        <v>2.371</v>
+      </c>
+      <c r="H5">
+        <v>2.592</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>2.623</v>
+      </c>
+      <c r="J5">
+        <v>2.891</v>
       </c>
       <c r="K5">
-        <v>11.07</v>
+        <v>3.235</v>
       </c>
       <c r="L5">
-        <v>10.985</v>
+        <v>3.121</v>
       </c>
     </row>
   </sheetData>
@@ -1520,25 +1521,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>14.621</v>
-      </c>
-      <c r="C2">
-        <v>15.612</v>
-      </c>
-      <c r="D2">
-        <v>7.77</v>
-      </c>
-      <c r="E2">
-        <v>17.57</v>
-      </c>
-      <c r="F2">
-        <v>17.52</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>20.715</v>
+        <v>9.19</v>
       </c>
       <c r="I2">
-        <v>19.005</v>
+        <v>10.47</v>
+      </c>
+      <c r="K2">
+        <v>12.54</v>
+      </c>
+      <c r="L2">
+        <v>12.495</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1546,25 +1541,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>14.387</v>
-      </c>
-      <c r="C3">
-        <v>14.443</v>
-      </c>
-      <c r="D3">
-        <v>7.77</v>
-      </c>
-      <c r="E3">
-        <v>13.83</v>
-      </c>
-      <c r="F3">
-        <v>15.62</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>18.51</v>
+        <v>9.154999999999999</v>
       </c>
       <c r="I3">
-        <v>17.64</v>
+        <v>10.445</v>
+      </c>
+      <c r="K3">
+        <v>12.37</v>
+      </c>
+      <c r="L3">
+        <v>12.37</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1572,25 +1561,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>13.323</v>
-      </c>
-      <c r="C4">
-        <v>15.222</v>
-      </c>
-      <c r="D4">
-        <v>7.77</v>
-      </c>
-      <c r="E4">
-        <v>11.63</v>
-      </c>
-      <c r="F4">
-        <v>10.94</v>
+        <v>8.75</v>
       </c>
       <c r="G4">
-        <v>11.47</v>
+        <v>9.17</v>
       </c>
       <c r="I4">
-        <v>10.23</v>
+        <v>10.56</v>
+      </c>
+      <c r="K4">
+        <v>12.32</v>
+      </c>
+      <c r="L4">
+        <v>12.32</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1598,10 +1581,174 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>16.264</v>
+        <v>6.46</v>
+      </c>
+      <c r="G5">
+        <v>8.925000000000001</v>
+      </c>
+      <c r="I5">
+        <v>10.325</v>
+      </c>
+      <c r="K5">
+        <v>11.37</v>
+      </c>
+      <c r="L5">
+        <v>11.295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>17.009</v>
+      </c>
+      <c r="C2">
+        <v>17.664</v>
+      </c>
+      <c r="D2">
+        <v>7.77</v>
+      </c>
+      <c r="E2">
+        <v>18.73</v>
+      </c>
+      <c r="F2">
+        <v>18.895</v>
+      </c>
+      <c r="G2">
+        <v>17.6</v>
+      </c>
+      <c r="I2">
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>13.629</v>
+      </c>
+      <c r="C3">
+        <v>14.821</v>
+      </c>
+      <c r="D3">
+        <v>7.77</v>
+      </c>
+      <c r="E3">
+        <v>15.08</v>
+      </c>
+      <c r="F3">
+        <v>15.72</v>
+      </c>
+      <c r="G3">
+        <v>19.08</v>
+      </c>
+      <c r="I3">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>14.251</v>
+      </c>
+      <c r="C4">
+        <v>12.844</v>
+      </c>
+      <c r="D4">
+        <v>7.77</v>
+      </c>
+      <c r="E4">
+        <v>12.96</v>
+      </c>
+      <c r="F4">
+        <v>15.65</v>
+      </c>
+      <c r="G4">
+        <v>16.3</v>
+      </c>
+      <c r="I4">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>14.167</v>
       </c>
       <c r="C5">
-        <v>18.041</v>
+        <v>16.454</v>
+      </c>
+      <c r="D5">
+        <v>16.2</v>
+      </c>
+      <c r="E5">
+        <v>17.03</v>
+      </c>
+      <c r="F5">
+        <v>17.04</v>
+      </c>
+      <c r="G5">
+        <v>16.15</v>
+      </c>
+      <c r="I5">
+        <v>16.29</v>
       </c>
     </row>
   </sheetData>
@@ -1660,37 +1807,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.715</v>
+        <v>6.86</v>
       </c>
       <c r="C2">
-        <v>3.652</v>
+        <v>7.03</v>
       </c>
       <c r="D2">
-        <v>3.619</v>
+        <v>7.155</v>
       </c>
       <c r="E2">
-        <v>3.263</v>
+        <v>7.186</v>
       </c>
       <c r="F2">
-        <v>3.064</v>
+        <v>7.2</v>
       </c>
       <c r="G2">
-        <v>2.987</v>
+        <v>7.203</v>
       </c>
       <c r="H2">
-        <v>2.9725</v>
+        <v>7.22</v>
       </c>
       <c r="I2">
-        <v>3.171</v>
+        <v>7.214</v>
       </c>
       <c r="J2">
-        <v>3.412</v>
-      </c>
-      <c r="K2">
-        <v>3.517</v>
+        <v>7.362</v>
       </c>
       <c r="L2">
-        <v>3.578</v>
+        <v>7.384</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1698,37 +1842,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.545</v>
+        <v>6.73</v>
       </c>
       <c r="C3">
-        <v>3.717</v>
+        <v>6.85</v>
       </c>
       <c r="D3">
-        <v>3.79</v>
+        <v>6.856</v>
       </c>
       <c r="E3">
-        <v>3.405</v>
+        <v>6.991</v>
       </c>
       <c r="F3">
-        <v>3.195</v>
+        <v>7.052</v>
       </c>
       <c r="G3">
-        <v>3.015</v>
+        <v>7.068</v>
       </c>
       <c r="H3">
-        <v>2.9504</v>
+        <v>7.08</v>
       </c>
       <c r="I3">
-        <v>3.098</v>
+        <v>7.089</v>
       </c>
       <c r="J3">
-        <v>3.334</v>
-      </c>
-      <c r="K3">
-        <v>3.436</v>
+        <v>7.222</v>
       </c>
       <c r="L3">
-        <v>3.469</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1736,37 +1877,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.125</v>
+        <v>6.88</v>
       </c>
       <c r="C4">
-        <v>3.19</v>
+        <v>6.98</v>
       </c>
       <c r="D4">
-        <v>3.22</v>
+        <v>6.914</v>
       </c>
       <c r="E4">
-        <v>2.764</v>
+        <v>6.901</v>
       </c>
       <c r="F4">
-        <v>2.645</v>
+        <v>6.96</v>
       </c>
       <c r="G4">
-        <v>2.627</v>
+        <v>6.983</v>
       </c>
       <c r="H4">
-        <v>2.6672</v>
+        <v>7.052</v>
       </c>
       <c r="I4">
-        <v>2.91</v>
+        <v>7.046</v>
       </c>
       <c r="J4">
-        <v>3.21</v>
-      </c>
-      <c r="K4">
-        <v>3.323</v>
+        <v>7.168</v>
       </c>
       <c r="L4">
-        <v>3.414</v>
+        <v>7.179</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1774,37 +1912,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.06</v>
+        <v>5.55</v>
       </c>
       <c r="C5">
-        <v>0.175</v>
+        <v>5.91</v>
       </c>
       <c r="D5">
-        <v>0.53</v>
+        <v>6.241</v>
       </c>
       <c r="E5">
-        <v>0.48</v>
+        <v>6.567</v>
       </c>
       <c r="F5">
-        <v>0.756</v>
+        <v>6.844</v>
       </c>
       <c r="G5">
-        <v>0.898</v>
+        <v>6.968</v>
       </c>
       <c r="H5">
-        <v>1.0618</v>
+        <v>7.153</v>
       </c>
       <c r="I5">
-        <v>1.467</v>
+        <v>7.264</v>
       </c>
       <c r="J5">
-        <v>1.801</v>
-      </c>
-      <c r="K5">
-        <v>1.906</v>
+        <v>7.47</v>
       </c>
       <c r="L5">
-        <v>2.063</v>
+        <v>7.593</v>
       </c>
     </row>
   </sheetData>
@@ -1863,37 +1998,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.589</v>
+        <v>3.664</v>
       </c>
       <c r="C2">
-        <v>3.545</v>
+        <v>3.678</v>
       </c>
       <c r="D2">
-        <v>3.59</v>
+        <v>3.586</v>
       </c>
       <c r="E2">
-        <v>3.067</v>
+        <v>3.228</v>
       </c>
       <c r="F2">
-        <v>2.923</v>
-      </c>
-      <c r="G2">
-        <v>2.647</v>
+        <v>3.064</v>
       </c>
       <c r="H2">
-        <v>2.559</v>
+        <v>2.9755</v>
       </c>
       <c r="I2">
-        <v>2.6345</v>
+        <v>3.166</v>
       </c>
       <c r="J2">
-        <v>2.761</v>
+        <v>3.415</v>
       </c>
       <c r="K2">
-        <v>2.767</v>
+        <v>3.539</v>
       </c>
       <c r="L2">
-        <v>2.705</v>
+        <v>3.595</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1901,37 +2033,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.516</v>
+        <v>3.583</v>
       </c>
       <c r="C3">
-        <v>3.568</v>
+        <v>3.648</v>
       </c>
       <c r="D3">
-        <v>3.627</v>
+        <v>3.645</v>
       </c>
       <c r="E3">
-        <v>3.179</v>
+        <v>3.248</v>
       </c>
       <c r="F3">
-        <v>2.872</v>
-      </c>
-      <c r="G3">
-        <v>2.501</v>
+        <v>3.02</v>
       </c>
       <c r="H3">
-        <v>2.358</v>
+        <v>2.7709</v>
       </c>
       <c r="I3">
-        <v>2.35</v>
+        <v>2.909</v>
       </c>
       <c r="J3">
-        <v>2.491</v>
+        <v>3.139</v>
       </c>
       <c r="K3">
-        <v>2.499</v>
+        <v>3.243</v>
       </c>
       <c r="L3">
-        <v>2.421</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1939,37 +2068,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2.916</v>
+        <v>3.138</v>
       </c>
       <c r="C4">
-        <v>3.077</v>
+        <v>3.212</v>
       </c>
       <c r="D4">
-        <v>3.167</v>
+        <v>3.263</v>
       </c>
       <c r="E4">
-        <v>2.849</v>
+        <v>2.749</v>
       </c>
       <c r="F4">
-        <v>2.627</v>
-      </c>
-      <c r="G4">
-        <v>2.449</v>
+        <v>2.606</v>
       </c>
       <c r="H4">
-        <v>2.377</v>
+        <v>2.6182</v>
       </c>
       <c r="I4">
-        <v>2.465</v>
+        <v>2.853</v>
       </c>
       <c r="J4">
-        <v>2.675</v>
+        <v>3.168</v>
       </c>
       <c r="K4">
-        <v>2.676</v>
+        <v>3.283</v>
       </c>
       <c r="L4">
-        <v>2.634</v>
+        <v>3.374</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1977,37 +2103,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.064</v>
+        <v>0.025</v>
       </c>
       <c r="C5">
-        <v>0.083</v>
+        <v>0.17</v>
       </c>
       <c r="D5">
-        <v>0.4</v>
+        <v>0.675</v>
       </c>
       <c r="E5">
-        <v>0.523</v>
+        <v>0.733</v>
       </c>
       <c r="F5">
-        <v>0.46</v>
-      </c>
-      <c r="G5">
-        <v>0.674</v>
+        <v>1.065</v>
       </c>
       <c r="H5">
-        <v>0.666</v>
+        <v>1.4172</v>
       </c>
       <c r="I5">
-        <v>0.903</v>
+        <v>1.807</v>
       </c>
       <c r="J5">
-        <v>1.12</v>
+        <v>2.094</v>
       </c>
       <c r="K5">
-        <v>1.1</v>
+        <v>2.189</v>
       </c>
       <c r="L5">
-        <v>1.158</v>
+        <v>2.316</v>
       </c>
     </row>
   </sheetData>
@@ -2065,92 +2188,152 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>3.634</v>
+      </c>
+      <c r="C2">
+        <v>3.527</v>
+      </c>
       <c r="D2">
-        <v>5.576</v>
+        <v>3.606</v>
       </c>
       <c r="E2">
-        <v>5.374</v>
+        <v>3.049</v>
       </c>
       <c r="F2">
-        <v>5.288</v>
+        <v>2.909</v>
       </c>
       <c r="G2">
-        <v>5.328</v>
+        <v>2.629</v>
       </c>
       <c r="H2">
-        <v>5.321</v>
+        <v>2.554</v>
       </c>
       <c r="I2">
-        <v>5.559</v>
+        <v>2.621</v>
+      </c>
+      <c r="J2">
+        <v>2.763</v>
+      </c>
+      <c r="K2">
+        <v>2.786</v>
+      </c>
+      <c r="L2">
+        <v>2.725</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>3.533</v>
+      </c>
+      <c r="C3">
+        <v>3.585</v>
+      </c>
       <c r="D3">
-        <v>5.77</v>
+        <v>3.654</v>
       </c>
       <c r="E3">
-        <v>5.434</v>
+        <v>3.226</v>
       </c>
       <c r="F3">
-        <v>5.458</v>
+        <v>2.922</v>
       </c>
       <c r="G3">
-        <v>5.403</v>
+        <v>2.579</v>
       </c>
       <c r="H3">
-        <v>5.487</v>
+        <v>2.438</v>
       </c>
       <c r="I3">
-        <v>5.624</v>
+        <v>2.428</v>
+      </c>
+      <c r="J3">
+        <v>2.566</v>
+      </c>
+      <c r="K3">
+        <v>2.563</v>
+      </c>
+      <c r="L3">
+        <v>2.487</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>2.958</v>
+      </c>
+      <c r="C4">
+        <v>3.145</v>
+      </c>
       <c r="D4">
-        <v>5.755</v>
+        <v>3.256</v>
       </c>
       <c r="E4">
-        <v>5.803</v>
+        <v>2.977</v>
       </c>
       <c r="F4">
-        <v>5.825</v>
+        <v>2.761</v>
       </c>
       <c r="G4">
-        <v>5.778</v>
+        <v>2.554</v>
       </c>
       <c r="H4">
-        <v>5.758</v>
+        <v>2.459</v>
       </c>
       <c r="I4">
-        <v>5.838</v>
+        <v>2.5345</v>
+      </c>
+      <c r="J4">
+        <v>2.731</v>
+      </c>
+      <c r="K4">
+        <v>2.729</v>
+      </c>
+      <c r="L4">
+        <v>2.675</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.184</v>
+      </c>
       <c r="D5">
-        <v>6.778</v>
+        <v>0.663</v>
       </c>
       <c r="E5">
-        <v>6.696</v>
+        <v>0.834</v>
       </c>
       <c r="F5">
-        <v>6.23</v>
+        <v>0.784</v>
       </c>
       <c r="G5">
-        <v>5.845</v>
+        <v>1.029</v>
       </c>
       <c r="H5">
-        <v>5.552</v>
+        <v>1.022</v>
       </c>
       <c r="I5">
-        <v>5.519</v>
+        <v>1.234</v>
+      </c>
+      <c r="J5">
+        <v>1.414</v>
+      </c>
+      <c r="K5">
+        <v>1.369</v>
+      </c>
+      <c r="L5">
+        <v>1.415</v>
       </c>
     </row>
   </sheetData>
@@ -2209,19 +2392,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>11.22</v>
+        <v>5.614</v>
       </c>
       <c r="E2">
-        <v>10.05</v>
+        <v>5.387</v>
       </c>
       <c r="F2">
-        <v>10.13</v>
+        <v>5.393</v>
       </c>
       <c r="G2">
-        <v>10.61</v>
+        <v>5.466</v>
+      </c>
+      <c r="H2">
+        <v>5.465</v>
       </c>
       <c r="I2">
-        <v>10.926</v>
+        <v>5.681</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2229,19 +2415,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>11.685</v>
+        <v>5.691</v>
       </c>
       <c r="E3">
-        <v>10.388</v>
+        <v>5.222</v>
       </c>
       <c r="F3">
-        <v>10.202</v>
+        <v>5.15</v>
       </c>
       <c r="G3">
-        <v>10.525</v>
+        <v>5.142</v>
+      </c>
+      <c r="H3">
+        <v>5.167</v>
       </c>
       <c r="I3">
-        <v>10.673</v>
+        <v>5.356</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2249,19 +2438,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>12.84</v>
+        <v>5.654</v>
       </c>
       <c r="E4">
-        <v>11.69</v>
+        <v>5.761</v>
       </c>
       <c r="F4">
-        <v>11.546</v>
+        <v>5.752</v>
       </c>
       <c r="G4">
-        <v>11.895</v>
+        <v>5.654</v>
+      </c>
+      <c r="H4">
+        <v>5.657</v>
       </c>
       <c r="I4">
-        <v>12.077</v>
+        <v>5.743</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2269,19 +2461,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>13.57</v>
+        <v>6.606</v>
       </c>
       <c r="E5">
-        <v>12.26</v>
+        <v>6.99</v>
       </c>
       <c r="F5">
-        <v>11.785</v>
+        <v>6.637</v>
       </c>
       <c r="G5">
-        <v>11.62</v>
+        <v>6.357</v>
+      </c>
+      <c r="H5">
+        <v>6.074</v>
       </c>
       <c r="I5">
-        <v>11.95</v>
+        <v>6.03</v>
       </c>
     </row>
   </sheetData>
@@ -2339,104 +2534,80 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="D2">
+        <v>11.384</v>
+      </c>
       <c r="E2">
-        <v>3.007</v>
+        <v>9.869</v>
       </c>
       <c r="F2">
-        <v>2.951</v>
+        <v>10.402</v>
       </c>
       <c r="G2">
-        <v>3.03</v>
-      </c>
-      <c r="H2">
-        <v>3.175</v>
+        <v>10.868</v>
       </c>
       <c r="I2">
-        <v>3.325</v>
-      </c>
-      <c r="J2">
-        <v>3.699</v>
-      </c>
-      <c r="L2">
-        <v>3.721</v>
+        <v>11.212</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="D3">
+        <v>11.62</v>
+      </c>
       <c r="E3">
-        <v>3.072</v>
+        <v>10.393</v>
       </c>
       <c r="F3">
-        <v>3.04</v>
+        <v>10.26</v>
       </c>
       <c r="G3">
-        <v>3.077</v>
-      </c>
-      <c r="H3">
-        <v>3.122</v>
+        <v>10.55</v>
       </c>
       <c r="I3">
-        <v>3.308</v>
-      </c>
-      <c r="J3">
-        <v>3.668</v>
-      </c>
-      <c r="L3">
-        <v>3.641</v>
+        <v>10.713</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="D4">
+        <v>12.865</v>
+      </c>
       <c r="E4">
-        <v>2.713</v>
+        <v>11.59</v>
       </c>
       <c r="F4">
-        <v>2.682</v>
+        <v>11.43</v>
       </c>
       <c r="G4">
-        <v>2.742</v>
-      </c>
-      <c r="H4">
-        <v>2.878</v>
+        <v>11.805</v>
       </c>
       <c r="I4">
-        <v>3.181</v>
-      </c>
-      <c r="J4">
-        <v>3.545</v>
-      </c>
-      <c r="L4">
-        <v>3.619</v>
+        <v>11.948</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="D5">
+        <v>13.74</v>
+      </c>
       <c r="E5">
-        <v>0.595</v>
+        <v>12.715</v>
       </c>
       <c r="F5">
-        <v>0.844</v>
+        <v>12.33</v>
       </c>
       <c r="G5">
-        <v>1.181</v>
-      </c>
-      <c r="H5">
-        <v>1.383</v>
+        <v>12.08</v>
       </c>
       <c r="I5">
-        <v>1.92</v>
-      </c>
-      <c r="J5">
-        <v>2.161</v>
-      </c>
-      <c r="L5">
-        <v>2.408</v>
+        <v>12.29</v>
       </c>
     </row>
   </sheetData>
@@ -2494,152 +2665,104 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>5.507</v>
-      </c>
-      <c r="C2">
-        <v>5.69</v>
-      </c>
-      <c r="D2">
-        <v>5.193</v>
-      </c>
       <c r="E2">
-        <v>5.1125</v>
+        <v>3.014</v>
       </c>
       <c r="F2">
-        <v>4.8625</v>
+        <v>2.976</v>
       </c>
       <c r="G2">
-        <v>4.611</v>
+        <v>3.049</v>
       </c>
       <c r="H2">
-        <v>4.541</v>
+        <v>3.171</v>
       </c>
       <c r="I2">
-        <v>4.6065</v>
+        <v>3.362</v>
       </c>
       <c r="J2">
-        <v>4.8265</v>
-      </c>
-      <c r="K2">
-        <v>4.845</v>
+        <v>3.746</v>
       </c>
       <c r="L2">
-        <v>4.8</v>
+        <v>3.781</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>5.522</v>
-      </c>
-      <c r="C3">
-        <v>5.734</v>
-      </c>
-      <c r="D3">
-        <v>5.2285</v>
-      </c>
       <c r="E3">
-        <v>4.993</v>
+        <v>2.932</v>
       </c>
       <c r="F3">
-        <v>4.704</v>
+        <v>2.852</v>
       </c>
       <c r="G3">
-        <v>4.409</v>
+        <v>2.856</v>
       </c>
       <c r="H3">
-        <v>4.2725</v>
+        <v>2.911</v>
       </c>
       <c r="I3">
-        <v>4.3125</v>
+        <v>3.088</v>
       </c>
       <c r="J3">
-        <v>4.508</v>
-      </c>
-      <c r="K3">
-        <v>4.512</v>
+        <v>3.452</v>
       </c>
       <c r="L3">
-        <v>4.417</v>
+        <v>3.434</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>4.864</v>
-      </c>
-      <c r="C4">
-        <v>5.085</v>
-      </c>
-      <c r="D4">
-        <v>4.854</v>
-      </c>
       <c r="E4">
-        <v>4.435</v>
+        <v>2.708</v>
       </c>
       <c r="F4">
-        <v>4.349</v>
+        <v>2.655</v>
       </c>
       <c r="G4">
-        <v>4.163</v>
+        <v>2.663</v>
       </c>
       <c r="H4">
-        <v>4.114</v>
+        <v>2.819</v>
       </c>
       <c r="I4">
-        <v>4.203</v>
+        <v>3.106</v>
       </c>
       <c r="J4">
-        <v>4.445</v>
-      </c>
-      <c r="K4">
-        <v>4.475</v>
+        <v>3.508</v>
       </c>
       <c r="L4">
-        <v>4.504</v>
+        <v>3.597</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>1.872</v>
-      </c>
-      <c r="C5">
-        <v>2.23</v>
-      </c>
-      <c r="D5">
-        <v>2.17</v>
-      </c>
       <c r="E5">
-        <v>2.035</v>
+        <v>0.925</v>
       </c>
       <c r="F5">
-        <v>1.822</v>
+        <v>1.185</v>
       </c>
       <c r="G5">
-        <v>1.859</v>
+        <v>1.588</v>
       </c>
       <c r="H5">
-        <v>1.944</v>
+        <v>1.784</v>
       </c>
       <c r="I5">
-        <v>2.023</v>
+        <v>2.296</v>
       </c>
       <c r="J5">
-        <v>2.423</v>
-      </c>
-      <c r="K5">
-        <v>2.479</v>
+        <v>2.549</v>
       </c>
       <c r="L5">
-        <v>2.436</v>
+        <v>2.741</v>
       </c>
     </row>
   </sheetData>
@@ -2698,37 +2821,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.211</v>
+        <v>5.491</v>
       </c>
       <c r="C2">
-        <v>-0.162</v>
+        <v>5.736</v>
       </c>
       <c r="D2">
-        <v>-0.08699999999999999</v>
+        <v>5.2755</v>
       </c>
       <c r="E2">
-        <v>0.015</v>
+        <v>5.2435</v>
       </c>
       <c r="F2">
-        <v>0.045</v>
+        <v>4.9795</v>
       </c>
       <c r="G2">
-        <v>0.199</v>
+        <v>4.735</v>
       </c>
       <c r="H2">
-        <v>0.411</v>
+        <v>4.6555</v>
       </c>
       <c r="I2">
-        <v>0.61</v>
+        <v>4.721</v>
       </c>
       <c r="J2">
-        <v>1.021</v>
+        <v>4.946</v>
       </c>
       <c r="K2">
-        <v>1.289</v>
+        <v>4.964</v>
       </c>
       <c r="L2">
-        <v>1.535</v>
+        <v>4.925</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2736,37 +2859,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-0.152</v>
+        <v>5.404</v>
       </c>
       <c r="C3">
-        <v>-0.195</v>
+        <v>5.663</v>
       </c>
       <c r="D3">
-        <v>-0.131</v>
+        <v>5.2</v>
       </c>
       <c r="E3">
-        <v>-0.044</v>
+        <v>5.02</v>
       </c>
       <c r="F3">
-        <v>-0.025</v>
+        <v>4.75</v>
       </c>
       <c r="G3">
-        <v>0.119</v>
+        <v>4.425</v>
       </c>
       <c r="H3">
-        <v>0.322</v>
+        <v>4.279</v>
       </c>
       <c r="I3">
-        <v>0.468</v>
+        <v>4.309</v>
       </c>
       <c r="J3">
-        <v>0.873</v>
+        <v>4.49</v>
       </c>
       <c r="K3">
-        <v>1.12</v>
+        <v>4.493</v>
       </c>
       <c r="L3">
-        <v>1.368</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2774,37 +2897,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.167</v>
+        <v>4.868</v>
       </c>
       <c r="C4">
-        <v>-0.176</v>
+        <v>5.085</v>
       </c>
       <c r="D4">
-        <v>-0.125</v>
+        <v>4.8375</v>
       </c>
       <c r="E4">
-        <v>-0.065</v>
+        <v>4.602</v>
       </c>
       <c r="F4">
-        <v>-0.043</v>
+        <v>4.5065</v>
       </c>
       <c r="G4">
-        <v>0.097</v>
+        <v>4.2855</v>
       </c>
       <c r="H4">
-        <v>0.201</v>
+        <v>4.203</v>
       </c>
       <c r="I4">
-        <v>0.393</v>
+        <v>4.2825</v>
       </c>
       <c r="J4">
-        <v>0.74</v>
-      </c>
-      <c r="K4">
-        <v>0.994</v>
+        <v>4.5095</v>
       </c>
       <c r="L4">
-        <v>1.252</v>
+        <v>4.532</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2812,34 +2932,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.119</v>
+        <v>2.028</v>
       </c>
       <c r="C5">
-        <v>-0.169</v>
+        <v>2.405</v>
       </c>
       <c r="D5">
-        <v>-0.138</v>
+        <v>2.573</v>
       </c>
       <c r="E5">
-        <v>-0.089</v>
+        <v>2.535</v>
       </c>
       <c r="F5">
-        <v>-0.083</v>
+        <v>2.269</v>
+      </c>
+      <c r="G5">
+        <v>2.269</v>
       </c>
       <c r="H5">
-        <v>0.067</v>
+        <v>2.335</v>
       </c>
       <c r="I5">
-        <v>0.191</v>
+        <v>2.415</v>
       </c>
       <c r="J5">
-        <v>0.529</v>
-      </c>
-      <c r="K5">
-        <v>0.787</v>
+        <v>2.755</v>
       </c>
       <c r="L5">
-        <v>1.119</v>
+        <v>2.72</v>
       </c>
     </row>
   </sheetData>
@@ -2897,92 +3017,152 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>-0.122</v>
+      </c>
+      <c r="C2">
+        <v>-0.23</v>
+      </c>
       <c r="D2">
-        <v>12.515</v>
+        <v>-0.079</v>
       </c>
       <c r="E2">
-        <v>10.58</v>
+        <v>0.016</v>
       </c>
       <c r="F2">
-        <v>11.895</v>
+        <v>0.056</v>
       </c>
       <c r="G2">
-        <v>10.945</v>
+        <v>0.21</v>
+      </c>
+      <c r="H2">
+        <v>0.409</v>
       </c>
       <c r="I2">
-        <v>11.95</v>
+        <v>0.618</v>
       </c>
       <c r="J2">
-        <v>12.125</v>
+        <v>1.036</v>
+      </c>
+      <c r="K2">
+        <v>1.322</v>
+      </c>
+      <c r="L2">
+        <v>1.566</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>-0.152</v>
+      </c>
+      <c r="C3">
+        <v>-0.198</v>
+      </c>
       <c r="D3">
-        <v>9.82</v>
+        <v>-0.133</v>
       </c>
       <c r="E3">
-        <v>10.25</v>
+        <v>-0.032</v>
       </c>
       <c r="F3">
-        <v>10.05</v>
+        <v>-0.024</v>
       </c>
       <c r="G3">
-        <v>10.82</v>
+        <v>0.12</v>
+      </c>
+      <c r="H3">
+        <v>0.289</v>
       </c>
       <c r="I3">
-        <v>11.35</v>
+        <v>0.48</v>
       </c>
       <c r="J3">
-        <v>11.62</v>
+        <v>0.867</v>
+      </c>
+      <c r="K3">
+        <v>1.108</v>
+      </c>
+      <c r="L3">
+        <v>1.368</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>-0.191</v>
+      </c>
+      <c r="C4">
+        <v>-0.152</v>
+      </c>
       <c r="D4">
-        <v>8</v>
+        <v>-0.125</v>
       </c>
       <c r="E4">
-        <v>8.949999999999999</v>
+        <v>-0.063</v>
       </c>
       <c r="F4">
-        <v>8.720000000000001</v>
+        <v>-0.037</v>
       </c>
       <c r="G4">
-        <v>9.91</v>
+        <v>0.117</v>
+      </c>
+      <c r="H4">
+        <v>0.242</v>
       </c>
       <c r="I4">
-        <v>10.63</v>
+        <v>0.427</v>
       </c>
       <c r="J4">
-        <v>11.06</v>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K4">
+        <v>1.036</v>
+      </c>
+      <c r="L4">
+        <v>1.273</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>-0.219</v>
+      </c>
+      <c r="C5">
+        <v>-0.188</v>
+      </c>
       <c r="D5">
-        <v>11.46</v>
+        <v>-0.132</v>
       </c>
       <c r="E5">
-        <v>9.07</v>
+        <v>-0.089</v>
       </c>
       <c r="F5">
-        <v>8.140000000000001</v>
+        <v>-0.074</v>
       </c>
       <c r="G5">
-        <v>9.07</v>
+        <v>-0.004</v>
+      </c>
+      <c r="H5">
+        <v>0.074</v>
       </c>
       <c r="I5">
-        <v>9.17</v>
+        <v>0.199</v>
       </c>
       <c r="J5">
-        <v>9.57</v>
+        <v>0.541</v>
+      </c>
+      <c r="K5">
+        <v>0.766</v>
+      </c>
+      <c r="L5">
+        <v>1.075</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -486,31 +486,31 @@
         <v>5.15</v>
       </c>
       <c r="C2">
-        <v>5.25</v>
+        <v>5.21</v>
       </c>
       <c r="D2">
-        <v>5.31</v>
+        <v>5.27</v>
       </c>
       <c r="E2">
-        <v>4.758</v>
+        <v>4.683</v>
       </c>
       <c r="F2">
-        <v>4.514</v>
+        <v>4.439</v>
       </c>
       <c r="G2">
-        <v>4.089</v>
+        <v>3.933</v>
       </c>
       <c r="H2">
-        <v>3.859</v>
+        <v>3.763</v>
       </c>
       <c r="I2">
-        <v>3.715</v>
+        <v>3.596</v>
       </c>
       <c r="K2">
-        <v>3.672</v>
+        <v>3.566</v>
       </c>
       <c r="L2">
-        <v>3.528</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -518,34 +518,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.02</v>
+        <v>5.04</v>
       </c>
       <c r="C3">
-        <v>5.11</v>
+        <v>5.18</v>
       </c>
       <c r="D3">
-        <v>5.19</v>
+        <v>5.25</v>
       </c>
       <c r="E3">
-        <v>4.687</v>
+        <v>4.674</v>
       </c>
       <c r="F3">
-        <v>4.332</v>
+        <v>4.418</v>
       </c>
       <c r="G3">
-        <v>3.814</v>
+        <v>3.88</v>
       </c>
       <c r="H3">
-        <v>3.577</v>
+        <v>3.632</v>
       </c>
       <c r="I3">
-        <v>3.401</v>
+        <v>3.481</v>
       </c>
       <c r="K3">
-        <v>3.416</v>
+        <v>3.458</v>
       </c>
       <c r="L3">
-        <v>3.272</v>
+        <v>3.319</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -553,34 +553,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.44</v>
+        <v>4.53</v>
       </c>
       <c r="C4">
-        <v>4.52</v>
+        <v>4.63</v>
       </c>
       <c r="D4">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="E4">
-        <v>3.781</v>
+        <v>4.078</v>
       </c>
       <c r="F4">
-        <v>3.625</v>
+        <v>3.717</v>
       </c>
       <c r="G4">
-        <v>3.073</v>
+        <v>3.373</v>
       </c>
       <c r="H4">
-        <v>2.928</v>
+        <v>3.226</v>
       </c>
       <c r="I4">
-        <v>2.956</v>
+        <v>3.182</v>
       </c>
       <c r="K4">
-        <v>3.144</v>
+        <v>3.254</v>
       </c>
       <c r="L4">
-        <v>3.075</v>
+        <v>3.165</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -588,34 +588,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.04</v>
+        <v>3.24</v>
       </c>
       <c r="C5">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="D5">
-        <v>3.63</v>
+        <v>3.81</v>
       </c>
       <c r="E5">
-        <v>3.423</v>
+        <v>3.638</v>
       </c>
       <c r="F5">
-        <v>3.357</v>
+        <v>3.582</v>
       </c>
       <c r="G5">
-        <v>3.074</v>
+        <v>3.263</v>
       </c>
       <c r="H5">
-        <v>3.002</v>
+        <v>3.167</v>
       </c>
       <c r="I5">
-        <v>2.948</v>
+        <v>3.073</v>
       </c>
       <c r="K5">
-        <v>2.991</v>
+        <v>3.071</v>
       </c>
       <c r="L5">
-        <v>2.941</v>
+        <v>2.997</v>
       </c>
     </row>
   </sheetData>
@@ -674,22 +674,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>12.75</v>
+        <v>13.41</v>
       </c>
       <c r="E2">
-        <v>10.65</v>
+        <v>11.235</v>
       </c>
       <c r="F2">
-        <v>11.96</v>
+        <v>12.26</v>
       </c>
       <c r="G2">
-        <v>10.96</v>
+        <v>11.23</v>
       </c>
       <c r="I2">
-        <v>11.76</v>
+        <v>12.015</v>
       </c>
       <c r="J2">
-        <v>11.22</v>
+        <v>11.425</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -697,22 +697,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>10.23</v>
+        <v>10.78</v>
       </c>
       <c r="E3">
-        <v>10.52</v>
+        <v>9.35</v>
       </c>
       <c r="F3">
-        <v>10.49</v>
+        <v>10.8</v>
       </c>
       <c r="G3">
-        <v>11.15</v>
+        <v>10.08</v>
       </c>
       <c r="I3">
-        <v>11.45</v>
+        <v>11.46</v>
       </c>
       <c r="J3">
-        <v>11.7</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -720,22 +720,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>8.039999999999999</v>
+        <v>8.48</v>
       </c>
       <c r="E4">
-        <v>9.039999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F4">
-        <v>8.789999999999999</v>
+        <v>8.99</v>
       </c>
       <c r="G4">
-        <v>9.960000000000001</v>
+        <v>10.04</v>
       </c>
       <c r="I4">
-        <v>10.66</v>
+        <v>10.72</v>
       </c>
       <c r="J4">
-        <v>11.03</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -743,22 +743,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>7.6</v>
+        <v>8.02</v>
       </c>
       <c r="E5">
-        <v>9.06</v>
+        <v>9.32</v>
       </c>
       <c r="F5">
-        <v>8.119999999999999</v>
+        <v>8.27</v>
       </c>
       <c r="G5">
         <v>9.140000000000001</v>
       </c>
       <c r="I5">
-        <v>9.26</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="J5">
-        <v>9.039999999999999</v>
+        <v>9.08</v>
       </c>
     </row>
   </sheetData>
@@ -817,25 +817,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.046</v>
+        <v>4.034</v>
       </c>
       <c r="E2">
-        <v>3.931</v>
+        <v>3.845</v>
       </c>
       <c r="F2">
-        <v>3.889</v>
+        <v>3.787</v>
       </c>
       <c r="G2">
-        <v>3.961</v>
+        <v>3.837</v>
       </c>
       <c r="H2">
-        <v>4.119</v>
+        <v>3.973</v>
       </c>
       <c r="I2">
-        <v>4.227</v>
+        <v>4.072</v>
       </c>
       <c r="J2">
-        <v>4.488</v>
+        <v>4.337</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -843,25 +843,25 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.193</v>
+        <v>4.112</v>
       </c>
       <c r="E3">
-        <v>4.09</v>
+        <v>3.98</v>
       </c>
       <c r="F3">
-        <v>3.96</v>
+        <v>3.872</v>
       </c>
       <c r="G3">
-        <v>3.869</v>
+        <v>3.879</v>
       </c>
       <c r="H3">
-        <v>3.929</v>
+        <v>4.025</v>
       </c>
       <c r="I3">
-        <v>3.989</v>
+        <v>4.166</v>
       </c>
       <c r="J3">
-        <v>4.125</v>
+        <v>4.338</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -869,25 +869,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>3.865</v>
+        <v>4.246</v>
       </c>
       <c r="E4">
-        <v>3.612</v>
+        <v>4.035</v>
       </c>
       <c r="F4">
-        <v>3.409</v>
+        <v>3.858</v>
       </c>
       <c r="G4">
-        <v>3.418</v>
+        <v>3.818</v>
       </c>
       <c r="H4">
-        <v>3.534</v>
+        <v>3.876</v>
       </c>
       <c r="I4">
-        <v>3.648</v>
+        <v>3.939</v>
       </c>
       <c r="J4">
-        <v>3.872</v>
+        <v>4.121</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -895,25 +895,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>2.772</v>
+        <v>2.806</v>
       </c>
       <c r="E5">
-        <v>2.992</v>
+        <v>3.194</v>
       </c>
       <c r="F5">
-        <v>3.131</v>
+        <v>3.35</v>
       </c>
       <c r="G5">
-        <v>3.21</v>
+        <v>3.443</v>
       </c>
       <c r="H5">
-        <v>3.307</v>
+        <v>3.545</v>
       </c>
       <c r="I5">
-        <v>3.413</v>
+        <v>3.651</v>
       </c>
       <c r="J5">
-        <v>3.631</v>
+        <v>3.837</v>
       </c>
     </row>
   </sheetData>
@@ -972,31 +972,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.368</v>
+        <v>3.524</v>
       </c>
       <c r="C2">
-        <v>3.826</v>
+        <v>3.831</v>
       </c>
       <c r="D2">
-        <v>3.837</v>
+        <v>3.838</v>
       </c>
       <c r="E2">
-        <v>3.762</v>
+        <v>3.759</v>
       </c>
       <c r="F2">
-        <v>3.684</v>
+        <v>3.681</v>
       </c>
       <c r="G2">
-        <v>3.858</v>
+        <v>3.811</v>
       </c>
       <c r="H2">
-        <v>4.059</v>
+        <v>3.98</v>
       </c>
       <c r="I2">
-        <v>4.326</v>
+        <v>4.227</v>
       </c>
       <c r="J2">
-        <v>4.557</v>
+        <v>4.451</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1004,31 +1004,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.482</v>
+        <v>3.501</v>
       </c>
       <c r="C3">
-        <v>3.592</v>
+        <v>3.599</v>
       </c>
       <c r="D3">
-        <v>3.8</v>
+        <v>3.809</v>
       </c>
       <c r="E3">
-        <v>3.711</v>
+        <v>3.697</v>
       </c>
       <c r="F3">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="G3">
-        <v>3.586</v>
+        <v>3.643</v>
       </c>
       <c r="H3">
-        <v>3.769</v>
+        <v>3.835</v>
       </c>
       <c r="I3">
-        <v>4.013</v>
+        <v>4.105</v>
       </c>
       <c r="J3">
-        <v>4.209</v>
+        <v>4.321</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1036,31 +1036,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.127</v>
+        <v>3.29</v>
       </c>
       <c r="C4">
-        <v>3.299</v>
+        <v>3.46</v>
       </c>
       <c r="D4">
-        <v>3.373</v>
+        <v>3.592</v>
       </c>
       <c r="E4">
-        <v>3.257</v>
+        <v>3.507</v>
       </c>
       <c r="F4">
-        <v>3.342</v>
+        <v>3.618</v>
       </c>
       <c r="G4">
-        <v>3.551</v>
+        <v>3.805</v>
       </c>
       <c r="H4">
-        <v>3.887</v>
+        <v>4.108</v>
       </c>
       <c r="I4">
-        <v>4.117</v>
+        <v>4.322</v>
       </c>
       <c r="J4">
-        <v>4.446</v>
+        <v>4.646</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1068,31 +1068,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.038</v>
+        <v>0.167</v>
       </c>
       <c r="C5">
-        <v>0.597</v>
+        <v>0.792</v>
       </c>
       <c r="D5">
-        <v>1.118</v>
+        <v>1.349</v>
       </c>
       <c r="E5">
-        <v>1.751</v>
+        <v>2.113</v>
       </c>
       <c r="F5">
-        <v>2.158</v>
+        <v>2.523</v>
       </c>
       <c r="G5">
-        <v>2.622</v>
+        <v>2.955</v>
       </c>
       <c r="H5">
-        <v>2.99</v>
+        <v>3.316</v>
       </c>
       <c r="I5">
-        <v>3.491</v>
+        <v>3.824</v>
       </c>
       <c r="J5">
-        <v>3.535</v>
+        <v>3.836</v>
       </c>
     </row>
   </sheetData>
@@ -1151,34 +1151,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="C2">
         <v>1.75</v>
       </c>
       <c r="D2">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="E2">
-        <v>1.127</v>
+        <v>1.128</v>
+      </c>
+      <c r="F2">
+        <v>1.077</v>
       </c>
       <c r="G2">
-        <v>1.036</v>
+        <v>0.982</v>
       </c>
       <c r="H2">
-        <v>1.034</v>
+        <v>0.962</v>
       </c>
       <c r="I2">
-        <v>1.045</v>
+        <v>0.96</v>
       </c>
       <c r="J2">
-        <v>1.068</v>
+        <v>0.976</v>
       </c>
       <c r="K2">
-        <v>1.024</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="L2">
-        <v>1.004</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1186,34 +1189,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="C3">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="D3">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="E3">
-        <v>1.166</v>
+        <v>1.177</v>
+      </c>
+      <c r="F3">
+        <v>1.141</v>
       </c>
       <c r="G3">
-        <v>1.016</v>
+        <v>1.026</v>
       </c>
       <c r="H3">
-        <v>0.99</v>
+        <v>0.985</v>
       </c>
       <c r="I3">
-        <v>0.977</v>
+        <v>0.963</v>
       </c>
       <c r="J3">
-        <v>1.004</v>
+        <v>0.997</v>
       </c>
       <c r="K3">
-        <v>0.983</v>
+        <v>1.003</v>
       </c>
       <c r="L3">
-        <v>0.9399999999999999</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1221,34 +1227,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="C4">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="D4">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="E4">
-        <v>1.128</v>
+        <v>1.153</v>
+      </c>
+      <c r="F4">
+        <v>1.049</v>
       </c>
       <c r="G4">
-        <v>0.951</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="H4">
-        <v>1.014</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="I4">
-        <v>1.105</v>
+        <v>1.033</v>
       </c>
       <c r="J4">
-        <v>1.185</v>
+        <v>1.146</v>
       </c>
       <c r="K4">
-        <v>1.216</v>
+        <v>1.148</v>
       </c>
       <c r="L4">
-        <v>1.179</v>
+        <v>1.129</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1256,31 +1265,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.04</v>
+        <v>0.05</v>
       </c>
       <c r="C5">
-        <v>0.31</v>
+        <v>0.45</v>
       </c>
       <c r="D5">
-        <v>0.65</v>
+        <v>0.92</v>
       </c>
       <c r="E5">
-        <v>0.351</v>
+        <v>0.586</v>
+      </c>
+      <c r="F5">
+        <v>0.578</v>
       </c>
       <c r="G5">
-        <v>0.498</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H5">
-        <v>0.544</v>
+        <v>0.674</v>
       </c>
       <c r="I5">
-        <v>0.6889999999999999</v>
+        <v>0.802</v>
       </c>
       <c r="J5">
-        <v>0.834</v>
+        <v>0.841</v>
       </c>
       <c r="K5">
-        <v>0.8100000000000001</v>
+        <v>0.884</v>
       </c>
       <c r="L5">
         <v>0.883</v>
@@ -1342,31 +1354,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1.805</v>
+        <v>1.932</v>
       </c>
       <c r="E2">
-        <v>2.078</v>
+        <v>2.109</v>
       </c>
       <c r="F2">
-        <v>2.188</v>
+        <v>2.23</v>
       </c>
       <c r="G2">
-        <v>2.354</v>
+        <v>2.385</v>
       </c>
       <c r="H2">
-        <v>2.544</v>
+        <v>2.56</v>
       </c>
       <c r="I2">
-        <v>2.579</v>
+        <v>2.603</v>
       </c>
       <c r="J2">
-        <v>2.779</v>
+        <v>2.747</v>
       </c>
       <c r="K2">
-        <v>2.983</v>
+        <v>2.934</v>
       </c>
       <c r="L2">
-        <v>2.941</v>
+        <v>2.918</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1374,31 +1386,31 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>1.753</v>
+        <v>1.717</v>
       </c>
       <c r="E3">
-        <v>2.072</v>
+        <v>2.078</v>
       </c>
       <c r="F3">
-        <v>2.212</v>
+        <v>2.245</v>
       </c>
       <c r="G3">
-        <v>2.403</v>
+        <v>2.459</v>
       </c>
       <c r="H3">
-        <v>2.61</v>
+        <v>2.635</v>
       </c>
       <c r="I3">
-        <v>2.662</v>
+        <v>2.69</v>
       </c>
       <c r="J3">
-        <v>2.752</v>
+        <v>2.774</v>
       </c>
       <c r="K3">
-        <v>3.065</v>
+        <v>3.112</v>
       </c>
       <c r="L3">
-        <v>3.013</v>
+        <v>3.023</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1406,31 +1418,31 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>2.015</v>
+        <v>1.958</v>
       </c>
       <c r="E4">
-        <v>2.209</v>
+        <v>2.231</v>
       </c>
       <c r="F4">
-        <v>2.344</v>
+        <v>2.338</v>
       </c>
       <c r="G4">
-        <v>2.526</v>
+        <v>2.489</v>
       </c>
       <c r="H4">
-        <v>2.688</v>
+        <v>2.686</v>
       </c>
       <c r="I4">
-        <v>2.705</v>
+        <v>2.715</v>
       </c>
       <c r="J4">
-        <v>2.841</v>
+        <v>2.821</v>
       </c>
       <c r="K4">
-        <v>3.148</v>
+        <v>3.152</v>
       </c>
       <c r="L4">
-        <v>3.096</v>
+        <v>3.109</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1438,31 +1450,31 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1.697</v>
+        <v>1.72</v>
       </c>
       <c r="E5">
-        <v>2.058</v>
+        <v>2.055</v>
       </c>
       <c r="F5">
-        <v>2.203</v>
+        <v>2.189</v>
       </c>
       <c r="G5">
-        <v>2.371</v>
+        <v>2.41</v>
       </c>
       <c r="H5">
-        <v>2.592</v>
+        <v>2.613</v>
       </c>
       <c r="I5">
-        <v>2.623</v>
+        <v>2.639</v>
       </c>
       <c r="J5">
-        <v>2.891</v>
+        <v>2.894</v>
       </c>
       <c r="K5">
-        <v>3.235</v>
+        <v>3.268</v>
       </c>
       <c r="L5">
-        <v>3.121</v>
+        <v>3.122</v>
       </c>
     </row>
   </sheetData>
@@ -1521,19 +1533,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>8.85</v>
       </c>
       <c r="G2">
-        <v>9.19</v>
+        <v>8.875</v>
       </c>
       <c r="I2">
-        <v>10.47</v>
+        <v>10.22</v>
       </c>
       <c r="K2">
-        <v>12.54</v>
+        <v>12.36</v>
       </c>
       <c r="L2">
-        <v>12.495</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1541,19 +1553,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>8.85</v>
       </c>
       <c r="G3">
-        <v>9.154999999999999</v>
+        <v>8.91</v>
       </c>
       <c r="I3">
-        <v>10.445</v>
+        <v>10.215</v>
       </c>
       <c r="K3">
-        <v>12.37</v>
+        <v>12.165</v>
       </c>
       <c r="L3">
-        <v>12.37</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1561,19 +1573,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8.75</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="G4">
-        <v>9.17</v>
+        <v>9.965</v>
       </c>
       <c r="I4">
-        <v>10.56</v>
+        <v>11.25</v>
       </c>
       <c r="K4">
-        <v>12.32</v>
+        <v>12.76</v>
       </c>
       <c r="L4">
-        <v>12.32</v>
+        <v>12.755</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1581,19 +1593,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.46</v>
+        <v>6.31</v>
       </c>
       <c r="G5">
-        <v>8.925000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="I5">
-        <v>10.325</v>
+        <v>10.33</v>
       </c>
       <c r="K5">
-        <v>11.37</v>
+        <v>11.295</v>
       </c>
       <c r="L5">
-        <v>11.295</v>
+        <v>11.21</v>
       </c>
     </row>
   </sheetData>
@@ -1652,25 +1664,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>17.009</v>
+        <v>21.041</v>
       </c>
       <c r="C2">
-        <v>17.664</v>
+        <v>21.319</v>
       </c>
       <c r="D2">
         <v>7.77</v>
       </c>
       <c r="E2">
-        <v>18.73</v>
+        <v>19.49</v>
       </c>
       <c r="F2">
-        <v>18.895</v>
+        <v>21.45</v>
       </c>
       <c r="G2">
-        <v>17.6</v>
+        <v>18.58</v>
       </c>
       <c r="I2">
-        <v>19.18</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1678,25 +1690,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>13.629</v>
+        <v>17.584</v>
       </c>
       <c r="C3">
-        <v>14.821</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>7.77</v>
       </c>
       <c r="E3">
-        <v>15.08</v>
+        <v>17.88</v>
       </c>
       <c r="F3">
-        <v>15.72</v>
+        <v>19.58</v>
       </c>
       <c r="G3">
-        <v>19.08</v>
+        <v>17.6</v>
       </c>
       <c r="I3">
-        <v>17.95</v>
+        <v>18.43</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1704,25 +1716,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>14.251</v>
+        <v>9.923999999999999</v>
       </c>
       <c r="C4">
-        <v>12.844</v>
+        <v>12.765</v>
       </c>
       <c r="D4">
         <v>7.77</v>
       </c>
       <c r="E4">
-        <v>12.96</v>
+        <v>9.01</v>
       </c>
       <c r="F4">
-        <v>15.65</v>
+        <v>13.83</v>
       </c>
       <c r="G4">
-        <v>16.3</v>
+        <v>14.51</v>
       </c>
       <c r="I4">
-        <v>15.55</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1730,25 +1742,10 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>14.167</v>
+        <v>13.913</v>
       </c>
       <c r="C5">
-        <v>16.454</v>
-      </c>
-      <c r="D5">
-        <v>16.2</v>
-      </c>
-      <c r="E5">
-        <v>17.03</v>
-      </c>
-      <c r="F5">
-        <v>17.04</v>
-      </c>
-      <c r="G5">
-        <v>16.15</v>
-      </c>
-      <c r="I5">
-        <v>16.29</v>
+        <v>13.99</v>
       </c>
     </row>
   </sheetData>
@@ -1807,34 +1804,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.86</v>
+        <v>6.81</v>
       </c>
       <c r="C2">
-        <v>7.03</v>
+        <v>7.01</v>
       </c>
       <c r="D2">
-        <v>7.155</v>
+        <v>7.015</v>
       </c>
       <c r="E2">
-        <v>7.186</v>
+        <v>7.094</v>
       </c>
       <c r="F2">
-        <v>7.2</v>
+        <v>7.172</v>
       </c>
       <c r="G2">
-        <v>7.203</v>
+        <v>7.18</v>
       </c>
       <c r="H2">
-        <v>7.22</v>
+        <v>7.169</v>
       </c>
       <c r="I2">
-        <v>7.214</v>
+        <v>7.18</v>
       </c>
       <c r="J2">
-        <v>7.362</v>
+        <v>7.28</v>
       </c>
       <c r="L2">
-        <v>7.384</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1845,31 +1842,31 @@
         <v>6.73</v>
       </c>
       <c r="C3">
-        <v>6.85</v>
+        <v>6.86</v>
       </c>
       <c r="D3">
-        <v>6.856</v>
+        <v>6.866</v>
       </c>
       <c r="E3">
-        <v>6.991</v>
+        <v>6.998</v>
       </c>
       <c r="F3">
-        <v>7.052</v>
+        <v>7.067</v>
       </c>
       <c r="G3">
-        <v>7.068</v>
+        <v>7.097</v>
       </c>
       <c r="H3">
-        <v>7.08</v>
+        <v>7.107</v>
       </c>
       <c r="I3">
-        <v>7.089</v>
+        <v>7.1</v>
       </c>
       <c r="J3">
-        <v>7.222</v>
+        <v>7.251</v>
       </c>
       <c r="L3">
-        <v>7.32</v>
+        <v>7.303</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1877,34 +1874,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.88</v>
+        <v>6.85</v>
       </c>
       <c r="C4">
+        <v>6.97</v>
+      </c>
+      <c r="D4">
+        <v>6.87</v>
+      </c>
+      <c r="E4">
+        <v>6.858</v>
+      </c>
+      <c r="F4">
+        <v>6.897</v>
+      </c>
+      <c r="G4">
+        <v>6.918</v>
+      </c>
+      <c r="H4">
         <v>6.98</v>
       </c>
-      <c r="D4">
-        <v>6.914</v>
-      </c>
-      <c r="E4">
-        <v>6.901</v>
-      </c>
-      <c r="F4">
-        <v>6.96</v>
-      </c>
-      <c r="G4">
+      <c r="I4">
         <v>6.983</v>
       </c>
-      <c r="H4">
-        <v>7.052</v>
-      </c>
-      <c r="I4">
-        <v>7.046</v>
-      </c>
       <c r="J4">
-        <v>7.168</v>
+        <v>7.1</v>
       </c>
       <c r="L4">
-        <v>7.179</v>
+        <v>7.134</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1912,34 +1909,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.55</v>
+        <v>5.59</v>
       </c>
       <c r="C5">
-        <v>5.91</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>6.241</v>
+        <v>6.343</v>
       </c>
       <c r="E5">
-        <v>6.567</v>
+        <v>6.594</v>
       </c>
       <c r="F5">
-        <v>6.844</v>
+        <v>6.875</v>
       </c>
       <c r="G5">
-        <v>6.968</v>
+        <v>6.986</v>
       </c>
       <c r="H5">
-        <v>7.153</v>
+        <v>7.088</v>
       </c>
       <c r="I5">
-        <v>7.264</v>
+        <v>7.188</v>
       </c>
       <c r="J5">
-        <v>7.47</v>
+        <v>7.359</v>
       </c>
       <c r="L5">
-        <v>7.593</v>
+        <v>7.462</v>
       </c>
     </row>
   </sheetData>
@@ -1998,34 +1995,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.664</v>
+        <v>3.75</v>
       </c>
       <c r="C2">
-        <v>3.678</v>
+        <v>3.704</v>
       </c>
       <c r="D2">
-        <v>3.586</v>
+        <v>3.658</v>
       </c>
       <c r="E2">
-        <v>3.228</v>
+        <v>3.286</v>
       </c>
       <c r="F2">
-        <v>3.064</v>
+        <v>3.095</v>
+      </c>
+      <c r="G2">
+        <v>2.95</v>
       </c>
       <c r="H2">
-        <v>2.9755</v>
+        <v>2.9265</v>
       </c>
       <c r="I2">
-        <v>3.166</v>
+        <v>3.089</v>
       </c>
       <c r="J2">
-        <v>3.415</v>
+        <v>3.339</v>
       </c>
       <c r="K2">
-        <v>3.539</v>
+        <v>3.477</v>
       </c>
       <c r="L2">
-        <v>3.595</v>
+        <v>3.547</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2036,31 +2036,34 @@
         <v>3.583</v>
       </c>
       <c r="C3">
-        <v>3.648</v>
+        <v>3.672</v>
       </c>
       <c r="D3">
-        <v>3.645</v>
+        <v>3.644</v>
       </c>
       <c r="E3">
-        <v>3.248</v>
+        <v>3.282</v>
       </c>
       <c r="F3">
-        <v>3.02</v>
+        <v>3.026</v>
+      </c>
+      <c r="G3">
+        <v>2.891</v>
       </c>
       <c r="H3">
-        <v>2.7709</v>
+        <v>2.8529</v>
       </c>
       <c r="I3">
-        <v>2.909</v>
+        <v>3.032</v>
       </c>
       <c r="J3">
-        <v>3.139</v>
+        <v>3.275</v>
       </c>
       <c r="K3">
-        <v>3.243</v>
+        <v>3.386</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2068,34 +2071,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.138</v>
+        <v>3.163</v>
       </c>
       <c r="C4">
-        <v>3.212</v>
+        <v>3.278</v>
       </c>
       <c r="D4">
-        <v>3.263</v>
+        <v>3.374</v>
       </c>
       <c r="E4">
-        <v>2.749</v>
+        <v>2.974</v>
       </c>
       <c r="F4">
-        <v>2.606</v>
+        <v>2.853</v>
+      </c>
+      <c r="G4">
+        <v>2.817</v>
       </c>
       <c r="H4">
-        <v>2.6182</v>
+        <v>2.8415</v>
       </c>
       <c r="I4">
-        <v>2.853</v>
+        <v>3.042</v>
       </c>
       <c r="J4">
-        <v>3.168</v>
+        <v>3.34</v>
       </c>
       <c r="K4">
-        <v>3.283</v>
+        <v>3.448</v>
       </c>
       <c r="L4">
-        <v>3.374</v>
+        <v>3.534</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2103,34 +2109,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.025</v>
+        <v>-0.019</v>
       </c>
       <c r="C5">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="D5">
-        <v>0.675</v>
+        <v>0.71</v>
       </c>
       <c r="E5">
-        <v>0.733</v>
+        <v>0.991</v>
       </c>
       <c r="F5">
-        <v>1.065</v>
+        <v>1.379</v>
+      </c>
+      <c r="G5">
+        <v>1.576</v>
       </c>
       <c r="H5">
-        <v>1.4172</v>
+        <v>1.7314</v>
       </c>
       <c r="I5">
-        <v>1.807</v>
+        <v>2.124</v>
       </c>
       <c r="J5">
-        <v>2.094</v>
+        <v>2.376</v>
       </c>
       <c r="K5">
-        <v>2.189</v>
+        <v>2.444</v>
       </c>
       <c r="L5">
-        <v>2.316</v>
+        <v>2.547</v>
       </c>
     </row>
   </sheetData>
@@ -2189,37 +2198,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.634</v>
+        <v>3.663</v>
       </c>
       <c r="C2">
-        <v>3.527</v>
+        <v>3.72</v>
       </c>
       <c r="D2">
-        <v>3.606</v>
+        <v>3.605</v>
       </c>
       <c r="E2">
-        <v>3.049</v>
+        <v>3.093</v>
       </c>
       <c r="F2">
-        <v>2.909</v>
+        <v>2.94</v>
       </c>
       <c r="G2">
-        <v>2.629</v>
+        <v>2.605</v>
       </c>
       <c r="H2">
-        <v>2.554</v>
+        <v>2.512</v>
       </c>
       <c r="I2">
-        <v>2.621</v>
+        <v>2.5725</v>
       </c>
       <c r="J2">
-        <v>2.763</v>
+        <v>2.707</v>
       </c>
       <c r="K2">
-        <v>2.786</v>
+        <v>2.717</v>
       </c>
       <c r="L2">
-        <v>2.725</v>
+        <v>2.664</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2227,37 +2236,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.533</v>
+        <v>3.552</v>
       </c>
       <c r="C3">
-        <v>3.585</v>
+        <v>3.563</v>
       </c>
       <c r="D3">
-        <v>3.654</v>
+        <v>3.619</v>
       </c>
       <c r="E3">
-        <v>3.226</v>
+        <v>3.148</v>
       </c>
       <c r="F3">
-        <v>2.922</v>
+        <v>2.863</v>
       </c>
       <c r="G3">
-        <v>2.579</v>
+        <v>2.586</v>
       </c>
       <c r="H3">
-        <v>2.438</v>
+        <v>2.49</v>
       </c>
       <c r="I3">
-        <v>2.428</v>
+        <v>2.552</v>
       </c>
       <c r="J3">
-        <v>2.566</v>
+        <v>2.724</v>
       </c>
       <c r="K3">
-        <v>2.563</v>
+        <v>2.737</v>
       </c>
       <c r="L3">
-        <v>2.487</v>
+        <v>2.668</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2265,37 +2274,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2.958</v>
+        <v>3.143</v>
       </c>
       <c r="C4">
-        <v>3.145</v>
+        <v>3.272</v>
       </c>
       <c r="D4">
-        <v>3.256</v>
+        <v>3.317</v>
       </c>
       <c r="E4">
-        <v>2.977</v>
+        <v>2.966</v>
       </c>
       <c r="F4">
-        <v>2.761</v>
+        <v>2.7</v>
       </c>
       <c r="G4">
-        <v>2.554</v>
+        <v>2.441</v>
       </c>
       <c r="H4">
-        <v>2.459</v>
+        <v>2.353</v>
       </c>
       <c r="I4">
-        <v>2.5345</v>
+        <v>2.424</v>
       </c>
       <c r="J4">
-        <v>2.731</v>
+        <v>2.619</v>
       </c>
       <c r="K4">
-        <v>2.729</v>
+        <v>2.631</v>
       </c>
       <c r="L4">
-        <v>2.675</v>
+        <v>2.582</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2303,37 +2312,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.08400000000000001</v>
+        <v>0.031</v>
       </c>
       <c r="C5">
-        <v>0.184</v>
+        <v>0.026</v>
       </c>
       <c r="D5">
-        <v>0.663</v>
+        <v>0.73</v>
       </c>
       <c r="E5">
-        <v>0.834</v>
+        <v>1.145</v>
       </c>
       <c r="F5">
-        <v>0.784</v>
+        <v>1.114</v>
       </c>
       <c r="G5">
-        <v>1.029</v>
+        <v>1.321</v>
       </c>
       <c r="H5">
-        <v>1.022</v>
+        <v>1.325</v>
       </c>
       <c r="I5">
-        <v>1.234</v>
+        <v>1.51</v>
       </c>
       <c r="J5">
-        <v>1.414</v>
+        <v>1.662</v>
       </c>
       <c r="K5">
-        <v>1.369</v>
+        <v>1.601</v>
       </c>
       <c r="L5">
-        <v>1.415</v>
+        <v>1.602</v>
       </c>
     </row>
   </sheetData>
@@ -2392,22 +2401,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>5.614</v>
+        <v>5.207</v>
       </c>
       <c r="E2">
-        <v>5.387</v>
+        <v>5.302</v>
       </c>
       <c r="F2">
-        <v>5.393</v>
+        <v>5.243</v>
       </c>
       <c r="G2">
-        <v>5.466</v>
+        <v>5.359</v>
       </c>
       <c r="H2">
-        <v>5.465</v>
+        <v>5.459</v>
       </c>
       <c r="I2">
-        <v>5.681</v>
+        <v>5.615</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2415,22 +2424,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>5.691</v>
+        <v>5.728</v>
       </c>
       <c r="E3">
-        <v>5.222</v>
+        <v>5.511</v>
       </c>
       <c r="F3">
-        <v>5.15</v>
+        <v>5.483</v>
       </c>
       <c r="G3">
-        <v>5.142</v>
+        <v>5.373</v>
       </c>
       <c r="H3">
-        <v>5.167</v>
+        <v>5.412</v>
       </c>
       <c r="I3">
-        <v>5.356</v>
+        <v>5.494</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2438,22 +2447,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5.654</v>
+        <v>5.947</v>
       </c>
       <c r="E4">
-        <v>5.761</v>
+        <v>6.01</v>
       </c>
       <c r="F4">
-        <v>5.752</v>
+        <v>6.036</v>
       </c>
       <c r="G4">
-        <v>5.654</v>
+        <v>6.03</v>
       </c>
       <c r="H4">
-        <v>5.657</v>
+        <v>5.99</v>
       </c>
       <c r="I4">
-        <v>5.743</v>
+        <v>6.107</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2461,22 +2470,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>6.606</v>
+        <v>6.789</v>
       </c>
       <c r="E5">
-        <v>6.99</v>
+        <v>7.24</v>
       </c>
       <c r="F5">
-        <v>6.637</v>
+        <v>6.944</v>
       </c>
       <c r="G5">
-        <v>6.357</v>
+        <v>6.654</v>
       </c>
       <c r="H5">
-        <v>6.074</v>
+        <v>6.215</v>
       </c>
       <c r="I5">
-        <v>6.03</v>
+        <v>6.163</v>
       </c>
     </row>
   </sheetData>
@@ -2535,19 +2544,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>11.384</v>
+        <v>11.363</v>
       </c>
       <c r="E2">
-        <v>9.869</v>
+        <v>9.826000000000001</v>
       </c>
       <c r="F2">
-        <v>10.402</v>
+        <v>10.224</v>
       </c>
       <c r="G2">
-        <v>10.868</v>
+        <v>10.634</v>
       </c>
       <c r="I2">
-        <v>11.212</v>
+        <v>10.962</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2555,19 +2564,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>11.62</v>
+        <v>11.45</v>
       </c>
       <c r="E3">
-        <v>10.393</v>
+        <v>10.32</v>
       </c>
       <c r="F3">
-        <v>10.26</v>
+        <v>10.31</v>
       </c>
       <c r="G3">
-        <v>10.55</v>
+        <v>10.66</v>
       </c>
       <c r="I3">
-        <v>10.713</v>
+        <v>10.949</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2575,19 +2584,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>12.865</v>
+        <v>12.945</v>
       </c>
       <c r="E4">
-        <v>11.59</v>
+        <v>11.645</v>
       </c>
       <c r="F4">
-        <v>11.43</v>
+        <v>11.394</v>
       </c>
       <c r="G4">
-        <v>11.805</v>
+        <v>11.79</v>
       </c>
       <c r="I4">
-        <v>11.948</v>
+        <v>11.854</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2595,19 +2604,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>13.74</v>
+        <v>13.735</v>
       </c>
       <c r="E5">
-        <v>12.715</v>
+        <v>12.72</v>
       </c>
       <c r="F5">
-        <v>12.33</v>
+        <v>12.355</v>
       </c>
       <c r="G5">
-        <v>12.08</v>
+        <v>12.16</v>
       </c>
       <c r="I5">
-        <v>12.29</v>
+        <v>12.335</v>
       </c>
     </row>
   </sheetData>
@@ -2666,25 +2675,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>3.014</v>
+        <v>3.017</v>
       </c>
       <c r="F2">
-        <v>2.976</v>
+        <v>2.932</v>
       </c>
       <c r="G2">
-        <v>3.049</v>
+        <v>3.009</v>
       </c>
       <c r="H2">
-        <v>3.171</v>
+        <v>3.118</v>
       </c>
       <c r="I2">
-        <v>3.362</v>
+        <v>3.271</v>
       </c>
       <c r="J2">
-        <v>3.746</v>
+        <v>3.638</v>
       </c>
       <c r="L2">
-        <v>3.781</v>
+        <v>3.692</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2692,25 +2701,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>2.932</v>
+        <v>2.971</v>
       </c>
       <c r="F3">
-        <v>2.852</v>
+        <v>2.943</v>
       </c>
       <c r="G3">
-        <v>2.856</v>
+        <v>2.94</v>
       </c>
       <c r="H3">
-        <v>2.911</v>
+        <v>3.044</v>
       </c>
       <c r="I3">
-        <v>3.088</v>
+        <v>3.202</v>
       </c>
       <c r="J3">
-        <v>3.452</v>
+        <v>3.557</v>
       </c>
       <c r="L3">
-        <v>3.434</v>
+        <v>3.575</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2718,25 +2727,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>2.708</v>
+        <v>2.833</v>
       </c>
       <c r="F4">
-        <v>2.655</v>
+        <v>2.811</v>
       </c>
       <c r="G4">
-        <v>2.663</v>
+        <v>2.831</v>
       </c>
       <c r="H4">
-        <v>2.819</v>
+        <v>2.964</v>
       </c>
       <c r="I4">
-        <v>3.106</v>
+        <v>3.226</v>
       </c>
       <c r="J4">
-        <v>3.508</v>
+        <v>3.639</v>
       </c>
       <c r="L4">
-        <v>3.597</v>
+        <v>3.712</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2744,25 +2753,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>0.925</v>
+        <v>1.065</v>
       </c>
       <c r="F5">
-        <v>1.185</v>
+        <v>1.477</v>
       </c>
       <c r="G5">
-        <v>1.588</v>
+        <v>1.903</v>
       </c>
       <c r="H5">
-        <v>1.784</v>
+        <v>2.079</v>
       </c>
       <c r="I5">
-        <v>2.296</v>
+        <v>2.612</v>
       </c>
       <c r="J5">
-        <v>2.549</v>
+        <v>2.804</v>
       </c>
       <c r="L5">
-        <v>2.741</v>
+        <v>2.965</v>
       </c>
     </row>
   </sheetData>
@@ -2821,37 +2830,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.491</v>
+        <v>5.652</v>
       </c>
       <c r="C2">
-        <v>5.736</v>
+        <v>5.75</v>
       </c>
       <c r="D2">
-        <v>5.2755</v>
+        <v>5.247</v>
       </c>
       <c r="E2">
-        <v>5.2435</v>
+        <v>5.2985</v>
       </c>
       <c r="F2">
-        <v>4.9795</v>
+        <v>4.948</v>
       </c>
       <c r="G2">
-        <v>4.735</v>
+        <v>4.809</v>
       </c>
       <c r="H2">
-        <v>4.6555</v>
+        <v>4.415</v>
       </c>
       <c r="I2">
-        <v>4.721</v>
+        <v>4.4685</v>
       </c>
       <c r="J2">
-        <v>4.946</v>
+        <v>4.7045</v>
       </c>
       <c r="K2">
-        <v>4.964</v>
+        <v>4.72</v>
       </c>
       <c r="L2">
-        <v>4.925</v>
+        <v>4.706</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2859,37 +2868,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.404</v>
+        <v>5.362</v>
       </c>
       <c r="C3">
-        <v>5.663</v>
+        <v>5.574</v>
       </c>
       <c r="D3">
-        <v>5.2</v>
+        <v>5.069</v>
       </c>
       <c r="E3">
-        <v>5.02</v>
+        <v>4.938</v>
       </c>
       <c r="F3">
-        <v>4.75</v>
+        <v>4.694</v>
       </c>
       <c r="G3">
-        <v>4.425</v>
+        <v>4.455</v>
       </c>
       <c r="H3">
-        <v>4.279</v>
+        <v>4.379</v>
       </c>
       <c r="I3">
-        <v>4.309</v>
+        <v>4.459</v>
       </c>
       <c r="J3">
-        <v>4.49</v>
+        <v>4.682</v>
       </c>
       <c r="K3">
-        <v>4.493</v>
+        <v>4.691</v>
       </c>
       <c r="L3">
-        <v>4.45</v>
+        <v>4.654</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2897,34 +2906,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.868</v>
+        <v>4.67</v>
       </c>
       <c r="C4">
-        <v>5.085</v>
+        <v>5.27</v>
       </c>
       <c r="D4">
-        <v>4.8375</v>
+        <v>5.152</v>
       </c>
       <c r="E4">
-        <v>4.602</v>
+        <v>5.043</v>
       </c>
       <c r="F4">
-        <v>4.5065</v>
+        <v>4.907</v>
       </c>
       <c r="G4">
-        <v>4.2855</v>
+        <v>4.593</v>
       </c>
       <c r="H4">
-        <v>4.203</v>
+        <v>4.424</v>
       </c>
       <c r="I4">
-        <v>4.2825</v>
+        <v>4.406</v>
       </c>
       <c r="J4">
-        <v>4.5095</v>
+        <v>4.575</v>
+      </c>
+      <c r="K4">
+        <v>4.566</v>
       </c>
       <c r="L4">
-        <v>4.532</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2932,34 +2944,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.028</v>
+        <v>2.05</v>
       </c>
       <c r="C5">
-        <v>2.405</v>
+        <v>2.809</v>
       </c>
       <c r="D5">
-        <v>2.573</v>
+        <v>2.661</v>
       </c>
       <c r="E5">
-        <v>2.535</v>
+        <v>2.895</v>
       </c>
       <c r="F5">
-        <v>2.269</v>
+        <v>2.726</v>
       </c>
       <c r="G5">
-        <v>2.269</v>
+        <v>2.667</v>
       </c>
       <c r="H5">
-        <v>2.335</v>
+        <v>2.669</v>
       </c>
       <c r="I5">
-        <v>2.415</v>
+        <v>2.705</v>
       </c>
       <c r="J5">
-        <v>2.755</v>
+        <v>3.082</v>
+      </c>
+      <c r="K5">
+        <v>3.095</v>
       </c>
       <c r="L5">
-        <v>2.72</v>
+        <v>2.981</v>
       </c>
     </row>
   </sheetData>
@@ -3018,37 +3033,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.122</v>
+        <v>-0.301</v>
       </c>
       <c r="C2">
-        <v>-0.23</v>
+        <v>-0.147</v>
       </c>
       <c r="D2">
-        <v>-0.079</v>
+        <v>-0.08</v>
       </c>
       <c r="E2">
-        <v>0.016</v>
+        <v>0.027</v>
       </c>
       <c r="F2">
-        <v>0.056</v>
+        <v>0.073</v>
       </c>
       <c r="G2">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="H2">
-        <v>0.409</v>
+        <v>0.398</v>
       </c>
       <c r="I2">
-        <v>0.618</v>
+        <v>0.642</v>
       </c>
       <c r="J2">
-        <v>1.036</v>
+        <v>1.065</v>
       </c>
       <c r="K2">
-        <v>1.322</v>
+        <v>1.352</v>
       </c>
       <c r="L2">
-        <v>1.566</v>
+        <v>1.592</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3056,37 +3071,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-0.152</v>
+        <v>-0.101</v>
       </c>
       <c r="C3">
-        <v>-0.198</v>
+        <v>-0.177</v>
       </c>
       <c r="D3">
-        <v>-0.133</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="E3">
-        <v>-0.032</v>
+        <v>0.016</v>
       </c>
       <c r="F3">
-        <v>-0.024</v>
+        <v>0.031</v>
       </c>
       <c r="G3">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="H3">
-        <v>0.289</v>
+        <v>0.398</v>
       </c>
       <c r="I3">
-        <v>0.48</v>
+        <v>0.627</v>
       </c>
       <c r="J3">
-        <v>0.867</v>
+        <v>1.025</v>
       </c>
       <c r="K3">
-        <v>1.108</v>
+        <v>1.287</v>
       </c>
       <c r="L3">
-        <v>1.368</v>
+        <v>1.567</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3094,37 +3109,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.191</v>
+        <v>-0.182</v>
       </c>
       <c r="C4">
-        <v>-0.152</v>
+        <v>-0.162</v>
       </c>
       <c r="D4">
-        <v>-0.125</v>
+        <v>-0.14</v>
       </c>
       <c r="E4">
-        <v>-0.063</v>
+        <v>-0.058</v>
       </c>
       <c r="F4">
-        <v>-0.037</v>
+        <v>-0.049</v>
       </c>
       <c r="G4">
-        <v>0.117</v>
+        <v>0.077</v>
       </c>
       <c r="H4">
-        <v>0.242</v>
+        <v>0.211</v>
       </c>
       <c r="I4">
-        <v>0.427</v>
+        <v>0.415</v>
       </c>
       <c r="J4">
-        <v>0.8100000000000001</v>
+        <v>0.789</v>
       </c>
       <c r="K4">
-        <v>1.036</v>
+        <v>1.012</v>
       </c>
       <c r="L4">
-        <v>1.273</v>
+        <v>1.253</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3132,37 +3147,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.219</v>
+        <v>-0.112</v>
       </c>
       <c r="C5">
-        <v>-0.188</v>
+        <v>-0.202</v>
       </c>
       <c r="D5">
-        <v>-0.132</v>
+        <v>-0.139</v>
       </c>
       <c r="E5">
-        <v>-0.089</v>
+        <v>-0.09</v>
       </c>
       <c r="F5">
-        <v>-0.074</v>
+        <v>-0.08</v>
       </c>
       <c r="G5">
-        <v>-0.004</v>
+        <v>0.01</v>
       </c>
       <c r="H5">
-        <v>0.074</v>
+        <v>0.146</v>
       </c>
       <c r="I5">
-        <v>0.199</v>
+        <v>0.225</v>
       </c>
       <c r="J5">
-        <v>0.541</v>
+        <v>0.616</v>
       </c>
       <c r="K5">
-        <v>0.766</v>
+        <v>0.871</v>
       </c>
       <c r="L5">
-        <v>1.075</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -483,34 +483,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="C2">
-        <v>5.21</v>
+        <v>5.13</v>
       </c>
       <c r="D2">
-        <v>5.27</v>
+        <v>5.14</v>
       </c>
       <c r="E2">
-        <v>4.683</v>
+        <v>4.552</v>
       </c>
       <c r="F2">
-        <v>4.439</v>
+        <v>4.322</v>
       </c>
       <c r="G2">
-        <v>3.933</v>
+        <v>3.846</v>
       </c>
       <c r="H2">
-        <v>3.763</v>
+        <v>3.682</v>
       </c>
       <c r="I2">
-        <v>3.596</v>
+        <v>3.569</v>
       </c>
       <c r="K2">
-        <v>3.566</v>
+        <v>3.556</v>
       </c>
       <c r="L2">
-        <v>3.42</v>
+        <v>3.422</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -518,34 +518,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="C3">
-        <v>5.18</v>
+        <v>5.19</v>
       </c>
       <c r="D3">
-        <v>5.25</v>
+        <v>5.26</v>
       </c>
       <c r="E3">
         <v>4.674</v>
       </c>
       <c r="F3">
-        <v>4.418</v>
+        <v>4.41</v>
       </c>
       <c r="G3">
-        <v>3.88</v>
+        <v>3.908</v>
       </c>
       <c r="H3">
-        <v>3.632</v>
+        <v>3.661</v>
       </c>
       <c r="I3">
-        <v>3.481</v>
+        <v>3.502</v>
       </c>
       <c r="K3">
-        <v>3.458</v>
+        <v>3.463</v>
       </c>
       <c r="L3">
-        <v>3.319</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -553,34 +553,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.53</v>
+        <v>4.59</v>
       </c>
       <c r="C4">
-        <v>4.63</v>
+        <v>4.7</v>
       </c>
       <c r="D4">
-        <v>4.71</v>
+        <v>4.75</v>
       </c>
       <c r="E4">
-        <v>4.078</v>
+        <v>4.188</v>
       </c>
       <c r="F4">
-        <v>3.717</v>
+        <v>3.831</v>
       </c>
       <c r="G4">
-        <v>3.373</v>
+        <v>3.472</v>
       </c>
       <c r="H4">
-        <v>3.226</v>
+        <v>3.315</v>
       </c>
       <c r="I4">
-        <v>3.182</v>
+        <v>3.278</v>
       </c>
       <c r="K4">
-        <v>3.254</v>
+        <v>3.372</v>
       </c>
       <c r="L4">
-        <v>3.165</v>
+        <v>3.282</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -588,34 +588,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="C5">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="D5">
-        <v>3.81</v>
+        <v>3.78</v>
       </c>
       <c r="E5">
-        <v>3.638</v>
+        <v>3.618</v>
       </c>
       <c r="F5">
-        <v>3.582</v>
+        <v>3.573</v>
       </c>
       <c r="G5">
-        <v>3.263</v>
+        <v>3.299</v>
       </c>
       <c r="H5">
-        <v>3.167</v>
+        <v>3.213</v>
       </c>
       <c r="I5">
-        <v>3.073</v>
+        <v>3.199</v>
       </c>
       <c r="K5">
-        <v>3.071</v>
+        <v>3.238</v>
       </c>
       <c r="L5">
-        <v>2.997</v>
+        <v>3.162</v>
       </c>
     </row>
   </sheetData>
@@ -674,22 +674,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>13.41</v>
+        <v>13.955</v>
       </c>
       <c r="E2">
-        <v>11.235</v>
+        <v>11.44</v>
       </c>
       <c r="F2">
-        <v>12.26</v>
+        <v>12.665</v>
       </c>
       <c r="G2">
-        <v>11.23</v>
+        <v>11.405</v>
       </c>
       <c r="I2">
-        <v>12.015</v>
+        <v>12.115</v>
       </c>
       <c r="J2">
-        <v>11.425</v>
+        <v>11.505</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -697,22 +697,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>10.78</v>
+        <v>11.2</v>
       </c>
       <c r="E3">
-        <v>9.35</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F3">
-        <v>10.8</v>
+        <v>10.92</v>
       </c>
       <c r="G3">
-        <v>10.08</v>
+        <v>10.31</v>
       </c>
       <c r="I3">
-        <v>11.46</v>
+        <v>11.55</v>
       </c>
       <c r="J3">
-        <v>11.68</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -720,22 +720,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>8.48</v>
+        <v>8.57</v>
       </c>
       <c r="E4">
-        <v>9.199999999999999</v>
+        <v>9.42</v>
       </c>
       <c r="F4">
-        <v>8.99</v>
+        <v>9.08</v>
       </c>
       <c r="G4">
-        <v>10.04</v>
+        <v>10.07</v>
       </c>
       <c r="I4">
         <v>10.72</v>
       </c>
       <c r="J4">
-        <v>11.11</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -743,22 +743,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>8.02</v>
+        <v>8.17</v>
       </c>
       <c r="E5">
-        <v>9.32</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F5">
-        <v>8.27</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G5">
-        <v>9.140000000000001</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="I5">
-        <v>9.369999999999999</v>
+        <v>9.34</v>
       </c>
       <c r="J5">
-        <v>9.08</v>
+        <v>9.07</v>
       </c>
     </row>
   </sheetData>
@@ -817,25 +817,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.034</v>
+        <v>4.028</v>
       </c>
       <c r="E2">
-        <v>3.845</v>
+        <v>3.844</v>
       </c>
       <c r="F2">
-        <v>3.787</v>
+        <v>3.809</v>
       </c>
       <c r="G2">
-        <v>3.837</v>
+        <v>3.862</v>
       </c>
       <c r="H2">
-        <v>3.973</v>
+        <v>4.02</v>
       </c>
       <c r="I2">
-        <v>4.072</v>
+        <v>4.134</v>
       </c>
       <c r="J2">
-        <v>4.337</v>
+        <v>4.389</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -843,25 +843,25 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.112</v>
+        <v>4.022</v>
       </c>
       <c r="E3">
-        <v>3.98</v>
+        <v>3.83</v>
       </c>
       <c r="F3">
-        <v>3.872</v>
+        <v>3.773</v>
       </c>
       <c r="G3">
-        <v>3.879</v>
+        <v>3.801</v>
       </c>
       <c r="H3">
-        <v>4.025</v>
+        <v>3.934</v>
       </c>
       <c r="I3">
-        <v>4.166</v>
+        <v>4.032</v>
       </c>
       <c r="J3">
-        <v>4.338</v>
+        <v>4.283</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -869,25 +869,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.246</v>
+        <v>4.355</v>
       </c>
       <c r="E4">
-        <v>4.035</v>
+        <v>4.185</v>
       </c>
       <c r="F4">
-        <v>3.858</v>
+        <v>4.012</v>
       </c>
       <c r="G4">
-        <v>3.818</v>
+        <v>3.934</v>
       </c>
       <c r="H4">
-        <v>3.876</v>
+        <v>3.95</v>
       </c>
       <c r="I4">
-        <v>3.939</v>
+        <v>3.995</v>
       </c>
       <c r="J4">
-        <v>4.121</v>
+        <v>4.149</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -895,25 +895,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>2.806</v>
+        <v>2.793</v>
       </c>
       <c r="E5">
-        <v>3.194</v>
+        <v>3.145</v>
       </c>
       <c r="F5">
-        <v>3.35</v>
+        <v>3.302</v>
       </c>
       <c r="G5">
-        <v>3.443</v>
+        <v>3.395</v>
       </c>
       <c r="H5">
-        <v>3.545</v>
+        <v>3.525</v>
       </c>
       <c r="I5">
         <v>3.651</v>
       </c>
       <c r="J5">
-        <v>3.837</v>
+        <v>3.863</v>
       </c>
     </row>
   </sheetData>
@@ -972,31 +972,28 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.524</v>
+        <v>3.451</v>
       </c>
       <c r="C2">
-        <v>3.831</v>
+        <v>3.674</v>
       </c>
       <c r="D2">
-        <v>3.838</v>
+        <v>3.836</v>
       </c>
       <c r="E2">
-        <v>3.759</v>
+        <v>3.714</v>
       </c>
       <c r="F2">
-        <v>3.681</v>
-      </c>
-      <c r="G2">
-        <v>3.811</v>
+        <v>3.649</v>
       </c>
       <c r="H2">
-        <v>3.98</v>
+        <v>4.042</v>
       </c>
       <c r="I2">
-        <v>4.227</v>
+        <v>4.311</v>
       </c>
       <c r="J2">
-        <v>4.451</v>
+        <v>4.542</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1004,31 +1001,28 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.501</v>
+        <v>3.471</v>
       </c>
       <c r="C3">
-        <v>3.599</v>
+        <v>3.483</v>
       </c>
       <c r="D3">
-        <v>3.809</v>
+        <v>3.805</v>
       </c>
       <c r="E3">
-        <v>3.697</v>
+        <v>3.709</v>
       </c>
       <c r="F3">
-        <v>3.59</v>
-      </c>
-      <c r="G3">
-        <v>3.643</v>
+        <v>3.601</v>
       </c>
       <c r="H3">
-        <v>3.835</v>
+        <v>3.962</v>
       </c>
       <c r="I3">
-        <v>4.105</v>
+        <v>4.249</v>
       </c>
       <c r="J3">
-        <v>4.321</v>
+        <v>4.482</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1036,31 +1030,28 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.29</v>
+        <v>3.204</v>
       </c>
       <c r="C4">
-        <v>3.46</v>
+        <v>3.414</v>
       </c>
       <c r="D4">
-        <v>3.592</v>
+        <v>3.583</v>
       </c>
       <c r="E4">
-        <v>3.507</v>
+        <v>3.496</v>
       </c>
       <c r="F4">
-        <v>3.618</v>
-      </c>
-      <c r="G4">
-        <v>3.805</v>
+        <v>3.608</v>
       </c>
       <c r="H4">
-        <v>4.108</v>
+        <v>4.068</v>
       </c>
       <c r="I4">
-        <v>4.322</v>
+        <v>4.278</v>
       </c>
       <c r="J4">
-        <v>4.646</v>
+        <v>4.571</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1068,31 +1059,28 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.167</v>
+        <v>0.442</v>
       </c>
       <c r="C5">
-        <v>0.792</v>
+        <v>1.179</v>
       </c>
       <c r="D5">
-        <v>1.349</v>
+        <v>1.61</v>
       </c>
       <c r="E5">
-        <v>2.113</v>
+        <v>2.2</v>
       </c>
       <c r="F5">
-        <v>2.523</v>
-      </c>
-      <c r="G5">
-        <v>2.955</v>
+        <v>2.561</v>
       </c>
       <c r="H5">
-        <v>3.316</v>
+        <v>3.404</v>
       </c>
       <c r="I5">
-        <v>3.824</v>
+        <v>3.94</v>
       </c>
       <c r="J5">
-        <v>3.836</v>
+        <v>3.984</v>
       </c>
     </row>
   </sheetData>
@@ -1151,37 +1139,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="C2">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="D2">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="E2">
-        <v>1.128</v>
+        <v>1.07</v>
       </c>
       <c r="F2">
-        <v>1.077</v>
+        <v>1.043</v>
       </c>
       <c r="G2">
-        <v>0.982</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="H2">
-        <v>0.962</v>
+        <v>0.92</v>
       </c>
       <c r="I2">
-        <v>0.96</v>
+        <v>0.931</v>
       </c>
       <c r="J2">
-        <v>0.976</v>
+        <v>0.965</v>
       </c>
       <c r="K2">
         <v>0.9419999999999999</v>
       </c>
       <c r="L2">
-        <v>0.927</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1189,37 +1177,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="C3">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="D3">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="E3">
-        <v>1.177</v>
+        <v>1.117</v>
       </c>
       <c r="F3">
-        <v>1.141</v>
+        <v>1.064</v>
       </c>
       <c r="G3">
-        <v>1.026</v>
+        <v>1.015</v>
       </c>
       <c r="H3">
-        <v>0.985</v>
+        <v>1.018</v>
       </c>
       <c r="I3">
-        <v>0.963</v>
+        <v>1.046</v>
       </c>
       <c r="J3">
-        <v>0.997</v>
+        <v>1.08</v>
       </c>
       <c r="K3">
-        <v>1.003</v>
+        <v>1.067</v>
       </c>
       <c r="L3">
-        <v>0.966</v>
+        <v>1.053</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1227,37 +1215,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="C4">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="D4">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="E4">
-        <v>1.153</v>
+        <v>1.112</v>
       </c>
       <c r="F4">
-        <v>1.049</v>
+        <v>1.163</v>
       </c>
       <c r="G4">
-        <v>0.9350000000000001</v>
+        <v>1.057</v>
       </c>
       <c r="H4">
-        <v>0.9419999999999999</v>
+        <v>0.973</v>
       </c>
       <c r="I4">
-        <v>1.033</v>
+        <v>1.138</v>
       </c>
       <c r="J4">
-        <v>1.146</v>
+        <v>1.226</v>
       </c>
       <c r="K4">
-        <v>1.148</v>
+        <v>1.24</v>
       </c>
       <c r="L4">
-        <v>1.129</v>
+        <v>1.145</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1268,34 +1256,34 @@
         <v>0.05</v>
       </c>
       <c r="C5">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="D5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E5">
-        <v>0.586</v>
+        <v>0.676</v>
       </c>
       <c r="F5">
-        <v>0.578</v>
+        <v>0.597</v>
       </c>
       <c r="G5">
-        <v>0.6860000000000001</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H5">
-        <v>0.674</v>
+        <v>0.714</v>
       </c>
       <c r="I5">
-        <v>0.802</v>
+        <v>0.922</v>
       </c>
       <c r="J5">
-        <v>0.841</v>
+        <v>0.989</v>
       </c>
       <c r="K5">
-        <v>0.884</v>
+        <v>1.031</v>
       </c>
       <c r="L5">
-        <v>0.883</v>
+        <v>1.067</v>
       </c>
     </row>
   </sheetData>
@@ -1354,31 +1342,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1.932</v>
+        <v>1.975</v>
       </c>
       <c r="E2">
-        <v>2.109</v>
+        <v>2.157</v>
       </c>
       <c r="F2">
-        <v>2.23</v>
+        <v>2.263</v>
       </c>
       <c r="G2">
-        <v>2.385</v>
+        <v>2.448</v>
       </c>
       <c r="H2">
-        <v>2.56</v>
+        <v>2.621</v>
       </c>
       <c r="I2">
-        <v>2.603</v>
+        <v>2.659</v>
       </c>
       <c r="J2">
-        <v>2.747</v>
+        <v>2.777</v>
       </c>
       <c r="K2">
-        <v>2.934</v>
+        <v>2.996</v>
       </c>
       <c r="L2">
-        <v>2.918</v>
+        <v>2.981</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1386,31 +1374,31 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>1.717</v>
+        <v>1.805</v>
       </c>
       <c r="E3">
-        <v>2.078</v>
+        <v>2.115</v>
       </c>
       <c r="F3">
-        <v>2.245</v>
+        <v>2.238</v>
       </c>
       <c r="G3">
-        <v>2.459</v>
+        <v>2.445</v>
       </c>
       <c r="H3">
-        <v>2.635</v>
+        <v>2.62</v>
       </c>
       <c r="I3">
-        <v>2.69</v>
+        <v>2.653</v>
       </c>
       <c r="J3">
-        <v>2.774</v>
+        <v>2.814</v>
       </c>
       <c r="K3">
-        <v>3.112</v>
+        <v>3.015</v>
       </c>
       <c r="L3">
-        <v>3.023</v>
+        <v>3.003</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1418,31 +1406,31 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>1.958</v>
+        <v>1.968</v>
       </c>
       <c r="E4">
-        <v>2.231</v>
+        <v>2.166</v>
       </c>
       <c r="F4">
-        <v>2.338</v>
+        <v>2.285</v>
       </c>
       <c r="G4">
-        <v>2.489</v>
+        <v>2.455</v>
       </c>
       <c r="H4">
-        <v>2.686</v>
+        <v>2.673</v>
       </c>
       <c r="I4">
-        <v>2.715</v>
+        <v>2.723</v>
       </c>
       <c r="J4">
-        <v>2.821</v>
+        <v>2.832</v>
       </c>
       <c r="K4">
-        <v>3.152</v>
+        <v>3.161</v>
       </c>
       <c r="L4">
-        <v>3.109</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1450,31 +1438,31 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1.72</v>
+        <v>1.692</v>
       </c>
       <c r="E5">
-        <v>2.055</v>
+        <v>2.013</v>
       </c>
       <c r="F5">
-        <v>2.189</v>
+        <v>2.143</v>
       </c>
       <c r="G5">
-        <v>2.41</v>
+        <v>2.382</v>
       </c>
       <c r="H5">
-        <v>2.613</v>
+        <v>2.61</v>
       </c>
       <c r="I5">
-        <v>2.639</v>
+        <v>2.634</v>
       </c>
       <c r="J5">
-        <v>2.894</v>
+        <v>2.88</v>
       </c>
       <c r="K5">
-        <v>3.268</v>
+        <v>3.25</v>
       </c>
       <c r="L5">
-        <v>3.122</v>
+        <v>3.097</v>
       </c>
     </row>
   </sheetData>
@@ -1533,19 +1521,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8.85</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G2">
-        <v>8.875</v>
+        <v>9.06</v>
       </c>
       <c r="I2">
-        <v>10.22</v>
+        <v>10.395</v>
       </c>
       <c r="K2">
-        <v>12.36</v>
+        <v>12.58</v>
       </c>
       <c r="L2">
-        <v>12.36</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1556,16 +1544,16 @@
         <v>8.85</v>
       </c>
       <c r="G3">
-        <v>8.91</v>
+        <v>9.08</v>
       </c>
       <c r="I3">
-        <v>10.215</v>
+        <v>10.37</v>
       </c>
       <c r="K3">
-        <v>12.165</v>
+        <v>12.3</v>
       </c>
       <c r="L3">
-        <v>12.15</v>
+        <v>12.295</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1573,19 +1561,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>9.050000000000001</v>
+        <v>9.15</v>
       </c>
       <c r="G4">
-        <v>9.965</v>
+        <v>9.705</v>
       </c>
       <c r="I4">
-        <v>11.25</v>
+        <v>11.115</v>
       </c>
       <c r="K4">
-        <v>12.76</v>
+        <v>12.675</v>
       </c>
       <c r="L4">
-        <v>12.755</v>
+        <v>12.645</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1593,19 +1581,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.31</v>
+        <v>6.5</v>
       </c>
       <c r="G5">
-        <v>8.880000000000001</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="I5">
         <v>10.33</v>
       </c>
       <c r="K5">
-        <v>11.295</v>
+        <v>11.26</v>
       </c>
       <c r="L5">
-        <v>11.21</v>
+        <v>11.17</v>
       </c>
     </row>
   </sheetData>
@@ -1664,25 +1652,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>21.041</v>
+        <v>24.516</v>
       </c>
       <c r="C2">
-        <v>21.319</v>
+        <v>21.759</v>
       </c>
       <c r="D2">
         <v>7.77</v>
       </c>
       <c r="E2">
-        <v>19.49</v>
+        <v>22.14</v>
       </c>
       <c r="F2">
-        <v>21.45</v>
+        <v>20.58</v>
       </c>
       <c r="G2">
-        <v>18.58</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>19.2</v>
+        <v>19.115</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1690,25 +1678,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>17.584</v>
+        <v>17.804</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>20.025</v>
       </c>
       <c r="D3">
         <v>7.77</v>
       </c>
       <c r="E3">
-        <v>17.88</v>
+        <v>20.82</v>
       </c>
       <c r="F3">
-        <v>19.58</v>
+        <v>22.05</v>
       </c>
       <c r="G3">
-        <v>17.6</v>
+        <v>17.85</v>
       </c>
       <c r="I3">
-        <v>18.43</v>
+        <v>19.08</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1716,25 +1704,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>9.923999999999999</v>
+        <v>14.621</v>
       </c>
       <c r="C4">
-        <v>12.765</v>
+        <v>15.612</v>
       </c>
       <c r="D4">
         <v>7.77</v>
       </c>
       <c r="E4">
-        <v>9.01</v>
+        <v>16.84</v>
       </c>
       <c r="F4">
-        <v>13.83</v>
+        <v>16.88</v>
       </c>
       <c r="G4">
-        <v>14.51</v>
+        <v>20</v>
       </c>
       <c r="I4">
-        <v>16.28</v>
+        <v>18.27</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1742,10 +1730,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>13.913</v>
+        <v>14.75</v>
       </c>
       <c r="C5">
-        <v>13.99</v>
+        <v>14.541</v>
+      </c>
+      <c r="D5">
+        <v>14.3</v>
+      </c>
+      <c r="E5">
+        <v>14.08</v>
+      </c>
+      <c r="G5">
+        <v>12.74</v>
+      </c>
+      <c r="I5">
+        <v>12.45</v>
       </c>
     </row>
   </sheetData>
@@ -1804,34 +1804,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.81</v>
+        <v>6.8</v>
       </c>
       <c r="C2">
-        <v>7.01</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>7.015</v>
+        <v>7.098</v>
       </c>
       <c r="E2">
-        <v>7.094</v>
+        <v>7.184</v>
       </c>
       <c r="F2">
-        <v>7.172</v>
+        <v>7.164</v>
       </c>
       <c r="G2">
-        <v>7.18</v>
+        <v>7.182</v>
       </c>
       <c r="H2">
-        <v>7.169</v>
+        <v>7.185</v>
       </c>
       <c r="I2">
-        <v>7.18</v>
+        <v>7.204</v>
       </c>
       <c r="J2">
-        <v>7.28</v>
+        <v>7.27</v>
       </c>
       <c r="L2">
-        <v>7.34</v>
+        <v>7.347</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1839,34 +1839,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.73</v>
+        <v>6.74</v>
       </c>
       <c r="C3">
-        <v>6.86</v>
+        <v>6.88</v>
       </c>
       <c r="D3">
-        <v>6.866</v>
+        <v>6.897</v>
       </c>
       <c r="E3">
-        <v>6.998</v>
+        <v>7.076</v>
       </c>
       <c r="F3">
-        <v>7.067</v>
+        <v>7.115</v>
       </c>
       <c r="G3">
-        <v>7.097</v>
+        <v>7.156</v>
       </c>
       <c r="H3">
-        <v>7.107</v>
+        <v>7.176</v>
       </c>
       <c r="I3">
-        <v>7.1</v>
+        <v>7.172</v>
       </c>
       <c r="J3">
-        <v>7.251</v>
+        <v>7.309</v>
       </c>
       <c r="L3">
-        <v>7.303</v>
+        <v>7.369</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1874,34 +1874,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.85</v>
+        <v>6.77</v>
       </c>
       <c r="C4">
-        <v>6.97</v>
+        <v>6.88</v>
       </c>
       <c r="D4">
-        <v>6.87</v>
+        <v>6.789</v>
       </c>
       <c r="E4">
-        <v>6.858</v>
+        <v>6.816</v>
       </c>
       <c r="F4">
-        <v>6.897</v>
+        <v>6.865</v>
       </c>
       <c r="G4">
-        <v>6.918</v>
+        <v>6.916</v>
       </c>
       <c r="H4">
-        <v>6.98</v>
+        <v>6.987</v>
       </c>
       <c r="I4">
-        <v>6.983</v>
+        <v>6.99</v>
       </c>
       <c r="J4">
-        <v>7.1</v>
+        <v>7.105</v>
       </c>
       <c r="L4">
-        <v>7.134</v>
+        <v>7.138</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1909,34 +1909,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.59</v>
+        <v>5.63</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="D5">
-        <v>6.343</v>
+        <v>6.353</v>
       </c>
       <c r="E5">
-        <v>6.594</v>
+        <v>6.664</v>
       </c>
       <c r="F5">
-        <v>6.875</v>
+        <v>6.923</v>
       </c>
       <c r="G5">
-        <v>6.986</v>
+        <v>7.037</v>
       </c>
       <c r="H5">
-        <v>7.088</v>
+        <v>7.15</v>
       </c>
       <c r="I5">
-        <v>7.188</v>
+        <v>7.218</v>
       </c>
       <c r="J5">
-        <v>7.359</v>
+        <v>7.384</v>
       </c>
       <c r="L5">
-        <v>7.462</v>
+        <v>7.475</v>
       </c>
     </row>
   </sheetData>
@@ -1995,37 +1995,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.75</v>
-      </c>
-      <c r="C2">
-        <v>3.704</v>
+        <v>3.687</v>
       </c>
       <c r="D2">
-        <v>3.658</v>
+        <v>3.614</v>
       </c>
       <c r="E2">
-        <v>3.286</v>
+        <v>3.224</v>
       </c>
       <c r="F2">
-        <v>3.095</v>
+        <v>3.03</v>
       </c>
       <c r="G2">
-        <v>2.95</v>
+        <v>2.915</v>
       </c>
       <c r="H2">
-        <v>2.9265</v>
+        <v>2.917</v>
       </c>
       <c r="I2">
-        <v>3.089</v>
+        <v>3.109</v>
       </c>
       <c r="J2">
-        <v>3.339</v>
+        <v>3.365</v>
       </c>
       <c r="K2">
-        <v>3.477</v>
+        <v>3.506</v>
       </c>
       <c r="L2">
-        <v>3.547</v>
+        <v>3.592</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2033,37 +2030,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.583</v>
-      </c>
-      <c r="C3">
-        <v>3.672</v>
+        <v>3.618</v>
       </c>
       <c r="D3">
-        <v>3.644</v>
+        <v>3.658</v>
       </c>
       <c r="E3">
-        <v>3.282</v>
+        <v>3.207</v>
       </c>
       <c r="F3">
-        <v>3.026</v>
+        <v>3.007</v>
       </c>
       <c r="G3">
-        <v>2.891</v>
+        <v>2.925</v>
       </c>
       <c r="H3">
-        <v>2.8529</v>
+        <v>2.9114</v>
       </c>
       <c r="I3">
-        <v>3.032</v>
+        <v>3.119</v>
       </c>
       <c r="J3">
-        <v>3.275</v>
+        <v>3.359</v>
       </c>
       <c r="K3">
-        <v>3.386</v>
+        <v>3.486</v>
       </c>
       <c r="L3">
-        <v>3.46</v>
+        <v>3.557</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2071,37 +2065,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.163</v>
-      </c>
-      <c r="C4">
-        <v>3.278</v>
+        <v>3.14</v>
       </c>
       <c r="D4">
-        <v>3.374</v>
+        <v>3.388</v>
       </c>
       <c r="E4">
-        <v>2.974</v>
+        <v>2.938</v>
       </c>
       <c r="F4">
-        <v>2.853</v>
+        <v>2.766</v>
       </c>
       <c r="G4">
-        <v>2.817</v>
+        <v>2.703</v>
       </c>
       <c r="H4">
-        <v>2.8415</v>
+        <v>2.7182</v>
       </c>
       <c r="I4">
-        <v>3.042</v>
+        <v>2.917</v>
       </c>
       <c r="J4">
-        <v>3.34</v>
+        <v>3.183</v>
       </c>
       <c r="K4">
-        <v>3.448</v>
+        <v>3.333</v>
       </c>
       <c r="L4">
-        <v>3.534</v>
+        <v>3.412</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2109,37 +2100,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.019</v>
-      </c>
-      <c r="C5">
-        <v>0.02</v>
+        <v>-0.024</v>
       </c>
       <c r="D5">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0.991</v>
+        <v>0.916</v>
       </c>
       <c r="F5">
-        <v>1.379</v>
+        <v>1.371</v>
       </c>
       <c r="G5">
-        <v>1.576</v>
+        <v>1.593</v>
       </c>
       <c r="H5">
-        <v>1.7314</v>
+        <v>1.7643</v>
       </c>
       <c r="I5">
-        <v>2.124</v>
+        <v>2.187</v>
       </c>
       <c r="J5">
-        <v>2.376</v>
+        <v>2.496</v>
       </c>
       <c r="K5">
-        <v>2.444</v>
+        <v>2.551</v>
       </c>
       <c r="L5">
-        <v>2.547</v>
+        <v>2.643</v>
       </c>
     </row>
   </sheetData>
@@ -2198,37 +2186,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.663</v>
+        <v>3.615</v>
       </c>
       <c r="C2">
-        <v>3.72</v>
+        <v>3.691</v>
       </c>
       <c r="D2">
-        <v>3.605</v>
+        <v>3.604</v>
       </c>
       <c r="E2">
-        <v>3.093</v>
+        <v>3.014</v>
       </c>
       <c r="F2">
-        <v>2.94</v>
+        <v>2.858</v>
       </c>
       <c r="G2">
-        <v>2.605</v>
+        <v>2.566</v>
       </c>
       <c r="H2">
-        <v>2.512</v>
+        <v>2.493</v>
       </c>
       <c r="I2">
-        <v>2.5725</v>
+        <v>2.5865</v>
       </c>
       <c r="J2">
-        <v>2.707</v>
+        <v>2.737</v>
       </c>
       <c r="K2">
+        <v>2.754</v>
+      </c>
+      <c r="L2">
         <v>2.717</v>
-      </c>
-      <c r="L2">
-        <v>2.664</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2236,37 +2224,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.552</v>
+        <v>3.569</v>
       </c>
       <c r="C3">
-        <v>3.563</v>
+        <v>3.52</v>
       </c>
       <c r="D3">
-        <v>3.619</v>
+        <v>3.507</v>
       </c>
       <c r="E3">
-        <v>3.148</v>
+        <v>3.085</v>
       </c>
       <c r="F3">
-        <v>2.863</v>
+        <v>2.78</v>
       </c>
       <c r="G3">
-        <v>2.586</v>
+        <v>2.491</v>
       </c>
       <c r="H3">
-        <v>2.49</v>
+        <v>2.39</v>
       </c>
       <c r="I3">
-        <v>2.552</v>
+        <v>2.441</v>
       </c>
       <c r="J3">
-        <v>2.724</v>
+        <v>2.615</v>
       </c>
       <c r="K3">
-        <v>2.737</v>
+        <v>2.623</v>
       </c>
       <c r="L3">
-        <v>2.668</v>
+        <v>2.556</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2274,37 +2262,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.143</v>
+        <v>3.179</v>
       </c>
       <c r="C4">
-        <v>3.272</v>
+        <v>3.315</v>
       </c>
       <c r="D4">
-        <v>3.317</v>
+        <v>3.41</v>
       </c>
       <c r="E4">
-        <v>2.966</v>
+        <v>3.034</v>
       </c>
       <c r="F4">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="G4">
-        <v>2.441</v>
+        <v>2.487</v>
       </c>
       <c r="H4">
-        <v>2.353</v>
+        <v>2.381</v>
       </c>
       <c r="I4">
-        <v>2.424</v>
+        <v>2.426</v>
       </c>
       <c r="J4">
-        <v>2.619</v>
+        <v>2.608</v>
       </c>
       <c r="K4">
-        <v>2.631</v>
+        <v>2.621</v>
       </c>
       <c r="L4">
-        <v>2.582</v>
+        <v>2.563</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2312,37 +2300,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.031</v>
+        <v>0.115</v>
       </c>
       <c r="C5">
-        <v>0.026</v>
+        <v>0.06</v>
       </c>
       <c r="D5">
-        <v>0.73</v>
+        <v>0.656</v>
       </c>
       <c r="E5">
-        <v>1.145</v>
+        <v>1.164</v>
       </c>
       <c r="F5">
-        <v>1.114</v>
+        <v>1.075</v>
       </c>
       <c r="G5">
-        <v>1.321</v>
+        <v>1.357</v>
       </c>
       <c r="H5">
-        <v>1.325</v>
+        <v>1.367</v>
       </c>
       <c r="I5">
-        <v>1.51</v>
+        <v>1.566</v>
       </c>
       <c r="J5">
-        <v>1.662</v>
+        <v>1.744</v>
       </c>
       <c r="K5">
-        <v>1.601</v>
+        <v>1.686</v>
       </c>
       <c r="L5">
-        <v>1.602</v>
+        <v>1.716</v>
       </c>
     </row>
   </sheetData>
@@ -2401,22 +2389,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>5.207</v>
+        <v>5.266</v>
       </c>
       <c r="E2">
-        <v>5.302</v>
+        <v>5.316</v>
       </c>
       <c r="F2">
-        <v>5.243</v>
+        <v>5.281</v>
       </c>
       <c r="G2">
-        <v>5.359</v>
+        <v>5.33</v>
       </c>
       <c r="H2">
-        <v>5.459</v>
+        <v>5.412</v>
       </c>
       <c r="I2">
-        <v>5.615</v>
+        <v>5.556</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2424,22 +2412,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>5.728</v>
+        <v>5.653</v>
       </c>
       <c r="E3">
-        <v>5.511</v>
+        <v>5.501</v>
       </c>
       <c r="F3">
-        <v>5.483</v>
+        <v>5.436</v>
       </c>
       <c r="G3">
-        <v>5.373</v>
+        <v>5.445</v>
       </c>
       <c r="H3">
-        <v>5.412</v>
+        <v>5.417</v>
       </c>
       <c r="I3">
-        <v>5.494</v>
+        <v>5.614</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2447,22 +2435,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5.947</v>
+        <v>5.997</v>
       </c>
       <c r="E4">
-        <v>6.01</v>
+        <v>5.95</v>
       </c>
       <c r="F4">
-        <v>6.036</v>
+        <v>5.976</v>
       </c>
       <c r="G4">
-        <v>6.03</v>
+        <v>5.995</v>
       </c>
       <c r="H4">
-        <v>5.99</v>
+        <v>5.968</v>
       </c>
       <c r="I4">
-        <v>6.107</v>
+        <v>6.074</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2470,22 +2458,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>6.789</v>
+        <v>6.723</v>
       </c>
       <c r="E5">
-        <v>7.24</v>
+        <v>6.98</v>
       </c>
       <c r="F5">
-        <v>6.944</v>
+        <v>6.807</v>
       </c>
       <c r="G5">
-        <v>6.654</v>
+        <v>6.665</v>
       </c>
       <c r="H5">
-        <v>6.215</v>
+        <v>6.224</v>
       </c>
       <c r="I5">
-        <v>6.163</v>
+        <v>6.152</v>
       </c>
     </row>
   </sheetData>
@@ -2544,19 +2532,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>11.363</v>
+        <v>11.442</v>
       </c>
       <c r="E2">
-        <v>9.826000000000001</v>
+        <v>9.978999999999999</v>
       </c>
       <c r="F2">
-        <v>10.224</v>
+        <v>10.462</v>
       </c>
       <c r="G2">
-        <v>10.634</v>
+        <v>10.861</v>
       </c>
       <c r="I2">
-        <v>10.962</v>
+        <v>11.142</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2564,19 +2552,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>11.45</v>
+        <v>11.505</v>
       </c>
       <c r="E3">
-        <v>10.32</v>
+        <v>10.345</v>
       </c>
       <c r="F3">
-        <v>10.31</v>
+        <v>10.205</v>
       </c>
       <c r="G3">
-        <v>10.66</v>
+        <v>10.52</v>
       </c>
       <c r="I3">
-        <v>10.949</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2584,19 +2572,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>12.945</v>
+        <v>12.74</v>
       </c>
       <c r="E4">
-        <v>11.645</v>
+        <v>11.32</v>
       </c>
       <c r="F4">
-        <v>11.394</v>
+        <v>11.005</v>
       </c>
       <c r="G4">
-        <v>11.79</v>
+        <v>11.375</v>
       </c>
       <c r="I4">
-        <v>11.854</v>
+        <v>11.573</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2604,19 +2592,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>13.735</v>
+        <v>13.575</v>
       </c>
       <c r="E5">
-        <v>12.72</v>
+        <v>12.275</v>
       </c>
       <c r="F5">
-        <v>12.355</v>
+        <v>11.91</v>
       </c>
       <c r="G5">
-        <v>12.16</v>
+        <v>11.685</v>
       </c>
       <c r="I5">
-        <v>12.335</v>
+        <v>11.91</v>
       </c>
     </row>
   </sheetData>
@@ -2675,25 +2663,19 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>3.017</v>
+        <v>3.003</v>
       </c>
       <c r="F2">
-        <v>2.932</v>
-      </c>
-      <c r="G2">
-        <v>3.009</v>
+        <v>2.921</v>
       </c>
       <c r="H2">
-        <v>3.118</v>
+        <v>3.138</v>
       </c>
       <c r="I2">
-        <v>3.271</v>
+        <v>3.319</v>
       </c>
       <c r="J2">
-        <v>3.638</v>
-      </c>
-      <c r="L2">
-        <v>3.692</v>
+        <v>3.693</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2701,25 +2683,19 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>2.971</v>
+        <v>3.004</v>
       </c>
       <c r="F3">
-        <v>2.943</v>
-      </c>
-      <c r="G3">
-        <v>2.94</v>
+        <v>2.964</v>
       </c>
       <c r="H3">
-        <v>3.044</v>
+        <v>3.145</v>
       </c>
       <c r="I3">
-        <v>3.202</v>
+        <v>3.32</v>
       </c>
       <c r="J3">
-        <v>3.557</v>
-      </c>
-      <c r="L3">
-        <v>3.575</v>
+        <v>3.684</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2727,25 +2703,19 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>2.833</v>
+        <v>2.793</v>
       </c>
       <c r="F4">
-        <v>2.811</v>
-      </c>
-      <c r="G4">
-        <v>2.831</v>
+        <v>2.69</v>
       </c>
       <c r="H4">
-        <v>2.964</v>
+        <v>2.816</v>
       </c>
       <c r="I4">
-        <v>3.226</v>
+        <v>3.078</v>
       </c>
       <c r="J4">
-        <v>3.639</v>
-      </c>
-      <c r="L4">
-        <v>3.712</v>
+        <v>3.527</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2753,25 +2723,19 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>1.065</v>
+        <v>1.074</v>
       </c>
       <c r="F5">
-        <v>1.477</v>
-      </c>
-      <c r="G5">
-        <v>1.903</v>
+        <v>1.464</v>
       </c>
       <c r="H5">
-        <v>2.079</v>
+        <v>2.133</v>
       </c>
       <c r="I5">
-        <v>2.612</v>
+        <v>2.682</v>
       </c>
       <c r="J5">
-        <v>2.804</v>
-      </c>
-      <c r="L5">
-        <v>2.965</v>
+        <v>2.892</v>
       </c>
     </row>
   </sheetData>
@@ -2830,37 +2794,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.652</v>
-      </c>
-      <c r="C2">
-        <v>5.75</v>
+        <v>5.628</v>
       </c>
       <c r="D2">
-        <v>5.247</v>
+        <v>5.2755</v>
       </c>
       <c r="E2">
-        <v>5.2985</v>
+        <v>5.29</v>
       </c>
       <c r="F2">
-        <v>4.948</v>
+        <v>4.9555</v>
       </c>
       <c r="G2">
-        <v>4.809</v>
+        <v>4.815</v>
       </c>
       <c r="H2">
-        <v>4.415</v>
+        <v>4.468</v>
       </c>
       <c r="I2">
-        <v>4.4685</v>
+        <v>4.534</v>
       </c>
       <c r="J2">
-        <v>4.7045</v>
+        <v>4.78</v>
       </c>
       <c r="K2">
-        <v>4.72</v>
+        <v>4.835</v>
       </c>
       <c r="L2">
-        <v>4.706</v>
+        <v>4.835</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2868,37 +2829,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.362</v>
-      </c>
-      <c r="C3">
-        <v>5.574</v>
+        <v>5.384</v>
       </c>
       <c r="D3">
-        <v>5.069</v>
+        <v>5.2005</v>
       </c>
       <c r="E3">
-        <v>4.938</v>
+        <v>5.0675</v>
       </c>
       <c r="F3">
-        <v>4.694</v>
+        <v>4.776</v>
       </c>
       <c r="G3">
-        <v>4.455</v>
+        <v>4.5755</v>
       </c>
       <c r="H3">
-        <v>4.379</v>
+        <v>4.507</v>
       </c>
       <c r="I3">
-        <v>4.459</v>
+        <v>4.528</v>
       </c>
       <c r="J3">
-        <v>4.682</v>
+        <v>4.79</v>
       </c>
       <c r="K3">
-        <v>4.691</v>
+        <v>4.815</v>
       </c>
       <c r="L3">
-        <v>4.654</v>
+        <v>4.786</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2906,37 +2864,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.67</v>
-      </c>
-      <c r="C4">
-        <v>5.27</v>
+        <v>5.225</v>
       </c>
       <c r="D4">
-        <v>5.152</v>
+        <v>5.355</v>
       </c>
       <c r="E4">
-        <v>5.043</v>
+        <v>5.253</v>
       </c>
       <c r="F4">
-        <v>4.907</v>
+        <v>5.051</v>
       </c>
       <c r="G4">
-        <v>4.593</v>
+        <v>4.664</v>
       </c>
       <c r="H4">
-        <v>4.424</v>
+        <v>4.405</v>
       </c>
       <c r="I4">
-        <v>4.406</v>
+        <v>4.374</v>
       </c>
       <c r="J4">
-        <v>4.575</v>
+        <v>4.505</v>
       </c>
       <c r="K4">
-        <v>4.566</v>
+        <v>4.465</v>
       </c>
       <c r="L4">
-        <v>4.51</v>
+        <v>4.372</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2944,37 +2899,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.05</v>
-      </c>
-      <c r="C5">
-        <v>2.809</v>
+        <v>2.425</v>
       </c>
       <c r="D5">
-        <v>2.661</v>
+        <v>3.009</v>
       </c>
       <c r="E5">
-        <v>2.895</v>
+        <v>3.203</v>
       </c>
       <c r="F5">
-        <v>2.726</v>
+        <v>2.976</v>
       </c>
       <c r="G5">
-        <v>2.667</v>
+        <v>2.911</v>
       </c>
       <c r="H5">
-        <v>2.669</v>
+        <v>2.903</v>
       </c>
       <c r="I5">
-        <v>2.705</v>
+        <v>2.94</v>
       </c>
       <c r="J5">
-        <v>3.082</v>
+        <v>3.295</v>
       </c>
       <c r="K5">
-        <v>3.095</v>
+        <v>3.301</v>
       </c>
       <c r="L5">
-        <v>2.981</v>
+        <v>3.203</v>
       </c>
     </row>
   </sheetData>
@@ -3033,37 +2985,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.301</v>
+        <v>-0.167</v>
       </c>
       <c r="C2">
         <v>-0.147</v>
       </c>
       <c r="D2">
-        <v>-0.08</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="E2">
-        <v>0.027</v>
+        <v>0.016</v>
       </c>
       <c r="F2">
-        <v>0.073</v>
+        <v>0.06</v>
       </c>
       <c r="G2">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="H2">
-        <v>0.398</v>
+        <v>0.408</v>
       </c>
       <c r="I2">
-        <v>0.642</v>
+        <v>0.649</v>
       </c>
       <c r="J2">
-        <v>1.065</v>
+        <v>1.058</v>
       </c>
       <c r="K2">
-        <v>1.352</v>
+        <v>1.351</v>
       </c>
       <c r="L2">
-        <v>1.592</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3071,37 +3023,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-0.101</v>
+        <v>-0.109</v>
       </c>
       <c r="C3">
-        <v>-0.177</v>
+        <v>-0.171</v>
       </c>
       <c r="D3">
-        <v>-0.08500000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="E3">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="F3">
-        <v>0.031</v>
+        <v>0.04</v>
       </c>
       <c r="G3">
-        <v>0.19</v>
+        <v>0.196</v>
       </c>
       <c r="H3">
-        <v>0.398</v>
+        <v>0.405</v>
       </c>
       <c r="I3">
-        <v>0.627</v>
+        <v>0.613</v>
       </c>
       <c r="J3">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="K3">
-        <v>1.287</v>
+        <v>1.294</v>
       </c>
       <c r="L3">
-        <v>1.567</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3109,37 +3061,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.182</v>
+        <v>-0.171</v>
       </c>
       <c r="C4">
-        <v>-0.162</v>
+        <v>-0.169</v>
       </c>
       <c r="D4">
-        <v>-0.14</v>
+        <v>-0.153</v>
       </c>
       <c r="E4">
-        <v>-0.058</v>
+        <v>-0.073</v>
       </c>
       <c r="F4">
-        <v>-0.049</v>
+        <v>-0.057</v>
       </c>
       <c r="G4">
-        <v>0.077</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H4">
-        <v>0.211</v>
+        <v>0.196</v>
       </c>
       <c r="I4">
-        <v>0.415</v>
+        <v>0.421</v>
       </c>
       <c r="J4">
-        <v>0.789</v>
+        <v>0.784</v>
       </c>
       <c r="K4">
-        <v>1.012</v>
+        <v>1.007</v>
       </c>
       <c r="L4">
-        <v>1.253</v>
+        <v>1.241</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3147,37 +3099,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.112</v>
+        <v>-0.108</v>
       </c>
       <c r="C5">
-        <v>-0.202</v>
+        <v>-0.205</v>
       </c>
       <c r="D5">
-        <v>-0.139</v>
+        <v>-0.142</v>
       </c>
       <c r="E5">
-        <v>-0.09</v>
+        <v>-0.082</v>
       </c>
       <c r="F5">
-        <v>-0.08</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="H5">
-        <v>0.146</v>
+        <v>0.138</v>
       </c>
       <c r="I5">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="J5">
-        <v>0.616</v>
+        <v>0.619</v>
       </c>
       <c r="K5">
-        <v>0.871</v>
+        <v>0.892</v>
       </c>
       <c r="L5">
-        <v>1.2</v>
+        <v>1.241</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -7,29 +7,30 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Canada" sheetId="1" r:id="rId1"/>
-    <sheet name="India" sheetId="2" r:id="rId2"/>
-    <sheet name="France" sheetId="3" r:id="rId3"/>
-    <sheet name="Germany" sheetId="4" r:id="rId4"/>
-    <sheet name="Poland" sheetId="5" r:id="rId5"/>
-    <sheet name="Brazil" sheetId="6" r:id="rId6"/>
-    <sheet name="Portugal" sheetId="7" r:id="rId7"/>
-    <sheet name="UK" sheetId="8" r:id="rId8"/>
+    <sheet name="Australia" sheetId="1" r:id="rId1"/>
+    <sheet name="Brazil" sheetId="2" r:id="rId2"/>
+    <sheet name="Canada" sheetId="3" r:id="rId3"/>
+    <sheet name="China" sheetId="4" r:id="rId4"/>
+    <sheet name="France" sheetId="5" r:id="rId5"/>
+    <sheet name="Germany" sheetId="6" r:id="rId6"/>
+    <sheet name="India" sheetId="7" r:id="rId7"/>
+    <sheet name="Italy" sheetId="8" r:id="rId8"/>
     <sheet name="Japan" sheetId="9" r:id="rId9"/>
-    <sheet name="Russia" sheetId="10" r:id="rId10"/>
-    <sheet name="Australia" sheetId="11" r:id="rId11"/>
-    <sheet name="Italy" sheetId="12" r:id="rId12"/>
-    <sheet name="Switzerland" sheetId="13" r:id="rId13"/>
-    <sheet name="China" sheetId="14" r:id="rId14"/>
-    <sheet name="South Africa" sheetId="15" r:id="rId15"/>
-    <sheet name="Turkey" sheetId="16" r:id="rId16"/>
+    <sheet name="Poland" sheetId="10" r:id="rId10"/>
+    <sheet name="Portugal" sheetId="11" r:id="rId11"/>
+    <sheet name="Russia" sheetId="12" r:id="rId12"/>
+    <sheet name="South Africa" sheetId="13" r:id="rId13"/>
+    <sheet name="Switzerland" sheetId="14" r:id="rId14"/>
+    <sheet name="Turkey" sheetId="15" r:id="rId15"/>
+    <sheet name="UK" sheetId="16" r:id="rId16"/>
+    <sheet name="US" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="16">
   <si>
     <t>Period</t>
   </si>
@@ -482,140 +483,104 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>5.1</v>
-      </c>
-      <c r="C2">
-        <v>5.13</v>
-      </c>
       <c r="D2">
-        <v>5.14</v>
+        <v>4.058</v>
       </c>
       <c r="E2">
-        <v>4.552</v>
+        <v>3.87</v>
       </c>
       <c r="F2">
-        <v>4.322</v>
+        <v>3.841</v>
       </c>
       <c r="G2">
-        <v>3.846</v>
+        <v>3.884</v>
       </c>
       <c r="H2">
-        <v>3.682</v>
+        <v>4.043</v>
       </c>
       <c r="I2">
-        <v>3.569</v>
-      </c>
-      <c r="K2">
-        <v>3.556</v>
-      </c>
-      <c r="L2">
-        <v>3.422</v>
+        <v>4.152</v>
+      </c>
+      <c r="J2">
+        <v>4.394</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>5.05</v>
-      </c>
-      <c r="C3">
-        <v>5.19</v>
-      </c>
       <c r="D3">
-        <v>5.26</v>
+        <v>4.081</v>
       </c>
       <c r="E3">
-        <v>4.674</v>
+        <v>3.93</v>
       </c>
       <c r="F3">
-        <v>4.41</v>
+        <v>3.871</v>
       </c>
       <c r="G3">
-        <v>3.908</v>
+        <v>3.916</v>
       </c>
       <c r="H3">
-        <v>3.661</v>
+        <v>4.064</v>
       </c>
       <c r="I3">
-        <v>3.502</v>
-      </c>
-      <c r="K3">
-        <v>3.463</v>
-      </c>
-      <c r="L3">
-        <v>3.31</v>
+        <v>4.171</v>
+      </c>
+      <c r="J3">
+        <v>4.421</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>4.59</v>
-      </c>
-      <c r="C4">
-        <v>4.7</v>
-      </c>
       <c r="D4">
-        <v>4.75</v>
+        <v>4.29</v>
       </c>
       <c r="E4">
-        <v>4.188</v>
+        <v>4.108</v>
       </c>
       <c r="F4">
-        <v>3.831</v>
+        <v>3.944</v>
       </c>
       <c r="G4">
-        <v>3.472</v>
+        <v>3.881</v>
       </c>
       <c r="H4">
-        <v>3.315</v>
+        <v>3.93</v>
       </c>
       <c r="I4">
-        <v>3.278</v>
-      </c>
-      <c r="K4">
-        <v>3.372</v>
-      </c>
-      <c r="L4">
-        <v>3.282</v>
+        <v>3.979</v>
+      </c>
+      <c r="J4">
+        <v>4.121</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>3.33</v>
-      </c>
-      <c r="C5">
-        <v>3.56</v>
-      </c>
       <c r="D5">
-        <v>3.78</v>
+        <v>2.905</v>
       </c>
       <c r="E5">
-        <v>3.618</v>
+        <v>3.214</v>
       </c>
       <c r="F5">
-        <v>3.573</v>
+        <v>3.362</v>
       </c>
       <c r="G5">
-        <v>3.299</v>
+        <v>3.47</v>
       </c>
       <c r="H5">
-        <v>3.213</v>
+        <v>3.621</v>
       </c>
       <c r="I5">
-        <v>3.199</v>
-      </c>
-      <c r="K5">
-        <v>3.238</v>
-      </c>
-      <c r="L5">
-        <v>3.162</v>
+        <v>3.755</v>
+      </c>
+      <c r="J5">
+        <v>3.955</v>
       </c>
     </row>
   </sheetData>
@@ -674,22 +639,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>13.955</v>
+        <v>5.01</v>
       </c>
       <c r="E2">
-        <v>11.44</v>
+        <v>5.023</v>
       </c>
       <c r="F2">
-        <v>12.665</v>
+        <v>5.134</v>
       </c>
       <c r="G2">
-        <v>11.405</v>
+        <v>5.267</v>
+      </c>
+      <c r="H2">
+        <v>5.458</v>
       </c>
       <c r="I2">
-        <v>12.115</v>
-      </c>
-      <c r="J2">
-        <v>11.505</v>
+        <v>5.642</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -697,22 +662,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>11.2</v>
+        <v>5.63</v>
       </c>
       <c r="E3">
-        <v>9.640000000000001</v>
+        <v>5.425</v>
       </c>
       <c r="F3">
-        <v>10.92</v>
+        <v>5.331</v>
       </c>
       <c r="G3">
-        <v>10.31</v>
+        <v>5.368</v>
+      </c>
+      <c r="H3">
+        <v>5.363</v>
       </c>
       <c r="I3">
-        <v>11.55</v>
-      </c>
-      <c r="J3">
-        <v>11.76</v>
+        <v>5.584</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -720,22 +685,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>8.57</v>
+        <v>6.062</v>
       </c>
       <c r="E4">
-        <v>9.42</v>
+        <v>5.958</v>
       </c>
       <c r="F4">
-        <v>9.08</v>
+        <v>5.865</v>
       </c>
       <c r="G4">
-        <v>10.07</v>
+        <v>5.815</v>
+      </c>
+      <c r="H4">
+        <v>5.869</v>
       </c>
       <c r="I4">
-        <v>10.72</v>
-      </c>
-      <c r="J4">
-        <v>11.13</v>
+        <v>5.966</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -743,22 +708,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>8.17</v>
+        <v>6.678</v>
       </c>
       <c r="E5">
-        <v>9.279999999999999</v>
+        <v>6.742</v>
       </c>
       <c r="F5">
-        <v>8.140000000000001</v>
+        <v>6.73</v>
       </c>
       <c r="G5">
-        <v>8.869999999999999</v>
+        <v>6.567</v>
+      </c>
+      <c r="H5">
+        <v>6.188</v>
       </c>
       <c r="I5">
-        <v>9.34</v>
-      </c>
-      <c r="J5">
-        <v>9.07</v>
+        <v>6.117</v>
       </c>
     </row>
   </sheetData>
@@ -816,104 +781,92 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>4.028</v>
-      </c>
-      <c r="E2">
-        <v>3.844</v>
-      </c>
       <c r="F2">
-        <v>3.809</v>
+        <v>2.943</v>
       </c>
       <c r="G2">
-        <v>3.862</v>
+        <v>3.037</v>
       </c>
       <c r="H2">
-        <v>4.02</v>
+        <v>3.168</v>
       </c>
       <c r="I2">
-        <v>4.134</v>
+        <v>3.347</v>
       </c>
       <c r="J2">
-        <v>4.389</v>
+        <v>3.73</v>
+      </c>
+      <c r="L2">
+        <v>3.774</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>4.022</v>
-      </c>
-      <c r="E3">
-        <v>3.83</v>
-      </c>
       <c r="F3">
-        <v>3.773</v>
+        <v>2.911</v>
       </c>
       <c r="G3">
-        <v>3.801</v>
+        <v>3.01</v>
       </c>
       <c r="H3">
-        <v>3.934</v>
+        <v>3.155</v>
       </c>
       <c r="I3">
-        <v>4.032</v>
+        <v>3.321</v>
       </c>
       <c r="J3">
-        <v>4.283</v>
+        <v>3.686</v>
+      </c>
+      <c r="L3">
+        <v>3.728</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>4.355</v>
-      </c>
-      <c r="E4">
-        <v>4.185</v>
-      </c>
       <c r="F4">
-        <v>4.012</v>
+        <v>2.668</v>
       </c>
       <c r="G4">
-        <v>3.934</v>
+        <v>2.636</v>
       </c>
       <c r="H4">
-        <v>3.95</v>
+        <v>2.73</v>
       </c>
       <c r="I4">
-        <v>3.995</v>
+        <v>3.004</v>
       </c>
       <c r="J4">
-        <v>4.149</v>
+        <v>3.444</v>
+      </c>
+      <c r="L4">
+        <v>3.461</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>2.793</v>
-      </c>
-      <c r="E5">
-        <v>3.145</v>
-      </c>
       <c r="F5">
-        <v>3.302</v>
+        <v>1.435</v>
       </c>
       <c r="G5">
-        <v>3.395</v>
+        <v>1.908</v>
       </c>
       <c r="H5">
-        <v>3.525</v>
+        <v>2.104</v>
       </c>
       <c r="I5">
-        <v>3.651</v>
+        <v>2.651</v>
       </c>
       <c r="J5">
-        <v>3.863</v>
+        <v>2.857</v>
+      </c>
+      <c r="L5">
+        <v>3.019</v>
       </c>
     </row>
   </sheetData>
@@ -971,116 +924,92 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>3.451</v>
-      </c>
-      <c r="C2">
-        <v>3.674</v>
-      </c>
       <c r="D2">
-        <v>3.836</v>
+        <v>15.005</v>
       </c>
       <c r="E2">
-        <v>3.714</v>
+        <v>12.32</v>
       </c>
       <c r="F2">
-        <v>3.649</v>
-      </c>
-      <c r="H2">
-        <v>4.042</v>
+        <v>13.59</v>
+      </c>
+      <c r="G2">
+        <v>12.125</v>
       </c>
       <c r="I2">
-        <v>4.311</v>
+        <v>12.53</v>
       </c>
       <c r="J2">
-        <v>4.542</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>3.471</v>
-      </c>
-      <c r="C3">
-        <v>3.483</v>
-      </c>
       <c r="D3">
-        <v>3.805</v>
+        <v>11.36</v>
       </c>
       <c r="E3">
-        <v>3.709</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="F3">
-        <v>3.601</v>
-      </c>
-      <c r="H3">
-        <v>3.962</v>
+        <v>11.11</v>
+      </c>
+      <c r="G3">
+        <v>10.33</v>
       </c>
       <c r="I3">
-        <v>4.249</v>
+        <v>11.6</v>
       </c>
       <c r="J3">
-        <v>4.482</v>
+        <v>11.82</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>3.204</v>
-      </c>
-      <c r="C4">
-        <v>3.414</v>
-      </c>
       <c r="D4">
-        <v>3.583</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="E4">
-        <v>3.496</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="F4">
-        <v>3.608</v>
-      </c>
-      <c r="H4">
-        <v>4.068</v>
+        <v>9.140000000000001</v>
+      </c>
+      <c r="G4">
+        <v>10.09</v>
       </c>
       <c r="I4">
-        <v>4.278</v>
+        <v>10.76</v>
       </c>
       <c r="J4">
-        <v>4.571</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>0.442</v>
-      </c>
-      <c r="C5">
-        <v>1.179</v>
-      </c>
       <c r="D5">
-        <v>1.61</v>
+        <v>8.24</v>
       </c>
       <c r="E5">
-        <v>2.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F5">
-        <v>2.561</v>
-      </c>
-      <c r="H5">
-        <v>3.404</v>
+        <v>8.09</v>
+      </c>
+      <c r="G5">
+        <v>8.890000000000001</v>
       </c>
       <c r="I5">
-        <v>3.94</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="J5">
-        <v>3.984</v>
+        <v>9.08</v>
       </c>
     </row>
   </sheetData>
@@ -1139,37 +1068,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1.76</v>
-      </c>
-      <c r="C2">
-        <v>1.72</v>
-      </c>
-      <c r="D2">
-        <v>1.84</v>
-      </c>
-      <c r="E2">
-        <v>1.07</v>
-      </c>
-      <c r="F2">
-        <v>1.043</v>
+        <v>8.5</v>
       </c>
       <c r="G2">
-        <v>0.9379999999999999</v>
-      </c>
-      <c r="H2">
-        <v>0.92</v>
+        <v>9.07</v>
       </c>
       <c r="I2">
-        <v>0.931</v>
-      </c>
-      <c r="J2">
-        <v>0.965</v>
+        <v>10.4</v>
       </c>
       <c r="K2">
-        <v>0.9419999999999999</v>
+        <v>12.54</v>
       </c>
       <c r="L2">
-        <v>0.9419999999999999</v>
+        <v>12.545</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1177,37 +1088,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.67</v>
-      </c>
-      <c r="C3">
-        <v>1.76</v>
-      </c>
-      <c r="D3">
-        <v>1.94</v>
-      </c>
-      <c r="E3">
-        <v>1.117</v>
-      </c>
-      <c r="F3">
-        <v>1.064</v>
+        <v>8.9</v>
       </c>
       <c r="G3">
-        <v>1.015</v>
-      </c>
-      <c r="H3">
-        <v>1.018</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="I3">
-        <v>1.046</v>
-      </c>
-      <c r="J3">
-        <v>1.08</v>
+        <v>10.26</v>
       </c>
       <c r="K3">
-        <v>1.067</v>
+        <v>12.22</v>
       </c>
       <c r="L3">
-        <v>1.053</v>
+        <v>12.195</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1215,37 +1108,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.15</v>
-      </c>
-      <c r="C4">
-        <v>1.59</v>
-      </c>
-      <c r="D4">
-        <v>1.8</v>
-      </c>
-      <c r="E4">
-        <v>1.112</v>
-      </c>
-      <c r="F4">
-        <v>1.163</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G4">
-        <v>1.057</v>
-      </c>
-      <c r="H4">
-        <v>0.973</v>
+        <v>9.925000000000001</v>
       </c>
       <c r="I4">
-        <v>1.138</v>
-      </c>
-      <c r="J4">
-        <v>1.226</v>
+        <v>11.315</v>
       </c>
       <c r="K4">
-        <v>1.24</v>
+        <v>12.785</v>
       </c>
       <c r="L4">
-        <v>1.145</v>
+        <v>12.755</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1253,37 +1128,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.05</v>
-      </c>
-      <c r="C5">
-        <v>0.48</v>
-      </c>
-      <c r="D5">
-        <v>0.97</v>
-      </c>
-      <c r="E5">
-        <v>0.676</v>
-      </c>
-      <c r="F5">
-        <v>0.597</v>
+        <v>6.25</v>
       </c>
       <c r="G5">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.714</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="I5">
-        <v>0.922</v>
-      </c>
-      <c r="J5">
-        <v>0.989</v>
+        <v>10.375</v>
       </c>
       <c r="K5">
-        <v>1.031</v>
+        <v>11.33</v>
       </c>
       <c r="L5">
-        <v>1.067</v>
+        <v>11.235</v>
       </c>
     </row>
   </sheetData>
@@ -1341,128 +1198,128 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>1.68</v>
+      </c>
+      <c r="C2">
+        <v>1.82</v>
+      </c>
       <c r="D2">
-        <v>1.975</v>
+        <v>1.87</v>
       </c>
       <c r="E2">
-        <v>2.157</v>
+        <v>1.092</v>
       </c>
       <c r="F2">
-        <v>2.263</v>
+        <v>1.065</v>
       </c>
       <c r="G2">
-        <v>2.448</v>
-      </c>
-      <c r="H2">
-        <v>2.621</v>
-      </c>
-      <c r="I2">
-        <v>2.659</v>
+        <v>0.971</v>
       </c>
       <c r="J2">
-        <v>2.777</v>
+        <v>1.008</v>
       </c>
       <c r="K2">
-        <v>2.996</v>
+        <v>0.982</v>
       </c>
       <c r="L2">
-        <v>2.981</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>1.67</v>
+      </c>
+      <c r="C3">
+        <v>1.75</v>
+      </c>
       <c r="D3">
-        <v>1.805</v>
+        <v>1.96</v>
       </c>
       <c r="E3">
-        <v>2.115</v>
+        <v>1.11</v>
       </c>
       <c r="F3">
-        <v>2.238</v>
+        <v>1.086</v>
       </c>
       <c r="G3">
-        <v>2.445</v>
-      </c>
-      <c r="H3">
-        <v>2.62</v>
-      </c>
-      <c r="I3">
-        <v>2.653</v>
+        <v>1.016</v>
       </c>
       <c r="J3">
-        <v>2.814</v>
+        <v>1.085</v>
       </c>
       <c r="K3">
-        <v>3.015</v>
+        <v>1.069</v>
       </c>
       <c r="L3">
-        <v>3.003</v>
+        <v>1.028</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>1.47</v>
+      </c>
+      <c r="C4">
+        <v>1.6</v>
+      </c>
       <c r="D4">
-        <v>1.968</v>
+        <v>1.77</v>
       </c>
       <c r="E4">
-        <v>2.166</v>
+        <v>1.151</v>
       </c>
       <c r="F4">
-        <v>2.285</v>
+        <v>0.998</v>
       </c>
       <c r="G4">
-        <v>2.455</v>
-      </c>
-      <c r="H4">
-        <v>2.673</v>
-      </c>
-      <c r="I4">
-        <v>2.723</v>
+        <v>0.866</v>
       </c>
       <c r="J4">
-        <v>2.832</v>
+        <v>1.006</v>
       </c>
       <c r="K4">
-        <v>3.161</v>
+        <v>1.069</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>0.34</v>
+      </c>
+      <c r="C5">
+        <v>0.8</v>
+      </c>
       <c r="D5">
-        <v>1.692</v>
+        <v>1.1</v>
       </c>
       <c r="E5">
-        <v>2.013</v>
+        <v>0.663</v>
       </c>
       <c r="F5">
-        <v>2.143</v>
+        <v>0.585</v>
       </c>
       <c r="G5">
-        <v>2.382</v>
-      </c>
-      <c r="H5">
-        <v>2.61</v>
-      </c>
-      <c r="I5">
-        <v>2.634</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="J5">
-        <v>2.88</v>
+        <v>1.03</v>
       </c>
       <c r="K5">
-        <v>3.25</v>
+        <v>1.044</v>
       </c>
       <c r="L5">
-        <v>3.097</v>
+        <v>1.106</v>
       </c>
     </row>
   </sheetData>
@@ -1521,19 +1378,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8.800000000000001</v>
+        <v>21.087</v>
+      </c>
+      <c r="C2">
+        <v>21.376</v>
+      </c>
+      <c r="D2">
+        <v>7.77</v>
+      </c>
+      <c r="E2">
+        <v>18.58</v>
+      </c>
+      <c r="F2">
+        <v>23.96</v>
       </c>
       <c r="G2">
-        <v>9.06</v>
+        <v>18.69</v>
       </c>
       <c r="I2">
-        <v>10.395</v>
-      </c>
-      <c r="K2">
-        <v>12.58</v>
-      </c>
-      <c r="L2">
-        <v>12.59</v>
+        <v>19.115</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1541,19 +1404,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>8.85</v>
+        <v>17.804</v>
+      </c>
+      <c r="C3">
+        <v>20.025</v>
+      </c>
+      <c r="D3">
+        <v>7.77</v>
+      </c>
+      <c r="E3">
+        <v>20.82</v>
+      </c>
+      <c r="F3">
+        <v>22.05</v>
       </c>
       <c r="G3">
-        <v>9.08</v>
+        <v>17.85</v>
       </c>
       <c r="I3">
-        <v>10.37</v>
-      </c>
-      <c r="K3">
-        <v>12.3</v>
-      </c>
-      <c r="L3">
-        <v>12.295</v>
+        <v>19.08</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1561,19 +1430,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>9.15</v>
+        <v>14.621</v>
+      </c>
+      <c r="C4">
+        <v>15.612</v>
+      </c>
+      <c r="D4">
+        <v>7.77</v>
+      </c>
+      <c r="E4">
+        <v>16.84</v>
+      </c>
+      <c r="F4">
+        <v>16.88</v>
       </c>
       <c r="G4">
-        <v>9.705</v>
+        <v>20</v>
       </c>
       <c r="I4">
-        <v>11.115</v>
-      </c>
-      <c r="K4">
-        <v>12.675</v>
-      </c>
-      <c r="L4">
-        <v>12.645</v>
+        <v>18.27</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1581,19 +1456,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.5</v>
+        <v>14.462</v>
+      </c>
+      <c r="C5">
+        <v>14.037</v>
+      </c>
+      <c r="D5">
+        <v>14.25</v>
+      </c>
+      <c r="E5">
+        <v>13.13</v>
       </c>
       <c r="G5">
-        <v>8.890000000000001</v>
+        <v>10.63</v>
       </c>
       <c r="I5">
-        <v>10.33</v>
-      </c>
-      <c r="K5">
-        <v>11.26</v>
-      </c>
-      <c r="L5">
-        <v>11.17</v>
+        <v>11.18</v>
       </c>
     </row>
   </sheetData>
@@ -1652,25 +1530,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>24.516</v>
+        <v>5.585</v>
       </c>
       <c r="C2">
-        <v>21.759</v>
+        <v>5.618</v>
       </c>
       <c r="D2">
-        <v>7.77</v>
+        <v>5.138</v>
       </c>
       <c r="E2">
-        <v>22.14</v>
+        <v>5.206</v>
       </c>
       <c r="F2">
-        <v>20.58</v>
+        <v>4.905</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>4.7755</v>
+      </c>
+      <c r="H2">
+        <v>4.436</v>
       </c>
       <c r="I2">
-        <v>19.115</v>
+        <v>4.5125</v>
+      </c>
+      <c r="J2">
+        <v>4.7475</v>
+      </c>
+      <c r="K2">
+        <v>4.791</v>
+      </c>
+      <c r="L2">
+        <v>4.778</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1678,25 +1568,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>17.804</v>
+        <v>5.483</v>
       </c>
       <c r="C3">
-        <v>20.025</v>
+        <v>5.724</v>
       </c>
       <c r="D3">
-        <v>7.77</v>
+        <v>5.21</v>
       </c>
       <c r="E3">
-        <v>20.82</v>
+        <v>5.121</v>
       </c>
       <c r="F3">
-        <v>22.05</v>
+        <v>4.846</v>
       </c>
       <c r="G3">
-        <v>17.85</v>
+        <v>4.597</v>
+      </c>
+      <c r="H3">
+        <v>4.529</v>
       </c>
       <c r="I3">
-        <v>19.08</v>
+        <v>4.593</v>
+      </c>
+      <c r="J3">
+        <v>4.804</v>
+      </c>
+      <c r="K3">
+        <v>4.826</v>
+      </c>
+      <c r="L3">
+        <v>4.777</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1704,25 +1606,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>14.621</v>
+        <v>5.225</v>
       </c>
       <c r="C4">
-        <v>15.612</v>
+        <v>5.581</v>
       </c>
       <c r="D4">
-        <v>7.77</v>
+        <v>5.355</v>
       </c>
       <c r="E4">
-        <v>16.84</v>
+        <v>5.253</v>
       </c>
       <c r="F4">
-        <v>16.88</v>
+        <v>5.051</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>4.664</v>
+      </c>
+      <c r="H4">
+        <v>4.405</v>
       </c>
       <c r="I4">
-        <v>18.27</v>
+        <v>4.374</v>
+      </c>
+      <c r="J4">
+        <v>4.505</v>
+      </c>
+      <c r="K4">
+        <v>4.465</v>
+      </c>
+      <c r="L4">
+        <v>4.372</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1730,22 +1644,216 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>14.75</v>
+        <v>2.417</v>
       </c>
       <c r="C5">
-        <v>14.541</v>
+        <v>2.873</v>
       </c>
       <c r="D5">
-        <v>14.3</v>
+        <v>2.716</v>
       </c>
       <c r="E5">
-        <v>14.08</v>
+        <v>3.001</v>
+      </c>
+      <c r="F5">
+        <v>2.879</v>
       </c>
       <c r="G5">
-        <v>12.74</v>
+        <v>2.908</v>
+      </c>
+      <c r="H5">
+        <v>2.993</v>
       </c>
       <c r="I5">
-        <v>12.45</v>
+        <v>3.031</v>
+      </c>
+      <c r="J5">
+        <v>3.414</v>
+      </c>
+      <c r="K5">
+        <v>3.435</v>
+      </c>
+      <c r="L5">
+        <v>3.372</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>5.518</v>
+      </c>
+      <c r="C2">
+        <v>5.568</v>
+      </c>
+      <c r="D2">
+        <v>5.463</v>
+      </c>
+      <c r="E2">
+        <v>5.006</v>
+      </c>
+      <c r="F2">
+        <v>4.72</v>
+      </c>
+      <c r="G2">
+        <v>4.417</v>
+      </c>
+      <c r="H2">
+        <v>4.377</v>
+      </c>
+      <c r="I2">
+        <v>4.285</v>
+      </c>
+      <c r="L2">
+        <v>4.364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>5.462</v>
+      </c>
+      <c r="C3">
+        <v>5.502</v>
+      </c>
+      <c r="D3">
+        <v>5.332</v>
+      </c>
+      <c r="E3">
+        <v>4.76</v>
+      </c>
+      <c r="F3">
+        <v>4.419</v>
+      </c>
+      <c r="G3">
+        <v>4.114</v>
+      </c>
+      <c r="H3">
+        <v>4.074</v>
+      </c>
+      <c r="I3">
+        <v>4.028</v>
+      </c>
+      <c r="L3">
+        <v>4.212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>5.393</v>
+      </c>
+      <c r="C4">
+        <v>5.504</v>
+      </c>
+      <c r="D4">
+        <v>5.25</v>
+      </c>
+      <c r="E4">
+        <v>4.511</v>
+      </c>
+      <c r="F4">
+        <v>4.151</v>
+      </c>
+      <c r="G4">
+        <v>3.851</v>
+      </c>
+      <c r="H4">
+        <v>3.788</v>
+      </c>
+      <c r="I4">
+        <v>3.698</v>
+      </c>
+      <c r="L4">
+        <v>3.889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>3.047</v>
+      </c>
+      <c r="C5">
+        <v>3.445</v>
+      </c>
+      <c r="D5">
+        <v>3.608</v>
+      </c>
+      <c r="E5">
+        <v>3.439</v>
+      </c>
+      <c r="F5">
+        <v>3.489</v>
+      </c>
+      <c r="G5">
+        <v>3.36</v>
+      </c>
+      <c r="H5">
+        <v>3.348</v>
+      </c>
+      <c r="I5">
+        <v>3.267</v>
+      </c>
+      <c r="L5">
+        <v>3.415</v>
       </c>
     </row>
   </sheetData>
@@ -1803,140 +1911,74 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>6.8</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
       <c r="D2">
-        <v>7.098</v>
+        <v>11.406</v>
       </c>
       <c r="E2">
-        <v>7.184</v>
+        <v>10.027</v>
       </c>
       <c r="F2">
-        <v>7.164</v>
+        <v>10.617</v>
       </c>
       <c r="G2">
-        <v>7.182</v>
-      </c>
-      <c r="H2">
-        <v>7.185</v>
+        <v>11.036</v>
       </c>
       <c r="I2">
-        <v>7.204</v>
-      </c>
-      <c r="J2">
-        <v>7.27</v>
-      </c>
-      <c r="L2">
-        <v>7.347</v>
+        <v>11.342</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>6.74</v>
-      </c>
-      <c r="C3">
-        <v>6.88</v>
-      </c>
       <c r="D3">
-        <v>6.897</v>
+        <v>11.29</v>
       </c>
       <c r="E3">
-        <v>7.076</v>
+        <v>10.155</v>
       </c>
       <c r="F3">
-        <v>7.115</v>
+        <v>10.235</v>
       </c>
       <c r="G3">
-        <v>7.156</v>
-      </c>
-      <c r="H3">
-        <v>7.176</v>
+        <v>10.725</v>
       </c>
       <c r="I3">
-        <v>7.172</v>
-      </c>
-      <c r="J3">
-        <v>7.309</v>
-      </c>
-      <c r="L3">
-        <v>7.369</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>6.77</v>
-      </c>
-      <c r="C4">
-        <v>6.88</v>
-      </c>
       <c r="D4">
-        <v>6.789</v>
+        <v>12.465</v>
       </c>
       <c r="E4">
-        <v>6.816</v>
+        <v>10.82</v>
       </c>
       <c r="F4">
-        <v>6.865</v>
-      </c>
-      <c r="G4">
-        <v>6.916</v>
-      </c>
-      <c r="H4">
-        <v>6.987</v>
+        <v>10.466</v>
       </c>
       <c r="I4">
-        <v>6.99</v>
-      </c>
-      <c r="J4">
-        <v>7.105</v>
-      </c>
-      <c r="L4">
-        <v>7.138</v>
+        <v>10.967</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>5.63</v>
-      </c>
-      <c r="C5">
-        <v>6.08</v>
-      </c>
       <c r="D5">
-        <v>6.353</v>
+        <v>13.735</v>
       </c>
       <c r="E5">
-        <v>6.664</v>
+        <v>12.45</v>
       </c>
       <c r="F5">
-        <v>6.923</v>
-      </c>
-      <c r="G5">
-        <v>7.037</v>
-      </c>
-      <c r="H5">
-        <v>7.15</v>
+        <v>11.98</v>
       </c>
       <c r="I5">
-        <v>7.218</v>
-      </c>
-      <c r="J5">
-        <v>7.384</v>
-      </c>
-      <c r="L5">
-        <v>7.475</v>
+        <v>11.85</v>
       </c>
     </row>
   </sheetData>
@@ -1995,34 +2037,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.687</v>
+        <v>5.12</v>
+      </c>
+      <c r="C2">
+        <v>5.14</v>
       </c>
       <c r="D2">
-        <v>3.614</v>
+        <v>5.19</v>
       </c>
       <c r="E2">
-        <v>3.224</v>
+        <v>4.685</v>
       </c>
       <c r="F2">
-        <v>3.03</v>
+        <v>4.443</v>
       </c>
       <c r="G2">
-        <v>2.915</v>
+        <v>3.979</v>
       </c>
       <c r="H2">
-        <v>2.917</v>
+        <v>3.809</v>
       </c>
       <c r="I2">
-        <v>3.109</v>
-      </c>
-      <c r="J2">
-        <v>3.365</v>
+        <v>3.691</v>
       </c>
       <c r="K2">
-        <v>3.506</v>
+        <v>3.66</v>
       </c>
       <c r="L2">
-        <v>3.592</v>
+        <v>3.508</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2030,34 +2072,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.618</v>
+        <v>5.07</v>
+      </c>
+      <c r="C3">
+        <v>5.2</v>
       </c>
       <c r="D3">
-        <v>3.658</v>
+        <v>5.28</v>
       </c>
       <c r="E3">
-        <v>3.207</v>
+        <v>4.691</v>
       </c>
       <c r="F3">
-        <v>3.007</v>
+        <v>4.436</v>
       </c>
       <c r="G3">
-        <v>2.925</v>
+        <v>3.978</v>
       </c>
       <c r="H3">
-        <v>2.9114</v>
+        <v>3.74</v>
       </c>
       <c r="I3">
-        <v>3.119</v>
-      </c>
-      <c r="J3">
-        <v>3.359</v>
+        <v>3.627</v>
       </c>
       <c r="K3">
-        <v>3.486</v>
+        <v>3.605</v>
       </c>
       <c r="L3">
-        <v>3.557</v>
+        <v>3.457</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2065,34 +2107,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.14</v>
+        <v>4.64</v>
+      </c>
+      <c r="C4">
+        <v>4.74</v>
       </c>
       <c r="D4">
-        <v>3.388</v>
+        <v>4.82</v>
       </c>
       <c r="E4">
-        <v>2.938</v>
+        <v>4.306</v>
       </c>
       <c r="F4">
-        <v>2.766</v>
+        <v>3.941</v>
       </c>
       <c r="G4">
-        <v>2.703</v>
+        <v>3.58</v>
       </c>
       <c r="H4">
-        <v>2.7182</v>
+        <v>3.402</v>
       </c>
       <c r="I4">
-        <v>2.917</v>
-      </c>
-      <c r="J4">
-        <v>3.183</v>
+        <v>3.333</v>
       </c>
       <c r="K4">
-        <v>3.333</v>
+        <v>3.381</v>
       </c>
       <c r="L4">
-        <v>3.412</v>
+        <v>3.292</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2100,34 +2142,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.024</v>
+        <v>3.35</v>
+      </c>
+      <c r="C5">
+        <v>3.57</v>
       </c>
       <c r="D5">
-        <v>0.8</v>
+        <v>3.76</v>
       </c>
       <c r="E5">
-        <v>0.916</v>
+        <v>3.625</v>
       </c>
       <c r="F5">
-        <v>1.371</v>
+        <v>3.575</v>
       </c>
       <c r="G5">
-        <v>1.593</v>
+        <v>3.257</v>
       </c>
       <c r="H5">
-        <v>1.7643</v>
+        <v>3.165</v>
       </c>
       <c r="I5">
-        <v>2.187</v>
-      </c>
-      <c r="J5">
-        <v>2.496</v>
+        <v>3.143</v>
       </c>
       <c r="K5">
-        <v>2.551</v>
+        <v>3.205</v>
       </c>
       <c r="L5">
-        <v>2.643</v>
+        <v>3.138</v>
       </c>
     </row>
   </sheetData>
@@ -2185,152 +2227,116 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>3.615</v>
-      </c>
-      <c r="C2">
-        <v>3.691</v>
-      </c>
       <c r="D2">
-        <v>3.604</v>
+        <v>2.035</v>
       </c>
       <c r="E2">
-        <v>3.014</v>
+        <v>2.181</v>
       </c>
       <c r="F2">
-        <v>2.858</v>
+        <v>2.299</v>
       </c>
       <c r="G2">
-        <v>2.566</v>
+        <v>2.47</v>
       </c>
       <c r="H2">
-        <v>2.493</v>
-      </c>
-      <c r="I2">
-        <v>2.5865</v>
+        <v>2.649</v>
       </c>
       <c r="J2">
-        <v>2.737</v>
+        <v>2.783</v>
       </c>
       <c r="K2">
-        <v>2.754</v>
+        <v>3.013</v>
       </c>
       <c r="L2">
-        <v>2.717</v>
+        <v>2.999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>3.569</v>
-      </c>
-      <c r="C3">
-        <v>3.52</v>
-      </c>
       <c r="D3">
-        <v>3.507</v>
+        <v>1.664</v>
       </c>
       <c r="E3">
-        <v>3.085</v>
+        <v>2.053</v>
       </c>
       <c r="F3">
-        <v>2.78</v>
+        <v>2.22</v>
       </c>
       <c r="G3">
-        <v>2.491</v>
+        <v>2.428</v>
       </c>
       <c r="H3">
-        <v>2.39</v>
-      </c>
-      <c r="I3">
-        <v>2.441</v>
+        <v>2.623</v>
       </c>
       <c r="J3">
-        <v>2.615</v>
+        <v>2.822</v>
       </c>
       <c r="K3">
-        <v>2.623</v>
+        <v>3.058</v>
       </c>
       <c r="L3">
-        <v>2.556</v>
+        <v>3.008</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>3.179</v>
-      </c>
-      <c r="C4">
-        <v>3.315</v>
-      </c>
       <c r="D4">
-        <v>3.41</v>
+        <v>1.952</v>
       </c>
       <c r="E4">
-        <v>3.034</v>
+        <v>2.236</v>
       </c>
       <c r="F4">
-        <v>2.76</v>
+        <v>2.345</v>
       </c>
       <c r="G4">
-        <v>2.487</v>
+        <v>2.506</v>
       </c>
       <c r="H4">
-        <v>2.381</v>
-      </c>
-      <c r="I4">
-        <v>2.426</v>
+        <v>2.701</v>
       </c>
       <c r="J4">
-        <v>2.608</v>
+        <v>2.846</v>
       </c>
       <c r="K4">
-        <v>2.621</v>
+        <v>3.153</v>
       </c>
       <c r="L4">
-        <v>2.563</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>0.115</v>
-      </c>
-      <c r="C5">
-        <v>0.06</v>
-      </c>
       <c r="D5">
-        <v>0.656</v>
+        <v>1.698</v>
       </c>
       <c r="E5">
-        <v>1.164</v>
+        <v>2.015</v>
       </c>
       <c r="F5">
-        <v>1.075</v>
+        <v>2.157</v>
       </c>
       <c r="G5">
-        <v>1.357</v>
+        <v>2.381</v>
       </c>
       <c r="H5">
-        <v>1.367</v>
-      </c>
-      <c r="I5">
-        <v>1.566</v>
+        <v>2.605</v>
       </c>
       <c r="J5">
-        <v>1.744</v>
+        <v>2.877</v>
       </c>
       <c r="K5">
-        <v>1.686</v>
+        <v>3.207</v>
       </c>
       <c r="L5">
-        <v>1.716</v>
+        <v>3.091</v>
       </c>
     </row>
   </sheetData>
@@ -2388,92 +2394,152 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>3.658</v>
+      </c>
+      <c r="C2">
+        <v>3.719</v>
+      </c>
       <c r="D2">
-        <v>5.266</v>
+        <v>3.642</v>
       </c>
       <c r="E2">
-        <v>5.316</v>
+        <v>3.289</v>
       </c>
       <c r="F2">
-        <v>5.281</v>
+        <v>3.105</v>
       </c>
       <c r="G2">
-        <v>5.33</v>
+        <v>2.976</v>
       </c>
       <c r="H2">
-        <v>5.412</v>
+        <v>2.971</v>
       </c>
       <c r="I2">
-        <v>5.556</v>
+        <v>3.156</v>
+      </c>
+      <c r="J2">
+        <v>3.402</v>
+      </c>
+      <c r="K2">
+        <v>3.541</v>
+      </c>
+      <c r="L2">
+        <v>3.621</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>3.595</v>
+      </c>
+      <c r="C3">
+        <v>3.614</v>
+      </c>
       <c r="D3">
-        <v>5.653</v>
+        <v>3.61</v>
       </c>
       <c r="E3">
-        <v>5.501</v>
+        <v>3.226</v>
       </c>
       <c r="F3">
-        <v>5.436</v>
+        <v>2.997</v>
       </c>
       <c r="G3">
-        <v>5.445</v>
+        <v>2.917</v>
       </c>
       <c r="H3">
-        <v>5.417</v>
+        <v>2.9125</v>
       </c>
       <c r="I3">
-        <v>5.614</v>
+        <v>3.129</v>
+      </c>
+      <c r="J3">
+        <v>3.367</v>
+      </c>
+      <c r="K3">
+        <v>3.488</v>
+      </c>
+      <c r="L3">
+        <v>3.57</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>3.17</v>
+      </c>
+      <c r="C4">
+        <v>3.332</v>
+      </c>
       <c r="D4">
-        <v>5.997</v>
+        <v>3.367</v>
       </c>
       <c r="E4">
-        <v>5.95</v>
+        <v>2.876</v>
       </c>
       <c r="F4">
-        <v>5.976</v>
+        <v>2.691</v>
       </c>
       <c r="G4">
-        <v>5.995</v>
+        <v>2.608</v>
       </c>
       <c r="H4">
-        <v>5.968</v>
+        <v>2.6231</v>
       </c>
       <c r="I4">
-        <v>6.074</v>
+        <v>2.828</v>
+      </c>
+      <c r="J4">
+        <v>3.115</v>
+      </c>
+      <c r="K4">
+        <v>3.273</v>
+      </c>
+      <c r="L4">
+        <v>3.364</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>0.147</v>
+      </c>
+      <c r="C5">
+        <v>0.435</v>
+      </c>
       <c r="D5">
-        <v>6.723</v>
+        <v>0.87</v>
       </c>
       <c r="E5">
-        <v>6.98</v>
+        <v>0.947</v>
       </c>
       <c r="F5">
-        <v>6.807</v>
+        <v>1.359</v>
       </c>
       <c r="G5">
-        <v>6.665</v>
+        <v>1.604</v>
       </c>
       <c r="H5">
-        <v>6.224</v>
+        <v>1.761</v>
       </c>
       <c r="I5">
-        <v>6.152</v>
+        <v>2.154</v>
+      </c>
+      <c r="J5">
+        <v>2.436</v>
+      </c>
+      <c r="K5">
+        <v>2.49</v>
+      </c>
+      <c r="L5">
+        <v>2.565</v>
       </c>
     </row>
   </sheetData>
@@ -2531,80 +2597,140 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>3.776</v>
+      </c>
+      <c r="C2">
+        <v>3.741</v>
+      </c>
       <c r="D2">
-        <v>11.442</v>
+        <v>3.58</v>
       </c>
       <c r="E2">
-        <v>9.978999999999999</v>
+        <v>3.099</v>
       </c>
       <c r="F2">
-        <v>10.462</v>
+        <v>2.927</v>
       </c>
       <c r="G2">
-        <v>10.861</v>
+        <v>2.637</v>
+      </c>
+      <c r="H2">
+        <v>2.556</v>
       </c>
       <c r="I2">
-        <v>11.142</v>
+        <v>2.6325</v>
+      </c>
+      <c r="K2">
+        <v>2.803</v>
+      </c>
+      <c r="L2">
+        <v>2.763</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>3.566</v>
+      </c>
+      <c r="C3">
+        <v>3.54</v>
+      </c>
       <c r="D3">
-        <v>11.505</v>
+        <v>3.54</v>
       </c>
       <c r="E3">
-        <v>10.345</v>
+        <v>3.13</v>
       </c>
       <c r="F3">
-        <v>10.205</v>
+        <v>2.846</v>
       </c>
       <c r="G3">
-        <v>10.52</v>
+        <v>2.584</v>
+      </c>
+      <c r="H3">
+        <v>2.494</v>
       </c>
       <c r="I3">
-        <v>10.71</v>
+        <v>2.561</v>
+      </c>
+      <c r="K3">
+        <v>2.748</v>
+      </c>
+      <c r="L3">
+        <v>2.679</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>3.145</v>
+      </c>
+      <c r="C4">
+        <v>3.262</v>
+      </c>
       <c r="D4">
-        <v>12.74</v>
+        <v>3.351</v>
       </c>
       <c r="E4">
-        <v>11.32</v>
+        <v>2.971</v>
       </c>
       <c r="F4">
-        <v>11.005</v>
+        <v>2.689</v>
       </c>
       <c r="G4">
-        <v>11.375</v>
+        <v>2.423</v>
+      </c>
+      <c r="H4">
+        <v>2.325</v>
       </c>
       <c r="I4">
-        <v>11.573</v>
+        <v>2.3805</v>
+      </c>
+      <c r="K4">
+        <v>2.573</v>
+      </c>
+      <c r="L4">
+        <v>2.518</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>0.226</v>
+      </c>
+      <c r="C5">
+        <v>0.114</v>
+      </c>
       <c r="D5">
-        <v>13.575</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>12.275</v>
+        <v>1.084</v>
       </c>
       <c r="F5">
-        <v>11.91</v>
+        <v>1.043</v>
       </c>
       <c r="G5">
-        <v>11.685</v>
+        <v>1.354</v>
+      </c>
+      <c r="H5">
+        <v>1.371</v>
       </c>
       <c r="I5">
-        <v>11.91</v>
+        <v>1.575</v>
+      </c>
+      <c r="K5">
+        <v>1.667</v>
+      </c>
+      <c r="L5">
+        <v>1.687</v>
       </c>
     </row>
   </sheetData>
@@ -2662,80 +2788,140 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>6.82</v>
+      </c>
+      <c r="C2">
+        <v>7.02</v>
+      </c>
+      <c r="D2">
+        <v>7.107</v>
+      </c>
       <c r="E2">
-        <v>3.003</v>
+        <v>7.196</v>
       </c>
       <c r="F2">
-        <v>2.921</v>
+        <v>7.182</v>
+      </c>
+      <c r="G2">
+        <v>7.181</v>
       </c>
       <c r="H2">
-        <v>3.138</v>
+        <v>7.176</v>
       </c>
       <c r="I2">
-        <v>3.319</v>
+        <v>7.171</v>
       </c>
       <c r="J2">
-        <v>3.693</v>
+        <v>7.266</v>
+      </c>
+      <c r="L2">
+        <v>7.332</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>6.74</v>
+      </c>
+      <c r="C3">
+        <v>6.89</v>
+      </c>
+      <c r="D3">
+        <v>6.942</v>
+      </c>
       <c r="E3">
-        <v>3.004</v>
+        <v>7.068</v>
       </c>
       <c r="F3">
-        <v>2.964</v>
+        <v>7.123</v>
+      </c>
+      <c r="G3">
+        <v>7.175</v>
       </c>
       <c r="H3">
-        <v>3.145</v>
+        <v>7.199</v>
       </c>
       <c r="I3">
-        <v>3.32</v>
+        <v>7.194</v>
       </c>
       <c r="J3">
-        <v>3.684</v>
+        <v>7.333</v>
+      </c>
+      <c r="L3">
+        <v>7.396</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>6.75</v>
+      </c>
+      <c r="C4">
+        <v>6.9</v>
+      </c>
+      <c r="D4">
+        <v>6.791</v>
+      </c>
       <c r="E4">
-        <v>2.793</v>
+        <v>6.843</v>
       </c>
       <c r="F4">
-        <v>2.69</v>
+        <v>6.874</v>
+      </c>
+      <c r="G4">
+        <v>6.967</v>
       </c>
       <c r="H4">
-        <v>2.816</v>
+        <v>7.021</v>
       </c>
       <c r="I4">
-        <v>3.078</v>
+        <v>7.024</v>
       </c>
       <c r="J4">
-        <v>3.527</v>
+        <v>7.108</v>
+      </c>
+      <c r="L4">
+        <v>7.175</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>5.59</v>
+      </c>
+      <c r="C5">
+        <v>6.08</v>
+      </c>
+      <c r="D5">
+        <v>6.318</v>
+      </c>
       <c r="E5">
-        <v>1.074</v>
+        <v>6.658</v>
       </c>
       <c r="F5">
-        <v>1.464</v>
+        <v>6.938</v>
+      </c>
+      <c r="G5">
+        <v>7.036</v>
       </c>
       <c r="H5">
-        <v>2.133</v>
+        <v>7.119</v>
       </c>
       <c r="I5">
-        <v>2.682</v>
+        <v>7.185</v>
       </c>
       <c r="J5">
-        <v>2.892</v>
+        <v>7.337</v>
+      </c>
+      <c r="L5">
+        <v>7.413</v>
       </c>
     </row>
   </sheetData>
@@ -2793,140 +2979,92 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>5.628</v>
-      </c>
       <c r="D2">
-        <v>5.2755</v>
+        <v>3.855</v>
       </c>
       <c r="E2">
-        <v>5.29</v>
+        <v>3.736</v>
       </c>
       <c r="F2">
-        <v>4.9555</v>
+        <v>3.68</v>
       </c>
       <c r="G2">
-        <v>4.815</v>
+        <v>3.849</v>
       </c>
       <c r="H2">
-        <v>4.468</v>
+        <v>4.073</v>
       </c>
       <c r="I2">
-        <v>4.534</v>
-      </c>
-      <c r="J2">
-        <v>4.78</v>
-      </c>
-      <c r="K2">
-        <v>4.835</v>
-      </c>
-      <c r="L2">
-        <v>4.835</v>
+        <v>4.344</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>5.384</v>
-      </c>
       <c r="D3">
-        <v>5.2005</v>
+        <v>3.805</v>
       </c>
       <c r="E3">
-        <v>5.0675</v>
+        <v>3.733</v>
       </c>
       <c r="F3">
-        <v>4.776</v>
+        <v>3.606</v>
       </c>
       <c r="G3">
-        <v>4.5755</v>
+        <v>3.72</v>
       </c>
       <c r="H3">
-        <v>4.507</v>
+        <v>3.977</v>
       </c>
       <c r="I3">
-        <v>4.528</v>
-      </c>
-      <c r="J3">
-        <v>4.79</v>
-      </c>
-      <c r="K3">
-        <v>4.815</v>
-      </c>
-      <c r="L3">
-        <v>4.786</v>
+        <v>4.254</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>5.225</v>
-      </c>
       <c r="D4">
-        <v>5.355</v>
+        <v>3.543</v>
       </c>
       <c r="E4">
-        <v>5.253</v>
+        <v>3.346</v>
       </c>
       <c r="F4">
-        <v>5.051</v>
+        <v>3.353</v>
       </c>
       <c r="G4">
-        <v>4.664</v>
+        <v>3.464</v>
       </c>
       <c r="H4">
-        <v>4.405</v>
+        <v>3.747</v>
       </c>
       <c r="I4">
-        <v>4.374</v>
-      </c>
-      <c r="J4">
-        <v>4.505</v>
-      </c>
-      <c r="K4">
-        <v>4.465</v>
-      </c>
-      <c r="L4">
-        <v>4.372</v>
+        <v>3.969</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>2.425</v>
-      </c>
       <c r="D5">
-        <v>3.009</v>
+        <v>1.61</v>
       </c>
       <c r="E5">
-        <v>3.203</v>
+        <v>2.143</v>
       </c>
       <c r="F5">
-        <v>2.976</v>
+        <v>2.496</v>
       </c>
       <c r="G5">
-        <v>2.911</v>
+        <v>2.974</v>
       </c>
       <c r="H5">
-        <v>2.903</v>
+        <v>3.34</v>
       </c>
       <c r="I5">
-        <v>2.94</v>
-      </c>
-      <c r="J5">
-        <v>3.295</v>
-      </c>
-      <c r="K5">
-        <v>3.301</v>
-      </c>
-      <c r="L5">
-        <v>3.203</v>
+        <v>3.859</v>
       </c>
     </row>
   </sheetData>
@@ -2991,31 +3129,28 @@
         <v>-0.147</v>
       </c>
       <c r="D2">
-        <v>-0.08400000000000001</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="E2">
-        <v>0.016</v>
+        <v>0.012</v>
       </c>
       <c r="F2">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="G2">
-        <v>0.225</v>
-      </c>
-      <c r="H2">
-        <v>0.408</v>
+        <v>0.219</v>
       </c>
       <c r="I2">
-        <v>0.649</v>
+        <v>0.647</v>
       </c>
       <c r="J2">
-        <v>1.058</v>
+        <v>1.059</v>
       </c>
       <c r="K2">
-        <v>1.351</v>
+        <v>1.362</v>
       </c>
       <c r="L2">
-        <v>1.59</v>
+        <v>1.586</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3023,37 +3158,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-0.109</v>
+        <v>-0.106</v>
       </c>
       <c r="C3">
-        <v>-0.171</v>
+        <v>-0.159</v>
       </c>
       <c r="D3">
         <v>-0.09</v>
       </c>
       <c r="E3">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="F3">
-        <v>0.04</v>
+        <v>0.042</v>
       </c>
       <c r="G3">
-        <v>0.196</v>
-      </c>
-      <c r="H3">
-        <v>0.405</v>
+        <v>0.186</v>
       </c>
       <c r="I3">
-        <v>0.613</v>
+        <v>0.589</v>
       </c>
       <c r="J3">
-        <v>1.05</v>
+        <v>1.006</v>
       </c>
       <c r="K3">
-        <v>1.294</v>
+        <v>1.267</v>
       </c>
       <c r="L3">
-        <v>1.56</v>
+        <v>1.549</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3061,37 +3193,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.171</v>
+        <v>-0.141</v>
       </c>
       <c r="C4">
         <v>-0.169</v>
       </c>
       <c r="D4">
-        <v>-0.153</v>
+        <v>-0.146</v>
       </c>
       <c r="E4">
-        <v>-0.073</v>
+        <v>-0.064</v>
       </c>
       <c r="F4">
-        <v>-0.057</v>
+        <v>-0.048</v>
       </c>
       <c r="G4">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H4">
-        <v>0.196</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I4">
-        <v>0.421</v>
+        <v>0.426</v>
       </c>
       <c r="J4">
-        <v>0.784</v>
+        <v>0.782</v>
       </c>
       <c r="K4">
-        <v>1.007</v>
+        <v>1.006</v>
       </c>
       <c r="L4">
-        <v>1.241</v>
+        <v>1.242</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3099,37 +3228,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.108</v>
+        <v>-0.119</v>
       </c>
       <c r="C5">
-        <v>-0.205</v>
+        <v>-0.209</v>
       </c>
       <c r="D5">
-        <v>-0.142</v>
+        <v>-0.146</v>
       </c>
       <c r="E5">
-        <v>-0.082</v>
+        <v>-0.077</v>
       </c>
       <c r="F5">
-        <v>-0.08400000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="G5">
-        <v>0.014</v>
-      </c>
-      <c r="H5">
-        <v>0.138</v>
+        <v>0.027</v>
       </c>
       <c r="I5">
-        <v>0.23</v>
+        <v>0.245</v>
       </c>
       <c r="J5">
-        <v>0.619</v>
+        <v>0.66</v>
       </c>
       <c r="K5">
-        <v>0.892</v>
+        <v>0.947</v>
       </c>
       <c r="L5">
-        <v>1.241</v>
+        <v>1.301</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -7,16 +7,93 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Canada" sheetId="1" r:id="rId1"/>
+    <sheet name="India" sheetId="2" r:id="rId2"/>
+    <sheet name="France" sheetId="3" r:id="rId3"/>
+    <sheet name="Germany" sheetId="4" r:id="rId4"/>
+    <sheet name="Poland" sheetId="5" r:id="rId5"/>
+    <sheet name="Brazil" sheetId="6" r:id="rId6"/>
+    <sheet name="Portugal" sheetId="7" r:id="rId7"/>
+    <sheet name="UK" sheetId="8" r:id="rId8"/>
+    <sheet name="Japan" sheetId="9" r:id="rId9"/>
+    <sheet name="US" sheetId="10" r:id="rId10"/>
+    <sheet name="Russia" sheetId="11" r:id="rId11"/>
+    <sheet name="Australia" sheetId="12" r:id="rId12"/>
+    <sheet name="Italy" sheetId="13" r:id="rId13"/>
+    <sheet name="Switzerland" sheetId="14" r:id="rId14"/>
+    <sheet name="China" sheetId="15" r:id="rId15"/>
+    <sheet name="South Africa" sheetId="16" r:id="rId16"/>
+    <sheet name="Turkey" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="16">
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>6M</t>
+  </si>
+  <si>
+    <t>1Y</t>
+  </si>
+  <si>
+    <t>2Y</t>
+  </si>
+  <si>
+    <t>3Y</t>
+  </si>
+  <si>
+    <t>5Y</t>
+  </si>
+  <si>
+    <t>7Y</t>
+  </si>
+  <si>
+    <t>10Y</t>
+  </si>
+  <si>
+    <t>15Y</t>
+  </si>
+  <si>
+    <t>20Y</t>
+  </si>
+  <si>
+    <t>30Y</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>1Month Ago</t>
+  </si>
+  <si>
+    <t>3Months Ago</t>
+  </si>
+  <si>
+    <t>1Year Ago</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +117,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +435,2935 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>5.212</v>
+      </c>
+      <c r="C2">
+        <v>5.289</v>
+      </c>
+      <c r="D2">
+        <v>5.346</v>
+      </c>
+      <c r="E2">
+        <v>4.991</v>
+      </c>
+      <c r="F2">
+        <v>4.736</v>
+      </c>
+      <c r="G2">
+        <v>4.324</v>
+      </c>
+      <c r="H2">
+        <v>4.168</v>
+      </c>
+      <c r="I2">
+        <v>4.065</v>
+      </c>
+      <c r="K2">
+        <v>4.001</v>
+      </c>
+      <c r="L2">
+        <v>3.826</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>5.11</v>
+      </c>
+      <c r="C3">
+        <v>5.14</v>
+      </c>
+      <c r="D3">
+        <v>5.18</v>
+      </c>
+      <c r="E3">
+        <v>4.677</v>
+      </c>
+      <c r="F3">
+        <v>4.419</v>
+      </c>
+      <c r="G3">
+        <v>3.971</v>
+      </c>
+      <c r="H3">
+        <v>3.807</v>
+      </c>
+      <c r="I3">
+        <v>3.678</v>
+      </c>
+      <c r="K3">
+        <v>3.634</v>
+      </c>
+      <c r="L3">
+        <v>3.483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5.1</v>
+      </c>
+      <c r="D4">
+        <v>5.18</v>
+      </c>
+      <c r="E4">
+        <v>4.656</v>
+      </c>
+      <c r="F4">
+        <v>4.302</v>
+      </c>
+      <c r="G4">
+        <v>3.769</v>
+      </c>
+      <c r="H4">
+        <v>3.534</v>
+      </c>
+      <c r="I4">
+        <v>3.367</v>
+      </c>
+      <c r="K4">
+        <v>3.375</v>
+      </c>
+      <c r="L4">
+        <v>3.232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>3.66</v>
+      </c>
+      <c r="C5">
+        <v>3.92</v>
+      </c>
+      <c r="D5">
+        <v>4.2</v>
+      </c>
+      <c r="E5">
+        <v>4.054</v>
+      </c>
+      <c r="F5">
+        <v>3.992</v>
+      </c>
+      <c r="G5">
+        <v>3.561</v>
+      </c>
+      <c r="H5">
+        <v>3.461</v>
+      </c>
+      <c r="I5">
+        <v>3.392</v>
+      </c>
+      <c r="K5">
+        <v>3.411</v>
+      </c>
+      <c r="L5">
+        <v>3.254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>5.484</v>
+      </c>
+      <c r="C2">
+        <v>5.558</v>
+      </c>
+      <c r="D2">
+        <v>5.473</v>
+      </c>
+      <c r="E2">
+        <v>5.142</v>
+      </c>
+      <c r="F2">
+        <v>4.85</v>
+      </c>
+      <c r="G2">
+        <v>4.623</v>
+      </c>
+      <c r="H2">
+        <v>4.609</v>
+      </c>
+      <c r="I2">
+        <v>4.55</v>
+      </c>
+      <c r="L2">
+        <v>4.675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>5.471</v>
+      </c>
+      <c r="C3">
+        <v>5.531</v>
+      </c>
+      <c r="D3">
+        <v>5.411</v>
+      </c>
+      <c r="E3">
+        <v>4.989</v>
+      </c>
+      <c r="F3">
+        <v>4.697</v>
+      </c>
+      <c r="G3">
+        <v>4.399</v>
+      </c>
+      <c r="H3">
+        <v>4.354</v>
+      </c>
+      <c r="I3">
+        <v>4.26</v>
+      </c>
+      <c r="L3">
+        <v>4.334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>5.411</v>
+      </c>
+      <c r="C4">
+        <v>5.48</v>
+      </c>
+      <c r="D4">
+        <v>5.329</v>
+      </c>
+      <c r="E4">
+        <v>4.768</v>
+      </c>
+      <c r="F4">
+        <v>4.376</v>
+      </c>
+      <c r="G4">
+        <v>4.045</v>
+      </c>
+      <c r="H4">
+        <v>3.939</v>
+      </c>
+      <c r="I4">
+        <v>3.83</v>
+      </c>
+      <c r="L4">
+        <v>3.926</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>3.378</v>
+      </c>
+      <c r="C5">
+        <v>4.092</v>
+      </c>
+      <c r="D5">
+        <v>4.181</v>
+      </c>
+      <c r="E5">
+        <v>4.312</v>
+      </c>
+      <c r="F5">
+        <v>4.349</v>
+      </c>
+      <c r="G5">
+        <v>4.149</v>
+      </c>
+      <c r="H5">
+        <v>4.037</v>
+      </c>
+      <c r="I5">
+        <v>3.888</v>
+      </c>
+      <c r="L5">
+        <v>3.848</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>15.98</v>
+      </c>
+      <c r="E2">
+        <v>12.77</v>
+      </c>
+      <c r="F2">
+        <v>11.985</v>
+      </c>
+      <c r="G2">
+        <v>12.41</v>
+      </c>
+      <c r="I2">
+        <v>12.67</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>15.36</v>
+      </c>
+      <c r="E3">
+        <v>12.55</v>
+      </c>
+      <c r="F3">
+        <v>13.81</v>
+      </c>
+      <c r="G3">
+        <v>12.33</v>
+      </c>
+      <c r="I3">
+        <v>12.6</v>
+      </c>
+      <c r="J3">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>9.98</v>
+      </c>
+      <c r="E4">
+        <v>10.33</v>
+      </c>
+      <c r="F4">
+        <v>10.2</v>
+      </c>
+      <c r="G4">
+        <v>10.92</v>
+      </c>
+      <c r="I4">
+        <v>11.4</v>
+      </c>
+      <c r="J4">
+        <v>11.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>9.23</v>
+      </c>
+      <c r="E5">
+        <v>10.66</v>
+      </c>
+      <c r="F5">
+        <v>9.24</v>
+      </c>
+      <c r="G5">
+        <v>10.39</v>
+      </c>
+      <c r="I5">
+        <v>9.91</v>
+      </c>
+      <c r="J5">
+        <v>10.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>4.186</v>
+      </c>
+      <c r="E2">
+        <v>4.081</v>
+      </c>
+      <c r="F2">
+        <v>4.064</v>
+      </c>
+      <c r="G2">
+        <v>4.12</v>
+      </c>
+      <c r="H2">
+        <v>4.285</v>
+      </c>
+      <c r="I2">
+        <v>4.414</v>
+      </c>
+      <c r="J2">
+        <v>4.656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>4.038</v>
+      </c>
+      <c r="E3">
+        <v>3.824</v>
+      </c>
+      <c r="F3">
+        <v>3.795</v>
+      </c>
+      <c r="G3">
+        <v>3.836</v>
+      </c>
+      <c r="H3">
+        <v>3.986</v>
+      </c>
+      <c r="I3">
+        <v>4.096</v>
+      </c>
+      <c r="J3">
+        <v>4.354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>4.202</v>
+      </c>
+      <c r="E4">
+        <v>4.039</v>
+      </c>
+      <c r="F4">
+        <v>3.894</v>
+      </c>
+      <c r="G4">
+        <v>3.838</v>
+      </c>
+      <c r="H4">
+        <v>3.903</v>
+      </c>
+      <c r="I4">
+        <v>3.965</v>
+      </c>
+      <c r="J4">
+        <v>4.105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>2.985</v>
+      </c>
+      <c r="E5">
+        <v>3.304</v>
+      </c>
+      <c r="F5">
+        <v>3.435</v>
+      </c>
+      <c r="G5">
+        <v>3.583</v>
+      </c>
+      <c r="H5">
+        <v>3.73</v>
+      </c>
+      <c r="I5">
+        <v>3.852</v>
+      </c>
+      <c r="J5">
+        <v>4.051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>3.842</v>
+      </c>
+      <c r="C2">
+        <v>3.892</v>
+      </c>
+      <c r="D2">
+        <v>3.943</v>
+      </c>
+      <c r="E2">
+        <v>4.023</v>
+      </c>
+      <c r="F2">
+        <v>3.983</v>
+      </c>
+      <c r="G2">
+        <v>4.179</v>
+      </c>
+      <c r="H2">
+        <v>4.449</v>
+      </c>
+      <c r="I2">
+        <v>4.737</v>
+      </c>
+      <c r="J2">
+        <v>4.985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>3.378</v>
+      </c>
+      <c r="C3">
+        <v>3.756</v>
+      </c>
+      <c r="D3">
+        <v>3.877</v>
+      </c>
+      <c r="E3">
+        <v>3.771</v>
+      </c>
+      <c r="F3">
+        <v>3.685</v>
+      </c>
+      <c r="G3">
+        <v>3.851</v>
+      </c>
+      <c r="H3">
+        <v>4.071</v>
+      </c>
+      <c r="I3">
+        <v>4.339</v>
+      </c>
+      <c r="J3">
+        <v>4.571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>3.591</v>
+      </c>
+      <c r="C4">
+        <v>3.625</v>
+      </c>
+      <c r="D4">
+        <v>3.847</v>
+      </c>
+      <c r="E4">
+        <v>3.851</v>
+      </c>
+      <c r="F4">
+        <v>3.721</v>
+      </c>
+      <c r="G4">
+        <v>3.75</v>
+      </c>
+      <c r="H4">
+        <v>3.933</v>
+      </c>
+      <c r="I4">
+        <v>4.173</v>
+      </c>
+      <c r="J4">
+        <v>4.353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.911</v>
+      </c>
+      <c r="C5">
+        <v>1.774</v>
+      </c>
+      <c r="D5">
+        <v>2.374</v>
+      </c>
+      <c r="E5">
+        <v>3.1</v>
+      </c>
+      <c r="F5">
+        <v>3.517</v>
+      </c>
+      <c r="G5">
+        <v>3.888</v>
+      </c>
+      <c r="H5">
+        <v>4.23</v>
+      </c>
+      <c r="I5">
+        <v>4.7</v>
+      </c>
+      <c r="J5">
+        <v>4.649</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1.62</v>
+      </c>
+      <c r="C2">
+        <v>1.71</v>
+      </c>
+      <c r="D2">
+        <v>1.86</v>
+      </c>
+      <c r="E2">
+        <v>1.22</v>
+      </c>
+      <c r="F2">
+        <v>1.138</v>
+      </c>
+      <c r="G2">
+        <v>1.044</v>
+      </c>
+      <c r="H2">
+        <v>1.043</v>
+      </c>
+      <c r="I2">
+        <v>1.072</v>
+      </c>
+      <c r="J2">
+        <v>1.097</v>
+      </c>
+      <c r="K2">
+        <v>1.132</v>
+      </c>
+      <c r="L2">
+        <v>1.082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1.68</v>
+      </c>
+      <c r="C3">
+        <v>1.71</v>
+      </c>
+      <c r="D3">
+        <v>1.86</v>
+      </c>
+      <c r="E3">
+        <v>1.167</v>
+      </c>
+      <c r="F3">
+        <v>1.114</v>
+      </c>
+      <c r="G3">
+        <v>1.037</v>
+      </c>
+      <c r="H3">
+        <v>1.022</v>
+      </c>
+      <c r="I3">
+        <v>1.036</v>
+      </c>
+      <c r="J3">
+        <v>1.067</v>
+      </c>
+      <c r="K3">
+        <v>1.053</v>
+      </c>
+      <c r="L3">
+        <v>1.031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1.65</v>
+      </c>
+      <c r="C4">
+        <v>1.7</v>
+      </c>
+      <c r="D4">
+        <v>1.97</v>
+      </c>
+      <c r="E4">
+        <v>1.172</v>
+      </c>
+      <c r="F4">
+        <v>1.175</v>
+      </c>
+      <c r="G4">
+        <v>1.041</v>
+      </c>
+      <c r="H4">
+        <v>1.023</v>
+      </c>
+      <c r="I4">
+        <v>1.001</v>
+      </c>
+      <c r="J4">
+        <v>1.045</v>
+      </c>
+      <c r="K4">
+        <v>0.977</v>
+      </c>
+      <c r="L4">
+        <v>0.979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.35</v>
+      </c>
+      <c r="C5">
+        <v>0.68</v>
+      </c>
+      <c r="D5">
+        <v>1.13</v>
+      </c>
+      <c r="E5">
+        <v>0.752</v>
+      </c>
+      <c r="F5">
+        <v>0.872</v>
+      </c>
+      <c r="G5">
+        <v>1.091</v>
+      </c>
+      <c r="H5">
+        <v>1.243</v>
+      </c>
+      <c r="I5">
+        <v>1.386</v>
+      </c>
+      <c r="J5">
+        <v>1.392</v>
+      </c>
+      <c r="K5">
+        <v>1.278</v>
+      </c>
+      <c r="L5">
+        <v>1.261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>2.205</v>
+      </c>
+      <c r="E2">
+        <v>2.282</v>
+      </c>
+      <c r="F2">
+        <v>2.352</v>
+      </c>
+      <c r="G2">
+        <v>2.531</v>
+      </c>
+      <c r="H2">
+        <v>2.69</v>
+      </c>
+      <c r="I2">
+        <v>2.73</v>
+      </c>
+      <c r="J2">
+        <v>2.853</v>
+      </c>
+      <c r="K2">
+        <v>3.082</v>
+      </c>
+      <c r="L2">
+        <v>3.021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>2.105</v>
+      </c>
+      <c r="E3">
+        <v>2.246</v>
+      </c>
+      <c r="F3">
+        <v>2.349</v>
+      </c>
+      <c r="G3">
+        <v>2.503</v>
+      </c>
+      <c r="H3">
+        <v>2.66</v>
+      </c>
+      <c r="I3">
+        <v>2.673</v>
+      </c>
+      <c r="J3">
+        <v>2.822</v>
+      </c>
+      <c r="K3">
+        <v>3.025</v>
+      </c>
+      <c r="L3">
+        <v>2.992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>1.823</v>
+      </c>
+      <c r="E4">
+        <v>2.11</v>
+      </c>
+      <c r="F4">
+        <v>2.244</v>
+      </c>
+      <c r="G4">
+        <v>2.436</v>
+      </c>
+      <c r="H4">
+        <v>2.632</v>
+      </c>
+      <c r="I4">
+        <v>2.69</v>
+      </c>
+      <c r="J4">
+        <v>2.776</v>
+      </c>
+      <c r="K4">
+        <v>3.103</v>
+      </c>
+      <c r="L4">
+        <v>3.033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>1.84</v>
+      </c>
+      <c r="E5">
+        <v>2.104</v>
+      </c>
+      <c r="F5">
+        <v>2.316</v>
+      </c>
+      <c r="G5">
+        <v>2.566</v>
+      </c>
+      <c r="H5">
+        <v>2.715</v>
+      </c>
+      <c r="I5">
+        <v>2.773</v>
+      </c>
+      <c r="J5">
+        <v>2.898</v>
+      </c>
+      <c r="K5">
+        <v>3.239</v>
+      </c>
+      <c r="L5">
+        <v>3.187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>8.85</v>
+      </c>
+      <c r="G2">
+        <v>9.4</v>
+      </c>
+      <c r="I2">
+        <v>10.8</v>
+      </c>
+      <c r="K2">
+        <v>12.97</v>
+      </c>
+      <c r="L2">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G3">
+        <v>9.01</v>
+      </c>
+      <c r="I3">
+        <v>10.375</v>
+      </c>
+      <c r="K3">
+        <v>12.565</v>
+      </c>
+      <c r="L3">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>9.1</v>
+      </c>
+      <c r="G4">
+        <v>9.225</v>
+      </c>
+      <c r="I4">
+        <v>10.475</v>
+      </c>
+      <c r="K4">
+        <v>12.375</v>
+      </c>
+      <c r="L4">
+        <v>12.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>6.44</v>
+      </c>
+      <c r="G5">
+        <v>9.18</v>
+      </c>
+      <c r="I5">
+        <v>10.635</v>
+      </c>
+      <c r="K5">
+        <v>11.715</v>
+      </c>
+      <c r="L5">
+        <v>11.625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>21.956</v>
+      </c>
+      <c r="C2">
+        <v>21.65</v>
+      </c>
+      <c r="D2">
+        <v>7.77</v>
+      </c>
+      <c r="E2">
+        <v>26.81</v>
+      </c>
+      <c r="F2">
+        <v>28.705</v>
+      </c>
+      <c r="G2">
+        <v>26.55</v>
+      </c>
+      <c r="I2">
+        <v>25.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>19.628</v>
+      </c>
+      <c r="C3">
+        <v>19.768</v>
+      </c>
+      <c r="D3">
+        <v>7.77</v>
+      </c>
+      <c r="E3">
+        <v>22.3</v>
+      </c>
+      <c r="F3">
+        <v>23.15</v>
+      </c>
+      <c r="G3">
+        <v>19.48</v>
+      </c>
+      <c r="I3">
+        <v>21.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>10.125</v>
+      </c>
+      <c r="C4">
+        <v>12.057</v>
+      </c>
+      <c r="D4">
+        <v>7.77</v>
+      </c>
+      <c r="E4">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="F4">
+        <v>14.04</v>
+      </c>
+      <c r="G4">
+        <v>16.77</v>
+      </c>
+      <c r="I4">
+        <v>17.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>14.323</v>
+      </c>
+      <c r="C5">
+        <v>14.949</v>
+      </c>
+      <c r="D5">
+        <v>14.98</v>
+      </c>
+      <c r="E5">
+        <v>15.04</v>
+      </c>
+      <c r="F5">
+        <v>15.36</v>
+      </c>
+      <c r="G5">
+        <v>10.28</v>
+      </c>
+      <c r="I5">
+        <v>11.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>6.86</v>
+      </c>
+      <c r="C2">
+        <v>7.05</v>
+      </c>
+      <c r="D2">
+        <v>7.011</v>
+      </c>
+      <c r="E2">
+        <v>7.214</v>
+      </c>
+      <c r="F2">
+        <v>7.214</v>
+      </c>
+      <c r="G2">
+        <v>7.171</v>
+      </c>
+      <c r="H2">
+        <v>7.18</v>
+      </c>
+      <c r="I2">
+        <v>7.146</v>
+      </c>
+      <c r="J2">
+        <v>7.282</v>
+      </c>
+      <c r="L2">
+        <v>7.343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>6.85</v>
+      </c>
+      <c r="C3">
+        <v>7.03</v>
+      </c>
+      <c r="D3">
+        <v>7.127</v>
+      </c>
+      <c r="E3">
+        <v>7.2</v>
+      </c>
+      <c r="F3">
+        <v>7.172</v>
+      </c>
+      <c r="G3">
+        <v>7.204</v>
+      </c>
+      <c r="H3">
+        <v>7.2</v>
+      </c>
+      <c r="I3">
+        <v>7.199</v>
+      </c>
+      <c r="J3">
+        <v>7.26</v>
+      </c>
+      <c r="L3">
+        <v>7.348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>6.73</v>
+      </c>
+      <c r="C4">
+        <v>6.85</v>
+      </c>
+      <c r="D4">
+        <v>6.856</v>
+      </c>
+      <c r="E4">
+        <v>6.991</v>
+      </c>
+      <c r="F4">
+        <v>7.052</v>
+      </c>
+      <c r="G4">
+        <v>7.068</v>
+      </c>
+      <c r="H4">
+        <v>7.08</v>
+      </c>
+      <c r="I4">
+        <v>7.089</v>
+      </c>
+      <c r="J4">
+        <v>7.222</v>
+      </c>
+      <c r="L4">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>6.12</v>
+      </c>
+      <c r="C5">
+        <v>6.62</v>
+      </c>
+      <c r="D5">
+        <v>6.784</v>
+      </c>
+      <c r="E5">
+        <v>7.154</v>
+      </c>
+      <c r="F5">
+        <v>7.338</v>
+      </c>
+      <c r="G5">
+        <v>7.396</v>
+      </c>
+      <c r="H5">
+        <v>7.447</v>
+      </c>
+      <c r="I5">
+        <v>7.46</v>
+      </c>
+      <c r="J5">
+        <v>7.541</v>
+      </c>
+      <c r="L5">
+        <v>7.592</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>3.881</v>
+      </c>
+      <c r="C2">
+        <v>3.814</v>
+      </c>
+      <c r="D2">
+        <v>3.812</v>
+      </c>
+      <c r="E2">
+        <v>3.424</v>
+      </c>
+      <c r="G2">
+        <v>3.132</v>
+      </c>
+      <c r="H2">
+        <v>3.148</v>
+      </c>
+      <c r="I2">
+        <v>3.361</v>
+      </c>
+      <c r="J2">
+        <v>3.626</v>
+      </c>
+      <c r="K2">
+        <v>3.779</v>
+      </c>
+      <c r="L2">
+        <v>3.879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>3.652</v>
+      </c>
+      <c r="C3">
+        <v>3.689</v>
+      </c>
+      <c r="D3">
+        <v>3.643</v>
+      </c>
+      <c r="E3">
+        <v>3.301</v>
+      </c>
+      <c r="G3">
+        <v>2.968</v>
+      </c>
+      <c r="H3">
+        <v>2.9564</v>
+      </c>
+      <c r="I3">
+        <v>3.142</v>
+      </c>
+      <c r="J3">
+        <v>3.385</v>
+      </c>
+      <c r="K3">
+        <v>3.525</v>
+      </c>
+      <c r="L3">
+        <v>3.604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>3.573</v>
+      </c>
+      <c r="C4">
+        <v>3.72</v>
+      </c>
+      <c r="D4">
+        <v>3.782</v>
+      </c>
+      <c r="E4">
+        <v>3.38</v>
+      </c>
+      <c r="G4">
+        <v>2.97</v>
+      </c>
+      <c r="H4">
+        <v>2.8983</v>
+      </c>
+      <c r="I4">
+        <v>3.032</v>
+      </c>
+      <c r="J4">
+        <v>3.261</v>
+      </c>
+      <c r="K4">
+        <v>3.371</v>
+      </c>
+      <c r="L4">
+        <v>3.405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.775</v>
+      </c>
+      <c r="C5">
+        <v>1.235</v>
+      </c>
+      <c r="D5">
+        <v>1.85</v>
+      </c>
+      <c r="E5">
+        <v>1.844</v>
+      </c>
+      <c r="G5">
+        <v>2.285</v>
+      </c>
+      <c r="H5">
+        <v>2.5049</v>
+      </c>
+      <c r="I5">
+        <v>2.796</v>
+      </c>
+      <c r="J5">
+        <v>3.058</v>
+      </c>
+      <c r="K5">
+        <v>3.105</v>
+      </c>
+      <c r="L5">
+        <v>3.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>3.687</v>
+      </c>
+      <c r="C2">
+        <v>3.77</v>
+      </c>
+      <c r="D2">
+        <v>3.648</v>
+      </c>
+      <c r="E2">
+        <v>3.216</v>
+      </c>
+      <c r="F2">
+        <v>3.054</v>
+      </c>
+      <c r="G2">
+        <v>2.766</v>
+      </c>
+      <c r="H2">
+        <v>2.703</v>
+      </c>
+      <c r="I2">
+        <v>2.8075</v>
+      </c>
+      <c r="J2">
+        <v>2.977</v>
+      </c>
+      <c r="K2">
+        <v>3.016</v>
+      </c>
+      <c r="L2">
+        <v>3.003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>3.658</v>
+      </c>
+      <c r="C3">
+        <v>3.7</v>
+      </c>
+      <c r="D3">
+        <v>3.588</v>
+      </c>
+      <c r="E3">
+        <v>3.068</v>
+      </c>
+      <c r="F3">
+        <v>2.914</v>
+      </c>
+      <c r="G3">
+        <v>2.603</v>
+      </c>
+      <c r="H3">
+        <v>2.522</v>
+      </c>
+      <c r="I3">
+        <v>2.598</v>
+      </c>
+      <c r="J3">
+        <v>2.749</v>
+      </c>
+      <c r="K3">
+        <v>2.771</v>
+      </c>
+      <c r="L3">
+        <v>2.722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>3.564</v>
+      </c>
+      <c r="C4">
+        <v>3.665</v>
+      </c>
+      <c r="D4">
+        <v>3.722</v>
+      </c>
+      <c r="E4">
+        <v>3.262</v>
+      </c>
+      <c r="F4">
+        <v>2.985</v>
+      </c>
+      <c r="G4">
+        <v>2.628</v>
+      </c>
+      <c r="H4">
+        <v>2.481</v>
+      </c>
+      <c r="I4">
+        <v>2.477</v>
+      </c>
+      <c r="J4">
+        <v>2.611</v>
+      </c>
+      <c r="K4">
+        <v>2.614</v>
+      </c>
+      <c r="L4">
+        <v>2.532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.774</v>
+      </c>
+      <c r="C5">
+        <v>0.707</v>
+      </c>
+      <c r="D5">
+        <v>1.715</v>
+      </c>
+      <c r="E5">
+        <v>1.869</v>
+      </c>
+      <c r="F5">
+        <v>1.829</v>
+      </c>
+      <c r="G5">
+        <v>2.045</v>
+      </c>
+      <c r="H5">
+        <v>2.053</v>
+      </c>
+      <c r="I5">
+        <v>2.197</v>
+      </c>
+      <c r="J5">
+        <v>2.351</v>
+      </c>
+      <c r="K5">
+        <v>2.273</v>
+      </c>
+      <c r="L5">
+        <v>2.138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>5.057</v>
+      </c>
+      <c r="E2">
+        <v>5.077</v>
+      </c>
+      <c r="F2">
+        <v>5.094</v>
+      </c>
+      <c r="G2">
+        <v>5.258</v>
+      </c>
+      <c r="H2">
+        <v>5.513</v>
+      </c>
+      <c r="I2">
+        <v>5.827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>4.838</v>
+      </c>
+      <c r="E3">
+        <v>4.824</v>
+      </c>
+      <c r="F3">
+        <v>4.96</v>
+      </c>
+      <c r="G3">
+        <v>5.123</v>
+      </c>
+      <c r="H3">
+        <v>5.375</v>
+      </c>
+      <c r="I3">
+        <v>5.595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>5.714</v>
+      </c>
+      <c r="E4">
+        <v>5.309</v>
+      </c>
+      <c r="F4">
+        <v>5.362</v>
+      </c>
+      <c r="G4">
+        <v>5.322</v>
+      </c>
+      <c r="H4">
+        <v>5.423</v>
+      </c>
+      <c r="I4">
+        <v>5.542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>7.412</v>
+      </c>
+      <c r="E5">
+        <v>7.418</v>
+      </c>
+      <c r="F5">
+        <v>7.499</v>
+      </c>
+      <c r="G5">
+        <v>7.528</v>
+      </c>
+      <c r="H5">
+        <v>7.482</v>
+      </c>
+      <c r="I5">
+        <v>7.376</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>10.769</v>
+      </c>
+      <c r="E2">
+        <v>10.108</v>
+      </c>
+      <c r="F2">
+        <v>10.8</v>
+      </c>
+      <c r="G2">
+        <v>11.295</v>
+      </c>
+      <c r="I2">
+        <v>11.656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>11.265</v>
+      </c>
+      <c r="E3">
+        <v>10.355</v>
+      </c>
+      <c r="F3">
+        <v>10.575</v>
+      </c>
+      <c r="G3">
+        <v>11.02</v>
+      </c>
+      <c r="I3">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>11.74</v>
+      </c>
+      <c r="E4">
+        <v>10.545</v>
+      </c>
+      <c r="F4">
+        <v>10.37</v>
+      </c>
+      <c r="G4">
+        <v>10.625</v>
+      </c>
+      <c r="I4">
+        <v>10.794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>13.545</v>
+      </c>
+      <c r="E5">
+        <v>12.12</v>
+      </c>
+      <c r="F5">
+        <v>11.73</v>
+      </c>
+      <c r="G5">
+        <v>11.56</v>
+      </c>
+      <c r="I5">
+        <v>11.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>3.207</v>
+      </c>
+      <c r="F2">
+        <v>3.153</v>
+      </c>
+      <c r="G2">
+        <v>3.195</v>
+      </c>
+      <c r="H2">
+        <v>3.313</v>
+      </c>
+      <c r="I2">
+        <v>3.563</v>
+      </c>
+      <c r="J2">
+        <v>3.967</v>
+      </c>
+      <c r="L2">
+        <v>4.065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>3.041</v>
+      </c>
+      <c r="F3">
+        <v>2.978</v>
+      </c>
+      <c r="G3">
+        <v>3.018</v>
+      </c>
+      <c r="H3">
+        <v>3.146</v>
+      </c>
+      <c r="I3">
+        <v>3.34</v>
+      </c>
+      <c r="J3">
+        <v>3.718</v>
+      </c>
+      <c r="L3">
+        <v>3.767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>3.082</v>
+      </c>
+      <c r="F4">
+        <v>2.989</v>
+      </c>
+      <c r="G4">
+        <v>3.015</v>
+      </c>
+      <c r="H4">
+        <v>3.055</v>
+      </c>
+      <c r="I4">
+        <v>3.229</v>
+      </c>
+      <c r="J4">
+        <v>3.585</v>
+      </c>
+      <c r="L4">
+        <v>3.562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>2.052</v>
+      </c>
+      <c r="F5">
+        <v>2.223</v>
+      </c>
+      <c r="G5">
+        <v>2.646</v>
+      </c>
+      <c r="H5">
+        <v>2.821</v>
+      </c>
+      <c r="I5">
+        <v>3.316</v>
+      </c>
+      <c r="J5">
+        <v>3.5</v>
+      </c>
+      <c r="L5">
+        <v>3.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>5.397</v>
+      </c>
+      <c r="C2">
+        <v>5.387</v>
+      </c>
+      <c r="D2">
+        <v>4.975</v>
+      </c>
+      <c r="E2">
+        <v>4.804</v>
+      </c>
+      <c r="F2">
+        <v>4.517</v>
+      </c>
+      <c r="G2">
+        <v>4.398</v>
+      </c>
+      <c r="H2">
+        <v>4.196</v>
+      </c>
+      <c r="I2">
+        <v>4.33</v>
+      </c>
+      <c r="J2">
+        <v>4.647</v>
+      </c>
+      <c r="K2">
+        <v>4.748</v>
+      </c>
+      <c r="L2">
+        <v>4.807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>5.526</v>
+      </c>
+      <c r="C3">
+        <v>5.588</v>
+      </c>
+      <c r="D3">
+        <v>5.043</v>
+      </c>
+      <c r="E3">
+        <v>5.075</v>
+      </c>
+      <c r="F3">
+        <v>4.777</v>
+      </c>
+      <c r="G3">
+        <v>4.66</v>
+      </c>
+      <c r="H3">
+        <v>4.346</v>
+      </c>
+      <c r="I3">
+        <v>4.424</v>
+      </c>
+      <c r="J3">
+        <v>4.658</v>
+      </c>
+      <c r="K3">
+        <v>4.714</v>
+      </c>
+      <c r="L3">
+        <v>4.699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>5.405</v>
+      </c>
+      <c r="C4">
+        <v>5.809</v>
+      </c>
+      <c r="D4">
+        <v>5.288</v>
+      </c>
+      <c r="E4">
+        <v>5.197</v>
+      </c>
+      <c r="F4">
+        <v>4.909</v>
+      </c>
+      <c r="G4">
+        <v>4.589</v>
+      </c>
+      <c r="H4">
+        <v>4.441</v>
+      </c>
+      <c r="I4">
+        <v>4.447</v>
+      </c>
+      <c r="J4">
+        <v>4.628</v>
+      </c>
+      <c r="K4">
+        <v>4.615</v>
+      </c>
+      <c r="L4">
+        <v>4.558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>3.02</v>
+      </c>
+      <c r="C5">
+        <v>4.151</v>
+      </c>
+      <c r="D5">
+        <v>3.856</v>
+      </c>
+      <c r="E5">
+        <v>4.064</v>
+      </c>
+      <c r="F5">
+        <v>4.308</v>
+      </c>
+      <c r="G5">
+        <v>4.425</v>
+      </c>
+      <c r="H5">
+        <v>4.405</v>
+      </c>
+      <c r="I5">
+        <v>4.238</v>
+      </c>
+      <c r="J5">
+        <v>4.539</v>
+      </c>
+      <c r="K5">
+        <v>4.586</v>
+      </c>
+      <c r="L5">
+        <v>4.407</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>-0.271</v>
+      </c>
+      <c r="C2">
+        <v>-0.274</v>
+      </c>
+      <c r="D2">
+        <v>-0.052</v>
+      </c>
+      <c r="E2">
+        <v>0.025</v>
+      </c>
+      <c r="F2">
+        <v>0.107</v>
+      </c>
+      <c r="G2">
+        <v>0.29</v>
+      </c>
+      <c r="H2">
+        <v>0.518</v>
+      </c>
+      <c r="I2">
+        <v>0.731</v>
+      </c>
+      <c r="J2">
+        <v>1.152</v>
+      </c>
+      <c r="K2">
+        <v>1.419</v>
+      </c>
+      <c r="L2">
+        <v>1.628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>-0.147</v>
+      </c>
+      <c r="C3">
+        <v>-0.159</v>
+      </c>
+      <c r="D3">
+        <v>-0.092</v>
+      </c>
+      <c r="E3">
+        <v>0.007</v>
+      </c>
+      <c r="F3">
+        <v>0.051</v>
+      </c>
+      <c r="G3">
+        <v>0.217</v>
+      </c>
+      <c r="H3">
+        <v>0.4</v>
+      </c>
+      <c r="I3">
+        <v>0.647</v>
+      </c>
+      <c r="J3">
+        <v>1.089</v>
+      </c>
+      <c r="K3">
+        <v>1.397</v>
+      </c>
+      <c r="L3">
+        <v>1.666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>-0.137</v>
+      </c>
+      <c r="C4">
+        <v>-0.195</v>
+      </c>
+      <c r="D4">
+        <v>-0.129</v>
+      </c>
+      <c r="E4">
+        <v>-0.036</v>
+      </c>
+      <c r="F4">
+        <v>-0.019</v>
+      </c>
+      <c r="G4">
+        <v>0.13</v>
+      </c>
+      <c r="H4">
+        <v>0.33</v>
+      </c>
+      <c r="I4">
+        <v>0.48</v>
+      </c>
+      <c r="J4">
+        <v>0.895</v>
+      </c>
+      <c r="K4">
+        <v>1.125</v>
+      </c>
+      <c r="L4">
+        <v>1.391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>-0.274</v>
+      </c>
+      <c r="C5">
+        <v>-0.23</v>
+      </c>
+      <c r="D5">
+        <v>-0.121</v>
+      </c>
+      <c r="E5">
+        <v>-0.066</v>
+      </c>
+      <c r="F5">
+        <v>-0.044</v>
+      </c>
+      <c r="G5">
+        <v>0.05</v>
+      </c>
+      <c r="H5">
+        <v>0.199</v>
+      </c>
+      <c r="I5">
+        <v>0.25</v>
+      </c>
+      <c r="J5">
+        <v>0.714</v>
+      </c>
+      <c r="K5">
+        <v>0.973</v>
+      </c>
+      <c r="L5">
+        <v>1.363</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -484,34 +484,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.212</v>
+        <v>5.207</v>
       </c>
       <c r="C2">
-        <v>5.289</v>
+        <v>5.283</v>
       </c>
       <c r="D2">
-        <v>5.346</v>
+        <v>5.336</v>
       </c>
       <c r="E2">
-        <v>4.991</v>
+        <v>4.988</v>
       </c>
       <c r="F2">
-        <v>4.736</v>
+        <v>4.739</v>
       </c>
       <c r="G2">
-        <v>4.324</v>
+        <v>4.321</v>
       </c>
       <c r="H2">
-        <v>4.168</v>
+        <v>4.161</v>
       </c>
       <c r="I2">
-        <v>4.065</v>
+        <v>4.056</v>
       </c>
       <c r="K2">
-        <v>4.001</v>
+        <v>4.01</v>
       </c>
       <c r="L2">
-        <v>3.826</v>
+        <v>3.836</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -678,28 +678,28 @@
         <v>5.484</v>
       </c>
       <c r="C2">
-        <v>5.558</v>
+        <v>5.556</v>
       </c>
       <c r="D2">
-        <v>5.473</v>
+        <v>5.47</v>
       </c>
       <c r="E2">
-        <v>5.142</v>
+        <v>5.134</v>
       </c>
       <c r="F2">
-        <v>4.85</v>
+        <v>4.836</v>
       </c>
       <c r="G2">
-        <v>4.623</v>
+        <v>4.62</v>
       </c>
       <c r="H2">
-        <v>4.609</v>
+        <v>4.613</v>
       </c>
       <c r="I2">
         <v>4.55</v>
       </c>
       <c r="L2">
-        <v>4.675</v>
+        <v>4.687</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -854,22 +854,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>15.98</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>12.77</v>
+        <v>12.82</v>
       </c>
       <c r="F2">
-        <v>11.985</v>
+        <v>12.02</v>
       </c>
       <c r="G2">
-        <v>12.41</v>
+        <v>12.38</v>
       </c>
       <c r="I2">
-        <v>12.67</v>
+        <v>12.71</v>
       </c>
       <c r="J2">
-        <v>12</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -997,25 +997,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.186</v>
+        <v>4.184</v>
       </c>
       <c r="E2">
-        <v>4.081</v>
+        <v>4.078</v>
       </c>
       <c r="F2">
-        <v>4.064</v>
+        <v>4.062</v>
       </c>
       <c r="G2">
-        <v>4.12</v>
+        <v>4.119</v>
       </c>
       <c r="H2">
-        <v>4.285</v>
+        <v>4.28</v>
       </c>
       <c r="I2">
-        <v>4.414</v>
+        <v>4.424</v>
       </c>
       <c r="J2">
-        <v>4.656</v>
+        <v>4.651</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1152,31 +1152,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.842</v>
+        <v>3.877</v>
       </c>
       <c r="C2">
-        <v>3.892</v>
+        <v>3.939</v>
       </c>
       <c r="D2">
-        <v>3.943</v>
+        <v>3.966</v>
       </c>
       <c r="E2">
-        <v>4.023</v>
+        <v>4.022</v>
       </c>
       <c r="F2">
-        <v>3.983</v>
+        <v>3.97</v>
       </c>
       <c r="G2">
-        <v>4.179</v>
+        <v>4.161</v>
       </c>
       <c r="H2">
-        <v>4.449</v>
+        <v>4.431</v>
       </c>
       <c r="I2">
         <v>4.737</v>
       </c>
       <c r="J2">
-        <v>4.985</v>
+        <v>4.977</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1331,7 +1331,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="C2">
         <v>1.71</v>
@@ -1343,7 +1343,7 @@
         <v>1.22</v>
       </c>
       <c r="F2">
-        <v>1.138</v>
+        <v>1.144</v>
       </c>
       <c r="G2">
         <v>1.044</v>
@@ -1713,7 +1713,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8.85</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G2">
         <v>9.4</v>
@@ -1853,16 +1853,16 @@
         <v>7.77</v>
       </c>
       <c r="E2">
-        <v>26.81</v>
+        <v>28.685</v>
       </c>
       <c r="F2">
         <v>28.705</v>
       </c>
       <c r="G2">
-        <v>26.55</v>
+        <v>28.27</v>
       </c>
       <c r="I2">
-        <v>25.42</v>
+        <v>27.08</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2190,7 +2190,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.881</v>
+        <v>3.832</v>
       </c>
       <c r="C2">
         <v>3.814</v>
@@ -2199,16 +2199,19 @@
         <v>3.812</v>
       </c>
       <c r="E2">
-        <v>3.424</v>
+        <v>3.429</v>
+      </c>
+      <c r="F2">
+        <v>3.233</v>
       </c>
       <c r="G2">
-        <v>3.132</v>
+        <v>3.138</v>
       </c>
       <c r="H2">
-        <v>3.148</v>
+        <v>3.1565</v>
       </c>
       <c r="I2">
-        <v>3.361</v>
+        <v>3.365</v>
       </c>
       <c r="J2">
         <v>3.626</v>
@@ -2236,6 +2239,9 @@
       <c r="E3">
         <v>3.301</v>
       </c>
+      <c r="F3">
+        <v>3.085</v>
+      </c>
       <c r="G3">
         <v>2.968</v>
       </c>
@@ -2271,6 +2277,9 @@
       <c r="E4">
         <v>3.38</v>
       </c>
+      <c r="F4">
+        <v>3.148</v>
+      </c>
       <c r="G4">
         <v>2.97</v>
       </c>
@@ -2305,6 +2314,9 @@
       </c>
       <c r="E5">
         <v>1.844</v>
+      </c>
+      <c r="F5">
+        <v>2.076</v>
       </c>
       <c r="G5">
         <v>2.285</v>
@@ -2387,31 +2399,31 @@
         <v>3.77</v>
       </c>
       <c r="D2">
-        <v>3.648</v>
+        <v>3.662</v>
       </c>
       <c r="E2">
-        <v>3.216</v>
+        <v>3.22</v>
       </c>
       <c r="F2">
-        <v>3.054</v>
+        <v>3.068</v>
       </c>
       <c r="G2">
-        <v>2.766</v>
+        <v>2.761</v>
       </c>
       <c r="H2">
-        <v>2.703</v>
+        <v>2.695</v>
       </c>
       <c r="I2">
-        <v>2.8075</v>
+        <v>2.799</v>
       </c>
       <c r="J2">
-        <v>2.977</v>
+        <v>2.971</v>
       </c>
       <c r="K2">
-        <v>3.016</v>
+        <v>3.014</v>
       </c>
       <c r="L2">
-        <v>3.003</v>
+        <v>2.996</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2858,7 +2870,7 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>3.207</v>
+        <v>3.217</v>
       </c>
       <c r="F2">
         <v>3.153</v>
@@ -3019,31 +3031,31 @@
         <v>5.387</v>
       </c>
       <c r="D2">
-        <v>4.975</v>
+        <v>5.0045</v>
       </c>
       <c r="E2">
         <v>4.804</v>
       </c>
       <c r="F2">
-        <v>4.517</v>
+        <v>4.551</v>
       </c>
       <c r="G2">
-        <v>4.398</v>
+        <v>4.434</v>
       </c>
       <c r="H2">
-        <v>4.196</v>
+        <v>4.226</v>
       </c>
       <c r="I2">
-        <v>4.33</v>
+        <v>4.3625</v>
       </c>
       <c r="J2">
-        <v>4.647</v>
+        <v>4.692</v>
       </c>
       <c r="K2">
-        <v>4.748</v>
+        <v>4.793</v>
       </c>
       <c r="L2">
-        <v>4.807</v>
+        <v>4.854</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3222,31 +3234,31 @@
         <v>-0.274</v>
       </c>
       <c r="D2">
-        <v>-0.052</v>
+        <v>-0.049</v>
       </c>
       <c r="E2">
-        <v>0.025</v>
+        <v>0.023</v>
       </c>
       <c r="F2">
-        <v>0.107</v>
+        <v>0.108</v>
       </c>
       <c r="G2">
-        <v>0.29</v>
+        <v>0.288</v>
       </c>
       <c r="H2">
-        <v>0.518</v>
+        <v>0.511</v>
       </c>
       <c r="I2">
-        <v>0.731</v>
+        <v>0.725</v>
       </c>
       <c r="J2">
-        <v>1.152</v>
+        <v>1.151</v>
       </c>
       <c r="K2">
         <v>1.419</v>
       </c>
       <c r="L2">
-        <v>1.628</v>
+        <v>1.623</v>
       </c>
     </row>
     <row r="3" spans="1:12">

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -484,34 +484,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.207</v>
+        <v>5.13</v>
       </c>
       <c r="C2">
-        <v>5.283</v>
+        <v>5.21</v>
       </c>
       <c r="D2">
-        <v>5.336</v>
+        <v>5.3</v>
       </c>
       <c r="E2">
-        <v>4.988</v>
+        <v>4.875</v>
       </c>
       <c r="F2">
-        <v>4.739</v>
+        <v>4.645</v>
       </c>
       <c r="G2">
-        <v>4.321</v>
+        <v>4.251</v>
       </c>
       <c r="H2">
-        <v>4.161</v>
+        <v>4.112</v>
       </c>
       <c r="I2">
-        <v>4.056</v>
+        <v>4.032</v>
       </c>
       <c r="K2">
-        <v>4.01</v>
+        <v>3.994</v>
       </c>
       <c r="L2">
-        <v>3.836</v>
+        <v>3.818</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -675,31 +675,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.484</v>
+        <v>5.477</v>
       </c>
       <c r="C2">
-        <v>5.556</v>
+        <v>5.552</v>
       </c>
       <c r="D2">
         <v>5.47</v>
       </c>
       <c r="E2">
-        <v>5.134</v>
+        <v>5.052</v>
       </c>
       <c r="F2">
-        <v>4.836</v>
+        <v>4.808</v>
       </c>
       <c r="G2">
-        <v>4.62</v>
+        <v>4.616</v>
       </c>
       <c r="H2">
-        <v>4.613</v>
+        <v>4.621</v>
       </c>
       <c r="I2">
-        <v>4.55</v>
+        <v>4.579</v>
       </c>
       <c r="L2">
-        <v>4.687</v>
+        <v>4.709</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -854,22 +854,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>16.45</v>
       </c>
       <c r="E2">
-        <v>12.82</v>
+        <v>13.15</v>
       </c>
       <c r="F2">
-        <v>12.02</v>
+        <v>12.3</v>
       </c>
       <c r="G2">
-        <v>12.38</v>
+        <v>12.75</v>
       </c>
       <c r="I2">
-        <v>12.71</v>
+        <v>12.93</v>
       </c>
       <c r="J2">
-        <v>12.02</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -997,25 +997,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.184</v>
+        <v>4.22</v>
       </c>
       <c r="E2">
-        <v>4.078</v>
+        <v>4.074</v>
       </c>
       <c r="F2">
-        <v>4.062</v>
+        <v>4.075</v>
       </c>
       <c r="G2">
-        <v>4.119</v>
+        <v>4.139</v>
       </c>
       <c r="H2">
-        <v>4.28</v>
+        <v>4.331</v>
       </c>
       <c r="I2">
-        <v>4.424</v>
+        <v>4.477</v>
       </c>
       <c r="J2">
-        <v>4.651</v>
+        <v>4.719</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1152,31 +1152,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.877</v>
+        <v>3.882</v>
       </c>
       <c r="C2">
-        <v>3.939</v>
+        <v>3.901</v>
       </c>
       <c r="D2">
-        <v>3.966</v>
+        <v>4.015</v>
       </c>
       <c r="E2">
-        <v>4.022</v>
+        <v>4.019</v>
       </c>
       <c r="F2">
-        <v>3.97</v>
+        <v>3.983</v>
       </c>
       <c r="G2">
-        <v>4.161</v>
+        <v>4.201</v>
       </c>
       <c r="H2">
-        <v>4.431</v>
+        <v>4.486</v>
       </c>
       <c r="I2">
-        <v>4.737</v>
+        <v>4.777</v>
       </c>
       <c r="J2">
-        <v>4.977</v>
+        <v>5.028</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1331,37 +1331,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1.55</v>
-      </c>
-      <c r="C2">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="D2">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="E2">
-        <v>1.22</v>
+        <v>1.246</v>
       </c>
       <c r="F2">
-        <v>1.144</v>
+        <v>1.249</v>
       </c>
       <c r="G2">
-        <v>1.044</v>
+        <v>1.064</v>
       </c>
       <c r="H2">
-        <v>1.043</v>
+        <v>1.033</v>
       </c>
       <c r="I2">
-        <v>1.072</v>
+        <v>1.093</v>
       </c>
       <c r="J2">
-        <v>1.097</v>
+        <v>1.148</v>
       </c>
       <c r="K2">
-        <v>1.132</v>
+        <v>1.159</v>
       </c>
       <c r="L2">
-        <v>1.082</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1371,9 +1368,6 @@
       <c r="B3">
         <v>1.68</v>
       </c>
-      <c r="C3">
-        <v>1.71</v>
-      </c>
       <c r="D3">
         <v>1.86</v>
       </c>
@@ -1409,9 +1403,6 @@
       <c r="B4">
         <v>1.65</v>
       </c>
-      <c r="C4">
-        <v>1.7</v>
-      </c>
       <c r="D4">
         <v>1.97</v>
       </c>
@@ -1446,9 +1437,6 @@
       </c>
       <c r="B5">
         <v>0.35</v>
-      </c>
-      <c r="C5">
-        <v>0.68</v>
       </c>
       <c r="D5">
         <v>1.13</v>
@@ -1534,31 +1522,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>2.205</v>
+        <v>2.164</v>
       </c>
       <c r="E2">
-        <v>2.282</v>
+        <v>2.245</v>
       </c>
       <c r="F2">
-        <v>2.352</v>
+        <v>2.243</v>
       </c>
       <c r="G2">
-        <v>2.531</v>
+        <v>2.523</v>
       </c>
       <c r="H2">
-        <v>2.69</v>
+        <v>2.705</v>
       </c>
       <c r="I2">
-        <v>2.73</v>
+        <v>2.715</v>
       </c>
       <c r="J2">
-        <v>2.853</v>
+        <v>2.829</v>
       </c>
       <c r="K2">
-        <v>3.082</v>
+        <v>3.072</v>
       </c>
       <c r="L2">
-        <v>3.021</v>
+        <v>3.008</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1572,7 +1560,7 @@
         <v>2.246</v>
       </c>
       <c r="F3">
-        <v>2.349</v>
+        <v>2.243</v>
       </c>
       <c r="G3">
         <v>2.503</v>
@@ -1603,9 +1591,6 @@
       <c r="E4">
         <v>2.11</v>
       </c>
-      <c r="F4">
-        <v>2.244</v>
-      </c>
       <c r="G4">
         <v>2.436</v>
       </c>
@@ -1634,9 +1619,6 @@
       </c>
       <c r="E5">
         <v>2.104</v>
-      </c>
-      <c r="F5">
-        <v>2.316</v>
       </c>
       <c r="G5">
         <v>2.566</v>
@@ -1713,19 +1695,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>9.4</v>
+        <v>9.41</v>
       </c>
       <c r="I2">
-        <v>10.8</v>
+        <v>10.81</v>
       </c>
       <c r="K2">
-        <v>12.97</v>
+        <v>12.88</v>
       </c>
       <c r="L2">
-        <v>12.96</v>
+        <v>12.87</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1844,25 +1826,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>21.956</v>
+        <v>21.087</v>
       </c>
       <c r="C2">
-        <v>21.65</v>
+        <v>21.925</v>
       </c>
       <c r="D2">
         <v>7.77</v>
       </c>
       <c r="E2">
-        <v>28.685</v>
+        <v>29.785</v>
       </c>
       <c r="F2">
-        <v>28.705</v>
+        <v>29.12</v>
       </c>
       <c r="G2">
-        <v>28.27</v>
+        <v>28.625</v>
       </c>
       <c r="I2">
-        <v>27.08</v>
+        <v>27.18</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1999,34 +1981,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.86</v>
+        <v>6.87</v>
       </c>
       <c r="C2">
-        <v>7.05</v>
+        <v>7.08</v>
       </c>
       <c r="D2">
-        <v>7.011</v>
+        <v>6.975</v>
       </c>
       <c r="E2">
-        <v>7.214</v>
+        <v>7.256</v>
       </c>
       <c r="F2">
-        <v>7.214</v>
+        <v>7.262</v>
       </c>
       <c r="G2">
-        <v>7.171</v>
+        <v>7.233</v>
       </c>
       <c r="H2">
-        <v>7.18</v>
+        <v>7.247</v>
       </c>
       <c r="I2">
-        <v>7.146</v>
+        <v>7.21</v>
       </c>
       <c r="J2">
-        <v>7.282</v>
+        <v>7.335</v>
       </c>
       <c r="L2">
-        <v>7.343</v>
+        <v>7.412</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2190,37 +2172,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.832</v>
+        <v>3.836</v>
       </c>
       <c r="C2">
-        <v>3.814</v>
+        <v>3.802</v>
       </c>
       <c r="D2">
-        <v>3.812</v>
+        <v>3.8</v>
       </c>
       <c r="E2">
-        <v>3.429</v>
+        <v>3.412</v>
       </c>
       <c r="F2">
-        <v>3.233</v>
+        <v>3.221</v>
       </c>
       <c r="G2">
-        <v>3.138</v>
+        <v>3.161</v>
       </c>
       <c r="H2">
-        <v>3.1565</v>
+        <v>3.192</v>
       </c>
       <c r="I2">
-        <v>3.365</v>
+        <v>3.41</v>
       </c>
       <c r="J2">
-        <v>3.626</v>
+        <v>3.684</v>
       </c>
       <c r="K2">
-        <v>3.779</v>
+        <v>3.836</v>
       </c>
       <c r="L2">
-        <v>3.879</v>
+        <v>3.931</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2393,37 +2375,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.687</v>
+        <v>3.665</v>
       </c>
       <c r="C2">
-        <v>3.77</v>
+        <v>3.75</v>
       </c>
       <c r="D2">
-        <v>3.662</v>
+        <v>3.683</v>
       </c>
       <c r="E2">
-        <v>3.22</v>
+        <v>3.206</v>
       </c>
       <c r="F2">
-        <v>3.068</v>
+        <v>3.05</v>
       </c>
       <c r="G2">
-        <v>2.761</v>
+        <v>2.774</v>
       </c>
       <c r="H2">
-        <v>2.695</v>
+        <v>2.713</v>
       </c>
       <c r="I2">
-        <v>2.799</v>
+        <v>2.838</v>
       </c>
       <c r="J2">
-        <v>2.971</v>
+        <v>3.013</v>
       </c>
       <c r="K2">
-        <v>3.014</v>
+        <v>3.054</v>
       </c>
       <c r="L2">
-        <v>2.996</v>
+        <v>3.035</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2596,22 +2578,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>5.057</v>
+        <v>4.992</v>
       </c>
       <c r="E2">
-        <v>5.077</v>
+        <v>5.026</v>
       </c>
       <c r="F2">
-        <v>5.094</v>
+        <v>5.079</v>
       </c>
       <c r="G2">
-        <v>5.258</v>
+        <v>5.255</v>
       </c>
       <c r="H2">
-        <v>5.513</v>
+        <v>5.552</v>
       </c>
       <c r="I2">
-        <v>5.827</v>
+        <v>5.916</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2739,19 +2721,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>10.769</v>
+        <v>11.003</v>
       </c>
       <c r="E2">
-        <v>10.108</v>
+        <v>10.337</v>
       </c>
       <c r="F2">
-        <v>10.8</v>
+        <v>10.952</v>
       </c>
       <c r="G2">
-        <v>11.295</v>
+        <v>11.38</v>
       </c>
       <c r="I2">
-        <v>11.656</v>
+        <v>11.711</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2870,25 +2852,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>3.217</v>
+        <v>3.234</v>
       </c>
       <c r="F2">
-        <v>3.153</v>
+        <v>3.134</v>
       </c>
       <c r="G2">
-        <v>3.195</v>
+        <v>3.214</v>
       </c>
       <c r="H2">
-        <v>3.313</v>
+        <v>3.343</v>
       </c>
       <c r="I2">
-        <v>3.563</v>
+        <v>3.593</v>
       </c>
       <c r="J2">
-        <v>3.967</v>
+        <v>3.975</v>
       </c>
       <c r="L2">
-        <v>4.065</v>
+        <v>4.109</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3025,37 +3007,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.397</v>
+        <v>5.389</v>
       </c>
       <c r="C2">
-        <v>5.387</v>
+        <v>5.42</v>
       </c>
       <c r="D2">
-        <v>5.0045</v>
+        <v>5.1245</v>
       </c>
       <c r="E2">
-        <v>4.804</v>
+        <v>4.9665</v>
       </c>
       <c r="F2">
-        <v>4.551</v>
+        <v>4.675</v>
       </c>
       <c r="G2">
-        <v>4.434</v>
+        <v>4.573</v>
       </c>
       <c r="H2">
-        <v>4.226</v>
+        <v>4.3715</v>
       </c>
       <c r="I2">
-        <v>4.3625</v>
+        <v>4.5015</v>
       </c>
       <c r="J2">
-        <v>4.692</v>
+        <v>4.815</v>
       </c>
       <c r="K2">
-        <v>4.793</v>
+        <v>4.911</v>
       </c>
       <c r="L2">
-        <v>4.854</v>
+        <v>4.973</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3228,37 +3210,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.271</v>
+        <v>-0.231</v>
       </c>
       <c r="C2">
-        <v>-0.274</v>
+        <v>-0.152</v>
       </c>
       <c r="D2">
-        <v>-0.049</v>
+        <v>-0.044</v>
       </c>
       <c r="E2">
-        <v>0.023</v>
+        <v>0.045</v>
       </c>
       <c r="F2">
-        <v>0.108</v>
+        <v>0.127</v>
       </c>
       <c r="G2">
-        <v>0.288</v>
+        <v>0.312</v>
       </c>
       <c r="H2">
-        <v>0.511</v>
+        <v>0.544</v>
       </c>
       <c r="I2">
-        <v>0.725</v>
+        <v>0.749</v>
       </c>
       <c r="J2">
-        <v>1.151</v>
+        <v>1.181</v>
       </c>
       <c r="K2">
-        <v>1.419</v>
+        <v>1.446</v>
       </c>
       <c r="L2">
-        <v>1.623</v>
+        <v>1.652</v>
       </c>
     </row>
     <row r="3" spans="1:12">

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -484,34 +484,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.13</v>
+        <v>5.14</v>
       </c>
       <c r="C2">
-        <v>5.21</v>
+        <v>5.24</v>
       </c>
       <c r="D2">
-        <v>5.3</v>
+        <v>5.33</v>
       </c>
       <c r="E2">
-        <v>4.875</v>
+        <v>4.861</v>
       </c>
       <c r="F2">
-        <v>4.645</v>
+        <v>4.712</v>
       </c>
       <c r="G2">
-        <v>4.251</v>
+        <v>4.322</v>
       </c>
       <c r="H2">
-        <v>4.112</v>
+        <v>4.196</v>
       </c>
       <c r="I2">
-        <v>4.032</v>
+        <v>4.155</v>
       </c>
       <c r="K2">
-        <v>3.994</v>
+        <v>4.082</v>
       </c>
       <c r="L2">
-        <v>3.818</v>
+        <v>3.897</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -522,31 +522,31 @@
         <v>5.11</v>
       </c>
       <c r="C3">
-        <v>5.14</v>
+        <v>5.18</v>
       </c>
       <c r="D3">
-        <v>5.18</v>
+        <v>5.24</v>
       </c>
       <c r="E3">
-        <v>4.677</v>
+        <v>4.732</v>
       </c>
       <c r="F3">
-        <v>4.419</v>
+        <v>4.475</v>
       </c>
       <c r="G3">
-        <v>3.971</v>
+        <v>4.021</v>
       </c>
       <c r="H3">
-        <v>3.807</v>
+        <v>3.858</v>
       </c>
       <c r="I3">
-        <v>3.678</v>
+        <v>3.743</v>
       </c>
       <c r="K3">
-        <v>3.634</v>
+        <v>3.711</v>
       </c>
       <c r="L3">
-        <v>3.483</v>
+        <v>3.567</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -554,34 +554,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>5.04</v>
       </c>
       <c r="C4">
-        <v>5.1</v>
+        <v>5.17</v>
       </c>
       <c r="D4">
-        <v>5.18</v>
+        <v>5.22</v>
       </c>
       <c r="E4">
-        <v>4.656</v>
+        <v>4.576</v>
       </c>
       <c r="F4">
-        <v>4.302</v>
+        <v>4.341</v>
       </c>
       <c r="G4">
-        <v>3.769</v>
+        <v>3.821</v>
       </c>
       <c r="H4">
-        <v>3.534</v>
+        <v>3.563</v>
       </c>
       <c r="I4">
-        <v>3.367</v>
+        <v>3.412</v>
       </c>
       <c r="K4">
-        <v>3.375</v>
+        <v>3.402</v>
       </c>
       <c r="L4">
-        <v>3.232</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -589,34 +589,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.66</v>
+        <v>3.86</v>
       </c>
       <c r="C5">
-        <v>3.92</v>
+        <v>4.11</v>
       </c>
       <c r="D5">
-        <v>4.2</v>
+        <v>4.39</v>
       </c>
       <c r="E5">
-        <v>4.054</v>
+        <v>4.176</v>
       </c>
       <c r="F5">
-        <v>3.992</v>
+        <v>4.135</v>
       </c>
       <c r="G5">
-        <v>3.561</v>
+        <v>3.684</v>
       </c>
       <c r="H5">
-        <v>3.461</v>
+        <v>3.548</v>
       </c>
       <c r="I5">
-        <v>3.392</v>
+        <v>3.49</v>
       </c>
       <c r="K5">
-        <v>3.411</v>
+        <v>3.552</v>
       </c>
       <c r="L5">
-        <v>3.254</v>
+        <v>3.419</v>
       </c>
     </row>
   </sheetData>
@@ -675,31 +675,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.477</v>
+        <v>5.515</v>
       </c>
       <c r="C2">
-        <v>5.552</v>
+        <v>5.586</v>
       </c>
       <c r="D2">
-        <v>5.47</v>
+        <v>5.438</v>
       </c>
       <c r="E2">
-        <v>5.052</v>
+        <v>5.081</v>
       </c>
       <c r="F2">
-        <v>4.808</v>
+        <v>4.881</v>
       </c>
       <c r="G2">
-        <v>4.616</v>
+        <v>4.751</v>
       </c>
       <c r="H2">
-        <v>4.621</v>
+        <v>4.8</v>
       </c>
       <c r="I2">
-        <v>4.579</v>
+        <v>4.795</v>
       </c>
       <c r="L2">
-        <v>4.709</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -707,31 +707,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.471</v>
+        <v>5.466</v>
       </c>
       <c r="C3">
-        <v>5.531</v>
+        <v>5.525</v>
       </c>
       <c r="D3">
-        <v>5.411</v>
+        <v>5.432</v>
       </c>
       <c r="E3">
-        <v>4.989</v>
+        <v>5.037</v>
       </c>
       <c r="F3">
-        <v>4.697</v>
+        <v>4.724</v>
       </c>
       <c r="G3">
-        <v>4.399</v>
+        <v>4.465</v>
       </c>
       <c r="H3">
-        <v>4.354</v>
+        <v>4.42</v>
       </c>
       <c r="I3">
-        <v>4.26</v>
+        <v>4.336</v>
       </c>
       <c r="L3">
-        <v>4.334</v>
+        <v>4.421</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -739,31 +739,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.411</v>
+        <v>5.424</v>
       </c>
       <c r="C4">
-        <v>5.48</v>
+        <v>5.493</v>
       </c>
       <c r="D4">
-        <v>5.329</v>
+        <v>5.35</v>
       </c>
       <c r="E4">
-        <v>4.768</v>
+        <v>4.846</v>
       </c>
       <c r="F4">
-        <v>4.376</v>
+        <v>4.446</v>
       </c>
       <c r="G4">
-        <v>4.045</v>
+        <v>4.095</v>
       </c>
       <c r="H4">
-        <v>3.939</v>
+        <v>3.971</v>
       </c>
       <c r="I4">
-        <v>3.83</v>
+        <v>3.837</v>
       </c>
       <c r="L4">
-        <v>3.926</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -771,31 +771,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.378</v>
+        <v>3.723</v>
       </c>
       <c r="C5">
-        <v>4.092</v>
+        <v>4.312</v>
       </c>
       <c r="D5">
-        <v>4.181</v>
+        <v>4.484</v>
       </c>
       <c r="E5">
-        <v>4.312</v>
+        <v>4.496</v>
       </c>
       <c r="F5">
-        <v>4.349</v>
+        <v>4.501</v>
       </c>
       <c r="G5">
-        <v>4.149</v>
+        <v>4.269</v>
       </c>
       <c r="H5">
-        <v>4.037</v>
+        <v>4.173</v>
       </c>
       <c r="I5">
-        <v>3.888</v>
+        <v>4.023</v>
       </c>
       <c r="L5">
-        <v>3.848</v>
+        <v>3.994</v>
       </c>
     </row>
   </sheetData>
@@ -854,22 +854,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>16.45</v>
+        <v>16.88</v>
       </c>
       <c r="E2">
-        <v>13.15</v>
+        <v>13.61</v>
       </c>
       <c r="F2">
-        <v>12.3</v>
+        <v>12.45</v>
       </c>
       <c r="G2">
-        <v>12.75</v>
+        <v>13.06</v>
       </c>
       <c r="I2">
-        <v>12.93</v>
+        <v>12.27</v>
       </c>
       <c r="J2">
-        <v>12.26</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -877,22 +877,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>15.36</v>
+        <v>15.64</v>
       </c>
       <c r="E3">
-        <v>12.55</v>
+        <v>12.56</v>
       </c>
       <c r="F3">
-        <v>13.81</v>
+        <v>13.83</v>
       </c>
       <c r="G3">
-        <v>12.33</v>
+        <v>12.27</v>
       </c>
       <c r="I3">
-        <v>12.6</v>
+        <v>12.49</v>
       </c>
       <c r="J3">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -900,22 +900,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>9.98</v>
+        <v>10.42</v>
       </c>
       <c r="E4">
-        <v>10.33</v>
+        <v>9.26</v>
       </c>
       <c r="F4">
-        <v>10.2</v>
+        <v>10.74</v>
       </c>
       <c r="G4">
-        <v>10.92</v>
+        <v>11.19</v>
       </c>
       <c r="I4">
-        <v>11.4</v>
+        <v>11.44</v>
       </c>
       <c r="J4">
-        <v>11.66</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -923,22 +923,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>9.23</v>
+        <v>9.51</v>
       </c>
       <c r="E5">
-        <v>10.66</v>
+        <v>10.68</v>
       </c>
       <c r="F5">
-        <v>9.24</v>
+        <v>9.16</v>
       </c>
       <c r="G5">
-        <v>10.39</v>
+        <v>9.4</v>
       </c>
       <c r="I5">
-        <v>9.91</v>
+        <v>9.84</v>
       </c>
       <c r="J5">
-        <v>10.46</v>
+        <v>10.33</v>
       </c>
     </row>
   </sheetData>
@@ -997,25 +997,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.22</v>
+        <v>4.188</v>
       </c>
       <c r="E2">
-        <v>4.074</v>
+        <v>4.044</v>
       </c>
       <c r="F2">
-        <v>4.075</v>
+        <v>4.022</v>
       </c>
       <c r="G2">
-        <v>4.139</v>
+        <v>4.143</v>
       </c>
       <c r="H2">
-        <v>4.331</v>
+        <v>4.378</v>
       </c>
       <c r="I2">
-        <v>4.477</v>
+        <v>4.576</v>
       </c>
       <c r="J2">
-        <v>4.719</v>
+        <v>4.838</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.038</v>
+        <v>4.039</v>
       </c>
       <c r="E3">
-        <v>3.824</v>
+        <v>3.845</v>
       </c>
       <c r="F3">
-        <v>3.795</v>
+        <v>3.822</v>
       </c>
       <c r="G3">
-        <v>3.836</v>
+        <v>3.855</v>
       </c>
       <c r="H3">
-        <v>3.986</v>
+        <v>3.989</v>
       </c>
       <c r="I3">
-        <v>4.096</v>
+        <v>4.098</v>
       </c>
       <c r="J3">
-        <v>4.354</v>
+        <v>4.343</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1049,25 +1049,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.202</v>
+        <v>4.22</v>
       </c>
       <c r="E4">
-        <v>4.039</v>
+        <v>4.128</v>
       </c>
       <c r="F4">
-        <v>3.894</v>
+        <v>3.995</v>
       </c>
       <c r="G4">
-        <v>3.838</v>
+        <v>3.907</v>
       </c>
       <c r="H4">
-        <v>3.903</v>
+        <v>3.964</v>
       </c>
       <c r="I4">
-        <v>3.965</v>
+        <v>4.021</v>
       </c>
       <c r="J4">
-        <v>4.105</v>
+        <v>4.156</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1075,25 +1075,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>2.985</v>
+        <v>3.181</v>
       </c>
       <c r="E5">
-        <v>3.304</v>
+        <v>3.391</v>
       </c>
       <c r="F5">
-        <v>3.435</v>
+        <v>3.544</v>
       </c>
       <c r="G5">
-        <v>3.583</v>
+        <v>3.703</v>
       </c>
       <c r="H5">
-        <v>3.73</v>
+        <v>3.866</v>
       </c>
       <c r="I5">
-        <v>3.852</v>
+        <v>4.002</v>
       </c>
       <c r="J5">
-        <v>4.051</v>
+        <v>4.224</v>
       </c>
     </row>
   </sheetData>
@@ -1152,31 +1152,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.882</v>
+        <v>3.847</v>
       </c>
       <c r="C2">
-        <v>3.901</v>
+        <v>4.014</v>
       </c>
       <c r="D2">
-        <v>4.015</v>
+        <v>3.97</v>
       </c>
       <c r="E2">
-        <v>4.019</v>
+        <v>4.028</v>
       </c>
       <c r="F2">
-        <v>3.983</v>
+        <v>4.024</v>
       </c>
       <c r="G2">
-        <v>4.201</v>
+        <v>4.273</v>
       </c>
       <c r="H2">
-        <v>4.486</v>
+        <v>4.585</v>
       </c>
       <c r="I2">
-        <v>4.777</v>
+        <v>4.91</v>
       </c>
       <c r="J2">
-        <v>5.028</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1184,31 +1184,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.378</v>
+        <v>3.854</v>
       </c>
       <c r="C3">
-        <v>3.756</v>
+        <v>3.909</v>
       </c>
       <c r="D3">
-        <v>3.877</v>
+        <v>3.93</v>
       </c>
       <c r="E3">
-        <v>3.771</v>
+        <v>3.897</v>
       </c>
       <c r="F3">
-        <v>3.685</v>
+        <v>3.826</v>
       </c>
       <c r="G3">
-        <v>3.851</v>
+        <v>3.975</v>
       </c>
       <c r="H3">
-        <v>4.071</v>
+        <v>4.191</v>
       </c>
       <c r="I3">
-        <v>4.339</v>
+        <v>4.461</v>
       </c>
       <c r="J3">
-        <v>4.571</v>
+        <v>4.701</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1216,31 +1216,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.591</v>
+        <v>3.665</v>
       </c>
       <c r="C4">
-        <v>3.625</v>
+        <v>3.589</v>
       </c>
       <c r="D4">
-        <v>3.847</v>
+        <v>3.831</v>
       </c>
       <c r="E4">
-        <v>3.851</v>
+        <v>3.76</v>
       </c>
       <c r="F4">
-        <v>3.721</v>
+        <v>3.629</v>
       </c>
       <c r="G4">
-        <v>3.75</v>
+        <v>3.659</v>
       </c>
       <c r="H4">
-        <v>3.933</v>
+        <v>3.834</v>
       </c>
       <c r="I4">
-        <v>4.173</v>
+        <v>4.069</v>
       </c>
       <c r="J4">
-        <v>4.353</v>
+        <v>4.258</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1248,31 +1248,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.911</v>
+        <v>0.744</v>
       </c>
       <c r="C5">
-        <v>1.774</v>
+        <v>1.777</v>
       </c>
       <c r="D5">
-        <v>2.374</v>
+        <v>2.436</v>
       </c>
       <c r="E5">
-        <v>3.1</v>
+        <v>2.997</v>
       </c>
       <c r="F5">
-        <v>3.517</v>
+        <v>3.416</v>
       </c>
       <c r="G5">
-        <v>3.888</v>
+        <v>3.878</v>
       </c>
       <c r="H5">
-        <v>4.23</v>
+        <v>4.268</v>
       </c>
       <c r="I5">
-        <v>4.7</v>
+        <v>4.803</v>
       </c>
       <c r="J5">
-        <v>4.649</v>
+        <v>4.766</v>
       </c>
     </row>
   </sheetData>
@@ -1331,34 +1331,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1.63</v>
+        <v>1.61</v>
+      </c>
+      <c r="C2">
+        <v>1.65</v>
       </c>
       <c r="D2">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="E2">
-        <v>1.246</v>
+        <v>1.255</v>
       </c>
       <c r="F2">
-        <v>1.249</v>
+        <v>1.187</v>
       </c>
       <c r="G2">
-        <v>1.064</v>
+        <v>1.098</v>
       </c>
       <c r="H2">
-        <v>1.033</v>
+        <v>1.085</v>
       </c>
       <c r="I2">
-        <v>1.093</v>
+        <v>1.181</v>
       </c>
       <c r="J2">
-        <v>1.148</v>
+        <v>1.189</v>
       </c>
       <c r="K2">
-        <v>1.159</v>
+        <v>1.191</v>
       </c>
       <c r="L2">
-        <v>1.125</v>
+        <v>1.171</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1366,34 +1369,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.68</v>
+        <v>1.69</v>
+      </c>
+      <c r="C3">
+        <v>1.72</v>
       </c>
       <c r="D3">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="E3">
-        <v>1.167</v>
+        <v>1.306</v>
       </c>
       <c r="F3">
-        <v>1.114</v>
+        <v>1.227</v>
       </c>
       <c r="G3">
-        <v>1.037</v>
+        <v>1.099</v>
       </c>
       <c r="H3">
-        <v>1.022</v>
+        <v>1.073</v>
       </c>
       <c r="I3">
-        <v>1.036</v>
+        <v>1.072</v>
       </c>
       <c r="J3">
-        <v>1.067</v>
+        <v>1.097</v>
       </c>
       <c r="K3">
-        <v>1.053</v>
+        <v>1.117</v>
       </c>
       <c r="L3">
-        <v>1.031</v>
+        <v>1.076</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1401,34 +1407,37 @@
         <v>14</v>
       </c>
       <c r="B4">
+        <v>1.6</v>
+      </c>
+      <c r="C4">
         <v>1.65</v>
       </c>
       <c r="D4">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="E4">
-        <v>1.172</v>
+        <v>1.174</v>
       </c>
       <c r="F4">
-        <v>1.175</v>
+        <v>1.127</v>
       </c>
       <c r="G4">
-        <v>1.041</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1.023</v>
+        <v>0.982</v>
       </c>
       <c r="I4">
-        <v>1.001</v>
+        <v>0.966</v>
       </c>
       <c r="J4">
-        <v>1.045</v>
+        <v>0.964</v>
       </c>
       <c r="K4">
-        <v>0.977</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="L4">
-        <v>0.979</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1436,34 +1445,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.35</v>
+        <v>0.43</v>
+      </c>
+      <c r="C5">
+        <v>0.65</v>
       </c>
       <c r="D5">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="E5">
-        <v>0.752</v>
+        <v>0.571</v>
       </c>
       <c r="F5">
-        <v>0.872</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="G5">
-        <v>1.091</v>
+        <v>1.008</v>
       </c>
       <c r="H5">
-        <v>1.243</v>
+        <v>1.202</v>
       </c>
       <c r="I5">
-        <v>1.386</v>
+        <v>1.388</v>
       </c>
       <c r="J5">
-        <v>1.392</v>
+        <v>1.451</v>
       </c>
       <c r="K5">
-        <v>1.278</v>
+        <v>1.313</v>
       </c>
       <c r="L5">
-        <v>1.261</v>
+        <v>1.287</v>
       </c>
     </row>
   </sheetData>
@@ -1528,7 +1540,7 @@
         <v>2.245</v>
       </c>
       <c r="F2">
-        <v>2.243</v>
+        <v>2.348</v>
       </c>
       <c r="G2">
         <v>2.523</v>
@@ -1540,7 +1552,7 @@
         <v>2.715</v>
       </c>
       <c r="J2">
-        <v>2.829</v>
+        <v>2.854</v>
       </c>
       <c r="K2">
         <v>3.072</v>
@@ -1554,31 +1566,31 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>2.105</v>
+        <v>2.208</v>
       </c>
       <c r="E3">
-        <v>2.246</v>
+        <v>2.276</v>
       </c>
       <c r="F3">
-        <v>2.243</v>
+        <v>2.355</v>
       </c>
       <c r="G3">
-        <v>2.503</v>
+        <v>2.546</v>
       </c>
       <c r="H3">
-        <v>2.66</v>
+        <v>2.701</v>
       </c>
       <c r="I3">
-        <v>2.673</v>
+        <v>2.717</v>
       </c>
       <c r="J3">
-        <v>2.822</v>
+        <v>2.819</v>
       </c>
       <c r="K3">
-        <v>3.025</v>
+        <v>3.076</v>
       </c>
       <c r="L3">
-        <v>2.992</v>
+        <v>3.007</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1586,28 +1598,31 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>1.823</v>
+        <v>2.103</v>
       </c>
       <c r="E4">
-        <v>2.11</v>
+        <v>2.204</v>
+      </c>
+      <c r="F4">
+        <v>2.302</v>
       </c>
       <c r="G4">
-        <v>2.436</v>
+        <v>2.502</v>
       </c>
       <c r="H4">
-        <v>2.632</v>
+        <v>2.648</v>
       </c>
       <c r="I4">
-        <v>2.69</v>
+        <v>2.703</v>
       </c>
       <c r="J4">
-        <v>2.776</v>
+        <v>2.829</v>
       </c>
       <c r="K4">
-        <v>3.103</v>
+        <v>3.063</v>
       </c>
       <c r="L4">
-        <v>3.033</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1615,28 +1630,31 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1.84</v>
+        <v>1.757</v>
       </c>
       <c r="E5">
-        <v>2.104</v>
+        <v>2.083</v>
+      </c>
+      <c r="F5">
+        <v>2.253</v>
       </c>
       <c r="G5">
-        <v>2.566</v>
+        <v>2.473</v>
       </c>
       <c r="H5">
-        <v>2.715</v>
+        <v>2.688</v>
       </c>
       <c r="I5">
-        <v>2.773</v>
+        <v>2.714</v>
       </c>
       <c r="J5">
-        <v>2.898</v>
+        <v>2.98</v>
       </c>
       <c r="K5">
-        <v>3.239</v>
+        <v>3.242</v>
       </c>
       <c r="L5">
-        <v>3.187</v>
+        <v>3.139</v>
       </c>
     </row>
   </sheetData>
@@ -1695,13 +1713,13 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="G2">
-        <v>9.41</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="I2">
-        <v>10.81</v>
+        <v>10.89</v>
       </c>
       <c r="K2">
         <v>12.88</v>
@@ -1718,16 +1736,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="G3">
-        <v>9.01</v>
+        <v>9.074999999999999</v>
       </c>
       <c r="I3">
-        <v>10.375</v>
+        <v>10.475</v>
       </c>
       <c r="K3">
-        <v>12.565</v>
+        <v>12.615</v>
       </c>
       <c r="L3">
-        <v>12.57</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1735,19 +1753,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>9.1</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="G4">
-        <v>9.225</v>
+        <v>9.005000000000001</v>
       </c>
       <c r="I4">
-        <v>10.475</v>
+        <v>10.335</v>
       </c>
       <c r="K4">
-        <v>12.375</v>
+        <v>12.23</v>
       </c>
       <c r="L4">
-        <v>12.375</v>
+        <v>12.225</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1755,19 +1773,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.44</v>
+        <v>6.15</v>
       </c>
       <c r="G5">
-        <v>9.18</v>
+        <v>9.19</v>
       </c>
       <c r="I5">
-        <v>10.635</v>
+        <v>10.82</v>
       </c>
       <c r="K5">
-        <v>11.715</v>
+        <v>11.925</v>
       </c>
       <c r="L5">
-        <v>11.625</v>
+        <v>11.835</v>
       </c>
     </row>
   </sheetData>
@@ -1826,25 +1844,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>21.087</v>
+        <v>21.817</v>
       </c>
       <c r="C2">
-        <v>21.925</v>
+        <v>23.157</v>
       </c>
       <c r="D2">
         <v>7.77</v>
       </c>
       <c r="E2">
-        <v>29.785</v>
+        <v>29.64</v>
       </c>
       <c r="F2">
-        <v>29.12</v>
+        <v>29.84</v>
       </c>
       <c r="G2">
-        <v>28.625</v>
+        <v>28.585</v>
       </c>
       <c r="I2">
-        <v>27.18</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1852,25 +1870,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>19.628</v>
+        <v>24.859</v>
       </c>
       <c r="C3">
-        <v>19.768</v>
+        <v>23.245</v>
       </c>
       <c r="D3">
         <v>7.77</v>
       </c>
       <c r="E3">
-        <v>22.3</v>
+        <v>27.27</v>
       </c>
       <c r="F3">
-        <v>23.15</v>
+        <v>27.12</v>
       </c>
       <c r="G3">
-        <v>19.48</v>
+        <v>23.79</v>
       </c>
       <c r="I3">
-        <v>21.62</v>
+        <v>23.31</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1878,25 +1896,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>10.125</v>
+        <v>13.57</v>
       </c>
       <c r="C4">
-        <v>12.057</v>
+        <v>14.29</v>
       </c>
       <c r="D4">
         <v>7.77</v>
       </c>
       <c r="E4">
-        <v>9.390000000000001</v>
+        <v>11.36</v>
       </c>
       <c r="F4">
-        <v>14.04</v>
+        <v>14.43</v>
       </c>
       <c r="G4">
-        <v>16.77</v>
+        <v>18.29</v>
       </c>
       <c r="I4">
-        <v>17.19</v>
+        <v>18.09</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1904,25 +1922,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>14.323</v>
+        <v>14.627</v>
       </c>
       <c r="C5">
-        <v>14.949</v>
-      </c>
-      <c r="D5">
-        <v>14.98</v>
+        <v>15.329</v>
       </c>
       <c r="E5">
-        <v>15.04</v>
+        <v>15.46</v>
       </c>
       <c r="F5">
-        <v>15.36</v>
+        <v>16.04</v>
       </c>
       <c r="G5">
-        <v>10.28</v>
+        <v>10.43</v>
       </c>
       <c r="I5">
-        <v>11.74</v>
+        <v>13.03</v>
       </c>
     </row>
   </sheetData>
@@ -1984,31 +1999,31 @@
         <v>6.87</v>
       </c>
       <c r="C2">
-        <v>7.08</v>
+        <v>7.1</v>
       </c>
       <c r="D2">
-        <v>6.975</v>
+        <v>7.187</v>
       </c>
       <c r="E2">
-        <v>7.256</v>
+        <v>7.286</v>
       </c>
       <c r="F2">
         <v>7.262</v>
       </c>
       <c r="G2">
-        <v>7.233</v>
+        <v>7.246</v>
       </c>
       <c r="H2">
-        <v>7.247</v>
+        <v>7.254</v>
       </c>
       <c r="I2">
-        <v>7.21</v>
+        <v>7.214</v>
       </c>
       <c r="J2">
-        <v>7.335</v>
+        <v>7.352</v>
       </c>
       <c r="L2">
-        <v>7.412</v>
+        <v>7.424</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2016,34 +2031,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.85</v>
+        <v>6.86</v>
       </c>
       <c r="C3">
-        <v>7.03</v>
+        <v>7.04</v>
       </c>
       <c r="D3">
-        <v>7.127</v>
+        <v>7.112</v>
       </c>
       <c r="E3">
-        <v>7.2</v>
+        <v>7.17</v>
       </c>
       <c r="F3">
-        <v>7.172</v>
+        <v>7.158</v>
       </c>
       <c r="G3">
-        <v>7.204</v>
+        <v>7.168</v>
       </c>
       <c r="H3">
-        <v>7.2</v>
+        <v>7.18</v>
       </c>
       <c r="I3">
-        <v>7.199</v>
+        <v>7.158</v>
       </c>
       <c r="J3">
-        <v>7.26</v>
+        <v>7.237</v>
       </c>
       <c r="L3">
-        <v>7.348</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2054,31 +2069,31 @@
         <v>6.73</v>
       </c>
       <c r="C4">
-        <v>6.85</v>
+        <v>6.87</v>
       </c>
       <c r="D4">
-        <v>6.856</v>
+        <v>6.921</v>
       </c>
       <c r="E4">
-        <v>6.991</v>
+        <v>7.004</v>
       </c>
       <c r="F4">
-        <v>7.052</v>
+        <v>7.041</v>
       </c>
       <c r="G4">
-        <v>7.068</v>
+        <v>7.076</v>
       </c>
       <c r="H4">
-        <v>7.08</v>
+        <v>7.092</v>
       </c>
       <c r="I4">
-        <v>7.089</v>
+        <v>7.087</v>
       </c>
       <c r="J4">
-        <v>7.222</v>
+        <v>7.229</v>
       </c>
       <c r="L4">
-        <v>7.32</v>
+        <v>7.283</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2086,34 +2101,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.12</v>
+        <v>6.33</v>
       </c>
       <c r="C5">
-        <v>6.62</v>
+        <v>6.75</v>
       </c>
       <c r="D5">
-        <v>6.784</v>
+        <v>6.87</v>
       </c>
       <c r="E5">
-        <v>7.154</v>
+        <v>7.223</v>
       </c>
       <c r="F5">
-        <v>7.338</v>
+        <v>7.39</v>
       </c>
       <c r="G5">
-        <v>7.396</v>
+        <v>7.425</v>
       </c>
       <c r="H5">
-        <v>7.447</v>
+        <v>7.486</v>
       </c>
       <c r="I5">
-        <v>7.46</v>
+        <v>7.47</v>
       </c>
       <c r="J5">
-        <v>7.541</v>
+        <v>7.568</v>
       </c>
       <c r="L5">
-        <v>7.592</v>
+        <v>7.602</v>
       </c>
     </row>
   </sheetData>
@@ -2172,37 +2187,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.836</v>
+        <v>3.829</v>
       </c>
       <c r="C2">
-        <v>3.802</v>
+        <v>3.85</v>
       </c>
       <c r="D2">
-        <v>3.8</v>
+        <v>3.784</v>
       </c>
       <c r="E2">
-        <v>3.412</v>
+        <v>3.348</v>
       </c>
       <c r="F2">
-        <v>3.221</v>
+        <v>3.199</v>
       </c>
       <c r="G2">
-        <v>3.161</v>
+        <v>3.181</v>
       </c>
       <c r="H2">
-        <v>3.192</v>
+        <v>3.244</v>
       </c>
       <c r="I2">
-        <v>3.41</v>
+        <v>3.49</v>
       </c>
       <c r="J2">
-        <v>3.684</v>
+        <v>3.782</v>
       </c>
       <c r="K2">
-        <v>3.836</v>
+        <v>3.937</v>
       </c>
       <c r="L2">
-        <v>3.931</v>
+        <v>4.037</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2210,37 +2225,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.652</v>
+        <v>3.822</v>
       </c>
       <c r="C3">
-        <v>3.689</v>
+        <v>3.84</v>
       </c>
       <c r="D3">
-        <v>3.643</v>
+        <v>3.753</v>
       </c>
       <c r="E3">
-        <v>3.301</v>
+        <v>3.441</v>
       </c>
       <c r="F3">
-        <v>3.085</v>
+        <v>3.224</v>
       </c>
       <c r="G3">
-        <v>2.968</v>
+        <v>3.06</v>
       </c>
       <c r="H3">
-        <v>2.9564</v>
+        <v>3.0505</v>
       </c>
       <c r="I3">
-        <v>3.142</v>
+        <v>3.222</v>
       </c>
       <c r="J3">
-        <v>3.385</v>
+        <v>3.477</v>
       </c>
       <c r="K3">
-        <v>3.525</v>
+        <v>3.607</v>
       </c>
       <c r="L3">
-        <v>3.604</v>
+        <v>3.688</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2248,37 +2263,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.573</v>
+        <v>3.61</v>
       </c>
       <c r="C4">
-        <v>3.72</v>
+        <v>3.682</v>
       </c>
       <c r="D4">
-        <v>3.782</v>
+        <v>3.677</v>
       </c>
       <c r="E4">
-        <v>3.38</v>
+        <v>3.315</v>
       </c>
       <c r="F4">
-        <v>3.148</v>
+        <v>3.053</v>
       </c>
       <c r="G4">
-        <v>2.97</v>
+        <v>2.903</v>
       </c>
       <c r="H4">
-        <v>2.8983</v>
+        <v>2.8407</v>
       </c>
       <c r="I4">
-        <v>3.032</v>
+        <v>2.988</v>
       </c>
       <c r="J4">
-        <v>3.261</v>
+        <v>3.213</v>
       </c>
       <c r="K4">
-        <v>3.371</v>
+        <v>3.311</v>
       </c>
       <c r="L4">
-        <v>3.405</v>
+        <v>3.364</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2286,37 +2301,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.775</v>
+        <v>0.83</v>
       </c>
       <c r="C5">
-        <v>1.235</v>
+        <v>1.385</v>
       </c>
       <c r="D5">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>1.844</v>
+        <v>2.014</v>
       </c>
       <c r="F5">
-        <v>2.076</v>
+        <v>2.218</v>
       </c>
       <c r="G5">
-        <v>2.285</v>
+        <v>2.4</v>
       </c>
       <c r="H5">
-        <v>2.5049</v>
+        <v>2.6406</v>
       </c>
       <c r="I5">
-        <v>2.796</v>
+        <v>2.942</v>
       </c>
       <c r="J5">
-        <v>3.058</v>
+        <v>3.331</v>
       </c>
       <c r="K5">
-        <v>3.105</v>
+        <v>3.387</v>
       </c>
       <c r="L5">
-        <v>3.01</v>
+        <v>3.283</v>
       </c>
     </row>
   </sheetData>
@@ -2375,37 +2390,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.665</v>
+        <v>3.772</v>
       </c>
       <c r="C2">
-        <v>3.75</v>
+        <v>3.777</v>
       </c>
       <c r="D2">
-        <v>3.683</v>
+        <v>3.661</v>
       </c>
       <c r="E2">
-        <v>3.206</v>
+        <v>3.128</v>
       </c>
       <c r="F2">
-        <v>3.05</v>
+        <v>2.985</v>
       </c>
       <c r="G2">
-        <v>2.774</v>
+        <v>2.757</v>
       </c>
       <c r="H2">
-        <v>2.713</v>
+        <v>2.729</v>
       </c>
       <c r="I2">
-        <v>2.838</v>
+        <v>2.885</v>
       </c>
       <c r="J2">
-        <v>3.013</v>
+        <v>3.084</v>
       </c>
       <c r="K2">
-        <v>3.054</v>
+        <v>3.127</v>
       </c>
       <c r="L2">
-        <v>3.035</v>
+        <v>3.111</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2413,37 +2428,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.658</v>
+        <v>3.79</v>
       </c>
       <c r="C3">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D3">
-        <v>3.588</v>
+        <v>3.719</v>
       </c>
       <c r="E3">
-        <v>3.068</v>
+        <v>3.21</v>
       </c>
       <c r="F3">
-        <v>2.914</v>
+        <v>3.065</v>
       </c>
       <c r="G3">
-        <v>2.603</v>
+        <v>2.686</v>
       </c>
       <c r="H3">
-        <v>2.522</v>
+        <v>2.599</v>
       </c>
       <c r="I3">
-        <v>2.598</v>
+        <v>2.67</v>
       </c>
       <c r="J3">
-        <v>2.749</v>
+        <v>2.83</v>
       </c>
       <c r="K3">
-        <v>2.771</v>
+        <v>2.857</v>
       </c>
       <c r="L3">
-        <v>2.722</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2451,37 +2466,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.564</v>
+        <v>3.533</v>
       </c>
       <c r="C4">
-        <v>3.665</v>
+        <v>3.585</v>
       </c>
       <c r="D4">
-        <v>3.722</v>
+        <v>3.676</v>
       </c>
       <c r="E4">
-        <v>3.262</v>
+        <v>3.236</v>
       </c>
       <c r="F4">
-        <v>2.985</v>
+        <v>2.93</v>
       </c>
       <c r="G4">
-        <v>2.628</v>
+        <v>2.57</v>
       </c>
       <c r="H4">
-        <v>2.481</v>
+        <v>2.431</v>
       </c>
       <c r="I4">
-        <v>2.477</v>
+        <v>2.428</v>
       </c>
       <c r="J4">
-        <v>2.611</v>
+        <v>2.562</v>
       </c>
       <c r="K4">
-        <v>2.614</v>
+        <v>2.563</v>
       </c>
       <c r="L4">
-        <v>2.532</v>
+        <v>2.478</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2489,37 +2504,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.774</v>
+        <v>0.857</v>
       </c>
       <c r="C5">
-        <v>0.707</v>
+        <v>0.79</v>
       </c>
       <c r="D5">
-        <v>1.715</v>
+        <v>1.87</v>
       </c>
       <c r="E5">
-        <v>1.869</v>
+        <v>1.959</v>
       </c>
       <c r="F5">
-        <v>1.829</v>
+        <v>1.906</v>
       </c>
       <c r="G5">
-        <v>2.045</v>
+        <v>2.125</v>
       </c>
       <c r="H5">
-        <v>2.053</v>
+        <v>2.162</v>
       </c>
       <c r="I5">
-        <v>2.197</v>
+        <v>2.361</v>
       </c>
       <c r="J5">
-        <v>2.351</v>
+        <v>2.592</v>
       </c>
       <c r="K5">
-        <v>2.273</v>
+        <v>2.591</v>
       </c>
       <c r="L5">
-        <v>2.138</v>
+        <v>2.412</v>
       </c>
     </row>
   </sheetData>
@@ -2578,22 +2593,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.992</v>
+        <v>5.189</v>
       </c>
       <c r="E2">
-        <v>5.026</v>
+        <v>5.203</v>
       </c>
       <c r="F2">
-        <v>5.079</v>
+        <v>5.204</v>
       </c>
       <c r="G2">
-        <v>5.255</v>
+        <v>5.414</v>
       </c>
       <c r="H2">
-        <v>5.552</v>
+        <v>5.636</v>
       </c>
       <c r="I2">
-        <v>5.916</v>
+        <v>5.965</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2601,22 +2616,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.838</v>
+        <v>4.873</v>
       </c>
       <c r="E3">
-        <v>4.824</v>
+        <v>4.857</v>
       </c>
       <c r="F3">
-        <v>4.96</v>
+        <v>4.955</v>
       </c>
       <c r="G3">
-        <v>5.123</v>
+        <v>5.14</v>
       </c>
       <c r="H3">
-        <v>5.375</v>
+        <v>5.405</v>
       </c>
       <c r="I3">
-        <v>5.595</v>
+        <v>5.607</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2624,22 +2639,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5.714</v>
+        <v>5.808</v>
       </c>
       <c r="E4">
-        <v>5.309</v>
+        <v>5.408</v>
       </c>
       <c r="F4">
-        <v>5.362</v>
+        <v>5.417</v>
       </c>
       <c r="G4">
-        <v>5.322</v>
+        <v>5.303</v>
       </c>
       <c r="H4">
-        <v>5.423</v>
+        <v>5.34</v>
       </c>
       <c r="I4">
-        <v>5.542</v>
+        <v>5.437</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2647,22 +2662,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>7.412</v>
+        <v>7.946</v>
       </c>
       <c r="E5">
-        <v>7.418</v>
+        <v>8.083</v>
       </c>
       <c r="F5">
-        <v>7.499</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="G5">
-        <v>7.528</v>
+        <v>7.986</v>
       </c>
       <c r="H5">
-        <v>7.482</v>
+        <v>7.835</v>
       </c>
       <c r="I5">
-        <v>7.376</v>
+        <v>7.739</v>
       </c>
     </row>
   </sheetData>
@@ -2721,19 +2736,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>11.003</v>
+        <v>11.069</v>
       </c>
       <c r="E2">
-        <v>10.337</v>
+        <v>10.505</v>
       </c>
       <c r="F2">
-        <v>10.952</v>
+        <v>11.181</v>
       </c>
       <c r="G2">
-        <v>11.38</v>
+        <v>11.622</v>
       </c>
       <c r="I2">
-        <v>11.711</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2741,19 +2756,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>11.265</v>
+        <v>11.135</v>
       </c>
       <c r="E3">
-        <v>10.355</v>
+        <v>10.185</v>
       </c>
       <c r="F3">
-        <v>10.575</v>
+        <v>10.4</v>
       </c>
       <c r="G3">
-        <v>11.02</v>
+        <v>10.92</v>
       </c>
       <c r="I3">
-        <v>11.41</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2761,19 +2776,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>11.74</v>
+        <v>11.56</v>
       </c>
       <c r="E4">
-        <v>10.545</v>
+        <v>10.424</v>
       </c>
       <c r="F4">
-        <v>10.37</v>
+        <v>10.352</v>
       </c>
       <c r="G4">
-        <v>10.625</v>
+        <v>10.645</v>
       </c>
       <c r="I4">
-        <v>10.794</v>
+        <v>10.929</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2781,19 +2796,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>13.545</v>
+        <v>13.235</v>
       </c>
       <c r="E5">
-        <v>12.12</v>
+        <v>12.3</v>
       </c>
       <c r="F5">
-        <v>11.73</v>
+        <v>11.945</v>
       </c>
       <c r="G5">
-        <v>11.56</v>
+        <v>11.825</v>
       </c>
       <c r="I5">
-        <v>11.76</v>
+        <v>12.02</v>
       </c>
     </row>
   </sheetData>
@@ -2852,25 +2867,22 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>3.234</v>
+        <v>3.193</v>
       </c>
       <c r="F2">
-        <v>3.134</v>
+        <v>3.122</v>
       </c>
       <c r="G2">
-        <v>3.214</v>
+        <v>3.22</v>
       </c>
       <c r="H2">
-        <v>3.343</v>
+        <v>3.368</v>
       </c>
       <c r="I2">
-        <v>3.593</v>
-      </c>
-      <c r="J2">
-        <v>3.975</v>
+        <v>3.638</v>
       </c>
       <c r="L2">
-        <v>4.109</v>
+        <v>4.178</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2878,25 +2890,22 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>3.041</v>
+        <v>3.184</v>
       </c>
       <c r="F3">
-        <v>2.978</v>
+        <v>3.108</v>
       </c>
       <c r="G3">
-        <v>3.018</v>
+        <v>3.091</v>
       </c>
       <c r="H3">
-        <v>3.146</v>
+        <v>3.225</v>
       </c>
       <c r="I3">
-        <v>3.34</v>
-      </c>
-      <c r="J3">
-        <v>3.718</v>
+        <v>3.422</v>
       </c>
       <c r="L3">
-        <v>3.767</v>
+        <v>3.884</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2904,25 +2913,22 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>3.082</v>
+        <v>3.01</v>
       </c>
       <c r="F4">
-        <v>2.989</v>
+        <v>2.934</v>
       </c>
       <c r="G4">
-        <v>3.015</v>
+        <v>2.927</v>
       </c>
       <c r="H4">
-        <v>3.055</v>
+        <v>2.995</v>
       </c>
       <c r="I4">
-        <v>3.229</v>
-      </c>
-      <c r="J4">
-        <v>3.585</v>
+        <v>3.161</v>
       </c>
       <c r="L4">
-        <v>3.562</v>
+        <v>3.516</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2930,25 +2936,22 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>2.052</v>
+        <v>2.045</v>
       </c>
       <c r="F5">
-        <v>2.223</v>
+        <v>2.17</v>
       </c>
       <c r="G5">
-        <v>2.646</v>
+        <v>2.699</v>
       </c>
       <c r="H5">
-        <v>2.821</v>
+        <v>2.935</v>
       </c>
       <c r="I5">
-        <v>3.316</v>
-      </c>
-      <c r="J5">
-        <v>3.5</v>
+        <v>3.443</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3.78</v>
       </c>
     </row>
   </sheetData>
@@ -3007,37 +3010,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.389</v>
+        <v>5.34</v>
       </c>
       <c r="C2">
-        <v>5.42</v>
+        <v>5.475</v>
       </c>
       <c r="D2">
-        <v>5.1245</v>
+        <v>4.902</v>
       </c>
       <c r="E2">
-        <v>4.9665</v>
+        <v>4.881</v>
       </c>
       <c r="F2">
-        <v>4.675</v>
+        <v>4.667</v>
       </c>
       <c r="G2">
-        <v>4.573</v>
+        <v>4.563</v>
       </c>
       <c r="H2">
-        <v>4.3715</v>
+        <v>4.427</v>
       </c>
       <c r="I2">
-        <v>4.5015</v>
+        <v>4.577</v>
       </c>
       <c r="J2">
-        <v>4.815</v>
+        <v>4.887</v>
       </c>
       <c r="K2">
-        <v>4.911</v>
+        <v>4.992</v>
       </c>
       <c r="L2">
-        <v>4.973</v>
+        <v>5.034</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3045,37 +3048,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.526</v>
+        <v>5.53</v>
       </c>
       <c r="C3">
-        <v>5.588</v>
+        <v>5.694</v>
       </c>
       <c r="D3">
-        <v>5.043</v>
+        <v>5.141</v>
       </c>
       <c r="E3">
-        <v>5.075</v>
+        <v>5.03</v>
       </c>
       <c r="F3">
-        <v>4.777</v>
+        <v>4.661</v>
       </c>
       <c r="G3">
-        <v>4.66</v>
+        <v>4.54</v>
       </c>
       <c r="H3">
-        <v>4.346</v>
+        <v>4.271</v>
       </c>
       <c r="I3">
-        <v>4.424</v>
+        <v>4.364</v>
       </c>
       <c r="J3">
-        <v>4.658</v>
+        <v>4.616</v>
       </c>
       <c r="K3">
-        <v>4.714</v>
+        <v>4.688</v>
       </c>
       <c r="L3">
-        <v>4.699</v>
+        <v>4.703</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3083,37 +3086,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.405</v>
+        <v>5.522</v>
       </c>
       <c r="C4">
-        <v>5.809</v>
+        <v>5.734</v>
       </c>
       <c r="D4">
-        <v>5.288</v>
+        <v>5.176</v>
       </c>
       <c r="E4">
-        <v>5.197</v>
+        <v>4.93</v>
       </c>
       <c r="F4">
-        <v>4.909</v>
+        <v>4.65</v>
       </c>
       <c r="G4">
-        <v>4.589</v>
+        <v>4.361</v>
       </c>
       <c r="H4">
-        <v>4.441</v>
+        <v>4.234</v>
       </c>
       <c r="I4">
-        <v>4.447</v>
+        <v>4.271</v>
       </c>
       <c r="J4">
-        <v>4.628</v>
+        <v>4.458</v>
       </c>
       <c r="K4">
-        <v>4.615</v>
+        <v>4.463</v>
       </c>
       <c r="L4">
-        <v>4.558</v>
+        <v>4.417</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3121,37 +3124,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.02</v>
+        <v>2.915</v>
       </c>
       <c r="C5">
-        <v>4.151</v>
+        <v>3.867</v>
       </c>
       <c r="D5">
-        <v>3.856</v>
+        <v>3.508</v>
       </c>
       <c r="E5">
-        <v>4.064</v>
+        <v>3.877</v>
       </c>
       <c r="F5">
-        <v>4.308</v>
+        <v>4.041</v>
       </c>
       <c r="G5">
-        <v>4.425</v>
+        <v>4.317</v>
       </c>
       <c r="H5">
-        <v>4.405</v>
+        <v>4.423</v>
       </c>
       <c r="I5">
-        <v>4.238</v>
+        <v>4.323</v>
       </c>
       <c r="J5">
-        <v>4.539</v>
+        <v>4.728</v>
       </c>
       <c r="K5">
-        <v>4.586</v>
+        <v>4.847</v>
       </c>
       <c r="L5">
-        <v>4.407</v>
+        <v>4.778</v>
       </c>
     </row>
   </sheetData>
@@ -3210,37 +3213,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.231</v>
+        <v>-0.306</v>
       </c>
       <c r="C2">
-        <v>-0.152</v>
+        <v>-0.176</v>
       </c>
       <c r="D2">
-        <v>-0.044</v>
+        <v>-0.051</v>
       </c>
       <c r="E2">
-        <v>0.045</v>
+        <v>0.059</v>
       </c>
       <c r="F2">
-        <v>0.127</v>
+        <v>0.137</v>
       </c>
       <c r="G2">
-        <v>0.312</v>
+        <v>0.327</v>
       </c>
       <c r="H2">
-        <v>0.544</v>
+        <v>0.57</v>
       </c>
       <c r="I2">
-        <v>0.749</v>
+        <v>0.799</v>
       </c>
       <c r="J2">
-        <v>1.181</v>
+        <v>1.253</v>
       </c>
       <c r="K2">
-        <v>1.446</v>
+        <v>1.538</v>
       </c>
       <c r="L2">
-        <v>1.652</v>
+        <v>1.755</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3248,37 +3251,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-0.147</v>
+        <v>-0.238</v>
       </c>
       <c r="C3">
-        <v>-0.159</v>
+        <v>-0.149</v>
       </c>
       <c r="D3">
-        <v>-0.092</v>
+        <v>-0.065</v>
       </c>
       <c r="E3">
-        <v>0.007</v>
+        <v>0.031</v>
       </c>
       <c r="F3">
-        <v>0.051</v>
+        <v>0.095</v>
       </c>
       <c r="G3">
-        <v>0.217</v>
+        <v>0.275</v>
       </c>
       <c r="H3">
-        <v>0.4</v>
+        <v>0.455</v>
       </c>
       <c r="I3">
-        <v>0.647</v>
+        <v>0.705</v>
       </c>
       <c r="J3">
-        <v>1.089</v>
+        <v>1.138</v>
       </c>
       <c r="K3">
-        <v>1.397</v>
+        <v>1.426</v>
       </c>
       <c r="L3">
-        <v>1.666</v>
+        <v>1.676</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3286,37 +3289,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.137</v>
+        <v>-0.132</v>
       </c>
       <c r="C4">
-        <v>-0.195</v>
+        <v>-0.198</v>
       </c>
       <c r="D4">
-        <v>-0.129</v>
+        <v>-0.133</v>
       </c>
       <c r="E4">
-        <v>-0.036</v>
+        <v>-0.032</v>
       </c>
       <c r="F4">
-        <v>-0.019</v>
+        <v>-0.024</v>
       </c>
       <c r="G4">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H4">
-        <v>0.33</v>
+        <v>0.289</v>
       </c>
       <c r="I4">
         <v>0.48</v>
       </c>
       <c r="J4">
-        <v>0.895</v>
+        <v>0.867</v>
       </c>
       <c r="K4">
-        <v>1.125</v>
+        <v>1.108</v>
       </c>
       <c r="L4">
-        <v>1.391</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3324,37 +3327,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.274</v>
+        <v>-0.164</v>
       </c>
       <c r="C5">
-        <v>-0.23</v>
+        <v>-0.155</v>
       </c>
       <c r="D5">
-        <v>-0.121</v>
+        <v>-0.113</v>
       </c>
       <c r="E5">
-        <v>-0.066</v>
+        <v>-0.054</v>
       </c>
       <c r="F5">
-        <v>-0.044</v>
+        <v>-0.03</v>
       </c>
       <c r="G5">
-        <v>0.05</v>
+        <v>0.067</v>
       </c>
       <c r="H5">
-        <v>0.199</v>
+        <v>0.219</v>
       </c>
       <c r="I5">
         <v>0.25</v>
       </c>
       <c r="J5">
-        <v>0.714</v>
+        <v>0.788</v>
       </c>
       <c r="K5">
-        <v>0.973</v>
+        <v>1.073</v>
       </c>
       <c r="L5">
-        <v>1.363</v>
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -484,34 +484,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.14</v>
+        <v>5.16</v>
       </c>
       <c r="C2">
         <v>5.24</v>
       </c>
       <c r="D2">
-        <v>5.33</v>
+        <v>5.3</v>
       </c>
       <c r="E2">
-        <v>4.861</v>
+        <v>4.859</v>
       </c>
       <c r="F2">
-        <v>4.712</v>
+        <v>4.705</v>
       </c>
       <c r="G2">
-        <v>4.322</v>
+        <v>4.212</v>
       </c>
       <c r="H2">
-        <v>4.196</v>
+        <v>4.075</v>
       </c>
       <c r="I2">
-        <v>4.155</v>
+        <v>3.973</v>
       </c>
       <c r="K2">
-        <v>4.082</v>
+        <v>3.898</v>
       </c>
       <c r="L2">
-        <v>3.897</v>
+        <v>3.704</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -519,34 +519,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.11</v>
+        <v>5.12</v>
       </c>
       <c r="C3">
-        <v>5.18</v>
+        <v>5.23</v>
       </c>
       <c r="D3">
-        <v>5.24</v>
+        <v>5.33</v>
       </c>
       <c r="E3">
-        <v>4.732</v>
+        <v>4.907</v>
       </c>
       <c r="F3">
-        <v>4.475</v>
+        <v>4.652</v>
       </c>
       <c r="G3">
-        <v>4.021</v>
+        <v>4.207</v>
       </c>
       <c r="H3">
-        <v>3.858</v>
+        <v>4.04</v>
       </c>
       <c r="I3">
-        <v>3.743</v>
+        <v>3.914</v>
       </c>
       <c r="K3">
-        <v>3.711</v>
+        <v>3.868</v>
       </c>
       <c r="L3">
-        <v>3.567</v>
+        <v>3.693</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -554,34 +554,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="C4">
-        <v>5.17</v>
+        <v>5.2</v>
       </c>
       <c r="D4">
-        <v>5.22</v>
+        <v>5.26</v>
       </c>
       <c r="E4">
-        <v>4.576</v>
+        <v>4.686</v>
       </c>
       <c r="F4">
-        <v>4.341</v>
+        <v>4.434</v>
       </c>
       <c r="G4">
-        <v>3.821</v>
+        <v>3.933</v>
       </c>
       <c r="H4">
-        <v>3.563</v>
+        <v>3.691</v>
       </c>
       <c r="I4">
-        <v>3.412</v>
+        <v>3.522</v>
       </c>
       <c r="K4">
-        <v>3.402</v>
+        <v>3.482</v>
       </c>
       <c r="L4">
-        <v>3.26</v>
+        <v>3.338</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -589,34 +589,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.86</v>
+        <v>3.98</v>
       </c>
       <c r="C5">
-        <v>4.11</v>
+        <v>4.27</v>
       </c>
       <c r="D5">
-        <v>4.39</v>
+        <v>4.45</v>
       </c>
       <c r="E5">
-        <v>4.176</v>
+        <v>4.186</v>
       </c>
       <c r="F5">
-        <v>4.135</v>
+        <v>4.151</v>
       </c>
       <c r="G5">
-        <v>3.684</v>
+        <v>3.741</v>
       </c>
       <c r="H5">
-        <v>3.548</v>
+        <v>3.623</v>
       </c>
       <c r="I5">
-        <v>3.49</v>
+        <v>3.618</v>
       </c>
       <c r="K5">
-        <v>3.552</v>
+        <v>3.794</v>
       </c>
       <c r="L5">
-        <v>3.419</v>
+        <v>3.697</v>
       </c>
     </row>
   </sheetData>
@@ -675,31 +675,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.515</v>
+        <v>5.497</v>
       </c>
       <c r="C2">
-        <v>5.586</v>
+        <v>5.565</v>
       </c>
       <c r="D2">
-        <v>5.438</v>
+        <v>5.405</v>
       </c>
       <c r="E2">
-        <v>5.081</v>
+        <v>5.058</v>
       </c>
       <c r="F2">
-        <v>4.881</v>
+        <v>4.817</v>
       </c>
       <c r="G2">
-        <v>4.751</v>
+        <v>4.644</v>
       </c>
       <c r="H2">
-        <v>4.8</v>
+        <v>4.654</v>
       </c>
       <c r="I2">
-        <v>4.795</v>
+        <v>4.616</v>
       </c>
       <c r="L2">
-        <v>4.96</v>
+        <v>4.756</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -707,31 +707,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.466</v>
+        <v>5.482</v>
       </c>
       <c r="C3">
-        <v>5.525</v>
+        <v>5.541</v>
       </c>
       <c r="D3">
-        <v>5.432</v>
+        <v>5.461</v>
       </c>
       <c r="E3">
-        <v>5.037</v>
+        <v>5.112</v>
       </c>
       <c r="F3">
-        <v>4.724</v>
+        <v>4.804</v>
       </c>
       <c r="G3">
-        <v>4.465</v>
+        <v>4.566</v>
       </c>
       <c r="H3">
-        <v>4.42</v>
+        <v>4.528</v>
       </c>
       <c r="I3">
-        <v>4.336</v>
+        <v>4.438</v>
       </c>
       <c r="L3">
-        <v>4.421</v>
+        <v>4.529</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -739,31 +739,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.424</v>
+        <v>5.432</v>
       </c>
       <c r="C4">
-        <v>5.493</v>
+        <v>5.507</v>
       </c>
       <c r="D4">
-        <v>5.35</v>
+        <v>5.387</v>
       </c>
       <c r="E4">
-        <v>4.846</v>
+        <v>4.885</v>
       </c>
       <c r="F4">
-        <v>4.446</v>
+        <v>4.528</v>
       </c>
       <c r="G4">
-        <v>4.095</v>
+        <v>4.183</v>
       </c>
       <c r="H4">
-        <v>3.971</v>
+        <v>4.08</v>
       </c>
       <c r="I4">
-        <v>3.837</v>
+        <v>3.957</v>
       </c>
       <c r="L4">
-        <v>3.9</v>
+        <v>4.013</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -771,31 +771,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.723</v>
+        <v>3.992</v>
       </c>
       <c r="C5">
-        <v>4.312</v>
+        <v>4.441</v>
       </c>
       <c r="D5">
-        <v>4.484</v>
+        <v>4.567</v>
       </c>
       <c r="E5">
-        <v>4.496</v>
+        <v>4.483</v>
       </c>
       <c r="F5">
-        <v>4.501</v>
+        <v>4.519</v>
       </c>
       <c r="G5">
-        <v>4.269</v>
+        <v>4.348</v>
       </c>
       <c r="H5">
-        <v>4.173</v>
+        <v>4.293</v>
       </c>
       <c r="I5">
-        <v>4.023</v>
+        <v>4.219</v>
       </c>
       <c r="L5">
-        <v>3.994</v>
+        <v>4.337</v>
       </c>
     </row>
   </sheetData>
@@ -854,22 +854,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>16.88</v>
+        <v>16.6</v>
       </c>
       <c r="E2">
-        <v>13.61</v>
+        <v>13.42</v>
       </c>
       <c r="F2">
+        <v>12.4</v>
+      </c>
+      <c r="G2">
+        <v>13.01</v>
+      </c>
+      <c r="I2">
+        <v>12.24</v>
+      </c>
+      <c r="J2">
         <v>12.45</v>
-      </c>
-      <c r="G2">
-        <v>13.06</v>
-      </c>
-      <c r="I2">
-        <v>12.27</v>
-      </c>
-      <c r="J2">
-        <v>12.6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -877,22 +877,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>15.64</v>
+        <v>15.96</v>
       </c>
       <c r="E3">
-        <v>12.56</v>
+        <v>12.68</v>
       </c>
       <c r="F3">
-        <v>13.83</v>
+        <v>11.99</v>
       </c>
       <c r="G3">
-        <v>12.27</v>
+        <v>12.39</v>
       </c>
       <c r="I3">
-        <v>12.49</v>
+        <v>12.65</v>
       </c>
       <c r="J3">
-        <v>11.81</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -900,22 +900,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>10.42</v>
+        <v>10.78</v>
       </c>
       <c r="E4">
-        <v>9.26</v>
+        <v>9.35</v>
       </c>
       <c r="F4">
-        <v>10.74</v>
+        <v>10.8</v>
       </c>
       <c r="G4">
-        <v>11.19</v>
+        <v>10.08</v>
       </c>
       <c r="I4">
-        <v>11.44</v>
+        <v>11.46</v>
       </c>
       <c r="J4">
-        <v>11.72</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -923,22 +923,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>9.51</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E5">
-        <v>10.68</v>
+        <v>8.1</v>
       </c>
       <c r="F5">
-        <v>9.16</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="G5">
-        <v>9.4</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="I5">
-        <v>9.84</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="J5">
-        <v>10.33</v>
+        <v>10.26</v>
       </c>
     </row>
   </sheetData>
@@ -997,25 +997,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.188</v>
+        <v>4.203</v>
       </c>
       <c r="E2">
-        <v>4.044</v>
+        <v>4.043</v>
       </c>
       <c r="F2">
-        <v>4.022</v>
+        <v>3.958</v>
       </c>
       <c r="G2">
-        <v>4.143</v>
+        <v>4.076</v>
       </c>
       <c r="H2">
-        <v>4.378</v>
+        <v>4.272</v>
       </c>
       <c r="I2">
-        <v>4.576</v>
+        <v>4.475</v>
       </c>
       <c r="J2">
-        <v>4.838</v>
+        <v>4.735</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.039</v>
+        <v>4.201</v>
       </c>
       <c r="E3">
-        <v>3.845</v>
+        <v>4.084</v>
       </c>
       <c r="F3">
-        <v>3.822</v>
+        <v>4.06</v>
       </c>
       <c r="G3">
-        <v>3.855</v>
+        <v>4.103</v>
       </c>
       <c r="H3">
-        <v>3.989</v>
+        <v>4.248</v>
       </c>
       <c r="I3">
-        <v>4.098</v>
+        <v>4.363</v>
       </c>
       <c r="J3">
-        <v>4.343</v>
+        <v>4.598</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1049,25 +1049,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.22</v>
+        <v>4.143</v>
       </c>
       <c r="E4">
-        <v>4.128</v>
+        <v>4.049</v>
       </c>
       <c r="F4">
-        <v>3.995</v>
+        <v>3.937</v>
       </c>
       <c r="G4">
-        <v>3.907</v>
+        <v>3.891</v>
       </c>
       <c r="H4">
-        <v>3.964</v>
+        <v>3.994</v>
       </c>
       <c r="I4">
-        <v>4.021</v>
+        <v>4.099</v>
       </c>
       <c r="J4">
-        <v>4.156</v>
+        <v>4.247</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1075,25 +1075,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>3.181</v>
+        <v>3.465</v>
       </c>
       <c r="E5">
-        <v>3.391</v>
+        <v>3.655</v>
       </c>
       <c r="F5">
-        <v>3.544</v>
+        <v>3.76</v>
       </c>
       <c r="G5">
-        <v>3.703</v>
+        <v>3.92</v>
       </c>
       <c r="H5">
-        <v>3.866</v>
+        <v>4.07</v>
       </c>
       <c r="I5">
-        <v>4.002</v>
+        <v>4.204</v>
       </c>
       <c r="J5">
-        <v>4.224</v>
+        <v>4.428</v>
       </c>
     </row>
   </sheetData>
@@ -1152,31 +1152,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.847</v>
+        <v>3.624</v>
       </c>
       <c r="C2">
-        <v>4.014</v>
+        <v>4.015</v>
       </c>
       <c r="D2">
-        <v>3.97</v>
+        <v>3.96</v>
       </c>
       <c r="E2">
         <v>4.028</v>
       </c>
       <c r="F2">
-        <v>4.024</v>
+        <v>3.993</v>
       </c>
       <c r="G2">
-        <v>4.273</v>
+        <v>4.18</v>
       </c>
       <c r="H2">
-        <v>4.585</v>
+        <v>4.454</v>
       </c>
       <c r="I2">
-        <v>4.91</v>
+        <v>4.772</v>
       </c>
       <c r="J2">
-        <v>5.21</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1184,31 +1184,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.854</v>
+        <v>3.799</v>
       </c>
       <c r="C3">
-        <v>3.909</v>
+        <v>3.932</v>
       </c>
       <c r="D3">
-        <v>3.93</v>
+        <v>3.934</v>
       </c>
       <c r="E3">
-        <v>3.897</v>
+        <v>3.963</v>
       </c>
       <c r="F3">
-        <v>3.826</v>
+        <v>3.892</v>
       </c>
       <c r="G3">
-        <v>3.975</v>
+        <v>4.056</v>
       </c>
       <c r="H3">
-        <v>4.191</v>
+        <v>4.305</v>
       </c>
       <c r="I3">
-        <v>4.461</v>
+        <v>4.582</v>
       </c>
       <c r="J3">
-        <v>4.701</v>
+        <v>4.824</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1216,31 +1216,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.665</v>
+        <v>3.501</v>
       </c>
       <c r="C4">
-        <v>3.589</v>
+        <v>3.599</v>
       </c>
       <c r="D4">
-        <v>3.831</v>
+        <v>3.809</v>
       </c>
       <c r="E4">
-        <v>3.76</v>
+        <v>3.697</v>
       </c>
       <c r="F4">
-        <v>3.629</v>
+        <v>3.59</v>
       </c>
       <c r="G4">
-        <v>3.659</v>
+        <v>3.643</v>
       </c>
       <c r="H4">
-        <v>3.834</v>
+        <v>3.835</v>
       </c>
       <c r="I4">
-        <v>4.069</v>
+        <v>4.105</v>
       </c>
       <c r="J4">
-        <v>4.258</v>
+        <v>4.321</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1248,31 +1248,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.744</v>
+        <v>0.791</v>
       </c>
       <c r="C5">
-        <v>1.777</v>
+        <v>1.745</v>
       </c>
       <c r="D5">
-        <v>2.436</v>
+        <v>2.599</v>
       </c>
       <c r="E5">
-        <v>2.997</v>
+        <v>3.051</v>
       </c>
       <c r="F5">
-        <v>3.416</v>
+        <v>3.474</v>
       </c>
       <c r="G5">
-        <v>3.878</v>
+        <v>3.9</v>
       </c>
       <c r="H5">
-        <v>4.268</v>
+        <v>4.257</v>
       </c>
       <c r="I5">
-        <v>4.803</v>
+        <v>4.774</v>
       </c>
       <c r="J5">
-        <v>4.766</v>
+        <v>4.722</v>
       </c>
     </row>
   </sheetData>
@@ -1331,37 +1331,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="C2">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="D2">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="E2">
-        <v>1.255</v>
+        <v>1.252</v>
       </c>
       <c r="F2">
-        <v>1.187</v>
+        <v>1.175</v>
       </c>
       <c r="G2">
-        <v>1.098</v>
+        <v>1.087</v>
       </c>
       <c r="H2">
-        <v>1.085</v>
+        <v>1.052</v>
       </c>
       <c r="I2">
-        <v>1.181</v>
+        <v>1.101</v>
       </c>
       <c r="J2">
-        <v>1.189</v>
+        <v>1.12</v>
       </c>
       <c r="K2">
-        <v>1.191</v>
+        <v>1.12</v>
       </c>
       <c r="L2">
-        <v>1.171</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1369,37 +1369,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="C3">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="D3">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="E3">
-        <v>1.306</v>
+        <v>1.243</v>
       </c>
       <c r="F3">
-        <v>1.227</v>
+        <v>1.177</v>
       </c>
       <c r="G3">
-        <v>1.099</v>
+        <v>1.075</v>
       </c>
       <c r="H3">
-        <v>1.073</v>
+        <v>1.04</v>
       </c>
       <c r="I3">
-        <v>1.072</v>
+        <v>1.09</v>
       </c>
       <c r="J3">
-        <v>1.097</v>
+        <v>1.144</v>
       </c>
       <c r="K3">
-        <v>1.117</v>
+        <v>1.15</v>
       </c>
       <c r="L3">
-        <v>1.076</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1413,31 +1413,31 @@
         <v>1.65</v>
       </c>
       <c r="D4">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="E4">
-        <v>1.174</v>
+        <v>1.181</v>
       </c>
       <c r="F4">
-        <v>1.127</v>
+        <v>1.076</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>1.046</v>
       </c>
       <c r="H4">
-        <v>0.982</v>
+        <v>1.026</v>
       </c>
       <c r="I4">
-        <v>0.966</v>
+        <v>1.006</v>
       </c>
       <c r="J4">
-        <v>0.964</v>
+        <v>1.02</v>
       </c>
       <c r="K4">
-        <v>0.9409999999999999</v>
+        <v>1.002</v>
       </c>
       <c r="L4">
-        <v>0.92</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1445,37 +1445,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="C5">
         <v>0.65</v>
       </c>
       <c r="D5">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="E5">
-        <v>0.571</v>
+        <v>0.569</v>
       </c>
       <c r="F5">
-        <v>0.6909999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="G5">
-        <v>1.008</v>
+        <v>0.979</v>
       </c>
       <c r="H5">
-        <v>1.202</v>
+        <v>1.191</v>
       </c>
       <c r="I5">
-        <v>1.388</v>
+        <v>1.369</v>
       </c>
       <c r="J5">
-        <v>1.451</v>
+        <v>1.448</v>
       </c>
       <c r="K5">
-        <v>1.313</v>
+        <v>1.334</v>
       </c>
       <c r="L5">
-        <v>1.287</v>
+        <v>1.285</v>
       </c>
     </row>
   </sheetData>
@@ -1534,31 +1534,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>2.164</v>
+        <v>2.09</v>
       </c>
       <c r="E2">
-        <v>2.245</v>
+        <v>2.28</v>
       </c>
       <c r="F2">
-        <v>2.348</v>
+        <v>2.299</v>
       </c>
       <c r="G2">
-        <v>2.523</v>
+        <v>2.499</v>
       </c>
       <c r="H2">
-        <v>2.705</v>
+        <v>2.678</v>
       </c>
       <c r="I2">
-        <v>2.715</v>
+        <v>2.7</v>
       </c>
       <c r="J2">
-        <v>2.854</v>
+        <v>2.83</v>
       </c>
       <c r="K2">
-        <v>3.072</v>
+        <v>3.052</v>
       </c>
       <c r="L2">
-        <v>3.008</v>
+        <v>3.007</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1566,31 +1566,31 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>2.208</v>
+        <v>2.09</v>
       </c>
       <c r="E3">
-        <v>2.276</v>
+        <v>2.28</v>
       </c>
       <c r="F3">
-        <v>2.355</v>
+        <v>2.299</v>
       </c>
       <c r="G3">
-        <v>2.546</v>
+        <v>2.499</v>
       </c>
       <c r="H3">
-        <v>2.701</v>
+        <v>2.678</v>
       </c>
       <c r="I3">
-        <v>2.717</v>
+        <v>2.7</v>
       </c>
       <c r="J3">
-        <v>2.819</v>
+        <v>2.83</v>
       </c>
       <c r="K3">
-        <v>3.076</v>
+        <v>3.069</v>
       </c>
       <c r="L3">
-        <v>3.007</v>
+        <v>3.013</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1598,31 +1598,31 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>2.103</v>
+        <v>2.09</v>
       </c>
       <c r="E4">
-        <v>2.204</v>
+        <v>2.28</v>
       </c>
       <c r="F4">
-        <v>2.302</v>
+        <v>2.299</v>
       </c>
       <c r="G4">
-        <v>2.502</v>
+        <v>2.552</v>
       </c>
       <c r="H4">
-        <v>2.648</v>
+        <v>2.678</v>
       </c>
       <c r="I4">
-        <v>2.703</v>
+        <v>2.7</v>
       </c>
       <c r="J4">
-        <v>2.829</v>
+        <v>2.83</v>
       </c>
       <c r="K4">
-        <v>3.063</v>
+        <v>3.069</v>
       </c>
       <c r="L4">
-        <v>3.01</v>
+        <v>3.013</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1630,31 +1630,31 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1.757</v>
+        <v>1.749</v>
       </c>
       <c r="E5">
-        <v>2.083</v>
+        <v>2.09</v>
       </c>
       <c r="F5">
-        <v>2.253</v>
+        <v>2.265</v>
       </c>
       <c r="G5">
-        <v>2.473</v>
+        <v>2.496</v>
       </c>
       <c r="H5">
-        <v>2.688</v>
+        <v>2.709</v>
       </c>
       <c r="I5">
-        <v>2.714</v>
+        <v>2.729</v>
       </c>
       <c r="J5">
-        <v>2.98</v>
+        <v>2.828</v>
       </c>
       <c r="K5">
-        <v>3.242</v>
+        <v>3.237</v>
       </c>
       <c r="L5">
-        <v>3.139</v>
+        <v>3.161</v>
       </c>
     </row>
   </sheetData>
@@ -1713,19 +1713,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G2">
-        <v>9.449999999999999</v>
+        <v>9.34</v>
       </c>
       <c r="I2">
-        <v>10.89</v>
+        <v>10.73</v>
       </c>
       <c r="K2">
-        <v>12.88</v>
+        <v>12.875</v>
       </c>
       <c r="L2">
-        <v>12.87</v>
+        <v>12.845</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1736,16 +1736,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="G3">
-        <v>9.074999999999999</v>
+        <v>9.27</v>
       </c>
       <c r="I3">
-        <v>10.475</v>
+        <v>10.655</v>
       </c>
       <c r="K3">
-        <v>12.615</v>
+        <v>12.805</v>
       </c>
       <c r="L3">
-        <v>12.63</v>
+        <v>12.805</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1753,19 +1753,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8.449999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G4">
-        <v>9.005000000000001</v>
+        <v>8.885</v>
       </c>
       <c r="I4">
-        <v>10.335</v>
+        <v>10.185</v>
       </c>
       <c r="K4">
-        <v>12.23</v>
+        <v>12.09</v>
       </c>
       <c r="L4">
-        <v>12.225</v>
+        <v>12.075</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1773,19 +1773,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.15</v>
+        <v>6.94</v>
       </c>
       <c r="G5">
-        <v>9.19</v>
+        <v>9.375</v>
       </c>
       <c r="I5">
-        <v>10.82</v>
+        <v>11.025</v>
       </c>
       <c r="K5">
-        <v>11.925</v>
+        <v>12.035</v>
       </c>
       <c r="L5">
-        <v>11.835</v>
+        <v>11.93</v>
       </c>
     </row>
   </sheetData>
@@ -1844,25 +1844,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>21.817</v>
+        <v>22.228</v>
       </c>
       <c r="C2">
-        <v>23.157</v>
+        <v>22.856</v>
       </c>
       <c r="D2">
         <v>7.77</v>
       </c>
       <c r="E2">
-        <v>29.64</v>
+        <v>27.75</v>
       </c>
       <c r="F2">
-        <v>29.84</v>
+        <v>29.68</v>
       </c>
       <c r="G2">
-        <v>28.585</v>
+        <v>29.2</v>
       </c>
       <c r="I2">
-        <v>26.78</v>
+        <v>27.37</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1870,25 +1870,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>24.859</v>
+        <v>22.034</v>
       </c>
       <c r="C3">
-        <v>23.245</v>
+        <v>22.373</v>
       </c>
       <c r="D3">
         <v>7.77</v>
       </c>
       <c r="E3">
-        <v>27.27</v>
+        <v>26.69</v>
       </c>
       <c r="F3">
-        <v>27.12</v>
+        <v>27.14</v>
       </c>
       <c r="G3">
-        <v>23.79</v>
+        <v>25.86</v>
       </c>
       <c r="I3">
-        <v>23.31</v>
+        <v>24.55</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1896,25 +1896,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>13.57</v>
+        <v>16.811</v>
       </c>
       <c r="C4">
-        <v>14.29</v>
+        <v>16.061</v>
       </c>
       <c r="D4">
         <v>7.77</v>
       </c>
       <c r="E4">
-        <v>11.36</v>
+        <v>14.79</v>
       </c>
       <c r="F4">
-        <v>14.43</v>
+        <v>15.62</v>
       </c>
       <c r="G4">
-        <v>18.29</v>
+        <v>19.27</v>
       </c>
       <c r="I4">
-        <v>18.09</v>
+        <v>18.72</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1922,22 +1922,25 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>14.627</v>
+        <v>12.894</v>
       </c>
       <c r="C5">
-        <v>15.329</v>
+        <v>13.048</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>15.46</v>
+        <v>14.02</v>
       </c>
       <c r="F5">
-        <v>16.04</v>
+        <v>13.02</v>
       </c>
       <c r="G5">
-        <v>10.43</v>
+        <v>8.99</v>
       </c>
       <c r="I5">
-        <v>13.03</v>
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>
@@ -1996,34 +1999,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.87</v>
+        <v>6.9</v>
       </c>
       <c r="C2">
-        <v>7.1</v>
+        <v>7.11</v>
       </c>
       <c r="D2">
-        <v>7.187</v>
+        <v>7.206</v>
       </c>
       <c r="E2">
-        <v>7.286</v>
+        <v>7.296</v>
       </c>
       <c r="F2">
-        <v>7.262</v>
+        <v>7.305</v>
       </c>
       <c r="G2">
-        <v>7.246</v>
+        <v>7.331</v>
       </c>
       <c r="H2">
-        <v>7.254</v>
+        <v>7.386</v>
       </c>
       <c r="I2">
-        <v>7.214</v>
+        <v>7.32</v>
       </c>
       <c r="J2">
-        <v>7.352</v>
+        <v>7.459</v>
       </c>
       <c r="L2">
-        <v>7.424</v>
+        <v>7.503</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2031,34 +2034,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.86</v>
+        <v>6.82</v>
       </c>
       <c r="C3">
-        <v>7.04</v>
+        <v>7.06</v>
       </c>
       <c r="D3">
-        <v>7.112</v>
+        <v>7.044</v>
       </c>
       <c r="E3">
-        <v>7.17</v>
+        <v>7.202</v>
       </c>
       <c r="F3">
-        <v>7.158</v>
+        <v>7.179</v>
       </c>
       <c r="G3">
-        <v>7.168</v>
+        <v>7.182</v>
       </c>
       <c r="H3">
-        <v>7.18</v>
+        <v>7.186</v>
       </c>
       <c r="I3">
-        <v>7.158</v>
+        <v>7.15</v>
       </c>
       <c r="J3">
-        <v>7.237</v>
+        <v>7.253</v>
       </c>
       <c r="L3">
-        <v>7.36</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2066,34 +2069,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.73</v>
+        <v>6.75</v>
       </c>
       <c r="C4">
-        <v>6.87</v>
+        <v>6.88</v>
       </c>
       <c r="D4">
-        <v>6.921</v>
+        <v>6.941</v>
       </c>
       <c r="E4">
-        <v>7.004</v>
+        <v>7.048</v>
       </c>
       <c r="F4">
-        <v>7.041</v>
+        <v>7.11</v>
       </c>
       <c r="G4">
-        <v>7.076</v>
+        <v>7.148</v>
       </c>
       <c r="H4">
-        <v>7.092</v>
+        <v>7.159</v>
       </c>
       <c r="I4">
-        <v>7.087</v>
+        <v>7.161</v>
       </c>
       <c r="J4">
-        <v>7.229</v>
+        <v>7.305</v>
       </c>
       <c r="L4">
-        <v>7.283</v>
+        <v>7.363</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2101,34 +2104,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.33</v>
+        <v>6.38</v>
       </c>
       <c r="C5">
-        <v>6.75</v>
+        <v>6.76</v>
       </c>
       <c r="D5">
-        <v>6.87</v>
+        <v>6.927</v>
       </c>
       <c r="E5">
-        <v>7.223</v>
+        <v>7.133</v>
       </c>
       <c r="F5">
-        <v>7.39</v>
+        <v>7.353</v>
       </c>
       <c r="G5">
-        <v>7.425</v>
+        <v>7.436</v>
       </c>
       <c r="H5">
-        <v>7.486</v>
+        <v>7.481</v>
       </c>
       <c r="I5">
-        <v>7.47</v>
+        <v>7.511</v>
       </c>
       <c r="J5">
-        <v>7.568</v>
+        <v>7.581</v>
       </c>
       <c r="L5">
-        <v>7.602</v>
+        <v>7.648</v>
       </c>
     </row>
   </sheetData>
@@ -2187,37 +2190,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.829</v>
+        <v>3.826</v>
       </c>
       <c r="C2">
-        <v>3.85</v>
+        <v>3.862</v>
       </c>
       <c r="D2">
-        <v>3.784</v>
+        <v>3.795</v>
       </c>
       <c r="E2">
-        <v>3.348</v>
+        <v>3.361</v>
       </c>
       <c r="F2">
-        <v>3.199</v>
+        <v>3.168</v>
       </c>
       <c r="G2">
-        <v>3.181</v>
+        <v>3.073</v>
       </c>
       <c r="H2">
-        <v>3.244</v>
+        <v>3.105</v>
       </c>
       <c r="I2">
-        <v>3.49</v>
+        <v>3.306</v>
       </c>
       <c r="J2">
-        <v>3.782</v>
+        <v>3.602</v>
       </c>
       <c r="K2">
-        <v>3.937</v>
+        <v>3.752</v>
       </c>
       <c r="L2">
-        <v>4.037</v>
+        <v>3.828</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2225,37 +2228,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.822</v>
+        <v>3.775</v>
       </c>
       <c r="C3">
-        <v>3.84</v>
+        <v>3.842</v>
       </c>
       <c r="D3">
-        <v>3.753</v>
+        <v>3.804</v>
       </c>
       <c r="E3">
-        <v>3.441</v>
+        <v>3.476</v>
       </c>
       <c r="F3">
-        <v>3.224</v>
+        <v>3.234</v>
       </c>
       <c r="G3">
-        <v>3.06</v>
+        <v>3.113</v>
       </c>
       <c r="H3">
-        <v>3.0505</v>
+        <v>3.1069</v>
       </c>
       <c r="I3">
-        <v>3.222</v>
+        <v>3.285</v>
       </c>
       <c r="J3">
-        <v>3.477</v>
+        <v>3.532</v>
       </c>
       <c r="K3">
-        <v>3.607</v>
+        <v>3.667</v>
       </c>
       <c r="L3">
-        <v>3.688</v>
+        <v>3.758</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2263,37 +2266,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.61</v>
+        <v>3.583</v>
       </c>
       <c r="C4">
-        <v>3.682</v>
+        <v>3.672</v>
       </c>
       <c r="D4">
-        <v>3.677</v>
+        <v>3.644</v>
       </c>
       <c r="E4">
-        <v>3.315</v>
+        <v>3.282</v>
       </c>
       <c r="F4">
-        <v>3.053</v>
+        <v>3.026</v>
       </c>
       <c r="G4">
-        <v>2.903</v>
+        <v>2.891</v>
       </c>
       <c r="H4">
-        <v>2.8407</v>
+        <v>2.8529</v>
       </c>
       <c r="I4">
-        <v>2.988</v>
+        <v>3.032</v>
       </c>
       <c r="J4">
-        <v>3.213</v>
+        <v>3.275</v>
       </c>
       <c r="K4">
-        <v>3.311</v>
+        <v>3.386</v>
       </c>
       <c r="L4">
-        <v>3.364</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2301,37 +2304,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.83</v>
+        <v>0.825</v>
       </c>
       <c r="C5">
-        <v>1.385</v>
+        <v>1.4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>2.197</v>
       </c>
       <c r="E5">
-        <v>2.014</v>
+        <v>2.08</v>
       </c>
       <c r="F5">
-        <v>2.218</v>
+        <v>2.296</v>
       </c>
       <c r="G5">
-        <v>2.4</v>
+        <v>2.477</v>
       </c>
       <c r="H5">
-        <v>2.6406</v>
+        <v>2.692</v>
       </c>
       <c r="I5">
-        <v>2.942</v>
+        <v>2.988</v>
       </c>
       <c r="J5">
-        <v>3.331</v>
+        <v>3.373</v>
       </c>
       <c r="K5">
-        <v>3.387</v>
+        <v>3.42</v>
       </c>
       <c r="L5">
-        <v>3.283</v>
+        <v>3.29</v>
       </c>
     </row>
   </sheetData>
@@ -2390,37 +2393,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.772</v>
+        <v>3.789</v>
       </c>
       <c r="C2">
-        <v>3.777</v>
+        <v>3.785</v>
       </c>
       <c r="D2">
-        <v>3.661</v>
+        <v>3.678</v>
       </c>
       <c r="E2">
-        <v>3.128</v>
+        <v>3.132</v>
       </c>
       <c r="F2">
-        <v>2.985</v>
+        <v>2.976</v>
       </c>
       <c r="G2">
-        <v>2.757</v>
+        <v>2.675</v>
       </c>
       <c r="H2">
-        <v>2.729</v>
+        <v>2.62</v>
       </c>
       <c r="I2">
-        <v>2.885</v>
+        <v>2.732</v>
       </c>
       <c r="J2">
-        <v>3.084</v>
+        <v>2.926</v>
       </c>
       <c r="K2">
-        <v>3.127</v>
+        <v>2.965</v>
       </c>
       <c r="L2">
-        <v>3.111</v>
+        <v>2.929</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2428,37 +2431,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.79</v>
+        <v>3.702</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>3.794</v>
       </c>
       <c r="D3">
-        <v>3.719</v>
+        <v>3.741</v>
       </c>
       <c r="E3">
-        <v>3.21</v>
+        <v>3.247</v>
       </c>
       <c r="F3">
-        <v>3.065</v>
+        <v>3.084</v>
       </c>
       <c r="G3">
-        <v>2.686</v>
+        <v>2.745</v>
       </c>
       <c r="H3">
-        <v>2.599</v>
+        <v>2.658</v>
       </c>
       <c r="I3">
-        <v>2.67</v>
+        <v>2.735</v>
       </c>
       <c r="J3">
-        <v>2.83</v>
+        <v>2.895</v>
       </c>
       <c r="K3">
-        <v>2.857</v>
+        <v>2.928</v>
       </c>
       <c r="L3">
-        <v>2.81</v>
+        <v>2.888</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2466,37 +2469,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.533</v>
+        <v>3.514</v>
       </c>
       <c r="C4">
-        <v>3.585</v>
+        <v>3.562</v>
       </c>
       <c r="D4">
-        <v>3.676</v>
+        <v>3.607</v>
       </c>
       <c r="E4">
-        <v>3.236</v>
+        <v>3.204</v>
       </c>
       <c r="F4">
-        <v>2.93</v>
+        <v>2.892</v>
       </c>
       <c r="G4">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="H4">
-        <v>2.431</v>
+        <v>2.438</v>
       </c>
       <c r="I4">
-        <v>2.428</v>
+        <v>2.458</v>
       </c>
       <c r="J4">
-        <v>2.562</v>
+        <v>2.62</v>
       </c>
       <c r="K4">
+        <v>2.63</v>
+      </c>
+      <c r="L4">
         <v>2.563</v>
-      </c>
-      <c r="L4">
-        <v>2.478</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2504,37 +2507,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.857</v>
+        <v>0.828</v>
       </c>
       <c r="C5">
-        <v>0.79</v>
+        <v>1.434</v>
       </c>
       <c r="D5">
-        <v>1.87</v>
+        <v>2.09</v>
       </c>
       <c r="E5">
-        <v>1.959</v>
+        <v>2.04</v>
       </c>
       <c r="F5">
-        <v>1.906</v>
+        <v>2.02</v>
       </c>
       <c r="G5">
-        <v>2.125</v>
+        <v>2.223</v>
       </c>
       <c r="H5">
-        <v>2.162</v>
+        <v>2.24</v>
       </c>
       <c r="I5">
-        <v>2.361</v>
+        <v>2.437</v>
       </c>
       <c r="J5">
-        <v>2.592</v>
+        <v>2.646</v>
       </c>
       <c r="K5">
-        <v>2.591</v>
+        <v>2.651</v>
       </c>
       <c r="L5">
-        <v>2.412</v>
+        <v>2.46</v>
       </c>
     </row>
   </sheetData>
@@ -2593,22 +2596,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>5.189</v>
+        <v>5.182</v>
       </c>
       <c r="E2">
-        <v>5.203</v>
+        <v>5.219</v>
       </c>
       <c r="F2">
-        <v>5.204</v>
+        <v>5.19</v>
       </c>
       <c r="G2">
-        <v>5.414</v>
+        <v>5.397</v>
       </c>
       <c r="H2">
-        <v>5.636</v>
+        <v>5.497</v>
       </c>
       <c r="I2">
-        <v>5.965</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2616,22 +2619,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.873</v>
+        <v>5.073</v>
       </c>
       <c r="E3">
-        <v>4.857</v>
+        <v>5.094</v>
       </c>
       <c r="F3">
-        <v>4.955</v>
+        <v>5.104</v>
       </c>
       <c r="G3">
-        <v>5.14</v>
+        <v>5.253</v>
       </c>
       <c r="H3">
-        <v>5.405</v>
+        <v>5.482</v>
       </c>
       <c r="I3">
-        <v>5.607</v>
+        <v>5.792</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2639,22 +2642,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5.808</v>
+        <v>5.728</v>
       </c>
       <c r="E4">
-        <v>5.408</v>
+        <v>5.511</v>
       </c>
       <c r="F4">
-        <v>5.417</v>
+        <v>5.483</v>
       </c>
       <c r="G4">
-        <v>5.303</v>
+        <v>5.373</v>
       </c>
       <c r="H4">
-        <v>5.34</v>
+        <v>5.412</v>
       </c>
       <c r="I4">
-        <v>5.437</v>
+        <v>5.494</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2662,22 +2665,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>7.946</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="E5">
-        <v>8.083</v>
+        <v>9.002000000000001</v>
       </c>
       <c r="F5">
-        <v>8.074999999999999</v>
+        <v>9.189</v>
       </c>
       <c r="G5">
-        <v>7.986</v>
+        <v>8.971</v>
       </c>
       <c r="H5">
-        <v>7.835</v>
+        <v>8.814</v>
       </c>
       <c r="I5">
-        <v>7.739</v>
+        <v>8.760999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2736,19 +2739,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>11.069</v>
+        <v>11.14</v>
       </c>
       <c r="E2">
-        <v>10.505</v>
+        <v>10.745</v>
       </c>
       <c r="F2">
-        <v>11.181</v>
+        <v>11.051</v>
       </c>
       <c r="G2">
-        <v>11.622</v>
+        <v>11.443</v>
       </c>
       <c r="I2">
-        <v>11.98</v>
+        <v>11.821</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2756,19 +2759,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>11.135</v>
+        <v>11.165</v>
       </c>
       <c r="E3">
-        <v>10.185</v>
+        <v>10.335</v>
       </c>
       <c r="F3">
-        <v>10.4</v>
+        <v>10.595</v>
       </c>
       <c r="G3">
-        <v>10.92</v>
+        <v>11.085</v>
       </c>
       <c r="I3">
-        <v>11.34</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2776,16 +2779,16 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>11.56</v>
+        <v>11.475</v>
       </c>
       <c r="E4">
-        <v>10.424</v>
+        <v>10.37</v>
       </c>
       <c r="F4">
-        <v>10.352</v>
+        <v>10.335</v>
       </c>
       <c r="G4">
-        <v>10.645</v>
+        <v>10.675</v>
       </c>
       <c r="I4">
         <v>10.929</v>
@@ -2796,19 +2799,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>13.235</v>
+        <v>13.205</v>
       </c>
       <c r="E5">
-        <v>12.3</v>
+        <v>12.23</v>
       </c>
       <c r="F5">
-        <v>11.945</v>
+        <v>11.87</v>
       </c>
       <c r="G5">
-        <v>11.825</v>
+        <v>11.71</v>
       </c>
       <c r="I5">
-        <v>12.02</v>
+        <v>11.94</v>
       </c>
     </row>
   </sheetData>
@@ -2867,22 +2870,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>3.193</v>
+        <v>3.158</v>
       </c>
       <c r="F2">
-        <v>3.122</v>
+        <v>3.033</v>
       </c>
       <c r="G2">
-        <v>3.22</v>
+        <v>3.138</v>
       </c>
       <c r="H2">
-        <v>3.368</v>
+        <v>3.203</v>
       </c>
       <c r="I2">
-        <v>3.638</v>
+        <v>3.468</v>
+      </c>
+      <c r="J2">
+        <v>3.909</v>
       </c>
       <c r="L2">
-        <v>4.178</v>
+        <v>3.981</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2890,22 +2896,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>3.184</v>
+        <v>3.23</v>
       </c>
       <c r="F3">
-        <v>3.108</v>
+        <v>3.125</v>
       </c>
       <c r="G3">
-        <v>3.091</v>
+        <v>3.158</v>
       </c>
       <c r="H3">
-        <v>3.225</v>
+        <v>3.266</v>
       </c>
       <c r="I3">
-        <v>3.422</v>
+        <v>3.505</v>
+      </c>
+      <c r="J3">
+        <v>3.885</v>
       </c>
       <c r="L3">
-        <v>3.884</v>
+        <v>3.975</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2913,22 +2922,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>3.01</v>
+        <v>2.971</v>
       </c>
       <c r="F4">
-        <v>2.934</v>
+        <v>2.943</v>
       </c>
       <c r="G4">
-        <v>2.927</v>
+        <v>2.94</v>
       </c>
       <c r="H4">
-        <v>2.995</v>
+        <v>3.044</v>
       </c>
       <c r="I4">
-        <v>3.161</v>
+        <v>3.202</v>
+      </c>
+      <c r="J4">
+        <v>3.557</v>
       </c>
       <c r="L4">
-        <v>3.516</v>
+        <v>3.575</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2936,22 +2948,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>2.045</v>
+        <v>2.154</v>
       </c>
       <c r="F5">
-        <v>2.17</v>
+        <v>2.244</v>
       </c>
       <c r="G5">
-        <v>2.699</v>
+        <v>2.755</v>
       </c>
       <c r="H5">
-        <v>2.935</v>
+        <v>2.975</v>
       </c>
       <c r="I5">
-        <v>3.443</v>
+        <v>3.486</v>
+      </c>
+      <c r="J5">
+        <v>3.68</v>
       </c>
       <c r="L5">
-        <v>3.78</v>
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
@@ -3010,37 +3025,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.34</v>
+        <v>5.354</v>
       </c>
       <c r="C2">
-        <v>5.475</v>
+        <v>5.439</v>
       </c>
       <c r="D2">
-        <v>4.902</v>
+        <v>5.001</v>
       </c>
       <c r="E2">
-        <v>4.881</v>
+        <v>4.847</v>
       </c>
       <c r="F2">
-        <v>4.667</v>
+        <v>4.564</v>
       </c>
       <c r="G2">
-        <v>4.563</v>
+        <v>4.453</v>
       </c>
       <c r="H2">
-        <v>4.427</v>
+        <v>4.264</v>
       </c>
       <c r="I2">
-        <v>4.577</v>
+        <v>4.389</v>
       </c>
       <c r="J2">
-        <v>4.887</v>
+        <v>4.689</v>
       </c>
       <c r="K2">
-        <v>4.992</v>
+        <v>4.789</v>
       </c>
       <c r="L2">
-        <v>5.034</v>
+        <v>4.829</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3048,37 +3063,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.53</v>
+        <v>5.371</v>
       </c>
       <c r="C3">
-        <v>5.694</v>
+        <v>5.435</v>
       </c>
       <c r="D3">
-        <v>5.141</v>
+        <v>4.977</v>
       </c>
       <c r="E3">
-        <v>5.03</v>
+        <v>4.791</v>
       </c>
       <c r="F3">
-        <v>4.661</v>
+        <v>4.488</v>
       </c>
       <c r="G3">
-        <v>4.54</v>
+        <v>4.367</v>
       </c>
       <c r="H3">
-        <v>4.271</v>
+        <v>4.133</v>
       </c>
       <c r="I3">
-        <v>4.364</v>
+        <v>4.252</v>
       </c>
       <c r="J3">
-        <v>4.616</v>
+        <v>4.549</v>
       </c>
       <c r="K3">
-        <v>4.688</v>
+        <v>4.65</v>
       </c>
       <c r="L3">
-        <v>4.703</v>
+        <v>4.684</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3086,37 +3101,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.522</v>
+        <v>5.392</v>
       </c>
       <c r="C4">
-        <v>5.734</v>
+        <v>5.677</v>
       </c>
       <c r="D4">
-        <v>5.176</v>
+        <v>5.166</v>
       </c>
       <c r="E4">
-        <v>4.93</v>
+        <v>4.976</v>
       </c>
       <c r="F4">
-        <v>4.65</v>
+        <v>4.714</v>
       </c>
       <c r="G4">
-        <v>4.361</v>
+        <v>4.41</v>
       </c>
       <c r="H4">
-        <v>4.234</v>
+        <v>4.276</v>
       </c>
       <c r="I4">
-        <v>4.271</v>
+        <v>4.327</v>
       </c>
       <c r="J4">
-        <v>4.458</v>
+        <v>4.514</v>
       </c>
       <c r="K4">
-        <v>4.463</v>
+        <v>4.519</v>
       </c>
       <c r="L4">
-        <v>4.417</v>
+        <v>4.482</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3124,37 +3139,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.915</v>
+        <v>2.902</v>
       </c>
       <c r="C5">
-        <v>3.867</v>
+        <v>3.891</v>
       </c>
       <c r="D5">
-        <v>3.508</v>
+        <v>3.453</v>
       </c>
       <c r="E5">
-        <v>3.877</v>
+        <v>3.69</v>
       </c>
       <c r="F5">
-        <v>4.041</v>
+        <v>3.777</v>
       </c>
       <c r="G5">
-        <v>4.317</v>
+        <v>4.083</v>
       </c>
       <c r="H5">
-        <v>4.423</v>
+        <v>4.165</v>
       </c>
       <c r="I5">
-        <v>4.323</v>
+        <v>4.028</v>
       </c>
       <c r="J5">
-        <v>4.728</v>
+        <v>4.288</v>
       </c>
       <c r="K5">
-        <v>4.847</v>
+        <v>4.229</v>
       </c>
       <c r="L5">
-        <v>4.778</v>
+        <v>4.035</v>
       </c>
     </row>
   </sheetData>
@@ -3213,37 +3228,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.306</v>
+        <v>-0.206</v>
       </c>
       <c r="C2">
-        <v>-0.176</v>
+        <v>-0.182</v>
       </c>
       <c r="D2">
-        <v>-0.051</v>
+        <v>-0.06</v>
       </c>
       <c r="E2">
-        <v>0.059</v>
+        <v>0.042</v>
       </c>
       <c r="F2">
-        <v>0.137</v>
+        <v>0.112</v>
       </c>
       <c r="G2">
-        <v>0.327</v>
+        <v>0.314</v>
       </c>
       <c r="H2">
-        <v>0.57</v>
+        <v>0.511</v>
       </c>
       <c r="I2">
-        <v>0.799</v>
+        <v>0.758</v>
       </c>
       <c r="J2">
-        <v>1.253</v>
+        <v>1.194</v>
       </c>
       <c r="K2">
-        <v>1.538</v>
+        <v>1.477</v>
       </c>
       <c r="L2">
-        <v>1.755</v>
+        <v>1.702</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3251,37 +3266,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-0.238</v>
+        <v>-0.171</v>
       </c>
       <c r="C3">
-        <v>-0.149</v>
+        <v>-0.157</v>
       </c>
       <c r="D3">
-        <v>-0.065</v>
+        <v>-0.047</v>
       </c>
       <c r="E3">
-        <v>0.031</v>
+        <v>0.038</v>
       </c>
       <c r="F3">
-        <v>0.095</v>
+        <v>0.122</v>
       </c>
       <c r="G3">
-        <v>0.275</v>
+        <v>0.306</v>
       </c>
       <c r="H3">
-        <v>0.455</v>
+        <v>0.526</v>
       </c>
       <c r="I3">
-        <v>0.705</v>
+        <v>0.746</v>
       </c>
       <c r="J3">
-        <v>1.138</v>
+        <v>1.217</v>
       </c>
       <c r="K3">
-        <v>1.426</v>
+        <v>1.462</v>
       </c>
       <c r="L3">
-        <v>1.676</v>
+        <v>1.697</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3289,37 +3304,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.132</v>
+        <v>-0.106</v>
       </c>
       <c r="C4">
-        <v>-0.198</v>
+        <v>-0.169</v>
       </c>
       <c r="D4">
-        <v>-0.133</v>
+        <v>-0.104</v>
       </c>
       <c r="E4">
-        <v>-0.032</v>
+        <v>-0.007</v>
       </c>
       <c r="F4">
-        <v>-0.024</v>
+        <v>-0.031</v>
       </c>
       <c r="G4">
-        <v>0.12</v>
+        <v>0.156</v>
       </c>
       <c r="H4">
-        <v>0.289</v>
+        <v>0.338</v>
       </c>
       <c r="I4">
-        <v>0.48</v>
+        <v>0.556</v>
       </c>
       <c r="J4">
-        <v>0.867</v>
+        <v>0.889</v>
       </c>
       <c r="K4">
-        <v>1.108</v>
+        <v>1.135</v>
       </c>
       <c r="L4">
-        <v>1.368</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3327,37 +3342,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.164</v>
+        <v>-0.153</v>
       </c>
       <c r="C5">
         <v>-0.155</v>
       </c>
       <c r="D5">
-        <v>-0.113</v>
+        <v>-0.076</v>
       </c>
       <c r="E5">
-        <v>-0.054</v>
+        <v>-0.007</v>
       </c>
       <c r="F5">
-        <v>-0.03</v>
+        <v>0.012</v>
       </c>
       <c r="G5">
-        <v>0.067</v>
+        <v>0.134</v>
       </c>
       <c r="H5">
-        <v>0.219</v>
+        <v>0.251</v>
       </c>
       <c r="I5">
-        <v>0.25</v>
+        <v>0.255</v>
       </c>
       <c r="J5">
-        <v>0.788</v>
+        <v>0.895</v>
       </c>
       <c r="K5">
-        <v>1.073</v>
+        <v>1.2</v>
       </c>
       <c r="L5">
-        <v>1.46</v>
+        <v>1.585</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -487,31 +487,25 @@
         <v>5.16</v>
       </c>
       <c r="C2">
-        <v>5.24</v>
+        <v>5.19</v>
       </c>
       <c r="D2">
-        <v>5.3</v>
+        <v>5.22</v>
       </c>
       <c r="E2">
-        <v>4.859</v>
+        <v>4.783</v>
       </c>
       <c r="F2">
-        <v>4.705</v>
+        <v>4.651</v>
       </c>
       <c r="G2">
-        <v>4.212</v>
-      </c>
-      <c r="H2">
-        <v>4.075</v>
+        <v>4.242</v>
       </c>
       <c r="I2">
-        <v>3.973</v>
+        <v>4.073</v>
       </c>
       <c r="K2">
-        <v>3.898</v>
-      </c>
-      <c r="L2">
-        <v>3.704</v>
+        <v>4.021</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -519,34 +513,28 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.12</v>
+        <v>5.13</v>
       </c>
       <c r="C3">
-        <v>5.23</v>
+        <v>5.21</v>
       </c>
       <c r="D3">
-        <v>5.33</v>
+        <v>5.3</v>
       </c>
       <c r="E3">
-        <v>4.907</v>
+        <v>4.875</v>
       </c>
       <c r="F3">
-        <v>4.652</v>
+        <v>4.645</v>
       </c>
       <c r="G3">
-        <v>4.207</v>
-      </c>
-      <c r="H3">
-        <v>4.04</v>
+        <v>4.251</v>
       </c>
       <c r="I3">
-        <v>3.914</v>
+        <v>4.032</v>
       </c>
       <c r="K3">
-        <v>3.868</v>
-      </c>
-      <c r="L3">
-        <v>3.693</v>
+        <v>3.994</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -554,34 +542,28 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.05</v>
+        <v>5.08</v>
       </c>
       <c r="C4">
-        <v>5.2</v>
+        <v>5.18</v>
       </c>
       <c r="D4">
-        <v>5.26</v>
+        <v>5.23</v>
       </c>
       <c r="E4">
-        <v>4.686</v>
+        <v>4.579</v>
       </c>
       <c r="F4">
-        <v>4.434</v>
+        <v>4.329</v>
       </c>
       <c r="G4">
-        <v>3.933</v>
-      </c>
-      <c r="H4">
-        <v>3.691</v>
+        <v>3.872</v>
       </c>
       <c r="I4">
-        <v>3.522</v>
+        <v>3.553</v>
       </c>
       <c r="K4">
-        <v>3.482</v>
-      </c>
-      <c r="L4">
-        <v>3.338</v>
+        <v>3.592</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -589,34 +571,28 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.98</v>
+        <v>3.96</v>
       </c>
       <c r="C5">
-        <v>4.27</v>
+        <v>4.1</v>
       </c>
       <c r="D5">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="E5">
-        <v>4.186</v>
+        <v>3.851</v>
       </c>
       <c r="F5">
-        <v>4.151</v>
+        <v>3.817</v>
       </c>
       <c r="G5">
-        <v>3.741</v>
-      </c>
-      <c r="H5">
-        <v>3.623</v>
+        <v>3.398</v>
       </c>
       <c r="I5">
-        <v>3.618</v>
+        <v>3.24</v>
       </c>
       <c r="K5">
-        <v>3.794</v>
-      </c>
-      <c r="L5">
-        <v>3.697</v>
+        <v>3.434</v>
       </c>
     </row>
   </sheetData>
@@ -675,31 +651,28 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.497</v>
+        <v>5.474</v>
       </c>
       <c r="C2">
-        <v>5.565</v>
+        <v>5.547</v>
       </c>
       <c r="D2">
-        <v>5.405</v>
+        <v>5.42</v>
       </c>
       <c r="E2">
-        <v>5.058</v>
+        <v>5.071</v>
       </c>
       <c r="F2">
-        <v>4.817</v>
+        <v>4.913</v>
       </c>
       <c r="G2">
-        <v>4.644</v>
+        <v>4.854</v>
       </c>
       <c r="H2">
-        <v>4.654</v>
+        <v>4.917</v>
       </c>
       <c r="I2">
-        <v>4.616</v>
-      </c>
-      <c r="L2">
-        <v>4.756</v>
+        <v>4.914</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -707,31 +680,28 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.482</v>
+        <v>5.477</v>
       </c>
       <c r="C3">
-        <v>5.541</v>
+        <v>5.552</v>
       </c>
       <c r="D3">
-        <v>5.461</v>
+        <v>5.47</v>
       </c>
       <c r="E3">
-        <v>5.112</v>
+        <v>5.052</v>
       </c>
       <c r="F3">
-        <v>4.804</v>
+        <v>4.808</v>
       </c>
       <c r="G3">
-        <v>4.566</v>
+        <v>4.616</v>
       </c>
       <c r="H3">
-        <v>4.528</v>
+        <v>4.621</v>
       </c>
       <c r="I3">
-        <v>4.438</v>
-      </c>
-      <c r="L3">
-        <v>4.529</v>
+        <v>4.579</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -739,31 +709,28 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.432</v>
+        <v>5.43</v>
       </c>
       <c r="C4">
-        <v>5.507</v>
+        <v>5.466</v>
       </c>
       <c r="D4">
-        <v>5.387</v>
+        <v>5.347</v>
       </c>
       <c r="E4">
-        <v>4.885</v>
+        <v>4.768</v>
       </c>
       <c r="F4">
-        <v>4.528</v>
+        <v>4.45</v>
       </c>
       <c r="G4">
-        <v>4.183</v>
+        <v>4.139</v>
       </c>
       <c r="H4">
-        <v>4.08</v>
+        <v>4.093</v>
       </c>
       <c r="I4">
-        <v>3.957</v>
-      </c>
-      <c r="L4">
-        <v>4.013</v>
+        <v>4.042</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -771,31 +738,28 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.992</v>
+        <v>4.082</v>
       </c>
       <c r="C5">
-        <v>4.441</v>
+        <v>4.521</v>
       </c>
       <c r="D5">
-        <v>4.567</v>
+        <v>4.57</v>
       </c>
       <c r="E5">
-        <v>4.483</v>
+        <v>4.414</v>
       </c>
       <c r="F5">
-        <v>4.519</v>
+        <v>4.366</v>
       </c>
       <c r="G5">
-        <v>4.348</v>
+        <v>4.181</v>
       </c>
       <c r="H5">
-        <v>4.293</v>
+        <v>4.101</v>
       </c>
       <c r="I5">
-        <v>4.219</v>
-      </c>
-      <c r="L5">
-        <v>4.337</v>
+        <v>4.01</v>
       </c>
     </row>
   </sheetData>
@@ -854,22 +818,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>16.6</v>
+        <v>12.16</v>
       </c>
       <c r="E2">
-        <v>13.42</v>
+        <v>13.47</v>
       </c>
       <c r="F2">
-        <v>12.4</v>
+        <v>12.58</v>
       </c>
       <c r="G2">
-        <v>13.01</v>
+        <v>13.08</v>
       </c>
       <c r="I2">
-        <v>12.24</v>
+        <v>12.35</v>
       </c>
       <c r="J2">
-        <v>12.45</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -877,22 +841,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>15.96</v>
+        <v>16.45</v>
       </c>
       <c r="E3">
-        <v>12.68</v>
+        <v>13.15</v>
       </c>
       <c r="F3">
-        <v>11.99</v>
+        <v>12.3</v>
       </c>
       <c r="G3">
-        <v>12.39</v>
+        <v>12.75</v>
       </c>
       <c r="I3">
-        <v>12.65</v>
+        <v>12.93</v>
       </c>
       <c r="J3">
-        <v>11.95</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -900,22 +864,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>10.78</v>
+        <v>11.31</v>
       </c>
       <c r="E4">
-        <v>9.35</v>
+        <v>9.66</v>
       </c>
       <c r="F4">
-        <v>10.8</v>
+        <v>11.08</v>
       </c>
       <c r="G4">
-        <v>10.08</v>
+        <v>10.29</v>
       </c>
       <c r="I4">
-        <v>11.46</v>
+        <v>11.58</v>
       </c>
       <c r="J4">
-        <v>11.68</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -923,22 +887,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>9.529999999999999</v>
+        <v>9.48</v>
       </c>
       <c r="E5">
-        <v>8.1</v>
+        <v>8.34</v>
       </c>
       <c r="F5">
-        <v>8.640000000000001</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="G5">
-        <v>9.130000000000001</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="I5">
-        <v>9.779999999999999</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="J5">
-        <v>10.26</v>
+        <v>10.24</v>
       </c>
     </row>
   </sheetData>
@@ -997,25 +961,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.203</v>
+        <v>4.383</v>
       </c>
       <c r="E2">
-        <v>4.043</v>
+        <v>4.275</v>
       </c>
       <c r="F2">
-        <v>3.958</v>
+        <v>4.205</v>
       </c>
       <c r="G2">
-        <v>4.076</v>
+        <v>4.355</v>
       </c>
       <c r="H2">
-        <v>4.272</v>
+        <v>4.572</v>
       </c>
       <c r="I2">
-        <v>4.475</v>
+        <v>4.749</v>
       </c>
       <c r="J2">
-        <v>4.735</v>
+        <v>5.025</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1023,25 +987,25 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.201</v>
+        <v>4.241</v>
       </c>
       <c r="E3">
-        <v>4.084</v>
+        <v>4.115</v>
       </c>
       <c r="F3">
-        <v>4.06</v>
+        <v>4.115</v>
       </c>
       <c r="G3">
-        <v>4.103</v>
+        <v>4.173</v>
       </c>
       <c r="H3">
-        <v>4.248</v>
+        <v>4.362</v>
       </c>
       <c r="I3">
-        <v>4.363</v>
+        <v>4.513</v>
       </c>
       <c r="J3">
-        <v>4.598</v>
+        <v>4.753</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1049,25 +1013,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.143</v>
+        <v>4.112</v>
       </c>
       <c r="E4">
-        <v>4.049</v>
+        <v>3.98</v>
       </c>
       <c r="F4">
-        <v>3.937</v>
+        <v>3.872</v>
       </c>
       <c r="G4">
-        <v>3.891</v>
+        <v>3.879</v>
       </c>
       <c r="H4">
-        <v>3.994</v>
+        <v>4.025</v>
       </c>
       <c r="I4">
-        <v>4.099</v>
+        <v>4.166</v>
       </c>
       <c r="J4">
-        <v>4.247</v>
+        <v>4.338</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1075,25 +1039,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>3.465</v>
+        <v>3.154</v>
       </c>
       <c r="E5">
-        <v>3.655</v>
+        <v>3.236</v>
       </c>
       <c r="F5">
-        <v>3.76</v>
+        <v>3.3</v>
       </c>
       <c r="G5">
-        <v>3.92</v>
+        <v>3.459</v>
       </c>
       <c r="H5">
-        <v>4.07</v>
+        <v>3.625</v>
       </c>
       <c r="I5">
-        <v>4.204</v>
+        <v>3.77</v>
       </c>
       <c r="J5">
-        <v>4.428</v>
+        <v>3.999</v>
       </c>
     </row>
   </sheetData>
@@ -1152,31 +1116,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.624</v>
+        <v>3.91</v>
       </c>
       <c r="C2">
-        <v>4.015</v>
+        <v>3.994</v>
       </c>
       <c r="D2">
-        <v>3.96</v>
+        <v>3.975</v>
       </c>
       <c r="E2">
-        <v>4.028</v>
+        <v>4.053</v>
       </c>
       <c r="F2">
-        <v>3.993</v>
+        <v>4.041</v>
       </c>
       <c r="G2">
-        <v>4.18</v>
+        <v>4.29</v>
       </c>
       <c r="H2">
-        <v>4.454</v>
+        <v>4.597</v>
       </c>
       <c r="I2">
-        <v>4.772</v>
+        <v>4.924</v>
       </c>
       <c r="J2">
-        <v>5.03</v>
+        <v>5.208</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1184,31 +1148,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.799</v>
+        <v>3.882</v>
       </c>
       <c r="C3">
-        <v>3.932</v>
+        <v>3.901</v>
       </c>
       <c r="D3">
-        <v>3.934</v>
+        <v>4.015</v>
       </c>
       <c r="E3">
-        <v>3.963</v>
+        <v>4.019</v>
       </c>
       <c r="F3">
-        <v>3.892</v>
+        <v>3.983</v>
       </c>
       <c r="G3">
-        <v>4.056</v>
+        <v>4.201</v>
       </c>
       <c r="H3">
-        <v>4.305</v>
+        <v>4.486</v>
       </c>
       <c r="I3">
-        <v>4.582</v>
+        <v>4.786</v>
       </c>
       <c r="J3">
-        <v>4.824</v>
+        <v>5.028</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1216,31 +1180,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.501</v>
+        <v>3.494</v>
       </c>
       <c r="C4">
-        <v>3.599</v>
+        <v>3.486</v>
       </c>
       <c r="D4">
-        <v>3.809</v>
+        <v>3.806</v>
       </c>
       <c r="E4">
-        <v>3.697</v>
+        <v>3.724</v>
       </c>
       <c r="F4">
-        <v>3.59</v>
+        <v>3.61</v>
       </c>
       <c r="G4">
-        <v>3.643</v>
+        <v>3.708</v>
       </c>
       <c r="H4">
-        <v>3.835</v>
+        <v>3.957</v>
       </c>
       <c r="I4">
-        <v>4.105</v>
+        <v>4.226</v>
       </c>
       <c r="J4">
-        <v>4.321</v>
+        <v>4.459</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1248,31 +1212,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.791</v>
+        <v>0.819</v>
       </c>
       <c r="C5">
-        <v>1.745</v>
+        <v>1.887</v>
       </c>
       <c r="D5">
-        <v>2.599</v>
+        <v>2.441</v>
       </c>
       <c r="E5">
-        <v>3.051</v>
+        <v>2.627</v>
       </c>
       <c r="F5">
-        <v>3.474</v>
+        <v>3.03</v>
       </c>
       <c r="G5">
-        <v>3.9</v>
+        <v>3.355</v>
       </c>
       <c r="H5">
-        <v>4.257</v>
+        <v>3.672</v>
       </c>
       <c r="I5">
-        <v>4.774</v>
+        <v>4.153</v>
       </c>
       <c r="J5">
-        <v>4.722</v>
+        <v>4.159</v>
       </c>
     </row>
   </sheetData>
@@ -1334,34 +1298,34 @@
         <v>1.63</v>
       </c>
       <c r="C2">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="D2">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="E2">
-        <v>1.252</v>
+        <v>1.2</v>
       </c>
       <c r="F2">
-        <v>1.175</v>
+        <v>1.096</v>
       </c>
       <c r="G2">
-        <v>1.087</v>
+        <v>1.05</v>
       </c>
       <c r="H2">
-        <v>1.052</v>
+        <v>1.028</v>
       </c>
       <c r="I2">
-        <v>1.101</v>
+        <v>1.126</v>
       </c>
       <c r="J2">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="K2">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="L2">
-        <v>1.075</v>
+        <v>1.145</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1369,37 +1333,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="C3">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="D3">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="E3">
-        <v>1.243</v>
+        <v>1.246</v>
       </c>
       <c r="F3">
-        <v>1.177</v>
+        <v>1.249</v>
       </c>
       <c r="G3">
-        <v>1.075</v>
+        <v>1.064</v>
       </c>
       <c r="H3">
-        <v>1.04</v>
+        <v>1.033</v>
       </c>
       <c r="I3">
-        <v>1.09</v>
+        <v>1.093</v>
       </c>
       <c r="J3">
-        <v>1.144</v>
+        <v>1.148</v>
       </c>
       <c r="K3">
-        <v>1.15</v>
+        <v>1.159</v>
       </c>
       <c r="L3">
-        <v>1.11</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1407,37 +1371,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="C4">
         <v>1.65</v>
       </c>
       <c r="D4">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="E4">
-        <v>1.181</v>
+        <v>1.121</v>
       </c>
       <c r="F4">
-        <v>1.076</v>
+        <v>1.082</v>
       </c>
       <c r="G4">
-        <v>1.046</v>
+        <v>1.014</v>
       </c>
       <c r="H4">
-        <v>1.026</v>
+        <v>1.007</v>
       </c>
       <c r="I4">
-        <v>1.006</v>
+        <v>1.036</v>
       </c>
       <c r="J4">
-        <v>1.02</v>
+        <v>1.065</v>
       </c>
       <c r="K4">
-        <v>1.002</v>
+        <v>1.052</v>
       </c>
       <c r="L4">
-        <v>0.971</v>
+        <v>1.072</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1445,37 +1409,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="C5">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
       <c r="D5">
-        <v>1.13</v>
+        <v>0.95</v>
       </c>
       <c r="E5">
-        <v>0.569</v>
+        <v>0.531</v>
       </c>
       <c r="F5">
-        <v>0.67</v>
+        <v>0.611</v>
       </c>
       <c r="G5">
-        <v>0.979</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H5">
-        <v>1.191</v>
+        <v>0.972</v>
       </c>
       <c r="I5">
-        <v>1.369</v>
+        <v>1.127</v>
       </c>
       <c r="J5">
-        <v>1.448</v>
+        <v>1.236</v>
       </c>
       <c r="K5">
-        <v>1.334</v>
+        <v>1.133</v>
       </c>
       <c r="L5">
-        <v>1.285</v>
+        <v>1.087</v>
       </c>
     </row>
   </sheetData>
@@ -1534,31 +1498,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>2.09</v>
+        <v>2.297</v>
       </c>
       <c r="E2">
-        <v>2.28</v>
+        <v>2.29</v>
       </c>
       <c r="F2">
-        <v>2.299</v>
+        <v>2.518</v>
       </c>
       <c r="G2">
-        <v>2.499</v>
+        <v>2.628</v>
       </c>
       <c r="H2">
-        <v>2.678</v>
+        <v>2.737</v>
       </c>
       <c r="I2">
-        <v>2.7</v>
+        <v>2.741</v>
       </c>
       <c r="J2">
-        <v>2.83</v>
+        <v>2.855</v>
       </c>
       <c r="K2">
-        <v>3.052</v>
+        <v>3.08</v>
       </c>
       <c r="L2">
-        <v>3.007</v>
+        <v>3.021</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1566,31 +1530,31 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="E3">
-        <v>2.28</v>
+        <v>2.29</v>
       </c>
       <c r="F3">
-        <v>2.299</v>
+        <v>2.403</v>
       </c>
       <c r="G3">
-        <v>2.499</v>
+        <v>2.551</v>
       </c>
       <c r="H3">
-        <v>2.678</v>
+        <v>2.679</v>
       </c>
       <c r="I3">
-        <v>2.7</v>
+        <v>2.695</v>
       </c>
       <c r="J3">
-        <v>2.83</v>
+        <v>2.829</v>
       </c>
       <c r="K3">
-        <v>3.069</v>
+        <v>3.085</v>
       </c>
       <c r="L3">
-        <v>3.013</v>
+        <v>2.993</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1601,28 +1565,28 @@
         <v>2.09</v>
       </c>
       <c r="E4">
-        <v>2.28</v>
+        <v>2.29</v>
       </c>
       <c r="F4">
         <v>2.299</v>
       </c>
       <c r="G4">
-        <v>2.552</v>
+        <v>2.499</v>
       </c>
       <c r="H4">
-        <v>2.678</v>
+        <v>2.654</v>
       </c>
       <c r="I4">
         <v>2.7</v>
       </c>
       <c r="J4">
-        <v>2.83</v>
+        <v>2.848</v>
       </c>
       <c r="K4">
-        <v>3.069</v>
+        <v>3.07</v>
       </c>
       <c r="L4">
-        <v>3.013</v>
+        <v>3.007</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1630,31 +1594,31 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1.749</v>
+        <v>1.743</v>
       </c>
       <c r="E5">
-        <v>2.09</v>
+        <v>2.064</v>
       </c>
       <c r="F5">
-        <v>2.265</v>
+        <v>2.228</v>
       </c>
       <c r="G5">
-        <v>2.496</v>
+        <v>2.44</v>
       </c>
       <c r="H5">
-        <v>2.709</v>
+        <v>2.666</v>
       </c>
       <c r="I5">
-        <v>2.729</v>
+        <v>2.683</v>
       </c>
       <c r="J5">
-        <v>2.828</v>
+        <v>2.815</v>
       </c>
       <c r="K5">
-        <v>3.237</v>
+        <v>3.203</v>
       </c>
       <c r="L5">
-        <v>3.161</v>
+        <v>3.128</v>
       </c>
     </row>
   </sheetData>
@@ -1716,16 +1680,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="G2">
-        <v>9.34</v>
+        <v>9.42</v>
       </c>
       <c r="I2">
-        <v>10.73</v>
+        <v>10.8</v>
       </c>
       <c r="K2">
-        <v>12.875</v>
+        <v>12.945</v>
       </c>
       <c r="L2">
-        <v>12.845</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1733,19 +1697,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>9.27</v>
+        <v>9.41</v>
       </c>
       <c r="I3">
-        <v>10.655</v>
+        <v>10.81</v>
       </c>
       <c r="K3">
-        <v>12.805</v>
+        <v>12.88</v>
       </c>
       <c r="L3">
-        <v>12.805</v>
+        <v>12.87</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1753,19 +1717,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8.800000000000001</v>
+        <v>8.85</v>
       </c>
       <c r="G4">
-        <v>8.885</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="I4">
-        <v>10.185</v>
+        <v>10.26</v>
       </c>
       <c r="K4">
-        <v>12.09</v>
+        <v>12.22</v>
       </c>
       <c r="L4">
-        <v>12.075</v>
+        <v>12.195</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1773,19 +1737,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.94</v>
+        <v>7.09</v>
       </c>
       <c r="G5">
-        <v>9.375</v>
+        <v>9.005000000000001</v>
       </c>
       <c r="I5">
-        <v>11.025</v>
+        <v>10.78</v>
       </c>
       <c r="K5">
-        <v>12.035</v>
+        <v>11.84</v>
       </c>
       <c r="L5">
-        <v>11.93</v>
+        <v>11.72</v>
       </c>
     </row>
   </sheetData>
@@ -1844,25 +1808,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>22.228</v>
+        <v>19.834</v>
       </c>
       <c r="C2">
-        <v>22.856</v>
+        <v>22.744</v>
       </c>
       <c r="D2">
         <v>7.77</v>
       </c>
       <c r="E2">
-        <v>27.75</v>
+        <v>30.695</v>
       </c>
       <c r="F2">
         <v>29.68</v>
       </c>
       <c r="G2">
-        <v>29.2</v>
+        <v>30.76</v>
       </c>
       <c r="I2">
-        <v>27.37</v>
+        <v>27.925</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1870,25 +1834,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>22.034</v>
+        <v>21.087</v>
       </c>
       <c r="C3">
-        <v>22.373</v>
+        <v>21.925</v>
       </c>
       <c r="D3">
         <v>7.77</v>
       </c>
       <c r="E3">
-        <v>26.69</v>
+        <v>27.83</v>
       </c>
       <c r="F3">
-        <v>27.14</v>
+        <v>27.51</v>
       </c>
       <c r="G3">
-        <v>25.86</v>
+        <v>26.8</v>
       </c>
       <c r="I3">
-        <v>24.55</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1896,25 +1860,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>16.811</v>
+        <v>13.873</v>
       </c>
       <c r="C4">
-        <v>16.061</v>
+        <v>14.943</v>
       </c>
       <c r="D4">
         <v>7.77</v>
       </c>
       <c r="E4">
-        <v>14.79</v>
+        <v>15.44</v>
       </c>
       <c r="F4">
-        <v>15.62</v>
+        <v>15.72</v>
       </c>
       <c r="G4">
-        <v>19.27</v>
+        <v>19.29</v>
       </c>
       <c r="I4">
-        <v>18.72</v>
+        <v>17.73</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1922,25 +1886,25 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>12.894</v>
+        <v>13.627</v>
       </c>
       <c r="C5">
-        <v>13.048</v>
+        <v>14.027</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>14.02</v>
+        <v>14.78</v>
       </c>
       <c r="F5">
-        <v>13.02</v>
+        <v>14.16</v>
       </c>
       <c r="G5">
-        <v>8.99</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="I5">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
     </row>
   </sheetData>
@@ -1999,34 +1963,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.9</v>
+        <v>6.93</v>
       </c>
       <c r="C2">
-        <v>7.11</v>
+        <v>7.14</v>
       </c>
       <c r="D2">
-        <v>7.206</v>
+        <v>7.35</v>
       </c>
       <c r="E2">
-        <v>7.296</v>
+        <v>7.341</v>
       </c>
       <c r="F2">
-        <v>7.305</v>
+        <v>7.319</v>
       </c>
       <c r="G2">
-        <v>7.331</v>
+        <v>7.378</v>
       </c>
       <c r="H2">
-        <v>7.386</v>
+        <v>7.418</v>
       </c>
       <c r="I2">
-        <v>7.32</v>
+        <v>7.369</v>
       </c>
       <c r="J2">
-        <v>7.459</v>
+        <v>7.499</v>
       </c>
       <c r="L2">
-        <v>7.503</v>
+        <v>7.538</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2034,34 +1998,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.82</v>
+        <v>6.87</v>
       </c>
       <c r="C3">
-        <v>7.06</v>
+        <v>7.08</v>
       </c>
       <c r="D3">
-        <v>7.044</v>
+        <v>6.975</v>
       </c>
       <c r="E3">
-        <v>7.202</v>
+        <v>7.256</v>
       </c>
       <c r="F3">
-        <v>7.179</v>
+        <v>7.262</v>
       </c>
       <c r="G3">
-        <v>7.182</v>
+        <v>7.233</v>
       </c>
       <c r="H3">
-        <v>7.186</v>
+        <v>7.247</v>
       </c>
       <c r="I3">
-        <v>7.15</v>
+        <v>7.21</v>
       </c>
       <c r="J3">
-        <v>7.253</v>
+        <v>7.335</v>
       </c>
       <c r="L3">
-        <v>7.34</v>
+        <v>7.412</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2069,34 +2033,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.75</v>
+        <v>6.73</v>
       </c>
       <c r="C4">
-        <v>6.88</v>
+        <v>6.9</v>
       </c>
       <c r="D4">
-        <v>6.941</v>
+        <v>6.947</v>
       </c>
       <c r="E4">
-        <v>7.048</v>
+        <v>7.085</v>
       </c>
       <c r="F4">
-        <v>7.11</v>
+        <v>7.161</v>
       </c>
       <c r="G4">
-        <v>7.148</v>
+        <v>7.172</v>
       </c>
       <c r="H4">
-        <v>7.159</v>
+        <v>7.191</v>
       </c>
       <c r="I4">
-        <v>7.161</v>
+        <v>7.193</v>
       </c>
       <c r="J4">
-        <v>7.305</v>
+        <v>7.34</v>
       </c>
       <c r="L4">
-        <v>7.363</v>
+        <v>7.389</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2104,34 +2068,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.38</v>
+        <v>6.45</v>
       </c>
       <c r="C5">
-        <v>6.76</v>
+        <v>6.75</v>
       </c>
       <c r="D5">
-        <v>6.927</v>
+        <v>6.799</v>
       </c>
       <c r="E5">
-        <v>7.133</v>
+        <v>6.974</v>
       </c>
       <c r="F5">
-        <v>7.353</v>
+        <v>7.32</v>
       </c>
       <c r="G5">
-        <v>7.436</v>
+        <v>7.34</v>
       </c>
       <c r="H5">
-        <v>7.481</v>
+        <v>7.393</v>
       </c>
       <c r="I5">
-        <v>7.511</v>
+        <v>7.416</v>
       </c>
       <c r="J5">
-        <v>7.581</v>
+        <v>7.504</v>
       </c>
       <c r="L5">
-        <v>7.648</v>
+        <v>7.537</v>
       </c>
     </row>
   </sheetData>
@@ -2190,37 +2154,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.826</v>
+        <v>3.764</v>
       </c>
       <c r="C2">
-        <v>3.862</v>
+        <v>3.836</v>
       </c>
       <c r="D2">
-        <v>3.795</v>
+        <v>3.772</v>
       </c>
       <c r="E2">
-        <v>3.361</v>
+        <v>3.408</v>
       </c>
       <c r="F2">
-        <v>3.168</v>
+        <v>3.228</v>
       </c>
       <c r="G2">
-        <v>3.073</v>
+        <v>3.172</v>
       </c>
       <c r="H2">
-        <v>3.105</v>
+        <v>3.235</v>
       </c>
       <c r="I2">
-        <v>3.306</v>
+        <v>3.524</v>
       </c>
       <c r="J2">
-        <v>3.602</v>
+        <v>3.775</v>
       </c>
       <c r="K2">
-        <v>3.752</v>
+        <v>3.935</v>
       </c>
       <c r="L2">
-        <v>3.828</v>
+        <v>4.007</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2228,37 +2192,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.775</v>
+        <v>3.836</v>
       </c>
       <c r="C3">
-        <v>3.842</v>
+        <v>3.802</v>
       </c>
       <c r="D3">
-        <v>3.804</v>
+        <v>3.8</v>
       </c>
       <c r="E3">
-        <v>3.476</v>
+        <v>3.441</v>
       </c>
       <c r="F3">
-        <v>3.234</v>
+        <v>3.23</v>
       </c>
       <c r="G3">
-        <v>3.113</v>
+        <v>3.169</v>
       </c>
       <c r="H3">
-        <v>3.1069</v>
+        <v>3.1973</v>
       </c>
       <c r="I3">
-        <v>3.285</v>
+        <v>3.415</v>
       </c>
       <c r="J3">
-        <v>3.532</v>
+        <v>3.686</v>
       </c>
       <c r="K3">
-        <v>3.667</v>
+        <v>3.843</v>
       </c>
       <c r="L3">
-        <v>3.758</v>
+        <v>3.935</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2266,37 +2230,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.583</v>
+        <v>3.608</v>
       </c>
       <c r="C4">
-        <v>3.672</v>
+        <v>3.66</v>
       </c>
       <c r="D4">
-        <v>3.644</v>
+        <v>3.656</v>
       </c>
       <c r="E4">
-        <v>3.282</v>
+        <v>3.253</v>
       </c>
       <c r="F4">
-        <v>3.026</v>
+        <v>3.017</v>
       </c>
       <c r="G4">
-        <v>2.891</v>
+        <v>2.916</v>
       </c>
       <c r="H4">
-        <v>2.8529</v>
+        <v>2.8923</v>
       </c>
       <c r="I4">
-        <v>3.032</v>
+        <v>3.089</v>
       </c>
       <c r="J4">
-        <v>3.275</v>
+        <v>3.321</v>
       </c>
       <c r="K4">
-        <v>3.386</v>
+        <v>3.443</v>
       </c>
       <c r="L4">
-        <v>3.46</v>
+        <v>3.517</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2304,37 +2268,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.825</v>
+        <v>1.035</v>
       </c>
       <c r="C5">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="D5">
-        <v>2.197</v>
+        <v>2.147</v>
       </c>
       <c r="E5">
-        <v>2.08</v>
+        <v>2.043</v>
       </c>
       <c r="F5">
-        <v>2.296</v>
+        <v>2.145</v>
       </c>
       <c r="G5">
-        <v>2.477</v>
+        <v>2.224</v>
       </c>
       <c r="H5">
-        <v>2.692</v>
+        <v>2.3913</v>
       </c>
       <c r="I5">
-        <v>2.988</v>
+        <v>2.606</v>
       </c>
       <c r="J5">
-        <v>3.373</v>
+        <v>2.953</v>
       </c>
       <c r="K5">
-        <v>3.42</v>
+        <v>2.997</v>
       </c>
       <c r="L5">
-        <v>3.29</v>
+        <v>2.892</v>
       </c>
     </row>
   </sheetData>
@@ -2393,37 +2357,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.789</v>
+        <v>3.746</v>
       </c>
       <c r="C2">
-        <v>3.785</v>
+        <v>3.784</v>
       </c>
       <c r="D2">
-        <v>3.678</v>
+        <v>3.714</v>
       </c>
       <c r="E2">
-        <v>3.132</v>
+        <v>3.178</v>
       </c>
       <c r="F2">
-        <v>2.976</v>
+        <v>3.012</v>
       </c>
       <c r="G2">
-        <v>2.675</v>
+        <v>2.78</v>
       </c>
       <c r="H2">
-        <v>2.62</v>
+        <v>2.744</v>
       </c>
       <c r="I2">
-        <v>2.732</v>
+        <v>2.8915</v>
       </c>
       <c r="J2">
-        <v>2.926</v>
+        <v>3.084</v>
       </c>
       <c r="K2">
-        <v>2.965</v>
+        <v>3.128</v>
       </c>
       <c r="L2">
-        <v>2.929</v>
+        <v>3.094</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2431,37 +2395,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.702</v>
+        <v>3.665</v>
       </c>
       <c r="C3">
-        <v>3.794</v>
+        <v>3.75</v>
       </c>
       <c r="D3">
-        <v>3.741</v>
+        <v>3.683</v>
       </c>
       <c r="E3">
-        <v>3.247</v>
+        <v>3.206</v>
       </c>
       <c r="F3">
-        <v>3.084</v>
+        <v>3.05</v>
       </c>
       <c r="G3">
-        <v>2.745</v>
+        <v>2.774</v>
       </c>
       <c r="H3">
-        <v>2.658</v>
+        <v>2.713</v>
       </c>
       <c r="I3">
-        <v>2.735</v>
+        <v>2.838</v>
       </c>
       <c r="J3">
-        <v>2.895</v>
+        <v>3.013</v>
       </c>
       <c r="K3">
-        <v>2.928</v>
+        <v>3.054</v>
       </c>
       <c r="L3">
-        <v>2.888</v>
+        <v>3.035</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2469,37 +2433,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.514</v>
+        <v>3.557</v>
       </c>
       <c r="C4">
-        <v>3.562</v>
+        <v>3.593</v>
       </c>
       <c r="D4">
-        <v>3.607</v>
+        <v>3.643</v>
       </c>
       <c r="E4">
-        <v>3.204</v>
+        <v>3.178</v>
       </c>
       <c r="F4">
-        <v>2.892</v>
+        <v>2.884</v>
       </c>
       <c r="G4">
-        <v>2.56</v>
+        <v>2.594</v>
       </c>
       <c r="H4">
-        <v>2.438</v>
+        <v>2.491</v>
       </c>
       <c r="I4">
-        <v>2.458</v>
+        <v>2.541</v>
       </c>
       <c r="J4">
-        <v>2.62</v>
+        <v>2.707</v>
       </c>
       <c r="K4">
-        <v>2.63</v>
+        <v>2.715</v>
       </c>
       <c r="L4">
-        <v>2.563</v>
+        <v>2.641</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2507,37 +2471,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.828</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="C5">
-        <v>1.434</v>
+        <v>1.515</v>
       </c>
       <c r="D5">
-        <v>2.09</v>
+        <v>2.033</v>
       </c>
       <c r="E5">
-        <v>2.04</v>
+        <v>1.921</v>
       </c>
       <c r="F5">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="G5">
-        <v>2.223</v>
+        <v>1.983</v>
       </c>
       <c r="H5">
-        <v>2.24</v>
+        <v>1.957</v>
       </c>
       <c r="I5">
-        <v>2.437</v>
+        <v>2.086</v>
       </c>
       <c r="J5">
-        <v>2.646</v>
+        <v>2.264</v>
       </c>
       <c r="K5">
-        <v>2.651</v>
+        <v>2.264</v>
       </c>
       <c r="L5">
-        <v>2.46</v>
+        <v>2.066</v>
       </c>
     </row>
   </sheetData>
@@ -2596,22 +2560,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>5.182</v>
+        <v>5.391</v>
       </c>
       <c r="E2">
-        <v>5.219</v>
+        <v>5.322</v>
       </c>
       <c r="F2">
-        <v>5.19</v>
+        <v>5.355</v>
       </c>
       <c r="G2">
-        <v>5.397</v>
+        <v>5.553</v>
       </c>
       <c r="H2">
-        <v>5.497</v>
+        <v>5.626</v>
       </c>
       <c r="I2">
-        <v>5.79</v>
+        <v>5.911</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2619,22 +2583,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>5.073</v>
+        <v>4.992</v>
       </c>
       <c r="E3">
-        <v>5.094</v>
+        <v>5.026</v>
       </c>
       <c r="F3">
-        <v>5.104</v>
+        <v>5.079</v>
       </c>
       <c r="G3">
-        <v>5.253</v>
+        <v>5.255</v>
       </c>
       <c r="H3">
-        <v>5.482</v>
+        <v>5.552</v>
       </c>
       <c r="I3">
-        <v>5.792</v>
+        <v>5.916</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2642,22 +2606,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5.728</v>
+        <v>5.627</v>
       </c>
       <c r="E4">
-        <v>5.511</v>
+        <v>5.449</v>
       </c>
       <c r="F4">
-        <v>5.483</v>
+        <v>5.34</v>
       </c>
       <c r="G4">
-        <v>5.373</v>
+        <v>5.374</v>
       </c>
       <c r="H4">
-        <v>5.412</v>
+        <v>5.361</v>
       </c>
       <c r="I4">
-        <v>5.494</v>
+        <v>5.574</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2665,22 +2629,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>8.779999999999999</v>
+        <v>7.652</v>
       </c>
       <c r="E5">
-        <v>9.002000000000001</v>
+        <v>8.377000000000001</v>
       </c>
       <c r="F5">
-        <v>9.189</v>
+        <v>8.526999999999999</v>
       </c>
       <c r="G5">
-        <v>8.971</v>
+        <v>8.353</v>
       </c>
       <c r="H5">
-        <v>8.814</v>
+        <v>8.183999999999999</v>
       </c>
       <c r="I5">
-        <v>8.760999999999999</v>
+        <v>8.164</v>
       </c>
     </row>
   </sheetData>
@@ -2739,19 +2703,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>11.14</v>
+        <v>11.124</v>
       </c>
       <c r="E2">
-        <v>10.745</v>
+        <v>11.017</v>
       </c>
       <c r="F2">
-        <v>11.051</v>
+        <v>11.231</v>
       </c>
       <c r="G2">
-        <v>11.443</v>
+        <v>11.622</v>
       </c>
       <c r="I2">
-        <v>11.821</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2759,19 +2723,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>11.165</v>
+        <v>11.003</v>
       </c>
       <c r="E3">
-        <v>10.335</v>
+        <v>10.73</v>
       </c>
       <c r="F3">
-        <v>10.595</v>
+        <v>10.975</v>
       </c>
       <c r="G3">
-        <v>11.085</v>
+        <v>11.405</v>
       </c>
       <c r="I3">
-        <v>11.5</v>
+        <v>11.87</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2779,19 +2743,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>11.475</v>
+        <v>11.31</v>
       </c>
       <c r="E4">
-        <v>10.37</v>
+        <v>10.19</v>
       </c>
       <c r="F4">
-        <v>10.335</v>
+        <v>10.19</v>
       </c>
       <c r="G4">
-        <v>10.675</v>
+        <v>10.595</v>
       </c>
       <c r="I4">
-        <v>10.929</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2799,19 +2763,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>13.205</v>
+        <v>13.29</v>
       </c>
       <c r="E5">
-        <v>12.23</v>
+        <v>12.35</v>
       </c>
       <c r="F5">
-        <v>11.87</v>
+        <v>12.005</v>
       </c>
       <c r="G5">
-        <v>11.71</v>
+        <v>11.845</v>
       </c>
       <c r="I5">
-        <v>11.94</v>
+        <v>12.025</v>
       </c>
     </row>
   </sheetData>
@@ -2870,25 +2834,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>3.158</v>
+        <v>3.167</v>
       </c>
       <c r="F2">
-        <v>3.033</v>
+        <v>3.059</v>
       </c>
       <c r="G2">
-        <v>3.138</v>
+        <v>3.208</v>
       </c>
       <c r="H2">
-        <v>3.203</v>
+        <v>3.335</v>
       </c>
       <c r="I2">
-        <v>3.468</v>
+        <v>3.615</v>
       </c>
       <c r="J2">
-        <v>3.909</v>
+        <v>4.034</v>
       </c>
       <c r="L2">
-        <v>3.981</v>
+        <v>4.155</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2896,25 +2860,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>3.23</v>
+        <v>3.222</v>
       </c>
       <c r="F3">
-        <v>3.125</v>
+        <v>3.134</v>
       </c>
       <c r="G3">
-        <v>3.158</v>
+        <v>3.214</v>
       </c>
       <c r="H3">
-        <v>3.266</v>
+        <v>3.343</v>
       </c>
       <c r="I3">
-        <v>3.505</v>
+        <v>3.593</v>
       </c>
       <c r="J3">
-        <v>3.885</v>
+        <v>3.975</v>
       </c>
       <c r="L3">
-        <v>3.975</v>
+        <v>4.109</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2922,25 +2886,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>2.971</v>
+        <v>3.003</v>
       </c>
       <c r="F4">
-        <v>2.943</v>
+        <v>2.965</v>
       </c>
       <c r="G4">
-        <v>2.94</v>
+        <v>2.995</v>
       </c>
       <c r="H4">
-        <v>3.044</v>
+        <v>3.153</v>
       </c>
       <c r="I4">
-        <v>3.202</v>
+        <v>3.295</v>
       </c>
       <c r="J4">
-        <v>3.557</v>
+        <v>3.656</v>
       </c>
       <c r="L4">
-        <v>3.575</v>
+        <v>3.678</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2948,25 +2912,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>2.154</v>
+        <v>2.078</v>
       </c>
       <c r="F5">
-        <v>2.244</v>
+        <v>2.034</v>
       </c>
       <c r="G5">
-        <v>2.755</v>
+        <v>2.453</v>
       </c>
       <c r="H5">
-        <v>2.975</v>
+        <v>2.623</v>
       </c>
       <c r="I5">
-        <v>3.486</v>
+        <v>3.079</v>
       </c>
       <c r="J5">
-        <v>3.68</v>
+        <v>3.282</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>3.405</v>
       </c>
     </row>
   </sheetData>
@@ -3025,37 +2989,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.354</v>
+        <v>5.362</v>
       </c>
       <c r="C2">
-        <v>5.439</v>
+        <v>5.415</v>
       </c>
       <c r="D2">
-        <v>5.001</v>
+        <v>4.9465</v>
       </c>
       <c r="E2">
-        <v>4.847</v>
+        <v>4.88</v>
       </c>
       <c r="F2">
-        <v>4.564</v>
+        <v>4.755</v>
       </c>
       <c r="G2">
-        <v>4.453</v>
+        <v>4.674</v>
       </c>
       <c r="H2">
-        <v>4.264</v>
+        <v>4.548</v>
       </c>
       <c r="I2">
-        <v>4.389</v>
+        <v>4.698</v>
       </c>
       <c r="J2">
-        <v>4.689</v>
+        <v>5.034</v>
       </c>
       <c r="K2">
-        <v>4.789</v>
+        <v>5.139</v>
       </c>
       <c r="L2">
-        <v>4.829</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3063,37 +3027,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.371</v>
+        <v>5.389</v>
       </c>
       <c r="C3">
-        <v>5.435</v>
+        <v>5.42</v>
       </c>
       <c r="D3">
-        <v>4.977</v>
+        <v>5.076</v>
       </c>
       <c r="E3">
-        <v>4.791</v>
+        <v>4.908</v>
       </c>
       <c r="F3">
-        <v>4.488</v>
+        <v>4.621</v>
       </c>
       <c r="G3">
-        <v>4.367</v>
+        <v>4.517</v>
       </c>
       <c r="H3">
-        <v>4.133</v>
+        <v>4.319</v>
       </c>
       <c r="I3">
-        <v>4.252</v>
+        <v>4.447</v>
       </c>
       <c r="J3">
-        <v>4.549</v>
+        <v>4.75</v>
       </c>
       <c r="K3">
-        <v>4.65</v>
+        <v>4.843</v>
       </c>
       <c r="L3">
-        <v>4.684</v>
+        <v>4.903</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3101,37 +3065,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.392</v>
+        <v>5.354</v>
       </c>
       <c r="C4">
-        <v>5.677</v>
+        <v>5.552</v>
       </c>
       <c r="D4">
-        <v>5.166</v>
+        <v>5.015</v>
       </c>
       <c r="E4">
-        <v>4.976</v>
+        <v>4.865</v>
       </c>
       <c r="F4">
-        <v>4.714</v>
+        <v>4.633</v>
       </c>
       <c r="G4">
-        <v>4.41</v>
+        <v>4.387</v>
       </c>
       <c r="H4">
-        <v>4.276</v>
+        <v>4.306</v>
       </c>
       <c r="I4">
-        <v>4.327</v>
+        <v>4.383</v>
       </c>
       <c r="J4">
-        <v>4.514</v>
+        <v>4.606</v>
       </c>
       <c r="K4">
-        <v>4.519</v>
+        <v>4.608</v>
       </c>
       <c r="L4">
-        <v>4.482</v>
+        <v>4.572</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3139,37 +3103,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.902</v>
+        <v>2.826</v>
       </c>
       <c r="C5">
-        <v>3.891</v>
+        <v>3.557</v>
       </c>
       <c r="D5">
-        <v>3.453</v>
+        <v>2.985</v>
       </c>
       <c r="E5">
-        <v>3.69</v>
+        <v>3.227</v>
       </c>
       <c r="F5">
-        <v>3.777</v>
+        <v>3.297</v>
       </c>
       <c r="G5">
-        <v>4.083</v>
+        <v>3.568</v>
       </c>
       <c r="H5">
-        <v>4.165</v>
+        <v>3.634</v>
       </c>
       <c r="I5">
-        <v>4.028</v>
+        <v>3.494</v>
       </c>
       <c r="J5">
-        <v>4.288</v>
+        <v>3.807</v>
       </c>
       <c r="K5">
-        <v>4.229</v>
+        <v>3.78</v>
       </c>
       <c r="L5">
-        <v>4.035</v>
+        <v>3.562</v>
       </c>
     </row>
   </sheetData>
@@ -3228,37 +3192,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.206</v>
+        <v>-0.214</v>
       </c>
       <c r="C2">
-        <v>-0.182</v>
+        <v>-0.165</v>
       </c>
       <c r="D2">
-        <v>-0.06</v>
+        <v>-0.046</v>
       </c>
       <c r="E2">
-        <v>0.042</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="F2">
-        <v>0.112</v>
+        <v>0.149</v>
       </c>
       <c r="G2">
-        <v>0.314</v>
+        <v>0.357</v>
       </c>
       <c r="H2">
-        <v>0.511</v>
+        <v>0.589</v>
       </c>
       <c r="I2">
-        <v>0.758</v>
+        <v>0.836</v>
       </c>
       <c r="J2">
-        <v>1.194</v>
+        <v>1.298</v>
       </c>
       <c r="K2">
-        <v>1.477</v>
+        <v>1.617</v>
       </c>
       <c r="L2">
-        <v>1.702</v>
+        <v>1.822</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3266,37 +3230,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-0.171</v>
+        <v>-0.231</v>
       </c>
       <c r="C3">
-        <v>-0.157</v>
+        <v>-0.152</v>
       </c>
       <c r="D3">
-        <v>-0.047</v>
+        <v>-0.044</v>
       </c>
       <c r="E3">
-        <v>0.038</v>
+        <v>0.051</v>
       </c>
       <c r="F3">
-        <v>0.122</v>
+        <v>0.131</v>
       </c>
       <c r="G3">
-        <v>0.306</v>
+        <v>0.32</v>
       </c>
       <c r="H3">
-        <v>0.526</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="I3">
-        <v>0.746</v>
+        <v>0.771</v>
       </c>
       <c r="J3">
-        <v>1.217</v>
+        <v>1.244</v>
       </c>
       <c r="K3">
-        <v>1.462</v>
+        <v>1.491</v>
       </c>
       <c r="L3">
-        <v>1.697</v>
+        <v>1.741</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3304,37 +3268,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.106</v>
+        <v>-0.101</v>
       </c>
       <c r="C4">
-        <v>-0.169</v>
+        <v>-0.174</v>
       </c>
       <c r="D4">
-        <v>-0.104</v>
+        <v>-0.081</v>
       </c>
       <c r="E4">
-        <v>-0.007</v>
+        <v>0.026</v>
       </c>
       <c r="F4">
-        <v>-0.031</v>
+        <v>0.05</v>
       </c>
       <c r="G4">
-        <v>0.156</v>
+        <v>0.215</v>
       </c>
       <c r="H4">
-        <v>0.338</v>
+        <v>0.44</v>
       </c>
       <c r="I4">
-        <v>0.556</v>
+        <v>0.643</v>
       </c>
       <c r="J4">
-        <v>0.889</v>
+        <v>1.085</v>
       </c>
       <c r="K4">
-        <v>1.135</v>
+        <v>1.336</v>
       </c>
       <c r="L4">
-        <v>1.39</v>
+        <v>1.618</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3342,37 +3306,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.153</v>
+        <v>-0.127</v>
       </c>
       <c r="C5">
-        <v>-0.155</v>
+        <v>-0.133</v>
       </c>
       <c r="D5">
-        <v>-0.076</v>
+        <v>-0.104</v>
       </c>
       <c r="E5">
-        <v>-0.007</v>
+        <v>-0.045</v>
       </c>
       <c r="F5">
-        <v>0.012</v>
+        <v>-0.044</v>
       </c>
       <c r="G5">
-        <v>0.134</v>
+        <v>0.076</v>
       </c>
       <c r="H5">
-        <v>0.251</v>
+        <v>0.189</v>
       </c>
       <c r="I5">
-        <v>0.255</v>
+        <v>0.245</v>
       </c>
       <c r="J5">
-        <v>0.895</v>
+        <v>0.797</v>
       </c>
       <c r="K5">
-        <v>1.2</v>
+        <v>1.088</v>
       </c>
       <c r="L5">
-        <v>1.585</v>
+        <v>1.443</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -484,28 +484,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.16</v>
+        <v>5.157</v>
       </c>
       <c r="C2">
-        <v>5.19</v>
+        <v>5.147</v>
       </c>
       <c r="D2">
-        <v>5.22</v>
+        <v>5.082</v>
       </c>
       <c r="E2">
-        <v>4.783</v>
+        <v>4.638</v>
       </c>
       <c r="F2">
-        <v>4.651</v>
+        <v>4.502</v>
       </c>
       <c r="G2">
-        <v>4.242</v>
+        <v>4.104</v>
+      </c>
+      <c r="H2">
+        <v>4.022</v>
       </c>
       <c r="I2">
-        <v>4.073</v>
+        <v>4.018</v>
       </c>
       <c r="K2">
-        <v>4.021</v>
+        <v>3.964</v>
+      </c>
+      <c r="L2">
+        <v>3.78</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -513,28 +519,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.13</v>
+        <v>5.14</v>
       </c>
       <c r="C3">
-        <v>5.21</v>
+        <v>5.24</v>
       </c>
       <c r="D3">
-        <v>5.3</v>
+        <v>5.33</v>
       </c>
       <c r="E3">
-        <v>4.875</v>
+        <v>4.861</v>
       </c>
       <c r="F3">
-        <v>4.645</v>
+        <v>4.712</v>
       </c>
       <c r="G3">
-        <v>4.251</v>
+        <v>4.322</v>
+      </c>
+      <c r="H3">
+        <v>4.196</v>
       </c>
       <c r="I3">
-        <v>4.032</v>
+        <v>4.155</v>
       </c>
       <c r="K3">
-        <v>3.994</v>
+        <v>4.082</v>
+      </c>
+      <c r="L3">
+        <v>3.897</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -542,28 +554,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.08</v>
+        <v>5.095</v>
       </c>
       <c r="C4">
-        <v>5.18</v>
+        <v>5.17</v>
       </c>
       <c r="D4">
-        <v>5.23</v>
+        <v>5.24</v>
       </c>
       <c r="E4">
-        <v>4.579</v>
+        <v>4.675</v>
       </c>
       <c r="F4">
-        <v>4.329</v>
+        <v>4.425</v>
       </c>
       <c r="G4">
-        <v>3.872</v>
+        <v>3.986</v>
+      </c>
+      <c r="H4">
+        <v>3.76</v>
       </c>
       <c r="I4">
-        <v>3.553</v>
+        <v>3.648</v>
       </c>
       <c r="K4">
-        <v>3.592</v>
+        <v>3.613</v>
+      </c>
+      <c r="L4">
+        <v>3.49</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -571,28 +589,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.96</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="D5">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="E5">
-        <v>3.851</v>
+        <v>4.141</v>
       </c>
       <c r="F5">
-        <v>3.817</v>
+        <v>4.106</v>
       </c>
       <c r="G5">
-        <v>3.398</v>
+        <v>3.668</v>
+      </c>
+      <c r="H5">
+        <v>3.526</v>
       </c>
       <c r="I5">
-        <v>3.24</v>
+        <v>3.504</v>
       </c>
       <c r="K5">
-        <v>3.434</v>
+        <v>3.623</v>
+      </c>
+      <c r="L5">
+        <v>3.505</v>
       </c>
     </row>
   </sheetData>
@@ -651,28 +675,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.474</v>
+        <v>5.459</v>
       </c>
       <c r="C2">
-        <v>5.547</v>
+        <v>5.544</v>
       </c>
       <c r="D2">
-        <v>5.42</v>
+        <v>5.416</v>
       </c>
       <c r="E2">
-        <v>5.071</v>
+        <v>5.015</v>
       </c>
       <c r="F2">
-        <v>4.913</v>
+        <v>4.848</v>
       </c>
       <c r="G2">
-        <v>4.854</v>
+        <v>4.774</v>
       </c>
       <c r="H2">
-        <v>4.917</v>
+        <v>4.851</v>
       </c>
       <c r="I2">
-        <v>4.914</v>
+        <v>4.845</v>
+      </c>
+      <c r="L2">
+        <v>5.018</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -680,28 +707,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.477</v>
+        <v>5.517</v>
       </c>
       <c r="C3">
-        <v>5.552</v>
+        <v>5.586</v>
       </c>
       <c r="D3">
-        <v>5.47</v>
+        <v>5.427</v>
       </c>
       <c r="E3">
-        <v>5.052</v>
+        <v>5.081</v>
       </c>
       <c r="F3">
-        <v>4.808</v>
+        <v>4.881</v>
       </c>
       <c r="G3">
-        <v>4.616</v>
+        <v>4.751</v>
       </c>
       <c r="H3">
-        <v>4.621</v>
+        <v>4.8</v>
       </c>
       <c r="I3">
-        <v>4.579</v>
+        <v>4.795</v>
+      </c>
+      <c r="L3">
+        <v>4.96</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -709,28 +739,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.43</v>
+        <v>5.432</v>
       </c>
       <c r="C4">
-        <v>5.466</v>
+        <v>5.488</v>
       </c>
       <c r="D4">
-        <v>5.347</v>
+        <v>5.356</v>
       </c>
       <c r="E4">
-        <v>4.768</v>
+        <v>4.892</v>
       </c>
       <c r="F4">
-        <v>4.45</v>
+        <v>4.575</v>
       </c>
       <c r="G4">
-        <v>4.139</v>
+        <v>4.303</v>
       </c>
       <c r="H4">
-        <v>4.093</v>
+        <v>4.254</v>
       </c>
       <c r="I4">
-        <v>4.042</v>
+        <v>4.158</v>
+      </c>
+      <c r="L4">
+        <v>4.264</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -738,28 +771,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4.082</v>
+        <v>4.118</v>
       </c>
       <c r="C5">
-        <v>4.521</v>
+        <v>4.582</v>
       </c>
       <c r="D5">
-        <v>4.57</v>
+        <v>4.744</v>
       </c>
       <c r="E5">
-        <v>4.414</v>
+        <v>4.658</v>
       </c>
       <c r="F5">
-        <v>4.366</v>
+        <v>4.591</v>
       </c>
       <c r="G5">
-        <v>4.181</v>
+        <v>4.331</v>
       </c>
       <c r="H5">
-        <v>4.101</v>
+        <v>4.253</v>
       </c>
       <c r="I5">
-        <v>4.01</v>
+        <v>4.163</v>
+      </c>
+      <c r="L5">
+        <v>4.256</v>
       </c>
     </row>
   </sheetData>
@@ -818,22 +854,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>12.16</v>
+        <v>13.63</v>
       </c>
       <c r="E2">
-        <v>13.47</v>
+        <v>14.38</v>
       </c>
       <c r="F2">
-        <v>12.58</v>
+        <v>12.82</v>
       </c>
       <c r="G2">
-        <v>13.08</v>
+        <v>13.25</v>
       </c>
       <c r="I2">
-        <v>12.35</v>
+        <v>12.52</v>
       </c>
       <c r="J2">
-        <v>12.59</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -841,22 +877,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>16.45</v>
+        <v>16.88</v>
       </c>
       <c r="E3">
-        <v>13.15</v>
+        <v>13.61</v>
       </c>
       <c r="F3">
-        <v>12.3</v>
+        <v>12.45</v>
       </c>
       <c r="G3">
-        <v>12.75</v>
+        <v>13.06</v>
       </c>
       <c r="I3">
-        <v>12.93</v>
+        <v>12.27</v>
       </c>
       <c r="J3">
-        <v>12.26</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -864,22 +900,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>11.31</v>
+        <v>11.98</v>
       </c>
       <c r="E4">
-        <v>9.66</v>
+        <v>10.27</v>
       </c>
       <c r="F4">
-        <v>11.08</v>
+        <v>11.67</v>
       </c>
       <c r="G4">
-        <v>10.29</v>
+        <v>10.71</v>
       </c>
       <c r="I4">
-        <v>11.58</v>
+        <v>11.78</v>
       </c>
       <c r="J4">
-        <v>11.8</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -887,22 +923,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>9.48</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E5">
-        <v>8.34</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="F5">
-        <v>9.039999999999999</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="G5">
-        <v>9.220000000000001</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="I5">
-        <v>9.880000000000001</v>
+        <v>9.94</v>
       </c>
       <c r="J5">
-        <v>10.24</v>
+        <v>10.63</v>
       </c>
     </row>
   </sheetData>
@@ -961,25 +997,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.383</v>
+        <v>4.509</v>
       </c>
       <c r="E2">
-        <v>4.275</v>
+        <v>4.373</v>
       </c>
       <c r="F2">
-        <v>4.205</v>
+        <v>4.311</v>
       </c>
       <c r="G2">
-        <v>4.355</v>
+        <v>4.443</v>
       </c>
       <c r="H2">
-        <v>4.572</v>
+        <v>4.652</v>
       </c>
       <c r="I2">
-        <v>4.749</v>
+        <v>4.807</v>
       </c>
       <c r="J2">
-        <v>5.025</v>
+        <v>5.069</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -987,25 +1023,25 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.241</v>
+        <v>4.177</v>
       </c>
       <c r="E3">
-        <v>4.115</v>
+        <v>4.034</v>
       </c>
       <c r="F3">
-        <v>4.115</v>
+        <v>4.012</v>
       </c>
       <c r="G3">
-        <v>4.173</v>
+        <v>4.132</v>
       </c>
       <c r="H3">
-        <v>4.362</v>
+        <v>4.369</v>
       </c>
       <c r="I3">
-        <v>4.513</v>
+        <v>4.564</v>
       </c>
       <c r="J3">
-        <v>4.753</v>
+        <v>4.821</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1013,25 +1049,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.112</v>
+        <v>4.06</v>
       </c>
       <c r="E4">
-        <v>3.98</v>
+        <v>3.887</v>
       </c>
       <c r="F4">
-        <v>3.872</v>
+        <v>3.831</v>
       </c>
       <c r="G4">
-        <v>3.879</v>
+        <v>3.871</v>
       </c>
       <c r="H4">
-        <v>4.025</v>
+        <v>4.016</v>
       </c>
       <c r="I4">
-        <v>4.166</v>
+        <v>4.119</v>
       </c>
       <c r="J4">
-        <v>4.338</v>
+        <v>4.361</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1039,25 +1075,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>3.154</v>
+        <v>3.214</v>
       </c>
       <c r="E5">
-        <v>3.236</v>
+        <v>3.311</v>
       </c>
       <c r="F5">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="G5">
-        <v>3.459</v>
+        <v>3.551</v>
       </c>
       <c r="H5">
-        <v>3.625</v>
+        <v>3.711</v>
       </c>
       <c r="I5">
-        <v>3.77</v>
+        <v>3.867</v>
       </c>
       <c r="J5">
-        <v>3.999</v>
+        <v>4.113</v>
       </c>
     </row>
   </sheetData>
@@ -1116,31 +1152,28 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.91</v>
+        <v>3.936</v>
       </c>
       <c r="C2">
-        <v>3.994</v>
+        <v>3.982</v>
       </c>
       <c r="D2">
-        <v>3.975</v>
+        <v>3.932</v>
       </c>
       <c r="E2">
-        <v>4.053</v>
+        <v>3.925</v>
       </c>
       <c r="F2">
-        <v>4.041</v>
-      </c>
-      <c r="G2">
-        <v>4.29</v>
+        <v>3.899</v>
       </c>
       <c r="H2">
-        <v>4.597</v>
+        <v>4.46</v>
       </c>
       <c r="I2">
-        <v>4.924</v>
+        <v>4.799</v>
       </c>
       <c r="J2">
-        <v>5.208</v>
+        <v>5.106</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1148,31 +1181,28 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.882</v>
+        <v>3.847</v>
       </c>
       <c r="C3">
-        <v>3.901</v>
+        <v>4.014</v>
       </c>
       <c r="D3">
-        <v>4.015</v>
+        <v>3.979</v>
       </c>
       <c r="E3">
-        <v>4.019</v>
+        <v>4.028</v>
       </c>
       <c r="F3">
-        <v>3.983</v>
-      </c>
-      <c r="G3">
-        <v>4.201</v>
+        <v>4.024</v>
       </c>
       <c r="H3">
-        <v>4.486</v>
+        <v>4.585</v>
       </c>
       <c r="I3">
-        <v>4.786</v>
+        <v>4.922</v>
       </c>
       <c r="J3">
-        <v>5.028</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1180,31 +1210,28 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.494</v>
+        <v>3.471</v>
       </c>
       <c r="C4">
-        <v>3.486</v>
+        <v>3.804</v>
       </c>
       <c r="D4">
-        <v>3.806</v>
+        <v>3.836</v>
       </c>
       <c r="E4">
-        <v>3.724</v>
+        <v>3.696</v>
       </c>
       <c r="F4">
-        <v>3.61</v>
-      </c>
-      <c r="G4">
-        <v>3.708</v>
+        <v>3.625</v>
       </c>
       <c r="H4">
-        <v>3.957</v>
+        <v>3.979</v>
       </c>
       <c r="I4">
-        <v>4.226</v>
+        <v>4.253</v>
       </c>
       <c r="J4">
-        <v>4.459</v>
+        <v>4.453</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1212,31 +1239,28 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.819</v>
+        <v>0.739</v>
       </c>
       <c r="C5">
-        <v>1.887</v>
+        <v>2.108</v>
       </c>
       <c r="D5">
-        <v>2.441</v>
+        <v>2.553</v>
       </c>
       <c r="E5">
-        <v>2.627</v>
+        <v>2.888</v>
       </c>
       <c r="F5">
-        <v>3.03</v>
-      </c>
-      <c r="G5">
-        <v>3.355</v>
+        <v>3.278</v>
       </c>
       <c r="H5">
-        <v>3.672</v>
+        <v>3.962</v>
       </c>
       <c r="I5">
-        <v>4.153</v>
+        <v>4.456</v>
       </c>
       <c r="J5">
-        <v>4.159</v>
+        <v>4.459</v>
       </c>
     </row>
   </sheetData>
@@ -1295,37 +1319,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="C2">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="D2">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="E2">
-        <v>1.2</v>
+        <v>1.183</v>
       </c>
       <c r="F2">
-        <v>1.096</v>
+        <v>1.054</v>
       </c>
       <c r="G2">
-        <v>1.05</v>
+        <v>0.977</v>
       </c>
       <c r="H2">
-        <v>1.028</v>
+        <v>1.013</v>
       </c>
       <c r="I2">
-        <v>1.126</v>
+        <v>1.082</v>
       </c>
       <c r="J2">
-        <v>1.2</v>
+        <v>1.112</v>
       </c>
       <c r="K2">
-        <v>1.21</v>
+        <v>1.136</v>
       </c>
       <c r="L2">
-        <v>1.145</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1336,34 +1360,34 @@
         <v>1.55</v>
       </c>
       <c r="C3">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="D3">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="E3">
-        <v>1.246</v>
+        <v>1.255</v>
       </c>
       <c r="F3">
-        <v>1.249</v>
+        <v>1.187</v>
       </c>
       <c r="G3">
-        <v>1.064</v>
+        <v>1.137</v>
       </c>
       <c r="H3">
-        <v>1.033</v>
+        <v>1.121</v>
       </c>
       <c r="I3">
-        <v>1.093</v>
+        <v>1.181</v>
       </c>
       <c r="J3">
-        <v>1.148</v>
+        <v>1.189</v>
       </c>
       <c r="K3">
-        <v>1.159</v>
+        <v>1.191</v>
       </c>
       <c r="L3">
-        <v>1.125</v>
+        <v>1.171</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1371,37 +1395,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="C4">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="D4">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="E4">
-        <v>1.121</v>
+        <v>1.128</v>
       </c>
       <c r="F4">
+        <v>1.103</v>
+      </c>
+      <c r="G4">
+        <v>1.058</v>
+      </c>
+      <c r="H4">
+        <v>1.076</v>
+      </c>
+      <c r="I4">
+        <v>1.085</v>
+      </c>
+      <c r="J4">
+        <v>1.112</v>
+      </c>
+      <c r="K4">
         <v>1.082</v>
       </c>
-      <c r="G4">
-        <v>1.014</v>
-      </c>
-      <c r="H4">
-        <v>1.007</v>
-      </c>
-      <c r="I4">
-        <v>1.036</v>
-      </c>
-      <c r="J4">
-        <v>1.065</v>
-      </c>
-      <c r="K4">
-        <v>1.052</v>
-      </c>
       <c r="L4">
-        <v>1.072</v>
+        <v>1.042</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1412,34 +1436,34 @@
         <v>0.3</v>
       </c>
       <c r="C5">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>0.95</v>
+        <v>1.15</v>
       </c>
       <c r="E5">
-        <v>0.531</v>
+        <v>0.578</v>
       </c>
       <c r="F5">
-        <v>0.611</v>
+        <v>0.604</v>
       </c>
       <c r="G5">
-        <v>0.8100000000000001</v>
+        <v>0.877</v>
       </c>
       <c r="H5">
-        <v>0.972</v>
+        <v>1.063</v>
       </c>
       <c r="I5">
-        <v>1.127</v>
+        <v>1.232</v>
       </c>
       <c r="J5">
-        <v>1.236</v>
+        <v>1.32</v>
       </c>
       <c r="K5">
-        <v>1.133</v>
+        <v>1.21</v>
       </c>
       <c r="L5">
-        <v>1.087</v>
+        <v>1.185</v>
       </c>
     </row>
   </sheetData>
@@ -1498,31 +1522,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>2.297</v>
+        <v>2.273</v>
       </c>
       <c r="E2">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="F2">
-        <v>2.518</v>
+        <v>2.416</v>
       </c>
       <c r="G2">
-        <v>2.628</v>
+        <v>2.561</v>
       </c>
       <c r="H2">
-        <v>2.737</v>
+        <v>2.715</v>
       </c>
       <c r="I2">
-        <v>2.741</v>
+        <v>2.729</v>
       </c>
       <c r="J2">
         <v>2.855</v>
       </c>
       <c r="K2">
-        <v>3.08</v>
+        <v>3.101</v>
       </c>
       <c r="L2">
-        <v>3.021</v>
+        <v>3.015</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1530,31 +1554,31 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>2.15</v>
+        <v>2.299</v>
       </c>
       <c r="E3">
-        <v>2.29</v>
+        <v>2.358</v>
       </c>
       <c r="F3">
-        <v>2.403</v>
+        <v>2.463</v>
       </c>
       <c r="G3">
-        <v>2.551</v>
+        <v>2.588</v>
       </c>
       <c r="H3">
-        <v>2.679</v>
+        <v>2.708</v>
       </c>
       <c r="I3">
-        <v>2.695</v>
+        <v>2.731</v>
       </c>
       <c r="J3">
-        <v>2.829</v>
+        <v>2.837</v>
       </c>
       <c r="K3">
-        <v>3.085</v>
+        <v>3.083</v>
       </c>
       <c r="L3">
-        <v>2.993</v>
+        <v>3.007</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1562,31 +1586,31 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="E4">
-        <v>2.29</v>
+        <v>2.321</v>
       </c>
       <c r="F4">
-        <v>2.299</v>
+        <v>2.419</v>
       </c>
       <c r="G4">
-        <v>2.499</v>
+        <v>2.578</v>
       </c>
       <c r="H4">
-        <v>2.654</v>
+        <v>2.722</v>
       </c>
       <c r="I4">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="J4">
-        <v>2.848</v>
+        <v>2.857</v>
       </c>
       <c r="K4">
-        <v>3.07</v>
+        <v>3.101</v>
       </c>
       <c r="L4">
-        <v>3.007</v>
+        <v>3.034</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1594,31 +1618,31 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1.743</v>
+        <v>1.715</v>
       </c>
       <c r="E5">
-        <v>2.064</v>
+        <v>2.085</v>
       </c>
       <c r="F5">
-        <v>2.228</v>
+        <v>2.261</v>
       </c>
       <c r="G5">
-        <v>2.44</v>
+        <v>2.491</v>
       </c>
       <c r="H5">
-        <v>2.666</v>
+        <v>2.705</v>
       </c>
       <c r="I5">
-        <v>2.683</v>
+        <v>2.708</v>
       </c>
       <c r="J5">
-        <v>2.815</v>
+        <v>2.87</v>
       </c>
       <c r="K5">
-        <v>3.203</v>
+        <v>3.211</v>
       </c>
       <c r="L5">
-        <v>3.128</v>
+        <v>3.15</v>
       </c>
     </row>
   </sheetData>
@@ -1677,19 +1701,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8.699999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="G2">
-        <v>9.42</v>
+        <v>9.335000000000001</v>
       </c>
       <c r="I2">
-        <v>10.8</v>
+        <v>10.66</v>
       </c>
       <c r="K2">
-        <v>12.945</v>
+        <v>12.775</v>
       </c>
       <c r="L2">
-        <v>12.94</v>
+        <v>12.775</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1697,13 +1721,13 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="G3">
-        <v>9.41</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="I3">
-        <v>10.81</v>
+        <v>10.89</v>
       </c>
       <c r="K3">
         <v>12.88</v>
@@ -1717,19 +1741,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8.85</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G4">
-        <v>8.970000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="I4">
-        <v>10.26</v>
+        <v>10.165</v>
       </c>
       <c r="K4">
-        <v>12.22</v>
+        <v>12.265</v>
       </c>
       <c r="L4">
-        <v>12.195</v>
+        <v>12.205</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1737,19 +1761,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>7.09</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>9.005000000000001</v>
+        <v>9.045</v>
       </c>
       <c r="I5">
-        <v>10.78</v>
+        <v>10.675</v>
       </c>
       <c r="K5">
-        <v>11.84</v>
+        <v>11.715</v>
       </c>
       <c r="L5">
-        <v>11.72</v>
+        <v>11.595</v>
       </c>
     </row>
   </sheetData>
@@ -1808,25 +1832,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>19.834</v>
+        <v>22.474</v>
       </c>
       <c r="C2">
-        <v>22.744</v>
-      </c>
-      <c r="D2">
-        <v>7.77</v>
-      </c>
-      <c r="E2">
-        <v>30.695</v>
-      </c>
-      <c r="F2">
-        <v>29.68</v>
-      </c>
-      <c r="G2">
-        <v>30.76</v>
-      </c>
-      <c r="I2">
-        <v>27.925</v>
+        <v>24.847</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1834,25 +1843,10 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>21.087</v>
+        <v>21.817</v>
       </c>
       <c r="C3">
-        <v>21.925</v>
-      </c>
-      <c r="D3">
-        <v>7.77</v>
-      </c>
-      <c r="E3">
-        <v>27.83</v>
-      </c>
-      <c r="F3">
-        <v>27.51</v>
-      </c>
-      <c r="G3">
-        <v>26.8</v>
-      </c>
-      <c r="I3">
-        <v>25.52</v>
+        <v>23.157</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1860,25 +1854,10 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>13.873</v>
+        <v>16.765</v>
       </c>
       <c r="C4">
-        <v>14.943</v>
-      </c>
-      <c r="D4">
-        <v>7.77</v>
-      </c>
-      <c r="E4">
-        <v>15.44</v>
-      </c>
-      <c r="F4">
-        <v>15.72</v>
-      </c>
-      <c r="G4">
-        <v>19.29</v>
-      </c>
-      <c r="I4">
-        <v>17.73</v>
+        <v>16.295</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1886,25 +1865,10 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>13.627</v>
+        <v>13.64</v>
       </c>
       <c r="C5">
-        <v>14.027</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>14.78</v>
-      </c>
-      <c r="F5">
-        <v>14.16</v>
-      </c>
-      <c r="G5">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="I5">
-        <v>11.25</v>
+        <v>13.693</v>
       </c>
     </row>
   </sheetData>
@@ -1963,34 +1927,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.93</v>
+        <v>6.95</v>
       </c>
       <c r="C2">
         <v>7.14</v>
       </c>
       <c r="D2">
-        <v>7.35</v>
+        <v>7.206</v>
       </c>
       <c r="E2">
-        <v>7.341</v>
+        <v>7.321</v>
       </c>
       <c r="F2">
         <v>7.319</v>
       </c>
       <c r="G2">
-        <v>7.378</v>
+        <v>7.347</v>
       </c>
       <c r="H2">
-        <v>7.418</v>
+        <v>7.389</v>
       </c>
       <c r="I2">
-        <v>7.369</v>
+        <v>7.351</v>
       </c>
       <c r="J2">
-        <v>7.499</v>
+        <v>7.481</v>
       </c>
       <c r="L2">
-        <v>7.538</v>
+        <v>7.527</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1998,34 +1962,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.87</v>
+        <v>6.88</v>
       </c>
       <c r="C3">
-        <v>7.08</v>
+        <v>7.13</v>
       </c>
       <c r="D3">
-        <v>6.975</v>
+        <v>7.351</v>
       </c>
       <c r="E3">
-        <v>7.256</v>
+        <v>7.347</v>
       </c>
       <c r="F3">
-        <v>7.262</v>
+        <v>7.345</v>
       </c>
       <c r="G3">
-        <v>7.233</v>
+        <v>7.394</v>
       </c>
       <c r="H3">
-        <v>7.247</v>
+        <v>7.394</v>
       </c>
       <c r="I3">
-        <v>7.21</v>
+        <v>7.339</v>
       </c>
       <c r="J3">
-        <v>7.335</v>
+        <v>7.46</v>
       </c>
       <c r="L3">
-        <v>7.412</v>
+        <v>7.539</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2033,34 +1997,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.73</v>
+        <v>6.77</v>
       </c>
       <c r="C4">
-        <v>6.9</v>
+        <v>6.93</v>
       </c>
       <c r="D4">
-        <v>6.947</v>
+        <v>7.06</v>
       </c>
       <c r="E4">
-        <v>7.085</v>
+        <v>7.123</v>
       </c>
       <c r="F4">
-        <v>7.161</v>
+        <v>7.172</v>
       </c>
       <c r="G4">
-        <v>7.172</v>
+        <v>7.185</v>
       </c>
       <c r="H4">
-        <v>7.191</v>
+        <v>7.194</v>
       </c>
       <c r="I4">
-        <v>7.193</v>
+        <v>7.198</v>
       </c>
       <c r="J4">
-        <v>7.34</v>
+        <v>7.328</v>
       </c>
       <c r="L4">
-        <v>7.389</v>
+        <v>7.382</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2068,34 +2032,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.45</v>
+        <v>6.48</v>
       </c>
       <c r="C5">
-        <v>6.75</v>
+        <v>6.79</v>
       </c>
       <c r="D5">
-        <v>6.799</v>
+        <v>6.9</v>
       </c>
       <c r="E5">
-        <v>6.974</v>
+        <v>7.175</v>
       </c>
       <c r="F5">
-        <v>7.32</v>
+        <v>7.341</v>
       </c>
       <c r="G5">
-        <v>7.34</v>
+        <v>7.421</v>
       </c>
       <c r="H5">
-        <v>7.393</v>
+        <v>7.505</v>
       </c>
       <c r="I5">
-        <v>7.416</v>
+        <v>7.469</v>
       </c>
       <c r="J5">
-        <v>7.504</v>
+        <v>7.603</v>
       </c>
       <c r="L5">
-        <v>7.537</v>
+        <v>7.606</v>
       </c>
     </row>
   </sheetData>
@@ -2154,37 +2118,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.764</v>
+        <v>3.829</v>
       </c>
       <c r="C2">
-        <v>3.836</v>
+        <v>3.837</v>
       </c>
       <c r="D2">
-        <v>3.772</v>
+        <v>3.724</v>
       </c>
       <c r="E2">
-        <v>3.408</v>
+        <v>3.313</v>
       </c>
       <c r="F2">
-        <v>3.228</v>
+        <v>3.116</v>
       </c>
       <c r="G2">
-        <v>3.172</v>
+        <v>3.059</v>
       </c>
       <c r="H2">
-        <v>3.235</v>
+        <v>3.116</v>
       </c>
       <c r="I2">
-        <v>3.524</v>
+        <v>3.438</v>
       </c>
       <c r="J2">
-        <v>3.775</v>
+        <v>3.726</v>
       </c>
       <c r="K2">
-        <v>3.935</v>
+        <v>3.894</v>
       </c>
       <c r="L2">
-        <v>4.007</v>
+        <v>4.016</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2192,37 +2156,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.836</v>
+        <v>3.829</v>
       </c>
       <c r="C3">
-        <v>3.802</v>
+        <v>3.85</v>
       </c>
       <c r="D3">
-        <v>3.8</v>
+        <v>3.784</v>
       </c>
       <c r="E3">
-        <v>3.441</v>
+        <v>3.349</v>
       </c>
       <c r="F3">
-        <v>3.23</v>
+        <v>3.19</v>
       </c>
       <c r="G3">
-        <v>3.169</v>
+        <v>3.183</v>
       </c>
       <c r="H3">
-        <v>3.1973</v>
+        <v>3.2405</v>
       </c>
       <c r="I3">
-        <v>3.415</v>
+        <v>3.484</v>
       </c>
       <c r="J3">
-        <v>3.686</v>
+        <v>3.782</v>
       </c>
       <c r="K3">
-        <v>3.843</v>
+        <v>3.938</v>
       </c>
       <c r="L3">
-        <v>3.935</v>
+        <v>4.041</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2230,37 +2194,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.608</v>
+        <v>3.591</v>
       </c>
       <c r="C4">
-        <v>3.66</v>
+        <v>3.617</v>
       </c>
       <c r="D4">
-        <v>3.656</v>
+        <v>3.605</v>
       </c>
       <c r="E4">
-        <v>3.253</v>
+        <v>3.269</v>
       </c>
       <c r="F4">
-        <v>3.017</v>
+        <v>3.052</v>
       </c>
       <c r="G4">
-        <v>2.916</v>
+        <v>2.978</v>
       </c>
       <c r="H4">
-        <v>2.8923</v>
+        <v>2.9653</v>
       </c>
       <c r="I4">
-        <v>3.089</v>
+        <v>3.16</v>
       </c>
       <c r="J4">
-        <v>3.321</v>
+        <v>3.412</v>
       </c>
       <c r="K4">
-        <v>3.443</v>
+        <v>3.516</v>
       </c>
       <c r="L4">
-        <v>3.517</v>
+        <v>3.579</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2268,37 +2232,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.035</v>
+        <v>1.243</v>
       </c>
       <c r="C5">
-        <v>1.46</v>
+        <v>1.765</v>
       </c>
       <c r="D5">
-        <v>2.147</v>
+        <v>2.341</v>
       </c>
       <c r="E5">
-        <v>2.043</v>
+        <v>2.269</v>
       </c>
       <c r="F5">
-        <v>2.145</v>
+        <v>2.388</v>
       </c>
       <c r="G5">
-        <v>2.224</v>
+        <v>2.451</v>
       </c>
       <c r="H5">
-        <v>2.3913</v>
+        <v>2.589</v>
       </c>
       <c r="I5">
-        <v>2.606</v>
+        <v>2.841</v>
       </c>
       <c r="J5">
-        <v>2.953</v>
+        <v>3.165</v>
       </c>
       <c r="K5">
-        <v>2.997</v>
+        <v>3.19</v>
       </c>
       <c r="L5">
-        <v>2.892</v>
+        <v>3.073</v>
       </c>
     </row>
   </sheetData>
@@ -2357,37 +2321,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.746</v>
+        <v>3.722</v>
       </c>
       <c r="C2">
-        <v>3.784</v>
+        <v>3.773</v>
       </c>
       <c r="D2">
-        <v>3.714</v>
+        <v>3.668</v>
       </c>
       <c r="E2">
-        <v>3.178</v>
+        <v>3.099</v>
       </c>
       <c r="F2">
-        <v>3.012</v>
+        <v>2.949</v>
       </c>
       <c r="G2">
-        <v>2.78</v>
+        <v>2.684</v>
       </c>
       <c r="H2">
-        <v>2.744</v>
+        <v>2.656</v>
       </c>
       <c r="I2">
-        <v>2.8915</v>
+        <v>2.834</v>
       </c>
       <c r="J2">
-        <v>3.084</v>
+        <v>3.069</v>
       </c>
       <c r="K2">
-        <v>3.128</v>
+        <v>3.125</v>
       </c>
       <c r="L2">
-        <v>3.094</v>
+        <v>3.126</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2395,37 +2359,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.665</v>
+        <v>3.772</v>
       </c>
       <c r="C3">
-        <v>3.75</v>
+        <v>3.777</v>
       </c>
       <c r="D3">
-        <v>3.683</v>
+        <v>3.661</v>
       </c>
       <c r="E3">
-        <v>3.206</v>
+        <v>3.128</v>
       </c>
       <c r="F3">
-        <v>3.05</v>
+        <v>2.985</v>
       </c>
       <c r="G3">
-        <v>2.774</v>
+        <v>2.757</v>
       </c>
       <c r="H3">
-        <v>2.713</v>
+        <v>2.729</v>
       </c>
       <c r="I3">
-        <v>2.838</v>
+        <v>2.885</v>
       </c>
       <c r="J3">
-        <v>3.013</v>
+        <v>3.084</v>
       </c>
       <c r="K3">
-        <v>3.054</v>
+        <v>3.127</v>
       </c>
       <c r="L3">
-        <v>3.035</v>
+        <v>3.111</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2433,37 +2397,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.557</v>
+        <v>3.589</v>
       </c>
       <c r="C4">
-        <v>3.593</v>
+        <v>3.514</v>
       </c>
       <c r="D4">
-        <v>3.643</v>
+        <v>3.587</v>
       </c>
       <c r="E4">
-        <v>3.178</v>
+        <v>3.037</v>
       </c>
       <c r="F4">
-        <v>2.884</v>
+        <v>2.912</v>
       </c>
       <c r="G4">
-        <v>2.594</v>
+        <v>2.627</v>
       </c>
       <c r="H4">
-        <v>2.491</v>
+        <v>2.54</v>
       </c>
       <c r="I4">
-        <v>2.541</v>
+        <v>2.62</v>
       </c>
       <c r="J4">
-        <v>2.707</v>
+        <v>2.754</v>
       </c>
       <c r="K4">
-        <v>2.715</v>
+        <v>2.764</v>
       </c>
       <c r="L4">
-        <v>2.641</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2471,37 +2435,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.9360000000000001</v>
+        <v>1.087</v>
       </c>
       <c r="C5">
-        <v>1.515</v>
+        <v>1.638</v>
       </c>
       <c r="D5">
-        <v>2.033</v>
+        <v>2.236</v>
       </c>
       <c r="E5">
-        <v>1.921</v>
+        <v>2.137</v>
       </c>
       <c r="F5">
-        <v>1.9</v>
+        <v>2.064</v>
       </c>
       <c r="G5">
-        <v>1.983</v>
+        <v>2.17</v>
       </c>
       <c r="H5">
-        <v>1.957</v>
+        <v>2.167</v>
       </c>
       <c r="I5">
-        <v>2.086</v>
+        <v>2.289</v>
       </c>
       <c r="J5">
-        <v>2.264</v>
+        <v>2.436</v>
       </c>
       <c r="K5">
-        <v>2.264</v>
+        <v>2.388</v>
       </c>
       <c r="L5">
-        <v>2.066</v>
+        <v>2.228</v>
       </c>
     </row>
   </sheetData>
@@ -2560,22 +2524,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>5.391</v>
+        <v>5.207</v>
       </c>
       <c r="E2">
-        <v>5.322</v>
+        <v>5.18</v>
       </c>
       <c r="F2">
-        <v>5.355</v>
+        <v>5.195</v>
       </c>
       <c r="G2">
-        <v>5.553</v>
+        <v>5.455</v>
       </c>
       <c r="H2">
-        <v>5.626</v>
+        <v>5.535</v>
       </c>
       <c r="I2">
-        <v>5.911</v>
+        <v>5.821</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2583,22 +2547,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.992</v>
+        <v>5.22</v>
       </c>
       <c r="E3">
-        <v>5.026</v>
+        <v>5.247</v>
       </c>
       <c r="F3">
-        <v>5.079</v>
+        <v>5.251</v>
       </c>
       <c r="G3">
-        <v>5.255</v>
+        <v>5.465</v>
       </c>
       <c r="H3">
-        <v>5.552</v>
+        <v>5.661</v>
       </c>
       <c r="I3">
-        <v>5.916</v>
+        <v>6.003</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2606,22 +2570,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5.627</v>
+        <v>5.608</v>
       </c>
       <c r="E4">
-        <v>5.449</v>
+        <v>5.35</v>
       </c>
       <c r="F4">
-        <v>5.34</v>
+        <v>5.242</v>
       </c>
       <c r="G4">
-        <v>5.374</v>
+        <v>5.283</v>
       </c>
       <c r="H4">
-        <v>5.361</v>
+        <v>5.29</v>
       </c>
       <c r="I4">
-        <v>5.574</v>
+        <v>5.531</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2629,22 +2593,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>7.652</v>
+        <v>7.554</v>
       </c>
       <c r="E5">
-        <v>8.377000000000001</v>
+        <v>8.259</v>
       </c>
       <c r="F5">
-        <v>8.526999999999999</v>
+        <v>8.492000000000001</v>
       </c>
       <c r="G5">
-        <v>8.353</v>
+        <v>8.436</v>
       </c>
       <c r="H5">
-        <v>8.183999999999999</v>
+        <v>8.250999999999999</v>
       </c>
       <c r="I5">
-        <v>8.164</v>
+        <v>8.218999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2703,19 +2667,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>11.124</v>
+        <v>11.09</v>
       </c>
       <c r="E2">
-        <v>11.017</v>
+        <v>10.84</v>
       </c>
       <c r="F2">
-        <v>11.231</v>
+        <v>10.981</v>
       </c>
       <c r="G2">
-        <v>11.622</v>
+        <v>11.392</v>
       </c>
       <c r="I2">
-        <v>12.02</v>
+        <v>11.721</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2723,19 +2687,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>11.003</v>
+        <v>11.069</v>
       </c>
       <c r="E3">
-        <v>10.73</v>
+        <v>10.9</v>
       </c>
       <c r="F3">
-        <v>10.975</v>
+        <v>11.205</v>
       </c>
       <c r="G3">
-        <v>11.405</v>
+        <v>11.645</v>
       </c>
       <c r="I3">
-        <v>11.87</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2743,19 +2707,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>11.31</v>
+        <v>11.22</v>
       </c>
       <c r="E4">
-        <v>10.19</v>
+        <v>10.05</v>
       </c>
       <c r="F4">
-        <v>10.19</v>
+        <v>10.13</v>
       </c>
       <c r="G4">
-        <v>10.595</v>
+        <v>10.61</v>
       </c>
       <c r="I4">
-        <v>10.88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2763,19 +2727,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>13.29</v>
+        <v>13.305</v>
       </c>
       <c r="E5">
-        <v>12.35</v>
+        <v>12.255</v>
       </c>
       <c r="F5">
-        <v>12.005</v>
+        <v>11.89</v>
       </c>
       <c r="G5">
-        <v>11.845</v>
+        <v>11.615</v>
       </c>
       <c r="I5">
-        <v>12.025</v>
+        <v>11.86</v>
       </c>
     </row>
   </sheetData>
@@ -2834,25 +2798,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>3.167</v>
+        <v>3.088</v>
       </c>
       <c r="F2">
-        <v>3.059</v>
+        <v>3.026</v>
       </c>
       <c r="G2">
-        <v>3.208</v>
+        <v>3.131</v>
       </c>
       <c r="H2">
-        <v>3.335</v>
+        <v>3.18</v>
       </c>
       <c r="I2">
-        <v>3.615</v>
+        <v>3.547</v>
       </c>
       <c r="J2">
-        <v>4.034</v>
+        <v>4.005</v>
       </c>
       <c r="L2">
-        <v>4.155</v>
+        <v>4.142</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2860,25 +2824,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>3.222</v>
+        <v>3.193</v>
       </c>
       <c r="F3">
-        <v>3.134</v>
+        <v>3.122</v>
       </c>
       <c r="G3">
-        <v>3.214</v>
+        <v>3.22</v>
       </c>
       <c r="H3">
-        <v>3.343</v>
+        <v>3.368</v>
       </c>
       <c r="I3">
-        <v>3.593</v>
+        <v>3.638</v>
       </c>
       <c r="J3">
-        <v>3.975</v>
+        <v>4.069</v>
       </c>
       <c r="L3">
-        <v>4.109</v>
+        <v>4.178</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2886,25 +2850,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>3.003</v>
+        <v>3.018</v>
       </c>
       <c r="F4">
         <v>2.965</v>
       </c>
       <c r="G4">
-        <v>2.995</v>
+        <v>3.038</v>
       </c>
       <c r="H4">
-        <v>3.153</v>
+        <v>3.181</v>
       </c>
       <c r="I4">
-        <v>3.295</v>
+        <v>3.332</v>
       </c>
       <c r="J4">
-        <v>3.656</v>
+        <v>3.692</v>
       </c>
       <c r="L4">
-        <v>3.678</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2912,25 +2876,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>2.078</v>
+        <v>2.197</v>
       </c>
       <c r="F5">
-        <v>2.034</v>
+        <v>2.223</v>
       </c>
       <c r="G5">
-        <v>2.453</v>
+        <v>2.646</v>
       </c>
       <c r="H5">
-        <v>2.623</v>
+        <v>2.812</v>
       </c>
       <c r="I5">
-        <v>3.079</v>
+        <v>3.287</v>
       </c>
       <c r="J5">
-        <v>3.282</v>
+        <v>3.482</v>
       </c>
       <c r="L5">
-        <v>3.405</v>
+        <v>3.559</v>
       </c>
     </row>
   </sheetData>
@@ -2988,152 +2952,92 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>5.362</v>
-      </c>
-      <c r="C2">
-        <v>5.415</v>
-      </c>
-      <c r="D2">
-        <v>4.9465</v>
-      </c>
-      <c r="E2">
-        <v>4.88</v>
-      </c>
-      <c r="F2">
-        <v>4.755</v>
-      </c>
       <c r="G2">
-        <v>4.674</v>
+        <v>4.517</v>
       </c>
       <c r="H2">
-        <v>4.548</v>
+        <v>4.4135</v>
       </c>
       <c r="I2">
-        <v>4.698</v>
+        <v>4.592</v>
       </c>
       <c r="J2">
-        <v>5.034</v>
+        <v>4.9255</v>
       </c>
       <c r="K2">
-        <v>5.139</v>
+        <v>5.054</v>
       </c>
       <c r="L2">
-        <v>5.17</v>
+        <v>5.028</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>5.389</v>
-      </c>
-      <c r="C3">
-        <v>5.42</v>
-      </c>
-      <c r="D3">
-        <v>5.076</v>
-      </c>
-      <c r="E3">
-        <v>4.908</v>
-      </c>
-      <c r="F3">
-        <v>4.621</v>
-      </c>
       <c r="G3">
-        <v>4.517</v>
+        <v>4.563</v>
       </c>
       <c r="H3">
-        <v>4.319</v>
+        <v>4.427</v>
       </c>
       <c r="I3">
-        <v>4.447</v>
+        <v>4.577</v>
       </c>
       <c r="J3">
-        <v>4.75</v>
+        <v>4.887</v>
       </c>
       <c r="K3">
-        <v>4.843</v>
+        <v>4.992</v>
       </c>
       <c r="L3">
-        <v>4.903</v>
+        <v>5.034</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>5.354</v>
-      </c>
-      <c r="C4">
-        <v>5.552</v>
-      </c>
-      <c r="D4">
-        <v>5.015</v>
-      </c>
-      <c r="E4">
-        <v>4.865</v>
-      </c>
-      <c r="F4">
-        <v>4.633</v>
-      </c>
       <c r="G4">
-        <v>4.387</v>
+        <v>4.529</v>
       </c>
       <c r="H4">
-        <v>4.306</v>
+        <v>4.47</v>
       </c>
       <c r="I4">
-        <v>4.383</v>
+        <v>4.528</v>
       </c>
       <c r="J4">
-        <v>4.606</v>
+        <v>4.743</v>
       </c>
       <c r="K4">
-        <v>4.608</v>
+        <v>4.766</v>
       </c>
       <c r="L4">
-        <v>4.572</v>
+        <v>4.728</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>2.826</v>
-      </c>
-      <c r="C5">
-        <v>3.557</v>
-      </c>
-      <c r="D5">
-        <v>2.985</v>
-      </c>
-      <c r="E5">
-        <v>3.227</v>
-      </c>
-      <c r="F5">
-        <v>3.297</v>
-      </c>
       <c r="G5">
-        <v>3.568</v>
+        <v>3.402</v>
       </c>
       <c r="H5">
-        <v>3.634</v>
+        <v>3.56</v>
       </c>
       <c r="I5">
-        <v>3.494</v>
+        <v>3.551</v>
       </c>
       <c r="J5">
-        <v>3.807</v>
+        <v>3.946</v>
       </c>
       <c r="K5">
-        <v>3.78</v>
+        <v>3.943</v>
       </c>
       <c r="L5">
-        <v>3.562</v>
+        <v>3.771</v>
       </c>
     </row>
   </sheetData>
@@ -3192,37 +3096,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.214</v>
+        <v>-0.201</v>
       </c>
       <c r="C2">
-        <v>-0.165</v>
+        <v>-0.171</v>
       </c>
       <c r="D2">
-        <v>-0.046</v>
+        <v>-0.032</v>
       </c>
       <c r="E2">
-        <v>0.07099999999999999</v>
+        <v>0.089</v>
       </c>
       <c r="F2">
-        <v>0.149</v>
+        <v>0.173</v>
       </c>
       <c r="G2">
-        <v>0.357</v>
+        <v>0.38</v>
       </c>
       <c r="H2">
-        <v>0.589</v>
+        <v>0.628</v>
       </c>
       <c r="I2">
-        <v>0.836</v>
+        <v>0.874</v>
       </c>
       <c r="J2">
-        <v>1.298</v>
+        <v>1.344</v>
       </c>
       <c r="K2">
-        <v>1.617</v>
+        <v>1.653</v>
       </c>
       <c r="L2">
-        <v>1.822</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3230,37 +3134,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-0.231</v>
+        <v>-0.306</v>
       </c>
       <c r="C3">
-        <v>-0.152</v>
+        <v>-0.164</v>
       </c>
       <c r="D3">
-        <v>-0.044</v>
+        <v>-0.051</v>
       </c>
       <c r="E3">
-        <v>0.051</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F3">
-        <v>0.131</v>
+        <v>0.145</v>
       </c>
       <c r="G3">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="H3">
-        <v>0.5620000000000001</v>
+        <v>0.585</v>
       </c>
       <c r="I3">
-        <v>0.771</v>
+        <v>0.8</v>
       </c>
       <c r="J3">
-        <v>1.244</v>
+        <v>1.322</v>
       </c>
       <c r="K3">
-        <v>1.491</v>
+        <v>1.596</v>
       </c>
       <c r="L3">
-        <v>1.741</v>
+        <v>1.744</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3268,37 +3172,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.101</v>
+        <v>-0.106</v>
       </c>
       <c r="C4">
-        <v>-0.174</v>
+        <v>-0.159</v>
       </c>
       <c r="D4">
-        <v>-0.081</v>
+        <v>-0.09</v>
       </c>
       <c r="E4">
-        <v>0.026</v>
+        <v>0.016</v>
       </c>
       <c r="F4">
-        <v>0.05</v>
+        <v>0.042</v>
       </c>
       <c r="G4">
-        <v>0.215</v>
+        <v>0.186</v>
       </c>
       <c r="H4">
-        <v>0.44</v>
+        <v>0.384</v>
       </c>
       <c r="I4">
-        <v>0.643</v>
+        <v>0.589</v>
       </c>
       <c r="J4">
-        <v>1.085</v>
+        <v>1.006</v>
       </c>
       <c r="K4">
-        <v>1.336</v>
+        <v>1.267</v>
       </c>
       <c r="L4">
-        <v>1.618</v>
+        <v>1.549</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3306,37 +3210,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.127</v>
+        <v>-0.102</v>
       </c>
       <c r="C5">
-        <v>-0.133</v>
+        <v>-0.123</v>
       </c>
       <c r="D5">
-        <v>-0.104</v>
+        <v>-0.095</v>
       </c>
       <c r="E5">
-        <v>-0.045</v>
+        <v>-0.04</v>
       </c>
       <c r="F5">
-        <v>-0.044</v>
+        <v>-0.031</v>
       </c>
       <c r="G5">
-        <v>0.076</v>
+        <v>0.09</v>
       </c>
       <c r="H5">
-        <v>0.189</v>
+        <v>0.227</v>
       </c>
       <c r="I5">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="J5">
-        <v>0.797</v>
+        <v>0.841</v>
       </c>
       <c r="K5">
-        <v>1.088</v>
+        <v>1.152</v>
       </c>
       <c r="L5">
-        <v>1.443</v>
+        <v>1.556</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -484,34 +484,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.157</v>
+        <v>5.04</v>
       </c>
       <c r="C2">
-        <v>5.147</v>
+        <v>5.07</v>
       </c>
       <c r="D2">
-        <v>5.082</v>
+        <v>5.02</v>
       </c>
       <c r="E2">
-        <v>4.638</v>
+        <v>4.58</v>
       </c>
       <c r="F2">
-        <v>4.502</v>
+        <v>4.42</v>
       </c>
       <c r="G2">
-        <v>4.104</v>
+        <v>3.952</v>
       </c>
       <c r="H2">
-        <v>4.022</v>
+        <v>3.885</v>
       </c>
       <c r="I2">
-        <v>4.018</v>
+        <v>3.84</v>
       </c>
       <c r="K2">
-        <v>3.964</v>
+        <v>3.778</v>
       </c>
       <c r="L2">
-        <v>3.78</v>
+        <v>3.619</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -519,34 +519,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.14</v>
+        <v>5.16</v>
       </c>
       <c r="C3">
-        <v>5.24</v>
+        <v>5.19</v>
       </c>
       <c r="D3">
-        <v>5.33</v>
+        <v>5.22</v>
       </c>
       <c r="E3">
-        <v>4.861</v>
+        <v>4.783</v>
       </c>
       <c r="F3">
-        <v>4.712</v>
+        <v>4.651</v>
       </c>
       <c r="G3">
-        <v>4.322</v>
+        <v>4.242</v>
       </c>
       <c r="H3">
-        <v>4.196</v>
+        <v>4.146</v>
       </c>
       <c r="I3">
-        <v>4.155</v>
+        <v>4.073</v>
       </c>
       <c r="K3">
-        <v>4.082</v>
+        <v>4.021</v>
       </c>
       <c r="L3">
-        <v>3.897</v>
+        <v>3.863</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -554,34 +554,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.095</v>
+        <v>5.15</v>
       </c>
       <c r="C4">
-        <v>5.17</v>
+        <v>5.21</v>
       </c>
       <c r="D4">
-        <v>5.24</v>
+        <v>5.26</v>
       </c>
       <c r="E4">
-        <v>4.675</v>
+        <v>4.786</v>
       </c>
       <c r="F4">
-        <v>4.425</v>
+        <v>4.543</v>
       </c>
       <c r="G4">
-        <v>3.986</v>
+        <v>4.05</v>
       </c>
       <c r="H4">
-        <v>3.76</v>
+        <v>3.872</v>
       </c>
       <c r="I4">
-        <v>3.648</v>
+        <v>3.704</v>
       </c>
       <c r="K4">
-        <v>3.613</v>
+        <v>3.654</v>
       </c>
       <c r="L4">
-        <v>3.49</v>
+        <v>3.506</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -589,34 +589,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>4.09</v>
       </c>
       <c r="C5">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="D5">
-        <v>4.45</v>
+        <v>4.42</v>
       </c>
       <c r="E5">
-        <v>4.141</v>
+        <v>3.898</v>
       </c>
       <c r="F5">
-        <v>4.106</v>
+        <v>3.658</v>
       </c>
       <c r="G5">
-        <v>3.668</v>
+        <v>3.174</v>
       </c>
       <c r="H5">
-        <v>3.526</v>
+        <v>2.951</v>
       </c>
       <c r="I5">
-        <v>3.504</v>
+        <v>2.938</v>
       </c>
       <c r="K5">
-        <v>3.623</v>
+        <v>3.067</v>
       </c>
       <c r="L5">
-        <v>3.505</v>
+        <v>2.964</v>
       </c>
     </row>
   </sheetData>
@@ -675,31 +675,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.459</v>
+        <v>5.468</v>
       </c>
       <c r="C2">
-        <v>5.544</v>
+        <v>5.508</v>
       </c>
       <c r="D2">
-        <v>5.416</v>
+        <v>5.428</v>
       </c>
       <c r="E2">
-        <v>5.015</v>
+        <v>5.03</v>
       </c>
       <c r="F2">
-        <v>4.848</v>
+        <v>4.803</v>
       </c>
       <c r="G2">
-        <v>4.774</v>
+        <v>4.65</v>
       </c>
       <c r="H2">
-        <v>4.851</v>
+        <v>4.678</v>
       </c>
       <c r="I2">
-        <v>4.845</v>
+        <v>4.633</v>
       </c>
       <c r="L2">
-        <v>5.018</v>
+        <v>4.738</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -707,31 +707,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.517</v>
+        <v>5.477</v>
       </c>
       <c r="C3">
-        <v>5.586</v>
+        <v>5.549</v>
       </c>
       <c r="D3">
-        <v>5.427</v>
+        <v>5.416</v>
       </c>
       <c r="E3">
-        <v>5.081</v>
+        <v>5.015</v>
       </c>
       <c r="F3">
-        <v>4.881</v>
+        <v>4.848</v>
       </c>
       <c r="G3">
-        <v>4.751</v>
+        <v>4.774</v>
       </c>
       <c r="H3">
-        <v>4.8</v>
+        <v>4.851</v>
       </c>
       <c r="I3">
-        <v>4.795</v>
+        <v>4.845</v>
       </c>
       <c r="L3">
-        <v>4.96</v>
+        <v>5.018</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -739,31 +739,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.432</v>
+        <v>5.444</v>
       </c>
       <c r="C4">
-        <v>5.488</v>
+        <v>5.495</v>
       </c>
       <c r="D4">
-        <v>5.356</v>
+        <v>5.379</v>
       </c>
       <c r="E4">
-        <v>4.892</v>
+        <v>4.876</v>
       </c>
       <c r="F4">
-        <v>4.575</v>
+        <v>4.581</v>
       </c>
       <c r="G4">
-        <v>4.303</v>
+        <v>4.296</v>
       </c>
       <c r="H4">
-        <v>4.254</v>
+        <v>4.266</v>
       </c>
       <c r="I4">
-        <v>4.158</v>
+        <v>4.181</v>
       </c>
       <c r="L4">
-        <v>4.264</v>
+        <v>4.297</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -771,31 +771,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4.118</v>
+        <v>4.305</v>
       </c>
       <c r="C5">
-        <v>4.582</v>
+        <v>4.703</v>
       </c>
       <c r="D5">
-        <v>4.744</v>
+        <v>4.759</v>
       </c>
       <c r="E5">
-        <v>4.658</v>
+        <v>4.467</v>
       </c>
       <c r="F5">
-        <v>4.591</v>
+        <v>4.216</v>
       </c>
       <c r="G5">
-        <v>4.331</v>
+        <v>3.87</v>
       </c>
       <c r="H5">
-        <v>4.253</v>
+        <v>3.79</v>
       </c>
       <c r="I5">
-        <v>4.163</v>
+        <v>3.691</v>
       </c>
       <c r="L5">
-        <v>4.256</v>
+        <v>3.751</v>
       </c>
     </row>
   </sheetData>
@@ -854,22 +854,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>13.63</v>
+        <v>12.745</v>
       </c>
       <c r="E2">
-        <v>14.38</v>
+        <v>13.325</v>
       </c>
       <c r="F2">
-        <v>12.82</v>
+        <v>12.02</v>
       </c>
       <c r="G2">
-        <v>13.25</v>
+        <v>12.495</v>
       </c>
       <c r="I2">
-        <v>12.52</v>
+        <v>12.27</v>
       </c>
       <c r="J2">
-        <v>12.72</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -877,22 +877,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>16.88</v>
+        <v>13.63</v>
       </c>
       <c r="E3">
-        <v>13.61</v>
+        <v>14.38</v>
       </c>
       <c r="F3">
-        <v>12.45</v>
+        <v>12.82</v>
       </c>
       <c r="G3">
-        <v>13.06</v>
+        <v>13.25</v>
       </c>
       <c r="I3">
-        <v>12.27</v>
+        <v>12.52</v>
       </c>
       <c r="J3">
-        <v>12.6</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -900,22 +900,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>11.98</v>
+        <v>13.64</v>
       </c>
       <c r="E4">
-        <v>10.27</v>
+        <v>11.28</v>
       </c>
       <c r="F4">
-        <v>11.67</v>
+        <v>12.44</v>
       </c>
       <c r="G4">
-        <v>10.71</v>
+        <v>11.33</v>
       </c>
       <c r="I4">
-        <v>11.78</v>
+        <v>12.08</v>
       </c>
       <c r="J4">
-        <v>11.98</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -923,22 +923,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>9.789999999999999</v>
+        <v>10.43</v>
       </c>
       <c r="E5">
-        <v>8.449999999999999</v>
+        <v>8.42</v>
       </c>
       <c r="F5">
-        <v>9.140000000000001</v>
+        <v>9.09</v>
       </c>
       <c r="G5">
-        <v>9.359999999999999</v>
+        <v>9.18</v>
       </c>
       <c r="I5">
-        <v>9.94</v>
+        <v>10.06</v>
       </c>
       <c r="J5">
-        <v>10.63</v>
+        <v>10.49</v>
       </c>
     </row>
   </sheetData>
@@ -997,25 +997,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.509</v>
+        <v>4.458</v>
       </c>
       <c r="E2">
-        <v>4.373</v>
+        <v>4.346</v>
       </c>
       <c r="F2">
-        <v>4.311</v>
+        <v>4.294</v>
       </c>
       <c r="G2">
-        <v>4.443</v>
+        <v>4.357</v>
       </c>
       <c r="H2">
-        <v>4.652</v>
+        <v>4.521</v>
       </c>
       <c r="I2">
-        <v>4.807</v>
+        <v>4.662</v>
       </c>
       <c r="J2">
-        <v>5.069</v>
+        <v>4.897</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.177</v>
+        <v>4.489</v>
       </c>
       <c r="E3">
-        <v>4.034</v>
+        <v>4.373</v>
       </c>
       <c r="F3">
-        <v>4.012</v>
+        <v>4.309</v>
       </c>
       <c r="G3">
-        <v>4.132</v>
+        <v>4.442</v>
       </c>
       <c r="H3">
-        <v>4.369</v>
+        <v>4.655</v>
       </c>
       <c r="I3">
-        <v>4.564</v>
+        <v>4.814</v>
       </c>
       <c r="J3">
-        <v>4.821</v>
+        <v>5.075</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1049,25 +1049,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.06</v>
+        <v>3.971</v>
       </c>
       <c r="E4">
-        <v>3.887</v>
+        <v>3.782</v>
       </c>
       <c r="F4">
-        <v>3.831</v>
+        <v>3.726</v>
       </c>
       <c r="G4">
-        <v>3.871</v>
+        <v>3.767</v>
       </c>
       <c r="H4">
-        <v>4.016</v>
+        <v>3.897</v>
       </c>
       <c r="I4">
-        <v>4.119</v>
+        <v>3.999</v>
       </c>
       <c r="J4">
-        <v>4.361</v>
+        <v>4.261</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1075,25 +1075,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>3.214</v>
+        <v>3.207</v>
       </c>
       <c r="E5">
-        <v>3.311</v>
+        <v>3.209</v>
       </c>
       <c r="F5">
-        <v>3.38</v>
+        <v>3.275</v>
       </c>
       <c r="G5">
-        <v>3.551</v>
+        <v>3.379</v>
       </c>
       <c r="H5">
-        <v>3.711</v>
+        <v>3.485</v>
       </c>
       <c r="I5">
-        <v>3.867</v>
+        <v>3.59</v>
       </c>
       <c r="J5">
-        <v>4.113</v>
+        <v>3.852</v>
       </c>
     </row>
   </sheetData>
@@ -1152,28 +1152,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.936</v>
+        <v>3.726</v>
       </c>
       <c r="C2">
-        <v>3.982</v>
+        <v>3.818</v>
       </c>
       <c r="D2">
-        <v>3.932</v>
+        <v>3.828</v>
       </c>
       <c r="E2">
-        <v>3.925</v>
+        <v>3.743</v>
       </c>
       <c r="F2">
-        <v>3.899</v>
+        <v>3.703</v>
+      </c>
+      <c r="G2">
+        <v>3.897</v>
       </c>
       <c r="H2">
-        <v>4.46</v>
+        <v>4.176</v>
       </c>
       <c r="I2">
+        <v>4.53</v>
+      </c>
+      <c r="J2">
         <v>4.799</v>
-      </c>
-      <c r="J2">
-        <v>5.106</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1181,28 +1184,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.847</v>
+        <v>3.936</v>
       </c>
       <c r="C3">
-        <v>4.014</v>
+        <v>3.982</v>
       </c>
       <c r="D3">
-        <v>3.979</v>
+        <v>3.975</v>
       </c>
       <c r="E3">
-        <v>4.028</v>
+        <v>3.925</v>
       </c>
       <c r="F3">
-        <v>4.024</v>
+        <v>3.899</v>
+      </c>
+      <c r="G3">
+        <v>4.147</v>
       </c>
       <c r="H3">
-        <v>4.585</v>
+        <v>4.462</v>
       </c>
       <c r="I3">
-        <v>4.922</v>
+        <v>4.808</v>
       </c>
       <c r="J3">
-        <v>5.21</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1210,28 +1216,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.471</v>
+        <v>3.347</v>
       </c>
       <c r="C4">
-        <v>3.804</v>
+        <v>3.713</v>
       </c>
       <c r="D4">
-        <v>3.836</v>
+        <v>3.813</v>
       </c>
       <c r="E4">
-        <v>3.696</v>
+        <v>3.694</v>
       </c>
       <c r="F4">
-        <v>3.625</v>
+        <v>3.592</v>
+      </c>
+      <c r="G4">
+        <v>3.754</v>
       </c>
       <c r="H4">
-        <v>3.979</v>
+        <v>3.96</v>
       </c>
       <c r="I4">
-        <v>4.253</v>
+        <v>4.234</v>
       </c>
       <c r="J4">
-        <v>4.453</v>
+        <v>4.461</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1239,28 +1248,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.739</v>
+        <v>1.6</v>
       </c>
       <c r="C5">
-        <v>2.108</v>
+        <v>2.14</v>
       </c>
       <c r="D5">
-        <v>2.553</v>
+        <v>2.608</v>
       </c>
       <c r="E5">
-        <v>2.888</v>
+        <v>2.712</v>
       </c>
       <c r="F5">
-        <v>3.278</v>
+        <v>3.002</v>
+      </c>
+      <c r="G5">
+        <v>3.379</v>
       </c>
       <c r="H5">
-        <v>3.962</v>
+        <v>3.474</v>
       </c>
       <c r="I5">
-        <v>4.456</v>
+        <v>3.859</v>
       </c>
       <c r="J5">
-        <v>4.459</v>
+        <v>3.848</v>
       </c>
     </row>
   </sheetData>
@@ -1319,37 +1331,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="C2">
         <v>1.71</v>
       </c>
       <c r="D2">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="E2">
-        <v>1.183</v>
+        <v>1.306</v>
       </c>
       <c r="F2">
-        <v>1.054</v>
+        <v>1.161</v>
       </c>
       <c r="G2">
-        <v>0.977</v>
+        <v>1.075</v>
       </c>
       <c r="H2">
-        <v>1.013</v>
+        <v>1.017</v>
       </c>
       <c r="I2">
-        <v>1.082</v>
+        <v>1.075</v>
       </c>
       <c r="J2">
-        <v>1.112</v>
+        <v>1.128</v>
       </c>
       <c r="K2">
-        <v>1.136</v>
+        <v>1.113</v>
       </c>
       <c r="L2">
-        <v>1.13</v>
+        <v>1.083</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1360,34 +1372,34 @@
         <v>1.55</v>
       </c>
       <c r="C3">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="D3">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="E3">
-        <v>1.255</v>
+        <v>1.229</v>
       </c>
       <c r="F3">
-        <v>1.187</v>
+        <v>1.123</v>
       </c>
       <c r="G3">
+        <v>1.016</v>
+      </c>
+      <c r="H3">
+        <v>1.026</v>
+      </c>
+      <c r="I3">
         <v>1.137</v>
       </c>
-      <c r="H3">
-        <v>1.121</v>
-      </c>
-      <c r="I3">
-        <v>1.181</v>
-      </c>
       <c r="J3">
-        <v>1.189</v>
+        <v>1.153</v>
       </c>
       <c r="K3">
-        <v>1.191</v>
+        <v>1.171</v>
       </c>
       <c r="L3">
-        <v>1.171</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1395,37 +1407,37 @@
         <v>14</v>
       </c>
       <c r="B4">
+        <v>1.6</v>
+      </c>
+      <c r="C4">
         <v>1.65</v>
       </c>
-      <c r="C4">
-        <v>1.74</v>
-      </c>
       <c r="D4">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="E4">
-        <v>1.128</v>
+        <v>1.101</v>
       </c>
       <c r="F4">
-        <v>1.103</v>
+        <v>1.119</v>
       </c>
       <c r="G4">
-        <v>1.058</v>
+        <v>0.978</v>
       </c>
       <c r="H4">
-        <v>1.076</v>
+        <v>1.12</v>
       </c>
       <c r="I4">
-        <v>1.085</v>
+        <v>0.961</v>
       </c>
       <c r="J4">
-        <v>1.112</v>
+        <v>1.001</v>
       </c>
       <c r="K4">
-        <v>1.082</v>
+        <v>0.962</v>
       </c>
       <c r="L4">
-        <v>1.042</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1433,37 +1445,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D5">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="E5">
-        <v>0.578</v>
+        <v>1.249</v>
       </c>
       <c r="F5">
-        <v>0.604</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G5">
-        <v>0.877</v>
+        <v>0.955</v>
       </c>
       <c r="H5">
-        <v>1.063</v>
+        <v>1.001</v>
       </c>
       <c r="I5">
-        <v>1.232</v>
+        <v>1.073</v>
       </c>
       <c r="J5">
-        <v>1.32</v>
+        <v>1.096</v>
       </c>
       <c r="K5">
-        <v>1.21</v>
+        <v>1.155</v>
       </c>
       <c r="L5">
-        <v>1.185</v>
+        <v>1.122</v>
       </c>
     </row>
   </sheetData>
@@ -1522,31 +1534,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>2.273</v>
+        <v>2.359</v>
       </c>
       <c r="E2">
-        <v>2.31</v>
+        <v>2.358</v>
       </c>
       <c r="F2">
-        <v>2.416</v>
+        <v>2.415</v>
       </c>
       <c r="G2">
-        <v>2.561</v>
+        <v>2.496</v>
       </c>
       <c r="H2">
-        <v>2.715</v>
+        <v>2.656</v>
       </c>
       <c r="I2">
-        <v>2.729</v>
+        <v>2.673</v>
       </c>
       <c r="J2">
-        <v>2.855</v>
+        <v>2.797</v>
       </c>
       <c r="K2">
-        <v>3.101</v>
+        <v>3.047</v>
       </c>
       <c r="L2">
-        <v>3.015</v>
+        <v>2.965</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1554,31 +1566,31 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>2.299</v>
+        <v>2.28</v>
       </c>
       <c r="E3">
-        <v>2.358</v>
+        <v>2.321</v>
       </c>
       <c r="F3">
-        <v>2.463</v>
+        <v>2.419</v>
       </c>
       <c r="G3">
-        <v>2.588</v>
+        <v>2.578</v>
       </c>
       <c r="H3">
-        <v>2.708</v>
+        <v>2.722</v>
       </c>
       <c r="I3">
-        <v>2.731</v>
+        <v>2.73</v>
       </c>
       <c r="J3">
-        <v>2.837</v>
+        <v>2.857</v>
       </c>
       <c r="K3">
-        <v>3.083</v>
+        <v>3.101</v>
       </c>
       <c r="L3">
-        <v>3.007</v>
+        <v>3.025</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1586,31 +1598,31 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>2.28</v>
+        <v>1.945</v>
       </c>
       <c r="E4">
-        <v>2.321</v>
+        <v>2.151</v>
       </c>
       <c r="F4">
-        <v>2.419</v>
+        <v>2.253</v>
       </c>
       <c r="G4">
-        <v>2.578</v>
+        <v>2.44</v>
       </c>
       <c r="H4">
-        <v>2.722</v>
+        <v>2.601</v>
       </c>
       <c r="I4">
-        <v>2.73</v>
+        <v>2.61</v>
       </c>
       <c r="J4">
-        <v>2.857</v>
+        <v>2.746</v>
       </c>
       <c r="K4">
-        <v>3.101</v>
+        <v>2.953</v>
       </c>
       <c r="L4">
-        <v>3.034</v>
+        <v>2.943</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1618,31 +1630,31 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1.715</v>
+        <v>2.13</v>
       </c>
       <c r="E5">
-        <v>2.085</v>
+        <v>2.297</v>
       </c>
       <c r="F5">
-        <v>2.261</v>
+        <v>2.4</v>
       </c>
       <c r="G5">
-        <v>2.491</v>
+        <v>2.607</v>
       </c>
       <c r="H5">
-        <v>2.705</v>
+        <v>2.832</v>
       </c>
       <c r="I5">
-        <v>2.708</v>
+        <v>2.841</v>
       </c>
       <c r="J5">
-        <v>2.87</v>
+        <v>2.909</v>
       </c>
       <c r="K5">
-        <v>3.211</v>
+        <v>3.331</v>
       </c>
       <c r="L5">
-        <v>3.15</v>
+        <v>3.23</v>
       </c>
     </row>
   </sheetData>
@@ -1701,19 +1713,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8.75</v>
+        <v>8.6</v>
       </c>
       <c r="G2">
-        <v>9.335000000000001</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="I2">
-        <v>10.66</v>
+        <v>10.35</v>
       </c>
       <c r="K2">
-        <v>12.775</v>
+        <v>12.465</v>
       </c>
       <c r="L2">
-        <v>12.775</v>
+        <v>12.425</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1721,19 +1733,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="G3">
-        <v>9.449999999999999</v>
+        <v>9.335000000000001</v>
       </c>
       <c r="I3">
-        <v>10.89</v>
+        <v>10.66</v>
       </c>
       <c r="K3">
-        <v>12.88</v>
+        <v>12.775</v>
       </c>
       <c r="L3">
-        <v>12.87</v>
+        <v>12.775</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1741,19 +1753,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G4">
-        <v>8.880000000000001</v>
+        <v>8.94</v>
       </c>
       <c r="I4">
-        <v>10.165</v>
+        <v>10.3</v>
       </c>
       <c r="K4">
-        <v>12.265</v>
+        <v>12.425</v>
       </c>
       <c r="L4">
-        <v>12.205</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1764,16 +1776,16 @@
         <v>7</v>
       </c>
       <c r="G5">
-        <v>9.045</v>
+        <v>8.69</v>
       </c>
       <c r="I5">
-        <v>10.675</v>
+        <v>10.22</v>
       </c>
       <c r="K5">
-        <v>11.715</v>
+        <v>11.425</v>
       </c>
       <c r="L5">
-        <v>11.595</v>
+        <v>11.26</v>
       </c>
     </row>
   </sheetData>
@@ -1832,10 +1844,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>22.474</v>
+        <v>29.792</v>
       </c>
       <c r="C2">
-        <v>24.847</v>
+        <v>31.921</v>
+      </c>
+      <c r="D2">
+        <v>7.77</v>
+      </c>
+      <c r="E2">
+        <v>41.815</v>
+      </c>
+      <c r="F2">
+        <v>33.24</v>
+      </c>
+      <c r="G2">
+        <v>26.225</v>
+      </c>
+      <c r="I2">
+        <v>29.08</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1843,10 +1870,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>21.817</v>
+        <v>22.474</v>
       </c>
       <c r="C3">
-        <v>23.157</v>
+        <v>24.798</v>
+      </c>
+      <c r="D3">
+        <v>7.77</v>
+      </c>
+      <c r="E3">
+        <v>32.13</v>
+      </c>
+      <c r="F3">
+        <v>31.92</v>
+      </c>
+      <c r="G3">
+        <v>29.73</v>
+      </c>
+      <c r="I3">
+        <v>26.58</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1854,10 +1896,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>16.765</v>
+        <v>24.516</v>
       </c>
       <c r="C4">
-        <v>16.295</v>
+        <v>23.36</v>
+      </c>
+      <c r="D4">
+        <v>7.77</v>
+      </c>
+      <c r="E4">
+        <v>19.7</v>
+      </c>
+      <c r="F4">
+        <v>20.58</v>
+      </c>
+      <c r="G4">
+        <v>19.02</v>
+      </c>
+      <c r="I4">
+        <v>18.45</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1865,10 +1922,25 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>13.64</v>
+        <v>10.475</v>
       </c>
       <c r="C5">
-        <v>13.693</v>
+        <v>10.366</v>
+      </c>
+      <c r="D5">
+        <v>13.735</v>
+      </c>
+      <c r="E5">
+        <v>10.58</v>
+      </c>
+      <c r="F5">
+        <v>10.37</v>
+      </c>
+      <c r="G5">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="I5">
+        <v>10.65</v>
       </c>
     </row>
   </sheetData>
@@ -1927,34 +1999,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.95</v>
+        <v>6.92</v>
       </c>
       <c r="C2">
-        <v>7.14</v>
+        <v>7.12</v>
       </c>
       <c r="D2">
-        <v>7.206</v>
+        <v>7.122</v>
       </c>
       <c r="E2">
-        <v>7.321</v>
+        <v>7.25</v>
       </c>
       <c r="F2">
-        <v>7.319</v>
+        <v>7.249</v>
       </c>
       <c r="G2">
-        <v>7.347</v>
+        <v>7.306</v>
       </c>
       <c r="H2">
-        <v>7.389</v>
+        <v>7.327</v>
       </c>
       <c r="I2">
-        <v>7.351</v>
+        <v>7.283</v>
       </c>
       <c r="J2">
-        <v>7.481</v>
+        <v>7.429</v>
       </c>
       <c r="L2">
-        <v>7.527</v>
+        <v>7.482</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1962,34 +2034,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.88</v>
+        <v>6.95</v>
       </c>
       <c r="C3">
-        <v>7.13</v>
+        <v>7.15</v>
       </c>
       <c r="D3">
+        <v>7.333</v>
+      </c>
+      <c r="E3">
+        <v>7.321</v>
+      </c>
+      <c r="F3">
+        <v>7.319</v>
+      </c>
+      <c r="G3">
+        <v>7.347</v>
+      </c>
+      <c r="H3">
+        <v>7.389</v>
+      </c>
+      <c r="I3">
         <v>7.351</v>
       </c>
-      <c r="E3">
-        <v>7.347</v>
-      </c>
-      <c r="F3">
-        <v>7.345</v>
-      </c>
-      <c r="G3">
-        <v>7.394</v>
-      </c>
-      <c r="H3">
-        <v>7.394</v>
-      </c>
-      <c r="I3">
-        <v>7.339</v>
-      </c>
       <c r="J3">
-        <v>7.46</v>
+        <v>7.481</v>
       </c>
       <c r="L3">
-        <v>7.539</v>
+        <v>7.527</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1997,34 +2069,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.77</v>
+        <v>6.81</v>
       </c>
       <c r="C4">
-        <v>6.93</v>
+        <v>6.99</v>
       </c>
       <c r="D4">
-        <v>7.06</v>
+        <v>7.095</v>
       </c>
       <c r="E4">
-        <v>7.123</v>
+        <v>7.16</v>
       </c>
       <c r="F4">
+        <v>7.161</v>
+      </c>
+      <c r="G4">
+        <v>7.164</v>
+      </c>
+      <c r="H4">
         <v>7.172</v>
       </c>
-      <c r="G4">
-        <v>7.185</v>
-      </c>
-      <c r="H4">
-        <v>7.194</v>
-      </c>
       <c r="I4">
-        <v>7.198</v>
+        <v>7.175</v>
       </c>
       <c r="J4">
-        <v>7.328</v>
+        <v>7.246</v>
       </c>
       <c r="L4">
-        <v>7.382</v>
+        <v>7.331</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2032,34 +2104,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.48</v>
+        <v>6.45</v>
       </c>
       <c r="C5">
-        <v>6.79</v>
+        <v>6.73</v>
       </c>
       <c r="D5">
-        <v>6.9</v>
+        <v>6.718</v>
       </c>
       <c r="E5">
-        <v>7.175</v>
+        <v>6.861</v>
       </c>
       <c r="F5">
-        <v>7.341</v>
+        <v>7.218</v>
       </c>
       <c r="G5">
-        <v>7.421</v>
+        <v>7.156</v>
       </c>
       <c r="H5">
-        <v>7.505</v>
+        <v>7.26</v>
       </c>
       <c r="I5">
-        <v>7.469</v>
+        <v>7.301</v>
       </c>
       <c r="J5">
-        <v>7.603</v>
+        <v>7.447</v>
       </c>
       <c r="L5">
-        <v>7.606</v>
+        <v>7.426</v>
       </c>
     </row>
   </sheetData>
@@ -2118,37 +2190,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.829</v>
+        <v>3.841</v>
       </c>
       <c r="C2">
-        <v>3.837</v>
+        <v>3.857</v>
       </c>
       <c r="D2">
-        <v>3.724</v>
+        <v>3.687</v>
       </c>
       <c r="E2">
-        <v>3.313</v>
+        <v>3.289</v>
       </c>
       <c r="F2">
-        <v>3.116</v>
+        <v>3.089</v>
       </c>
       <c r="G2">
-        <v>3.059</v>
+        <v>3.007</v>
       </c>
       <c r="H2">
-        <v>3.116</v>
+        <v>3.027</v>
       </c>
       <c r="I2">
-        <v>3.438</v>
+        <v>3.272</v>
       </c>
       <c r="J2">
-        <v>3.726</v>
+        <v>3.522</v>
       </c>
       <c r="K2">
-        <v>3.894</v>
+        <v>3.673</v>
       </c>
       <c r="L2">
-        <v>4.016</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2156,37 +2228,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.829</v>
+        <v>3.793</v>
       </c>
       <c r="C3">
-        <v>3.85</v>
+        <v>3.809</v>
       </c>
       <c r="D3">
-        <v>3.784</v>
+        <v>3.738</v>
       </c>
       <c r="E3">
-        <v>3.349</v>
+        <v>3.356</v>
       </c>
       <c r="F3">
-        <v>3.19</v>
+        <v>3.134</v>
       </c>
       <c r="G3">
-        <v>3.183</v>
+        <v>3.082</v>
       </c>
       <c r="H3">
-        <v>3.2405</v>
+        <v>3.1463</v>
       </c>
       <c r="I3">
-        <v>3.484</v>
+        <v>3.452</v>
       </c>
       <c r="J3">
-        <v>3.782</v>
+        <v>3.739</v>
       </c>
       <c r="K3">
-        <v>3.938</v>
+        <v>3.911</v>
       </c>
       <c r="L3">
-        <v>4.041</v>
+        <v>4.033</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2194,37 +2266,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.591</v>
+        <v>3.649</v>
       </c>
       <c r="C4">
-        <v>3.617</v>
+        <v>3.624</v>
       </c>
       <c r="D4">
-        <v>3.605</v>
+        <v>3.624</v>
       </c>
       <c r="E4">
-        <v>3.269</v>
+        <v>3.222</v>
       </c>
       <c r="F4">
-        <v>3.052</v>
+        <v>3.014</v>
       </c>
       <c r="G4">
-        <v>2.978</v>
+        <v>2.878</v>
       </c>
       <c r="H4">
-        <v>2.9653</v>
+        <v>2.8827</v>
       </c>
       <c r="I4">
-        <v>3.16</v>
+        <v>3.07</v>
       </c>
       <c r="J4">
-        <v>3.412</v>
+        <v>3.334</v>
       </c>
       <c r="K4">
-        <v>3.516</v>
+        <v>3.478</v>
       </c>
       <c r="L4">
-        <v>3.579</v>
+        <v>3.563</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2232,37 +2304,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.243</v>
+        <v>1.521</v>
       </c>
       <c r="C5">
-        <v>1.765</v>
+        <v>1.795</v>
       </c>
       <c r="D5">
-        <v>2.341</v>
+        <v>2.43</v>
       </c>
       <c r="E5">
-        <v>2.269</v>
+        <v>2.238</v>
       </c>
       <c r="F5">
-        <v>2.388</v>
+        <v>2.307</v>
       </c>
       <c r="G5">
-        <v>2.451</v>
+        <v>2.244</v>
       </c>
       <c r="H5">
-        <v>2.589</v>
+        <v>2.2991</v>
       </c>
       <c r="I5">
-        <v>2.841</v>
+        <v>2.438</v>
       </c>
       <c r="J5">
-        <v>3.165</v>
+        <v>2.72</v>
       </c>
       <c r="K5">
-        <v>3.19</v>
+        <v>2.722</v>
       </c>
       <c r="L5">
-        <v>3.073</v>
+        <v>2.609</v>
       </c>
     </row>
   </sheetData>
@@ -2321,37 +2393,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.722</v>
+        <v>3.767</v>
       </c>
       <c r="C2">
-        <v>3.773</v>
+        <v>3.821</v>
       </c>
       <c r="D2">
-        <v>3.668</v>
+        <v>3.681</v>
       </c>
       <c r="E2">
-        <v>3.099</v>
+        <v>3.152</v>
       </c>
       <c r="F2">
-        <v>2.949</v>
+        <v>2.967</v>
       </c>
       <c r="G2">
-        <v>2.684</v>
+        <v>2.647</v>
       </c>
       <c r="H2">
-        <v>2.656</v>
+        <v>2.579</v>
       </c>
       <c r="I2">
-        <v>2.834</v>
+        <v>2.6955</v>
       </c>
       <c r="J2">
-        <v>3.069</v>
+        <v>2.908</v>
       </c>
       <c r="K2">
-        <v>3.125</v>
+        <v>2.945</v>
       </c>
       <c r="L2">
-        <v>3.126</v>
+        <v>2.895</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2359,37 +2431,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.772</v>
+        <v>3.722</v>
       </c>
       <c r="C3">
-        <v>3.777</v>
+        <v>3.773</v>
       </c>
       <c r="D3">
-        <v>3.661</v>
+        <v>3.668</v>
       </c>
       <c r="E3">
-        <v>3.128</v>
+        <v>3.099</v>
       </c>
       <c r="F3">
-        <v>2.985</v>
+        <v>2.949</v>
       </c>
       <c r="G3">
-        <v>2.757</v>
+        <v>2.684</v>
       </c>
       <c r="H3">
-        <v>2.729</v>
+        <v>2.656</v>
       </c>
       <c r="I3">
-        <v>2.885</v>
+        <v>2.834</v>
       </c>
       <c r="J3">
-        <v>3.084</v>
+        <v>3.069</v>
       </c>
       <c r="K3">
-        <v>3.127</v>
+        <v>3.125</v>
       </c>
       <c r="L3">
-        <v>3.111</v>
+        <v>3.126</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2397,37 +2469,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.589</v>
+        <v>3.603</v>
       </c>
       <c r="C4">
-        <v>3.514</v>
+        <v>3.622</v>
       </c>
       <c r="D4">
-        <v>3.587</v>
+        <v>3.552</v>
       </c>
       <c r="E4">
-        <v>3.037</v>
+        <v>2.989</v>
       </c>
       <c r="F4">
-        <v>2.912</v>
+        <v>2.831</v>
       </c>
       <c r="G4">
-        <v>2.627</v>
+        <v>2.526</v>
       </c>
       <c r="H4">
-        <v>2.54</v>
+        <v>2.454</v>
       </c>
       <c r="I4">
-        <v>2.62</v>
+        <v>2.544</v>
       </c>
       <c r="J4">
-        <v>2.754</v>
+        <v>2.697</v>
       </c>
       <c r="K4">
-        <v>2.764</v>
+        <v>2.718</v>
       </c>
       <c r="L4">
-        <v>2.7</v>
+        <v>2.678</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2435,37 +2507,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.087</v>
+        <v>1.406</v>
       </c>
       <c r="C5">
-        <v>1.638</v>
+        <v>1.88</v>
       </c>
       <c r="D5">
-        <v>2.236</v>
+        <v>2.312</v>
       </c>
       <c r="E5">
-        <v>2.137</v>
+        <v>2.192</v>
       </c>
       <c r="F5">
-        <v>2.064</v>
+        <v>2.076</v>
       </c>
       <c r="G5">
-        <v>2.17</v>
+        <v>2.01</v>
       </c>
       <c r="H5">
-        <v>2.167</v>
+        <v>1.965</v>
       </c>
       <c r="I5">
-        <v>2.289</v>
+        <v>1.969</v>
       </c>
       <c r="J5">
-        <v>2.436</v>
+        <v>2.057</v>
       </c>
       <c r="K5">
-        <v>2.388</v>
+        <v>2.001</v>
       </c>
       <c r="L5">
-        <v>2.228</v>
+        <v>1.795</v>
       </c>
     </row>
   </sheetData>
@@ -2524,22 +2596,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>5.207</v>
+        <v>5.24</v>
       </c>
       <c r="E2">
-        <v>5.18</v>
+        <v>5.364</v>
       </c>
       <c r="F2">
-        <v>5.195</v>
+        <v>5.326</v>
       </c>
       <c r="G2">
-        <v>5.455</v>
+        <v>5.498</v>
       </c>
       <c r="H2">
-        <v>5.535</v>
+        <v>5.424</v>
       </c>
       <c r="I2">
-        <v>5.821</v>
+        <v>5.693</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2547,22 +2619,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>5.22</v>
+        <v>5.269</v>
       </c>
       <c r="E3">
-        <v>5.247</v>
+        <v>5.219</v>
       </c>
       <c r="F3">
-        <v>5.251</v>
+        <v>5.17</v>
       </c>
       <c r="G3">
-        <v>5.465</v>
+        <v>5.39</v>
       </c>
       <c r="H3">
-        <v>5.661</v>
+        <v>5.473</v>
       </c>
       <c r="I3">
-        <v>6.003</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2570,22 +2642,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5.608</v>
+        <v>5.305</v>
       </c>
       <c r="E4">
-        <v>5.35</v>
+        <v>5.358</v>
       </c>
       <c r="F4">
-        <v>5.242</v>
+        <v>5.311</v>
       </c>
       <c r="G4">
-        <v>5.283</v>
+        <v>5.386</v>
       </c>
       <c r="H4">
-        <v>5.29</v>
+        <v>5.472</v>
       </c>
       <c r="I4">
-        <v>5.531</v>
+        <v>5.617</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2593,22 +2665,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>7.554</v>
+        <v>6.985</v>
       </c>
       <c r="E5">
-        <v>8.259</v>
+        <v>7.159</v>
       </c>
       <c r="F5">
-        <v>8.492000000000001</v>
+        <v>7.257</v>
       </c>
       <c r="G5">
-        <v>8.436</v>
+        <v>7.235</v>
       </c>
       <c r="H5">
-        <v>8.250999999999999</v>
+        <v>6.904</v>
       </c>
       <c r="I5">
-        <v>8.218999999999999</v>
+        <v>6.904</v>
       </c>
     </row>
   </sheetData>
@@ -2667,19 +2739,19 @@
         <v>12</v>
       </c>
       <c r="D2">
+        <v>10.844</v>
+      </c>
+      <c r="E2">
+        <v>10.62</v>
+      </c>
+      <c r="F2">
+        <v>10.725</v>
+      </c>
+      <c r="G2">
         <v>11.09</v>
       </c>
-      <c r="E2">
-        <v>10.84</v>
-      </c>
-      <c r="F2">
-        <v>10.981</v>
-      </c>
-      <c r="G2">
-        <v>11.392</v>
-      </c>
       <c r="I2">
-        <v>11.721</v>
+        <v>11.321</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2687,19 +2759,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>11.069</v>
+        <v>11.09</v>
       </c>
       <c r="E3">
-        <v>10.9</v>
+        <v>10.845</v>
       </c>
       <c r="F3">
-        <v>11.205</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>11.645</v>
+        <v>11.425</v>
       </c>
       <c r="I3">
-        <v>12.06</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2707,19 +2779,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>11.22</v>
+        <v>11.32</v>
       </c>
       <c r="E4">
-        <v>10.05</v>
+        <v>10.375</v>
       </c>
       <c r="F4">
-        <v>10.13</v>
+        <v>10.485</v>
       </c>
       <c r="G4">
-        <v>10.61</v>
+        <v>10.88</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2727,19 +2799,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>13.305</v>
+        <v>14.43</v>
       </c>
       <c r="E5">
-        <v>12.255</v>
+        <v>14.305</v>
       </c>
       <c r="F5">
-        <v>11.89</v>
+        <v>13.99</v>
       </c>
       <c r="G5">
-        <v>11.615</v>
+        <v>13.73</v>
       </c>
       <c r="I5">
-        <v>11.86</v>
+        <v>13.66</v>
       </c>
     </row>
   </sheetData>
@@ -2798,25 +2870,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>3.088</v>
+        <v>3.178</v>
       </c>
       <c r="F2">
-        <v>3.026</v>
+        <v>2.991</v>
       </c>
       <c r="G2">
-        <v>3.131</v>
+        <v>3.039</v>
       </c>
       <c r="H2">
-        <v>3.18</v>
+        <v>3.176</v>
       </c>
       <c r="I2">
-        <v>3.547</v>
+        <v>3.386</v>
       </c>
       <c r="J2">
-        <v>4.005</v>
+        <v>3.836</v>
       </c>
       <c r="L2">
-        <v>4.142</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2824,25 +2896,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>3.193</v>
+        <v>3.136</v>
       </c>
       <c r="F3">
-        <v>3.122</v>
+        <v>3.026</v>
       </c>
       <c r="G3">
-        <v>3.22</v>
+        <v>3.131</v>
       </c>
       <c r="H3">
-        <v>3.368</v>
+        <v>3.291</v>
       </c>
       <c r="I3">
-        <v>3.638</v>
+        <v>3.547</v>
       </c>
       <c r="J3">
-        <v>4.069</v>
+        <v>4.005</v>
       </c>
       <c r="L3">
-        <v>4.178</v>
+        <v>4.142</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2850,25 +2922,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>3.018</v>
+        <v>2.971</v>
       </c>
       <c r="F4">
-        <v>2.965</v>
+        <v>2.91</v>
       </c>
       <c r="G4">
-        <v>3.038</v>
+        <v>2.945</v>
       </c>
       <c r="H4">
-        <v>3.181</v>
+        <v>3.063</v>
       </c>
       <c r="I4">
-        <v>3.332</v>
+        <v>3.273</v>
       </c>
       <c r="J4">
-        <v>3.692</v>
+        <v>3.637</v>
       </c>
       <c r="L4">
-        <v>3.73</v>
+        <v>3.702</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2876,25 +2948,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>2.197</v>
+        <v>2.228</v>
       </c>
       <c r="F5">
-        <v>2.223</v>
+        <v>2.194</v>
       </c>
       <c r="G5">
-        <v>2.646</v>
+        <v>2.411</v>
       </c>
       <c r="H5">
-        <v>2.812</v>
+        <v>2.547</v>
       </c>
       <c r="I5">
-        <v>3.287</v>
+        <v>2.905</v>
       </c>
       <c r="J5">
-        <v>3.482</v>
+        <v>3.097</v>
       </c>
       <c r="L5">
-        <v>3.559</v>
+        <v>3.129</v>
       </c>
     </row>
   </sheetData>
@@ -2952,92 +3024,152 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>5.416</v>
+      </c>
+      <c r="C2">
+        <v>5.409</v>
+      </c>
+      <c r="D2">
+        <v>5.0145</v>
+      </c>
+      <c r="E2">
+        <v>4.684</v>
+      </c>
+      <c r="F2">
+        <v>4.45</v>
+      </c>
       <c r="G2">
-        <v>4.517</v>
+        <v>4.3455</v>
       </c>
       <c r="H2">
-        <v>4.4135</v>
+        <v>4.1885</v>
       </c>
       <c r="I2">
-        <v>4.592</v>
+        <v>4.3415</v>
       </c>
       <c r="J2">
-        <v>4.9255</v>
+        <v>4.6565</v>
       </c>
       <c r="K2">
-        <v>5.054</v>
+        <v>4.738</v>
       </c>
       <c r="L2">
-        <v>5.028</v>
+        <v>4.756</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>5.332</v>
+      </c>
+      <c r="C3">
+        <v>5.409</v>
+      </c>
+      <c r="D3">
+        <v>4.927</v>
+      </c>
+      <c r="E3">
+        <v>4.75</v>
+      </c>
+      <c r="F3">
+        <v>4.558</v>
+      </c>
       <c r="G3">
-        <v>4.563</v>
+        <v>4.477</v>
       </c>
       <c r="H3">
-        <v>4.427</v>
+        <v>4.375</v>
       </c>
       <c r="I3">
-        <v>4.577</v>
+        <v>4.548</v>
       </c>
       <c r="J3">
-        <v>4.887</v>
+        <v>4.871</v>
       </c>
       <c r="K3">
-        <v>4.992</v>
+        <v>4.993</v>
       </c>
       <c r="L3">
-        <v>5.034</v>
+        <v>5.028</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>5.513</v>
+      </c>
+      <c r="C4">
+        <v>5.653</v>
+      </c>
+      <c r="D4">
+        <v>5.186</v>
+      </c>
+      <c r="E4">
+        <v>5.172</v>
+      </c>
+      <c r="F4">
+        <v>4.846</v>
+      </c>
       <c r="G4">
-        <v>4.529</v>
+        <v>4.709</v>
       </c>
       <c r="H4">
-        <v>4.47</v>
+        <v>4.365</v>
       </c>
       <c r="I4">
-        <v>4.528</v>
+        <v>4.43</v>
       </c>
       <c r="J4">
-        <v>4.743</v>
+        <v>4.656</v>
       </c>
       <c r="K4">
-        <v>4.766</v>
+        <v>4.708</v>
       </c>
       <c r="L4">
-        <v>4.728</v>
+        <v>4.695</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>3.106</v>
+      </c>
+      <c r="C5">
+        <v>3.829</v>
+      </c>
+      <c r="D5">
+        <v>3.181</v>
+      </c>
+      <c r="E5">
+        <v>3.264</v>
+      </c>
+      <c r="F5">
+        <v>3.201</v>
+      </c>
       <c r="G5">
-        <v>3.402</v>
+        <v>3.278</v>
       </c>
       <c r="H5">
-        <v>3.56</v>
+        <v>3.272</v>
       </c>
       <c r="I5">
-        <v>3.551</v>
+        <v>3.117</v>
       </c>
       <c r="J5">
-        <v>3.946</v>
+        <v>3.46</v>
       </c>
       <c r="K5">
-        <v>3.943</v>
+        <v>3.427</v>
       </c>
       <c r="L5">
-        <v>3.771</v>
+        <v>3.333</v>
       </c>
     </row>
   </sheetData>
@@ -3096,37 +3228,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.201</v>
+        <v>-0.236</v>
       </c>
       <c r="C2">
-        <v>-0.171</v>
+        <v>-0.169</v>
       </c>
       <c r="D2">
-        <v>-0.032</v>
+        <v>-0.052</v>
       </c>
       <c r="E2">
-        <v>0.089</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="F2">
-        <v>0.173</v>
+        <v>0.171</v>
       </c>
       <c r="G2">
-        <v>0.38</v>
+        <v>0.398</v>
       </c>
       <c r="H2">
-        <v>0.628</v>
+        <v>0.608</v>
       </c>
       <c r="I2">
-        <v>0.874</v>
+        <v>0.853</v>
       </c>
       <c r="J2">
-        <v>1.344</v>
+        <v>1.268</v>
       </c>
       <c r="K2">
-        <v>1.653</v>
+        <v>1.561</v>
       </c>
       <c r="L2">
-        <v>1.84</v>
+        <v>1.767</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3134,37 +3266,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-0.306</v>
+        <v>-0.201</v>
       </c>
       <c r="C3">
-        <v>-0.164</v>
+        <v>-0.178</v>
       </c>
       <c r="D3">
-        <v>-0.051</v>
+        <v>-0.032</v>
       </c>
       <c r="E3">
-        <v>0.07000000000000001</v>
+        <v>0.091</v>
       </c>
       <c r="F3">
-        <v>0.145</v>
+        <v>0.175</v>
       </c>
       <c r="G3">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="H3">
-        <v>0.585</v>
+        <v>0.632</v>
       </c>
       <c r="I3">
-        <v>0.8</v>
+        <v>0.873</v>
       </c>
       <c r="J3">
-        <v>1.322</v>
+        <v>1.422</v>
       </c>
       <c r="K3">
-        <v>1.596</v>
+        <v>1.662</v>
       </c>
       <c r="L3">
-        <v>1.744</v>
+        <v>1.842</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3172,37 +3304,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.106</v>
+        <v>-0.324</v>
       </c>
       <c r="C4">
-        <v>-0.159</v>
+        <v>-0.118</v>
       </c>
       <c r="D4">
-        <v>-0.09</v>
+        <v>-0.083</v>
       </c>
       <c r="E4">
-        <v>0.016</v>
+        <v>0.022</v>
       </c>
       <c r="F4">
-        <v>0.042</v>
+        <v>0.068</v>
       </c>
       <c r="G4">
-        <v>0.186</v>
+        <v>0.211</v>
       </c>
       <c r="H4">
-        <v>0.384</v>
+        <v>0.387</v>
       </c>
       <c r="I4">
-        <v>0.589</v>
+        <v>0.632</v>
       </c>
       <c r="J4">
-        <v>1.006</v>
+        <v>1.062</v>
       </c>
       <c r="K4">
-        <v>1.267</v>
+        <v>1.346</v>
       </c>
       <c r="L4">
-        <v>1.549</v>
+        <v>1.639</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3210,37 +3342,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.102</v>
+        <v>-0.198</v>
       </c>
       <c r="C5">
-        <v>-0.123</v>
+        <v>-0.094</v>
       </c>
       <c r="D5">
-        <v>-0.095</v>
+        <v>-0.093</v>
       </c>
       <c r="E5">
-        <v>-0.04</v>
+        <v>-0.022</v>
       </c>
       <c r="F5">
-        <v>-0.031</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="G5">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H5">
-        <v>0.227</v>
+        <v>0.192</v>
       </c>
       <c r="I5">
         <v>0.25</v>
       </c>
       <c r="J5">
-        <v>0.841</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="K5">
-        <v>1.152</v>
+        <v>1.098</v>
       </c>
       <c r="L5">
-        <v>1.556</v>
+        <v>1.478</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -484,34 +484,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.04</v>
+        <v>5.124</v>
       </c>
       <c r="C2">
-        <v>5.07</v>
+        <v>5.103</v>
       </c>
       <c r="D2">
-        <v>5.02</v>
+        <v>4.934</v>
       </c>
       <c r="E2">
-        <v>4.58</v>
+        <v>4.52</v>
       </c>
       <c r="F2">
-        <v>4.42</v>
+        <v>4.347</v>
       </c>
       <c r="G2">
-        <v>3.952</v>
+        <v>3.859</v>
       </c>
       <c r="H2">
-        <v>3.885</v>
+        <v>3.788</v>
       </c>
       <c r="I2">
-        <v>3.84</v>
+        <v>3.714</v>
       </c>
       <c r="K2">
-        <v>3.778</v>
+        <v>3.678</v>
       </c>
       <c r="L2">
-        <v>3.619</v>
+        <v>3.518</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -519,34 +519,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.16</v>
+        <v>5.08</v>
       </c>
       <c r="C3">
-        <v>5.19</v>
+        <v>5.1</v>
       </c>
       <c r="D3">
-        <v>5.22</v>
+        <v>5.1</v>
       </c>
       <c r="E3">
-        <v>4.783</v>
+        <v>4.588</v>
       </c>
       <c r="F3">
-        <v>4.651</v>
+        <v>4.457</v>
       </c>
       <c r="G3">
-        <v>4.242</v>
+        <v>4.066</v>
       </c>
       <c r="H3">
-        <v>4.146</v>
+        <v>3.992</v>
       </c>
       <c r="I3">
-        <v>4.073</v>
+        <v>3.981</v>
       </c>
       <c r="K3">
-        <v>4.021</v>
+        <v>3.93</v>
       </c>
       <c r="L3">
-        <v>3.863</v>
+        <v>3.749</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -554,34 +554,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="C4">
-        <v>5.21</v>
+        <v>5.13</v>
       </c>
       <c r="D4">
-        <v>5.26</v>
+        <v>5.14</v>
       </c>
       <c r="E4">
-        <v>4.786</v>
+        <v>4.552</v>
       </c>
       <c r="F4">
-        <v>4.543</v>
+        <v>4.322</v>
       </c>
       <c r="G4">
-        <v>4.05</v>
+        <v>3.846</v>
       </c>
       <c r="H4">
-        <v>3.872</v>
+        <v>3.682</v>
       </c>
       <c r="I4">
-        <v>3.704</v>
+        <v>3.569</v>
       </c>
       <c r="K4">
-        <v>3.654</v>
+        <v>3.556</v>
       </c>
       <c r="L4">
-        <v>3.506</v>
+        <v>3.422</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -675,31 +675,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.468</v>
+        <v>5.398</v>
       </c>
       <c r="C2">
-        <v>5.508</v>
+        <v>5.421</v>
       </c>
       <c r="D2">
-        <v>5.428</v>
+        <v>5.255</v>
       </c>
       <c r="E2">
-        <v>5.03</v>
+        <v>4.894</v>
       </c>
       <c r="F2">
-        <v>4.803</v>
+        <v>4.625</v>
       </c>
       <c r="G2">
-        <v>4.65</v>
+        <v>4.446</v>
       </c>
       <c r="H2">
-        <v>4.678</v>
+        <v>4.473</v>
       </c>
       <c r="I2">
-        <v>4.633</v>
+        <v>4.439</v>
       </c>
       <c r="L2">
-        <v>4.738</v>
+        <v>4.594</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -854,22 +854,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>12.745</v>
+        <v>12.675</v>
       </c>
       <c r="E2">
-        <v>13.325</v>
+        <v>13.19</v>
       </c>
       <c r="F2">
-        <v>12.02</v>
+        <v>12.085</v>
       </c>
       <c r="G2">
-        <v>12.495</v>
+        <v>12.38</v>
       </c>
       <c r="I2">
-        <v>12.27</v>
+        <v>11.995</v>
       </c>
       <c r="J2">
-        <v>12.51</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -997,25 +997,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.458</v>
+        <v>4.352</v>
       </c>
       <c r="E2">
-        <v>4.346</v>
+        <v>4.166</v>
       </c>
       <c r="F2">
-        <v>4.294</v>
+        <v>4.104</v>
       </c>
       <c r="G2">
-        <v>4.357</v>
+        <v>4.167</v>
       </c>
       <c r="H2">
-        <v>4.521</v>
+        <v>4.328</v>
       </c>
       <c r="I2">
-        <v>4.662</v>
+        <v>4.474</v>
       </c>
       <c r="J2">
-        <v>4.897</v>
+        <v>4.713</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1152,31 +1152,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.726</v>
+        <v>3.594</v>
       </c>
       <c r="C2">
-        <v>3.818</v>
+        <v>3.733</v>
       </c>
       <c r="D2">
-        <v>3.828</v>
+        <v>3.757</v>
       </c>
       <c r="E2">
-        <v>3.743</v>
+        <v>3.599</v>
       </c>
       <c r="F2">
-        <v>3.703</v>
+        <v>3.512</v>
       </c>
       <c r="G2">
-        <v>3.897</v>
+        <v>3.711</v>
       </c>
       <c r="H2">
-        <v>4.176</v>
+        <v>3.995</v>
       </c>
       <c r="I2">
-        <v>4.53</v>
+        <v>4.362</v>
       </c>
       <c r="J2">
-        <v>4.799</v>
+        <v>4.648</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1331,37 +1331,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="C2">
+        <v>1.6</v>
+      </c>
+      <c r="D2">
         <v>1.71</v>
       </c>
-      <c r="D2">
-        <v>1.69</v>
-      </c>
       <c r="E2">
-        <v>1.306</v>
+        <v>1.335</v>
       </c>
       <c r="F2">
-        <v>1.161</v>
+        <v>1.168</v>
       </c>
       <c r="G2">
-        <v>1.075</v>
+        <v>1.039</v>
       </c>
       <c r="H2">
-        <v>1.017</v>
+        <v>0.966</v>
       </c>
       <c r="I2">
-        <v>1.075</v>
+        <v>1.005</v>
       </c>
       <c r="J2">
-        <v>1.128</v>
+        <v>1.13</v>
       </c>
       <c r="K2">
-        <v>1.113</v>
+        <v>1.023</v>
       </c>
       <c r="L2">
-        <v>1.083</v>
+        <v>1.015</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1534,31 +1534,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>2.359</v>
+        <v>2.315</v>
       </c>
       <c r="E2">
-        <v>2.358</v>
+        <v>2.322</v>
       </c>
       <c r="F2">
-        <v>2.415</v>
+        <v>2.387</v>
       </c>
       <c r="G2">
-        <v>2.496</v>
+        <v>2.498</v>
       </c>
       <c r="H2">
-        <v>2.656</v>
+        <v>2.647</v>
       </c>
       <c r="I2">
-        <v>2.673</v>
+        <v>2.671</v>
       </c>
       <c r="J2">
-        <v>2.797</v>
+        <v>2.791</v>
       </c>
       <c r="K2">
-        <v>3.047</v>
+        <v>3.036</v>
       </c>
       <c r="L2">
-        <v>2.965</v>
+        <v>2.956</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1716,16 +1716,16 @@
         <v>8.6</v>
       </c>
       <c r="G2">
-        <v>9.039999999999999</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="I2">
-        <v>10.35</v>
+        <v>10.075</v>
       </c>
       <c r="K2">
-        <v>12.465</v>
+        <v>12.205</v>
       </c>
       <c r="L2">
-        <v>12.425</v>
+        <v>12.155</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1844,25 +1844,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>29.792</v>
+        <v>25.304</v>
       </c>
       <c r="C2">
-        <v>31.921</v>
+        <v>30.948</v>
       </c>
       <c r="D2">
         <v>7.77</v>
       </c>
       <c r="E2">
-        <v>41.815</v>
+        <v>40.73</v>
       </c>
       <c r="F2">
-        <v>33.24</v>
+        <v>34.695</v>
       </c>
       <c r="G2">
-        <v>26.225</v>
+        <v>32.355</v>
       </c>
       <c r="I2">
-        <v>29.08</v>
+        <v>28.305</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1999,34 +1999,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.92</v>
+        <v>6.93</v>
       </c>
       <c r="C2">
-        <v>7.12</v>
+        <v>7.08</v>
       </c>
       <c r="D2">
-        <v>7.122</v>
+        <v>7.135</v>
       </c>
       <c r="E2">
-        <v>7.25</v>
+        <v>7.193</v>
       </c>
       <c r="F2">
-        <v>7.249</v>
+        <v>7.198</v>
       </c>
       <c r="G2">
-        <v>7.306</v>
+        <v>7.245</v>
       </c>
       <c r="H2">
-        <v>7.327</v>
+        <v>7.253</v>
       </c>
       <c r="I2">
-        <v>7.283</v>
+        <v>7.212</v>
       </c>
       <c r="J2">
-        <v>7.429</v>
+        <v>7.355</v>
       </c>
       <c r="L2">
-        <v>7.482</v>
+        <v>7.417</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2190,37 +2190,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.841</v>
+        <v>3.83</v>
       </c>
       <c r="C2">
-        <v>3.857</v>
+        <v>3.846</v>
       </c>
       <c r="D2">
-        <v>3.687</v>
+        <v>3.64</v>
       </c>
       <c r="E2">
-        <v>3.289</v>
+        <v>3.185</v>
       </c>
       <c r="F2">
-        <v>3.089</v>
+        <v>2.98</v>
       </c>
       <c r="G2">
-        <v>3.007</v>
+        <v>2.868</v>
       </c>
       <c r="H2">
-        <v>3.027</v>
+        <v>2.902</v>
       </c>
       <c r="I2">
-        <v>3.272</v>
+        <v>3.151</v>
       </c>
       <c r="J2">
-        <v>3.522</v>
+        <v>3.402</v>
       </c>
       <c r="K2">
-        <v>3.673</v>
+        <v>3.57</v>
       </c>
       <c r="L2">
-        <v>3.76</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2393,37 +2393,37 @@
         <v>12</v>
       </c>
       <c r="B2">
+        <v>3.73</v>
+      </c>
+      <c r="C2">
         <v>3.767</v>
       </c>
-      <c r="C2">
-        <v>3.821</v>
-      </c>
       <c r="D2">
-        <v>3.681</v>
+        <v>3.604</v>
       </c>
       <c r="E2">
-        <v>3.152</v>
+        <v>2.958</v>
       </c>
       <c r="F2">
-        <v>2.967</v>
+        <v>2.862</v>
       </c>
       <c r="G2">
-        <v>2.647</v>
+        <v>2.53</v>
       </c>
       <c r="H2">
-        <v>2.579</v>
+        <v>2.52</v>
       </c>
       <c r="I2">
-        <v>2.6955</v>
+        <v>2.5835</v>
       </c>
       <c r="J2">
-        <v>2.908</v>
+        <v>2.795</v>
       </c>
       <c r="K2">
-        <v>2.945</v>
+        <v>2.839</v>
       </c>
       <c r="L2">
-        <v>2.895</v>
+        <v>2.789</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2596,22 +2596,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>5.24</v>
+        <v>5.182</v>
       </c>
       <c r="E2">
-        <v>5.364</v>
+        <v>5.272</v>
       </c>
       <c r="F2">
-        <v>5.326</v>
+        <v>5.188</v>
       </c>
       <c r="G2">
-        <v>5.498</v>
+        <v>5.286</v>
       </c>
       <c r="H2">
-        <v>5.424</v>
+        <v>5.228</v>
       </c>
       <c r="I2">
-        <v>5.693</v>
+        <v>5.468</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2739,19 +2739,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>10.844</v>
+        <v>10.575</v>
       </c>
       <c r="E2">
-        <v>10.62</v>
+        <v>10.248</v>
       </c>
       <c r="F2">
-        <v>10.725</v>
+        <v>10.302</v>
       </c>
       <c r="G2">
-        <v>11.09</v>
+        <v>10.681</v>
       </c>
       <c r="I2">
-        <v>11.321</v>
+        <v>11.002</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2870,25 +2870,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>3.178</v>
+        <v>3.022</v>
       </c>
       <c r="F2">
-        <v>2.991</v>
+        <v>2.878</v>
       </c>
       <c r="G2">
-        <v>3.039</v>
+        <v>2.907</v>
       </c>
       <c r="H2">
-        <v>3.176</v>
+        <v>3.011</v>
       </c>
       <c r="I2">
-        <v>3.386</v>
+        <v>3.246</v>
       </c>
       <c r="J2">
-        <v>3.836</v>
+        <v>3.717</v>
       </c>
       <c r="L2">
-        <v>3.97</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3025,37 +3025,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.416</v>
+        <v>5.345</v>
       </c>
       <c r="C2">
-        <v>5.409</v>
+        <v>5.368</v>
       </c>
       <c r="D2">
-        <v>5.0145</v>
+        <v>4.9755</v>
       </c>
       <c r="E2">
-        <v>4.684</v>
+        <v>4.566</v>
       </c>
       <c r="F2">
-        <v>4.45</v>
+        <v>4.258</v>
       </c>
       <c r="G2">
-        <v>4.3455</v>
+        <v>4.147</v>
       </c>
       <c r="H2">
-        <v>4.1885</v>
+        <v>3.989</v>
       </c>
       <c r="I2">
-        <v>4.3415</v>
+        <v>4.132</v>
       </c>
       <c r="J2">
-        <v>4.6565</v>
+        <v>4.462</v>
       </c>
       <c r="K2">
-        <v>4.738</v>
+        <v>4.558</v>
       </c>
       <c r="L2">
-        <v>4.756</v>
+        <v>4.538</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3228,37 +3228,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.236</v>
+        <v>-0.247</v>
       </c>
       <c r="C2">
-        <v>-0.169</v>
+        <v>-0.162</v>
       </c>
       <c r="D2">
-        <v>-0.052</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="E2">
-        <v>0.08599999999999999</v>
+        <v>0.037</v>
       </c>
       <c r="F2">
-        <v>0.171</v>
+        <v>0.105</v>
       </c>
       <c r="G2">
-        <v>0.398</v>
+        <v>0.307</v>
       </c>
       <c r="H2">
-        <v>0.608</v>
+        <v>0.486</v>
       </c>
       <c r="I2">
-        <v>0.853</v>
+        <v>0.734</v>
       </c>
       <c r="J2">
-        <v>1.268</v>
+        <v>1.167</v>
       </c>
       <c r="K2">
-        <v>1.561</v>
+        <v>1.469</v>
       </c>
       <c r="L2">
-        <v>1.767</v>
+        <v>1.685</v>
       </c>
     </row>
     <row r="3" spans="1:12">

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -484,34 +484,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.124</v>
+        <v>5.04</v>
       </c>
       <c r="C2">
-        <v>5.103</v>
+        <v>5.05</v>
       </c>
       <c r="D2">
-        <v>4.934</v>
+        <v>4.96</v>
       </c>
       <c r="E2">
-        <v>4.52</v>
+        <v>4.464</v>
       </c>
       <c r="F2">
-        <v>4.347</v>
+        <v>4.29</v>
       </c>
       <c r="G2">
-        <v>3.859</v>
+        <v>3.834</v>
       </c>
       <c r="H2">
-        <v>3.788</v>
+        <v>3.748</v>
       </c>
       <c r="I2">
-        <v>3.714</v>
+        <v>3.717</v>
       </c>
       <c r="K2">
-        <v>3.678</v>
+        <v>3.631</v>
       </c>
       <c r="L2">
-        <v>3.518</v>
+        <v>3.496</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -519,34 +519,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.08</v>
+        <v>5.04</v>
       </c>
       <c r="C3">
-        <v>5.1</v>
+        <v>5.07</v>
       </c>
       <c r="D3">
-        <v>5.1</v>
+        <v>4.99</v>
       </c>
       <c r="E3">
-        <v>4.588</v>
+        <v>4.386</v>
       </c>
       <c r="F3">
-        <v>4.457</v>
+        <v>4.238</v>
       </c>
       <c r="G3">
-        <v>4.066</v>
+        <v>3.79</v>
       </c>
       <c r="H3">
-        <v>3.992</v>
+        <v>3.727</v>
       </c>
       <c r="I3">
-        <v>3.981</v>
+        <v>3.745</v>
       </c>
       <c r="K3">
-        <v>3.93</v>
+        <v>3.719</v>
       </c>
       <c r="L3">
-        <v>3.749</v>
+        <v>3.575</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -554,34 +554,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="C4">
-        <v>5.13</v>
+        <v>5.14</v>
       </c>
       <c r="D4">
-        <v>5.14</v>
+        <v>5.18</v>
       </c>
       <c r="E4">
-        <v>4.552</v>
+        <v>4.677</v>
       </c>
       <c r="F4">
-        <v>4.322</v>
+        <v>4.419</v>
       </c>
       <c r="G4">
-        <v>3.846</v>
+        <v>3.971</v>
       </c>
       <c r="H4">
-        <v>3.682</v>
+        <v>3.807</v>
       </c>
       <c r="I4">
-        <v>3.569</v>
+        <v>3.678</v>
       </c>
       <c r="K4">
-        <v>3.556</v>
+        <v>3.634</v>
       </c>
       <c r="L4">
-        <v>3.422</v>
+        <v>3.483</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -592,31 +592,31 @@
         <v>4.09</v>
       </c>
       <c r="C5">
-        <v>4.28</v>
+        <v>4.25</v>
       </c>
       <c r="D5">
-        <v>4.42</v>
+        <v>4.34</v>
       </c>
       <c r="E5">
-        <v>3.898</v>
+        <v>3.76</v>
       </c>
       <c r="F5">
-        <v>3.658</v>
+        <v>3.48</v>
       </c>
       <c r="G5">
-        <v>3.174</v>
+        <v>3.006</v>
       </c>
       <c r="H5">
-        <v>2.951</v>
+        <v>2.778</v>
       </c>
       <c r="I5">
-        <v>2.938</v>
+        <v>2.779</v>
       </c>
       <c r="K5">
-        <v>3.067</v>
+        <v>2.894</v>
       </c>
       <c r="L5">
-        <v>2.964</v>
+        <v>2.795</v>
       </c>
     </row>
   </sheetData>
@@ -675,31 +675,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.398</v>
+        <v>5.415</v>
       </c>
       <c r="C2">
-        <v>5.421</v>
+        <v>5.477</v>
       </c>
       <c r="D2">
-        <v>5.255</v>
+        <v>5.284</v>
       </c>
       <c r="E2">
-        <v>4.894</v>
+        <v>4.955</v>
       </c>
       <c r="F2">
-        <v>4.625</v>
+        <v>4.67</v>
       </c>
       <c r="G2">
-        <v>4.446</v>
+        <v>4.492</v>
       </c>
       <c r="H2">
-        <v>4.473</v>
+        <v>4.514</v>
       </c>
       <c r="I2">
-        <v>4.439</v>
+        <v>4.472</v>
       </c>
       <c r="L2">
-        <v>4.594</v>
+        <v>4.603</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -707,31 +707,31 @@
         <v>13</v>
       </c>
       <c r="B3">
+        <v>5.43</v>
+      </c>
+      <c r="C3">
         <v>5.477</v>
       </c>
-      <c r="C3">
-        <v>5.549</v>
-      </c>
       <c r="D3">
-        <v>5.416</v>
+        <v>5.291</v>
       </c>
       <c r="E3">
-        <v>5.015</v>
+        <v>4.845</v>
       </c>
       <c r="F3">
-        <v>4.848</v>
+        <v>4.644</v>
       </c>
       <c r="G3">
-        <v>4.774</v>
+        <v>4.507</v>
       </c>
       <c r="H3">
-        <v>4.851</v>
+        <v>4.564</v>
       </c>
       <c r="I3">
-        <v>4.845</v>
+        <v>4.576</v>
       </c>
       <c r="L3">
-        <v>5.018</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -739,31 +739,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.444</v>
+        <v>5.471</v>
       </c>
       <c r="C4">
-        <v>5.495</v>
+        <v>5.531</v>
       </c>
       <c r="D4">
-        <v>5.379</v>
+        <v>5.411</v>
       </c>
       <c r="E4">
-        <v>4.876</v>
+        <v>4.989</v>
       </c>
       <c r="F4">
-        <v>4.581</v>
+        <v>4.697</v>
       </c>
       <c r="G4">
-        <v>4.296</v>
+        <v>4.399</v>
       </c>
       <c r="H4">
-        <v>4.266</v>
+        <v>4.354</v>
       </c>
       <c r="I4">
-        <v>4.181</v>
+        <v>4.26</v>
       </c>
       <c r="L4">
-        <v>4.297</v>
+        <v>4.334</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -771,31 +771,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4.305</v>
+        <v>4.32</v>
       </c>
       <c r="C5">
-        <v>4.703</v>
+        <v>4.682</v>
       </c>
       <c r="D5">
-        <v>4.759</v>
+        <v>4.684</v>
       </c>
       <c r="E5">
-        <v>4.467</v>
+        <v>4.284</v>
       </c>
       <c r="F5">
-        <v>4.216</v>
+        <v>3.997</v>
       </c>
       <c r="G5">
-        <v>3.87</v>
+        <v>3.659</v>
       </c>
       <c r="H5">
-        <v>3.79</v>
+        <v>3.592</v>
       </c>
       <c r="I5">
-        <v>3.691</v>
+        <v>3.492</v>
       </c>
       <c r="L5">
-        <v>3.751</v>
+        <v>3.548</v>
       </c>
     </row>
   </sheetData>
@@ -854,22 +854,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>12.675</v>
+        <v>12.52</v>
       </c>
       <c r="E2">
-        <v>13.19</v>
+        <v>12.94</v>
       </c>
       <c r="F2">
-        <v>12.085</v>
+        <v>12.09</v>
       </c>
       <c r="G2">
-        <v>12.38</v>
+        <v>12.28</v>
       </c>
       <c r="I2">
-        <v>11.995</v>
+        <v>12.03</v>
       </c>
       <c r="J2">
-        <v>12.26</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -877,22 +877,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>13.63</v>
+        <v>12.9</v>
       </c>
       <c r="E3">
-        <v>14.38</v>
+        <v>13.41</v>
       </c>
       <c r="F3">
-        <v>12.82</v>
+        <v>12.29</v>
       </c>
       <c r="G3">
-        <v>13.25</v>
+        <v>12.73</v>
       </c>
       <c r="I3">
-        <v>12.52</v>
+        <v>12.15</v>
       </c>
       <c r="J3">
-        <v>12.72</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -900,22 +900,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>13.64</v>
+        <v>15.36</v>
       </c>
       <c r="E4">
-        <v>11.28</v>
+        <v>12.55</v>
       </c>
       <c r="F4">
-        <v>12.44</v>
+        <v>13.81</v>
       </c>
       <c r="G4">
-        <v>11.33</v>
+        <v>12.33</v>
       </c>
       <c r="I4">
-        <v>12.08</v>
+        <v>12.6</v>
       </c>
       <c r="J4">
-        <v>11.46</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -923,22 +923,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>10.43</v>
+        <v>10.66</v>
       </c>
       <c r="E5">
-        <v>8.42</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="F5">
         <v>9.09</v>
       </c>
       <c r="G5">
-        <v>9.18</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="I5">
-        <v>10.06</v>
+        <v>10.13</v>
       </c>
       <c r="J5">
-        <v>10.49</v>
+        <v>10.56</v>
       </c>
     </row>
   </sheetData>
@@ -997,25 +997,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.352</v>
+        <v>4.418</v>
       </c>
       <c r="E2">
-        <v>4.166</v>
+        <v>4.271</v>
       </c>
       <c r="F2">
-        <v>4.104</v>
+        <v>4.21</v>
       </c>
       <c r="G2">
-        <v>4.167</v>
+        <v>4.267</v>
       </c>
       <c r="H2">
-        <v>4.328</v>
+        <v>4.427</v>
       </c>
       <c r="I2">
-        <v>4.474</v>
+        <v>4.568</v>
       </c>
       <c r="J2">
-        <v>4.713</v>
+        <v>4.783</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.489</v>
+        <v>4.514</v>
       </c>
       <c r="E3">
-        <v>4.373</v>
+        <v>4.366</v>
       </c>
       <c r="F3">
-        <v>4.309</v>
+        <v>4.298</v>
       </c>
       <c r="G3">
-        <v>4.442</v>
+        <v>4.4</v>
       </c>
       <c r="H3">
-        <v>4.655</v>
+        <v>4.587</v>
       </c>
       <c r="I3">
-        <v>4.814</v>
+        <v>4.738</v>
       </c>
       <c r="J3">
-        <v>5.075</v>
+        <v>4.984</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1049,25 +1049,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>3.971</v>
+        <v>4.038</v>
       </c>
       <c r="E4">
-        <v>3.782</v>
+        <v>3.824</v>
       </c>
       <c r="F4">
-        <v>3.726</v>
+        <v>3.795</v>
       </c>
       <c r="G4">
-        <v>3.767</v>
+        <v>3.836</v>
       </c>
       <c r="H4">
-        <v>3.897</v>
+        <v>3.986</v>
       </c>
       <c r="I4">
-        <v>3.999</v>
+        <v>4.096</v>
       </c>
       <c r="J4">
-        <v>4.261</v>
+        <v>4.354</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1075,25 +1075,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>3.207</v>
+        <v>3.021</v>
       </c>
       <c r="E5">
-        <v>3.209</v>
+        <v>3.005</v>
       </c>
       <c r="F5">
-        <v>3.275</v>
+        <v>3.023</v>
       </c>
       <c r="G5">
-        <v>3.379</v>
+        <v>3.136</v>
       </c>
       <c r="H5">
-        <v>3.485</v>
+        <v>3.262</v>
       </c>
       <c r="I5">
-        <v>3.59</v>
+        <v>3.395</v>
       </c>
       <c r="J5">
-        <v>3.852</v>
+        <v>3.662</v>
       </c>
     </row>
   </sheetData>
@@ -1152,31 +1152,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.594</v>
+        <v>3.742</v>
       </c>
       <c r="C2">
-        <v>3.733</v>
+        <v>3.758</v>
       </c>
       <c r="D2">
-        <v>3.757</v>
+        <v>3.77</v>
       </c>
       <c r="E2">
-        <v>3.599</v>
+        <v>3.674</v>
       </c>
       <c r="F2">
-        <v>3.512</v>
+        <v>3.585</v>
       </c>
       <c r="G2">
-        <v>3.711</v>
+        <v>3.77</v>
       </c>
       <c r="H2">
-        <v>3.995</v>
+        <v>4.051</v>
       </c>
       <c r="I2">
-        <v>4.362</v>
+        <v>4.402</v>
       </c>
       <c r="J2">
-        <v>4.648</v>
+        <v>4.643</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1184,31 +1184,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.936</v>
+        <v>3.892</v>
       </c>
       <c r="C3">
-        <v>3.982</v>
+        <v>3.802</v>
       </c>
       <c r="D3">
-        <v>3.975</v>
+        <v>3.834</v>
       </c>
       <c r="E3">
-        <v>3.925</v>
+        <v>3.704</v>
       </c>
       <c r="F3">
-        <v>3.899</v>
+        <v>3.638</v>
       </c>
       <c r="G3">
-        <v>4.147</v>
+        <v>3.839</v>
       </c>
       <c r="H3">
-        <v>4.462</v>
+        <v>4.122</v>
       </c>
       <c r="I3">
-        <v>4.808</v>
+        <v>4.445</v>
       </c>
       <c r="J3">
-        <v>5.12</v>
+        <v>4.786</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1216,31 +1216,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.347</v>
+        <v>3.378</v>
       </c>
       <c r="C4">
-        <v>3.713</v>
+        <v>3.756</v>
       </c>
       <c r="D4">
-        <v>3.813</v>
+        <v>3.878</v>
       </c>
       <c r="E4">
-        <v>3.694</v>
+        <v>3.771</v>
       </c>
       <c r="F4">
-        <v>3.592</v>
+        <v>3.685</v>
       </c>
       <c r="G4">
-        <v>3.754</v>
+        <v>3.851</v>
       </c>
       <c r="H4">
-        <v>3.96</v>
+        <v>4.071</v>
       </c>
       <c r="I4">
-        <v>4.234</v>
+        <v>4.339</v>
       </c>
       <c r="J4">
-        <v>4.461</v>
+        <v>4.571</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1248,31 +1248,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.6</v>
+        <v>1.303</v>
       </c>
       <c r="C5">
-        <v>2.14</v>
+        <v>2.212</v>
       </c>
       <c r="D5">
-        <v>2.608</v>
+        <v>2.526</v>
       </c>
       <c r="E5">
-        <v>2.712</v>
+        <v>2.621</v>
       </c>
       <c r="F5">
-        <v>3.002</v>
+        <v>2.864</v>
       </c>
       <c r="G5">
-        <v>3.379</v>
+        <v>3.228</v>
       </c>
       <c r="H5">
-        <v>3.474</v>
+        <v>3.372</v>
       </c>
       <c r="I5">
-        <v>3.859</v>
+        <v>3.769</v>
       </c>
       <c r="J5">
-        <v>3.848</v>
+        <v>3.779</v>
       </c>
     </row>
   </sheetData>
@@ -1334,34 +1334,34 @@
         <v>1.6</v>
       </c>
       <c r="C2">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="D2">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="E2">
-        <v>1.335</v>
+        <v>1.471</v>
       </c>
       <c r="F2">
-        <v>1.168</v>
+        <v>1.188</v>
       </c>
       <c r="G2">
-        <v>1.039</v>
+        <v>1.063</v>
       </c>
       <c r="H2">
-        <v>0.966</v>
+        <v>0.985</v>
       </c>
       <c r="I2">
-        <v>1.005</v>
+        <v>0.994</v>
       </c>
       <c r="J2">
-        <v>1.13</v>
+        <v>1.143</v>
       </c>
       <c r="K2">
-        <v>1.023</v>
+        <v>1.015</v>
       </c>
       <c r="L2">
-        <v>1.015</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1369,37 +1369,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="C3">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="D3">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="E3">
-        <v>1.229</v>
+        <v>1.338</v>
       </c>
       <c r="F3">
-        <v>1.123</v>
+        <v>1.173</v>
       </c>
       <c r="G3">
-        <v>1.016</v>
+        <v>1.041</v>
       </c>
       <c r="H3">
-        <v>1.026</v>
+        <v>1.059</v>
       </c>
       <c r="I3">
-        <v>1.137</v>
+        <v>1.124</v>
       </c>
       <c r="J3">
-        <v>1.153</v>
+        <v>1.22</v>
       </c>
       <c r="K3">
-        <v>1.171</v>
+        <v>1.232</v>
       </c>
       <c r="L3">
-        <v>1.13</v>
+        <v>1.216</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1407,37 +1407,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="C4">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="D4">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="E4">
-        <v>1.101</v>
+        <v>1.167</v>
       </c>
       <c r="F4">
-        <v>1.119</v>
+        <v>1.114</v>
       </c>
       <c r="G4">
-        <v>0.978</v>
+        <v>1.037</v>
       </c>
       <c r="H4">
-        <v>1.12</v>
+        <v>1.022</v>
       </c>
       <c r="I4">
-        <v>0.961</v>
+        <v>1.036</v>
       </c>
       <c r="J4">
-        <v>1.001</v>
+        <v>1.067</v>
       </c>
       <c r="K4">
-        <v>0.962</v>
+        <v>1.053</v>
       </c>
       <c r="L4">
-        <v>0.9429999999999999</v>
+        <v>1.031</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1445,37 +1445,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="D5">
         <v>1.1</v>
       </c>
       <c r="E5">
-        <v>1.249</v>
+        <v>0.915</v>
       </c>
       <c r="F5">
-        <v>0.9399999999999999</v>
+        <v>0.897</v>
       </c>
       <c r="G5">
-        <v>0.955</v>
+        <v>0.92</v>
       </c>
       <c r="H5">
-        <v>1.001</v>
+        <v>0.961</v>
       </c>
       <c r="I5">
+        <v>1.046</v>
+      </c>
+      <c r="J5">
+        <v>1.059</v>
+      </c>
+      <c r="K5">
         <v>1.073</v>
       </c>
-      <c r="J5">
-        <v>1.096</v>
-      </c>
-      <c r="K5">
-        <v>1.155</v>
-      </c>
       <c r="L5">
-        <v>1.122</v>
+        <v>1.039</v>
       </c>
     </row>
   </sheetData>
@@ -1534,31 +1534,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>2.315</v>
+        <v>2.407</v>
       </c>
       <c r="E2">
-        <v>2.322</v>
+        <v>2.448</v>
       </c>
       <c r="F2">
-        <v>2.387</v>
+        <v>2.501</v>
       </c>
       <c r="G2">
-        <v>2.498</v>
+        <v>2.598</v>
       </c>
       <c r="H2">
-        <v>2.647</v>
+        <v>2.714</v>
       </c>
       <c r="I2">
-        <v>2.671</v>
+        <v>2.726</v>
       </c>
       <c r="J2">
-        <v>2.791</v>
+        <v>2.804</v>
       </c>
       <c r="K2">
-        <v>3.036</v>
+        <v>3.06</v>
       </c>
       <c r="L2">
-        <v>2.956</v>
+        <v>2.982</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1566,31 +1566,31 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>2.28</v>
+        <v>2.332</v>
       </c>
       <c r="E3">
-        <v>2.321</v>
+        <v>2.363</v>
       </c>
       <c r="F3">
-        <v>2.419</v>
+        <v>2.415</v>
       </c>
       <c r="G3">
-        <v>2.578</v>
+        <v>2.523</v>
       </c>
       <c r="H3">
-        <v>2.722</v>
+        <v>2.67</v>
       </c>
       <c r="I3">
-        <v>2.73</v>
+        <v>2.67</v>
       </c>
       <c r="J3">
-        <v>2.857</v>
+        <v>2.821</v>
       </c>
       <c r="K3">
-        <v>3.101</v>
+        <v>3.084</v>
       </c>
       <c r="L3">
-        <v>3.025</v>
+        <v>2.987</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1598,31 +1598,31 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>1.945</v>
+        <v>2.105</v>
       </c>
       <c r="E4">
-        <v>2.151</v>
+        <v>2.246</v>
       </c>
       <c r="F4">
-        <v>2.253</v>
+        <v>2.349</v>
       </c>
       <c r="G4">
-        <v>2.44</v>
+        <v>2.503</v>
       </c>
       <c r="H4">
-        <v>2.601</v>
+        <v>2.66</v>
       </c>
       <c r="I4">
-        <v>2.61</v>
+        <v>2.673</v>
       </c>
       <c r="J4">
-        <v>2.746</v>
+        <v>2.822</v>
       </c>
       <c r="K4">
-        <v>2.953</v>
+        <v>3.025</v>
       </c>
       <c r="L4">
-        <v>2.943</v>
+        <v>2.992</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1630,31 +1630,31 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="E5">
-        <v>2.297</v>
+        <v>2.331</v>
       </c>
       <c r="F5">
-        <v>2.4</v>
+        <v>2.448</v>
       </c>
       <c r="G5">
-        <v>2.607</v>
+        <v>2.678</v>
       </c>
       <c r="H5">
-        <v>2.832</v>
+        <v>2.87</v>
       </c>
       <c r="I5">
-        <v>2.841</v>
+        <v>2.903</v>
       </c>
       <c r="J5">
-        <v>2.909</v>
+        <v>2.962</v>
       </c>
       <c r="K5">
-        <v>3.331</v>
+        <v>3.37</v>
       </c>
       <c r="L5">
-        <v>3.23</v>
+        <v>3.296</v>
       </c>
     </row>
   </sheetData>
@@ -1713,19 +1713,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8.6</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="G2">
-        <v>8.859999999999999</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="I2">
-        <v>10.075</v>
+        <v>10.195</v>
       </c>
       <c r="K2">
-        <v>12.205</v>
+        <v>12.33</v>
       </c>
       <c r="L2">
-        <v>12.155</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1733,19 +1733,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="G3">
-        <v>9.335000000000001</v>
+        <v>8.99</v>
       </c>
       <c r="I3">
-        <v>10.66</v>
+        <v>10.295</v>
       </c>
       <c r="K3">
-        <v>12.775</v>
+        <v>12.38</v>
       </c>
       <c r="L3">
-        <v>12.775</v>
+        <v>12.365</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1756,16 +1756,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="G4">
-        <v>8.94</v>
+        <v>9.01</v>
       </c>
       <c r="I4">
-        <v>10.3</v>
+        <v>10.375</v>
       </c>
       <c r="K4">
-        <v>12.425</v>
+        <v>12.565</v>
       </c>
       <c r="L4">
-        <v>12.43</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1773,19 +1773,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>7.75</v>
       </c>
       <c r="G5">
-        <v>8.69</v>
+        <v>9.215</v>
       </c>
       <c r="I5">
-        <v>10.22</v>
+        <v>10.805</v>
       </c>
       <c r="K5">
-        <v>11.425</v>
+        <v>11.935</v>
       </c>
       <c r="L5">
-        <v>11.26</v>
+        <v>11.75</v>
       </c>
     </row>
   </sheetData>
@@ -1844,25 +1844,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>25.304</v>
+        <v>39.612</v>
       </c>
       <c r="C2">
-        <v>30.948</v>
+        <v>41.673</v>
       </c>
       <c r="D2">
         <v>7.77</v>
       </c>
       <c r="E2">
-        <v>40.73</v>
+        <v>37.82</v>
       </c>
       <c r="F2">
-        <v>34.695</v>
+        <v>32.61</v>
       </c>
       <c r="G2">
-        <v>32.355</v>
+        <v>29.84</v>
       </c>
       <c r="I2">
-        <v>28.305</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1870,25 +1870,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>22.474</v>
+        <v>27.514</v>
       </c>
       <c r="C3">
-        <v>24.798</v>
+        <v>29.831</v>
       </c>
       <c r="D3">
         <v>7.77</v>
       </c>
       <c r="E3">
-        <v>32.13</v>
+        <v>34.74</v>
       </c>
       <c r="F3">
-        <v>31.92</v>
+        <v>31.99</v>
       </c>
       <c r="G3">
-        <v>29.73</v>
+        <v>30.51</v>
       </c>
       <c r="I3">
-        <v>26.58</v>
+        <v>26.66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1896,25 +1896,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>24.516</v>
+        <v>19.628</v>
       </c>
       <c r="C4">
-        <v>23.36</v>
+        <v>19.768</v>
       </c>
       <c r="D4">
         <v>7.77</v>
       </c>
       <c r="E4">
-        <v>19.7</v>
+        <v>22.3</v>
       </c>
       <c r="F4">
-        <v>20.58</v>
+        <v>23.15</v>
       </c>
       <c r="G4">
-        <v>19.02</v>
+        <v>19.48</v>
       </c>
       <c r="I4">
-        <v>18.45</v>
+        <v>21.62</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1922,25 +1922,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>10.475</v>
+        <v>9.930999999999999</v>
       </c>
       <c r="C5">
-        <v>10.366</v>
-      </c>
-      <c r="D5">
-        <v>13.735</v>
+        <v>10.213</v>
       </c>
       <c r="E5">
-        <v>10.58</v>
+        <v>10.27</v>
       </c>
       <c r="F5">
-        <v>10.37</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="G5">
-        <v>9.890000000000001</v>
+        <v>9.74</v>
       </c>
       <c r="I5">
-        <v>10.65</v>
+        <v>10.44</v>
       </c>
     </row>
   </sheetData>
@@ -1999,34 +1996,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.93</v>
+        <v>6.95</v>
       </c>
       <c r="C2">
-        <v>7.08</v>
+        <v>7.13</v>
       </c>
       <c r="D2">
-        <v>7.135</v>
+        <v>7.087</v>
       </c>
       <c r="E2">
-        <v>7.193</v>
+        <v>7.261</v>
       </c>
       <c r="F2">
-        <v>7.198</v>
+        <v>7.263</v>
       </c>
       <c r="G2">
-        <v>7.245</v>
+        <v>7.302</v>
       </c>
       <c r="H2">
-        <v>7.253</v>
+        <v>7.298</v>
       </c>
       <c r="I2">
-        <v>7.212</v>
+        <v>7.272</v>
       </c>
       <c r="J2">
-        <v>7.355</v>
+        <v>7.411</v>
       </c>
       <c r="L2">
-        <v>7.417</v>
+        <v>7.477</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2037,31 +2034,31 @@
         <v>6.95</v>
       </c>
       <c r="C3">
-        <v>7.15</v>
+        <v>7.14</v>
       </c>
       <c r="D3">
-        <v>7.333</v>
+        <v>7.147</v>
       </c>
       <c r="E3">
-        <v>7.321</v>
+        <v>7.286</v>
       </c>
       <c r="F3">
-        <v>7.319</v>
+        <v>7.289</v>
       </c>
       <c r="G3">
-        <v>7.347</v>
+        <v>7.336</v>
       </c>
       <c r="H3">
-        <v>7.389</v>
+        <v>7.373</v>
       </c>
       <c r="I3">
-        <v>7.351</v>
+        <v>7.317</v>
       </c>
       <c r="J3">
-        <v>7.481</v>
+        <v>7.44</v>
       </c>
       <c r="L3">
-        <v>7.527</v>
+        <v>7.474</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2069,34 +2066,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.81</v>
+        <v>6.85</v>
       </c>
       <c r="C4">
-        <v>6.99</v>
+        <v>7.03</v>
       </c>
       <c r="D4">
-        <v>7.095</v>
+        <v>7.127</v>
       </c>
       <c r="E4">
-        <v>7.16</v>
+        <v>7.2</v>
       </c>
       <c r="F4">
-        <v>7.161</v>
+        <v>7.172</v>
       </c>
       <c r="G4">
-        <v>7.164</v>
+        <v>7.204</v>
       </c>
       <c r="H4">
-        <v>7.172</v>
+        <v>7.2</v>
       </c>
       <c r="I4">
-        <v>7.175</v>
+        <v>7.199</v>
       </c>
       <c r="J4">
-        <v>7.246</v>
+        <v>7.26</v>
       </c>
       <c r="L4">
-        <v>7.331</v>
+        <v>7.348</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2104,34 +2101,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.45</v>
+        <v>6.37</v>
       </c>
       <c r="C5">
-        <v>6.73</v>
+        <v>6.72</v>
       </c>
       <c r="D5">
-        <v>6.718</v>
+        <v>6.727</v>
       </c>
       <c r="E5">
-        <v>6.861</v>
+        <v>6.802</v>
       </c>
       <c r="F5">
-        <v>7.218</v>
+        <v>7.028</v>
       </c>
       <c r="G5">
-        <v>7.156</v>
+        <v>7.078</v>
       </c>
       <c r="H5">
-        <v>7.26</v>
+        <v>7.161</v>
       </c>
       <c r="I5">
-        <v>7.301</v>
+        <v>7.221</v>
       </c>
       <c r="J5">
-        <v>7.447</v>
+        <v>7.406</v>
       </c>
       <c r="L5">
-        <v>7.426</v>
+        <v>7.346</v>
       </c>
     </row>
   </sheetData>
@@ -2190,37 +2187,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.83</v>
+        <v>3.796</v>
       </c>
       <c r="C2">
-        <v>3.846</v>
+        <v>3.787</v>
       </c>
       <c r="D2">
-        <v>3.64</v>
+        <v>3.707</v>
       </c>
       <c r="E2">
-        <v>3.185</v>
+        <v>3.276</v>
       </c>
       <c r="F2">
-        <v>2.98</v>
+        <v>3.064</v>
       </c>
       <c r="G2">
-        <v>2.868</v>
+        <v>2.931</v>
       </c>
       <c r="H2">
-        <v>2.902</v>
+        <v>2.956</v>
       </c>
       <c r="I2">
-        <v>3.151</v>
+        <v>3.201</v>
       </c>
       <c r="J2">
-        <v>3.402</v>
+        <v>3.438</v>
       </c>
       <c r="K2">
-        <v>3.57</v>
+        <v>3.591</v>
       </c>
       <c r="L2">
-        <v>3.66</v>
+        <v>3.665</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2228,37 +2225,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.793</v>
+        <v>3.784</v>
       </c>
       <c r="C3">
-        <v>3.809</v>
+        <v>3.827</v>
       </c>
       <c r="D3">
-        <v>3.738</v>
+        <v>3.7</v>
       </c>
       <c r="E3">
-        <v>3.356</v>
+        <v>3.274</v>
       </c>
       <c r="F3">
-        <v>3.134</v>
+        <v>3.006</v>
       </c>
       <c r="G3">
-        <v>3.082</v>
+        <v>2.92</v>
       </c>
       <c r="H3">
-        <v>3.1463</v>
+        <v>2.9592</v>
       </c>
       <c r="I3">
-        <v>3.452</v>
+        <v>3.233</v>
       </c>
       <c r="J3">
-        <v>3.739</v>
+        <v>3.515</v>
       </c>
       <c r="K3">
-        <v>3.911</v>
+        <v>3.68</v>
       </c>
       <c r="L3">
-        <v>4.033</v>
+        <v>3.794</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2266,37 +2263,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.649</v>
+        <v>3.652</v>
       </c>
       <c r="C4">
-        <v>3.624</v>
+        <v>3.689</v>
       </c>
       <c r="D4">
-        <v>3.624</v>
+        <v>3.643</v>
       </c>
       <c r="E4">
-        <v>3.222</v>
+        <v>3.301</v>
       </c>
       <c r="F4">
-        <v>3.014</v>
+        <v>3.085</v>
       </c>
       <c r="G4">
-        <v>2.878</v>
+        <v>2.968</v>
       </c>
       <c r="H4">
-        <v>2.8827</v>
+        <v>2.9564</v>
       </c>
       <c r="I4">
-        <v>3.07</v>
+        <v>3.142</v>
       </c>
       <c r="J4">
-        <v>3.334</v>
+        <v>3.385</v>
       </c>
       <c r="K4">
-        <v>3.478</v>
+        <v>3.525</v>
       </c>
       <c r="L4">
-        <v>3.563</v>
+        <v>3.604</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2304,37 +2301,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.521</v>
+        <v>1.327</v>
       </c>
       <c r="C5">
-        <v>1.795</v>
+        <v>2.007</v>
       </c>
       <c r="D5">
-        <v>2.43</v>
+        <v>2.412</v>
       </c>
       <c r="E5">
-        <v>2.238</v>
+        <v>2.176</v>
       </c>
       <c r="F5">
-        <v>2.307</v>
+        <v>2.111</v>
       </c>
       <c r="G5">
-        <v>2.244</v>
+        <v>2.101</v>
       </c>
       <c r="H5">
-        <v>2.2991</v>
+        <v>2.0901</v>
       </c>
       <c r="I5">
-        <v>2.438</v>
+        <v>2.298</v>
       </c>
       <c r="J5">
-        <v>2.72</v>
+        <v>2.581</v>
       </c>
       <c r="K5">
-        <v>2.722</v>
+        <v>2.589</v>
       </c>
       <c r="L5">
-        <v>2.609</v>
+        <v>2.457</v>
       </c>
     </row>
   </sheetData>
@@ -2393,37 +2390,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.73</v>
+        <v>3.691</v>
       </c>
       <c r="C2">
-        <v>3.767</v>
+        <v>3.757</v>
       </c>
       <c r="D2">
-        <v>3.604</v>
+        <v>3.591</v>
       </c>
       <c r="E2">
-        <v>2.958</v>
+        <v>3.066</v>
       </c>
       <c r="F2">
-        <v>2.862</v>
+        <v>2.955</v>
       </c>
       <c r="G2">
-        <v>2.53</v>
+        <v>2.604</v>
       </c>
       <c r="H2">
-        <v>2.52</v>
+        <v>2.576</v>
       </c>
       <c r="I2">
-        <v>2.5835</v>
+        <v>2.6295</v>
       </c>
       <c r="J2">
-        <v>2.795</v>
+        <v>2.815</v>
       </c>
       <c r="K2">
-        <v>2.839</v>
+        <v>2.86</v>
       </c>
       <c r="L2">
-        <v>2.789</v>
+        <v>2.806</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2431,37 +2428,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.722</v>
+        <v>3.75</v>
       </c>
       <c r="C3">
-        <v>3.773</v>
+        <v>3.803</v>
       </c>
       <c r="D3">
-        <v>3.668</v>
+        <v>3.667</v>
       </c>
       <c r="E3">
-        <v>3.099</v>
+        <v>3.035</v>
       </c>
       <c r="F3">
-        <v>2.949</v>
+        <v>2.862</v>
       </c>
       <c r="G3">
-        <v>2.684</v>
+        <v>2.538</v>
       </c>
       <c r="H3">
-        <v>2.656</v>
+        <v>2.49</v>
       </c>
       <c r="I3">
-        <v>2.834</v>
+        <v>2.638</v>
       </c>
       <c r="J3">
-        <v>3.069</v>
+        <v>2.877</v>
       </c>
       <c r="K3">
-        <v>3.125</v>
+        <v>2.928</v>
       </c>
       <c r="L3">
-        <v>3.126</v>
+        <v>2.914</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2469,37 +2466,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.603</v>
+        <v>3.658</v>
       </c>
       <c r="C4">
-        <v>3.622</v>
+        <v>3.7</v>
       </c>
       <c r="D4">
-        <v>3.552</v>
+        <v>3.588</v>
       </c>
       <c r="E4">
-        <v>2.989</v>
+        <v>3.068</v>
       </c>
       <c r="F4">
-        <v>2.831</v>
+        <v>2.914</v>
       </c>
       <c r="G4">
-        <v>2.526</v>
+        <v>2.603</v>
       </c>
       <c r="H4">
-        <v>2.454</v>
+        <v>2.522</v>
       </c>
       <c r="I4">
-        <v>2.544</v>
+        <v>2.598</v>
       </c>
       <c r="J4">
-        <v>2.697</v>
+        <v>2.749</v>
       </c>
       <c r="K4">
-        <v>2.718</v>
+        <v>2.771</v>
       </c>
       <c r="L4">
-        <v>2.678</v>
+        <v>2.722</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2507,37 +2504,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.406</v>
+        <v>1.563</v>
       </c>
       <c r="C5">
-        <v>1.88</v>
+        <v>1.839</v>
       </c>
       <c r="D5">
-        <v>2.312</v>
+        <v>2.115</v>
       </c>
       <c r="E5">
-        <v>2.192</v>
+        <v>2.114</v>
       </c>
       <c r="F5">
-        <v>2.076</v>
+        <v>1.978</v>
       </c>
       <c r="G5">
-        <v>2.01</v>
+        <v>1.871</v>
       </c>
       <c r="H5">
-        <v>1.965</v>
+        <v>1.857</v>
       </c>
       <c r="I5">
-        <v>1.969</v>
+        <v>1.855</v>
       </c>
       <c r="J5">
-        <v>2.057</v>
+        <v>1.91</v>
       </c>
       <c r="K5">
-        <v>2.001</v>
+        <v>1.839</v>
       </c>
       <c r="L5">
-        <v>1.795</v>
+        <v>1.622</v>
       </c>
     </row>
   </sheetData>
@@ -2596,22 +2593,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>5.182</v>
+        <v>5.388</v>
       </c>
       <c r="E2">
-        <v>5.272</v>
+        <v>5.441</v>
       </c>
       <c r="F2">
-        <v>5.188</v>
+        <v>5.372</v>
       </c>
       <c r="G2">
-        <v>5.286</v>
+        <v>5.415</v>
       </c>
       <c r="H2">
-        <v>5.228</v>
+        <v>5.37</v>
       </c>
       <c r="I2">
-        <v>5.468</v>
+        <v>5.614</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2619,22 +2616,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>5.269</v>
+        <v>5.247</v>
       </c>
       <c r="E3">
-        <v>5.219</v>
+        <v>5.146</v>
       </c>
       <c r="F3">
-        <v>5.17</v>
+        <v>5.095</v>
       </c>
       <c r="G3">
-        <v>5.39</v>
+        <v>5.104</v>
       </c>
       <c r="H3">
-        <v>5.473</v>
+        <v>5.159</v>
       </c>
       <c r="I3">
-        <v>5.77</v>
+        <v>5.468</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2642,22 +2639,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5.305</v>
+        <v>4.838</v>
       </c>
       <c r="E4">
-        <v>5.358</v>
+        <v>4.824</v>
       </c>
       <c r="F4">
-        <v>5.311</v>
+        <v>4.96</v>
       </c>
       <c r="G4">
-        <v>5.386</v>
+        <v>5.123</v>
       </c>
       <c r="H4">
-        <v>5.472</v>
+        <v>5.375</v>
       </c>
       <c r="I4">
-        <v>5.617</v>
+        <v>5.595</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2665,22 +2662,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>6.985</v>
+        <v>6.815</v>
       </c>
       <c r="E5">
-        <v>7.159</v>
+        <v>6.786</v>
       </c>
       <c r="F5">
-        <v>7.257</v>
+        <v>6.834</v>
       </c>
       <c r="G5">
-        <v>7.235</v>
+        <v>6.651</v>
       </c>
       <c r="H5">
-        <v>6.904</v>
+        <v>6.395</v>
       </c>
       <c r="I5">
-        <v>6.904</v>
+        <v>6.414</v>
       </c>
     </row>
   </sheetData>
@@ -2739,19 +2736,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>10.575</v>
+        <v>10.59</v>
       </c>
       <c r="E2">
-        <v>10.248</v>
+        <v>10.31</v>
       </c>
       <c r="F2">
-        <v>10.302</v>
+        <v>10.43</v>
       </c>
       <c r="G2">
-        <v>10.681</v>
+        <v>10.835</v>
       </c>
       <c r="I2">
-        <v>11.002</v>
+        <v>11.101</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2759,19 +2756,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>11.09</v>
+        <v>10.95</v>
       </c>
       <c r="E3">
-        <v>10.845</v>
+        <v>10.695</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>10.815</v>
       </c>
       <c r="G3">
-        <v>11.425</v>
+        <v>11.2</v>
       </c>
       <c r="I3">
-        <v>11.8</v>
+        <v>11.73</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2779,19 +2776,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>11.32</v>
+        <v>11.265</v>
       </c>
       <c r="E4">
-        <v>10.375</v>
+        <v>10.355</v>
       </c>
       <c r="F4">
-        <v>10.485</v>
+        <v>10.575</v>
       </c>
       <c r="G4">
-        <v>10.88</v>
+        <v>11.02</v>
       </c>
       <c r="I4">
-        <v>11.23</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2799,19 +2796,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>14.43</v>
+        <v>13.85</v>
       </c>
       <c r="E5">
-        <v>14.305</v>
+        <v>13.41</v>
       </c>
       <c r="F5">
-        <v>13.99</v>
+        <v>12.98</v>
       </c>
       <c r="G5">
-        <v>13.73</v>
+        <v>12.565</v>
       </c>
       <c r="I5">
-        <v>13.66</v>
+        <v>12.57</v>
       </c>
     </row>
   </sheetData>
@@ -2870,25 +2867,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>3.022</v>
+        <v>3.156</v>
       </c>
       <c r="F2">
-        <v>2.878</v>
+        <v>2.956</v>
       </c>
       <c r="G2">
-        <v>2.907</v>
+        <v>2.973</v>
       </c>
       <c r="H2">
-        <v>3.011</v>
+        <v>3.108</v>
       </c>
       <c r="I2">
-        <v>3.246</v>
+        <v>3.312</v>
       </c>
       <c r="J2">
-        <v>3.717</v>
+        <v>3.743</v>
       </c>
       <c r="L2">
-        <v>3.86</v>
+        <v>3.874</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2896,25 +2893,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>3.136</v>
+        <v>2.999</v>
       </c>
       <c r="F3">
-        <v>3.026</v>
+        <v>2.867</v>
       </c>
       <c r="G3">
-        <v>3.131</v>
+        <v>2.926</v>
       </c>
       <c r="H3">
-        <v>3.291</v>
+        <v>3.063</v>
       </c>
       <c r="I3">
-        <v>3.547</v>
+        <v>3.309</v>
       </c>
       <c r="J3">
-        <v>4.005</v>
+        <v>3.769</v>
       </c>
       <c r="L3">
-        <v>4.142</v>
+        <v>3.898</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2922,25 +2919,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>2.971</v>
+        <v>3.041</v>
       </c>
       <c r="F4">
-        <v>2.91</v>
+        <v>2.978</v>
       </c>
       <c r="G4">
-        <v>2.945</v>
+        <v>3.018</v>
       </c>
       <c r="H4">
-        <v>3.063</v>
+        <v>3.146</v>
       </c>
       <c r="I4">
-        <v>3.273</v>
+        <v>3.34</v>
       </c>
       <c r="J4">
-        <v>3.637</v>
+        <v>3.718</v>
       </c>
       <c r="L4">
-        <v>3.702</v>
+        <v>3.767</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2948,25 +2945,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>2.228</v>
+        <v>2.248</v>
       </c>
       <c r="F5">
-        <v>2.194</v>
+        <v>2.119</v>
       </c>
       <c r="G5">
-        <v>2.411</v>
+        <v>2.229</v>
       </c>
       <c r="H5">
-        <v>2.547</v>
+        <v>2.408</v>
       </c>
       <c r="I5">
-        <v>2.905</v>
+        <v>2.794</v>
       </c>
       <c r="J5">
-        <v>3.097</v>
+        <v>3.024</v>
       </c>
       <c r="L5">
-        <v>3.129</v>
+        <v>3.054</v>
       </c>
     </row>
   </sheetData>
@@ -3025,37 +3022,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.345</v>
+        <v>5.358</v>
       </c>
       <c r="C2">
-        <v>5.368</v>
+        <v>5.4</v>
       </c>
       <c r="D2">
-        <v>4.9755</v>
+        <v>4.9995</v>
       </c>
       <c r="E2">
-        <v>4.566</v>
+        <v>4.748</v>
       </c>
       <c r="F2">
-        <v>4.258</v>
+        <v>4.453</v>
       </c>
       <c r="G2">
-        <v>4.147</v>
+        <v>4.3635</v>
       </c>
       <c r="H2">
-        <v>3.989</v>
+        <v>4.189</v>
       </c>
       <c r="I2">
-        <v>4.132</v>
+        <v>4.3205</v>
       </c>
       <c r="J2">
-        <v>4.462</v>
+        <v>4.643</v>
       </c>
       <c r="K2">
-        <v>4.558</v>
+        <v>4.763</v>
       </c>
       <c r="L2">
-        <v>4.538</v>
+        <v>4.744</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3063,37 +3060,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.332</v>
+        <v>5.28</v>
       </c>
       <c r="C3">
-        <v>5.409</v>
+        <v>5.394</v>
       </c>
       <c r="D3">
-        <v>4.927</v>
+        <v>4.944</v>
       </c>
       <c r="E3">
-        <v>4.75</v>
+        <v>4.668</v>
       </c>
       <c r="F3">
-        <v>4.558</v>
+        <v>4.364</v>
       </c>
       <c r="G3">
-        <v>4.477</v>
+        <v>4.263</v>
       </c>
       <c r="H3">
-        <v>4.375</v>
+        <v>4.13</v>
       </c>
       <c r="I3">
-        <v>4.548</v>
+        <v>4.287</v>
       </c>
       <c r="J3">
-        <v>4.871</v>
+        <v>4.609</v>
       </c>
       <c r="K3">
-        <v>4.993</v>
+        <v>4.735</v>
       </c>
       <c r="L3">
-        <v>5.028</v>
+        <v>4.768</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3101,37 +3098,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.513</v>
+        <v>5.526</v>
       </c>
       <c r="C4">
-        <v>5.653</v>
+        <v>5.588</v>
       </c>
       <c r="D4">
-        <v>5.186</v>
+        <v>5.043</v>
       </c>
       <c r="E4">
-        <v>5.172</v>
+        <v>5.075</v>
       </c>
       <c r="F4">
-        <v>4.846</v>
+        <v>4.777</v>
       </c>
       <c r="G4">
-        <v>4.709</v>
+        <v>4.66</v>
       </c>
       <c r="H4">
-        <v>4.365</v>
+        <v>4.346</v>
       </c>
       <c r="I4">
-        <v>4.43</v>
+        <v>4.424</v>
       </c>
       <c r="J4">
-        <v>4.656</v>
+        <v>4.658</v>
       </c>
       <c r="K4">
-        <v>4.708</v>
+        <v>4.714</v>
       </c>
       <c r="L4">
-        <v>4.695</v>
+        <v>4.699</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3139,37 +3136,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.106</v>
+        <v>3.251</v>
       </c>
       <c r="C5">
-        <v>3.829</v>
+        <v>3.837</v>
       </c>
       <c r="D5">
-        <v>3.181</v>
+        <v>3.23</v>
       </c>
       <c r="E5">
-        <v>3.264</v>
+        <v>3.312</v>
       </c>
       <c r="F5">
-        <v>3.201</v>
+        <v>3.228</v>
       </c>
       <c r="G5">
-        <v>3.278</v>
+        <v>3.262</v>
       </c>
       <c r="H5">
-        <v>3.272</v>
+        <v>3.287</v>
       </c>
       <c r="I5">
-        <v>3.117</v>
+        <v>3.147</v>
       </c>
       <c r="J5">
-        <v>3.46</v>
+        <v>3.527</v>
       </c>
       <c r="K5">
-        <v>3.427</v>
+        <v>3.536</v>
       </c>
       <c r="L5">
-        <v>3.333</v>
+        <v>3.494</v>
       </c>
     </row>
   </sheetData>
@@ -3228,37 +3225,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.247</v>
+        <v>-0.231</v>
       </c>
       <c r="C2">
-        <v>-0.162</v>
+        <v>-0.145</v>
       </c>
       <c r="D2">
-        <v>-0.08599999999999999</v>
+        <v>-0.059</v>
       </c>
       <c r="E2">
-        <v>0.037</v>
+        <v>0.066</v>
       </c>
       <c r="F2">
-        <v>0.105</v>
+        <v>0.137</v>
       </c>
       <c r="G2">
-        <v>0.307</v>
+        <v>0.355</v>
       </c>
       <c r="H2">
-        <v>0.486</v>
+        <v>0.522</v>
       </c>
       <c r="I2">
-        <v>0.734</v>
+        <v>0.771</v>
       </c>
       <c r="J2">
-        <v>1.167</v>
+        <v>1.261</v>
       </c>
       <c r="K2">
-        <v>1.469</v>
+        <v>1.496</v>
       </c>
       <c r="L2">
-        <v>1.685</v>
+        <v>1.682</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3266,37 +3263,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-0.201</v>
+        <v>-0.199</v>
       </c>
       <c r="C3">
-        <v>-0.178</v>
+        <v>-0.162</v>
       </c>
       <c r="D3">
-        <v>-0.032</v>
+        <v>-0.01</v>
       </c>
       <c r="E3">
-        <v>0.091</v>
+        <v>0.144</v>
       </c>
       <c r="F3">
-        <v>0.175</v>
+        <v>0.234</v>
       </c>
       <c r="G3">
-        <v>0.38</v>
+        <v>0.451</v>
       </c>
       <c r="H3">
-        <v>0.632</v>
+        <v>0.671</v>
       </c>
       <c r="I3">
-        <v>0.873</v>
+        <v>0.916</v>
       </c>
       <c r="J3">
-        <v>1.422</v>
+        <v>1.453</v>
       </c>
       <c r="K3">
-        <v>1.662</v>
+        <v>1.691</v>
       </c>
       <c r="L3">
-        <v>1.842</v>
+        <v>1.867</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3304,37 +3301,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.324</v>
+        <v>-0.147</v>
       </c>
       <c r="C4">
-        <v>-0.118</v>
+        <v>-0.159</v>
       </c>
       <c r="D4">
-        <v>-0.083</v>
+        <v>-0.092</v>
       </c>
       <c r="E4">
-        <v>0.022</v>
+        <v>0.007</v>
       </c>
       <c r="F4">
-        <v>0.068</v>
+        <v>0.051</v>
       </c>
       <c r="G4">
-        <v>0.211</v>
+        <v>0.217</v>
       </c>
       <c r="H4">
-        <v>0.387</v>
+        <v>0.4</v>
       </c>
       <c r="I4">
-        <v>0.632</v>
+        <v>0.647</v>
       </c>
       <c r="J4">
-        <v>1.062</v>
+        <v>1.089</v>
       </c>
       <c r="K4">
-        <v>1.346</v>
+        <v>1.397</v>
       </c>
       <c r="L4">
-        <v>1.639</v>
+        <v>1.666</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3342,37 +3339,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.198</v>
+        <v>-0.16</v>
       </c>
       <c r="C5">
-        <v>-0.094</v>
+        <v>-0.109</v>
       </c>
       <c r="D5">
         <v>-0.093</v>
       </c>
       <c r="E5">
-        <v>-0.022</v>
+        <v>-0.024</v>
       </c>
       <c r="F5">
-        <v>-0.008999999999999999</v>
+        <v>-0.006</v>
       </c>
       <c r="G5">
-        <v>0.1</v>
+        <v>0.108</v>
       </c>
       <c r="H5">
-        <v>0.192</v>
+        <v>0.204</v>
       </c>
       <c r="I5">
-        <v>0.25</v>
+        <v>0.255</v>
       </c>
       <c r="J5">
-        <v>0.8179999999999999</v>
+        <v>0.821</v>
       </c>
       <c r="K5">
-        <v>1.098</v>
+        <v>1.108</v>
       </c>
       <c r="L5">
-        <v>1.478</v>
+        <v>1.501</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -484,34 +484,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.04</v>
+        <v>5.03</v>
       </c>
       <c r="C2">
-        <v>5.05</v>
+        <v>4.99</v>
       </c>
       <c r="D2">
-        <v>4.96</v>
+        <v>4.64</v>
       </c>
       <c r="E2">
-        <v>4.464</v>
+        <v>3.953</v>
       </c>
       <c r="F2">
-        <v>4.29</v>
+        <v>3.762</v>
       </c>
       <c r="G2">
-        <v>3.834</v>
+        <v>3.256</v>
       </c>
       <c r="H2">
-        <v>3.748</v>
+        <v>3.174</v>
       </c>
       <c r="I2">
-        <v>3.717</v>
+        <v>3.122</v>
       </c>
       <c r="K2">
-        <v>3.631</v>
+        <v>3.029</v>
       </c>
       <c r="L2">
-        <v>3.496</v>
+        <v>2.924</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -522,31 +522,31 @@
         <v>5.04</v>
       </c>
       <c r="C3">
-        <v>5.07</v>
+        <v>5.05</v>
       </c>
       <c r="D3">
-        <v>4.99</v>
+        <v>4.96</v>
       </c>
       <c r="E3">
-        <v>4.386</v>
+        <v>4.464</v>
       </c>
       <c r="F3">
-        <v>4.238</v>
+        <v>4.29</v>
       </c>
       <c r="G3">
-        <v>3.79</v>
+        <v>3.834</v>
       </c>
       <c r="H3">
-        <v>3.727</v>
+        <v>3.748</v>
       </c>
       <c r="I3">
-        <v>3.745</v>
+        <v>3.717</v>
       </c>
       <c r="K3">
-        <v>3.719</v>
+        <v>3.631</v>
       </c>
       <c r="L3">
-        <v>3.575</v>
+        <v>3.496</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -554,34 +554,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.11</v>
+        <v>5.13</v>
       </c>
       <c r="C4">
-        <v>5.14</v>
+        <v>5.21</v>
       </c>
       <c r="D4">
-        <v>5.18</v>
+        <v>5.3</v>
       </c>
       <c r="E4">
-        <v>4.677</v>
+        <v>4.875</v>
       </c>
       <c r="F4">
-        <v>4.419</v>
+        <v>4.645</v>
       </c>
       <c r="G4">
-        <v>3.971</v>
+        <v>4.251</v>
       </c>
       <c r="H4">
-        <v>3.807</v>
+        <v>4.112</v>
       </c>
       <c r="I4">
-        <v>3.678</v>
+        <v>4.032</v>
       </c>
       <c r="K4">
-        <v>3.634</v>
+        <v>3.994</v>
       </c>
       <c r="L4">
-        <v>3.483</v>
+        <v>3.818</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -589,34 +589,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4.09</v>
+        <v>4.29</v>
       </c>
       <c r="C5">
-        <v>4.25</v>
+        <v>4.43</v>
       </c>
       <c r="D5">
-        <v>4.34</v>
+        <v>4.54</v>
       </c>
       <c r="E5">
-        <v>3.76</v>
+        <v>3.935</v>
       </c>
       <c r="F5">
-        <v>3.48</v>
+        <v>3.691</v>
       </c>
       <c r="G5">
-        <v>3.006</v>
+        <v>3.25</v>
       </c>
       <c r="H5">
-        <v>2.778</v>
+        <v>3.133</v>
       </c>
       <c r="I5">
-        <v>2.779</v>
+        <v>3.175</v>
       </c>
       <c r="K5">
-        <v>2.894</v>
+        <v>3.275</v>
       </c>
       <c r="L5">
-        <v>2.795</v>
+        <v>3.169</v>
       </c>
     </row>
   </sheetData>
@@ -675,31 +675,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.415</v>
+        <v>5.393</v>
       </c>
       <c r="C2">
-        <v>5.477</v>
+        <v>5.335</v>
       </c>
       <c r="D2">
-        <v>5.284</v>
+        <v>4.977</v>
       </c>
       <c r="E2">
-        <v>4.955</v>
+        <v>4.449</v>
       </c>
       <c r="F2">
-        <v>4.67</v>
+        <v>4.125</v>
       </c>
       <c r="G2">
-        <v>4.492</v>
+        <v>3.914</v>
       </c>
       <c r="H2">
-        <v>4.514</v>
+        <v>3.943</v>
       </c>
       <c r="I2">
-        <v>4.472</v>
+        <v>3.915</v>
       </c>
       <c r="L2">
-        <v>4.603</v>
+        <v>4.012</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -707,31 +707,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.43</v>
+        <v>5.424</v>
       </c>
       <c r="C3">
         <v>5.477</v>
       </c>
       <c r="D3">
-        <v>5.291</v>
+        <v>5.282</v>
       </c>
       <c r="E3">
-        <v>4.845</v>
+        <v>4.955</v>
       </c>
       <c r="F3">
-        <v>4.644</v>
+        <v>4.67</v>
       </c>
       <c r="G3">
-        <v>4.507</v>
+        <v>4.492</v>
       </c>
       <c r="H3">
-        <v>4.564</v>
+        <v>4.514</v>
       </c>
       <c r="I3">
-        <v>4.576</v>
+        <v>4.472</v>
       </c>
       <c r="L3">
-        <v>4.77</v>
+        <v>4.603</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -739,31 +739,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.471</v>
+        <v>5.477</v>
       </c>
       <c r="C4">
-        <v>5.531</v>
+        <v>5.552</v>
       </c>
       <c r="D4">
-        <v>5.411</v>
+        <v>5.47</v>
       </c>
       <c r="E4">
-        <v>4.989</v>
+        <v>5.052</v>
       </c>
       <c r="F4">
-        <v>4.697</v>
+        <v>4.808</v>
       </c>
       <c r="G4">
-        <v>4.399</v>
+        <v>4.616</v>
       </c>
       <c r="H4">
-        <v>4.354</v>
+        <v>4.621</v>
       </c>
       <c r="I4">
-        <v>4.26</v>
+        <v>4.579</v>
       </c>
       <c r="L4">
-        <v>4.334</v>
+        <v>4.709</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -771,31 +771,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4.32</v>
+        <v>4.335</v>
       </c>
       <c r="C5">
         <v>4.682</v>
       </c>
       <c r="D5">
-        <v>4.684</v>
+        <v>4.672</v>
       </c>
       <c r="E5">
-        <v>4.284</v>
+        <v>4.327</v>
       </c>
       <c r="F5">
-        <v>3.997</v>
+        <v>4.093</v>
       </c>
       <c r="G5">
-        <v>3.659</v>
+        <v>3.862</v>
       </c>
       <c r="H5">
-        <v>3.592</v>
+        <v>3.838</v>
       </c>
       <c r="I5">
-        <v>3.492</v>
+        <v>3.751</v>
       </c>
       <c r="L5">
-        <v>3.548</v>
+        <v>3.827</v>
       </c>
     </row>
   </sheetData>
@@ -854,22 +854,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>12.52</v>
+        <v>14.04</v>
       </c>
       <c r="E2">
+        <v>14.94</v>
+      </c>
+      <c r="F2">
+        <v>12.93</v>
+      </c>
+      <c r="G2">
+        <v>13.09</v>
+      </c>
+      <c r="I2">
+        <v>12.65</v>
+      </c>
+      <c r="J2">
         <v>12.94</v>
-      </c>
-      <c r="F2">
-        <v>12.09</v>
-      </c>
-      <c r="G2">
-        <v>12.28</v>
-      </c>
-      <c r="I2">
-        <v>12.03</v>
-      </c>
-      <c r="J2">
-        <v>12.21</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -877,22 +877,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>12.9</v>
+        <v>12.52</v>
       </c>
       <c r="E3">
-        <v>13.41</v>
+        <v>12.94</v>
       </c>
       <c r="F3">
-        <v>12.29</v>
+        <v>12.09</v>
       </c>
       <c r="G3">
-        <v>12.73</v>
+        <v>12.28</v>
       </c>
       <c r="I3">
-        <v>12.15</v>
+        <v>12.03</v>
       </c>
       <c r="J3">
-        <v>12.36</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -900,22 +900,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>15.36</v>
+        <v>16.45</v>
       </c>
       <c r="E4">
-        <v>12.55</v>
+        <v>13.15</v>
       </c>
       <c r="F4">
-        <v>13.81</v>
+        <v>12.3</v>
       </c>
       <c r="G4">
-        <v>12.33</v>
+        <v>12.75</v>
       </c>
       <c r="I4">
-        <v>12.6</v>
+        <v>12.93</v>
       </c>
       <c r="J4">
-        <v>11.99</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -923,22 +923,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>10.66</v>
+        <v>11.47</v>
       </c>
       <c r="E5">
-        <v>8.529999999999999</v>
+        <v>8.66</v>
       </c>
       <c r="F5">
-        <v>9.09</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="G5">
-        <v>9.289999999999999</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="I5">
-        <v>10.13</v>
+        <v>10.37</v>
       </c>
       <c r="J5">
-        <v>10.56</v>
+        <v>10.7</v>
       </c>
     </row>
   </sheetData>
@@ -997,25 +997,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.418</v>
+        <v>4.152</v>
       </c>
       <c r="E2">
-        <v>4.271</v>
+        <v>3.839</v>
       </c>
       <c r="F2">
-        <v>4.21</v>
+        <v>3.743</v>
       </c>
       <c r="G2">
-        <v>4.267</v>
+        <v>3.777</v>
       </c>
       <c r="H2">
-        <v>4.427</v>
+        <v>3.936</v>
       </c>
       <c r="I2">
-        <v>4.568</v>
+        <v>4.084</v>
       </c>
       <c r="J2">
-        <v>4.783</v>
+        <v>4.308</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.514</v>
+        <v>4.418</v>
       </c>
       <c r="E3">
-        <v>4.366</v>
+        <v>4.271</v>
       </c>
       <c r="F3">
-        <v>4.298</v>
+        <v>4.21</v>
       </c>
       <c r="G3">
-        <v>4.4</v>
+        <v>4.267</v>
       </c>
       <c r="H3">
-        <v>4.587</v>
+        <v>4.427</v>
       </c>
       <c r="I3">
-        <v>4.738</v>
+        <v>4.568</v>
       </c>
       <c r="J3">
-        <v>4.984</v>
+        <v>4.783</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1049,25 +1049,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.038</v>
+        <v>4.241</v>
       </c>
       <c r="E4">
-        <v>3.824</v>
+        <v>4.115</v>
       </c>
       <c r="F4">
-        <v>3.795</v>
+        <v>4.115</v>
       </c>
       <c r="G4">
-        <v>3.836</v>
+        <v>4.173</v>
       </c>
       <c r="H4">
-        <v>3.986</v>
+        <v>4.362</v>
       </c>
       <c r="I4">
-        <v>4.096</v>
+        <v>4.513</v>
       </c>
       <c r="J4">
-        <v>4.354</v>
+        <v>4.753</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1075,25 +1075,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>3.021</v>
+        <v>3.26</v>
       </c>
       <c r="E5">
-        <v>3.005</v>
+        <v>3.304</v>
       </c>
       <c r="F5">
-        <v>3.023</v>
+        <v>3.358</v>
       </c>
       <c r="G5">
-        <v>3.136</v>
+        <v>3.511</v>
       </c>
       <c r="H5">
-        <v>3.262</v>
+        <v>3.682</v>
       </c>
       <c r="I5">
-        <v>3.395</v>
+        <v>3.846</v>
       </c>
       <c r="J5">
-        <v>3.662</v>
+        <v>4.1</v>
       </c>
     </row>
   </sheetData>
@@ -1152,31 +1152,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.742</v>
+        <v>3.533</v>
       </c>
       <c r="C2">
-        <v>3.758</v>
+        <v>3.757</v>
       </c>
       <c r="D2">
-        <v>3.77</v>
+        <v>3.397</v>
       </c>
       <c r="E2">
-        <v>3.674</v>
+        <v>3.093</v>
       </c>
       <c r="F2">
-        <v>3.585</v>
+        <v>2.928</v>
       </c>
       <c r="G2">
-        <v>3.77</v>
+        <v>3.209</v>
       </c>
       <c r="H2">
-        <v>4.051</v>
+        <v>3.388</v>
       </c>
       <c r="I2">
-        <v>4.402</v>
+        <v>3.732</v>
       </c>
       <c r="J2">
-        <v>4.643</v>
+        <v>4.018</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1184,31 +1184,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.892</v>
+        <v>3.742</v>
       </c>
       <c r="C3">
-        <v>3.802</v>
+        <v>3.758</v>
       </c>
       <c r="D3">
-        <v>3.834</v>
+        <v>3.77</v>
       </c>
       <c r="E3">
-        <v>3.704</v>
+        <v>3.674</v>
       </c>
       <c r="F3">
-        <v>3.638</v>
+        <v>3.585</v>
       </c>
       <c r="G3">
-        <v>3.839</v>
+        <v>3.77</v>
       </c>
       <c r="H3">
-        <v>4.122</v>
+        <v>4.051</v>
       </c>
       <c r="I3">
-        <v>4.445</v>
+        <v>4.402</v>
       </c>
       <c r="J3">
-        <v>4.786</v>
+        <v>4.643</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1216,31 +1216,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.378</v>
+        <v>3.882</v>
       </c>
       <c r="C4">
-        <v>3.756</v>
+        <v>3.901</v>
       </c>
       <c r="D4">
-        <v>3.878</v>
+        <v>3.99</v>
       </c>
       <c r="E4">
-        <v>3.771</v>
+        <v>4.019</v>
       </c>
       <c r="F4">
-        <v>3.685</v>
+        <v>3.983</v>
       </c>
       <c r="G4">
-        <v>3.851</v>
+        <v>4.201</v>
       </c>
       <c r="H4">
-        <v>4.071</v>
+        <v>4.486</v>
       </c>
       <c r="I4">
-        <v>4.339</v>
+        <v>4.786</v>
       </c>
       <c r="J4">
-        <v>4.571</v>
+        <v>5.028</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1248,31 +1248,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.303</v>
+        <v>1.304</v>
       </c>
       <c r="C5">
-        <v>2.212</v>
+        <v>2.113</v>
       </c>
       <c r="D5">
-        <v>2.526</v>
+        <v>2.96</v>
       </c>
       <c r="E5">
-        <v>2.621</v>
+        <v>3.162</v>
       </c>
       <c r="F5">
-        <v>2.864</v>
+        <v>3.466</v>
       </c>
       <c r="G5">
-        <v>3.228</v>
+        <v>3.904</v>
       </c>
       <c r="H5">
-        <v>3.372</v>
+        <v>4.098</v>
       </c>
       <c r="I5">
-        <v>3.769</v>
+        <v>4.508</v>
       </c>
       <c r="J5">
-        <v>3.779</v>
+        <v>4.534</v>
       </c>
     </row>
   </sheetData>
@@ -1331,37 +1331,37 @@
         <v>12</v>
       </c>
       <c r="B2">
+        <v>1.58</v>
+      </c>
+      <c r="C2">
+        <v>1.59</v>
+      </c>
+      <c r="D2">
         <v>1.6</v>
       </c>
-      <c r="C2">
-        <v>1.7</v>
-      </c>
-      <c r="D2">
-        <v>1.72</v>
-      </c>
       <c r="E2">
-        <v>1.471</v>
+        <v>1.026</v>
       </c>
       <c r="F2">
-        <v>1.188</v>
+        <v>0.857</v>
       </c>
       <c r="G2">
-        <v>1.063</v>
+        <v>0.609</v>
       </c>
       <c r="H2">
-        <v>0.985</v>
+        <v>0.582</v>
       </c>
       <c r="I2">
-        <v>0.994</v>
+        <v>0.589</v>
       </c>
       <c r="J2">
-        <v>1.143</v>
+        <v>0.554</v>
       </c>
       <c r="K2">
-        <v>1.015</v>
+        <v>0.545</v>
       </c>
       <c r="L2">
-        <v>0.987</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1369,37 +1369,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="C3">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="D3">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="E3">
-        <v>1.338</v>
+        <v>1.388</v>
       </c>
       <c r="F3">
-        <v>1.173</v>
+        <v>1.229</v>
       </c>
       <c r="G3">
-        <v>1.041</v>
+        <v>1.106</v>
       </c>
       <c r="H3">
-        <v>1.059</v>
+        <v>1.018</v>
       </c>
       <c r="I3">
-        <v>1.124</v>
+        <v>1.036</v>
       </c>
       <c r="J3">
-        <v>1.22</v>
+        <v>1.048</v>
       </c>
       <c r="K3">
-        <v>1.232</v>
+        <v>1.015</v>
       </c>
       <c r="L3">
-        <v>1.216</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1407,37 +1407,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="C4">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="D4">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="E4">
-        <v>1.167</v>
+        <v>1.246</v>
       </c>
       <c r="F4">
-        <v>1.114</v>
+        <v>1.249</v>
       </c>
       <c r="G4">
-        <v>1.037</v>
+        <v>1.064</v>
       </c>
       <c r="H4">
-        <v>1.022</v>
+        <v>1.033</v>
       </c>
       <c r="I4">
-        <v>1.036</v>
+        <v>1.093</v>
       </c>
       <c r="J4">
-        <v>1.067</v>
+        <v>1.148</v>
       </c>
       <c r="K4">
-        <v>1.053</v>
+        <v>1.159</v>
       </c>
       <c r="L4">
-        <v>1.031</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1445,37 +1445,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.52</v>
+        <v>0.31</v>
       </c>
       <c r="C5">
-        <v>0.66</v>
+        <v>1.07</v>
       </c>
       <c r="D5">
-        <v>1.1</v>
+        <v>1.54</v>
       </c>
       <c r="E5">
-        <v>0.915</v>
+        <v>1.298</v>
       </c>
       <c r="F5">
-        <v>0.897</v>
+        <v>1.34</v>
       </c>
       <c r="G5">
-        <v>0.92</v>
+        <v>1.434</v>
       </c>
       <c r="H5">
-        <v>0.961</v>
+        <v>1.448</v>
       </c>
       <c r="I5">
-        <v>1.046</v>
+        <v>1.503</v>
       </c>
       <c r="J5">
-        <v>1.059</v>
+        <v>1.61</v>
       </c>
       <c r="K5">
-        <v>1.073</v>
+        <v>1.61</v>
       </c>
       <c r="L5">
-        <v>1.039</v>
+        <v>1.575</v>
       </c>
     </row>
   </sheetData>
@@ -1534,31 +1534,28 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>2.407</v>
+        <v>2.338</v>
       </c>
       <c r="E2">
-        <v>2.448</v>
-      </c>
-      <c r="F2">
-        <v>2.501</v>
+        <v>2.347</v>
       </c>
       <c r="G2">
-        <v>2.598</v>
+        <v>2.49</v>
       </c>
       <c r="H2">
-        <v>2.714</v>
+        <v>2.6</v>
       </c>
       <c r="I2">
-        <v>2.726</v>
+        <v>2.634</v>
       </c>
       <c r="J2">
-        <v>2.804</v>
+        <v>2.755</v>
       </c>
       <c r="K2">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="L2">
-        <v>2.982</v>
+        <v>2.909</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1566,31 +1563,28 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>2.332</v>
+        <v>2.407</v>
       </c>
       <c r="E3">
-        <v>2.363</v>
-      </c>
-      <c r="F3">
-        <v>2.415</v>
+        <v>2.448</v>
       </c>
       <c r="G3">
-        <v>2.523</v>
+        <v>2.598</v>
       </c>
       <c r="H3">
-        <v>2.67</v>
+        <v>2.714</v>
       </c>
       <c r="I3">
-        <v>2.67</v>
+        <v>2.713</v>
       </c>
       <c r="J3">
-        <v>2.821</v>
+        <v>2.804</v>
       </c>
       <c r="K3">
-        <v>3.084</v>
+        <v>3.06</v>
       </c>
       <c r="L3">
-        <v>2.987</v>
+        <v>2.982</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1598,31 +1592,28 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>2.105</v>
+        <v>2.164</v>
       </c>
       <c r="E4">
-        <v>2.246</v>
-      </c>
-      <c r="F4">
-        <v>2.349</v>
+        <v>2.245</v>
       </c>
       <c r="G4">
-        <v>2.503</v>
+        <v>2.523</v>
       </c>
       <c r="H4">
-        <v>2.66</v>
+        <v>2.705</v>
       </c>
       <c r="I4">
-        <v>2.673</v>
+        <v>2.715</v>
       </c>
       <c r="J4">
-        <v>2.822</v>
+        <v>2.829</v>
       </c>
       <c r="K4">
-        <v>3.025</v>
+        <v>3.072</v>
       </c>
       <c r="L4">
-        <v>2.992</v>
+        <v>3.008</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1630,31 +1621,28 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>2.22</v>
+        <v>2.233</v>
       </c>
       <c r="E5">
-        <v>2.331</v>
-      </c>
-      <c r="F5">
-        <v>2.448</v>
+        <v>2.358</v>
       </c>
       <c r="G5">
-        <v>2.678</v>
+        <v>2.609</v>
       </c>
       <c r="H5">
-        <v>2.87</v>
+        <v>2.803</v>
       </c>
       <c r="I5">
-        <v>2.903</v>
+        <v>2.865</v>
       </c>
       <c r="J5">
-        <v>2.962</v>
+        <v>3.12</v>
       </c>
       <c r="K5">
-        <v>3.37</v>
+        <v>3.317</v>
       </c>
       <c r="L5">
-        <v>3.296</v>
+        <v>3.246</v>
       </c>
     </row>
   </sheetData>
@@ -1713,19 +1701,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8.550000000000001</v>
+        <v>8.65</v>
       </c>
       <c r="G2">
-        <v>8.970000000000001</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="I2">
-        <v>10.195</v>
+        <v>9.77</v>
       </c>
       <c r="K2">
-        <v>12.33</v>
+        <v>12.245</v>
       </c>
       <c r="L2">
-        <v>12.3</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1733,19 +1721,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>7.9</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="G3">
-        <v>8.99</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="I3">
-        <v>10.295</v>
+        <v>10.195</v>
       </c>
       <c r="K3">
-        <v>12.38</v>
+        <v>12.33</v>
       </c>
       <c r="L3">
-        <v>12.365</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1753,19 +1741,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>9.01</v>
+        <v>9.41</v>
       </c>
       <c r="I4">
-        <v>10.375</v>
+        <v>10.81</v>
       </c>
       <c r="K4">
-        <v>12.565</v>
+        <v>12.88</v>
       </c>
       <c r="L4">
-        <v>12.57</v>
+        <v>12.87</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1776,16 +1764,16 @@
         <v>7.75</v>
       </c>
       <c r="G5">
-        <v>9.215</v>
+        <v>8.73</v>
       </c>
       <c r="I5">
-        <v>10.805</v>
+        <v>10.17</v>
       </c>
       <c r="K5">
-        <v>11.935</v>
+        <v>11.535</v>
       </c>
       <c r="L5">
-        <v>11.75</v>
+        <v>11.39</v>
       </c>
     </row>
   </sheetData>
@@ -1844,25 +1832,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>39.612</v>
+        <v>38.801</v>
       </c>
       <c r="C2">
-        <v>41.673</v>
+        <v>35.938</v>
       </c>
       <c r="D2">
         <v>7.77</v>
       </c>
       <c r="E2">
-        <v>37.82</v>
+        <v>37.71</v>
       </c>
       <c r="F2">
-        <v>32.61</v>
+        <v>29.64</v>
       </c>
       <c r="G2">
-        <v>29.84</v>
+        <v>26.43</v>
       </c>
       <c r="I2">
-        <v>26.7</v>
+        <v>23.895</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1870,25 +1858,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>27.514</v>
+        <v>39.612</v>
       </c>
       <c r="C3">
-        <v>29.831</v>
+        <v>41.673</v>
       </c>
       <c r="D3">
         <v>7.77</v>
       </c>
       <c r="E3">
-        <v>34.74</v>
+        <v>37.82</v>
       </c>
       <c r="F3">
-        <v>31.99</v>
+        <v>32.61</v>
       </c>
       <c r="G3">
-        <v>30.51</v>
+        <v>29.84</v>
       </c>
       <c r="I3">
-        <v>26.66</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1896,25 +1884,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>19.628</v>
+        <v>21.087</v>
       </c>
       <c r="C4">
-        <v>19.768</v>
+        <v>21.925</v>
       </c>
       <c r="D4">
         <v>7.77</v>
       </c>
       <c r="E4">
-        <v>22.3</v>
+        <v>27.83</v>
       </c>
       <c r="F4">
-        <v>23.15</v>
+        <v>27.51</v>
       </c>
       <c r="G4">
-        <v>19.48</v>
+        <v>26.8</v>
       </c>
       <c r="I4">
-        <v>21.62</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1922,22 +1910,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>9.930999999999999</v>
+        <v>10.029</v>
       </c>
       <c r="C5">
-        <v>10.213</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="E5">
-        <v>10.27</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="F5">
-        <v>8.449999999999999</v>
+        <v>9.33</v>
       </c>
       <c r="G5">
-        <v>9.74</v>
+        <v>8.32</v>
       </c>
       <c r="I5">
-        <v>10.44</v>
+        <v>9.91</v>
       </c>
     </row>
   </sheetData>
@@ -1996,34 +1984,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.95</v>
+        <v>6.89</v>
       </c>
       <c r="C2">
-        <v>7.13</v>
+        <v>7.12</v>
       </c>
       <c r="D2">
-        <v>7.087</v>
+        <v>7.138</v>
       </c>
       <c r="E2">
-        <v>7.261</v>
+        <v>7.058</v>
       </c>
       <c r="F2">
-        <v>7.263</v>
+        <v>7.074</v>
       </c>
       <c r="G2">
-        <v>7.302</v>
+        <v>7.063</v>
       </c>
       <c r="H2">
-        <v>7.298</v>
+        <v>7.067</v>
       </c>
       <c r="I2">
-        <v>7.272</v>
+        <v>7.163</v>
       </c>
       <c r="J2">
-        <v>7.411</v>
+        <v>7.315</v>
       </c>
       <c r="L2">
-        <v>7.477</v>
+        <v>7.379</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2034,31 +2022,31 @@
         <v>6.95</v>
       </c>
       <c r="C3">
-        <v>7.14</v>
+        <v>7.13</v>
       </c>
       <c r="D3">
-        <v>7.147</v>
+        <v>7.087</v>
       </c>
       <c r="E3">
-        <v>7.286</v>
+        <v>7.261</v>
       </c>
       <c r="F3">
-        <v>7.289</v>
+        <v>7.263</v>
       </c>
       <c r="G3">
-        <v>7.336</v>
+        <v>7.302</v>
       </c>
       <c r="H3">
-        <v>7.373</v>
+        <v>7.298</v>
       </c>
       <c r="I3">
-        <v>7.317</v>
+        <v>7.272</v>
       </c>
       <c r="J3">
-        <v>7.44</v>
+        <v>7.411</v>
       </c>
       <c r="L3">
-        <v>7.474</v>
+        <v>7.477</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2066,34 +2054,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.85</v>
+        <v>6.87</v>
       </c>
       <c r="C4">
-        <v>7.03</v>
+        <v>7.08</v>
       </c>
       <c r="D4">
-        <v>7.127</v>
+        <v>6.975</v>
       </c>
       <c r="E4">
-        <v>7.2</v>
+        <v>7.256</v>
       </c>
       <c r="F4">
-        <v>7.172</v>
+        <v>7.262</v>
       </c>
       <c r="G4">
-        <v>7.204</v>
+        <v>7.233</v>
       </c>
       <c r="H4">
-        <v>7.2</v>
+        <v>7.247</v>
       </c>
       <c r="I4">
-        <v>7.199</v>
+        <v>7.21</v>
       </c>
       <c r="J4">
-        <v>7.26</v>
+        <v>7.335</v>
       </c>
       <c r="L4">
-        <v>7.348</v>
+        <v>7.412</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2101,34 +2089,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.37</v>
+        <v>6.39</v>
       </c>
       <c r="C5">
-        <v>6.72</v>
+        <v>6.75</v>
       </c>
       <c r="D5">
-        <v>6.727</v>
+        <v>6.868</v>
       </c>
       <c r="E5">
-        <v>6.802</v>
+        <v>6.939</v>
       </c>
       <c r="F5">
-        <v>7.028</v>
+        <v>7.091</v>
       </c>
       <c r="G5">
-        <v>7.078</v>
+        <v>7.228</v>
       </c>
       <c r="H5">
-        <v>7.161</v>
+        <v>7.315</v>
       </c>
       <c r="I5">
-        <v>7.221</v>
+        <v>7.318</v>
       </c>
       <c r="J5">
-        <v>7.406</v>
+        <v>7.514</v>
       </c>
       <c r="L5">
-        <v>7.346</v>
+        <v>7.455</v>
       </c>
     </row>
   </sheetData>
@@ -2187,37 +2175,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.796</v>
+        <v>3.758</v>
       </c>
       <c r="C2">
-        <v>3.787</v>
+        <v>3.771</v>
       </c>
       <c r="D2">
-        <v>3.707</v>
+        <v>3.349</v>
       </c>
       <c r="E2">
-        <v>3.276</v>
+        <v>2.609</v>
       </c>
       <c r="F2">
-        <v>3.064</v>
+        <v>2.393</v>
       </c>
       <c r="G2">
-        <v>2.931</v>
+        <v>2.304</v>
       </c>
       <c r="H2">
-        <v>2.956</v>
+        <v>2.3524</v>
       </c>
       <c r="I2">
-        <v>3.201</v>
+        <v>2.549</v>
       </c>
       <c r="J2">
-        <v>3.438</v>
+        <v>2.785</v>
       </c>
       <c r="K2">
-        <v>3.591</v>
+        <v>2.955</v>
       </c>
       <c r="L2">
-        <v>3.665</v>
+        <v>3.047</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2225,37 +2213,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.784</v>
+        <v>3.796</v>
       </c>
       <c r="C3">
-        <v>3.827</v>
+        <v>3.787</v>
       </c>
       <c r="D3">
-        <v>3.7</v>
+        <v>3.707</v>
       </c>
       <c r="E3">
-        <v>3.274</v>
+        <v>3.31</v>
       </c>
       <c r="F3">
-        <v>3.006</v>
+        <v>3.075</v>
       </c>
       <c r="G3">
-        <v>2.92</v>
+        <v>2.943</v>
       </c>
       <c r="H3">
-        <v>2.9592</v>
+        <v>2.9787</v>
       </c>
       <c r="I3">
-        <v>3.233</v>
+        <v>3.201</v>
       </c>
       <c r="J3">
-        <v>3.515</v>
+        <v>3.438</v>
       </c>
       <c r="K3">
-        <v>3.68</v>
+        <v>3.591</v>
       </c>
       <c r="L3">
-        <v>3.794</v>
+        <v>3.665</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2263,37 +2251,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.652</v>
+        <v>3.836</v>
       </c>
       <c r="C4">
-        <v>3.689</v>
+        <v>3.802</v>
       </c>
       <c r="D4">
-        <v>3.643</v>
+        <v>3.8</v>
       </c>
       <c r="E4">
-        <v>3.301</v>
+        <v>3.441</v>
       </c>
       <c r="F4">
-        <v>3.085</v>
+        <v>3.23</v>
       </c>
       <c r="G4">
-        <v>2.968</v>
+        <v>3.169</v>
       </c>
       <c r="H4">
-        <v>2.9564</v>
+        <v>3.1973</v>
       </c>
       <c r="I4">
-        <v>3.142</v>
+        <v>3.415</v>
       </c>
       <c r="J4">
-        <v>3.385</v>
+        <v>3.686</v>
       </c>
       <c r="K4">
-        <v>3.525</v>
+        <v>3.843</v>
       </c>
       <c r="L4">
-        <v>3.604</v>
+        <v>3.935</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2301,37 +2289,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.327</v>
+        <v>1.853</v>
       </c>
       <c r="C5">
-        <v>2.007</v>
+        <v>2.041</v>
       </c>
       <c r="D5">
-        <v>2.412</v>
+        <v>2.686</v>
       </c>
       <c r="E5">
-        <v>2.176</v>
+        <v>2.698</v>
       </c>
       <c r="F5">
-        <v>2.111</v>
+        <v>2.674</v>
       </c>
       <c r="G5">
-        <v>2.101</v>
+        <v>2.731</v>
       </c>
       <c r="H5">
-        <v>2.0901</v>
+        <v>2.7359</v>
       </c>
       <c r="I5">
-        <v>2.298</v>
+        <v>2.929</v>
       </c>
       <c r="J5">
-        <v>2.581</v>
+        <v>3.164</v>
       </c>
       <c r="K5">
-        <v>2.589</v>
+        <v>3.182</v>
       </c>
       <c r="L5">
-        <v>2.457</v>
+        <v>3.065</v>
       </c>
     </row>
   </sheetData>
@@ -2390,37 +2378,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.691</v>
+        <v>3.71</v>
       </c>
       <c r="C2">
-        <v>3.757</v>
+        <v>3.712</v>
       </c>
       <c r="D2">
-        <v>3.591</v>
+        <v>3.243</v>
       </c>
       <c r="E2">
-        <v>3.066</v>
+        <v>2.498</v>
       </c>
       <c r="F2">
-        <v>2.955</v>
+        <v>2.392</v>
       </c>
       <c r="G2">
-        <v>2.604</v>
+        <v>1.995</v>
       </c>
       <c r="H2">
-        <v>2.576</v>
+        <v>1.959</v>
       </c>
       <c r="I2">
-        <v>2.6295</v>
+        <v>2.013</v>
       </c>
       <c r="J2">
-        <v>2.815</v>
+        <v>2.205</v>
       </c>
       <c r="K2">
-        <v>2.86</v>
+        <v>2.266</v>
       </c>
       <c r="L2">
-        <v>2.806</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2428,37 +2416,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.75</v>
+        <v>3.691</v>
       </c>
       <c r="C3">
-        <v>3.803</v>
+        <v>3.757</v>
       </c>
       <c r="D3">
-        <v>3.667</v>
+        <v>3.598</v>
       </c>
       <c r="E3">
-        <v>3.035</v>
+        <v>3.073</v>
       </c>
       <c r="F3">
-        <v>2.862</v>
+        <v>2.969</v>
       </c>
       <c r="G3">
-        <v>2.538</v>
+        <v>2.62</v>
       </c>
       <c r="H3">
-        <v>2.49</v>
+        <v>2.594</v>
       </c>
       <c r="I3">
-        <v>2.638</v>
+        <v>2.645</v>
       </c>
       <c r="J3">
-        <v>2.877</v>
+        <v>2.833</v>
       </c>
       <c r="K3">
-        <v>2.928</v>
+        <v>2.88</v>
       </c>
       <c r="L3">
-        <v>2.914</v>
+        <v>2.818</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2466,37 +2454,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.658</v>
+        <v>3.665</v>
       </c>
       <c r="C4">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="D4">
-        <v>3.588</v>
+        <v>3.683</v>
       </c>
       <c r="E4">
-        <v>3.068</v>
+        <v>3.206</v>
       </c>
       <c r="F4">
-        <v>2.914</v>
+        <v>3.05</v>
       </c>
       <c r="G4">
-        <v>2.603</v>
+        <v>2.774</v>
       </c>
       <c r="H4">
-        <v>2.522</v>
+        <v>2.713</v>
       </c>
       <c r="I4">
-        <v>2.598</v>
+        <v>2.838</v>
       </c>
       <c r="J4">
-        <v>2.749</v>
+        <v>3.013</v>
       </c>
       <c r="K4">
-        <v>2.771</v>
+        <v>3.054</v>
       </c>
       <c r="L4">
-        <v>2.722</v>
+        <v>3.035</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2504,37 +2492,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.563</v>
+        <v>1.847</v>
       </c>
       <c r="C5">
-        <v>1.839</v>
+        <v>2.099</v>
       </c>
       <c r="D5">
-        <v>2.115</v>
+        <v>2.574</v>
       </c>
       <c r="E5">
-        <v>2.114</v>
+        <v>2.646</v>
       </c>
       <c r="F5">
-        <v>1.978</v>
+        <v>2.505</v>
       </c>
       <c r="G5">
-        <v>1.871</v>
+        <v>2.45</v>
       </c>
       <c r="H5">
-        <v>1.857</v>
+        <v>2.401</v>
       </c>
       <c r="I5">
-        <v>1.855</v>
+        <v>2.391</v>
       </c>
       <c r="J5">
-        <v>1.91</v>
+        <v>2.455</v>
       </c>
       <c r="K5">
-        <v>1.839</v>
+        <v>2.367</v>
       </c>
       <c r="L5">
-        <v>1.622</v>
+        <v>2.178</v>
       </c>
     </row>
   </sheetData>
@@ -2593,22 +2581,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>5.388</v>
+        <v>5.157</v>
       </c>
       <c r="E2">
-        <v>5.441</v>
+        <v>4.984</v>
       </c>
       <c r="F2">
-        <v>5.372</v>
+        <v>4.781</v>
       </c>
       <c r="G2">
-        <v>5.415</v>
+        <v>4.835</v>
       </c>
       <c r="H2">
-        <v>5.37</v>
+        <v>4.831</v>
       </c>
       <c r="I2">
-        <v>5.614</v>
+        <v>5.068</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2616,22 +2604,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>5.247</v>
+        <v>5.355</v>
       </c>
       <c r="E3">
-        <v>5.146</v>
+        <v>5.425</v>
       </c>
       <c r="F3">
-        <v>5.095</v>
+        <v>5.379</v>
       </c>
       <c r="G3">
-        <v>5.104</v>
+        <v>5.438</v>
       </c>
       <c r="H3">
-        <v>5.159</v>
+        <v>5.403</v>
       </c>
       <c r="I3">
-        <v>5.468</v>
+        <v>5.633</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2639,22 +2627,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.838</v>
+        <v>4.992</v>
       </c>
       <c r="E4">
-        <v>4.824</v>
+        <v>5.026</v>
       </c>
       <c r="F4">
-        <v>4.96</v>
+        <v>5.079</v>
       </c>
       <c r="G4">
-        <v>5.123</v>
+        <v>5.255</v>
       </c>
       <c r="H4">
-        <v>5.375</v>
+        <v>5.552</v>
       </c>
       <c r="I4">
-        <v>5.595</v>
+        <v>5.916</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2662,22 +2650,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>6.815</v>
+        <v>6.436</v>
       </c>
       <c r="E5">
-        <v>6.786</v>
+        <v>6.794</v>
       </c>
       <c r="F5">
-        <v>6.834</v>
+        <v>6.893</v>
       </c>
       <c r="G5">
-        <v>6.651</v>
+        <v>6.783</v>
       </c>
       <c r="H5">
-        <v>6.395</v>
+        <v>6.694</v>
       </c>
       <c r="I5">
-        <v>6.414</v>
+        <v>6.734</v>
       </c>
     </row>
   </sheetData>
@@ -2736,19 +2724,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>10.59</v>
+        <v>10.283</v>
       </c>
       <c r="E2">
-        <v>10.31</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F2">
-        <v>10.43</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="G2">
-        <v>10.835</v>
+        <v>10.235</v>
       </c>
       <c r="I2">
-        <v>11.101</v>
+        <v>10.622</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2756,19 +2744,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>10.95</v>
+        <v>10.59</v>
       </c>
       <c r="E3">
-        <v>10.695</v>
+        <v>10.31</v>
       </c>
       <c r="F3">
-        <v>10.815</v>
+        <v>10.43</v>
       </c>
       <c r="G3">
-        <v>11.2</v>
+        <v>10.835</v>
       </c>
       <c r="I3">
-        <v>11.73</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2776,19 +2764,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>11.265</v>
+        <v>11.003</v>
       </c>
       <c r="E4">
-        <v>10.355</v>
+        <v>10.73</v>
       </c>
       <c r="F4">
-        <v>10.575</v>
+        <v>10.975</v>
       </c>
       <c r="G4">
-        <v>11.02</v>
+        <v>11.405</v>
       </c>
       <c r="I4">
-        <v>11.41</v>
+        <v>11.87</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2796,19 +2784,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>13.85</v>
+        <v>13.52</v>
       </c>
       <c r="E5">
-        <v>13.41</v>
+        <v>13.185</v>
       </c>
       <c r="F5">
-        <v>12.98</v>
+        <v>12.88</v>
       </c>
       <c r="G5">
-        <v>12.565</v>
+        <v>12.89</v>
       </c>
       <c r="I5">
-        <v>12.57</v>
+        <v>12.95</v>
       </c>
     </row>
   </sheetData>
@@ -2867,25 +2855,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>3.156</v>
+        <v>2.532</v>
       </c>
       <c r="F2">
-        <v>2.956</v>
+        <v>2.37</v>
       </c>
       <c r="G2">
-        <v>2.973</v>
+        <v>2.331</v>
       </c>
       <c r="H2">
-        <v>3.108</v>
+        <v>2.486</v>
       </c>
       <c r="I2">
-        <v>3.312</v>
+        <v>2.766</v>
       </c>
       <c r="J2">
-        <v>3.743</v>
+        <v>3.122</v>
       </c>
       <c r="L2">
-        <v>3.874</v>
+        <v>3.232</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2893,25 +2881,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>2.999</v>
+        <v>3.167</v>
       </c>
       <c r="F3">
-        <v>2.867</v>
+        <v>2.956</v>
       </c>
       <c r="G3">
-        <v>2.926</v>
+        <v>2.973</v>
       </c>
       <c r="H3">
-        <v>3.063</v>
+        <v>3.108</v>
       </c>
       <c r="I3">
-        <v>3.309</v>
+        <v>3.312</v>
       </c>
       <c r="J3">
-        <v>3.769</v>
+        <v>3.743</v>
       </c>
       <c r="L3">
-        <v>3.898</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2919,25 +2907,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>3.041</v>
+        <v>3.222</v>
       </c>
       <c r="F4">
-        <v>2.978</v>
+        <v>3.134</v>
       </c>
       <c r="G4">
-        <v>3.018</v>
+        <v>3.214</v>
       </c>
       <c r="H4">
-        <v>3.146</v>
+        <v>3.343</v>
       </c>
       <c r="I4">
-        <v>3.34</v>
+        <v>3.593</v>
       </c>
       <c r="J4">
-        <v>3.718</v>
+        <v>3.975</v>
       </c>
       <c r="L4">
-        <v>3.767</v>
+        <v>4.109</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2945,25 +2933,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>2.248</v>
+        <v>2.64</v>
       </c>
       <c r="F5">
-        <v>2.119</v>
+        <v>2.782</v>
       </c>
       <c r="G5">
-        <v>2.229</v>
+        <v>2.859</v>
       </c>
       <c r="H5">
-        <v>2.408</v>
+        <v>3.017</v>
       </c>
       <c r="I5">
-        <v>2.794</v>
+        <v>3.413</v>
       </c>
       <c r="J5">
-        <v>3.024</v>
+        <v>3.666</v>
       </c>
       <c r="L5">
-        <v>3.054</v>
+        <v>3.702</v>
       </c>
     </row>
   </sheetData>
@@ -3022,37 +3010,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.358</v>
+        <v>5.328</v>
       </c>
       <c r="C2">
-        <v>5.4</v>
+        <v>5.282</v>
       </c>
       <c r="D2">
-        <v>4.9995</v>
+        <v>4.968</v>
       </c>
       <c r="E2">
-        <v>4.748</v>
+        <v>4.324</v>
       </c>
       <c r="F2">
-        <v>4.453</v>
+        <v>3.895</v>
       </c>
       <c r="G2">
-        <v>4.3635</v>
+        <v>3.7675</v>
       </c>
       <c r="H2">
-        <v>4.189</v>
+        <v>3.6025</v>
       </c>
       <c r="I2">
-        <v>4.3205</v>
+        <v>3.726</v>
       </c>
       <c r="J2">
-        <v>4.643</v>
+        <v>4.058</v>
       </c>
       <c r="K2">
-        <v>4.763</v>
+        <v>4.172</v>
       </c>
       <c r="L2">
-        <v>4.744</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3060,37 +3048,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.28</v>
+        <v>5.358</v>
       </c>
       <c r="C3">
-        <v>5.394</v>
+        <v>5.4</v>
       </c>
       <c r="D3">
-        <v>4.944</v>
+        <v>4.976</v>
       </c>
       <c r="E3">
-        <v>4.668</v>
+        <v>4.703</v>
       </c>
       <c r="F3">
-        <v>4.364</v>
+        <v>4.413</v>
       </c>
       <c r="G3">
-        <v>4.263</v>
+        <v>4.326</v>
       </c>
       <c r="H3">
-        <v>4.13</v>
+        <v>4.158</v>
       </c>
       <c r="I3">
-        <v>4.287</v>
+        <v>4.283</v>
       </c>
       <c r="J3">
-        <v>4.609</v>
+        <v>4.595</v>
       </c>
       <c r="K3">
-        <v>4.735</v>
+        <v>4.713</v>
       </c>
       <c r="L3">
-        <v>4.768</v>
+        <v>4.744</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3098,37 +3086,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.526</v>
+        <v>5.389</v>
       </c>
       <c r="C4">
-        <v>5.588</v>
+        <v>5.42</v>
       </c>
       <c r="D4">
-        <v>5.043</v>
+        <v>5.076</v>
       </c>
       <c r="E4">
-        <v>5.075</v>
+        <v>4.908</v>
       </c>
       <c r="F4">
-        <v>4.777</v>
+        <v>4.621</v>
       </c>
       <c r="G4">
-        <v>4.66</v>
+        <v>4.517</v>
       </c>
       <c r="H4">
-        <v>4.346</v>
+        <v>4.319</v>
       </c>
       <c r="I4">
-        <v>4.424</v>
+        <v>4.447</v>
       </c>
       <c r="J4">
-        <v>4.658</v>
+        <v>4.75</v>
       </c>
       <c r="K4">
-        <v>4.714</v>
+        <v>4.843</v>
       </c>
       <c r="L4">
-        <v>4.699</v>
+        <v>4.903</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3136,37 +3124,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.251</v>
+        <v>3.452</v>
       </c>
       <c r="C5">
-        <v>3.837</v>
+        <v>4.044</v>
       </c>
       <c r="D5">
-        <v>3.23</v>
+        <v>3.319</v>
       </c>
       <c r="E5">
-        <v>3.312</v>
+        <v>3.637</v>
       </c>
       <c r="F5">
-        <v>3.228</v>
+        <v>3.573</v>
       </c>
       <c r="G5">
-        <v>3.262</v>
+        <v>3.658</v>
       </c>
       <c r="H5">
-        <v>3.287</v>
+        <v>3.685</v>
       </c>
       <c r="I5">
-        <v>3.147</v>
+        <v>3.633</v>
       </c>
       <c r="J5">
-        <v>3.527</v>
+        <v>3.94</v>
       </c>
       <c r="K5">
-        <v>3.536</v>
+        <v>3.997</v>
       </c>
       <c r="L5">
-        <v>3.494</v>
+        <v>3.912</v>
       </c>
     </row>
   </sheetData>
@@ -3225,37 +3213,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.231</v>
+        <v>-0.155</v>
       </c>
       <c r="C2">
-        <v>-0.145</v>
+        <v>-0.159</v>
       </c>
       <c r="D2">
-        <v>-0.059</v>
+        <v>-0.032</v>
       </c>
       <c r="E2">
-        <v>0.066</v>
+        <v>0.081</v>
       </c>
       <c r="F2">
-        <v>0.137</v>
+        <v>0.111</v>
       </c>
       <c r="G2">
-        <v>0.355</v>
+        <v>0.303</v>
       </c>
       <c r="H2">
-        <v>0.522</v>
+        <v>0.442</v>
       </c>
       <c r="I2">
-        <v>0.771</v>
+        <v>0.696</v>
       </c>
       <c r="J2">
-        <v>1.261</v>
+        <v>1.125</v>
       </c>
       <c r="K2">
-        <v>1.496</v>
+        <v>1.429</v>
       </c>
       <c r="L2">
-        <v>1.682</v>
+        <v>1.648</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3263,37 +3251,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-0.199</v>
+        <v>-0.231</v>
       </c>
       <c r="C3">
-        <v>-0.162</v>
+        <v>-0.145</v>
       </c>
       <c r="D3">
-        <v>-0.01</v>
+        <v>-0.059</v>
       </c>
       <c r="E3">
-        <v>0.144</v>
+        <v>0.066</v>
       </c>
       <c r="F3">
-        <v>0.234</v>
+        <v>0.137</v>
       </c>
       <c r="G3">
-        <v>0.451</v>
+        <v>0.355</v>
       </c>
       <c r="H3">
-        <v>0.671</v>
+        <v>0.522</v>
       </c>
       <c r="I3">
-        <v>0.916</v>
+        <v>0.771</v>
       </c>
       <c r="J3">
-        <v>1.453</v>
+        <v>1.261</v>
       </c>
       <c r="K3">
-        <v>1.691</v>
+        <v>1.496</v>
       </c>
       <c r="L3">
-        <v>1.867</v>
+        <v>1.682</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3301,37 +3289,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.147</v>
+        <v>-0.231</v>
       </c>
       <c r="C4">
-        <v>-0.159</v>
+        <v>-0.152</v>
       </c>
       <c r="D4">
-        <v>-0.092</v>
+        <v>-0.044</v>
       </c>
       <c r="E4">
-        <v>0.007</v>
+        <v>0.051</v>
       </c>
       <c r="F4">
-        <v>0.051</v>
+        <v>0.131</v>
       </c>
       <c r="G4">
-        <v>0.217</v>
+        <v>0.32</v>
       </c>
       <c r="H4">
-        <v>0.4</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="I4">
-        <v>0.647</v>
+        <v>0.771</v>
       </c>
       <c r="J4">
-        <v>1.089</v>
+        <v>1.244</v>
       </c>
       <c r="K4">
-        <v>1.397</v>
+        <v>1.491</v>
       </c>
       <c r="L4">
-        <v>1.666</v>
+        <v>1.741</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3342,34 +3330,34 @@
         <v>-0.16</v>
       </c>
       <c r="C5">
-        <v>-0.109</v>
+        <v>-0.108</v>
       </c>
       <c r="D5">
-        <v>-0.093</v>
+        <v>-0.038</v>
       </c>
       <c r="E5">
-        <v>-0.024</v>
+        <v>0.011</v>
       </c>
       <c r="F5">
-        <v>-0.006</v>
+        <v>0.036</v>
       </c>
       <c r="G5">
-        <v>0.108</v>
+        <v>0.205</v>
       </c>
       <c r="H5">
-        <v>0.204</v>
+        <v>0.402</v>
       </c>
       <c r="I5">
-        <v>0.255</v>
+        <v>0.382</v>
       </c>
       <c r="J5">
-        <v>0.821</v>
+        <v>0.989</v>
       </c>
       <c r="K5">
-        <v>1.108</v>
+        <v>1.222</v>
       </c>
       <c r="L5">
-        <v>1.501</v>
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -7,77 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Turkey" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>6M</t>
-  </si>
-  <si>
-    <t>1Y</t>
-  </si>
-  <si>
-    <t>2Y</t>
-  </si>
-  <si>
-    <t>3Y</t>
-  </si>
-  <si>
-    <t>5Y</t>
-  </si>
-  <si>
-    <t>7Y</t>
-  </si>
-  <si>
-    <t>10Y</t>
-  </si>
-  <si>
-    <t>15Y</t>
-  </si>
-  <si>
-    <t>20Y</t>
-  </si>
-  <si>
-    <t>30Y</t>
-  </si>
-  <si>
-    <t>Today</t>
-  </si>
-  <si>
-    <t>1Month Ago</t>
-  </si>
-  <si>
-    <t>3Months Ago</t>
-  </si>
-  <si>
-    <t>1Year Ago</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,7 +32,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -101,30 +40,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,83 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>31.31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>30.18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>29.69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>10.42</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -7,16 +7,93 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Canada" sheetId="1" r:id="rId1"/>
+    <sheet name="India" sheetId="2" r:id="rId2"/>
+    <sheet name="France" sheetId="3" r:id="rId3"/>
+    <sheet name="Germany" sheetId="4" r:id="rId4"/>
+    <sheet name="Poland" sheetId="5" r:id="rId5"/>
+    <sheet name="Brazil" sheetId="6" r:id="rId6"/>
+    <sheet name="Portugal" sheetId="7" r:id="rId7"/>
+    <sheet name="UK" sheetId="8" r:id="rId8"/>
+    <sheet name="Japan" sheetId="9" r:id="rId9"/>
+    <sheet name="US" sheetId="10" r:id="rId10"/>
+    <sheet name="Russia" sheetId="11" r:id="rId11"/>
+    <sheet name="Australia" sheetId="12" r:id="rId12"/>
+    <sheet name="Italy" sheetId="13" r:id="rId13"/>
+    <sheet name="Switzerland" sheetId="14" r:id="rId14"/>
+    <sheet name="China" sheetId="15" r:id="rId15"/>
+    <sheet name="South Africa" sheetId="16" r:id="rId16"/>
+    <sheet name="Turkey" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="16">
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>6M</t>
+  </si>
+  <si>
+    <t>1Y</t>
+  </si>
+  <si>
+    <t>2Y</t>
+  </si>
+  <si>
+    <t>3Y</t>
+  </si>
+  <si>
+    <t>5Y</t>
+  </si>
+  <si>
+    <t>7Y</t>
+  </si>
+  <si>
+    <t>10Y</t>
+  </si>
+  <si>
+    <t>15Y</t>
+  </si>
+  <si>
+    <t>20Y</t>
+  </si>
+  <si>
+    <t>30Y</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>1Month Ago</t>
+  </si>
+  <si>
+    <t>3Months Ago</t>
+  </si>
+  <si>
+    <t>1Year Ago</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +117,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +435,2911 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>4.723</v>
+      </c>
+      <c r="C2">
+        <v>4.673</v>
+      </c>
+      <c r="D2">
+        <v>4.418</v>
+      </c>
+      <c r="E2">
+        <v>4.038</v>
+      </c>
+      <c r="F2">
+        <v>3.87</v>
+      </c>
+      <c r="G2">
+        <v>3.547</v>
+      </c>
+      <c r="H2">
+        <v>3.457</v>
+      </c>
+      <c r="I2">
+        <v>3.536</v>
+      </c>
+      <c r="K2">
+        <v>3.524</v>
+      </c>
+      <c r="L2">
+        <v>3.428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>4.65</v>
+      </c>
+      <c r="C3">
+        <v>4.62</v>
+      </c>
+      <c r="D3">
+        <v>4.42</v>
+      </c>
+      <c r="E3">
+        <v>3.981</v>
+      </c>
+      <c r="F3">
+        <v>3.824</v>
+      </c>
+      <c r="G3">
+        <v>3.425</v>
+      </c>
+      <c r="H3">
+        <v>3.35</v>
+      </c>
+      <c r="I3">
+        <v>3.382</v>
+      </c>
+      <c r="K3">
+        <v>3.355</v>
+      </c>
+      <c r="L3">
+        <v>3.265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>4.675</v>
+      </c>
+      <c r="C4">
+        <v>4.59</v>
+      </c>
+      <c r="D4">
+        <v>4.4</v>
+      </c>
+      <c r="E4">
+        <v>3.867</v>
+      </c>
+      <c r="F4">
+        <v>3.727</v>
+      </c>
+      <c r="G4">
+        <v>3.351</v>
+      </c>
+      <c r="H4">
+        <v>3.27</v>
+      </c>
+      <c r="I4">
+        <v>3.328</v>
+      </c>
+      <c r="K4">
+        <v>3.356</v>
+      </c>
+      <c r="L4">
+        <v>3.272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>4.84</v>
+      </c>
+      <c r="C5">
+        <v>4.8</v>
+      </c>
+      <c r="D5">
+        <v>4.69</v>
+      </c>
+      <c r="E5">
+        <v>4.338</v>
+      </c>
+      <c r="F5">
+        <v>4.19</v>
+      </c>
+      <c r="G5">
+        <v>3.823</v>
+      </c>
+      <c r="H5">
+        <v>3.739</v>
+      </c>
+      <c r="I5">
+        <v>3.76</v>
+      </c>
+      <c r="K5">
+        <v>3.736</v>
+      </c>
+      <c r="L5">
+        <v>3.625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>5.363</v>
+      </c>
+      <c r="C2">
+        <v>5.332</v>
+      </c>
+      <c r="D2">
+        <v>5.124</v>
+      </c>
+      <c r="E2">
+        <v>4.749</v>
+      </c>
+      <c r="F2">
+        <v>4.546</v>
+      </c>
+      <c r="G2">
+        <v>4.369</v>
+      </c>
+      <c r="H2">
+        <v>4.369</v>
+      </c>
+      <c r="I2">
+        <v>4.392</v>
+      </c>
+      <c r="L2">
+        <v>4.554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>5.374</v>
+      </c>
+      <c r="C3">
+        <v>5.35</v>
+      </c>
+      <c r="D3">
+        <v>5.113</v>
+      </c>
+      <c r="E3">
+        <v>4.745</v>
+      </c>
+      <c r="F3">
+        <v>4.473</v>
+      </c>
+      <c r="G3">
+        <v>4.276</v>
+      </c>
+      <c r="H3">
+        <v>4.254</v>
+      </c>
+      <c r="I3">
+        <v>4.248</v>
+      </c>
+      <c r="L3">
+        <v>4.377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>5.386</v>
+      </c>
+      <c r="C4">
+        <v>5.342</v>
+      </c>
+      <c r="D4">
+        <v>5.06</v>
+      </c>
+      <c r="E4">
+        <v>4.707</v>
+      </c>
+      <c r="F4">
+        <v>4.442</v>
+      </c>
+      <c r="G4">
+        <v>4.24</v>
+      </c>
+      <c r="H4">
+        <v>4.218</v>
+      </c>
+      <c r="I4">
+        <v>4.221</v>
+      </c>
+      <c r="L4">
+        <v>4.352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>5.4</v>
+      </c>
+      <c r="C5">
+        <v>5.383</v>
+      </c>
+      <c r="D5">
+        <v>5.224</v>
+      </c>
+      <c r="E5">
+        <v>4.975</v>
+      </c>
+      <c r="F5">
+        <v>4.794</v>
+      </c>
+      <c r="G5">
+        <v>4.634</v>
+      </c>
+      <c r="H5">
+        <v>4.635</v>
+      </c>
+      <c r="I5">
+        <v>4.616</v>
+      </c>
+      <c r="L5">
+        <v>4.736</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>18.35</v>
+      </c>
+      <c r="E2">
+        <v>18.09</v>
+      </c>
+      <c r="F2">
+        <v>17.42</v>
+      </c>
+      <c r="G2">
+        <v>15.915</v>
+      </c>
+      <c r="I2">
+        <v>15.115</v>
+      </c>
+      <c r="J2">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>18.35</v>
+      </c>
+      <c r="E3">
+        <v>18.09</v>
+      </c>
+      <c r="F3">
+        <v>17.42</v>
+      </c>
+      <c r="G3">
+        <v>15.915</v>
+      </c>
+      <c r="I3">
+        <v>15.115</v>
+      </c>
+      <c r="J3">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>18.35</v>
+      </c>
+      <c r="E4">
+        <v>18.09</v>
+      </c>
+      <c r="F4">
+        <v>17.42</v>
+      </c>
+      <c r="G4">
+        <v>15.915</v>
+      </c>
+      <c r="I4">
+        <v>15.115</v>
+      </c>
+      <c r="J4">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>16.885</v>
+      </c>
+      <c r="E5">
+        <v>16.81</v>
+      </c>
+      <c r="F5">
+        <v>16.115</v>
+      </c>
+      <c r="G5">
+        <v>14.915</v>
+      </c>
+      <c r="I5">
+        <v>14.17</v>
+      </c>
+      <c r="J5">
+        <v>14.425</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>4.43</v>
+      </c>
+      <c r="E2">
+        <v>4.192</v>
+      </c>
+      <c r="F2">
+        <v>4.114</v>
+      </c>
+      <c r="G2">
+        <v>4.106</v>
+      </c>
+      <c r="H2">
+        <v>4.22</v>
+      </c>
+      <c r="I2">
+        <v>4.351</v>
+      </c>
+      <c r="J2">
+        <v>4.541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>4.327</v>
+      </c>
+      <c r="E3">
+        <v>4.02</v>
+      </c>
+      <c r="F3">
+        <v>3.929</v>
+      </c>
+      <c r="G3">
+        <v>3.933</v>
+      </c>
+      <c r="H3">
+        <v>4.1</v>
+      </c>
+      <c r="I3">
+        <v>4.202</v>
+      </c>
+      <c r="J3">
+        <v>4.447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>4.274</v>
+      </c>
+      <c r="E4">
+        <v>3.925</v>
+      </c>
+      <c r="F4">
+        <v>3.842</v>
+      </c>
+      <c r="G4">
+        <v>3.874</v>
+      </c>
+      <c r="H4">
+        <v>4.011</v>
+      </c>
+      <c r="I4">
+        <v>4.155</v>
+      </c>
+      <c r="J4">
+        <v>4.353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>4.38</v>
+      </c>
+      <c r="E5">
+        <v>4.152</v>
+      </c>
+      <c r="F5">
+        <v>4.095</v>
+      </c>
+      <c r="G5">
+        <v>4.128</v>
+      </c>
+      <c r="H5">
+        <v>4.281</v>
+      </c>
+      <c r="I5">
+        <v>4.421</v>
+      </c>
+      <c r="J5">
+        <v>4.626</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>3.45</v>
+      </c>
+      <c r="C2">
+        <v>3.649</v>
+      </c>
+      <c r="D2">
+        <v>3.534</v>
+      </c>
+      <c r="F2">
+        <v>3.38</v>
+      </c>
+      <c r="G2">
+        <v>3.532</v>
+      </c>
+      <c r="H2">
+        <v>3.709</v>
+      </c>
+      <c r="I2">
+        <v>4.076</v>
+      </c>
+      <c r="J2">
+        <v>4.409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>3.478</v>
+      </c>
+      <c r="C3">
+        <v>3.612</v>
+      </c>
+      <c r="D3">
+        <v>3.508</v>
+      </c>
+      <c r="F3">
+        <v>3.323</v>
+      </c>
+      <c r="G3">
+        <v>3.443</v>
+      </c>
+      <c r="H3">
+        <v>3.586</v>
+      </c>
+      <c r="I3">
+        <v>3.937</v>
+      </c>
+      <c r="J3">
+        <v>4.284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>3.575</v>
+      </c>
+      <c r="C4">
+        <v>3.621</v>
+      </c>
+      <c r="D4">
+        <v>3.531</v>
+      </c>
+      <c r="F4">
+        <v>3.387</v>
+      </c>
+      <c r="G4">
+        <v>3.472</v>
+      </c>
+      <c r="H4">
+        <v>3.6</v>
+      </c>
+      <c r="I4">
+        <v>3.947</v>
+      </c>
+      <c r="J4">
+        <v>4.277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>3.654</v>
+      </c>
+      <c r="C5">
+        <v>3.621</v>
+      </c>
+      <c r="D5">
+        <v>3.593</v>
+      </c>
+      <c r="F5">
+        <v>3.451</v>
+      </c>
+      <c r="G5">
+        <v>3.521</v>
+      </c>
+      <c r="H5">
+        <v>3.654</v>
+      </c>
+      <c r="I5">
+        <v>4.001</v>
+      </c>
+      <c r="J5">
+        <v>4.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1.13</v>
+      </c>
+      <c r="C2">
+        <v>1.04</v>
+      </c>
+      <c r="D2">
+        <v>1.11</v>
+      </c>
+      <c r="E2">
+        <v>0.804</v>
+      </c>
+      <c r="F2">
+        <v>0.658</v>
+      </c>
+      <c r="G2">
+        <v>0.671</v>
+      </c>
+      <c r="H2">
+        <v>0.577</v>
+      </c>
+      <c r="I2">
+        <v>0.542</v>
+      </c>
+      <c r="J2">
+        <v>0.575</v>
+      </c>
+      <c r="K2">
+        <v>0.605</v>
+      </c>
+      <c r="L2">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1.03</v>
+      </c>
+      <c r="C3">
+        <v>1.13</v>
+      </c>
+      <c r="D3">
+        <v>1.15</v>
+      </c>
+      <c r="E3">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.674</v>
+      </c>
+      <c r="G3">
+        <v>0.705</v>
+      </c>
+      <c r="H3">
+        <v>0.652</v>
+      </c>
+      <c r="I3">
+        <v>0.613</v>
+      </c>
+      <c r="J3">
+        <v>0.606</v>
+      </c>
+      <c r="K3">
+        <v>0.607</v>
+      </c>
+      <c r="L3">
+        <v>0.569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1.19</v>
+      </c>
+      <c r="C4">
+        <v>1.26</v>
+      </c>
+      <c r="D4">
+        <v>1.3</v>
+      </c>
+      <c r="E4">
+        <v>0.958</v>
+      </c>
+      <c r="F4">
+        <v>0.944</v>
+      </c>
+      <c r="G4">
+        <v>0.927</v>
+      </c>
+      <c r="H4">
+        <v>0.838</v>
+      </c>
+      <c r="I4">
+        <v>0.787</v>
+      </c>
+      <c r="J4">
+        <v>0.805</v>
+      </c>
+      <c r="K4">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1.28</v>
+      </c>
+      <c r="C5">
+        <v>1.29</v>
+      </c>
+      <c r="D5">
+        <v>1.3</v>
+      </c>
+      <c r="E5">
+        <v>1.082</v>
+      </c>
+      <c r="F5">
+        <v>1.086</v>
+      </c>
+      <c r="G5">
+        <v>1.002</v>
+      </c>
+      <c r="H5">
+        <v>0.929</v>
+      </c>
+      <c r="I5">
+        <v>0.884</v>
+      </c>
+      <c r="J5">
+        <v>0.859</v>
+      </c>
+      <c r="K5">
+        <v>0.839</v>
+      </c>
+      <c r="L5">
+        <v>0.767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>1.525</v>
+      </c>
+      <c r="E2">
+        <v>1.652</v>
+      </c>
+      <c r="F2">
+        <v>1.788</v>
+      </c>
+      <c r="G2">
+        <v>1.963</v>
+      </c>
+      <c r="H2">
+        <v>2.104</v>
+      </c>
+      <c r="I2">
+        <v>2.208</v>
+      </c>
+      <c r="J2">
+        <v>2.316</v>
+      </c>
+      <c r="K2">
+        <v>2.373</v>
+      </c>
+      <c r="L2">
+        <v>2.433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1.492</v>
+      </c>
+      <c r="E3">
+        <v>1.681</v>
+      </c>
+      <c r="F3">
+        <v>1.846</v>
+      </c>
+      <c r="G3">
+        <v>2.001</v>
+      </c>
+      <c r="H3">
+        <v>2.133</v>
+      </c>
+      <c r="I3">
+        <v>2.234</v>
+      </c>
+      <c r="J3">
+        <v>2.297</v>
+      </c>
+      <c r="K3">
+        <v>2.385</v>
+      </c>
+      <c r="L3">
+        <v>2.457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>1.593</v>
+      </c>
+      <c r="E4">
+        <v>1.744</v>
+      </c>
+      <c r="F4">
+        <v>1.906</v>
+      </c>
+      <c r="G4">
+        <v>2.055</v>
+      </c>
+      <c r="H4">
+        <v>2.204</v>
+      </c>
+      <c r="I4">
+        <v>2.302</v>
+      </c>
+      <c r="J4">
+        <v>2.333</v>
+      </c>
+      <c r="K4">
+        <v>2.58</v>
+      </c>
+      <c r="L4">
+        <v>2.531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>1.661</v>
+      </c>
+      <c r="E5">
+        <v>1.809</v>
+      </c>
+      <c r="F5">
+        <v>1.948</v>
+      </c>
+      <c r="G5">
+        <v>2.083</v>
+      </c>
+      <c r="H5">
+        <v>2.239</v>
+      </c>
+      <c r="I5">
+        <v>2.297</v>
+      </c>
+      <c r="J5">
+        <v>2.347</v>
+      </c>
+      <c r="K5">
+        <v>2.593</v>
+      </c>
+      <c r="L5">
+        <v>2.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G2">
+        <v>8.942</v>
+      </c>
+      <c r="I2">
+        <v>10.214</v>
+      </c>
+      <c r="K2">
+        <v>12.395</v>
+      </c>
+      <c r="L2">
+        <v>12.365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G3">
+        <v>8.9</v>
+      </c>
+      <c r="I3">
+        <v>10.078</v>
+      </c>
+      <c r="K3">
+        <v>12.231</v>
+      </c>
+      <c r="L3">
+        <v>12.192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G4">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="I4">
+        <v>10.425</v>
+      </c>
+      <c r="K4">
+        <v>12.767</v>
+      </c>
+      <c r="L4">
+        <v>12.727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>9.443</v>
+      </c>
+      <c r="I5">
+        <v>10.84</v>
+      </c>
+      <c r="K5">
+        <v>13.054</v>
+      </c>
+      <c r="L5">
+        <v>13.024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>43.112</v>
+      </c>
+      <c r="C2">
+        <v>41.538</v>
+      </c>
+      <c r="E2">
+        <v>41.68</v>
+      </c>
+      <c r="F2">
+        <v>30.615</v>
+      </c>
+      <c r="G2">
+        <v>31.78</v>
+      </c>
+      <c r="I2">
+        <v>28.365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>42.685</v>
+      </c>
+      <c r="C3">
+        <v>42.361</v>
+      </c>
+      <c r="E3">
+        <v>38.9</v>
+      </c>
+      <c r="F3">
+        <v>29.8</v>
+      </c>
+      <c r="G3">
+        <v>32.67</v>
+      </c>
+      <c r="I3">
+        <v>26.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>42.458</v>
+      </c>
+      <c r="C4">
+        <v>44.534</v>
+      </c>
+      <c r="E4">
+        <v>38.9</v>
+      </c>
+      <c r="F4">
+        <v>29.54</v>
+      </c>
+      <c r="G4">
+        <v>30.12</v>
+      </c>
+      <c r="I4">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>41.97</v>
+      </c>
+      <c r="C5">
+        <v>43.728</v>
+      </c>
+      <c r="E5">
+        <v>38.01</v>
+      </c>
+      <c r="F5">
+        <v>29.89</v>
+      </c>
+      <c r="G5">
+        <v>29.72</v>
+      </c>
+      <c r="I5">
+        <v>26.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>6.82</v>
+      </c>
+      <c r="C2">
+        <v>6.92</v>
+      </c>
+      <c r="D2">
+        <v>6.936</v>
+      </c>
+      <c r="E2">
+        <v>6.949</v>
+      </c>
+      <c r="F2">
+        <v>6.977</v>
+      </c>
+      <c r="G2">
+        <v>7.026</v>
+      </c>
+      <c r="H2">
+        <v>7.038</v>
+      </c>
+      <c r="I2">
+        <v>7.008</v>
+      </c>
+      <c r="J2">
+        <v>7.032</v>
+      </c>
+      <c r="L2">
+        <v>7.057</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>6.84</v>
+      </c>
+      <c r="C3">
+        <v>6.97</v>
+      </c>
+      <c r="D3">
+        <v>6.963</v>
+      </c>
+      <c r="E3">
+        <v>6.946</v>
+      </c>
+      <c r="F3">
+        <v>6.971</v>
+      </c>
+      <c r="G3">
+        <v>7.01</v>
+      </c>
+      <c r="H3">
+        <v>7.027</v>
+      </c>
+      <c r="I3">
+        <v>6.983</v>
+      </c>
+      <c r="J3">
+        <v>7.013</v>
+      </c>
+      <c r="L3">
+        <v>7.043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>6.88</v>
+      </c>
+      <c r="C4">
+        <v>7.02</v>
+      </c>
+      <c r="D4">
+        <v>7.012</v>
+      </c>
+      <c r="E4">
+        <v>6.987</v>
+      </c>
+      <c r="F4">
+        <v>7.012</v>
+      </c>
+      <c r="G4">
+        <v>7.029</v>
+      </c>
+      <c r="H4">
+        <v>7.063</v>
+      </c>
+      <c r="I4">
+        <v>7.012</v>
+      </c>
+      <c r="J4">
+        <v>7.033</v>
+      </c>
+      <c r="L4">
+        <v>7.121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>6.9</v>
+      </c>
+      <c r="C5">
+        <v>7.03</v>
+      </c>
+      <c r="D5">
+        <v>7.033</v>
+      </c>
+      <c r="E5">
+        <v>7.013</v>
+      </c>
+      <c r="F5">
+        <v>7.041</v>
+      </c>
+      <c r="G5">
+        <v>7.059</v>
+      </c>
+      <c r="H5">
+        <v>7.012</v>
+      </c>
+      <c r="I5">
+        <v>7.008</v>
+      </c>
+      <c r="J5">
+        <v>7.056</v>
+      </c>
+      <c r="L5">
+        <v>7.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>3.73</v>
+      </c>
+      <c r="C2">
+        <v>3.639</v>
+      </c>
+      <c r="D2">
+        <v>3.492</v>
+      </c>
+      <c r="E2">
+        <v>3.142</v>
+      </c>
+      <c r="F2">
+        <v>3.048</v>
+      </c>
+      <c r="G2">
+        <v>3.023</v>
+      </c>
+      <c r="H2">
+        <v>3.062</v>
+      </c>
+      <c r="I2">
+        <v>3.288</v>
+      </c>
+      <c r="J2">
+        <v>3.46</v>
+      </c>
+      <c r="K2">
+        <v>3.566</v>
+      </c>
+      <c r="L2">
+        <v>3.737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>3.69</v>
+      </c>
+      <c r="C3">
+        <v>3.642</v>
+      </c>
+      <c r="D3">
+        <v>3.444</v>
+      </c>
+      <c r="E3">
+        <v>3.096</v>
+      </c>
+      <c r="F3">
+        <v>2.975</v>
+      </c>
+      <c r="G3">
+        <v>2.919</v>
+      </c>
+      <c r="H3">
+        <v>2.9425</v>
+      </c>
+      <c r="I3">
+        <v>3.124</v>
+      </c>
+      <c r="J3">
+        <v>3.339</v>
+      </c>
+      <c r="K3">
+        <v>3.441</v>
+      </c>
+      <c r="L3">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>3.679</v>
+      </c>
+      <c r="C4">
+        <v>3.626</v>
+      </c>
+      <c r="D4">
+        <v>3.481</v>
+      </c>
+      <c r="E4">
+        <v>3.088</v>
+      </c>
+      <c r="F4">
+        <v>3.006</v>
+      </c>
+      <c r="G4">
+        <v>2.953</v>
+      </c>
+      <c r="H4">
+        <v>2.9949</v>
+      </c>
+      <c r="I4">
+        <v>3.184</v>
+      </c>
+      <c r="J4">
+        <v>3.39</v>
+      </c>
+      <c r="K4">
+        <v>3.481</v>
+      </c>
+      <c r="L4">
+        <v>3.635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>3.715</v>
+      </c>
+      <c r="C5">
+        <v>3.679</v>
+      </c>
+      <c r="D5">
+        <v>3.526</v>
+      </c>
+      <c r="E5">
+        <v>3.203</v>
+      </c>
+      <c r="F5">
+        <v>3.061</v>
+      </c>
+      <c r="G5">
+        <v>2.999</v>
+      </c>
+      <c r="H5">
+        <v>3.0113</v>
+      </c>
+      <c r="I5">
+        <v>3.178</v>
+      </c>
+      <c r="J5">
+        <v>3.372</v>
+      </c>
+      <c r="K5">
+        <v>3.468</v>
+      </c>
+      <c r="L5">
+        <v>3.628</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>3.384</v>
+      </c>
+      <c r="C2">
+        <v>3.376</v>
+      </c>
+      <c r="D2">
+        <v>3.235</v>
+      </c>
+      <c r="E2">
+        <v>2.825</v>
+      </c>
+      <c r="F2">
+        <v>2.614</v>
+      </c>
+      <c r="G2">
+        <v>2.47</v>
+      </c>
+      <c r="H2">
+        <v>2.384</v>
+      </c>
+      <c r="I2">
+        <v>2.485</v>
+      </c>
+      <c r="J2">
+        <v>2.709</v>
+      </c>
+      <c r="K2">
+        <v>2.707</v>
+      </c>
+      <c r="L2">
+        <v>2.674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>3.401</v>
+      </c>
+      <c r="C3">
+        <v>3.394</v>
+      </c>
+      <c r="D3">
+        <v>3.231</v>
+      </c>
+      <c r="E3">
+        <v>2.81</v>
+      </c>
+      <c r="F3">
+        <v>2.587</v>
+      </c>
+      <c r="G3">
+        <v>2.428</v>
+      </c>
+      <c r="H3">
+        <v>2.329</v>
+      </c>
+      <c r="I3">
+        <v>2.411</v>
+      </c>
+      <c r="J3">
+        <v>2.633</v>
+      </c>
+      <c r="K3">
+        <v>2.631</v>
+      </c>
+      <c r="L3">
+        <v>2.596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>3.58</v>
+      </c>
+      <c r="C4">
+        <v>3.512</v>
+      </c>
+      <c r="D4">
+        <v>3.349</v>
+      </c>
+      <c r="E4">
+        <v>2.896</v>
+      </c>
+      <c r="F4">
+        <v>2.685</v>
+      </c>
+      <c r="G4">
+        <v>2.508</v>
+      </c>
+      <c r="H4">
+        <v>2.413</v>
+      </c>
+      <c r="I4">
+        <v>2.493</v>
+      </c>
+      <c r="J4">
+        <v>2.7</v>
+      </c>
+      <c r="K4">
+        <v>2.698</v>
+      </c>
+      <c r="L4">
+        <v>2.661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>3.608</v>
+      </c>
+      <c r="C5">
+        <v>3.578</v>
+      </c>
+      <c r="D5">
+        <v>3.434</v>
+      </c>
+      <c r="E5">
+        <v>3.103</v>
+      </c>
+      <c r="F5">
+        <v>2.886</v>
+      </c>
+      <c r="G5">
+        <v>2.715</v>
+      </c>
+      <c r="H5">
+        <v>2.614</v>
+      </c>
+      <c r="I5">
+        <v>2.683</v>
+      </c>
+      <c r="J5">
+        <v>2.875</v>
+      </c>
+      <c r="K5">
+        <v>2.871</v>
+      </c>
+      <c r="L5">
+        <v>2.809</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>4.973</v>
+      </c>
+      <c r="E2">
+        <v>5.123</v>
+      </c>
+      <c r="F2">
+        <v>5.295</v>
+      </c>
+      <c r="G2">
+        <v>5.492</v>
+      </c>
+      <c r="I2">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>5.008</v>
+      </c>
+      <c r="E3">
+        <v>5.148</v>
+      </c>
+      <c r="F3">
+        <v>5.307</v>
+      </c>
+      <c r="G3">
+        <v>5.541</v>
+      </c>
+      <c r="I3">
+        <v>5.675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>4.836</v>
+      </c>
+      <c r="E4">
+        <v>5.197</v>
+      </c>
+      <c r="F4">
+        <v>5.371</v>
+      </c>
+      <c r="G4">
+        <v>5.581</v>
+      </c>
+      <c r="I4">
+        <v>5.721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>5.053</v>
+      </c>
+      <c r="E5">
+        <v>5.328</v>
+      </c>
+      <c r="F5">
+        <v>5.451</v>
+      </c>
+      <c r="G5">
+        <v>5.648</v>
+      </c>
+      <c r="I5">
+        <v>5.761</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>11.137</v>
+      </c>
+      <c r="E2">
+        <v>11.642</v>
+      </c>
+      <c r="F2">
+        <v>11.875</v>
+      </c>
+      <c r="G2">
+        <v>12.156</v>
+      </c>
+      <c r="I2">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>10.821</v>
+      </c>
+      <c r="E3">
+        <v>11.255</v>
+      </c>
+      <c r="F3">
+        <v>11.49</v>
+      </c>
+      <c r="G3">
+        <v>11.839</v>
+      </c>
+      <c r="I3">
+        <v>12.045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>10.957</v>
+      </c>
+      <c r="E4">
+        <v>11.355</v>
+      </c>
+      <c r="F4">
+        <v>11.515</v>
+      </c>
+      <c r="G4">
+        <v>11.945</v>
+      </c>
+      <c r="I4">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>10.651</v>
+      </c>
+      <c r="E5">
+        <v>10.915</v>
+      </c>
+      <c r="F5">
+        <v>11.009</v>
+      </c>
+      <c r="G5">
+        <v>11.493</v>
+      </c>
+      <c r="I5">
+        <v>11.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>2.953</v>
+      </c>
+      <c r="F2">
+        <v>2.828</v>
+      </c>
+      <c r="G2">
+        <v>2.818</v>
+      </c>
+      <c r="H2">
+        <v>2.871</v>
+      </c>
+      <c r="I2">
+        <v>3.239</v>
+      </c>
+      <c r="J2">
+        <v>3.505</v>
+      </c>
+      <c r="L2">
+        <v>3.573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>2.958</v>
+      </c>
+      <c r="F3">
+        <v>2.831</v>
+      </c>
+      <c r="G3">
+        <v>2.752</v>
+      </c>
+      <c r="H3">
+        <v>2.797</v>
+      </c>
+      <c r="I3">
+        <v>3.138</v>
+      </c>
+      <c r="J3">
+        <v>3.38</v>
+      </c>
+      <c r="L3">
+        <v>3.484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>2.992</v>
+      </c>
+      <c r="F4">
+        <v>2.842</v>
+      </c>
+      <c r="G4">
+        <v>2.776</v>
+      </c>
+      <c r="H4">
+        <v>2.838</v>
+      </c>
+      <c r="I4">
+        <v>3.19</v>
+      </c>
+      <c r="J4">
+        <v>3.444</v>
+      </c>
+      <c r="L4">
+        <v>3.516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>3.111</v>
+      </c>
+      <c r="F5">
+        <v>2.989</v>
+      </c>
+      <c r="G5">
+        <v>2.914</v>
+      </c>
+      <c r="H5">
+        <v>2.951</v>
+      </c>
+      <c r="I5">
+        <v>3.295</v>
+      </c>
+      <c r="J5">
+        <v>3.508</v>
+      </c>
+      <c r="L5">
+        <v>3.599</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>5.292</v>
+      </c>
+      <c r="C2">
+        <v>5.196</v>
+      </c>
+      <c r="D2">
+        <v>4.7275</v>
+      </c>
+      <c r="E2">
+        <v>4.2535</v>
+      </c>
+      <c r="F2">
+        <v>4.1625</v>
+      </c>
+      <c r="G2">
+        <v>4.0645</v>
+      </c>
+      <c r="H2">
+        <v>4.023</v>
+      </c>
+      <c r="I2">
+        <v>4.2125</v>
+      </c>
+      <c r="J2">
+        <v>4.4905</v>
+      </c>
+      <c r="K2">
+        <v>4.67</v>
+      </c>
+      <c r="L2">
+        <v>4.719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>5.234</v>
+      </c>
+      <c r="C3">
+        <v>5.173</v>
+      </c>
+      <c r="D3">
+        <v>4.639</v>
+      </c>
+      <c r="E3">
+        <v>4.212</v>
+      </c>
+      <c r="F3">
+        <v>4.06</v>
+      </c>
+      <c r="G3">
+        <v>3.959</v>
+      </c>
+      <c r="H3">
+        <v>3.934</v>
+      </c>
+      <c r="I3">
+        <v>4.079</v>
+      </c>
+      <c r="J3">
+        <v>4.357</v>
+      </c>
+      <c r="K3">
+        <v>4.531</v>
+      </c>
+      <c r="L3">
+        <v>4.583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>5.272</v>
+      </c>
+      <c r="C4">
+        <v>5.282</v>
+      </c>
+      <c r="D4">
+        <v>4.675</v>
+      </c>
+      <c r="E4">
+        <v>4.214</v>
+      </c>
+      <c r="F4">
+        <v>4.099</v>
+      </c>
+      <c r="G4">
+        <v>4.003</v>
+      </c>
+      <c r="H4">
+        <v>3.977</v>
+      </c>
+      <c r="I4">
+        <v>4.124</v>
+      </c>
+      <c r="J4">
+        <v>4.388</v>
+      </c>
+      <c r="K4">
+        <v>4.559</v>
+      </c>
+      <c r="L4">
+        <v>4.617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>5.283</v>
+      </c>
+      <c r="C5">
+        <v>5.272</v>
+      </c>
+      <c r="D5">
+        <v>4.897</v>
+      </c>
+      <c r="E5">
+        <v>4.571</v>
+      </c>
+      <c r="F5">
+        <v>4.418</v>
+      </c>
+      <c r="G5">
+        <v>4.302</v>
+      </c>
+      <c r="H5">
+        <v>4.267</v>
+      </c>
+      <c r="I5">
+        <v>4.409</v>
+      </c>
+      <c r="J5">
+        <v>4.663</v>
+      </c>
+      <c r="K5">
+        <v>4.821</v>
+      </c>
+      <c r="L5">
+        <v>4.867</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.022</v>
+      </c>
+      <c r="C2">
+        <v>-0.003</v>
+      </c>
+      <c r="D2">
+        <v>0.192</v>
+      </c>
+      <c r="E2">
+        <v>0.352</v>
+      </c>
+      <c r="F2">
+        <v>0.404</v>
+      </c>
+      <c r="G2">
+        <v>0.581</v>
+      </c>
+      <c r="H2">
+        <v>0.79</v>
+      </c>
+      <c r="I2">
+        <v>1.034</v>
+      </c>
+      <c r="J2">
+        <v>1.699</v>
+      </c>
+      <c r="K2">
+        <v>1.844</v>
+      </c>
+      <c r="L2">
+        <v>2.236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0.03</v>
+      </c>
+      <c r="C3">
+        <v>-0.005</v>
+      </c>
+      <c r="D3">
+        <v>0.168</v>
+      </c>
+      <c r="E3">
+        <v>0.301</v>
+      </c>
+      <c r="F3">
+        <v>0.371</v>
+      </c>
+      <c r="G3">
+        <v>0.544</v>
+      </c>
+      <c r="H3">
+        <v>0.725</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1.663</v>
+      </c>
+      <c r="K3">
+        <v>1.844</v>
+      </c>
+      <c r="L3">
+        <v>2.195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>-0.039</v>
+      </c>
+      <c r="C4">
+        <v>0.029</v>
+      </c>
+      <c r="D4">
+        <v>0.151</v>
+      </c>
+      <c r="E4">
+        <v>0.291</v>
+      </c>
+      <c r="F4">
+        <v>0.339</v>
+      </c>
+      <c r="G4">
+        <v>0.508</v>
+      </c>
+      <c r="H4">
+        <v>0.62</v>
+      </c>
+      <c r="I4">
+        <v>0.923</v>
+      </c>
+      <c r="J4">
+        <v>1.418</v>
+      </c>
+      <c r="K4">
+        <v>1.727</v>
+      </c>
+      <c r="L4">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.033</v>
+      </c>
+      <c r="C5">
+        <v>0.082</v>
+      </c>
+      <c r="D5">
+        <v>0.209</v>
+      </c>
+      <c r="E5">
+        <v>0.376</v>
+      </c>
+      <c r="F5">
+        <v>0.454</v>
+      </c>
+      <c r="G5">
+        <v>0.634</v>
+      </c>
+      <c r="H5">
+        <v>0.786</v>
+      </c>
+      <c r="I5">
+        <v>1.08</v>
+      </c>
+      <c r="J5">
+        <v>1.67</v>
+      </c>
+      <c r="K5">
+        <v>1.886</v>
+      </c>
+      <c r="L5">
+        <v>2.222</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -484,34 +484,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>4.723</v>
+        <v>4.63</v>
       </c>
       <c r="C2">
-        <v>4.673</v>
+        <v>4.6</v>
       </c>
       <c r="D2">
-        <v>4.418</v>
+        <v>4.39</v>
       </c>
       <c r="E2">
-        <v>4.038</v>
+        <v>3.941</v>
       </c>
       <c r="F2">
-        <v>3.87</v>
+        <v>3.775</v>
       </c>
       <c r="G2">
-        <v>3.547</v>
+        <v>3.493</v>
       </c>
       <c r="H2">
-        <v>3.457</v>
+        <v>3.41</v>
       </c>
       <c r="I2">
-        <v>3.536</v>
+        <v>3.499</v>
       </c>
       <c r="K2">
-        <v>3.524</v>
+        <v>3.515</v>
       </c>
       <c r="L2">
-        <v>3.428</v>
+        <v>3.432</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -522,31 +522,31 @@
         <v>4.65</v>
       </c>
       <c r="C3">
-        <v>4.62</v>
+        <v>4.635</v>
       </c>
       <c r="D3">
-        <v>4.42</v>
+        <v>4.49</v>
       </c>
       <c r="E3">
-        <v>3.981</v>
+        <v>4.053</v>
       </c>
       <c r="F3">
-        <v>3.824</v>
+        <v>3.9</v>
       </c>
       <c r="G3">
-        <v>3.425</v>
+        <v>3.603</v>
       </c>
       <c r="H3">
-        <v>3.35</v>
+        <v>3.528</v>
       </c>
       <c r="I3">
-        <v>3.382</v>
+        <v>3.609</v>
       </c>
       <c r="K3">
-        <v>3.355</v>
+        <v>3.594</v>
       </c>
       <c r="L3">
-        <v>3.265</v>
+        <v>3.502</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -554,34 +554,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.675</v>
+        <v>4.627</v>
       </c>
       <c r="C4">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="D4">
-        <v>4.4</v>
+        <v>4.38</v>
       </c>
       <c r="E4">
-        <v>3.867</v>
+        <v>3.863</v>
       </c>
       <c r="F4">
-        <v>3.727</v>
+        <v>3.717</v>
       </c>
       <c r="G4">
-        <v>3.351</v>
+        <v>3.325</v>
       </c>
       <c r="H4">
-        <v>3.27</v>
+        <v>3.242</v>
       </c>
       <c r="I4">
-        <v>3.328</v>
+        <v>3.295</v>
       </c>
       <c r="K4">
-        <v>3.356</v>
+        <v>3.315</v>
       </c>
       <c r="L4">
-        <v>3.272</v>
+        <v>3.191</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -589,34 +589,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4.84</v>
+        <v>4.65</v>
       </c>
       <c r="C5">
-        <v>4.8</v>
+        <v>4.58</v>
       </c>
       <c r="D5">
-        <v>4.69</v>
+        <v>4.45</v>
       </c>
       <c r="E5">
-        <v>4.338</v>
+        <v>3.937</v>
       </c>
       <c r="F5">
-        <v>4.19</v>
+        <v>3.807</v>
       </c>
       <c r="G5">
-        <v>3.823</v>
+        <v>3.428</v>
       </c>
       <c r="H5">
-        <v>3.739</v>
+        <v>3.345</v>
       </c>
       <c r="I5">
-        <v>3.76</v>
+        <v>3.394</v>
       </c>
       <c r="K5">
-        <v>3.736</v>
+        <v>3.421</v>
       </c>
       <c r="L5">
-        <v>3.625</v>
+        <v>3.318</v>
       </c>
     </row>
   </sheetData>
@@ -675,31 +675,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.363</v>
+        <v>5.385</v>
       </c>
       <c r="C2">
-        <v>5.332</v>
+        <v>5.289</v>
       </c>
       <c r="D2">
-        <v>5.124</v>
+        <v>5.009</v>
       </c>
       <c r="E2">
-        <v>4.749</v>
+        <v>4.606</v>
       </c>
       <c r="F2">
-        <v>4.546</v>
+        <v>4.398</v>
       </c>
       <c r="G2">
-        <v>4.369</v>
+        <v>4.227</v>
       </c>
       <c r="H2">
-        <v>4.369</v>
+        <v>4.23</v>
       </c>
       <c r="I2">
-        <v>4.392</v>
+        <v>4.278</v>
       </c>
       <c r="L2">
-        <v>4.554</v>
+        <v>4.476</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -707,31 +707,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.374</v>
+        <v>5.383</v>
       </c>
       <c r="C3">
-        <v>5.35</v>
+        <v>5.315</v>
       </c>
       <c r="D3">
-        <v>5.113</v>
+        <v>5.09</v>
       </c>
       <c r="E3">
-        <v>4.745</v>
+        <v>4.752</v>
       </c>
       <c r="F3">
-        <v>4.473</v>
+        <v>4.558</v>
       </c>
       <c r="G3">
-        <v>4.276</v>
+        <v>4.398</v>
       </c>
       <c r="H3">
-        <v>4.254</v>
+        <v>4.406</v>
       </c>
       <c r="I3">
-        <v>4.248</v>
+        <v>4.438</v>
       </c>
       <c r="L3">
-        <v>4.377</v>
+        <v>4.607</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -739,31 +739,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.386</v>
+        <v>5.365</v>
       </c>
       <c r="C4">
-        <v>5.342</v>
+        <v>5.355</v>
       </c>
       <c r="D4">
-        <v>5.06</v>
+        <v>5.111</v>
       </c>
       <c r="E4">
-        <v>4.707</v>
+        <v>4.734</v>
       </c>
       <c r="F4">
-        <v>4.442</v>
+        <v>4.466</v>
       </c>
       <c r="G4">
-        <v>4.24</v>
+        <v>4.273</v>
       </c>
       <c r="H4">
-        <v>4.218</v>
+        <v>4.257</v>
       </c>
       <c r="I4">
-        <v>4.221</v>
+        <v>4.257</v>
       </c>
       <c r="L4">
-        <v>4.352</v>
+        <v>4.396</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -771,31 +771,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.4</v>
+        <v>5.383</v>
       </c>
       <c r="C5">
-        <v>5.383</v>
+        <v>5.344</v>
       </c>
       <c r="D5">
-        <v>5.224</v>
+        <v>5.097</v>
       </c>
       <c r="E5">
-        <v>4.975</v>
+        <v>4.726</v>
       </c>
       <c r="F5">
-        <v>4.794</v>
+        <v>4.506</v>
       </c>
       <c r="G5">
-        <v>4.634</v>
+        <v>4.298</v>
       </c>
       <c r="H5">
-        <v>4.635</v>
+        <v>4.289</v>
       </c>
       <c r="I5">
-        <v>4.616</v>
+        <v>4.287</v>
       </c>
       <c r="L5">
-        <v>4.736</v>
+        <v>4.435</v>
       </c>
     </row>
   </sheetData>
@@ -923,22 +923,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>16.885</v>
+        <v>16.745</v>
       </c>
       <c r="E5">
-        <v>16.81</v>
+        <v>16.28</v>
       </c>
       <c r="F5">
-        <v>16.115</v>
+        <v>15.275</v>
       </c>
       <c r="G5">
-        <v>14.915</v>
+        <v>14.38</v>
       </c>
       <c r="I5">
-        <v>14.17</v>
+        <v>14.88</v>
       </c>
       <c r="J5">
-        <v>14.425</v>
+        <v>14.08</v>
       </c>
     </row>
   </sheetData>
@@ -997,25 +997,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.43</v>
+        <v>4.452</v>
       </c>
       <c r="E2">
-        <v>4.192</v>
+        <v>4.243</v>
       </c>
       <c r="F2">
-        <v>4.114</v>
+        <v>4.16</v>
       </c>
       <c r="G2">
-        <v>4.106</v>
+        <v>4.16</v>
       </c>
       <c r="H2">
-        <v>4.22</v>
+        <v>4.279</v>
       </c>
       <c r="I2">
-        <v>4.351</v>
+        <v>4.409</v>
       </c>
       <c r="J2">
-        <v>4.541</v>
+        <v>4.613</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.327</v>
+        <v>4.445</v>
       </c>
       <c r="E3">
-        <v>4.02</v>
+        <v>4.232</v>
       </c>
       <c r="F3">
-        <v>3.929</v>
+        <v>4.158</v>
       </c>
       <c r="G3">
-        <v>3.933</v>
+        <v>4.16</v>
       </c>
       <c r="H3">
-        <v>4.1</v>
+        <v>4.289</v>
       </c>
       <c r="I3">
-        <v>4.202</v>
+        <v>4.43</v>
       </c>
       <c r="J3">
-        <v>4.447</v>
+        <v>4.637</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1049,25 +1049,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.274</v>
+        <v>4.338</v>
       </c>
       <c r="E4">
-        <v>3.925</v>
+        <v>4.03</v>
       </c>
       <c r="F4">
-        <v>3.842</v>
+        <v>3.939</v>
       </c>
       <c r="G4">
-        <v>3.874</v>
+        <v>3.963</v>
       </c>
       <c r="H4">
-        <v>4.011</v>
+        <v>4.088</v>
       </c>
       <c r="I4">
-        <v>4.155</v>
+        <v>4.226</v>
       </c>
       <c r="J4">
-        <v>4.353</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1075,25 +1075,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>4.38</v>
+        <v>4.288</v>
       </c>
       <c r="E5">
-        <v>4.152</v>
+        <v>3.981</v>
       </c>
       <c r="F5">
-        <v>4.095</v>
+        <v>3.903</v>
       </c>
       <c r="G5">
-        <v>4.128</v>
+        <v>3.936</v>
       </c>
       <c r="H5">
-        <v>4.281</v>
+        <v>4.073</v>
       </c>
       <c r="I5">
-        <v>4.421</v>
+        <v>4.206</v>
       </c>
       <c r="J5">
-        <v>4.626</v>
+        <v>4.397</v>
       </c>
     </row>
   </sheetData>
@@ -1152,28 +1152,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.45</v>
+        <v>3.479</v>
       </c>
       <c r="C2">
-        <v>3.649</v>
+        <v>3.595</v>
       </c>
       <c r="D2">
-        <v>3.534</v>
+        <v>3.489</v>
+      </c>
+      <c r="E2">
+        <v>3.488</v>
       </c>
       <c r="F2">
-        <v>3.38</v>
+        <v>3.292</v>
       </c>
       <c r="G2">
-        <v>3.532</v>
+        <v>3.422</v>
       </c>
       <c r="H2">
-        <v>3.709</v>
+        <v>3.582</v>
       </c>
       <c r="I2">
-        <v>4.076</v>
+        <v>3.94</v>
       </c>
       <c r="J2">
-        <v>4.409</v>
+        <v>4.294</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1181,28 +1184,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.478</v>
+        <v>3.465</v>
       </c>
       <c r="C3">
-        <v>3.612</v>
+        <v>3.606</v>
       </c>
       <c r="D3">
-        <v>3.508</v>
+        <v>3.557</v>
+      </c>
+      <c r="E3">
+        <v>3.552</v>
       </c>
       <c r="F3">
-        <v>3.323</v>
+        <v>3.381</v>
       </c>
       <c r="G3">
-        <v>3.443</v>
+        <v>3.529</v>
       </c>
       <c r="H3">
-        <v>3.586</v>
+        <v>3.701</v>
       </c>
       <c r="I3">
-        <v>3.937</v>
+        <v>4.076</v>
       </c>
       <c r="J3">
-        <v>4.284</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1210,28 +1216,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.575</v>
+        <v>3.474</v>
       </c>
       <c r="C4">
-        <v>3.621</v>
+        <v>3.567</v>
       </c>
       <c r="D4">
-        <v>3.531</v>
+        <v>3.537</v>
+      </c>
+      <c r="E4">
+        <v>3.567</v>
       </c>
       <c r="F4">
-        <v>3.387</v>
+        <v>3.352</v>
       </c>
       <c r="G4">
-        <v>3.472</v>
+        <v>3.454</v>
       </c>
       <c r="H4">
-        <v>3.6</v>
+        <v>3.599</v>
       </c>
       <c r="I4">
-        <v>3.947</v>
+        <v>3.942</v>
       </c>
       <c r="J4">
-        <v>4.277</v>
+        <v>4.267</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1239,28 +1248,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.654</v>
+        <v>3.59</v>
       </c>
       <c r="C5">
-        <v>3.621</v>
+        <v>3.606</v>
       </c>
       <c r="D5">
-        <v>3.593</v>
+        <v>3.616</v>
+      </c>
+      <c r="E5">
+        <v>3.546</v>
       </c>
       <c r="F5">
-        <v>3.451</v>
+        <v>3.351</v>
       </c>
       <c r="G5">
-        <v>3.521</v>
+        <v>3.42</v>
       </c>
       <c r="H5">
-        <v>3.654</v>
+        <v>3.527</v>
       </c>
       <c r="I5">
-        <v>4.001</v>
+        <v>3.864</v>
       </c>
       <c r="J5">
-        <v>4.31</v>
+        <v>4.184</v>
       </c>
     </row>
   </sheetData>
@@ -1319,37 +1331,37 @@
         <v>12</v>
       </c>
       <c r="B2">
+        <v>1.15</v>
+      </c>
+      <c r="C2">
         <v>1.13</v>
       </c>
-      <c r="C2">
-        <v>1.04</v>
-      </c>
       <c r="D2">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="E2">
-        <v>0.804</v>
+        <v>0.799</v>
       </c>
       <c r="F2">
-        <v>0.658</v>
+        <v>0.746</v>
       </c>
       <c r="G2">
-        <v>0.671</v>
+        <v>0.733</v>
       </c>
       <c r="H2">
-        <v>0.577</v>
+        <v>0.695</v>
       </c>
       <c r="I2">
-        <v>0.542</v>
+        <v>0.665</v>
       </c>
       <c r="J2">
-        <v>0.575</v>
+        <v>0.67</v>
       </c>
       <c r="K2">
-        <v>0.605</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="L2">
-        <v>0.5600000000000001</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1357,37 +1369,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="C3">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="D3">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="E3">
-        <v>0.8070000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="F3">
-        <v>0.674</v>
+        <v>0.78</v>
       </c>
       <c r="G3">
-        <v>0.705</v>
+        <v>0.783</v>
       </c>
       <c r="H3">
-        <v>0.652</v>
+        <v>0.724</v>
       </c>
       <c r="I3">
-        <v>0.613</v>
+        <v>0.726</v>
       </c>
       <c r="J3">
-        <v>0.606</v>
+        <v>0.716</v>
       </c>
       <c r="K3">
-        <v>0.607</v>
+        <v>0.73</v>
       </c>
       <c r="L3">
-        <v>0.569</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1395,37 +1407,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="C4">
-        <v>1.26</v>
+        <v>1.09</v>
       </c>
       <c r="D4">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="E4">
-        <v>0.958</v>
+        <v>0.866</v>
       </c>
       <c r="F4">
-        <v>0.944</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="G4">
-        <v>0.927</v>
+        <v>0.789</v>
       </c>
       <c r="H4">
-        <v>0.838</v>
+        <v>0.695</v>
       </c>
       <c r="I4">
-        <v>0.787</v>
+        <v>0.659</v>
       </c>
       <c r="J4">
-        <v>0.805</v>
+        <v>0.672</v>
       </c>
       <c r="K4">
-        <v>0.8070000000000001</v>
+        <v>0.664</v>
       </c>
       <c r="L4">
-        <v>0.766</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1433,37 +1445,37 @@
         <v>15</v>
       </c>
       <c r="B5">
+        <v>1.21</v>
+      </c>
+      <c r="C5">
+        <v>1.3</v>
+      </c>
+      <c r="D5">
         <v>1.28</v>
       </c>
-      <c r="C5">
-        <v>1.29</v>
-      </c>
-      <c r="D5">
-        <v>1.3</v>
-      </c>
       <c r="E5">
-        <v>1.082</v>
+        <v>1.054</v>
       </c>
       <c r="F5">
-        <v>1.086</v>
+        <v>1.022</v>
       </c>
       <c r="G5">
-        <v>1.002</v>
+        <v>0.971</v>
       </c>
       <c r="H5">
-        <v>0.929</v>
+        <v>0.913</v>
       </c>
       <c r="I5">
-        <v>0.884</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J5">
-        <v>0.859</v>
+        <v>0.829</v>
       </c>
       <c r="K5">
-        <v>0.839</v>
+        <v>0.821</v>
       </c>
       <c r="L5">
-        <v>0.767</v>
+        <v>0.771</v>
       </c>
     </row>
   </sheetData>
@@ -1522,31 +1534,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1.525</v>
+        <v>1.515</v>
       </c>
       <c r="E2">
-        <v>1.652</v>
+        <v>1.631</v>
       </c>
       <c r="F2">
-        <v>1.788</v>
+        <v>1.795</v>
       </c>
       <c r="G2">
-        <v>1.963</v>
+        <v>1.98</v>
       </c>
       <c r="H2">
-        <v>2.104</v>
+        <v>2.122</v>
       </c>
       <c r="I2">
-        <v>2.208</v>
+        <v>2.266</v>
       </c>
       <c r="J2">
-        <v>2.316</v>
+        <v>2.283</v>
       </c>
       <c r="K2">
-        <v>2.373</v>
+        <v>2.45</v>
       </c>
       <c r="L2">
-        <v>2.433</v>
+        <v>2.513</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1554,31 +1566,31 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>1.492</v>
+        <v>1.538</v>
       </c>
       <c r="E3">
-        <v>1.681</v>
+        <v>1.638</v>
       </c>
       <c r="F3">
-        <v>1.846</v>
+        <v>1.778</v>
       </c>
       <c r="G3">
-        <v>2.001</v>
+        <v>1.972</v>
       </c>
       <c r="H3">
-        <v>2.133</v>
+        <v>2.111</v>
       </c>
       <c r="I3">
-        <v>2.234</v>
+        <v>2.239</v>
       </c>
       <c r="J3">
-        <v>2.297</v>
+        <v>2.34</v>
       </c>
       <c r="K3">
-        <v>2.385</v>
+        <v>2.418</v>
       </c>
       <c r="L3">
-        <v>2.457</v>
+        <v>2.483</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1586,31 +1598,31 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>1.593</v>
+        <v>1.595</v>
       </c>
       <c r="E4">
-        <v>1.744</v>
+        <v>1.711</v>
       </c>
       <c r="F4">
-        <v>1.906</v>
+        <v>1.869</v>
       </c>
       <c r="G4">
-        <v>2.055</v>
+        <v>2.018</v>
       </c>
       <c r="H4">
-        <v>2.204</v>
+        <v>2.154</v>
       </c>
       <c r="I4">
-        <v>2.302</v>
+        <v>2.244</v>
       </c>
       <c r="J4">
-        <v>2.333</v>
+        <v>2.323</v>
       </c>
       <c r="K4">
-        <v>2.58</v>
+        <v>2.384</v>
       </c>
       <c r="L4">
-        <v>2.531</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1618,31 +1630,31 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1.661</v>
+        <v>1.594</v>
       </c>
       <c r="E5">
-        <v>1.809</v>
+        <v>1.756</v>
       </c>
       <c r="F5">
-        <v>1.948</v>
+        <v>1.892</v>
       </c>
       <c r="G5">
-        <v>2.083</v>
+        <v>2.055</v>
       </c>
       <c r="H5">
-        <v>2.239</v>
+        <v>2.205</v>
       </c>
       <c r="I5">
-        <v>2.297</v>
+        <v>2.307</v>
       </c>
       <c r="J5">
-        <v>2.347</v>
+        <v>2.339</v>
       </c>
       <c r="K5">
-        <v>2.593</v>
+        <v>2.58</v>
       </c>
       <c r="L5">
-        <v>2.56</v>
+        <v>2.559</v>
       </c>
     </row>
   </sheetData>
@@ -1701,19 +1713,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8.199999999999999</v>
+        <v>8.15</v>
       </c>
       <c r="G2">
-        <v>8.942</v>
+        <v>8.795999999999999</v>
       </c>
       <c r="I2">
-        <v>10.214</v>
+        <v>9.978</v>
       </c>
       <c r="K2">
-        <v>12.395</v>
+        <v>12.046</v>
       </c>
       <c r="L2">
-        <v>12.365</v>
+        <v>12.028</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1721,19 +1733,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="G3">
-        <v>8.9</v>
+        <v>8.930999999999999</v>
       </c>
       <c r="I3">
-        <v>10.078</v>
+        <v>10.178</v>
       </c>
       <c r="K3">
-        <v>12.231</v>
+        <v>12.321</v>
       </c>
       <c r="L3">
-        <v>12.192</v>
+        <v>12.296</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1741,19 +1753,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8.300000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="G4">
-        <v>9.130000000000001</v>
+        <v>8.779</v>
       </c>
       <c r="I4">
-        <v>10.425</v>
+        <v>10.005</v>
       </c>
       <c r="K4">
-        <v>12.767</v>
+        <v>12.295</v>
       </c>
       <c r="L4">
-        <v>12.727</v>
+        <v>12.266</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1761,19 +1773,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>8.35</v>
       </c>
       <c r="G5">
-        <v>9.443</v>
+        <v>9.438000000000001</v>
       </c>
       <c r="I5">
-        <v>10.84</v>
+        <v>10.909</v>
       </c>
       <c r="K5">
-        <v>13.054</v>
+        <v>13.33</v>
       </c>
       <c r="L5">
-        <v>13.024</v>
+        <v>13.285</v>
       </c>
     </row>
   </sheetData>
@@ -1832,22 +1844,22 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>43.112</v>
+        <v>48.964</v>
       </c>
       <c r="C2">
-        <v>41.538</v>
+        <v>47.373</v>
       </c>
       <c r="E2">
-        <v>41.68</v>
+        <v>36.49</v>
       </c>
       <c r="F2">
-        <v>30.615</v>
+        <v>27.01</v>
       </c>
       <c r="G2">
-        <v>31.78</v>
+        <v>28.62</v>
       </c>
       <c r="I2">
-        <v>28.365</v>
+        <v>25.67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1855,22 +1867,22 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>42.685</v>
+        <v>48.967</v>
       </c>
       <c r="C3">
-        <v>42.361</v>
+        <v>47.376</v>
       </c>
       <c r="E3">
-        <v>38.9</v>
+        <v>36.05</v>
       </c>
       <c r="F3">
-        <v>29.8</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>32.67</v>
+        <v>28.39</v>
       </c>
       <c r="I3">
-        <v>26.98</v>
+        <v>25.53</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1878,22 +1890,22 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>42.458</v>
+        <v>43.112</v>
       </c>
       <c r="C4">
-        <v>44.534</v>
+        <v>41.538</v>
       </c>
       <c r="E4">
-        <v>38.9</v>
+        <v>38</v>
       </c>
       <c r="F4">
-        <v>29.54</v>
+        <v>28.57</v>
       </c>
       <c r="G4">
-        <v>30.12</v>
+        <v>29.52</v>
       </c>
       <c r="I4">
-        <v>26.37</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1901,22 +1913,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>41.97</v>
+        <v>42.892</v>
       </c>
       <c r="C5">
-        <v>43.728</v>
+        <v>44.333</v>
       </c>
       <c r="E5">
-        <v>38.01</v>
+        <v>38.24</v>
       </c>
       <c r="F5">
-        <v>29.89</v>
+        <v>29.27</v>
       </c>
       <c r="G5">
-        <v>29.72</v>
+        <v>29.65</v>
       </c>
       <c r="I5">
-        <v>26.19</v>
+        <v>26.07</v>
       </c>
     </row>
   </sheetData>
@@ -1975,34 +1987,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.82</v>
+        <v>6.78</v>
       </c>
       <c r="C2">
         <v>6.92</v>
       </c>
       <c r="D2">
-        <v>6.936</v>
+        <v>6.919</v>
       </c>
       <c r="E2">
         <v>6.949</v>
       </c>
       <c r="F2">
-        <v>6.977</v>
+        <v>6.955</v>
       </c>
       <c r="G2">
-        <v>7.026</v>
+        <v>6.994</v>
       </c>
       <c r="H2">
-        <v>7.038</v>
+        <v>7.006</v>
       </c>
       <c r="I2">
-        <v>7.008</v>
+        <v>6.993</v>
       </c>
       <c r="J2">
-        <v>7.032</v>
+        <v>7.031</v>
       </c>
       <c r="L2">
-        <v>7.057</v>
+        <v>7.075</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2010,34 +2022,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.84</v>
+        <v>6.82</v>
       </c>
       <c r="C3">
-        <v>6.97</v>
+        <v>6.91</v>
       </c>
       <c r="D3">
-        <v>6.963</v>
+        <v>6.956</v>
       </c>
       <c r="E3">
-        <v>6.946</v>
+        <v>6.942</v>
       </c>
       <c r="F3">
-        <v>6.971</v>
+        <v>6.969</v>
       </c>
       <c r="G3">
-        <v>7.01</v>
+        <v>7.029</v>
       </c>
       <c r="H3">
-        <v>7.027</v>
+        <v>7.012</v>
       </c>
       <c r="I3">
-        <v>6.983</v>
+        <v>7.009</v>
       </c>
       <c r="J3">
-        <v>7.013</v>
+        <v>7.031</v>
       </c>
       <c r="L3">
-        <v>7.043</v>
+        <v>7.059</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2045,34 +2057,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.88</v>
+        <v>6.83</v>
       </c>
       <c r="C4">
-        <v>7.02</v>
+        <v>6.98</v>
       </c>
       <c r="D4">
-        <v>7.012</v>
+        <v>6.945</v>
       </c>
       <c r="E4">
-        <v>6.987</v>
+        <v>6.949</v>
       </c>
       <c r="F4">
-        <v>7.012</v>
+        <v>6.972</v>
       </c>
       <c r="G4">
-        <v>7.029</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>7.063</v>
+        <v>7.032</v>
       </c>
       <c r="I4">
-        <v>7.012</v>
+        <v>6.976</v>
       </c>
       <c r="J4">
-        <v>7.033</v>
+        <v>7.014</v>
       </c>
       <c r="L4">
-        <v>7.121</v>
+        <v>7.048</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2080,34 +2092,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.9</v>
+        <v>6.88</v>
       </c>
       <c r="C5">
-        <v>7.03</v>
+        <v>7.04</v>
       </c>
       <c r="D5">
-        <v>7.033</v>
+        <v>7.001</v>
       </c>
       <c r="E5">
-        <v>7.013</v>
+        <v>7.015</v>
       </c>
       <c r="F5">
+        <v>7.037</v>
+      </c>
+      <c r="G5">
+        <v>7.039</v>
+      </c>
+      <c r="H5">
+        <v>7.067</v>
+      </c>
+      <c r="I5">
+        <v>7.015</v>
+      </c>
+      <c r="J5">
         <v>7.041</v>
       </c>
-      <c r="G5">
-        <v>7.059</v>
-      </c>
-      <c r="H5">
-        <v>7.012</v>
-      </c>
-      <c r="I5">
-        <v>7.008</v>
-      </c>
-      <c r="J5">
-        <v>7.056</v>
-      </c>
       <c r="L5">
-        <v>7.144</v>
+        <v>7.135</v>
       </c>
     </row>
   </sheetData>
@@ -2166,37 +2178,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.73</v>
+        <v>3.704</v>
       </c>
       <c r="C2">
-        <v>3.639</v>
+        <v>3.62</v>
       </c>
       <c r="D2">
-        <v>3.492</v>
+        <v>3.464</v>
       </c>
       <c r="E2">
-        <v>3.142</v>
+        <v>3.095</v>
       </c>
       <c r="F2">
-        <v>3.048</v>
+        <v>2.996</v>
       </c>
       <c r="G2">
-        <v>3.023</v>
+        <v>2.958</v>
       </c>
       <c r="H2">
-        <v>3.062</v>
+        <v>2.9861</v>
       </c>
       <c r="I2">
-        <v>3.288</v>
+        <v>3.212</v>
       </c>
       <c r="J2">
-        <v>3.46</v>
+        <v>3.377</v>
       </c>
       <c r="K2">
-        <v>3.566</v>
+        <v>3.478</v>
       </c>
       <c r="L2">
-        <v>3.737</v>
+        <v>3.655</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2204,37 +2216,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.69</v>
+        <v>3.719</v>
       </c>
       <c r="C3">
-        <v>3.642</v>
+        <v>3.636</v>
       </c>
       <c r="D3">
-        <v>3.444</v>
+        <v>3.483</v>
       </c>
       <c r="E3">
-        <v>3.096</v>
+        <v>3.163</v>
       </c>
       <c r="F3">
-        <v>2.975</v>
+        <v>3.063</v>
       </c>
       <c r="G3">
-        <v>2.919</v>
+        <v>3.046</v>
       </c>
       <c r="H3">
-        <v>2.9425</v>
+        <v>3.0909</v>
       </c>
       <c r="I3">
-        <v>3.124</v>
+        <v>3.32</v>
       </c>
       <c r="J3">
-        <v>3.339</v>
+        <v>3.501</v>
       </c>
       <c r="K3">
-        <v>3.441</v>
+        <v>3.603</v>
       </c>
       <c r="L3">
-        <v>3.61</v>
+        <v>3.784</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2242,37 +2254,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.679</v>
+        <v>3.699</v>
       </c>
       <c r="C4">
-        <v>3.626</v>
+        <v>3.647</v>
       </c>
       <c r="D4">
-        <v>3.481</v>
+        <v>3.468</v>
       </c>
       <c r="E4">
-        <v>3.088</v>
+        <v>3.118</v>
       </c>
       <c r="F4">
-        <v>3.006</v>
+        <v>3.016</v>
       </c>
       <c r="G4">
-        <v>2.953</v>
+        <v>2.95</v>
       </c>
       <c r="H4">
-        <v>2.9949</v>
+        <v>2.983</v>
       </c>
       <c r="I4">
-        <v>3.184</v>
+        <v>3.157</v>
       </c>
       <c r="J4">
-        <v>3.39</v>
+        <v>3.367</v>
       </c>
       <c r="K4">
-        <v>3.481</v>
+        <v>3.46</v>
       </c>
       <c r="L4">
-        <v>3.635</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2280,37 +2292,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.715</v>
+        <v>3.688</v>
       </c>
       <c r="C5">
-        <v>3.679</v>
+        <v>3.641</v>
       </c>
       <c r="D5">
-        <v>3.526</v>
+        <v>3.491</v>
       </c>
       <c r="E5">
-        <v>3.203</v>
+        <v>3.128</v>
       </c>
       <c r="F5">
-        <v>3.061</v>
+        <v>2.981</v>
       </c>
       <c r="G5">
-        <v>2.999</v>
+        <v>2.892</v>
       </c>
       <c r="H5">
-        <v>3.0113</v>
+        <v>2.8933</v>
       </c>
       <c r="I5">
-        <v>3.178</v>
+        <v>3.041</v>
       </c>
       <c r="J5">
-        <v>3.372</v>
+        <v>3.227</v>
       </c>
       <c r="K5">
-        <v>3.468</v>
+        <v>3.321</v>
       </c>
       <c r="L5">
-        <v>3.628</v>
+        <v>3.48</v>
       </c>
     </row>
   </sheetData>
@@ -2369,37 +2381,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.384</v>
+        <v>3.401</v>
       </c>
       <c r="C2">
-        <v>3.376</v>
+        <v>3.409</v>
       </c>
       <c r="D2">
-        <v>3.235</v>
+        <v>3.266</v>
       </c>
       <c r="E2">
-        <v>2.825</v>
+        <v>2.893</v>
       </c>
       <c r="F2">
-        <v>2.614</v>
+        <v>2.687</v>
       </c>
       <c r="G2">
-        <v>2.47</v>
+        <v>2.532</v>
       </c>
       <c r="H2">
-        <v>2.384</v>
+        <v>2.44</v>
       </c>
       <c r="I2">
-        <v>2.485</v>
+        <v>2.532</v>
       </c>
       <c r="J2">
-        <v>2.709</v>
+        <v>2.751</v>
       </c>
       <c r="K2">
-        <v>2.707</v>
+        <v>2.747</v>
       </c>
       <c r="L2">
-        <v>2.674</v>
+        <v>2.718</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2407,37 +2419,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.401</v>
+        <v>3.396</v>
       </c>
       <c r="C3">
-        <v>3.394</v>
+        <v>3.416</v>
       </c>
       <c r="D3">
-        <v>3.231</v>
+        <v>3.271</v>
       </c>
       <c r="E3">
-        <v>2.81</v>
+        <v>2.912</v>
       </c>
       <c r="F3">
-        <v>2.587</v>
+        <v>2.717</v>
       </c>
       <c r="G3">
-        <v>2.428</v>
+        <v>2.586</v>
       </c>
       <c r="H3">
-        <v>2.329</v>
+        <v>2.504</v>
       </c>
       <c r="I3">
-        <v>2.411</v>
+        <v>2.609</v>
       </c>
       <c r="J3">
-        <v>2.633</v>
+        <v>2.837</v>
       </c>
       <c r="K3">
-        <v>2.631</v>
+        <v>2.837</v>
       </c>
       <c r="L3">
-        <v>2.596</v>
+        <v>2.809</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2445,37 +2457,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.58</v>
+        <v>3.372</v>
       </c>
       <c r="C4">
-        <v>3.512</v>
+        <v>3.361</v>
       </c>
       <c r="D4">
-        <v>3.349</v>
+        <v>3.234</v>
       </c>
       <c r="E4">
-        <v>2.896</v>
+        <v>2.823</v>
       </c>
       <c r="F4">
-        <v>2.685</v>
+        <v>2.615</v>
       </c>
       <c r="G4">
-        <v>2.508</v>
+        <v>2.442</v>
       </c>
       <c r="H4">
-        <v>2.413</v>
+        <v>2.341</v>
       </c>
       <c r="I4">
-        <v>2.493</v>
+        <v>2.423</v>
       </c>
       <c r="J4">
-        <v>2.7</v>
+        <v>2.629</v>
       </c>
       <c r="K4">
-        <v>2.698</v>
+        <v>2.626</v>
       </c>
       <c r="L4">
-        <v>2.661</v>
+        <v>2.586</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2483,37 +2495,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.608</v>
+        <v>3.567</v>
       </c>
       <c r="C5">
-        <v>3.578</v>
+        <v>3.557</v>
       </c>
       <c r="D5">
-        <v>3.434</v>
+        <v>3.386</v>
       </c>
       <c r="E5">
-        <v>3.103</v>
+        <v>3.011</v>
       </c>
       <c r="F5">
-        <v>2.886</v>
+        <v>2.795</v>
       </c>
       <c r="G5">
-        <v>2.715</v>
+        <v>2.598</v>
       </c>
       <c r="H5">
-        <v>2.614</v>
+        <v>2.488</v>
       </c>
       <c r="I5">
-        <v>2.683</v>
+        <v>2.541</v>
       </c>
       <c r="J5">
-        <v>2.875</v>
+        <v>2.728</v>
       </c>
       <c r="K5">
-        <v>2.871</v>
+        <v>2.724</v>
       </c>
       <c r="L5">
-        <v>2.809</v>
+        <v>2.67</v>
       </c>
     </row>
   </sheetData>
@@ -2572,19 +2584,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.973</v>
+        <v>4.855</v>
       </c>
       <c r="E2">
-        <v>5.123</v>
+        <v>5.291</v>
       </c>
       <c r="F2">
-        <v>5.295</v>
+        <v>5.47</v>
       </c>
       <c r="G2">
-        <v>5.492</v>
+        <v>5.699</v>
       </c>
       <c r="I2">
-        <v>5.65</v>
+        <v>5.777</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2592,19 +2604,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>5.008</v>
+        <v>4.962</v>
       </c>
       <c r="E3">
-        <v>5.148</v>
+        <v>5.173</v>
       </c>
       <c r="F3">
-        <v>5.307</v>
+        <v>5.375</v>
       </c>
       <c r="G3">
-        <v>5.541</v>
+        <v>5.611</v>
       </c>
       <c r="I3">
-        <v>5.675</v>
+        <v>5.746</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2612,19 +2624,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.836</v>
+        <v>4.973</v>
       </c>
       <c r="E4">
-        <v>5.197</v>
+        <v>5.211</v>
       </c>
       <c r="F4">
-        <v>5.371</v>
+        <v>5.367</v>
       </c>
       <c r="G4">
-        <v>5.581</v>
+        <v>5.637</v>
       </c>
       <c r="I4">
-        <v>5.721</v>
+        <v>5.799</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2632,19 +2644,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>5.053</v>
+        <v>4.988</v>
       </c>
       <c r="E5">
-        <v>5.328</v>
+        <v>5.21</v>
       </c>
       <c r="F5">
-        <v>5.451</v>
+        <v>5.304</v>
       </c>
       <c r="G5">
-        <v>5.648</v>
+        <v>5.494</v>
       </c>
       <c r="I5">
-        <v>5.761</v>
+        <v>5.649</v>
       </c>
     </row>
   </sheetData>
@@ -2703,19 +2715,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>11.137</v>
+        <v>10.905</v>
       </c>
       <c r="E2">
-        <v>11.642</v>
+        <v>11.394</v>
       </c>
       <c r="F2">
-        <v>11.875</v>
+        <v>11.484</v>
       </c>
       <c r="G2">
-        <v>12.156</v>
+        <v>11.817</v>
       </c>
       <c r="I2">
-        <v>12.33</v>
+        <v>11.938</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2723,19 +2735,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>10.821</v>
+        <v>11.266</v>
       </c>
       <c r="E3">
-        <v>11.255</v>
+        <v>11.93</v>
       </c>
       <c r="F3">
-        <v>11.49</v>
+        <v>12.115</v>
       </c>
       <c r="G3">
-        <v>11.839</v>
+        <v>12.34</v>
       </c>
       <c r="I3">
-        <v>12.045</v>
+        <v>12.515</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2743,19 +2755,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>10.957</v>
+        <v>10.881</v>
       </c>
       <c r="E4">
         <v>11.355</v>
       </c>
       <c r="F4">
-        <v>11.515</v>
+        <v>11.59</v>
       </c>
       <c r="G4">
-        <v>11.945</v>
+        <v>11.965</v>
       </c>
       <c r="I4">
-        <v>12.15</v>
+        <v>12.115</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2763,19 +2775,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>10.651</v>
+        <v>10.625</v>
       </c>
       <c r="E5">
-        <v>10.915</v>
+        <v>11.007</v>
       </c>
       <c r="F5">
-        <v>11.009</v>
+        <v>11.14</v>
       </c>
       <c r="G5">
-        <v>11.493</v>
+        <v>11.54</v>
       </c>
       <c r="I5">
-        <v>11.84</v>
+        <v>11.78</v>
       </c>
     </row>
   </sheetData>
@@ -2834,25 +2846,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>2.953</v>
+        <v>2.998</v>
       </c>
       <c r="F2">
-        <v>2.828</v>
+        <v>2.854</v>
       </c>
       <c r="G2">
-        <v>2.818</v>
+        <v>2.773</v>
       </c>
       <c r="H2">
-        <v>2.871</v>
+        <v>2.823</v>
       </c>
       <c r="I2">
-        <v>3.239</v>
+        <v>3.16</v>
       </c>
       <c r="J2">
-        <v>3.505</v>
+        <v>3.411</v>
       </c>
       <c r="L2">
-        <v>3.573</v>
+        <v>3.497</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2860,25 +2872,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>2.958</v>
+        <v>3.021</v>
       </c>
       <c r="F3">
-        <v>2.831</v>
+        <v>2.897</v>
       </c>
       <c r="G3">
-        <v>2.752</v>
+        <v>2.849</v>
       </c>
       <c r="H3">
-        <v>2.797</v>
+        <v>2.913</v>
       </c>
       <c r="I3">
-        <v>3.138</v>
+        <v>3.279</v>
       </c>
       <c r="J3">
-        <v>3.38</v>
+        <v>3.514</v>
       </c>
       <c r="L3">
-        <v>3.484</v>
+        <v>3.615</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2886,25 +2898,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>2.992</v>
+        <v>3.01</v>
       </c>
       <c r="F4">
-        <v>2.842</v>
+        <v>2.867</v>
       </c>
       <c r="G4">
-        <v>2.776</v>
+        <v>2.765</v>
       </c>
       <c r="H4">
-        <v>2.838</v>
+        <v>2.82</v>
       </c>
       <c r="I4">
-        <v>3.19</v>
+        <v>3.154</v>
       </c>
       <c r="J4">
-        <v>3.444</v>
+        <v>3.393</v>
       </c>
       <c r="L4">
-        <v>3.516</v>
+        <v>3.472</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2912,25 +2924,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>3.111</v>
+        <v>3.045</v>
       </c>
       <c r="F5">
-        <v>2.989</v>
+        <v>2.889</v>
       </c>
       <c r="G5">
-        <v>2.914</v>
+        <v>2.78</v>
       </c>
       <c r="H5">
-        <v>2.951</v>
+        <v>2.819</v>
       </c>
       <c r="I5">
-        <v>3.295</v>
+        <v>3.155</v>
       </c>
       <c r="J5">
-        <v>3.508</v>
+        <v>3.373</v>
       </c>
       <c r="L5">
-        <v>3.599</v>
+        <v>3.448</v>
       </c>
     </row>
   </sheetData>
@@ -2989,37 +3001,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.292</v>
+        <v>5.203</v>
       </c>
       <c r="C2">
-        <v>5.196</v>
+        <v>5.141</v>
       </c>
       <c r="D2">
-        <v>4.7275</v>
+        <v>4.632</v>
       </c>
       <c r="E2">
-        <v>4.2535</v>
+        <v>4.134</v>
       </c>
       <c r="F2">
-        <v>4.1625</v>
+        <v>4.074</v>
       </c>
       <c r="G2">
-        <v>4.0645</v>
+        <v>3.984</v>
       </c>
       <c r="H2">
-        <v>4.023</v>
+        <v>3.97</v>
       </c>
       <c r="I2">
-        <v>4.2125</v>
+        <v>4.129</v>
       </c>
       <c r="J2">
-        <v>4.4905</v>
+        <v>4.395</v>
       </c>
       <c r="K2">
-        <v>4.67</v>
+        <v>4.571</v>
       </c>
       <c r="L2">
-        <v>4.719</v>
+        <v>4.629</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3027,37 +3039,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.234</v>
+        <v>5.225</v>
       </c>
       <c r="C3">
-        <v>5.173</v>
+        <v>5.179</v>
       </c>
       <c r="D3">
-        <v>4.639</v>
+        <v>4.702</v>
       </c>
       <c r="E3">
-        <v>4.212</v>
+        <v>4.168</v>
       </c>
       <c r="F3">
-        <v>4.06</v>
+        <v>4.169</v>
       </c>
       <c r="G3">
-        <v>3.959</v>
+        <v>4.086</v>
       </c>
       <c r="H3">
-        <v>3.934</v>
+        <v>4.088</v>
       </c>
       <c r="I3">
-        <v>4.079</v>
+        <v>4.253</v>
       </c>
       <c r="J3">
-        <v>4.357</v>
+        <v>4.518</v>
       </c>
       <c r="K3">
-        <v>4.531</v>
+        <v>4.692</v>
       </c>
       <c r="L3">
-        <v>4.583</v>
+        <v>4.751</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3065,37 +3077,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.272</v>
+        <v>5.242</v>
       </c>
       <c r="C4">
-        <v>5.282</v>
+        <v>5.166</v>
       </c>
       <c r="D4">
-        <v>4.675</v>
+        <v>4.628</v>
       </c>
       <c r="E4">
-        <v>4.214</v>
+        <v>4.149</v>
       </c>
       <c r="F4">
-        <v>4.099</v>
+        <v>4.003</v>
       </c>
       <c r="G4">
-        <v>4.003</v>
+        <v>3.906</v>
       </c>
       <c r="H4">
-        <v>3.977</v>
+        <v>3.903</v>
       </c>
       <c r="I4">
-        <v>4.124</v>
+        <v>4.056</v>
       </c>
       <c r="J4">
-        <v>4.388</v>
+        <v>4.341</v>
       </c>
       <c r="K4">
-        <v>4.559</v>
+        <v>4.512</v>
       </c>
       <c r="L4">
-        <v>4.617</v>
+        <v>4.565</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3103,37 +3115,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.283</v>
+        <v>5.267</v>
       </c>
       <c r="C5">
-        <v>5.272</v>
+        <v>5.224</v>
       </c>
       <c r="D5">
-        <v>4.897</v>
+        <v>4.731</v>
       </c>
       <c r="E5">
-        <v>4.571</v>
+        <v>4.318</v>
       </c>
       <c r="F5">
-        <v>4.418</v>
+        <v>4.181</v>
       </c>
       <c r="G5">
-        <v>4.302</v>
+        <v>4.069</v>
       </c>
       <c r="H5">
-        <v>4.267</v>
+        <v>4.032</v>
       </c>
       <c r="I5">
-        <v>4.409</v>
+        <v>4.177</v>
       </c>
       <c r="J5">
-        <v>4.663</v>
+        <v>4.42</v>
       </c>
       <c r="K5">
-        <v>4.821</v>
+        <v>4.574</v>
       </c>
       <c r="L5">
-        <v>4.867</v>
+        <v>4.613</v>
       </c>
     </row>
   </sheetData>
@@ -3192,37 +3204,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.022</v>
+        <v>0.012</v>
       </c>
       <c r="C2">
-        <v>-0.003</v>
+        <v>0.018</v>
       </c>
       <c r="D2">
-        <v>0.192</v>
+        <v>0.159</v>
       </c>
       <c r="E2">
-        <v>0.352</v>
+        <v>0.345</v>
       </c>
       <c r="F2">
-        <v>0.404</v>
+        <v>0.41</v>
       </c>
       <c r="G2">
-        <v>0.581</v>
+        <v>0.58</v>
       </c>
       <c r="H2">
-        <v>0.79</v>
+        <v>0.789</v>
       </c>
       <c r="I2">
-        <v>1.034</v>
+        <v>1.071</v>
       </c>
       <c r="J2">
-        <v>1.699</v>
+        <v>1.741</v>
       </c>
       <c r="K2">
-        <v>1.844</v>
+        <v>1.935</v>
       </c>
       <c r="L2">
-        <v>2.236</v>
+        <v>2.205</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3230,37 +3242,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.03</v>
+        <v>0.019</v>
       </c>
       <c r="C3">
-        <v>-0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="D3">
-        <v>0.168</v>
+        <v>0.19</v>
       </c>
       <c r="E3">
-        <v>0.301</v>
+        <v>0.361</v>
       </c>
       <c r="F3">
-        <v>0.371</v>
+        <v>0.43</v>
       </c>
       <c r="G3">
-        <v>0.544</v>
+        <v>0.604</v>
       </c>
       <c r="H3">
-        <v>0.725</v>
+        <v>0.833</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>1.085</v>
       </c>
       <c r="J3">
-        <v>1.663</v>
+        <v>1.746</v>
       </c>
       <c r="K3">
-        <v>1.844</v>
+        <v>1.921</v>
       </c>
       <c r="L3">
-        <v>2.195</v>
+        <v>2.261</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3268,37 +3280,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.039</v>
+        <v>0.006</v>
       </c>
       <c r="C4">
-        <v>0.029</v>
+        <v>0.008</v>
       </c>
       <c r="D4">
-        <v>0.151</v>
+        <v>0.176</v>
       </c>
       <c r="E4">
-        <v>0.291</v>
+        <v>0.306</v>
       </c>
       <c r="F4">
-        <v>0.339</v>
+        <v>0.375</v>
       </c>
       <c r="G4">
-        <v>0.508</v>
+        <v>0.547</v>
       </c>
       <c r="H4">
-        <v>0.62</v>
+        <v>0.708</v>
       </c>
       <c r="I4">
-        <v>0.923</v>
+        <v>0.98</v>
       </c>
       <c r="J4">
-        <v>1.418</v>
+        <v>1.625</v>
       </c>
       <c r="K4">
-        <v>1.727</v>
+        <v>1.81</v>
       </c>
       <c r="L4">
-        <v>2.06</v>
+        <v>2.101</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3306,37 +3318,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.033</v>
+        <v>0.03</v>
       </c>
       <c r="C5">
-        <v>0.082</v>
+        <v>0.046</v>
       </c>
       <c r="D5">
-        <v>0.209</v>
+        <v>0.172</v>
       </c>
       <c r="E5">
-        <v>0.376</v>
+        <v>0.335</v>
       </c>
       <c r="F5">
-        <v>0.454</v>
+        <v>0.374</v>
       </c>
       <c r="G5">
-        <v>0.634</v>
+        <v>0.543</v>
       </c>
       <c r="H5">
-        <v>0.786</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="I5">
-        <v>1.08</v>
+        <v>0.961</v>
       </c>
       <c r="J5">
-        <v>1.67</v>
+        <v>1.547</v>
       </c>
       <c r="K5">
-        <v>1.886</v>
+        <v>1.762</v>
       </c>
       <c r="L5">
-        <v>2.222</v>
+        <v>2.092</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -484,34 +484,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>4.63</v>
+        <v>4.6</v>
       </c>
       <c r="C2">
-        <v>4.6</v>
+        <v>4.53</v>
       </c>
       <c r="D2">
-        <v>4.39</v>
+        <v>4.33</v>
       </c>
       <c r="E2">
-        <v>3.941</v>
+        <v>3.848</v>
       </c>
       <c r="F2">
-        <v>3.775</v>
+        <v>3.661</v>
       </c>
       <c r="G2">
-        <v>3.493</v>
+        <v>3.38</v>
       </c>
       <c r="H2">
-        <v>3.41</v>
+        <v>3.301</v>
       </c>
       <c r="I2">
-        <v>3.499</v>
+        <v>3.412</v>
       </c>
       <c r="K2">
-        <v>3.515</v>
+        <v>3.439</v>
       </c>
       <c r="L2">
-        <v>3.432</v>
+        <v>3.372</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -519,34 +519,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.65</v>
+        <v>4.63</v>
       </c>
       <c r="C3">
-        <v>4.635</v>
+        <v>4.58</v>
       </c>
       <c r="D3">
-        <v>4.49</v>
+        <v>4.39</v>
       </c>
       <c r="E3">
-        <v>4.053</v>
+        <v>3.93</v>
       </c>
       <c r="F3">
-        <v>3.9</v>
+        <v>3.762</v>
       </c>
       <c r="G3">
-        <v>3.603</v>
+        <v>3.486</v>
       </c>
       <c r="H3">
-        <v>3.528</v>
+        <v>3.403</v>
       </c>
       <c r="I3">
-        <v>3.609</v>
+        <v>3.492</v>
       </c>
       <c r="K3">
-        <v>3.594</v>
+        <v>3.505</v>
       </c>
       <c r="L3">
-        <v>3.502</v>
+        <v>3.422</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -554,34 +554,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.627</v>
+        <v>4.66</v>
       </c>
       <c r="C4">
-        <v>4.56</v>
+        <v>4.63</v>
       </c>
       <c r="D4">
-        <v>4.38</v>
+        <v>4.46</v>
       </c>
       <c r="E4">
-        <v>3.863</v>
+        <v>4.054</v>
       </c>
       <c r="F4">
-        <v>3.717</v>
+        <v>3.895</v>
       </c>
       <c r="G4">
-        <v>3.325</v>
+        <v>3.532</v>
       </c>
       <c r="H4">
-        <v>3.242</v>
+        <v>3.456</v>
       </c>
       <c r="I4">
-        <v>3.295</v>
+        <v>3.49</v>
       </c>
       <c r="K4">
-        <v>3.315</v>
+        <v>3.472</v>
       </c>
       <c r="L4">
-        <v>3.191</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -589,34 +589,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4.65</v>
+        <v>4.67</v>
       </c>
       <c r="C5">
         <v>4.58</v>
       </c>
       <c r="D5">
-        <v>4.45</v>
+        <v>4.37</v>
       </c>
       <c r="E5">
-        <v>3.937</v>
+        <v>3.842</v>
       </c>
       <c r="F5">
-        <v>3.807</v>
+        <v>3.7</v>
       </c>
       <c r="G5">
-        <v>3.428</v>
+        <v>3.316</v>
       </c>
       <c r="H5">
-        <v>3.345</v>
+        <v>3.238</v>
       </c>
       <c r="I5">
-        <v>3.394</v>
+        <v>3.284</v>
       </c>
       <c r="K5">
-        <v>3.421</v>
+        <v>3.311</v>
       </c>
       <c r="L5">
-        <v>3.318</v>
+        <v>3.224</v>
       </c>
     </row>
   </sheetData>
@@ -675,31 +675,22 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.385</v>
+        <v>5.345</v>
       </c>
       <c r="C2">
-        <v>5.289</v>
+        <v>5.193</v>
       </c>
       <c r="D2">
-        <v>5.009</v>
+        <v>4.88</v>
       </c>
       <c r="E2">
-        <v>4.606</v>
+        <v>4.458</v>
       </c>
       <c r="F2">
-        <v>4.398</v>
-      </c>
-      <c r="G2">
-        <v>4.227</v>
-      </c>
-      <c r="H2">
-        <v>4.23</v>
-      </c>
-      <c r="I2">
-        <v>4.278</v>
+        <v>4.231</v>
       </c>
       <c r="L2">
-        <v>4.476</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -707,31 +698,22 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.383</v>
+        <v>5.374</v>
       </c>
       <c r="C3">
-        <v>5.315</v>
+        <v>5.294</v>
       </c>
       <c r="D3">
-        <v>5.09</v>
+        <v>5.04</v>
       </c>
       <c r="E3">
-        <v>4.752</v>
+        <v>4.626</v>
       </c>
       <c r="F3">
-        <v>4.558</v>
-      </c>
-      <c r="G3">
-        <v>4.398</v>
-      </c>
-      <c r="H3">
-        <v>4.406</v>
-      </c>
-      <c r="I3">
-        <v>4.438</v>
+        <v>4.41</v>
       </c>
       <c r="L3">
-        <v>4.607</v>
+        <v>4.489</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -739,31 +721,22 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.365</v>
+        <v>5.363</v>
       </c>
       <c r="C4">
-        <v>5.355</v>
+        <v>5.315</v>
       </c>
       <c r="D4">
-        <v>5.111</v>
+        <v>5.107</v>
       </c>
       <c r="E4">
-        <v>4.734</v>
+        <v>4.749</v>
       </c>
       <c r="F4">
-        <v>4.466</v>
-      </c>
-      <c r="G4">
-        <v>4.273</v>
-      </c>
-      <c r="H4">
-        <v>4.257</v>
-      </c>
-      <c r="I4">
-        <v>4.257</v>
+        <v>4.546</v>
       </c>
       <c r="L4">
-        <v>4.396</v>
+        <v>4.554</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -771,31 +744,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.383</v>
+        <v>5.386</v>
       </c>
       <c r="C5">
-        <v>5.344</v>
+        <v>5.342</v>
       </c>
       <c r="D5">
-        <v>5.097</v>
+        <v>5.06</v>
       </c>
       <c r="E5">
-        <v>4.726</v>
+        <v>4.707</v>
       </c>
       <c r="F5">
-        <v>4.506</v>
-      </c>
-      <c r="G5">
-        <v>4.298</v>
-      </c>
-      <c r="H5">
-        <v>4.289</v>
-      </c>
-      <c r="I5">
-        <v>4.287</v>
+        <v>4.442</v>
       </c>
       <c r="L5">
-        <v>4.435</v>
+        <v>4.352</v>
       </c>
     </row>
   </sheetData>
@@ -923,22 +887,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>16.745</v>
+        <v>16.325</v>
       </c>
       <c r="E5">
-        <v>16.28</v>
+        <v>15.915</v>
       </c>
       <c r="F5">
-        <v>15.275</v>
+        <v>15.015</v>
       </c>
       <c r="G5">
-        <v>14.38</v>
+        <v>14.03</v>
       </c>
       <c r="I5">
-        <v>14.88</v>
+        <v>14.585</v>
       </c>
       <c r="J5">
-        <v>14.08</v>
+        <v>13.885</v>
       </c>
     </row>
   </sheetData>
@@ -997,25 +961,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.452</v>
+        <v>4.448</v>
       </c>
       <c r="E2">
-        <v>4.243</v>
+        <v>4.177</v>
       </c>
       <c r="F2">
-        <v>4.16</v>
+        <v>4.072</v>
       </c>
       <c r="G2">
-        <v>4.16</v>
+        <v>4.077</v>
       </c>
       <c r="H2">
-        <v>4.279</v>
+        <v>4.211</v>
       </c>
       <c r="I2">
-        <v>4.409</v>
+        <v>4.344</v>
       </c>
       <c r="J2">
-        <v>4.613</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1023,25 +987,25 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.445</v>
+        <v>4.448</v>
       </c>
       <c r="E3">
-        <v>4.232</v>
+        <v>4.212</v>
       </c>
       <c r="F3">
-        <v>4.158</v>
+        <v>4.124</v>
       </c>
       <c r="G3">
-        <v>4.16</v>
+        <v>4.118</v>
       </c>
       <c r="H3">
-        <v>4.289</v>
+        <v>4.229</v>
       </c>
       <c r="I3">
-        <v>4.43</v>
+        <v>4.346</v>
       </c>
       <c r="J3">
-        <v>4.637</v>
+        <v>4.557</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1049,25 +1013,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.338</v>
+        <v>4.485</v>
       </c>
       <c r="E4">
-        <v>4.03</v>
+        <v>4.277</v>
       </c>
       <c r="F4">
-        <v>3.939</v>
+        <v>4.183</v>
       </c>
       <c r="G4">
-        <v>3.963</v>
+        <v>4.174</v>
       </c>
       <c r="H4">
-        <v>4.088</v>
+        <v>4.29</v>
       </c>
       <c r="I4">
-        <v>4.226</v>
+        <v>4.411</v>
       </c>
       <c r="J4">
-        <v>4.42</v>
+        <v>4.591</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1075,25 +1039,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>4.288</v>
+        <v>4.274</v>
       </c>
       <c r="E5">
-        <v>3.981</v>
+        <v>3.925</v>
       </c>
       <c r="F5">
-        <v>3.903</v>
+        <v>3.842</v>
       </c>
       <c r="G5">
-        <v>3.936</v>
+        <v>3.874</v>
       </c>
       <c r="H5">
-        <v>4.073</v>
+        <v>4.011</v>
       </c>
       <c r="I5">
-        <v>4.206</v>
+        <v>4.155</v>
       </c>
       <c r="J5">
-        <v>4.397</v>
+        <v>4.353</v>
       </c>
     </row>
   </sheetData>
@@ -1152,31 +1116,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.479</v>
+        <v>3.428</v>
       </c>
       <c r="C2">
-        <v>3.595</v>
+        <v>3.478</v>
       </c>
       <c r="D2">
-        <v>3.489</v>
+        <v>3.412</v>
       </c>
       <c r="E2">
-        <v>3.488</v>
+        <v>3.183</v>
       </c>
       <c r="F2">
-        <v>3.292</v>
+        <v>3.13</v>
       </c>
       <c r="G2">
-        <v>3.422</v>
+        <v>3.269</v>
       </c>
       <c r="H2">
-        <v>3.582</v>
+        <v>3.429</v>
       </c>
       <c r="I2">
-        <v>3.94</v>
+        <v>3.795</v>
       </c>
       <c r="J2">
-        <v>4.294</v>
+        <v>4.148</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1184,31 +1148,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.465</v>
+        <v>3.39</v>
       </c>
       <c r="C3">
-        <v>3.606</v>
+        <v>3.58</v>
       </c>
       <c r="D3">
-        <v>3.557</v>
+        <v>3.512</v>
       </c>
       <c r="E3">
-        <v>3.552</v>
+        <v>3.509</v>
       </c>
       <c r="F3">
-        <v>3.381</v>
+        <v>3.311</v>
       </c>
       <c r="G3">
-        <v>3.529</v>
+        <v>3.437</v>
       </c>
       <c r="H3">
-        <v>3.701</v>
+        <v>3.597</v>
       </c>
       <c r="I3">
-        <v>4.076</v>
+        <v>3.955</v>
       </c>
       <c r="J3">
-        <v>4.42</v>
+        <v>4.308</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1216,31 +1180,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.474</v>
+        <v>3.47</v>
       </c>
       <c r="C4">
-        <v>3.567</v>
+        <v>3.633</v>
       </c>
       <c r="D4">
-        <v>3.537</v>
+        <v>3.515</v>
       </c>
       <c r="E4">
-        <v>3.567</v>
+        <v>3.544</v>
       </c>
       <c r="F4">
-        <v>3.352</v>
+        <v>3.375</v>
       </c>
       <c r="G4">
-        <v>3.454</v>
+        <v>3.514</v>
       </c>
       <c r="H4">
-        <v>3.599</v>
+        <v>3.673</v>
       </c>
       <c r="I4">
-        <v>3.942</v>
+        <v>4.035</v>
       </c>
       <c r="J4">
-        <v>4.267</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1248,31 +1212,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.59</v>
+        <v>3.461</v>
       </c>
       <c r="C5">
-        <v>3.606</v>
+        <v>3.509</v>
       </c>
       <c r="D5">
-        <v>3.616</v>
+        <v>3.542</v>
       </c>
       <c r="E5">
-        <v>3.546</v>
+        <v>3.584</v>
       </c>
       <c r="F5">
-        <v>3.351</v>
+        <v>3.362</v>
       </c>
       <c r="G5">
-        <v>3.42</v>
+        <v>3.441</v>
       </c>
       <c r="H5">
-        <v>3.527</v>
+        <v>3.573</v>
       </c>
       <c r="I5">
-        <v>3.864</v>
+        <v>3.916</v>
       </c>
       <c r="J5">
-        <v>4.184</v>
+        <v>4.228</v>
       </c>
     </row>
   </sheetData>
@@ -1331,37 +1295,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="C2">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="D2">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="E2">
-        <v>0.799</v>
+        <v>0.784</v>
       </c>
       <c r="F2">
-        <v>0.746</v>
+        <v>0.694</v>
       </c>
       <c r="G2">
-        <v>0.733</v>
+        <v>0.716</v>
       </c>
       <c r="H2">
-        <v>0.695</v>
+        <v>0.619</v>
       </c>
       <c r="I2">
-        <v>0.665</v>
+        <v>0.634</v>
       </c>
       <c r="J2">
-        <v>0.67</v>
+        <v>0.647</v>
       </c>
       <c r="K2">
-        <v>0.6830000000000001</v>
+        <v>0.657</v>
       </c>
       <c r="L2">
-        <v>0.636</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1369,7 +1333,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="C3">
         <v>1.06</v>
@@ -1378,28 +1342,28 @@
         <v>1.12</v>
       </c>
       <c r="E3">
-        <v>0.84</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="F3">
-        <v>0.78</v>
+        <v>0.758</v>
       </c>
       <c r="G3">
-        <v>0.783</v>
+        <v>0.733</v>
       </c>
       <c r="H3">
-        <v>0.724</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="I3">
-        <v>0.726</v>
+        <v>0.655</v>
       </c>
       <c r="J3">
-        <v>0.716</v>
+        <v>0.676</v>
       </c>
       <c r="K3">
-        <v>0.73</v>
+        <v>0.676</v>
       </c>
       <c r="L3">
-        <v>0.68</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1407,37 +1371,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="D4">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="E4">
-        <v>0.866</v>
+        <v>0.799</v>
       </c>
       <c r="F4">
-        <v>0.8169999999999999</v>
+        <v>0.718</v>
       </c>
       <c r="G4">
-        <v>0.789</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="H4">
-        <v>0.695</v>
+        <v>0.609</v>
       </c>
       <c r="I4">
-        <v>0.659</v>
+        <v>0.601</v>
       </c>
       <c r="J4">
-        <v>0.672</v>
+        <v>0.602</v>
       </c>
       <c r="K4">
-        <v>0.664</v>
+        <v>0.641</v>
       </c>
       <c r="L4">
-        <v>0.63</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1445,37 +1409,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="C5">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="D5">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="E5">
-        <v>1.054</v>
+        <v>0.911</v>
       </c>
       <c r="F5">
-        <v>1.022</v>
+        <v>0.888</v>
       </c>
       <c r="G5">
-        <v>0.971</v>
+        <v>0.875</v>
       </c>
       <c r="H5">
-        <v>0.913</v>
+        <v>0.773</v>
       </c>
       <c r="I5">
-        <v>0.8100000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="J5">
-        <v>0.829</v>
+        <v>0.735</v>
       </c>
       <c r="K5">
-        <v>0.821</v>
+        <v>0.736</v>
       </c>
       <c r="L5">
-        <v>0.771</v>
+        <v>0.706</v>
       </c>
     </row>
   </sheetData>
@@ -1534,31 +1498,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1.515</v>
+        <v>1.536</v>
       </c>
       <c r="E2">
-        <v>1.631</v>
+        <v>1.618</v>
       </c>
       <c r="F2">
-        <v>1.795</v>
+        <v>1.791</v>
       </c>
       <c r="G2">
-        <v>1.98</v>
+        <v>1.987</v>
       </c>
       <c r="H2">
-        <v>2.122</v>
+        <v>2.142</v>
       </c>
       <c r="I2">
-        <v>2.266</v>
+        <v>2.259</v>
       </c>
       <c r="J2">
-        <v>2.283</v>
+        <v>2.349</v>
       </c>
       <c r="K2">
-        <v>2.45</v>
+        <v>2.441</v>
       </c>
       <c r="L2">
-        <v>2.513</v>
+        <v>2.503</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1566,31 +1530,31 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>1.538</v>
+        <v>1.556</v>
       </c>
       <c r="E3">
-        <v>1.638</v>
+        <v>1.641</v>
       </c>
       <c r="F3">
-        <v>1.778</v>
+        <v>1.833</v>
       </c>
       <c r="G3">
-        <v>1.972</v>
+        <v>2.002</v>
       </c>
       <c r="H3">
-        <v>2.111</v>
+        <v>2.126</v>
       </c>
       <c r="I3">
-        <v>2.239</v>
+        <v>2.273</v>
       </c>
       <c r="J3">
-        <v>2.34</v>
+        <v>2.363</v>
       </c>
       <c r="K3">
-        <v>2.418</v>
+        <v>2.456</v>
       </c>
       <c r="L3">
-        <v>2.483</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1598,31 +1562,31 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>1.595</v>
+        <v>1.539</v>
       </c>
       <c r="E4">
-        <v>1.711</v>
+        <v>1.635</v>
       </c>
       <c r="F4">
-        <v>1.869</v>
+        <v>1.795</v>
       </c>
       <c r="G4">
-        <v>2.018</v>
+        <v>1.966</v>
       </c>
       <c r="H4">
-        <v>2.154</v>
+        <v>2.108</v>
       </c>
       <c r="I4">
-        <v>2.244</v>
+        <v>2.208</v>
       </c>
       <c r="J4">
         <v>2.323</v>
       </c>
       <c r="K4">
-        <v>2.384</v>
+        <v>2.368</v>
       </c>
       <c r="L4">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1630,31 +1594,31 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1.594</v>
+        <v>1.593</v>
       </c>
       <c r="E5">
-        <v>1.756</v>
+        <v>1.742</v>
       </c>
       <c r="F5">
-        <v>1.892</v>
+        <v>1.901</v>
       </c>
       <c r="G5">
         <v>2.055</v>
       </c>
       <c r="H5">
-        <v>2.205</v>
+        <v>2.202</v>
       </c>
       <c r="I5">
-        <v>2.307</v>
+        <v>2.292</v>
       </c>
       <c r="J5">
-        <v>2.339</v>
+        <v>2.374</v>
       </c>
       <c r="K5">
-        <v>2.58</v>
+        <v>2.585</v>
       </c>
       <c r="L5">
-        <v>2.559</v>
+        <v>2.517</v>
       </c>
     </row>
   </sheetData>
@@ -1713,19 +1677,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8.15</v>
+        <v>8.1</v>
       </c>
       <c r="G2">
-        <v>8.795999999999999</v>
+        <v>8.551</v>
       </c>
       <c r="I2">
-        <v>9.978</v>
+        <v>9.669</v>
       </c>
       <c r="K2">
-        <v>12.046</v>
+        <v>11.817</v>
       </c>
       <c r="L2">
-        <v>12.028</v>
+        <v>11.833</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1733,19 +1697,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>8.1</v>
+        <v>8.15</v>
       </c>
       <c r="G3">
-        <v>8.930999999999999</v>
+        <v>8.832000000000001</v>
       </c>
       <c r="I3">
-        <v>10.178</v>
+        <v>10.025</v>
       </c>
       <c r="K3">
-        <v>12.321</v>
+        <v>12.056</v>
       </c>
       <c r="L3">
-        <v>12.296</v>
+        <v>12.029</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1753,19 +1717,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8.15</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G4">
-        <v>8.779</v>
+        <v>9.087</v>
       </c>
       <c r="I4">
-        <v>10.005</v>
+        <v>10.361</v>
       </c>
       <c r="K4">
-        <v>12.295</v>
+        <v>12.57</v>
       </c>
       <c r="L4">
-        <v>12.266</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1773,19 +1737,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>8.35</v>
+        <v>8.25</v>
       </c>
       <c r="G5">
-        <v>9.438000000000001</v>
+        <v>9.109</v>
       </c>
       <c r="I5">
-        <v>10.909</v>
+        <v>10.362</v>
       </c>
       <c r="K5">
-        <v>13.33</v>
+        <v>12.735</v>
       </c>
       <c r="L5">
-        <v>13.285</v>
+        <v>12.711</v>
       </c>
     </row>
   </sheetData>
@@ -1844,22 +1808,22 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>48.964</v>
+        <v>46.971</v>
       </c>
       <c r="C2">
-        <v>47.373</v>
+        <v>46.618</v>
       </c>
       <c r="E2">
-        <v>36.49</v>
+        <v>37.26</v>
       </c>
       <c r="F2">
-        <v>27.01</v>
+        <v>28.38</v>
       </c>
       <c r="G2">
-        <v>28.62</v>
+        <v>30.72</v>
       </c>
       <c r="I2">
-        <v>25.67</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1867,22 +1831,22 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>48.967</v>
+        <v>46.971</v>
       </c>
       <c r="C3">
-        <v>47.376</v>
+        <v>46.618</v>
       </c>
       <c r="E3">
-        <v>36.05</v>
+        <v>37.26</v>
       </c>
       <c r="F3">
-        <v>27</v>
+        <v>28.38</v>
       </c>
       <c r="G3">
-        <v>28.39</v>
+        <v>30.72</v>
       </c>
       <c r="I3">
-        <v>25.53</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1890,22 +1854,22 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>43.112</v>
+        <v>46.971</v>
       </c>
       <c r="C4">
-        <v>41.538</v>
+        <v>46.618</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>37.26</v>
       </c>
       <c r="F4">
-        <v>28.57</v>
+        <v>28.38</v>
       </c>
       <c r="G4">
-        <v>29.52</v>
+        <v>30.72</v>
       </c>
       <c r="I4">
-        <v>26.52</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1913,22 +1877,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>42.892</v>
-      </c>
-      <c r="C5">
-        <v>44.333</v>
+        <v>45.493</v>
       </c>
       <c r="E5">
-        <v>38.24</v>
+        <v>39.16</v>
       </c>
       <c r="F5">
-        <v>29.27</v>
+        <v>29.5</v>
       </c>
       <c r="G5">
-        <v>29.65</v>
+        <v>30.54</v>
       </c>
       <c r="I5">
-        <v>26.07</v>
+        <v>26.8</v>
       </c>
     </row>
   </sheetData>
@@ -1987,34 +1948,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.78</v>
+        <v>6.76</v>
       </c>
       <c r="C2">
+        <v>6.89</v>
+      </c>
+      <c r="D2">
+        <v>6.927</v>
+      </c>
+      <c r="E2">
+        <v>6.915</v>
+      </c>
+      <c r="F2">
         <v>6.92</v>
       </c>
-      <c r="D2">
-        <v>6.919</v>
-      </c>
-      <c r="E2">
-        <v>6.949</v>
-      </c>
-      <c r="F2">
-        <v>6.955</v>
-      </c>
       <c r="G2">
-        <v>6.994</v>
+        <v>6.979</v>
       </c>
       <c r="H2">
-        <v>7.006</v>
+        <v>6.99</v>
       </c>
       <c r="I2">
-        <v>6.993</v>
+        <v>6.986</v>
       </c>
       <c r="J2">
-        <v>7.031</v>
+        <v>7.02</v>
       </c>
       <c r="L2">
-        <v>7.075</v>
+        <v>7.067</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2022,34 +1983,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.82</v>
+        <v>6.78</v>
       </c>
       <c r="C3">
         <v>6.91</v>
       </c>
       <c r="D3">
-        <v>6.956</v>
+        <v>6.907</v>
       </c>
       <c r="E3">
-        <v>6.942</v>
+        <v>6.941</v>
       </c>
       <c r="F3">
-        <v>6.969</v>
+        <v>6.941</v>
       </c>
       <c r="G3">
-        <v>7.029</v>
+        <v>6.988</v>
       </c>
       <c r="H3">
-        <v>7.012</v>
+        <v>6.998</v>
       </c>
       <c r="I3">
-        <v>7.009</v>
+        <v>6.989</v>
       </c>
       <c r="J3">
-        <v>7.031</v>
+        <v>7.024</v>
       </c>
       <c r="L3">
-        <v>7.059</v>
+        <v>7.069</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2060,31 +2021,31 @@
         <v>6.83</v>
       </c>
       <c r="C4">
-        <v>6.98</v>
+        <v>6.93</v>
       </c>
       <c r="D4">
-        <v>6.945</v>
+        <v>6.95</v>
       </c>
       <c r="E4">
-        <v>6.949</v>
+        <v>6.951</v>
       </c>
       <c r="F4">
-        <v>6.972</v>
+        <v>6.971</v>
       </c>
       <c r="G4">
+        <v>7.018</v>
+      </c>
+      <c r="H4">
+        <v>7.041</v>
+      </c>
+      <c r="I4">
         <v>7</v>
       </c>
-      <c r="H4">
-        <v>7.032</v>
-      </c>
-      <c r="I4">
-        <v>6.976</v>
-      </c>
       <c r="J4">
-        <v>7.014</v>
+        <v>7.022</v>
       </c>
       <c r="L4">
-        <v>7.048</v>
+        <v>7.045</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2092,34 +2053,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.88</v>
+        <v>6.85</v>
       </c>
       <c r="C5">
+        <v>6.99</v>
+      </c>
+      <c r="D5">
+        <v>6.985</v>
+      </c>
+      <c r="E5">
+        <v>6.975</v>
+      </c>
+      <c r="F5">
+        <v>6.993</v>
+      </c>
+      <c r="G5">
+        <v>7.004</v>
+      </c>
+      <c r="H5">
         <v>7.04</v>
       </c>
-      <c r="D5">
-        <v>7.001</v>
-      </c>
-      <c r="E5">
-        <v>7.015</v>
-      </c>
-      <c r="F5">
-        <v>7.037</v>
-      </c>
-      <c r="G5">
-        <v>7.039</v>
-      </c>
-      <c r="H5">
-        <v>7.067</v>
-      </c>
       <c r="I5">
-        <v>7.015</v>
+        <v>6.984</v>
       </c>
       <c r="J5">
-        <v>7.041</v>
+        <v>7.026</v>
       </c>
       <c r="L5">
-        <v>7.135</v>
+        <v>7.088</v>
       </c>
     </row>
   </sheetData>
@@ -2177,152 +2138,32 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>3.704</v>
-      </c>
-      <c r="C2">
-        <v>3.62</v>
-      </c>
-      <c r="D2">
-        <v>3.464</v>
-      </c>
-      <c r="E2">
-        <v>3.095</v>
-      </c>
       <c r="F2">
-        <v>2.996</v>
-      </c>
-      <c r="G2">
-        <v>2.958</v>
-      </c>
-      <c r="H2">
-        <v>2.9861</v>
-      </c>
-      <c r="I2">
-        <v>3.212</v>
-      </c>
-      <c r="J2">
-        <v>3.377</v>
-      </c>
-      <c r="K2">
-        <v>3.478</v>
-      </c>
-      <c r="L2">
-        <v>3.655</v>
+        <v>2.921</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>3.719</v>
-      </c>
-      <c r="C3">
-        <v>3.636</v>
-      </c>
-      <c r="D3">
-        <v>3.483</v>
-      </c>
-      <c r="E3">
-        <v>3.163</v>
-      </c>
       <c r="F3">
-        <v>3.063</v>
-      </c>
-      <c r="G3">
-        <v>3.046</v>
-      </c>
-      <c r="H3">
-        <v>3.0909</v>
-      </c>
-      <c r="I3">
-        <v>3.32</v>
-      </c>
-      <c r="J3">
-        <v>3.501</v>
-      </c>
-      <c r="K3">
-        <v>3.603</v>
-      </c>
-      <c r="L3">
-        <v>3.784</v>
+        <v>3.003</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>3.699</v>
-      </c>
-      <c r="C4">
-        <v>3.647</v>
-      </c>
-      <c r="D4">
-        <v>3.468</v>
-      </c>
-      <c r="E4">
-        <v>3.118</v>
-      </c>
       <c r="F4">
-        <v>3.016</v>
-      </c>
-      <c r="G4">
-        <v>2.95</v>
-      </c>
-      <c r="H4">
-        <v>2.983</v>
-      </c>
-      <c r="I4">
-        <v>3.157</v>
-      </c>
-      <c r="J4">
-        <v>3.367</v>
-      </c>
-      <c r="K4">
-        <v>3.46</v>
-      </c>
-      <c r="L4">
-        <v>3.62</v>
+        <v>2.962</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>3.688</v>
-      </c>
-      <c r="C5">
-        <v>3.641</v>
-      </c>
-      <c r="D5">
-        <v>3.491</v>
-      </c>
-      <c r="E5">
-        <v>3.128</v>
-      </c>
       <c r="F5">
-        <v>2.981</v>
-      </c>
-      <c r="G5">
-        <v>2.892</v>
-      </c>
-      <c r="H5">
-        <v>2.8933</v>
-      </c>
-      <c r="I5">
-        <v>3.041</v>
-      </c>
-      <c r="J5">
-        <v>3.227</v>
-      </c>
-      <c r="K5">
-        <v>3.321</v>
-      </c>
-      <c r="L5">
-        <v>3.48</v>
+        <v>3.053</v>
       </c>
     </row>
   </sheetData>
@@ -2381,37 +2222,37 @@
         <v>12</v>
       </c>
       <c r="B2">
+        <v>3.462</v>
+      </c>
+      <c r="C2">
         <v>3.401</v>
       </c>
-      <c r="C2">
-        <v>3.409</v>
-      </c>
       <c r="D2">
-        <v>3.266</v>
+        <v>3.236</v>
       </c>
       <c r="E2">
-        <v>2.893</v>
+        <v>2.821</v>
       </c>
       <c r="F2">
-        <v>2.687</v>
+        <v>2.618</v>
       </c>
       <c r="G2">
-        <v>2.532</v>
+        <v>2.477</v>
       </c>
       <c r="H2">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="I2">
-        <v>2.532</v>
+        <v>2.496</v>
       </c>
       <c r="J2">
-        <v>2.751</v>
+        <v>2.646</v>
       </c>
       <c r="K2">
-        <v>2.747</v>
+        <v>2.703</v>
       </c>
       <c r="L2">
-        <v>2.718</v>
+        <v>2.685</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2419,37 +2260,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.396</v>
+        <v>3.399</v>
       </c>
       <c r="C3">
-        <v>3.416</v>
+        <v>3.41</v>
       </c>
       <c r="D3">
-        <v>3.271</v>
+        <v>3.294</v>
       </c>
       <c r="E3">
-        <v>2.912</v>
+        <v>2.928</v>
       </c>
       <c r="F3">
-        <v>2.717</v>
+        <v>2.718</v>
       </c>
       <c r="G3">
-        <v>2.586</v>
+        <v>2.567</v>
       </c>
       <c r="H3">
-        <v>2.504</v>
+        <v>2.469</v>
       </c>
       <c r="I3">
-        <v>2.609</v>
+        <v>2.56</v>
       </c>
       <c r="J3">
-        <v>2.837</v>
+        <v>2.779</v>
       </c>
       <c r="K3">
-        <v>2.837</v>
+        <v>2.775</v>
       </c>
       <c r="L3">
-        <v>2.809</v>
+        <v>2.744</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2457,37 +2298,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.372</v>
+        <v>3.398</v>
       </c>
       <c r="C4">
-        <v>3.361</v>
+        <v>3.381</v>
       </c>
       <c r="D4">
-        <v>3.234</v>
+        <v>3.236</v>
       </c>
       <c r="E4">
-        <v>2.823</v>
+        <v>2.81</v>
       </c>
       <c r="F4">
-        <v>2.615</v>
+        <v>2.593</v>
       </c>
       <c r="G4">
-        <v>2.442</v>
+        <v>2.446</v>
       </c>
       <c r="H4">
-        <v>2.341</v>
+        <v>2.356</v>
       </c>
       <c r="I4">
-        <v>2.423</v>
+        <v>2.453</v>
       </c>
       <c r="J4">
-        <v>2.629</v>
+        <v>2.672</v>
       </c>
       <c r="K4">
-        <v>2.626</v>
+        <v>2.671</v>
       </c>
       <c r="L4">
-        <v>2.586</v>
+        <v>2.634</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2495,37 +2336,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.567</v>
+        <v>3.572</v>
       </c>
       <c r="C5">
-        <v>3.557</v>
+        <v>3.447</v>
       </c>
       <c r="D5">
-        <v>3.386</v>
+        <v>3.235</v>
       </c>
       <c r="E5">
-        <v>3.011</v>
+        <v>2.763</v>
       </c>
       <c r="F5">
-        <v>2.795</v>
+        <v>2.547</v>
       </c>
       <c r="G5">
-        <v>2.598</v>
+        <v>2.372</v>
       </c>
       <c r="H5">
-        <v>2.488</v>
+        <v>2.279</v>
       </c>
       <c r="I5">
-        <v>2.541</v>
+        <v>2.357</v>
       </c>
       <c r="J5">
-        <v>2.728</v>
+        <v>2.555</v>
       </c>
       <c r="K5">
-        <v>2.724</v>
+        <v>2.554</v>
       </c>
       <c r="L5">
-        <v>2.67</v>
+        <v>2.512</v>
       </c>
     </row>
   </sheetData>
@@ -2584,19 +2425,16 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.855</v>
+        <v>4.657</v>
       </c>
       <c r="E2">
-        <v>5.291</v>
+        <v>5.118</v>
       </c>
       <c r="F2">
-        <v>5.47</v>
+        <v>5.283</v>
       </c>
       <c r="G2">
-        <v>5.699</v>
-      </c>
-      <c r="I2">
-        <v>5.777</v>
+        <v>5.536</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2604,19 +2442,16 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.962</v>
+        <v>4.774</v>
       </c>
       <c r="E3">
-        <v>5.173</v>
+        <v>5.22</v>
       </c>
       <c r="F3">
-        <v>5.375</v>
+        <v>5.372</v>
       </c>
       <c r="G3">
-        <v>5.611</v>
-      </c>
-      <c r="I3">
-        <v>5.746</v>
+        <v>5.627</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2624,19 +2459,16 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.973</v>
+        <v>5.058</v>
       </c>
       <c r="E4">
-        <v>5.211</v>
+        <v>5.167</v>
       </c>
       <c r="F4">
-        <v>5.367</v>
+        <v>5.333</v>
       </c>
       <c r="G4">
-        <v>5.637</v>
-      </c>
-      <c r="I4">
-        <v>5.799</v>
+        <v>5.543</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2644,19 +2476,16 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>4.988</v>
+        <v>4.81</v>
       </c>
       <c r="E5">
-        <v>5.21</v>
+        <v>5.192</v>
       </c>
       <c r="F5">
-        <v>5.304</v>
+        <v>5.362</v>
       </c>
       <c r="G5">
-        <v>5.494</v>
-      </c>
-      <c r="I5">
-        <v>5.649</v>
+        <v>5.592</v>
       </c>
     </row>
   </sheetData>
@@ -2715,19 +2544,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>10.905</v>
+        <v>10.833</v>
       </c>
       <c r="E2">
-        <v>11.394</v>
+        <v>11.2</v>
       </c>
       <c r="F2">
-        <v>11.484</v>
+        <v>11.3</v>
       </c>
       <c r="G2">
-        <v>11.817</v>
+        <v>11.57</v>
       </c>
       <c r="I2">
-        <v>11.938</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2735,19 +2564,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>11.266</v>
+        <v>10.91</v>
       </c>
       <c r="E3">
-        <v>11.93</v>
+        <v>11.318</v>
       </c>
       <c r="F3">
-        <v>12.115</v>
+        <v>11.465</v>
       </c>
       <c r="G3">
-        <v>12.34</v>
+        <v>11.78</v>
       </c>
       <c r="I3">
-        <v>12.515</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2755,19 +2584,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>10.881</v>
+        <v>10.954</v>
       </c>
       <c r="E4">
-        <v>11.355</v>
+        <v>11.507</v>
       </c>
       <c r="F4">
-        <v>11.59</v>
+        <v>11.76</v>
       </c>
       <c r="G4">
-        <v>11.965</v>
+        <v>12.115</v>
       </c>
       <c r="I4">
-        <v>12.115</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2775,19 +2604,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>10.625</v>
+        <v>10.872</v>
       </c>
       <c r="E5">
-        <v>11.007</v>
+        <v>11.37</v>
       </c>
       <c r="F5">
-        <v>11.14</v>
+        <v>11.525</v>
       </c>
       <c r="G5">
-        <v>11.54</v>
+        <v>11.895</v>
       </c>
       <c r="I5">
-        <v>11.78</v>
+        <v>12.06</v>
       </c>
     </row>
   </sheetData>
@@ -2846,25 +2675,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>2.998</v>
+        <v>2.885</v>
       </c>
       <c r="F2">
-        <v>2.854</v>
+        <v>2.763</v>
       </c>
       <c r="G2">
-        <v>2.773</v>
+        <v>2.678</v>
       </c>
       <c r="H2">
-        <v>2.823</v>
+        <v>2.731</v>
       </c>
       <c r="I2">
-        <v>3.16</v>
+        <v>3.084</v>
       </c>
       <c r="J2">
-        <v>3.411</v>
+        <v>3.324</v>
       </c>
       <c r="L2">
-        <v>3.497</v>
+        <v>3.421</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2872,25 +2701,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>3.021</v>
+        <v>2.978</v>
       </c>
       <c r="F3">
-        <v>2.897</v>
+        <v>2.839</v>
       </c>
       <c r="G3">
-        <v>2.849</v>
+        <v>2.789</v>
       </c>
       <c r="H3">
-        <v>2.913</v>
+        <v>2.842</v>
       </c>
       <c r="I3">
-        <v>3.279</v>
+        <v>3.198</v>
       </c>
       <c r="J3">
-        <v>3.514</v>
+        <v>3.432</v>
       </c>
       <c r="L3">
-        <v>3.615</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2898,25 +2727,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>3.01</v>
+        <v>2.976</v>
       </c>
       <c r="F4">
-        <v>2.867</v>
+        <v>2.857</v>
       </c>
       <c r="G4">
-        <v>2.765</v>
+        <v>2.799</v>
       </c>
       <c r="H4">
-        <v>2.82</v>
+        <v>2.866</v>
       </c>
       <c r="I4">
-        <v>3.154</v>
+        <v>3.233</v>
       </c>
       <c r="J4">
-        <v>3.393</v>
+        <v>3.47</v>
       </c>
       <c r="L4">
-        <v>3.472</v>
+        <v>3.559</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2924,25 +2753,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>3.045</v>
+        <v>2.961</v>
       </c>
       <c r="F5">
-        <v>2.889</v>
+        <v>2.813</v>
       </c>
       <c r="G5">
-        <v>2.78</v>
+        <v>2.733</v>
       </c>
       <c r="H5">
-        <v>2.819</v>
+        <v>2.793</v>
       </c>
       <c r="I5">
-        <v>3.155</v>
+        <v>3.153</v>
       </c>
       <c r="J5">
-        <v>3.373</v>
+        <v>3.381</v>
       </c>
       <c r="L5">
-        <v>3.448</v>
+        <v>3.466</v>
       </c>
     </row>
   </sheetData>
@@ -3001,37 +2830,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.203</v>
+        <v>5.225</v>
       </c>
       <c r="C2">
-        <v>5.141</v>
+        <v>5.148</v>
       </c>
       <c r="D2">
-        <v>4.632</v>
+        <v>4.615</v>
       </c>
       <c r="E2">
-        <v>4.134</v>
+        <v>4.078</v>
       </c>
       <c r="F2">
-        <v>4.074</v>
+        <v>4.04</v>
       </c>
       <c r="G2">
-        <v>3.984</v>
+        <v>3.954</v>
       </c>
       <c r="H2">
-        <v>3.97</v>
+        <v>3.944</v>
       </c>
       <c r="I2">
-        <v>4.129</v>
-      </c>
-      <c r="J2">
-        <v>4.395</v>
+        <v>4.112</v>
       </c>
       <c r="K2">
-        <v>4.571</v>
+        <v>4.555</v>
       </c>
       <c r="L2">
-        <v>4.629</v>
+        <v>4.619</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3039,37 +2865,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.225</v>
+        <v>5.217</v>
       </c>
       <c r="C3">
-        <v>5.179</v>
+        <v>5.154</v>
       </c>
       <c r="D3">
-        <v>4.702</v>
+        <v>4.631</v>
       </c>
       <c r="E3">
-        <v>4.168</v>
+        <v>4.133</v>
       </c>
       <c r="F3">
-        <v>4.169</v>
+        <v>4.098</v>
       </c>
       <c r="G3">
-        <v>4.086</v>
+        <v>4.004</v>
       </c>
       <c r="H3">
-        <v>4.088</v>
+        <v>3.993</v>
       </c>
       <c r="I3">
-        <v>4.253</v>
-      </c>
-      <c r="J3">
-        <v>4.518</v>
+        <v>4.161</v>
       </c>
       <c r="K3">
-        <v>4.692</v>
+        <v>4.607</v>
       </c>
       <c r="L3">
-        <v>4.751</v>
+        <v>4.666</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3077,37 +2900,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.242</v>
+        <v>5.259</v>
       </c>
       <c r="C4">
-        <v>5.166</v>
+        <v>5.205</v>
       </c>
       <c r="D4">
-        <v>4.628</v>
+        <v>4.659</v>
       </c>
       <c r="E4">
-        <v>4.149</v>
+        <v>4.235</v>
       </c>
       <c r="F4">
-        <v>4.003</v>
+        <v>4.109</v>
       </c>
       <c r="G4">
-        <v>3.906</v>
+        <v>4.019</v>
       </c>
       <c r="H4">
-        <v>3.903</v>
+        <v>3.985</v>
       </c>
       <c r="I4">
-        <v>4.056</v>
-      </c>
-      <c r="J4">
-        <v>4.341</v>
+        <v>4.133</v>
       </c>
       <c r="K4">
-        <v>4.512</v>
+        <v>4.564</v>
       </c>
       <c r="L4">
-        <v>4.565</v>
+        <v>4.611</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3115,37 +2935,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.267</v>
+        <v>5.259</v>
       </c>
       <c r="C5">
-        <v>5.224</v>
+        <v>5.23</v>
       </c>
       <c r="D5">
-        <v>4.731</v>
+        <v>4.657</v>
       </c>
       <c r="E5">
-        <v>4.318</v>
+        <v>4.179</v>
       </c>
       <c r="F5">
-        <v>4.181</v>
+        <v>4.055</v>
       </c>
       <c r="G5">
-        <v>4.069</v>
+        <v>3.95</v>
       </c>
       <c r="H5">
-        <v>4.032</v>
+        <v>3.908</v>
       </c>
       <c r="I5">
-        <v>4.177</v>
-      </c>
-      <c r="J5">
-        <v>4.42</v>
+        <v>4.063</v>
       </c>
       <c r="K5">
-        <v>4.574</v>
+        <v>4.487</v>
       </c>
       <c r="L5">
-        <v>4.613</v>
+        <v>4.542</v>
       </c>
     </row>
   </sheetData>
@@ -3207,34 +3024,34 @@
         <v>0.012</v>
       </c>
       <c r="C2">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
       <c r="D2">
-        <v>0.159</v>
+        <v>0.139</v>
       </c>
       <c r="E2">
-        <v>0.345</v>
+        <v>0.325</v>
       </c>
       <c r="F2">
-        <v>0.41</v>
+        <v>0.395</v>
       </c>
       <c r="G2">
-        <v>0.58</v>
+        <v>0.584</v>
       </c>
       <c r="H2">
-        <v>0.789</v>
+        <v>0.747</v>
       </c>
       <c r="I2">
-        <v>1.071</v>
+        <v>1.047</v>
       </c>
       <c r="J2">
-        <v>1.741</v>
+        <v>1.566</v>
       </c>
       <c r="K2">
-        <v>1.935</v>
+        <v>1.871</v>
       </c>
       <c r="L2">
-        <v>2.205</v>
+        <v>2.189</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3242,37 +3059,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.019</v>
+        <v>0.01</v>
       </c>
       <c r="C3">
-        <v>-0.004</v>
+        <v>0.051</v>
       </c>
       <c r="D3">
-        <v>0.19</v>
+        <v>0.162</v>
       </c>
       <c r="E3">
-        <v>0.361</v>
+        <v>0.35</v>
       </c>
       <c r="F3">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="G3">
-        <v>0.604</v>
+        <v>0.574</v>
       </c>
       <c r="H3">
-        <v>0.833</v>
+        <v>0.79</v>
       </c>
       <c r="I3">
-        <v>1.085</v>
+        <v>1.075</v>
       </c>
       <c r="J3">
         <v>1.746</v>
       </c>
       <c r="K3">
-        <v>1.921</v>
+        <v>1.871</v>
       </c>
       <c r="L3">
-        <v>2.261</v>
+        <v>2.209</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3280,37 +3097,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.006</v>
+        <v>0.017</v>
       </c>
       <c r="C4">
-        <v>0.008</v>
+        <v>-0.005</v>
       </c>
       <c r="D4">
-        <v>0.176</v>
+        <v>0.2</v>
       </c>
       <c r="E4">
-        <v>0.306</v>
+        <v>0.358</v>
       </c>
       <c r="F4">
-        <v>0.375</v>
+        <v>0.416</v>
       </c>
       <c r="G4">
-        <v>0.547</v>
+        <v>0.595</v>
       </c>
       <c r="H4">
-        <v>0.708</v>
+        <v>0.8</v>
       </c>
       <c r="I4">
-        <v>0.98</v>
+        <v>1.063</v>
       </c>
       <c r="J4">
-        <v>1.625</v>
+        <v>1.574</v>
       </c>
       <c r="K4">
-        <v>1.81</v>
+        <v>1.935</v>
       </c>
       <c r="L4">
-        <v>2.101</v>
+        <v>2.182</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3318,37 +3135,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.03</v>
+        <v>-0.039</v>
       </c>
       <c r="C5">
-        <v>0.046</v>
+        <v>0.029</v>
       </c>
       <c r="D5">
-        <v>0.172</v>
+        <v>0.149</v>
       </c>
       <c r="E5">
-        <v>0.335</v>
+        <v>0.299</v>
       </c>
       <c r="F5">
-        <v>0.374</v>
+        <v>0.351</v>
       </c>
       <c r="G5">
-        <v>0.543</v>
+        <v>0.515</v>
       </c>
       <c r="H5">
-        <v>0.6830000000000001</v>
+        <v>0.643</v>
       </c>
       <c r="I5">
-        <v>0.961</v>
+        <v>0.93</v>
       </c>
       <c r="J5">
-        <v>1.547</v>
-      </c>
-      <c r="K5">
-        <v>1.762</v>
+        <v>1.529</v>
       </c>
       <c r="L5">
-        <v>2.092</v>
+        <v>2.088</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -484,34 +484,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>4.6</v>
+        <v>4.545</v>
       </c>
       <c r="C2">
-        <v>4.53</v>
+        <v>4.45</v>
       </c>
       <c r="D2">
-        <v>4.33</v>
+        <v>4.244</v>
       </c>
       <c r="E2">
-        <v>3.848</v>
+        <v>3.756</v>
       </c>
       <c r="F2">
-        <v>3.661</v>
+        <v>3.678</v>
       </c>
       <c r="G2">
-        <v>3.38</v>
+        <v>3.388</v>
       </c>
       <c r="H2">
-        <v>3.301</v>
+        <v>3.303</v>
       </c>
       <c r="I2">
-        <v>3.412</v>
+        <v>3.424</v>
       </c>
       <c r="K2">
-        <v>3.439</v>
-      </c>
-      <c r="L2">
-        <v>3.372</v>
+        <v>3.454</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -519,34 +516,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.63</v>
+        <v>4.54</v>
       </c>
       <c r="C3">
-        <v>4.58</v>
+        <v>4.51</v>
       </c>
       <c r="D3">
-        <v>4.39</v>
+        <v>4.28</v>
       </c>
       <c r="E3">
-        <v>3.93</v>
+        <v>3.775</v>
       </c>
       <c r="F3">
-        <v>3.762</v>
+        <v>3.601</v>
       </c>
       <c r="G3">
-        <v>3.486</v>
+        <v>3.318</v>
       </c>
       <c r="H3">
-        <v>3.403</v>
+        <v>3.245</v>
       </c>
       <c r="I3">
-        <v>3.492</v>
+        <v>3.354</v>
       </c>
       <c r="K3">
-        <v>3.505</v>
-      </c>
-      <c r="L3">
-        <v>3.422</v>
+        <v>3.391</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -554,34 +548,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.66</v>
+        <v>4.64</v>
       </c>
       <c r="C4">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="D4">
         <v>4.46</v>
       </c>
       <c r="E4">
-        <v>4.054</v>
+        <v>4.052</v>
       </c>
       <c r="F4">
-        <v>3.895</v>
+        <v>3.892</v>
       </c>
       <c r="G4">
-        <v>3.532</v>
+        <v>3.612</v>
       </c>
       <c r="H4">
-        <v>3.456</v>
+        <v>3.534</v>
       </c>
       <c r="I4">
-        <v>3.49</v>
+        <v>3.609</v>
       </c>
       <c r="K4">
-        <v>3.472</v>
-      </c>
-      <c r="L4">
-        <v>3.37</v>
+        <v>3.606</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -589,34 +580,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4.67</v>
+        <v>4.65</v>
       </c>
       <c r="C5">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="D5">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="E5">
-        <v>3.842</v>
+        <v>3.923</v>
       </c>
       <c r="F5">
-        <v>3.7</v>
+        <v>3.756</v>
       </c>
       <c r="G5">
-        <v>3.316</v>
+        <v>3.374</v>
       </c>
       <c r="H5">
-        <v>3.238</v>
+        <v>3.298</v>
       </c>
       <c r="I5">
-        <v>3.284</v>
+        <v>3.35</v>
       </c>
       <c r="K5">
-        <v>3.311</v>
-      </c>
-      <c r="L5">
-        <v>3.224</v>
+        <v>3.353</v>
       </c>
     </row>
   </sheetData>
@@ -675,22 +663,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.345</v>
+        <v>5.342</v>
       </c>
       <c r="C2">
-        <v>5.193</v>
+        <v>5.201</v>
       </c>
       <c r="D2">
-        <v>4.88</v>
+        <v>4.888</v>
       </c>
       <c r="E2">
-        <v>4.458</v>
+        <v>4.517</v>
       </c>
       <c r="F2">
-        <v>4.231</v>
+        <v>4.292</v>
+      </c>
+      <c r="G2">
+        <v>4.17</v>
+      </c>
+      <c r="H2">
+        <v>4.187</v>
+      </c>
+      <c r="I2">
+        <v>4.243</v>
       </c>
       <c r="L2">
-        <v>4.4</v>
+        <v>4.451</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -698,22 +695,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.374</v>
+        <v>5.342</v>
       </c>
       <c r="C3">
-        <v>5.294</v>
+        <v>5.19</v>
       </c>
       <c r="D3">
-        <v>5.04</v>
+        <v>4.852</v>
       </c>
       <c r="E3">
-        <v>4.626</v>
+        <v>4.421</v>
       </c>
       <c r="F3">
-        <v>4.41</v>
+        <v>4.194</v>
+      </c>
+      <c r="G3">
+        <v>4.076</v>
+      </c>
+      <c r="H3">
+        <v>4.099</v>
+      </c>
+      <c r="I3">
+        <v>4.16</v>
       </c>
       <c r="L3">
-        <v>4.489</v>
+        <v>4.372</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -721,22 +727,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.363</v>
+        <v>5.373</v>
       </c>
       <c r="C4">
-        <v>5.315</v>
+        <v>5.291</v>
       </c>
       <c r="D4">
-        <v>5.107</v>
+        <v>5.006</v>
       </c>
       <c r="E4">
-        <v>4.749</v>
+        <v>4.606</v>
       </c>
       <c r="F4">
-        <v>4.546</v>
+        <v>4.398</v>
+      </c>
+      <c r="G4">
+        <v>4.227</v>
+      </c>
+      <c r="H4">
+        <v>4.23</v>
+      </c>
+      <c r="I4">
+        <v>4.278</v>
       </c>
       <c r="L4">
-        <v>4.554</v>
+        <v>4.476</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -744,22 +759,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.386</v>
+        <v>5.365</v>
       </c>
       <c r="C5">
-        <v>5.342</v>
+        <v>5.355</v>
       </c>
       <c r="D5">
-        <v>5.06</v>
+        <v>5.111</v>
       </c>
       <c r="E5">
-        <v>4.707</v>
+        <v>4.734</v>
       </c>
       <c r="F5">
-        <v>4.442</v>
+        <v>4.466</v>
+      </c>
+      <c r="G5">
+        <v>4.273</v>
+      </c>
+      <c r="H5">
+        <v>4.257</v>
+      </c>
+      <c r="I5">
+        <v>4.257</v>
       </c>
       <c r="L5">
-        <v>4.352</v>
+        <v>4.396</v>
       </c>
     </row>
   </sheetData>
@@ -841,22 +865,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>18.35</v>
+        <v>18.17</v>
       </c>
       <c r="E3">
-        <v>18.09</v>
+        <v>18.22</v>
       </c>
       <c r="F3">
-        <v>17.42</v>
+        <v>17.15</v>
       </c>
       <c r="G3">
-        <v>15.915</v>
+        <v>15.765</v>
       </c>
       <c r="I3">
-        <v>15.115</v>
+        <v>14.995</v>
       </c>
       <c r="J3">
-        <v>15.35</v>
+        <v>15.26</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -864,22 +888,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>18.35</v>
+        <v>18.035</v>
       </c>
       <c r="E4">
-        <v>18.09</v>
+        <v>17.78</v>
       </c>
       <c r="F4">
-        <v>17.42</v>
+        <v>16.87</v>
       </c>
       <c r="G4">
-        <v>15.915</v>
+        <v>15.65</v>
       </c>
       <c r="I4">
-        <v>15.115</v>
+        <v>14.8</v>
       </c>
       <c r="J4">
-        <v>15.35</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -887,22 +911,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>16.325</v>
+        <v>16.32</v>
       </c>
       <c r="E5">
-        <v>15.915</v>
+        <v>15.855</v>
       </c>
       <c r="F5">
-        <v>15.015</v>
+        <v>14.97</v>
       </c>
       <c r="G5">
-        <v>14.03</v>
+        <v>14.025</v>
       </c>
       <c r="I5">
-        <v>14.585</v>
+        <v>14.535</v>
       </c>
       <c r="J5">
-        <v>13.885</v>
+        <v>13.865</v>
       </c>
     </row>
   </sheetData>
@@ -961,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.448</v>
+        <v>4.399</v>
       </c>
       <c r="E2">
-        <v>4.177</v>
+        <v>4.142</v>
       </c>
       <c r="F2">
-        <v>4.072</v>
+        <v>4.027</v>
       </c>
       <c r="G2">
-        <v>4.077</v>
+        <v>4.029</v>
       </c>
       <c r="H2">
-        <v>4.211</v>
+        <v>4.159</v>
       </c>
       <c r="I2">
-        <v>4.344</v>
+        <v>4.295</v>
       </c>
       <c r="J2">
-        <v>4.56</v>
+        <v>4.515</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -987,25 +1011,25 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.448</v>
+        <v>4.386</v>
       </c>
       <c r="E3">
-        <v>4.212</v>
+        <v>4.096</v>
       </c>
       <c r="F3">
-        <v>4.124</v>
+        <v>3.984</v>
       </c>
       <c r="G3">
-        <v>4.118</v>
+        <v>3.989</v>
       </c>
       <c r="H3">
-        <v>4.229</v>
+        <v>4.113</v>
       </c>
       <c r="I3">
-        <v>4.346</v>
+        <v>4.249</v>
       </c>
       <c r="J3">
-        <v>4.557</v>
+        <v>4.469</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1013,25 +1037,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.485</v>
+        <v>4.454</v>
       </c>
       <c r="E4">
-        <v>4.277</v>
+        <v>4.245</v>
       </c>
       <c r="F4">
-        <v>4.183</v>
+        <v>4.17</v>
       </c>
       <c r="G4">
-        <v>4.174</v>
+        <v>4.163</v>
       </c>
       <c r="H4">
-        <v>4.29</v>
+        <v>4.284</v>
       </c>
       <c r="I4">
-        <v>4.411</v>
+        <v>4.415</v>
       </c>
       <c r="J4">
-        <v>4.591</v>
+        <v>4.623</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1039,25 +1063,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>4.274</v>
+        <v>4.334</v>
       </c>
       <c r="E5">
-        <v>3.925</v>
+        <v>4.055</v>
       </c>
       <c r="F5">
-        <v>3.842</v>
+        <v>3.957</v>
       </c>
       <c r="G5">
-        <v>3.874</v>
+        <v>3.982</v>
       </c>
       <c r="H5">
-        <v>4.011</v>
+        <v>4.109</v>
       </c>
       <c r="I5">
-        <v>4.155</v>
+        <v>4.248</v>
       </c>
       <c r="J5">
-        <v>4.353</v>
+        <v>4.448</v>
       </c>
     </row>
   </sheetData>
@@ -1116,31 +1140,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.428</v>
+        <v>3.447</v>
       </c>
       <c r="C2">
-        <v>3.478</v>
+        <v>3.461</v>
       </c>
       <c r="D2">
-        <v>3.412</v>
+        <v>3.377</v>
       </c>
       <c r="E2">
-        <v>3.183</v>
+        <v>3.159</v>
       </c>
       <c r="F2">
-        <v>3.13</v>
+        <v>3.1</v>
       </c>
       <c r="G2">
-        <v>3.269</v>
+        <v>3.243</v>
       </c>
       <c r="H2">
-        <v>3.429</v>
+        <v>3.413</v>
       </c>
       <c r="I2">
-        <v>3.795</v>
+        <v>3.779</v>
       </c>
       <c r="J2">
-        <v>4.148</v>
+        <v>4.145</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1148,31 +1172,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.39</v>
+        <v>3.463</v>
       </c>
       <c r="C3">
-        <v>3.58</v>
+        <v>3.441</v>
       </c>
       <c r="D3">
-        <v>3.512</v>
+        <v>3.363</v>
       </c>
       <c r="E3">
-        <v>3.509</v>
+        <v>3.119</v>
       </c>
       <c r="F3">
-        <v>3.311</v>
+        <v>3.059</v>
       </c>
       <c r="G3">
-        <v>3.437</v>
+        <v>3.189</v>
       </c>
       <c r="H3">
-        <v>3.597</v>
+        <v>3.348</v>
       </c>
       <c r="I3">
-        <v>3.955</v>
+        <v>3.708</v>
       </c>
       <c r="J3">
-        <v>4.308</v>
+        <v>4.074</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1180,31 +1204,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.47</v>
+        <v>3.482</v>
       </c>
       <c r="C4">
-        <v>3.633</v>
+        <v>3.621</v>
       </c>
       <c r="D4">
-        <v>3.515</v>
+        <v>3.538</v>
       </c>
       <c r="E4">
-        <v>3.544</v>
+        <v>3.553</v>
       </c>
       <c r="F4">
-        <v>3.375</v>
+        <v>3.365</v>
       </c>
       <c r="G4">
-        <v>3.514</v>
+        <v>3.491</v>
       </c>
       <c r="H4">
-        <v>3.673</v>
+        <v>3.643</v>
       </c>
       <c r="I4">
-        <v>4.035</v>
+        <v>4.008</v>
       </c>
       <c r="J4">
-        <v>4.38</v>
+        <v>4.364</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1212,31 +1236,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.461</v>
+        <v>3.477</v>
       </c>
       <c r="C5">
-        <v>3.509</v>
+        <v>3.564</v>
       </c>
       <c r="D5">
-        <v>3.542</v>
+        <v>3.564</v>
       </c>
       <c r="E5">
-        <v>3.584</v>
+        <v>3.554</v>
       </c>
       <c r="F5">
-        <v>3.362</v>
+        <v>3.337</v>
       </c>
       <c r="G5">
-        <v>3.441</v>
+        <v>3.446</v>
       </c>
       <c r="H5">
-        <v>3.573</v>
+        <v>3.592</v>
       </c>
       <c r="I5">
-        <v>3.916</v>
+        <v>3.943</v>
       </c>
       <c r="J5">
-        <v>4.228</v>
+        <v>4.278</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +1319,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="C2">
         <v>1.01</v>
@@ -1304,28 +1328,28 @@
         <v>1.08</v>
       </c>
       <c r="E2">
-        <v>0.784</v>
+        <v>0.752</v>
       </c>
       <c r="F2">
-        <v>0.694</v>
+        <v>0.681</v>
       </c>
       <c r="G2">
-        <v>0.716</v>
+        <v>0.666</v>
       </c>
       <c r="H2">
-        <v>0.619</v>
+        <v>0.603</v>
       </c>
       <c r="I2">
-        <v>0.634</v>
+        <v>0.587</v>
       </c>
       <c r="J2">
-        <v>0.647</v>
+        <v>0.584</v>
       </c>
       <c r="K2">
-        <v>0.657</v>
+        <v>0.574</v>
       </c>
       <c r="L2">
-        <v>0.603</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1333,37 +1357,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="C3">
+        <v>1.01</v>
+      </c>
+      <c r="D3">
         <v>1.06</v>
       </c>
-      <c r="D3">
-        <v>1.12</v>
-      </c>
       <c r="E3">
-        <v>0.8139999999999999</v>
+        <v>0.718</v>
       </c>
       <c r="F3">
-        <v>0.758</v>
+        <v>0.667</v>
       </c>
       <c r="G3">
-        <v>0.733</v>
+        <v>0.637</v>
       </c>
       <c r="H3">
-        <v>0.6889999999999999</v>
+        <v>0.598</v>
       </c>
       <c r="I3">
-        <v>0.655</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="J3">
-        <v>0.676</v>
+        <v>0.577</v>
       </c>
       <c r="K3">
-        <v>0.676</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="L3">
-        <v>0.641</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1371,37 +1395,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="C4">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="D4">
         <v>1.11</v>
       </c>
       <c r="E4">
-        <v>0.799</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="F4">
-        <v>0.718</v>
+        <v>0.764</v>
       </c>
       <c r="G4">
-        <v>0.6929999999999999</v>
+        <v>0.762</v>
       </c>
       <c r="H4">
-        <v>0.609</v>
+        <v>0.711</v>
       </c>
       <c r="I4">
-        <v>0.601</v>
+        <v>0.7</v>
       </c>
       <c r="J4">
-        <v>0.602</v>
+        <v>0.694</v>
       </c>
       <c r="K4">
-        <v>0.641</v>
+        <v>0.707</v>
       </c>
       <c r="L4">
-        <v>0.589</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1409,37 +1433,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="C5">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="D5">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="E5">
-        <v>0.911</v>
+        <v>0.824</v>
       </c>
       <c r="F5">
-        <v>0.888</v>
+        <v>0.789</v>
       </c>
       <c r="G5">
-        <v>0.875</v>
+        <v>0.758</v>
       </c>
       <c r="H5">
-        <v>0.773</v>
+        <v>0.665</v>
       </c>
       <c r="I5">
-        <v>0.71</v>
+        <v>0.639</v>
       </c>
       <c r="J5">
-        <v>0.735</v>
+        <v>0.648</v>
       </c>
       <c r="K5">
-        <v>0.736</v>
+        <v>0.667</v>
       </c>
       <c r="L5">
-        <v>0.706</v>
+        <v>0.614</v>
       </c>
     </row>
   </sheetData>
@@ -1498,31 +1522,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1.536</v>
+        <v>1.512</v>
       </c>
       <c r="E2">
-        <v>1.618</v>
+        <v>1.589</v>
       </c>
       <c r="F2">
-        <v>1.791</v>
+        <v>1.783</v>
       </c>
       <c r="G2">
-        <v>1.987</v>
+        <v>1.957</v>
       </c>
       <c r="H2">
-        <v>2.142</v>
+        <v>2.095</v>
       </c>
       <c r="I2">
-        <v>2.259</v>
+        <v>2.272</v>
       </c>
       <c r="J2">
-        <v>2.349</v>
+        <v>2.277</v>
       </c>
       <c r="K2">
-        <v>2.441</v>
+        <v>2.443</v>
       </c>
       <c r="L2">
-        <v>2.503</v>
+        <v>2.504</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1530,31 +1554,31 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>1.556</v>
+        <v>1.525</v>
       </c>
       <c r="E3">
-        <v>1.641</v>
+        <v>1.62</v>
       </c>
       <c r="F3">
-        <v>1.833</v>
+        <v>1.772</v>
       </c>
       <c r="G3">
-        <v>2.002</v>
+        <v>1.97</v>
       </c>
       <c r="H3">
-        <v>2.126</v>
+        <v>2.108</v>
       </c>
       <c r="I3">
-        <v>2.273</v>
+        <v>2.264</v>
       </c>
       <c r="J3">
-        <v>2.363</v>
+        <v>2.31</v>
       </c>
       <c r="K3">
-        <v>2.456</v>
+        <v>2.445</v>
       </c>
       <c r="L3">
-        <v>2.52</v>
+        <v>2.502</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1562,31 +1586,31 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>1.539</v>
+        <v>1.577</v>
       </c>
       <c r="E4">
-        <v>1.635</v>
+        <v>1.681</v>
       </c>
       <c r="F4">
-        <v>1.795</v>
+        <v>1.861</v>
       </c>
       <c r="G4">
-        <v>1.966</v>
+        <v>2.03</v>
       </c>
       <c r="H4">
-        <v>2.108</v>
+        <v>2.152</v>
       </c>
       <c r="I4">
-        <v>2.208</v>
+        <v>2.29</v>
       </c>
       <c r="J4">
-        <v>2.323</v>
+        <v>2.366</v>
       </c>
       <c r="K4">
-        <v>2.368</v>
+        <v>2.474</v>
       </c>
       <c r="L4">
-        <v>2.44</v>
+        <v>2.529</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1594,31 +1618,31 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1.593</v>
+        <v>1.599</v>
       </c>
       <c r="E5">
-        <v>1.742</v>
+        <v>1.72</v>
       </c>
       <c r="F5">
-        <v>1.901</v>
+        <v>1.88</v>
       </c>
       <c r="G5">
-        <v>2.055</v>
+        <v>2.031</v>
       </c>
       <c r="H5">
-        <v>2.202</v>
+        <v>2.175</v>
       </c>
       <c r="I5">
-        <v>2.292</v>
+        <v>2.259</v>
       </c>
       <c r="J5">
-        <v>2.374</v>
+        <v>2.331</v>
       </c>
       <c r="K5">
-        <v>2.585</v>
+        <v>2.407</v>
       </c>
       <c r="L5">
-        <v>2.517</v>
+        <v>2.491</v>
       </c>
     </row>
   </sheetData>
@@ -1680,16 +1704,16 @@
         <v>8.1</v>
       </c>
       <c r="G2">
-        <v>8.551</v>
+        <v>8.535</v>
       </c>
       <c r="I2">
-        <v>9.669</v>
+        <v>9.65</v>
       </c>
       <c r="K2">
-        <v>11.817</v>
+        <v>11.61</v>
       </c>
       <c r="L2">
-        <v>11.833</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1697,19 +1721,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>8.15</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G3">
-        <v>8.832000000000001</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="I3">
-        <v>10.025</v>
+        <v>9.555</v>
       </c>
       <c r="K3">
-        <v>12.056</v>
+        <v>11.495</v>
       </c>
       <c r="L3">
-        <v>12.029</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1717,19 +1741,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="G4">
-        <v>9.087</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="I4">
-        <v>10.361</v>
+        <v>10.004</v>
       </c>
       <c r="K4">
-        <v>12.57</v>
+        <v>12.114</v>
       </c>
       <c r="L4">
-        <v>12.54</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1737,19 +1761,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>8.25</v>
+        <v>7.94</v>
       </c>
       <c r="G5">
-        <v>9.109</v>
+        <v>8.753</v>
       </c>
       <c r="I5">
-        <v>10.362</v>
+        <v>9.9</v>
       </c>
       <c r="K5">
-        <v>12.735</v>
+        <v>12.157</v>
       </c>
       <c r="L5">
-        <v>12.711</v>
+        <v>12.123</v>
       </c>
     </row>
   </sheetData>
@@ -1808,22 +1832,22 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>46.971</v>
+        <v>44.009</v>
       </c>
       <c r="C2">
-        <v>46.618</v>
+        <v>45.147</v>
       </c>
       <c r="E2">
-        <v>37.26</v>
+        <v>38.37</v>
       </c>
       <c r="F2">
-        <v>28.38</v>
+        <v>29.29</v>
       </c>
       <c r="G2">
-        <v>30.72</v>
+        <v>29.1</v>
       </c>
       <c r="I2">
-        <v>25.98</v>
+        <v>26.27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1831,22 +1855,22 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>46.971</v>
+        <v>47.011</v>
       </c>
       <c r="C3">
-        <v>46.618</v>
+        <v>46.635</v>
       </c>
       <c r="E3">
-        <v>37.26</v>
+        <v>37.8</v>
       </c>
       <c r="F3">
-        <v>28.38</v>
+        <v>29.01</v>
       </c>
       <c r="G3">
-        <v>30.72</v>
+        <v>28.91</v>
       </c>
       <c r="I3">
-        <v>25.98</v>
+        <v>26.16</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1854,22 +1878,22 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>46.971</v>
+        <v>49.089</v>
       </c>
       <c r="C4">
-        <v>46.618</v>
+        <v>47.536</v>
       </c>
       <c r="E4">
-        <v>37.26</v>
+        <v>36.09</v>
       </c>
       <c r="F4">
-        <v>28.38</v>
+        <v>27.35</v>
       </c>
       <c r="G4">
-        <v>30.72</v>
+        <v>28.47</v>
       </c>
       <c r="I4">
-        <v>25.98</v>
+        <v>25.74</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1877,19 +1901,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>45.493</v>
+        <v>44.662</v>
+      </c>
+      <c r="C5">
+        <v>45.788</v>
       </c>
       <c r="E5">
-        <v>39.16</v>
+        <v>39.13</v>
       </c>
       <c r="F5">
-        <v>29.5</v>
+        <v>29.98</v>
       </c>
       <c r="G5">
-        <v>30.54</v>
+        <v>30.53</v>
       </c>
       <c r="I5">
-        <v>26.8</v>
+        <v>26.96</v>
       </c>
     </row>
   </sheetData>
@@ -1951,31 +1978,31 @@
         <v>6.76</v>
       </c>
       <c r="C2">
-        <v>6.89</v>
+        <v>6.86</v>
       </c>
       <c r="D2">
-        <v>6.927</v>
+        <v>6.884</v>
       </c>
       <c r="E2">
-        <v>6.915</v>
+        <v>6.873</v>
       </c>
       <c r="F2">
-        <v>6.92</v>
+        <v>6.889</v>
       </c>
       <c r="G2">
-        <v>6.979</v>
+        <v>6.918</v>
       </c>
       <c r="H2">
-        <v>6.99</v>
+        <v>6.952</v>
       </c>
       <c r="I2">
-        <v>6.986</v>
+        <v>6.965</v>
       </c>
       <c r="J2">
-        <v>7.02</v>
+        <v>6.997</v>
       </c>
       <c r="L2">
-        <v>7.067</v>
+        <v>7.039</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1983,34 +2010,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.78</v>
+        <v>6.76</v>
       </c>
       <c r="C3">
+        <v>6.88</v>
+      </c>
+      <c r="D3">
+        <v>6.886</v>
+      </c>
+      <c r="E3">
         <v>6.91</v>
       </c>
-      <c r="D3">
-        <v>6.907</v>
-      </c>
-      <c r="E3">
-        <v>6.941</v>
-      </c>
       <c r="F3">
-        <v>6.941</v>
+        <v>6.917</v>
       </c>
       <c r="G3">
-        <v>6.988</v>
+        <v>6.959</v>
       </c>
       <c r="H3">
-        <v>6.998</v>
+        <v>6.98</v>
       </c>
       <c r="I3">
-        <v>6.989</v>
+        <v>6.981</v>
       </c>
       <c r="J3">
-        <v>7.024</v>
+        <v>7.017</v>
       </c>
       <c r="L3">
-        <v>7.069</v>
+        <v>7.063</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2018,34 +2045,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.83</v>
+        <v>6.78</v>
       </c>
       <c r="C4">
-        <v>6.93</v>
+        <v>6.91</v>
       </c>
       <c r="D4">
-        <v>6.95</v>
+        <v>6.943</v>
       </c>
       <c r="E4">
-        <v>6.951</v>
+        <v>6.956</v>
       </c>
       <c r="F4">
-        <v>6.971</v>
+        <v>6.961</v>
       </c>
       <c r="G4">
-        <v>7.018</v>
+        <v>7.002</v>
       </c>
       <c r="H4">
-        <v>7.041</v>
+        <v>7.01</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>7.001</v>
       </c>
       <c r="J4">
         <v>7.022</v>
       </c>
       <c r="L4">
-        <v>7.045</v>
+        <v>7.052</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2053,34 +2080,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.85</v>
+        <v>6.83</v>
       </c>
       <c r="C5">
-        <v>6.99</v>
+        <v>6.98</v>
       </c>
       <c r="D5">
-        <v>6.985</v>
+        <v>6.952</v>
       </c>
       <c r="E5">
-        <v>6.975</v>
+        <v>6.954</v>
       </c>
       <c r="F5">
-        <v>6.993</v>
+        <v>6.954</v>
       </c>
       <c r="G5">
-        <v>7.004</v>
+        <v>6.999</v>
       </c>
       <c r="H5">
-        <v>7.04</v>
+        <v>7.029</v>
       </c>
       <c r="I5">
-        <v>6.984</v>
+        <v>6.973</v>
       </c>
       <c r="J5">
-        <v>7.026</v>
+        <v>7.007</v>
       </c>
       <c r="L5">
-        <v>7.088</v>
+        <v>7.028</v>
       </c>
     </row>
   </sheetData>
@@ -2138,32 +2165,152 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>3.64</v>
+      </c>
+      <c r="C2">
+        <v>3.564</v>
+      </c>
+      <c r="D2">
+        <v>3.389</v>
+      </c>
+      <c r="E2">
+        <v>2.959</v>
+      </c>
       <c r="F2">
-        <v>2.921</v>
+        <v>2.867</v>
+      </c>
+      <c r="G2">
+        <v>2.853</v>
+      </c>
+      <c r="H2">
+        <v>2.8934</v>
+      </c>
+      <c r="I2">
+        <v>3.13</v>
+      </c>
+      <c r="J2">
+        <v>3.32</v>
+      </c>
+      <c r="K2">
+        <v>3.434</v>
+      </c>
+      <c r="L2">
+        <v>3.627</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>3.657</v>
+      </c>
+      <c r="C3">
+        <v>3.531</v>
+      </c>
+      <c r="D3">
+        <v>3.366</v>
+      </c>
+      <c r="E3">
+        <v>2.972</v>
+      </c>
       <c r="F3">
-        <v>3.003</v>
+        <v>2.861</v>
+      </c>
+      <c r="G3">
+        <v>2.831</v>
+      </c>
+      <c r="H3">
+        <v>2.8626</v>
+      </c>
+      <c r="I3">
+        <v>3.086</v>
+      </c>
+      <c r="J3">
+        <v>3.27</v>
+      </c>
+      <c r="K3">
+        <v>3.379</v>
+      </c>
+      <c r="L3">
+        <v>3.57</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>3.729</v>
+      </c>
+      <c r="C4">
+        <v>3.632</v>
+      </c>
+      <c r="D4">
+        <v>3.48</v>
+      </c>
+      <c r="E4">
+        <v>3.177</v>
+      </c>
       <c r="F4">
-        <v>2.962</v>
+        <v>3.066</v>
+      </c>
+      <c r="G4">
+        <v>3.037</v>
+      </c>
+      <c r="H4">
+        <v>3.0625</v>
+      </c>
+      <c r="I4">
+        <v>3.279</v>
+      </c>
+      <c r="J4">
+        <v>3.443</v>
+      </c>
+      <c r="K4">
+        <v>3.539</v>
+      </c>
+      <c r="L4">
+        <v>3.712</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>3.722</v>
+      </c>
+      <c r="C5">
+        <v>3.628</v>
+      </c>
+      <c r="D5">
+        <v>3.443</v>
+      </c>
+      <c r="E5">
+        <v>3.099</v>
+      </c>
       <c r="F5">
-        <v>3.053</v>
+        <v>3.003</v>
+      </c>
+      <c r="G5">
+        <v>2.938</v>
+      </c>
+      <c r="H5">
+        <v>2.9794</v>
+      </c>
+      <c r="I5">
+        <v>3.164</v>
+      </c>
+      <c r="J5">
+        <v>3.384</v>
+      </c>
+      <c r="K5">
+        <v>3.483</v>
+      </c>
+      <c r="L5">
+        <v>3.647</v>
       </c>
     </row>
   </sheetData>
@@ -2225,34 +2372,34 @@
         <v>3.462</v>
       </c>
       <c r="C2">
-        <v>3.401</v>
+        <v>3.386</v>
       </c>
       <c r="D2">
-        <v>3.236</v>
+        <v>3.163</v>
       </c>
       <c r="E2">
-        <v>2.821</v>
+        <v>2.778</v>
       </c>
       <c r="F2">
-        <v>2.618</v>
+        <v>2.564</v>
       </c>
       <c r="G2">
-        <v>2.477</v>
+        <v>2.428</v>
       </c>
       <c r="H2">
-        <v>2.38</v>
+        <v>2.339</v>
       </c>
       <c r="I2">
-        <v>2.496</v>
+        <v>2.463</v>
       </c>
       <c r="J2">
-        <v>2.646</v>
+        <v>2.621</v>
       </c>
       <c r="K2">
-        <v>2.703</v>
+        <v>2.682</v>
       </c>
       <c r="L2">
-        <v>2.685</v>
+        <v>2.663</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2260,37 +2407,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.399</v>
+        <v>3.458</v>
       </c>
       <c r="C3">
-        <v>3.41</v>
+        <v>3.38</v>
       </c>
       <c r="D3">
-        <v>3.294</v>
+        <v>3.227</v>
       </c>
       <c r="E3">
-        <v>2.928</v>
+        <v>2.767</v>
       </c>
       <c r="F3">
-        <v>2.718</v>
+        <v>2.555</v>
       </c>
       <c r="G3">
-        <v>2.567</v>
+        <v>2.407</v>
       </c>
       <c r="H3">
-        <v>2.469</v>
+        <v>2.313</v>
       </c>
       <c r="I3">
-        <v>2.56</v>
+        <v>2.432</v>
       </c>
       <c r="J3">
-        <v>2.779</v>
+        <v>2.589</v>
       </c>
       <c r="K3">
-        <v>2.775</v>
+        <v>2.645</v>
       </c>
       <c r="L3">
-        <v>2.744</v>
+        <v>2.619</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2298,37 +2445,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.398</v>
+        <v>3.401</v>
       </c>
       <c r="C4">
-        <v>3.381</v>
+        <v>3.428</v>
       </c>
       <c r="D4">
-        <v>3.236</v>
+        <v>3.285</v>
       </c>
       <c r="E4">
-        <v>2.81</v>
+        <v>2.943</v>
       </c>
       <c r="F4">
-        <v>2.593</v>
+        <v>2.728</v>
       </c>
       <c r="G4">
-        <v>2.446</v>
+        <v>2.59</v>
       </c>
       <c r="H4">
-        <v>2.356</v>
+        <v>2.498</v>
       </c>
       <c r="I4">
-        <v>2.453</v>
+        <v>2.585</v>
       </c>
       <c r="J4">
-        <v>2.672</v>
+        <v>2.799</v>
       </c>
       <c r="K4">
-        <v>2.671</v>
+        <v>2.793</v>
       </c>
       <c r="L4">
-        <v>2.634</v>
+        <v>2.759</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2336,37 +2483,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.572</v>
+        <v>3.379</v>
       </c>
       <c r="C5">
-        <v>3.447</v>
+        <v>3.355</v>
       </c>
       <c r="D5">
-        <v>3.235</v>
+        <v>3.199</v>
       </c>
       <c r="E5">
-        <v>2.763</v>
+        <v>2.793</v>
       </c>
       <c r="F5">
-        <v>2.547</v>
+        <v>2.578</v>
       </c>
       <c r="G5">
-        <v>2.372</v>
+        <v>2.415</v>
       </c>
       <c r="H5">
-        <v>2.279</v>
+        <v>2.316</v>
       </c>
       <c r="I5">
-        <v>2.357</v>
+        <v>2.409</v>
       </c>
       <c r="J5">
-        <v>2.555</v>
+        <v>2.628</v>
       </c>
       <c r="K5">
-        <v>2.554</v>
+        <v>2.627</v>
       </c>
       <c r="L5">
-        <v>2.512</v>
+        <v>2.589</v>
       </c>
     </row>
   </sheetData>
@@ -2425,16 +2572,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.657</v>
+        <v>4.596</v>
       </c>
       <c r="E2">
-        <v>5.118</v>
+        <v>5.102</v>
       </c>
       <c r="F2">
-        <v>5.283</v>
+        <v>5.249</v>
       </c>
       <c r="G2">
-        <v>5.536</v>
+        <v>5.447</v>
+      </c>
+      <c r="I2">
+        <v>5.557</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2442,16 +2592,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.774</v>
+        <v>4.597</v>
       </c>
       <c r="E3">
-        <v>5.22</v>
+        <v>5.034</v>
       </c>
       <c r="F3">
-        <v>5.372</v>
+        <v>5.219</v>
       </c>
       <c r="G3">
-        <v>5.627</v>
+        <v>5.415</v>
+      </c>
+      <c r="I3">
+        <v>5.583</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2459,16 +2612,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5.058</v>
+        <v>4.855</v>
       </c>
       <c r="E4">
-        <v>5.167</v>
+        <v>5.291</v>
       </c>
       <c r="F4">
-        <v>5.333</v>
+        <v>5.47</v>
       </c>
       <c r="G4">
-        <v>5.543</v>
+        <v>5.699</v>
+      </c>
+      <c r="I4">
+        <v>5.777</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2476,16 +2632,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>4.81</v>
+        <v>4.975</v>
       </c>
       <c r="E5">
-        <v>5.192</v>
+        <v>5.2</v>
       </c>
       <c r="F5">
-        <v>5.362</v>
+        <v>5.366</v>
       </c>
       <c r="G5">
-        <v>5.592</v>
+        <v>5.609</v>
+      </c>
+      <c r="I5">
+        <v>5.726</v>
       </c>
     </row>
   </sheetData>
@@ -2544,19 +2703,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>10.833</v>
+        <v>11.075</v>
       </c>
       <c r="E2">
-        <v>11.2</v>
+        <v>11.475</v>
       </c>
       <c r="F2">
-        <v>11.3</v>
+        <v>11.605</v>
       </c>
       <c r="G2">
-        <v>11.57</v>
+        <v>11.93</v>
       </c>
       <c r="I2">
-        <v>11.68</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2564,19 +2723,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>10.91</v>
+        <v>10.835</v>
       </c>
       <c r="E3">
-        <v>11.318</v>
+        <v>11.215</v>
       </c>
       <c r="F3">
-        <v>11.465</v>
+        <v>11.355</v>
       </c>
       <c r="G3">
-        <v>11.78</v>
+        <v>11.69</v>
       </c>
       <c r="I3">
-        <v>11.88</v>
+        <v>11.83</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2584,19 +2743,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>10.954</v>
+        <v>10.99</v>
       </c>
       <c r="E4">
-        <v>11.507</v>
+        <v>11.46</v>
       </c>
       <c r="F4">
-        <v>11.76</v>
+        <v>11.635</v>
       </c>
       <c r="G4">
-        <v>12.115</v>
+        <v>11.955</v>
       </c>
       <c r="I4">
-        <v>12.25</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2604,19 +2763,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>10.872</v>
+        <v>10.849</v>
       </c>
       <c r="E5">
-        <v>11.37</v>
+        <v>11.3</v>
       </c>
       <c r="F5">
         <v>11.525</v>
       </c>
       <c r="G5">
-        <v>11.895</v>
+        <v>11.89</v>
       </c>
       <c r="I5">
-        <v>12.06</v>
+        <v>12.045</v>
       </c>
     </row>
   </sheetData>
@@ -2675,25 +2834,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>2.885</v>
+        <v>2.87</v>
       </c>
       <c r="F2">
-        <v>2.763</v>
+        <v>2.701</v>
       </c>
       <c r="G2">
-        <v>2.678</v>
+        <v>2.642</v>
       </c>
       <c r="H2">
-        <v>2.731</v>
+        <v>2.688</v>
       </c>
       <c r="I2">
-        <v>3.084</v>
+        <v>3.068</v>
       </c>
       <c r="J2">
-        <v>3.324</v>
+        <v>3.32</v>
       </c>
       <c r="L2">
-        <v>3.421</v>
+        <v>3.409</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2701,25 +2860,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>2.978</v>
+        <v>2.83</v>
       </c>
       <c r="F3">
-        <v>2.839</v>
+        <v>2.677</v>
       </c>
       <c r="G3">
-        <v>2.789</v>
+        <v>2.609</v>
       </c>
       <c r="H3">
-        <v>2.842</v>
+        <v>2.666</v>
       </c>
       <c r="I3">
-        <v>3.198</v>
+        <v>3.017</v>
       </c>
       <c r="J3">
-        <v>3.432</v>
+        <v>3.264</v>
       </c>
       <c r="L3">
-        <v>3.53</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2727,25 +2886,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>2.976</v>
+        <v>3.012</v>
       </c>
       <c r="F4">
-        <v>2.857</v>
+        <v>2.869</v>
       </c>
       <c r="G4">
-        <v>2.799</v>
+        <v>2.817</v>
       </c>
       <c r="H4">
-        <v>2.866</v>
+        <v>2.862</v>
       </c>
       <c r="I4">
-        <v>3.233</v>
+        <v>3.224</v>
       </c>
       <c r="J4">
-        <v>3.47</v>
+        <v>3.463</v>
       </c>
       <c r="L4">
-        <v>3.559</v>
+        <v>3.563</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2753,25 +2912,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>2.961</v>
+        <v>2.943</v>
       </c>
       <c r="F5">
-        <v>2.813</v>
+        <v>2.822</v>
       </c>
       <c r="G5">
-        <v>2.733</v>
+        <v>2.754</v>
       </c>
       <c r="H5">
-        <v>2.793</v>
+        <v>2.795</v>
       </c>
       <c r="I5">
-        <v>3.153</v>
+        <v>3.147</v>
       </c>
       <c r="J5">
-        <v>3.381</v>
+        <v>3.395</v>
       </c>
       <c r="L5">
-        <v>3.466</v>
+        <v>3.484</v>
       </c>
     </row>
   </sheetData>
@@ -2830,34 +2989,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.225</v>
+        <v>5.233</v>
       </c>
       <c r="C2">
-        <v>5.148</v>
+        <v>5.163</v>
       </c>
       <c r="D2">
-        <v>4.615</v>
+        <v>4.569</v>
       </c>
       <c r="E2">
-        <v>4.078</v>
+        <v>3.999</v>
       </c>
       <c r="F2">
-        <v>4.04</v>
+        <v>4.014</v>
       </c>
       <c r="G2">
-        <v>3.954</v>
+        <v>3.933</v>
       </c>
       <c r="H2">
         <v>3.944</v>
       </c>
       <c r="I2">
-        <v>4.112</v>
+        <v>4.126</v>
+      </c>
+      <c r="J2">
+        <v>4.396</v>
       </c>
       <c r="K2">
-        <v>4.555</v>
+        <v>4.575</v>
       </c>
       <c r="L2">
-        <v>4.619</v>
+        <v>4.637</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2865,34 +3027,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.217</v>
+        <v>5.221</v>
       </c>
       <c r="C3">
-        <v>5.154</v>
+        <v>5.16</v>
       </c>
       <c r="D3">
-        <v>4.631</v>
+        <v>4.561</v>
       </c>
       <c r="E3">
-        <v>4.133</v>
+        <v>3.974</v>
       </c>
       <c r="F3">
-        <v>4.098</v>
+        <v>3.971</v>
       </c>
       <c r="G3">
-        <v>4.004</v>
+        <v>3.884</v>
       </c>
       <c r="H3">
-        <v>3.993</v>
+        <v>3.871</v>
       </c>
       <c r="I3">
-        <v>4.161</v>
+        <v>4.052</v>
+      </c>
+      <c r="J3">
+        <v>4.312</v>
       </c>
       <c r="K3">
-        <v>4.607</v>
+        <v>4.489</v>
       </c>
       <c r="L3">
-        <v>4.666</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2900,34 +3065,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.259</v>
+        <v>5.229</v>
       </c>
       <c r="C4">
-        <v>5.205</v>
+        <v>5.177</v>
       </c>
       <c r="D4">
-        <v>4.659</v>
+        <v>4.697</v>
       </c>
       <c r="E4">
-        <v>4.235</v>
+        <v>4.179</v>
       </c>
       <c r="F4">
-        <v>4.109</v>
+        <v>4.133</v>
       </c>
       <c r="G4">
-        <v>4.019</v>
+        <v>4.052</v>
       </c>
       <c r="H4">
-        <v>3.985</v>
+        <v>4.04</v>
       </c>
       <c r="I4">
-        <v>4.133</v>
+        <v>4.202</v>
+      </c>
+      <c r="J4">
+        <v>4.463</v>
       </c>
       <c r="K4">
-        <v>4.564</v>
+        <v>4.634</v>
       </c>
       <c r="L4">
-        <v>4.611</v>
+        <v>4.686</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2935,34 +3103,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.259</v>
+        <v>5.242</v>
       </c>
       <c r="C5">
-        <v>5.23</v>
+        <v>5.187</v>
       </c>
       <c r="D5">
-        <v>4.657</v>
+        <v>4.646</v>
       </c>
       <c r="E5">
         <v>4.179</v>
       </c>
       <c r="F5">
-        <v>4.055</v>
+        <v>4.037</v>
       </c>
       <c r="G5">
-        <v>3.95</v>
+        <v>3.937</v>
       </c>
       <c r="H5">
-        <v>3.908</v>
+        <v>3.932</v>
       </c>
       <c r="I5">
-        <v>4.063</v>
+        <v>4.081</v>
+      </c>
+      <c r="J5">
+        <v>4.368</v>
       </c>
       <c r="K5">
-        <v>4.487</v>
+        <v>4.539</v>
       </c>
       <c r="L5">
-        <v>4.542</v>
+        <v>4.591</v>
       </c>
     </row>
   </sheetData>
@@ -3021,37 +3192,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.012</v>
+        <v>0.022</v>
       </c>
       <c r="C2">
         <v>0.022</v>
       </c>
       <c r="D2">
-        <v>0.139</v>
+        <v>0.15</v>
       </c>
       <c r="E2">
-        <v>0.325</v>
+        <v>0.339</v>
       </c>
       <c r="F2">
-        <v>0.395</v>
+        <v>0.408</v>
       </c>
       <c r="G2">
-        <v>0.584</v>
+        <v>0.59</v>
       </c>
       <c r="H2">
-        <v>0.747</v>
+        <v>0.76</v>
       </c>
       <c r="I2">
-        <v>1.047</v>
+        <v>1.045</v>
       </c>
       <c r="J2">
-        <v>1.566</v>
+        <v>1.544</v>
       </c>
       <c r="K2">
-        <v>1.871</v>
+        <v>1.846</v>
       </c>
       <c r="L2">
-        <v>2.189</v>
+        <v>2.157</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3059,37 +3230,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="C3">
-        <v>0.051</v>
+        <v>0.022</v>
       </c>
       <c r="D3">
-        <v>0.162</v>
+        <v>0.119</v>
       </c>
       <c r="E3">
-        <v>0.35</v>
+        <v>0.312</v>
       </c>
       <c r="F3">
-        <v>0.41</v>
+        <v>0.383</v>
       </c>
       <c r="G3">
-        <v>0.574</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H3">
-        <v>0.79</v>
+        <v>0.743</v>
       </c>
       <c r="I3">
-        <v>1.075</v>
+        <v>1.021</v>
       </c>
       <c r="J3">
-        <v>1.746</v>
+        <v>1.679</v>
       </c>
       <c r="K3">
-        <v>1.871</v>
+        <v>1.85</v>
       </c>
       <c r="L3">
-        <v>2.209</v>
+        <v>2.162</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3097,37 +3268,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.017</v>
+        <v>0.012</v>
       </c>
       <c r="C4">
-        <v>-0.005</v>
+        <v>0.018</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>0.159</v>
       </c>
       <c r="E4">
-        <v>0.358</v>
+        <v>0.345</v>
       </c>
       <c r="F4">
-        <v>0.416</v>
+        <v>0.41</v>
       </c>
       <c r="G4">
-        <v>0.595</v>
+        <v>0.58</v>
       </c>
       <c r="H4">
-        <v>0.8</v>
+        <v>0.789</v>
       </c>
       <c r="I4">
-        <v>1.063</v>
+        <v>1.071</v>
       </c>
       <c r="J4">
-        <v>1.574</v>
+        <v>1.741</v>
       </c>
       <c r="K4">
         <v>1.935</v>
       </c>
       <c r="L4">
-        <v>2.182</v>
+        <v>2.205</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3135,34 +3306,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-0.039</v>
-      </c>
-      <c r="C5">
-        <v>0.029</v>
+        <v>0.006</v>
       </c>
       <c r="D5">
-        <v>0.149</v>
+        <v>0.167</v>
       </c>
       <c r="E5">
-        <v>0.299</v>
+        <v>0.306</v>
       </c>
       <c r="F5">
-        <v>0.351</v>
+        <v>0.374</v>
       </c>
       <c r="G5">
-        <v>0.515</v>
+        <v>0.542</v>
       </c>
       <c r="H5">
-        <v>0.643</v>
+        <v>0.708</v>
       </c>
       <c r="I5">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="J5">
-        <v>1.529</v>
+        <v>1.625</v>
+      </c>
+      <c r="K5">
+        <v>1.81</v>
       </c>
       <c r="L5">
-        <v>2.088</v>
+        <v>2.15</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -484,31 +484,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>4.545</v>
+        <v>4.506</v>
       </c>
       <c r="C2">
-        <v>4.45</v>
+        <v>4.43</v>
       </c>
       <c r="D2">
-        <v>4.244</v>
+        <v>4.165</v>
       </c>
       <c r="E2">
-        <v>3.756</v>
+        <v>3.628</v>
       </c>
       <c r="F2">
-        <v>3.678</v>
+        <v>3.523</v>
       </c>
       <c r="G2">
-        <v>3.388</v>
+        <v>3.267</v>
       </c>
       <c r="H2">
-        <v>3.303</v>
+        <v>3.187</v>
       </c>
       <c r="I2">
+        <v>3.345</v>
+      </c>
+      <c r="K2">
         <v>3.424</v>
       </c>
-      <c r="K2">
-        <v>3.454</v>
+      <c r="L2">
+        <v>3.392</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -516,31 +519,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.54</v>
+        <v>4.49</v>
       </c>
       <c r="C3">
-        <v>4.51</v>
+        <v>4.46</v>
       </c>
       <c r="D3">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="E3">
-        <v>3.775</v>
+        <v>3.706</v>
       </c>
       <c r="F3">
-        <v>3.601</v>
+        <v>3.627</v>
       </c>
       <c r="G3">
-        <v>3.318</v>
+        <v>3.332</v>
       </c>
       <c r="H3">
-        <v>3.245</v>
+        <v>3.257</v>
       </c>
       <c r="I3">
-        <v>3.354</v>
+        <v>3.393</v>
       </c>
       <c r="K3">
-        <v>3.391</v>
+        <v>3.445</v>
+      </c>
+      <c r="L3">
+        <v>3.398</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -548,31 +554,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.64</v>
+        <v>4.61</v>
       </c>
       <c r="C4">
-        <v>4.62</v>
+        <v>4.54</v>
       </c>
       <c r="D4">
-        <v>4.46</v>
+        <v>4.35</v>
       </c>
       <c r="E4">
-        <v>4.052</v>
+        <v>3.86</v>
       </c>
       <c r="F4">
-        <v>3.892</v>
+        <v>3.687</v>
       </c>
       <c r="G4">
-        <v>3.612</v>
+        <v>3.414</v>
       </c>
       <c r="H4">
-        <v>3.534</v>
+        <v>3.341</v>
       </c>
       <c r="I4">
-        <v>3.609</v>
+        <v>3.435</v>
       </c>
       <c r="K4">
-        <v>3.606</v>
+        <v>3.459</v>
+      </c>
+      <c r="L4">
+        <v>3.385</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -580,31 +589,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4.65</v>
+        <v>4.66</v>
       </c>
       <c r="C5">
-        <v>4.57</v>
+        <v>4.63</v>
       </c>
       <c r="D5">
-        <v>4.38</v>
+        <v>4.43</v>
       </c>
       <c r="E5">
-        <v>3.923</v>
+        <v>3.998</v>
       </c>
       <c r="F5">
-        <v>3.756</v>
+        <v>3.84</v>
       </c>
       <c r="G5">
-        <v>3.374</v>
+        <v>3.516</v>
       </c>
       <c r="H5">
-        <v>3.298</v>
+        <v>3.438</v>
       </c>
       <c r="I5">
-        <v>3.35</v>
+        <v>3.507</v>
       </c>
       <c r="K5">
-        <v>3.353</v>
+        <v>3.498</v>
+      </c>
+      <c r="L5">
+        <v>3.402</v>
       </c>
     </row>
   </sheetData>
@@ -663,31 +675,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.342</v>
+        <v>5.298</v>
       </c>
       <c r="C2">
-        <v>5.201</v>
+        <v>5.151</v>
       </c>
       <c r="D2">
-        <v>4.888</v>
+        <v>4.811</v>
       </c>
       <c r="E2">
-        <v>4.517</v>
+        <v>4.387</v>
       </c>
       <c r="F2">
-        <v>4.292</v>
+        <v>4.203</v>
       </c>
       <c r="G2">
-        <v>4.17</v>
+        <v>4.077</v>
       </c>
       <c r="H2">
-        <v>4.187</v>
+        <v>4.119</v>
       </c>
       <c r="I2">
-        <v>4.243</v>
+        <v>4.199</v>
       </c>
       <c r="L2">
-        <v>4.451</v>
+        <v>4.454</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -695,31 +707,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.342</v>
+        <v>5.324</v>
       </c>
       <c r="C3">
-        <v>5.19</v>
+        <v>5.18</v>
       </c>
       <c r="D3">
-        <v>4.852</v>
+        <v>4.879</v>
       </c>
       <c r="E3">
-        <v>4.421</v>
+        <v>4.496</v>
       </c>
       <c r="F3">
-        <v>4.194</v>
+        <v>4.277</v>
       </c>
       <c r="G3">
-        <v>4.076</v>
+        <v>4.166</v>
       </c>
       <c r="H3">
-        <v>4.099</v>
+        <v>4.192</v>
       </c>
       <c r="I3">
-        <v>4.16</v>
+        <v>4.254</v>
       </c>
       <c r="L3">
-        <v>4.372</v>
+        <v>4.487</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -727,31 +739,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.373</v>
+        <v>5.345</v>
       </c>
       <c r="C4">
-        <v>5.291</v>
+        <v>5.195</v>
       </c>
       <c r="D4">
-        <v>5.006</v>
+        <v>4.877</v>
       </c>
       <c r="E4">
-        <v>4.606</v>
+        <v>4.458</v>
       </c>
       <c r="F4">
-        <v>4.398</v>
+        <v>4.231</v>
       </c>
       <c r="G4">
-        <v>4.227</v>
+        <v>4.107</v>
       </c>
       <c r="H4">
-        <v>4.23</v>
+        <v>4.13</v>
       </c>
       <c r="I4">
-        <v>4.278</v>
+        <v>4.187</v>
       </c>
       <c r="L4">
-        <v>4.476</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -759,31 +771,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.365</v>
+        <v>5.363</v>
       </c>
       <c r="C5">
-        <v>5.355</v>
+        <v>5.315</v>
       </c>
       <c r="D5">
-        <v>5.111</v>
+        <v>5.107</v>
       </c>
       <c r="E5">
-        <v>4.734</v>
+        <v>4.749</v>
       </c>
       <c r="F5">
-        <v>4.466</v>
+        <v>4.546</v>
       </c>
       <c r="G5">
-        <v>4.273</v>
+        <v>4.369</v>
       </c>
       <c r="H5">
-        <v>4.257</v>
+        <v>4.369</v>
       </c>
       <c r="I5">
-        <v>4.257</v>
+        <v>4.392</v>
       </c>
       <c r="L5">
-        <v>4.396</v>
+        <v>4.554</v>
       </c>
     </row>
   </sheetData>
@@ -985,25 +997,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.399</v>
+        <v>4.373</v>
       </c>
       <c r="E2">
-        <v>4.142</v>
+        <v>4.1</v>
       </c>
       <c r="F2">
-        <v>4.027</v>
+        <v>3.988</v>
       </c>
       <c r="G2">
-        <v>4.029</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>4.159</v>
+        <v>4.145</v>
       </c>
       <c r="I2">
-        <v>4.295</v>
+        <v>4.3</v>
       </c>
       <c r="J2">
-        <v>4.515</v>
+        <v>4.528</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1011,25 +1023,25 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.386</v>
+        <v>4.387</v>
       </c>
       <c r="E3">
-        <v>4.096</v>
+        <v>4.167</v>
       </c>
       <c r="F3">
-        <v>3.984</v>
+        <v>4.052</v>
       </c>
       <c r="G3">
-        <v>3.989</v>
+        <v>4.07</v>
       </c>
       <c r="H3">
-        <v>4.113</v>
+        <v>4.191</v>
       </c>
       <c r="I3">
-        <v>4.249</v>
+        <v>4.333</v>
       </c>
       <c r="J3">
-        <v>4.469</v>
+        <v>4.573</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1037,25 +1049,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.454</v>
+        <v>4.433</v>
       </c>
       <c r="E4">
+        <v>4.216</v>
+      </c>
+      <c r="F4">
+        <v>4.122</v>
+      </c>
+      <c r="G4">
+        <v>4.122</v>
+      </c>
+      <c r="H4">
         <v>4.245</v>
       </c>
-      <c r="F4">
-        <v>4.17</v>
-      </c>
-      <c r="G4">
-        <v>4.163</v>
-      </c>
-      <c r="H4">
-        <v>4.284</v>
-      </c>
       <c r="I4">
-        <v>4.415</v>
+        <v>4.376</v>
       </c>
       <c r="J4">
-        <v>4.623</v>
+        <v>4.588</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1063,25 +1075,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>4.334</v>
+        <v>4.43</v>
       </c>
       <c r="E5">
-        <v>4.055</v>
+        <v>4.192</v>
       </c>
       <c r="F5">
-        <v>3.957</v>
+        <v>4.114</v>
       </c>
       <c r="G5">
-        <v>3.982</v>
+        <v>4.106</v>
       </c>
       <c r="H5">
-        <v>4.109</v>
+        <v>4.222</v>
       </c>
       <c r="I5">
-        <v>4.248</v>
+        <v>4.351</v>
       </c>
       <c r="J5">
-        <v>4.448</v>
+        <v>4.539</v>
       </c>
     </row>
   </sheetData>
@@ -1140,31 +1152,28 @@
         <v>12</v>
       </c>
       <c r="B2">
+        <v>3.439</v>
+      </c>
+      <c r="C2">
         <v>3.447</v>
       </c>
-      <c r="C2">
-        <v>3.461</v>
-      </c>
       <c r="D2">
-        <v>3.377</v>
+        <v>3.327</v>
       </c>
       <c r="E2">
-        <v>3.159</v>
+        <v>3.079</v>
       </c>
       <c r="F2">
-        <v>3.1</v>
+        <v>3.036</v>
       </c>
       <c r="G2">
-        <v>3.243</v>
+        <v>3.195</v>
       </c>
       <c r="H2">
-        <v>3.413</v>
-      </c>
-      <c r="I2">
-        <v>3.779</v>
+        <v>3.382</v>
       </c>
       <c r="J2">
-        <v>4.145</v>
+        <v>4.138</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1172,31 +1181,28 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.463</v>
+        <v>3.439</v>
       </c>
       <c r="C3">
-        <v>3.441</v>
+        <v>3.459</v>
       </c>
       <c r="D3">
-        <v>3.363</v>
+        <v>3.378</v>
       </c>
       <c r="E3">
-        <v>3.119</v>
+        <v>3.138</v>
       </c>
       <c r="F3">
-        <v>3.059</v>
+        <v>3.083</v>
       </c>
       <c r="G3">
-        <v>3.189</v>
+        <v>3.219</v>
       </c>
       <c r="H3">
-        <v>3.348</v>
-      </c>
-      <c r="I3">
-        <v>3.708</v>
+        <v>3.379</v>
       </c>
       <c r="J3">
-        <v>4.074</v>
+        <v>4.109</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1204,31 +1210,28 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.482</v>
+        <v>3.248</v>
       </c>
       <c r="C4">
-        <v>3.621</v>
+        <v>3.527</v>
       </c>
       <c r="D4">
-        <v>3.538</v>
+        <v>3.426</v>
       </c>
       <c r="E4">
-        <v>3.553</v>
+        <v>3.388</v>
       </c>
       <c r="F4">
-        <v>3.365</v>
+        <v>3.128</v>
       </c>
       <c r="G4">
-        <v>3.491</v>
+        <v>3.259</v>
       </c>
       <c r="H4">
-        <v>3.643</v>
-      </c>
-      <c r="I4">
-        <v>4.008</v>
+        <v>3.42</v>
       </c>
       <c r="J4">
-        <v>4.364</v>
+        <v>4.152</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1236,31 +1239,28 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.477</v>
+        <v>3.465</v>
       </c>
       <c r="C5">
-        <v>3.564</v>
+        <v>3.629</v>
       </c>
       <c r="D5">
-        <v>3.564</v>
+        <v>3.515</v>
       </c>
       <c r="E5">
-        <v>3.554</v>
+        <v>3.575</v>
       </c>
       <c r="F5">
-        <v>3.337</v>
+        <v>3.384</v>
       </c>
       <c r="G5">
-        <v>3.446</v>
+        <v>3.531</v>
       </c>
       <c r="H5">
-        <v>3.592</v>
-      </c>
-      <c r="I5">
-        <v>3.943</v>
+        <v>3.702</v>
       </c>
       <c r="J5">
-        <v>4.278</v>
+        <v>4.412</v>
       </c>
     </row>
   </sheetData>
@@ -1319,37 +1319,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="D2">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="E2">
-        <v>0.752</v>
+        <v>0.659</v>
       </c>
       <c r="F2">
-        <v>0.681</v>
+        <v>0.612</v>
       </c>
       <c r="G2">
-        <v>0.666</v>
+        <v>0.582</v>
       </c>
       <c r="H2">
-        <v>0.603</v>
+        <v>0.549</v>
       </c>
       <c r="I2">
-        <v>0.587</v>
+        <v>0.506</v>
       </c>
       <c r="J2">
-        <v>0.584</v>
+        <v>0.514</v>
       </c>
       <c r="K2">
-        <v>0.574</v>
+        <v>0.529</v>
       </c>
       <c r="L2">
-        <v>0.535</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1360,34 +1360,34 @@
         <v>1.09</v>
       </c>
       <c r="C3">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1.06</v>
       </c>
       <c r="E3">
-        <v>0.718</v>
+        <v>0.723</v>
       </c>
       <c r="F3">
-        <v>0.667</v>
+        <v>0.664</v>
       </c>
       <c r="G3">
-        <v>0.637</v>
+        <v>0.62</v>
       </c>
       <c r="H3">
-        <v>0.598</v>
+        <v>0.604</v>
       </c>
       <c r="I3">
+        <v>0.548</v>
+      </c>
+      <c r="J3">
         <v>0.5669999999999999</v>
       </c>
-      <c r="J3">
-        <v>0.577</v>
-      </c>
       <c r="K3">
-        <v>0.5659999999999999</v>
+        <v>0.551</v>
       </c>
       <c r="L3">
-        <v>0.518</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1395,37 +1395,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="C4">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="D4">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="E4">
-        <v>0.8110000000000001</v>
+        <v>0.747</v>
       </c>
       <c r="F4">
-        <v>0.764</v>
+        <v>0.7</v>
       </c>
       <c r="G4">
-        <v>0.762</v>
+        <v>0.672</v>
       </c>
       <c r="H4">
-        <v>0.711</v>
+        <v>0.615</v>
       </c>
       <c r="I4">
-        <v>0.7</v>
+        <v>0.594</v>
       </c>
       <c r="J4">
-        <v>0.694</v>
+        <v>0.619</v>
       </c>
       <c r="K4">
-        <v>0.707</v>
+        <v>0.608</v>
       </c>
       <c r="L4">
-        <v>0.66</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1436,34 +1436,34 @@
         <v>1.13</v>
       </c>
       <c r="C5">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="D5">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="E5">
-        <v>0.824</v>
+        <v>0.804</v>
       </c>
       <c r="F5">
-        <v>0.789</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G5">
-        <v>0.758</v>
+        <v>0.671</v>
       </c>
       <c r="H5">
-        <v>0.665</v>
+        <v>0.577</v>
       </c>
       <c r="I5">
-        <v>0.639</v>
+        <v>0.542</v>
       </c>
       <c r="J5">
-        <v>0.648</v>
+        <v>0.575</v>
       </c>
       <c r="K5">
-        <v>0.667</v>
+        <v>0.605</v>
       </c>
       <c r="L5">
-        <v>0.614</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1522,31 +1522,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1.512</v>
+        <v>1.452</v>
       </c>
       <c r="E2">
-        <v>1.589</v>
+        <v>1.501</v>
       </c>
       <c r="F2">
-        <v>1.783</v>
+        <v>1.712</v>
       </c>
       <c r="G2">
-        <v>1.957</v>
+        <v>1.894</v>
       </c>
       <c r="H2">
-        <v>2.095</v>
+        <v>2.026</v>
       </c>
       <c r="I2">
-        <v>2.272</v>
+        <v>2.197</v>
       </c>
       <c r="J2">
-        <v>2.277</v>
+        <v>2.243</v>
       </c>
       <c r="K2">
-        <v>2.443</v>
+        <v>2.385</v>
       </c>
       <c r="L2">
-        <v>2.504</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1554,31 +1554,31 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>1.525</v>
+        <v>1.482</v>
       </c>
       <c r="E3">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="F3">
-        <v>1.772</v>
+        <v>1.731</v>
       </c>
       <c r="G3">
-        <v>1.97</v>
+        <v>1.891</v>
       </c>
       <c r="H3">
-        <v>2.108</v>
+        <v>2.03</v>
       </c>
       <c r="I3">
-        <v>2.264</v>
+        <v>2.236</v>
       </c>
       <c r="J3">
-        <v>2.31</v>
+        <v>2.289</v>
       </c>
       <c r="K3">
-        <v>2.445</v>
+        <v>2.427</v>
       </c>
       <c r="L3">
-        <v>2.502</v>
+        <v>2.479</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1586,31 +1586,31 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>1.577</v>
+        <v>1.528</v>
       </c>
       <c r="E4">
-        <v>1.681</v>
+        <v>1.625</v>
       </c>
       <c r="F4">
-        <v>1.861</v>
+        <v>1.795</v>
       </c>
       <c r="G4">
-        <v>2.03</v>
+        <v>1.973</v>
       </c>
       <c r="H4">
-        <v>2.152</v>
+        <v>2.103</v>
       </c>
       <c r="I4">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="J4">
-        <v>2.366</v>
+        <v>2.346</v>
       </c>
       <c r="K4">
-        <v>2.474</v>
+        <v>2.431</v>
       </c>
       <c r="L4">
-        <v>2.529</v>
+        <v>2.487</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1618,31 +1618,31 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1.599</v>
+        <v>1.534</v>
       </c>
       <c r="E5">
-        <v>1.72</v>
+        <v>1.652</v>
       </c>
       <c r="F5">
-        <v>1.88</v>
+        <v>1.788</v>
       </c>
       <c r="G5">
-        <v>2.031</v>
+        <v>1.963</v>
       </c>
       <c r="H5">
-        <v>2.175</v>
+        <v>2.104</v>
       </c>
       <c r="I5">
-        <v>2.259</v>
+        <v>2.208</v>
       </c>
       <c r="J5">
-        <v>2.331</v>
+        <v>2.316</v>
       </c>
       <c r="K5">
-        <v>2.407</v>
+        <v>2.373</v>
       </c>
       <c r="L5">
-        <v>2.491</v>
+        <v>2.433</v>
       </c>
     </row>
   </sheetData>
@@ -1704,16 +1704,16 @@
         <v>8.1</v>
       </c>
       <c r="G2">
-        <v>8.535</v>
+        <v>8.355</v>
       </c>
       <c r="I2">
-        <v>9.65</v>
+        <v>9.477</v>
       </c>
       <c r="K2">
-        <v>11.61</v>
+        <v>11.525</v>
       </c>
       <c r="L2">
-        <v>11.56</v>
+        <v>11.455</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1724,16 +1724,16 @@
         <v>8.050000000000001</v>
       </c>
       <c r="G3">
-        <v>8.449999999999999</v>
+        <v>8.365</v>
       </c>
       <c r="I3">
-        <v>9.555</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="K3">
-        <v>11.495</v>
+        <v>11.48</v>
       </c>
       <c r="L3">
-        <v>11.47</v>
+        <v>11.405</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1741,19 +1741,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8.1</v>
+        <v>7.94</v>
       </c>
       <c r="G4">
-        <v>8.789999999999999</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="I4">
-        <v>10.004</v>
+        <v>9.57</v>
       </c>
       <c r="K4">
-        <v>12.114</v>
+        <v>11.605</v>
       </c>
       <c r="L4">
-        <v>12.09</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1761,19 +1761,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>7.94</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G5">
-        <v>8.753</v>
+        <v>8.942</v>
       </c>
       <c r="I5">
-        <v>9.9</v>
+        <v>10.214</v>
       </c>
       <c r="K5">
-        <v>12.157</v>
+        <v>12.395</v>
       </c>
       <c r="L5">
-        <v>12.123</v>
+        <v>12.365</v>
       </c>
     </row>
   </sheetData>
@@ -1832,22 +1832,22 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>44.009</v>
+        <v>44.1</v>
       </c>
       <c r="C2">
-        <v>45.147</v>
+        <v>45.174</v>
       </c>
       <c r="E2">
-        <v>38.37</v>
+        <v>38.47</v>
       </c>
       <c r="F2">
-        <v>29.29</v>
+        <v>29.58</v>
       </c>
       <c r="G2">
-        <v>29.1</v>
+        <v>28.95</v>
       </c>
       <c r="I2">
-        <v>26.27</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1855,22 +1855,22 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>47.011</v>
+        <v>44.027</v>
       </c>
       <c r="C3">
-        <v>46.635</v>
+        <v>45.086</v>
       </c>
       <c r="E3">
-        <v>37.8</v>
+        <v>38.57</v>
       </c>
       <c r="F3">
-        <v>29.01</v>
+        <v>29.53</v>
       </c>
       <c r="G3">
-        <v>28.91</v>
+        <v>28.99</v>
       </c>
       <c r="I3">
-        <v>26.16</v>
+        <v>26.13</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1878,22 +1878,22 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>49.089</v>
+        <v>44.38</v>
       </c>
       <c r="C4">
-        <v>47.536</v>
+        <v>45.331</v>
       </c>
       <c r="E4">
-        <v>36.09</v>
+        <v>36.93</v>
       </c>
       <c r="F4">
-        <v>27.35</v>
+        <v>27.84</v>
       </c>
       <c r="G4">
-        <v>28.47</v>
+        <v>28.73</v>
       </c>
       <c r="I4">
-        <v>25.74</v>
+        <v>26.09</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1901,22 +1901,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>44.662</v>
+        <v>43.112</v>
       </c>
       <c r="C5">
-        <v>45.788</v>
+        <v>41.538</v>
       </c>
       <c r="E5">
-        <v>39.13</v>
+        <v>38</v>
       </c>
       <c r="F5">
-        <v>29.98</v>
+        <v>28.57</v>
       </c>
       <c r="G5">
-        <v>30.53</v>
+        <v>29.52</v>
       </c>
       <c r="I5">
-        <v>26.96</v>
+        <v>26.52</v>
       </c>
     </row>
   </sheetData>
@@ -1975,34 +1975,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.76</v>
+        <v>6.73</v>
       </c>
       <c r="C2">
-        <v>6.86</v>
+        <v>6.83</v>
       </c>
       <c r="D2">
-        <v>6.884</v>
+        <v>6.827</v>
       </c>
       <c r="E2">
-        <v>6.873</v>
+        <v>6.825</v>
       </c>
       <c r="F2">
-        <v>6.889</v>
+        <v>6.839</v>
       </c>
       <c r="G2">
-        <v>6.918</v>
+        <v>6.844</v>
       </c>
       <c r="H2">
-        <v>6.952</v>
+        <v>6.898</v>
       </c>
       <c r="I2">
-        <v>6.965</v>
+        <v>6.94</v>
       </c>
       <c r="J2">
-        <v>6.997</v>
+        <v>6.978</v>
       </c>
       <c r="L2">
-        <v>7.039</v>
+        <v>7.036</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2010,34 +2010,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.76</v>
+        <v>6.75</v>
       </c>
       <c r="C3">
-        <v>6.88</v>
+        <v>6.86</v>
       </c>
       <c r="D3">
-        <v>6.886</v>
+        <v>6.883</v>
       </c>
       <c r="E3">
-        <v>6.91</v>
+        <v>6.875</v>
       </c>
       <c r="F3">
-        <v>6.917</v>
+        <v>6.891</v>
       </c>
       <c r="G3">
-        <v>6.959</v>
+        <v>6.922</v>
       </c>
       <c r="H3">
-        <v>6.98</v>
+        <v>6.953</v>
       </c>
       <c r="I3">
-        <v>6.981</v>
+        <v>6.97</v>
       </c>
       <c r="J3">
-        <v>7.017</v>
+        <v>6.994</v>
       </c>
       <c r="L3">
-        <v>7.063</v>
+        <v>7.042</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2048,31 +2048,31 @@
         <v>6.78</v>
       </c>
       <c r="C4">
-        <v>6.91</v>
+        <v>6.88</v>
       </c>
       <c r="D4">
-        <v>6.943</v>
+        <v>6.928</v>
       </c>
       <c r="E4">
-        <v>6.956</v>
+        <v>6.931</v>
       </c>
       <c r="F4">
-        <v>6.961</v>
+        <v>6.929</v>
       </c>
       <c r="G4">
-        <v>7.002</v>
+        <v>6.982</v>
       </c>
       <c r="H4">
-        <v>7.01</v>
+        <v>6.993</v>
       </c>
       <c r="I4">
-        <v>7.001</v>
+        <v>6.976</v>
       </c>
       <c r="J4">
-        <v>7.022</v>
+        <v>7.015</v>
       </c>
       <c r="L4">
-        <v>7.052</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2083,31 +2083,31 @@
         <v>6.83</v>
       </c>
       <c r="C5">
-        <v>6.98</v>
+        <v>6.93</v>
       </c>
       <c r="D5">
-        <v>6.952</v>
+        <v>6.936</v>
       </c>
       <c r="E5">
-        <v>6.954</v>
+        <v>6.949</v>
       </c>
       <c r="F5">
-        <v>6.954</v>
+        <v>6.977</v>
       </c>
       <c r="G5">
-        <v>6.999</v>
+        <v>7.022</v>
       </c>
       <c r="H5">
-        <v>7.029</v>
+        <v>7.038</v>
       </c>
       <c r="I5">
-        <v>6.973</v>
+        <v>7.008</v>
       </c>
       <c r="J5">
-        <v>7.007</v>
+        <v>7.032</v>
       </c>
       <c r="L5">
-        <v>7.028</v>
+        <v>7.057</v>
       </c>
     </row>
   </sheetData>
@@ -2166,37 +2166,28 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.64</v>
+        <v>3.617</v>
       </c>
       <c r="C2">
-        <v>3.564</v>
+        <v>3.501</v>
       </c>
       <c r="D2">
-        <v>3.389</v>
-      </c>
-      <c r="E2">
-        <v>2.959</v>
-      </c>
-      <c r="F2">
-        <v>2.867</v>
-      </c>
-      <c r="G2">
-        <v>2.853</v>
+        <v>3.271</v>
       </c>
       <c r="H2">
-        <v>2.8934</v>
+        <v>2.8547</v>
       </c>
       <c r="I2">
-        <v>3.13</v>
+        <v>3.109</v>
       </c>
       <c r="J2">
-        <v>3.32</v>
+        <v>3.316</v>
       </c>
       <c r="K2">
-        <v>3.434</v>
+        <v>3.438</v>
       </c>
       <c r="L2">
-        <v>3.627</v>
+        <v>3.639</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2204,37 +2195,28 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.657</v>
+        <v>3.621</v>
       </c>
       <c r="C3">
-        <v>3.531</v>
+        <v>3.555</v>
       </c>
       <c r="D3">
-        <v>3.366</v>
-      </c>
-      <c r="E3">
-        <v>2.972</v>
-      </c>
-      <c r="F3">
-        <v>2.861</v>
-      </c>
-      <c r="G3">
-        <v>2.831</v>
+        <v>3.349</v>
       </c>
       <c r="H3">
-        <v>2.8626</v>
+        <v>2.8971</v>
       </c>
       <c r="I3">
-        <v>3.086</v>
+        <v>3.127</v>
       </c>
       <c r="J3">
-        <v>3.27</v>
+        <v>3.316</v>
       </c>
       <c r="K3">
-        <v>3.379</v>
+        <v>3.429</v>
       </c>
       <c r="L3">
-        <v>3.57</v>
+        <v>3.624</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2242,37 +2224,28 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.729</v>
+        <v>3.655</v>
       </c>
       <c r="C4">
-        <v>3.632</v>
+        <v>3.547</v>
       </c>
       <c r="D4">
-        <v>3.48</v>
-      </c>
-      <c r="E4">
-        <v>3.177</v>
-      </c>
-      <c r="F4">
-        <v>3.066</v>
-      </c>
-      <c r="G4">
-        <v>3.037</v>
+        <v>3.385</v>
       </c>
       <c r="H4">
-        <v>3.0625</v>
+        <v>2.8947</v>
       </c>
       <c r="I4">
-        <v>3.279</v>
+        <v>3.125</v>
       </c>
       <c r="J4">
-        <v>3.443</v>
+        <v>3.314</v>
       </c>
       <c r="K4">
-        <v>3.539</v>
+        <v>3.417</v>
       </c>
       <c r="L4">
-        <v>3.712</v>
+        <v>3.606</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2280,37 +2253,28 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.722</v>
+        <v>3.73</v>
       </c>
       <c r="C5">
-        <v>3.628</v>
+        <v>3.639</v>
       </c>
       <c r="D5">
-        <v>3.443</v>
-      </c>
-      <c r="E5">
-        <v>3.099</v>
-      </c>
-      <c r="F5">
-        <v>3.003</v>
-      </c>
-      <c r="G5">
-        <v>2.938</v>
+        <v>3.492</v>
       </c>
       <c r="H5">
-        <v>2.9794</v>
+        <v>3.0609</v>
       </c>
       <c r="I5">
-        <v>3.164</v>
+        <v>3.288</v>
       </c>
       <c r="J5">
-        <v>3.384</v>
+        <v>3.46</v>
       </c>
       <c r="K5">
-        <v>3.483</v>
+        <v>3.562</v>
       </c>
       <c r="L5">
-        <v>3.647</v>
+        <v>3.737</v>
       </c>
     </row>
   </sheetData>
@@ -2369,37 +2333,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.462</v>
+        <v>3.431</v>
       </c>
       <c r="C2">
-        <v>3.386</v>
+        <v>3.342</v>
       </c>
       <c r="D2">
-        <v>3.163</v>
+        <v>3.087</v>
       </c>
       <c r="E2">
-        <v>2.778</v>
+        <v>2.667</v>
       </c>
       <c r="F2">
-        <v>2.564</v>
+        <v>2.46</v>
       </c>
       <c r="G2">
-        <v>2.428</v>
+        <v>2.327</v>
       </c>
       <c r="H2">
-        <v>2.339</v>
+        <v>2.258</v>
       </c>
       <c r="I2">
-        <v>2.463</v>
+        <v>2.403</v>
       </c>
       <c r="J2">
-        <v>2.621</v>
+        <v>2.567</v>
       </c>
       <c r="K2">
-        <v>2.682</v>
+        <v>2.634</v>
       </c>
       <c r="L2">
-        <v>2.663</v>
+        <v>2.627</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2407,37 +2371,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.458</v>
+        <v>3.445</v>
       </c>
       <c r="C3">
-        <v>3.38</v>
+        <v>3.378</v>
       </c>
       <c r="D3">
-        <v>3.227</v>
+        <v>3.154</v>
       </c>
       <c r="E3">
-        <v>2.767</v>
+        <v>2.766</v>
       </c>
       <c r="F3">
-        <v>2.555</v>
+        <v>2.556</v>
       </c>
       <c r="G3">
-        <v>2.407</v>
+        <v>2.397</v>
       </c>
       <c r="H3">
-        <v>2.313</v>
+        <v>2.316</v>
       </c>
       <c r="I3">
-        <v>2.432</v>
+        <v>2.438</v>
       </c>
       <c r="J3">
-        <v>2.589</v>
+        <v>2.593</v>
       </c>
       <c r="K3">
-        <v>2.645</v>
+        <v>2.655</v>
       </c>
       <c r="L3">
-        <v>2.619</v>
+        <v>2.636</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2445,37 +2409,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.401</v>
+        <v>3.458</v>
       </c>
       <c r="C4">
-        <v>3.428</v>
+        <v>3.382</v>
       </c>
       <c r="D4">
-        <v>3.285</v>
+        <v>3.228</v>
       </c>
       <c r="E4">
-        <v>2.943</v>
+        <v>2.8</v>
       </c>
       <c r="F4">
-        <v>2.728</v>
+        <v>2.594</v>
       </c>
       <c r="G4">
-        <v>2.59</v>
+        <v>2.449</v>
       </c>
       <c r="H4">
-        <v>2.498</v>
+        <v>2.355</v>
       </c>
       <c r="I4">
-        <v>2.585</v>
+        <v>2.471</v>
       </c>
       <c r="J4">
-        <v>2.799</v>
+        <v>2.623</v>
       </c>
       <c r="K4">
-        <v>2.793</v>
+        <v>2.682</v>
       </c>
       <c r="L4">
-        <v>2.759</v>
+        <v>2.666</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2483,37 +2447,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.379</v>
+        <v>3.384</v>
       </c>
       <c r="C5">
-        <v>3.355</v>
+        <v>3.376</v>
       </c>
       <c r="D5">
-        <v>3.199</v>
+        <v>3.235</v>
       </c>
       <c r="E5">
-        <v>2.793</v>
+        <v>2.825</v>
       </c>
       <c r="F5">
-        <v>2.578</v>
+        <v>2.614</v>
       </c>
       <c r="G5">
-        <v>2.415</v>
+        <v>2.47</v>
       </c>
       <c r="H5">
-        <v>2.316</v>
+        <v>2.384</v>
       </c>
       <c r="I5">
-        <v>2.409</v>
+        <v>2.485</v>
       </c>
       <c r="J5">
-        <v>2.628</v>
+        <v>2.709</v>
       </c>
       <c r="K5">
-        <v>2.627</v>
+        <v>2.707</v>
       </c>
       <c r="L5">
-        <v>2.589</v>
+        <v>2.674</v>
       </c>
     </row>
   </sheetData>
@@ -2572,19 +2536,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.596</v>
+        <v>4.546</v>
       </c>
       <c r="E2">
-        <v>5.102</v>
+        <v>5.07</v>
       </c>
       <c r="F2">
-        <v>5.249</v>
+        <v>5.178</v>
       </c>
       <c r="G2">
-        <v>5.447</v>
+        <v>5.455</v>
       </c>
       <c r="I2">
-        <v>5.557</v>
+        <v>5.591</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2592,19 +2556,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.597</v>
+        <v>4.535</v>
       </c>
       <c r="E3">
-        <v>5.034</v>
+        <v>5.106</v>
       </c>
       <c r="F3">
-        <v>5.219</v>
+        <v>5.244</v>
       </c>
       <c r="G3">
-        <v>5.415</v>
+        <v>5.492</v>
       </c>
       <c r="I3">
-        <v>5.583</v>
+        <v>5.597</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2612,19 +2576,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.855</v>
+        <v>4.749</v>
       </c>
       <c r="E4">
-        <v>5.291</v>
+        <v>5.18</v>
       </c>
       <c r="F4">
-        <v>5.47</v>
+        <v>5.318</v>
       </c>
       <c r="G4">
-        <v>5.699</v>
+        <v>5.535</v>
       </c>
       <c r="I4">
-        <v>5.777</v>
+        <v>5.721</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2632,19 +2596,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>4.975</v>
+        <v>5.058</v>
       </c>
       <c r="E5">
-        <v>5.2</v>
+        <v>5.167</v>
       </c>
       <c r="F5">
-        <v>5.366</v>
+        <v>5.333</v>
       </c>
       <c r="G5">
-        <v>5.609</v>
+        <v>5.543</v>
       </c>
       <c r="I5">
-        <v>5.726</v>
+        <v>5.7</v>
       </c>
     </row>
   </sheetData>
@@ -2703,19 +2667,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>11.075</v>
+        <v>11.297</v>
       </c>
       <c r="E2">
-        <v>11.475</v>
+        <v>11.8</v>
       </c>
       <c r="F2">
-        <v>11.605</v>
+        <v>11.865</v>
       </c>
       <c r="G2">
-        <v>11.93</v>
+        <v>12.085</v>
       </c>
       <c r="I2">
-        <v>12.07</v>
+        <v>12.135</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2723,19 +2687,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>10.835</v>
+        <v>11.125</v>
       </c>
       <c r="E3">
-        <v>11.215</v>
+        <v>11.62</v>
       </c>
       <c r="F3">
-        <v>11.355</v>
+        <v>11.755</v>
       </c>
       <c r="G3">
-        <v>11.69</v>
+        <v>12.06</v>
       </c>
       <c r="I3">
-        <v>11.83</v>
+        <v>12.165</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2743,19 +2707,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>10.99</v>
+        <v>10.81</v>
       </c>
       <c r="E4">
-        <v>11.46</v>
+        <v>11.2</v>
       </c>
       <c r="F4">
-        <v>11.635</v>
+        <v>11.295</v>
       </c>
       <c r="G4">
-        <v>11.955</v>
+        <v>11.57</v>
       </c>
       <c r="I4">
-        <v>12.07</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2763,19 +2727,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>10.849</v>
+        <v>11.137</v>
       </c>
       <c r="E5">
-        <v>11.3</v>
+        <v>11.642</v>
       </c>
       <c r="F5">
-        <v>11.525</v>
+        <v>11.875</v>
       </c>
       <c r="G5">
-        <v>11.89</v>
+        <v>12.225</v>
       </c>
       <c r="I5">
-        <v>12.045</v>
+        <v>12.33</v>
       </c>
     </row>
   </sheetData>
@@ -2834,25 +2798,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>2.87</v>
+        <v>2.763</v>
       </c>
       <c r="F2">
-        <v>2.701</v>
+        <v>2.616</v>
       </c>
       <c r="G2">
-        <v>2.642</v>
+        <v>2.596</v>
       </c>
       <c r="H2">
-        <v>2.688</v>
+        <v>2.657</v>
       </c>
       <c r="I2">
-        <v>3.068</v>
+        <v>3.052</v>
       </c>
       <c r="J2">
-        <v>3.32</v>
+        <v>3.302</v>
       </c>
       <c r="L2">
-        <v>3.409</v>
+        <v>3.408</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2860,25 +2824,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>2.83</v>
+        <v>2.849</v>
       </c>
       <c r="F3">
-        <v>2.677</v>
+        <v>2.701</v>
       </c>
       <c r="G3">
-        <v>2.609</v>
+        <v>2.643</v>
       </c>
       <c r="H3">
-        <v>2.666</v>
+        <v>2.689</v>
       </c>
       <c r="I3">
-        <v>3.017</v>
+        <v>3.067</v>
       </c>
       <c r="J3">
-        <v>3.264</v>
+        <v>3.317</v>
       </c>
       <c r="L3">
-        <v>3.35</v>
+        <v>3.421</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2886,25 +2850,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>3.012</v>
+        <v>2.889</v>
       </c>
       <c r="F4">
-        <v>2.869</v>
+        <v>2.73</v>
       </c>
       <c r="G4">
-        <v>2.817</v>
+        <v>2.666</v>
       </c>
       <c r="H4">
-        <v>2.862</v>
+        <v>2.721</v>
       </c>
       <c r="I4">
-        <v>3.224</v>
+        <v>3.075</v>
       </c>
       <c r="J4">
-        <v>3.463</v>
+        <v>3.311</v>
       </c>
       <c r="L4">
-        <v>3.563</v>
+        <v>3.421</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2912,25 +2876,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>2.943</v>
+        <v>2.989</v>
       </c>
       <c r="F5">
-        <v>2.822</v>
+        <v>2.869</v>
       </c>
       <c r="G5">
-        <v>2.754</v>
+        <v>2.818</v>
       </c>
       <c r="H5">
-        <v>2.795</v>
+        <v>2.871</v>
       </c>
       <c r="I5">
-        <v>3.147</v>
+        <v>3.239</v>
       </c>
       <c r="J5">
-        <v>3.395</v>
+        <v>3.51</v>
       </c>
       <c r="L5">
-        <v>3.484</v>
+        <v>3.589</v>
       </c>
     </row>
   </sheetData>
@@ -2989,37 +2953,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.233</v>
+        <v>5.199</v>
       </c>
       <c r="C2">
-        <v>5.163</v>
+        <v>5.096</v>
       </c>
       <c r="D2">
-        <v>4.569</v>
+        <v>4.532</v>
       </c>
       <c r="E2">
-        <v>3.999</v>
+        <v>3.917</v>
       </c>
       <c r="F2">
-        <v>4.014</v>
+        <v>3.972</v>
       </c>
       <c r="G2">
-        <v>3.933</v>
+        <v>3.897</v>
       </c>
       <c r="H2">
-        <v>3.944</v>
+        <v>3.909</v>
       </c>
       <c r="I2">
-        <v>4.126</v>
+        <v>4.103</v>
       </c>
       <c r="J2">
-        <v>4.396</v>
+        <v>4.388</v>
       </c>
       <c r="K2">
-        <v>4.575</v>
+        <v>4.582</v>
       </c>
       <c r="L2">
-        <v>4.637</v>
+        <v>4.663</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3027,37 +2991,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.221</v>
+        <v>5.217</v>
       </c>
       <c r="C3">
-        <v>5.16</v>
+        <v>5.158</v>
       </c>
       <c r="D3">
-        <v>4.561</v>
+        <v>4.599</v>
       </c>
       <c r="E3">
-        <v>3.974</v>
+        <v>4.022</v>
       </c>
       <c r="F3">
-        <v>3.971</v>
+        <v>4.026</v>
       </c>
       <c r="G3">
-        <v>3.884</v>
+        <v>3.942</v>
       </c>
       <c r="H3">
-        <v>3.871</v>
+        <v>3.944</v>
       </c>
       <c r="I3">
-        <v>4.052</v>
+        <v>4.127</v>
       </c>
       <c r="J3">
-        <v>4.312</v>
+        <v>4.394</v>
       </c>
       <c r="K3">
-        <v>4.489</v>
+        <v>4.575</v>
       </c>
       <c r="L3">
-        <v>4.55</v>
+        <v>4.637</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3065,37 +3029,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.229</v>
+        <v>5.22</v>
       </c>
       <c r="C4">
-        <v>5.177</v>
+        <v>5.151</v>
       </c>
       <c r="D4">
-        <v>4.697</v>
+        <v>4.577</v>
       </c>
       <c r="E4">
-        <v>4.179</v>
+        <v>4.052</v>
       </c>
       <c r="F4">
-        <v>4.133</v>
+        <v>4.022</v>
       </c>
       <c r="G4">
-        <v>4.052</v>
+        <v>3.923</v>
       </c>
       <c r="H4">
-        <v>4.04</v>
+        <v>3.91</v>
       </c>
       <c r="I4">
-        <v>4.202</v>
+        <v>4.079</v>
       </c>
       <c r="J4">
-        <v>4.463</v>
+        <v>4.352</v>
       </c>
       <c r="K4">
-        <v>4.634</v>
+        <v>4.529</v>
       </c>
       <c r="L4">
-        <v>4.686</v>
+        <v>4.592</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3103,37 +3067,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.242</v>
+        <v>5.233</v>
       </c>
       <c r="C5">
-        <v>5.187</v>
+        <v>5.174</v>
       </c>
       <c r="D5">
-        <v>4.646</v>
+        <v>4.676</v>
       </c>
       <c r="E5">
-        <v>4.179</v>
+        <v>4.219</v>
       </c>
       <c r="F5">
-        <v>4.037</v>
+        <v>4.117</v>
       </c>
       <c r="G5">
-        <v>3.937</v>
+        <v>4.025</v>
       </c>
       <c r="H5">
-        <v>3.932</v>
+        <v>4.024</v>
       </c>
       <c r="I5">
-        <v>4.081</v>
+        <v>4.176</v>
       </c>
       <c r="J5">
-        <v>4.368</v>
+        <v>4.438</v>
       </c>
       <c r="K5">
-        <v>4.539</v>
+        <v>4.615</v>
       </c>
       <c r="L5">
-        <v>4.591</v>
+        <v>4.665</v>
       </c>
     </row>
   </sheetData>
@@ -3192,37 +3156,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.022</v>
+        <v>0.051</v>
       </c>
       <c r="C2">
-        <v>0.022</v>
+        <v>0.04</v>
       </c>
       <c r="D2">
-        <v>0.15</v>
+        <v>0.199</v>
       </c>
       <c r="E2">
-        <v>0.339</v>
+        <v>0.396</v>
       </c>
       <c r="F2">
-        <v>0.408</v>
+        <v>0.451</v>
       </c>
       <c r="G2">
-        <v>0.59</v>
+        <v>0.625</v>
       </c>
       <c r="H2">
-        <v>0.76</v>
+        <v>0.782</v>
       </c>
       <c r="I2">
-        <v>1.045</v>
+        <v>1.058</v>
       </c>
       <c r="J2">
-        <v>1.544</v>
+        <v>1.539</v>
       </c>
       <c r="K2">
-        <v>1.846</v>
+        <v>1.824</v>
       </c>
       <c r="L2">
-        <v>2.157</v>
+        <v>2.143</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3230,37 +3194,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.014</v>
+        <v>0.02</v>
       </c>
       <c r="C3">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="D3">
-        <v>0.119</v>
+        <v>0.165</v>
       </c>
       <c r="E3">
-        <v>0.312</v>
+        <v>0.351</v>
       </c>
       <c r="F3">
-        <v>0.383</v>
+        <v>0.417</v>
       </c>
       <c r="G3">
-        <v>0.5649999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="H3">
-        <v>0.743</v>
+        <v>0.79</v>
       </c>
       <c r="I3">
-        <v>1.021</v>
+        <v>1.061</v>
       </c>
       <c r="J3">
-        <v>1.679</v>
+        <v>1.713</v>
       </c>
       <c r="K3">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="L3">
-        <v>2.162</v>
+        <v>2.174</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3271,34 +3235,34 @@
         <v>0.012</v>
       </c>
       <c r="C4">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
       <c r="D4">
-        <v>0.159</v>
+        <v>0.139</v>
       </c>
       <c r="E4">
-        <v>0.345</v>
+        <v>0.326</v>
       </c>
       <c r="F4">
-        <v>0.41</v>
+        <v>0.397</v>
       </c>
       <c r="G4">
-        <v>0.58</v>
+        <v>0.584</v>
       </c>
       <c r="H4">
-        <v>0.789</v>
+        <v>0.765</v>
       </c>
       <c r="I4">
-        <v>1.071</v>
+        <v>1.047</v>
       </c>
       <c r="J4">
-        <v>1.741</v>
+        <v>1.715</v>
       </c>
       <c r="K4">
-        <v>1.935</v>
+        <v>1.871</v>
       </c>
       <c r="L4">
-        <v>2.205</v>
+        <v>2.179</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3306,34 +3270,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.006</v>
+        <v>0.022</v>
+      </c>
+      <c r="C5">
+        <v>-0.003</v>
       </c>
       <c r="D5">
-        <v>0.167</v>
+        <v>0.192</v>
       </c>
       <c r="E5">
-        <v>0.306</v>
+        <v>0.355</v>
       </c>
       <c r="F5">
-        <v>0.374</v>
+        <v>0.407</v>
       </c>
       <c r="G5">
-        <v>0.542</v>
+        <v>0.583</v>
       </c>
       <c r="H5">
-        <v>0.708</v>
+        <v>0.79</v>
       </c>
       <c r="I5">
-        <v>0.98</v>
+        <v>1.046</v>
       </c>
       <c r="J5">
-        <v>1.625</v>
+        <v>1.699</v>
       </c>
       <c r="K5">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="L5">
-        <v>2.15</v>
+        <v>2.236</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -484,34 +484,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>4.506</v>
+        <v>4.3</v>
       </c>
       <c r="C2">
-        <v>4.43</v>
+        <v>4.23</v>
       </c>
       <c r="D2">
-        <v>4.165</v>
+        <v>3.9</v>
       </c>
       <c r="E2">
-        <v>3.628</v>
+        <v>3.187</v>
       </c>
       <c r="F2">
-        <v>3.523</v>
+        <v>3.085</v>
       </c>
       <c r="G2">
-        <v>3.267</v>
+        <v>2.893</v>
       </c>
       <c r="H2">
-        <v>3.187</v>
+        <v>2.824</v>
       </c>
       <c r="I2">
-        <v>3.345</v>
+        <v>2.998</v>
       </c>
       <c r="K2">
-        <v>3.424</v>
+        <v>3.114</v>
       </c>
       <c r="L2">
-        <v>3.392</v>
+        <v>3.087</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -519,34 +519,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.49</v>
+        <v>4.44</v>
       </c>
       <c r="C3">
-        <v>4.46</v>
+        <v>4.35</v>
       </c>
       <c r="D3">
-        <v>4.27</v>
+        <v>4.11</v>
       </c>
       <c r="E3">
-        <v>3.706</v>
+        <v>3.501</v>
       </c>
       <c r="F3">
-        <v>3.627</v>
+        <v>3.399</v>
       </c>
       <c r="G3">
-        <v>3.332</v>
+        <v>3.155</v>
       </c>
       <c r="H3">
-        <v>3.257</v>
+        <v>3.084</v>
       </c>
       <c r="I3">
-        <v>3.393</v>
+        <v>3.233</v>
       </c>
       <c r="K3">
-        <v>3.445</v>
+        <v>3.313</v>
       </c>
       <c r="L3">
-        <v>3.398</v>
+        <v>3.281</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -554,34 +554,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.61</v>
+        <v>4.48</v>
       </c>
       <c r="C4">
-        <v>4.54</v>
+        <v>4.45</v>
       </c>
       <c r="D4">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="E4">
-        <v>3.86</v>
+        <v>3.708</v>
       </c>
       <c r="F4">
-        <v>3.687</v>
+        <v>3.633</v>
       </c>
       <c r="G4">
+        <v>3.351</v>
+      </c>
+      <c r="H4">
+        <v>3.278</v>
+      </c>
+      <c r="I4">
+        <v>3.381</v>
+      </c>
+      <c r="K4">
         <v>3.414</v>
       </c>
-      <c r="H4">
-        <v>3.341</v>
-      </c>
-      <c r="I4">
-        <v>3.435</v>
-      </c>
-      <c r="K4">
-        <v>3.459</v>
-      </c>
       <c r="L4">
-        <v>3.385</v>
+        <v>3.354</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -589,34 +589,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4.66</v>
+        <v>4.63</v>
       </c>
       <c r="C5">
-        <v>4.63</v>
+        <v>4.6</v>
       </c>
       <c r="D5">
-        <v>4.43</v>
+        <v>4.39</v>
       </c>
       <c r="E5">
-        <v>3.998</v>
+        <v>3.941</v>
       </c>
       <c r="F5">
-        <v>3.84</v>
+        <v>3.775</v>
       </c>
       <c r="G5">
-        <v>3.516</v>
+        <v>3.493</v>
       </c>
       <c r="H5">
-        <v>3.438</v>
+        <v>3.41</v>
       </c>
       <c r="I5">
-        <v>3.507</v>
+        <v>3.499</v>
       </c>
       <c r="K5">
-        <v>3.498</v>
+        <v>3.515</v>
       </c>
       <c r="L5">
-        <v>3.402</v>
+        <v>3.432</v>
       </c>
     </row>
   </sheetData>
@@ -675,31 +675,28 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.298</v>
+        <v>5.145</v>
       </c>
       <c r="C2">
-        <v>5.151</v>
+        <v>4.745</v>
       </c>
       <c r="D2">
-        <v>4.811</v>
+        <v>4.235</v>
       </c>
       <c r="E2">
-        <v>4.387</v>
+        <v>3.754</v>
       </c>
       <c r="F2">
-        <v>4.203</v>
+        <v>3.607</v>
       </c>
       <c r="G2">
-        <v>4.077</v>
+        <v>3.538</v>
       </c>
       <c r="H2">
-        <v>4.119</v>
-      </c>
-      <c r="I2">
-        <v>4.199</v>
+        <v>3.606</v>
       </c>
       <c r="L2">
-        <v>4.454</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -707,31 +704,28 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.324</v>
+        <v>5.264</v>
       </c>
       <c r="C3">
-        <v>5.18</v>
+        <v>5.051</v>
       </c>
       <c r="D3">
-        <v>4.879</v>
+        <v>4.658</v>
       </c>
       <c r="E3">
-        <v>4.496</v>
+        <v>4.156</v>
       </c>
       <c r="F3">
-        <v>4.277</v>
+        <v>3.967</v>
       </c>
       <c r="G3">
-        <v>4.166</v>
+        <v>3.844</v>
       </c>
       <c r="H3">
-        <v>4.192</v>
-      </c>
-      <c r="I3">
-        <v>4.254</v>
+        <v>3.889</v>
       </c>
       <c r="L3">
-        <v>4.487</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -739,31 +733,28 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.345</v>
+        <v>5.324</v>
       </c>
       <c r="C4">
-        <v>5.195</v>
+        <v>5.18</v>
       </c>
       <c r="D4">
-        <v>4.877</v>
+        <v>4.879</v>
       </c>
       <c r="E4">
-        <v>4.458</v>
+        <v>4.496</v>
       </c>
       <c r="F4">
-        <v>4.231</v>
+        <v>4.277</v>
       </c>
       <c r="G4">
-        <v>4.107</v>
+        <v>4.166</v>
       </c>
       <c r="H4">
-        <v>4.13</v>
-      </c>
-      <c r="I4">
-        <v>4.187</v>
+        <v>4.192</v>
       </c>
       <c r="L4">
-        <v>4.4</v>
+        <v>4.487</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -771,31 +762,28 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.363</v>
+        <v>5.373</v>
       </c>
       <c r="C5">
-        <v>5.315</v>
+        <v>5.291</v>
       </c>
       <c r="D5">
-        <v>5.107</v>
+        <v>5.006</v>
       </c>
       <c r="E5">
-        <v>4.749</v>
+        <v>4.606</v>
       </c>
       <c r="F5">
-        <v>4.546</v>
+        <v>4.398</v>
       </c>
       <c r="G5">
-        <v>4.369</v>
+        <v>4.227</v>
       </c>
       <c r="H5">
-        <v>4.369</v>
-      </c>
-      <c r="I5">
-        <v>4.392</v>
+        <v>4.23</v>
       </c>
       <c r="L5">
-        <v>4.554</v>
+        <v>4.476</v>
       </c>
     </row>
   </sheetData>
@@ -997,25 +985,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.373</v>
+        <v>3.959</v>
       </c>
       <c r="E2">
-        <v>4.1</v>
-      </c>
-      <c r="F2">
-        <v>3.988</v>
+        <v>3.532</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3.449</v>
       </c>
       <c r="H2">
-        <v>4.145</v>
+        <v>3.672</v>
       </c>
       <c r="I2">
-        <v>4.3</v>
-      </c>
-      <c r="J2">
-        <v>4.528</v>
+        <v>3.886</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1023,25 +1005,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.387</v>
+        <v>4.212</v>
       </c>
       <c r="E3">
-        <v>4.167</v>
-      </c>
-      <c r="F3">
-        <v>4.052</v>
+        <v>3.885</v>
       </c>
       <c r="G3">
-        <v>4.07</v>
+        <v>3.786</v>
       </c>
       <c r="H3">
-        <v>4.191</v>
+        <v>3.951</v>
       </c>
       <c r="I3">
-        <v>4.333</v>
-      </c>
-      <c r="J3">
-        <v>4.573</v>
+        <v>4.116</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1049,25 +1025,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.433</v>
+        <v>4.399</v>
       </c>
       <c r="E4">
-        <v>4.216</v>
-      </c>
-      <c r="F4">
-        <v>4.122</v>
+        <v>4.142</v>
       </c>
       <c r="G4">
-        <v>4.122</v>
+        <v>4.029</v>
       </c>
       <c r="H4">
-        <v>4.245</v>
+        <v>4.159</v>
       </c>
       <c r="I4">
-        <v>4.376</v>
-      </c>
-      <c r="J4">
-        <v>4.588</v>
+        <v>4.295</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1075,25 +1045,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>4.43</v>
+        <v>4.452</v>
       </c>
       <c r="E5">
-        <v>4.192</v>
-      </c>
-      <c r="F5">
-        <v>4.114</v>
+        <v>4.243</v>
       </c>
       <c r="G5">
-        <v>4.106</v>
+        <v>4.16</v>
       </c>
       <c r="H5">
-        <v>4.222</v>
+        <v>4.279</v>
       </c>
       <c r="I5">
-        <v>4.351</v>
-      </c>
-      <c r="J5">
-        <v>4.539</v>
+        <v>4.409</v>
       </c>
     </row>
   </sheetData>
@@ -1152,28 +1116,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.439</v>
+        <v>3.198</v>
       </c>
       <c r="C2">
-        <v>3.447</v>
+        <v>3.226</v>
       </c>
       <c r="D2">
-        <v>3.327</v>
+        <v>3.012</v>
       </c>
       <c r="E2">
-        <v>3.079</v>
+        <v>2.81</v>
       </c>
       <c r="F2">
-        <v>3.036</v>
+        <v>2.771</v>
       </c>
       <c r="G2">
-        <v>3.195</v>
+        <v>2.98</v>
       </c>
       <c r="H2">
-        <v>3.382</v>
+        <v>3.21</v>
+      </c>
+      <c r="I2">
+        <v>3.623</v>
       </c>
       <c r="J2">
-        <v>4.138</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1181,28 +1148,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.439</v>
+        <v>3.388</v>
       </c>
       <c r="C3">
-        <v>3.459</v>
+        <v>3.376</v>
       </c>
       <c r="D3">
-        <v>3.378</v>
+        <v>3.239</v>
       </c>
       <c r="E3">
-        <v>3.138</v>
+        <v>2.975</v>
       </c>
       <c r="F3">
-        <v>3.083</v>
+        <v>2.911</v>
       </c>
       <c r="G3">
-        <v>3.219</v>
+        <v>3.082</v>
       </c>
       <c r="H3">
-        <v>3.379</v>
+        <v>3.269</v>
+      </c>
+      <c r="I3">
+        <v>3.653</v>
       </c>
       <c r="J3">
-        <v>4.109</v>
+        <v>4.028</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1210,28 +1180,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.248</v>
+        <v>3.447</v>
       </c>
       <c r="C4">
-        <v>3.527</v>
+        <v>3.461</v>
       </c>
       <c r="D4">
-        <v>3.426</v>
+        <v>3.377</v>
       </c>
       <c r="E4">
-        <v>3.388</v>
+        <v>3.159</v>
       </c>
       <c r="F4">
-        <v>3.128</v>
+        <v>3.1</v>
       </c>
       <c r="G4">
-        <v>3.259</v>
+        <v>3.243</v>
       </c>
       <c r="H4">
-        <v>3.42</v>
+        <v>3.413</v>
+      </c>
+      <c r="I4">
+        <v>3.779</v>
       </c>
       <c r="J4">
-        <v>4.152</v>
+        <v>4.145</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1239,28 +1212,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.465</v>
+        <v>3.479</v>
       </c>
       <c r="C5">
-        <v>3.629</v>
+        <v>3.595</v>
       </c>
       <c r="D5">
-        <v>3.515</v>
+        <v>3.489</v>
       </c>
       <c r="E5">
-        <v>3.575</v>
+        <v>3.488</v>
       </c>
       <c r="F5">
-        <v>3.384</v>
+        <v>3.292</v>
       </c>
       <c r="G5">
-        <v>3.531</v>
+        <v>3.422</v>
       </c>
       <c r="H5">
-        <v>3.702</v>
+        <v>3.582</v>
+      </c>
+      <c r="I5">
+        <v>3.94</v>
       </c>
       <c r="J5">
-        <v>4.412</v>
+        <v>4.294</v>
       </c>
     </row>
   </sheetData>
@@ -1319,37 +1295,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>0.82</v>
       </c>
       <c r="C2">
-        <v>1.1</v>
-      </c>
-      <c r="D2">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="E2">
-        <v>0.659</v>
+        <v>0.399</v>
       </c>
       <c r="F2">
-        <v>0.612</v>
+        <v>0.367</v>
       </c>
       <c r="G2">
-        <v>0.582</v>
+        <v>0.361</v>
       </c>
       <c r="H2">
-        <v>0.549</v>
+        <v>0.35</v>
       </c>
       <c r="I2">
-        <v>0.506</v>
+        <v>0.353</v>
       </c>
       <c r="J2">
-        <v>0.514</v>
+        <v>0.344</v>
       </c>
       <c r="K2">
-        <v>0.529</v>
+        <v>0.337</v>
       </c>
       <c r="L2">
-        <v>0.493</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1357,37 +1330,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.09</v>
+        <v>0.99</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E3">
-        <v>0.723</v>
+        <v>0.657</v>
       </c>
       <c r="F3">
-        <v>0.664</v>
+        <v>0.611</v>
       </c>
       <c r="G3">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="H3">
-        <v>0.604</v>
+        <v>0.532</v>
       </c>
       <c r="I3">
-        <v>0.548</v>
+        <v>0.486</v>
       </c>
       <c r="J3">
-        <v>0.5669999999999999</v>
+        <v>0.455</v>
       </c>
       <c r="K3">
-        <v>0.551</v>
+        <v>0.473</v>
       </c>
       <c r="L3">
-        <v>0.485</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1395,37 +1365,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="C4">
-        <v>1.03</v>
-      </c>
-      <c r="D4">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="E4">
-        <v>0.747</v>
+        <v>0.731</v>
       </c>
       <c r="F4">
-        <v>0.7</v>
+        <v>0.674</v>
       </c>
       <c r="G4">
-        <v>0.672</v>
+        <v>0.649</v>
       </c>
       <c r="H4">
-        <v>0.615</v>
+        <v>0.608</v>
       </c>
       <c r="I4">
-        <v>0.594</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="J4">
-        <v>0.619</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="K4">
-        <v>0.608</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="L4">
-        <v>0.5639999999999999</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1433,37 +1400,34 @@
         <v>15</v>
       </c>
       <c r="B5">
+        <v>1.15</v>
+      </c>
+      <c r="C5">
         <v>1.13</v>
       </c>
-      <c r="C5">
-        <v>1.04</v>
-      </c>
-      <c r="D5">
-        <v>1.11</v>
-      </c>
       <c r="E5">
-        <v>0.804</v>
+        <v>0.799</v>
       </c>
       <c r="F5">
-        <v>0.6899999999999999</v>
+        <v>0.746</v>
       </c>
       <c r="G5">
-        <v>0.671</v>
+        <v>0.733</v>
       </c>
       <c r="H5">
-        <v>0.577</v>
+        <v>0.695</v>
       </c>
       <c r="I5">
-        <v>0.542</v>
+        <v>0.665</v>
       </c>
       <c r="J5">
-        <v>0.575</v>
+        <v>0.67</v>
       </c>
       <c r="K5">
-        <v>0.605</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="L5">
-        <v>0.5600000000000001</v>
+        <v>0.636</v>
       </c>
     </row>
   </sheetData>
@@ -1522,31 +1486,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1.452</v>
+        <v>1.433</v>
       </c>
       <c r="E2">
-        <v>1.501</v>
+        <v>1.502</v>
       </c>
       <c r="F2">
-        <v>1.712</v>
+        <v>1.63</v>
       </c>
       <c r="G2">
-        <v>1.894</v>
+        <v>1.819</v>
       </c>
       <c r="H2">
-        <v>2.026</v>
+        <v>1.928</v>
       </c>
       <c r="I2">
-        <v>2.197</v>
+        <v>2.116</v>
       </c>
       <c r="J2">
-        <v>2.243</v>
+        <v>2.132</v>
       </c>
       <c r="K2">
-        <v>2.385</v>
+        <v>2.293</v>
       </c>
       <c r="L2">
-        <v>2.43</v>
+        <v>2.357</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1554,31 +1518,31 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>1.482</v>
+        <v>1.466</v>
       </c>
       <c r="E3">
-        <v>1.55</v>
+        <v>1.519</v>
       </c>
       <c r="F3">
-        <v>1.731</v>
+        <v>1.68</v>
       </c>
       <c r="G3">
-        <v>1.891</v>
+        <v>1.858</v>
       </c>
       <c r="H3">
-        <v>2.03</v>
+        <v>1.995</v>
       </c>
       <c r="I3">
-        <v>2.236</v>
+        <v>2.148</v>
       </c>
       <c r="J3">
-        <v>2.289</v>
+        <v>2.208</v>
       </c>
       <c r="K3">
-        <v>2.427</v>
+        <v>2.336</v>
       </c>
       <c r="L3">
-        <v>2.479</v>
+        <v>2.389</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1586,31 +1550,31 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>1.528</v>
+        <v>1.512</v>
       </c>
       <c r="E4">
-        <v>1.625</v>
+        <v>1.601</v>
       </c>
       <c r="F4">
         <v>1.795</v>
       </c>
       <c r="G4">
-        <v>1.973</v>
+        <v>1.957</v>
       </c>
       <c r="H4">
-        <v>2.103</v>
+        <v>2.095</v>
       </c>
       <c r="I4">
-        <v>2.25</v>
+        <v>2.272</v>
       </c>
       <c r="J4">
-        <v>2.346</v>
+        <v>2.319</v>
       </c>
       <c r="K4">
-        <v>2.431</v>
+        <v>2.457</v>
       </c>
       <c r="L4">
-        <v>2.487</v>
+        <v>2.504</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1618,31 +1582,31 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1.534</v>
+        <v>1.531</v>
       </c>
       <c r="E5">
-        <v>1.652</v>
+        <v>1.642</v>
       </c>
       <c r="F5">
-        <v>1.788</v>
+        <v>1.806</v>
       </c>
       <c r="G5">
-        <v>1.963</v>
+        <v>1.991</v>
       </c>
       <c r="H5">
-        <v>2.104</v>
+        <v>2.125</v>
       </c>
       <c r="I5">
-        <v>2.208</v>
+        <v>2.262</v>
       </c>
       <c r="J5">
-        <v>2.316</v>
+        <v>2.322</v>
       </c>
       <c r="K5">
-        <v>2.373</v>
+        <v>2.449</v>
       </c>
       <c r="L5">
-        <v>2.433</v>
+        <v>2.512</v>
       </c>
     </row>
   </sheetData>
@@ -1701,19 +1665,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8.1</v>
+        <v>8.15</v>
       </c>
       <c r="G2">
-        <v>8.355</v>
+        <v>8.441000000000001</v>
       </c>
       <c r="I2">
-        <v>9.477</v>
+        <v>9.558</v>
       </c>
       <c r="K2">
-        <v>11.525</v>
+        <v>11.95</v>
       </c>
       <c r="L2">
-        <v>11.455</v>
+        <v>11.945</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1721,19 +1685,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>8.050000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="G3">
-        <v>8.365</v>
+        <v>8.335000000000001</v>
       </c>
       <c r="I3">
-        <v>9.460000000000001</v>
+        <v>9.404999999999999</v>
       </c>
       <c r="K3">
-        <v>11.48</v>
+        <v>11.525</v>
       </c>
       <c r="L3">
-        <v>11.405</v>
+        <v>11.485</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1741,19 +1705,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7.94</v>
+        <v>8.1</v>
       </c>
       <c r="G4">
-        <v>8.449999999999999</v>
+        <v>8.535</v>
       </c>
       <c r="I4">
-        <v>9.57</v>
+        <v>9.65</v>
       </c>
       <c r="K4">
-        <v>11.605</v>
+        <v>11.61</v>
       </c>
       <c r="L4">
-        <v>11.6</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1761,19 +1725,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>8.199999999999999</v>
+        <v>8.15</v>
       </c>
       <c r="G5">
-        <v>8.942</v>
+        <v>8.795999999999999</v>
       </c>
       <c r="I5">
-        <v>10.214</v>
+        <v>9.978</v>
       </c>
       <c r="K5">
-        <v>12.395</v>
+        <v>12.046</v>
       </c>
       <c r="L5">
-        <v>12.365</v>
+        <v>12.028</v>
       </c>
     </row>
   </sheetData>
@@ -1832,22 +1796,22 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>44.1</v>
+        <v>41.13</v>
       </c>
       <c r="C2">
-        <v>45.174</v>
+        <v>41.173</v>
       </c>
       <c r="E2">
-        <v>38.47</v>
+        <v>38.3</v>
       </c>
       <c r="F2">
-        <v>29.58</v>
+        <v>29.69</v>
       </c>
       <c r="G2">
-        <v>28.95</v>
+        <v>31.055</v>
       </c>
       <c r="I2">
-        <v>26.32</v>
+        <v>27.96</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1855,22 +1819,22 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>44.027</v>
+        <v>42.518</v>
       </c>
       <c r="C3">
-        <v>45.086</v>
+        <v>42.347</v>
       </c>
       <c r="E3">
-        <v>38.57</v>
+        <v>38.77</v>
       </c>
       <c r="F3">
-        <v>29.53</v>
+        <v>30.19</v>
       </c>
       <c r="G3">
-        <v>28.99</v>
+        <v>29.27</v>
       </c>
       <c r="I3">
-        <v>26.13</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1878,22 +1842,22 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>44.38</v>
+        <v>44.009</v>
       </c>
       <c r="C4">
-        <v>45.331</v>
+        <v>45.147</v>
       </c>
       <c r="E4">
-        <v>36.93</v>
+        <v>38.37</v>
       </c>
       <c r="F4">
-        <v>27.84</v>
+        <v>29.29</v>
       </c>
       <c r="G4">
-        <v>28.73</v>
+        <v>29.1</v>
       </c>
       <c r="I4">
-        <v>26.09</v>
+        <v>26.27</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1901,22 +1865,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>43.112</v>
+        <v>48.964</v>
       </c>
       <c r="C5">
-        <v>41.538</v>
+        <v>47.373</v>
       </c>
       <c r="E5">
-        <v>38</v>
+        <v>36.49</v>
       </c>
       <c r="F5">
-        <v>28.57</v>
+        <v>27.01</v>
       </c>
       <c r="G5">
-        <v>29.52</v>
+        <v>28.62</v>
       </c>
       <c r="I5">
-        <v>26.52</v>
+        <v>25.67</v>
       </c>
     </row>
   </sheetData>
@@ -1975,34 +1939,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.73</v>
+        <v>6.779</v>
       </c>
       <c r="C2">
-        <v>6.83</v>
+        <v>6.857</v>
       </c>
       <c r="D2">
-        <v>6.827</v>
+        <v>6.859</v>
       </c>
       <c r="E2">
-        <v>6.825</v>
+        <v>6.81</v>
       </c>
       <c r="F2">
-        <v>6.839</v>
+        <v>6.879</v>
       </c>
       <c r="G2">
-        <v>6.844</v>
+        <v>6.896</v>
       </c>
       <c r="H2">
-        <v>6.898</v>
+        <v>6.943</v>
       </c>
       <c r="I2">
-        <v>6.94</v>
+        <v>6.971</v>
       </c>
       <c r="J2">
-        <v>6.978</v>
+        <v>7.058</v>
       </c>
       <c r="L2">
-        <v>7.036</v>
+        <v>7.146</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2010,34 +1974,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.75</v>
+        <v>6.65</v>
       </c>
       <c r="C3">
-        <v>6.86</v>
+        <v>6.79</v>
       </c>
       <c r="D3">
+        <v>6.839</v>
+      </c>
+      <c r="E3">
+        <v>6.817</v>
+      </c>
+      <c r="F3">
+        <v>6.828</v>
+      </c>
+      <c r="G3">
+        <v>6.846</v>
+      </c>
+      <c r="H3">
         <v>6.883</v>
       </c>
-      <c r="E3">
-        <v>6.875</v>
-      </c>
-      <c r="F3">
-        <v>6.891</v>
-      </c>
-      <c r="G3">
-        <v>6.922</v>
-      </c>
-      <c r="H3">
-        <v>6.953</v>
-      </c>
       <c r="I3">
-        <v>6.97</v>
+        <v>6.924</v>
       </c>
       <c r="J3">
-        <v>6.994</v>
+        <v>6.998</v>
       </c>
       <c r="L3">
-        <v>7.042</v>
+        <v>7.055</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2045,34 +2009,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.78</v>
+        <v>6.76</v>
       </c>
       <c r="C4">
-        <v>6.88</v>
+        <v>6.86</v>
       </c>
       <c r="D4">
-        <v>6.928</v>
+        <v>6.884</v>
       </c>
       <c r="E4">
-        <v>6.931</v>
+        <v>6.873</v>
       </c>
       <c r="F4">
-        <v>6.929</v>
+        <v>6.889</v>
       </c>
       <c r="G4">
-        <v>6.982</v>
+        <v>6.918</v>
       </c>
       <c r="H4">
-        <v>6.993</v>
+        <v>6.952</v>
       </c>
       <c r="I4">
-        <v>6.976</v>
+        <v>6.965</v>
       </c>
       <c r="J4">
-        <v>7.015</v>
+        <v>6.997</v>
       </c>
       <c r="L4">
-        <v>7.06</v>
+        <v>7.039</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2080,34 +2044,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.83</v>
+        <v>6.78</v>
       </c>
       <c r="C5">
-        <v>6.93</v>
+        <v>6.92</v>
       </c>
       <c r="D5">
-        <v>6.936</v>
+        <v>6.919</v>
       </c>
       <c r="E5">
         <v>6.949</v>
       </c>
       <c r="F5">
-        <v>6.977</v>
+        <v>6.955</v>
       </c>
       <c r="G5">
-        <v>7.022</v>
+        <v>6.994</v>
       </c>
       <c r="H5">
-        <v>7.038</v>
+        <v>7.006</v>
       </c>
       <c r="I5">
-        <v>7.008</v>
+        <v>6.993</v>
       </c>
       <c r="J5">
-        <v>7.032</v>
+        <v>7.031</v>
       </c>
       <c r="L5">
-        <v>7.057</v>
+        <v>7.075</v>
       </c>
     </row>
   </sheetData>
@@ -2166,28 +2130,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.617</v>
+        <v>3.578</v>
       </c>
       <c r="C2">
-        <v>3.501</v>
+        <v>3.296</v>
       </c>
       <c r="D2">
-        <v>3.271</v>
+        <v>2.961</v>
+      </c>
+      <c r="E2">
+        <v>2.551</v>
+      </c>
+      <c r="F2">
+        <v>2.507</v>
+      </c>
+      <c r="G2">
+        <v>2.553</v>
       </c>
       <c r="H2">
-        <v>2.8547</v>
+        <v>2.632</v>
       </c>
       <c r="I2">
-        <v>3.109</v>
+        <v>2.929</v>
       </c>
       <c r="J2">
-        <v>3.316</v>
+        <v>3.131</v>
       </c>
       <c r="K2">
-        <v>3.438</v>
+        <v>3.252</v>
       </c>
       <c r="L2">
-        <v>3.639</v>
+        <v>3.478</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2195,28 +2168,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.621</v>
+        <v>3.609</v>
       </c>
       <c r="C3">
-        <v>3.555</v>
+        <v>3.473</v>
       </c>
       <c r="D3">
-        <v>3.349</v>
+        <v>3.215</v>
+      </c>
+      <c r="E3">
+        <v>2.788</v>
+      </c>
+      <c r="F3">
+        <v>2.708</v>
+      </c>
+      <c r="G3">
+        <v>2.7</v>
       </c>
       <c r="H3">
-        <v>2.8971</v>
+        <v>2.7554</v>
       </c>
       <c r="I3">
-        <v>3.127</v>
+        <v>3.013</v>
       </c>
       <c r="J3">
-        <v>3.316</v>
+        <v>3.205</v>
       </c>
       <c r="K3">
-        <v>3.429</v>
+        <v>3.326</v>
       </c>
       <c r="L3">
-        <v>3.624</v>
+        <v>3.524</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2224,28 +2206,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.655</v>
+        <v>3.64</v>
       </c>
       <c r="C4">
-        <v>3.547</v>
+        <v>3.564</v>
       </c>
       <c r="D4">
-        <v>3.385</v>
+        <v>3.388</v>
+      </c>
+      <c r="E4">
+        <v>2.959</v>
+      </c>
+      <c r="F4">
+        <v>2.867</v>
+      </c>
+      <c r="G4">
+        <v>2.853</v>
       </c>
       <c r="H4">
-        <v>2.8947</v>
+        <v>2.8934</v>
       </c>
       <c r="I4">
-        <v>3.125</v>
+        <v>3.13</v>
       </c>
       <c r="J4">
-        <v>3.314</v>
+        <v>3.32</v>
       </c>
       <c r="K4">
-        <v>3.417</v>
+        <v>3.434</v>
       </c>
       <c r="L4">
-        <v>3.606</v>
+        <v>3.627</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2253,28 +2244,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.73</v>
+        <v>3.704</v>
       </c>
       <c r="C5">
-        <v>3.639</v>
+        <v>3.62</v>
       </c>
       <c r="D5">
-        <v>3.492</v>
+        <v>3.464</v>
+      </c>
+      <c r="E5">
+        <v>3.095</v>
+      </c>
+      <c r="F5">
+        <v>2.996</v>
+      </c>
+      <c r="G5">
+        <v>2.958</v>
       </c>
       <c r="H5">
-        <v>3.0609</v>
+        <v>2.9861</v>
       </c>
       <c r="I5">
-        <v>3.288</v>
+        <v>3.212</v>
       </c>
       <c r="J5">
-        <v>3.46</v>
+        <v>3.377</v>
       </c>
       <c r="K5">
-        <v>3.562</v>
+        <v>3.478</v>
       </c>
       <c r="L5">
-        <v>3.737</v>
+        <v>3.655</v>
       </c>
     </row>
   </sheetData>
@@ -2333,37 +2333,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.431</v>
+        <v>3.309</v>
       </c>
       <c r="C2">
-        <v>3.342</v>
+        <v>3.135</v>
       </c>
       <c r="D2">
-        <v>3.087</v>
+        <v>2.721</v>
       </c>
       <c r="E2">
-        <v>2.667</v>
+        <v>2.224</v>
       </c>
       <c r="F2">
-        <v>2.46</v>
+        <v>2.077</v>
       </c>
       <c r="G2">
-        <v>2.327</v>
+        <v>1.983</v>
       </c>
       <c r="H2">
-        <v>2.258</v>
+        <v>1.992</v>
       </c>
       <c r="I2">
-        <v>2.403</v>
+        <v>2.115</v>
       </c>
       <c r="J2">
-        <v>2.567</v>
+        <v>2.284</v>
       </c>
       <c r="K2">
-        <v>2.634</v>
+        <v>2.363</v>
       </c>
       <c r="L2">
-        <v>2.627</v>
+        <v>2.357</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2371,37 +2371,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.445</v>
+        <v>3.377</v>
       </c>
       <c r="C3">
-        <v>3.378</v>
+        <v>3.299</v>
       </c>
       <c r="D3">
-        <v>3.154</v>
+        <v>3.012</v>
       </c>
       <c r="E3">
-        <v>2.766</v>
+        <v>2.533</v>
       </c>
       <c r="F3">
-        <v>2.556</v>
+        <v>2.375</v>
       </c>
       <c r="G3">
-        <v>2.397</v>
+        <v>2.233</v>
       </c>
       <c r="H3">
-        <v>2.316</v>
+        <v>2.223</v>
       </c>
       <c r="I3">
-        <v>2.438</v>
+        <v>2.302</v>
       </c>
       <c r="J3">
-        <v>2.593</v>
+        <v>2.463</v>
       </c>
       <c r="K3">
-        <v>2.655</v>
+        <v>2.531</v>
       </c>
       <c r="L3">
-        <v>2.636</v>
+        <v>2.514</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2409,37 +2409,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.458</v>
+        <v>3.462</v>
       </c>
       <c r="C4">
-        <v>3.382</v>
+        <v>3.386</v>
       </c>
       <c r="D4">
-        <v>3.228</v>
+        <v>3.163</v>
       </c>
       <c r="E4">
-        <v>2.8</v>
+        <v>2.778</v>
       </c>
       <c r="F4">
-        <v>2.594</v>
+        <v>2.564</v>
       </c>
       <c r="G4">
-        <v>2.449</v>
+        <v>2.428</v>
       </c>
       <c r="H4">
-        <v>2.355</v>
+        <v>2.339</v>
       </c>
       <c r="I4">
-        <v>2.471</v>
+        <v>2.463</v>
       </c>
       <c r="J4">
-        <v>2.623</v>
+        <v>2.621</v>
       </c>
       <c r="K4">
         <v>2.682</v>
       </c>
       <c r="L4">
-        <v>2.666</v>
+        <v>2.663</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2447,37 +2447,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.384</v>
+        <v>3.401</v>
       </c>
       <c r="C5">
-        <v>3.376</v>
+        <v>3.409</v>
       </c>
       <c r="D5">
-        <v>3.235</v>
+        <v>3.266</v>
       </c>
       <c r="E5">
-        <v>2.825</v>
+        <v>2.893</v>
       </c>
       <c r="F5">
-        <v>2.614</v>
+        <v>2.687</v>
       </c>
       <c r="G5">
-        <v>2.47</v>
+        <v>2.532</v>
       </c>
       <c r="H5">
-        <v>2.384</v>
+        <v>2.44</v>
       </c>
       <c r="I5">
-        <v>2.485</v>
+        <v>2.532</v>
       </c>
       <c r="J5">
-        <v>2.709</v>
+        <v>2.751</v>
       </c>
       <c r="K5">
-        <v>2.707</v>
+        <v>2.747</v>
       </c>
       <c r="L5">
-        <v>2.674</v>
+        <v>2.718</v>
       </c>
     </row>
   </sheetData>
@@ -2536,19 +2536,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.546</v>
+        <v>4.421</v>
       </c>
       <c r="E2">
-        <v>5.07</v>
+        <v>4.691</v>
       </c>
       <c r="F2">
-        <v>5.178</v>
+        <v>4.775</v>
       </c>
       <c r="G2">
-        <v>5.455</v>
+        <v>4.951</v>
       </c>
       <c r="I2">
-        <v>5.591</v>
+        <v>5.102</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2556,19 +2556,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.535</v>
+        <v>4.517</v>
       </c>
       <c r="E3">
-        <v>5.106</v>
+        <v>4.942</v>
       </c>
       <c r="F3">
-        <v>5.244</v>
+        <v>5.045</v>
       </c>
       <c r="G3">
-        <v>5.492</v>
+        <v>5.265</v>
       </c>
       <c r="I3">
-        <v>5.597</v>
+        <v>5.379</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2576,19 +2576,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.749</v>
+        <v>4.602</v>
       </c>
       <c r="E4">
-        <v>5.18</v>
+        <v>5.105</v>
       </c>
       <c r="F4">
-        <v>5.318</v>
+        <v>5.251</v>
       </c>
       <c r="G4">
-        <v>5.535</v>
+        <v>5.497</v>
       </c>
       <c r="I4">
-        <v>5.721</v>
+        <v>5.607</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2596,19 +2596,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>5.058</v>
+        <v>4.855</v>
       </c>
       <c r="E5">
-        <v>5.167</v>
+        <v>5.291</v>
       </c>
       <c r="F5">
-        <v>5.333</v>
+        <v>5.47</v>
       </c>
       <c r="G5">
-        <v>5.543</v>
+        <v>5.699</v>
       </c>
       <c r="I5">
-        <v>5.7</v>
+        <v>5.777</v>
       </c>
     </row>
   </sheetData>
@@ -2667,19 +2667,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>11.297</v>
+        <v>11.015</v>
       </c>
       <c r="E2">
-        <v>11.8</v>
+        <v>11.41</v>
       </c>
       <c r="F2">
-        <v>11.865</v>
+        <v>11.455</v>
       </c>
       <c r="G2">
-        <v>12.085</v>
+        <v>11.72</v>
       </c>
       <c r="I2">
-        <v>12.135</v>
+        <v>11.845</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2687,19 +2687,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>11.125</v>
+        <v>11.248</v>
       </c>
       <c r="E3">
-        <v>11.62</v>
+        <v>11.8</v>
       </c>
       <c r="F3">
-        <v>11.755</v>
+        <v>11.9</v>
       </c>
       <c r="G3">
-        <v>12.06</v>
+        <v>12.08</v>
       </c>
       <c r="I3">
-        <v>12.165</v>
+        <v>12.085</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2707,19 +2707,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>10.81</v>
+        <v>11.065</v>
       </c>
       <c r="E4">
-        <v>11.2</v>
+        <v>11.515</v>
       </c>
       <c r="F4">
-        <v>11.295</v>
+        <v>11.645</v>
       </c>
       <c r="G4">
-        <v>11.57</v>
+        <v>11.94</v>
       </c>
       <c r="I4">
-        <v>11.68</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2727,19 +2727,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>11.137</v>
+        <v>10.92</v>
       </c>
       <c r="E5">
-        <v>11.642</v>
+        <v>11.37</v>
       </c>
       <c r="F5">
+        <v>11.545</v>
+      </c>
+      <c r="G5">
         <v>11.875</v>
       </c>
-      <c r="G5">
-        <v>12.225</v>
-      </c>
       <c r="I5">
-        <v>12.33</v>
+        <v>11.98</v>
       </c>
     </row>
   </sheetData>
@@ -2798,25 +2798,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>2.763</v>
+        <v>2.383</v>
       </c>
       <c r="F2">
-        <v>2.616</v>
+        <v>2.278</v>
       </c>
       <c r="G2">
-        <v>2.596</v>
+        <v>2.323</v>
       </c>
       <c r="H2">
-        <v>2.657</v>
+        <v>2.404</v>
       </c>
       <c r="I2">
-        <v>3.052</v>
+        <v>2.819</v>
       </c>
       <c r="J2">
-        <v>3.302</v>
+        <v>3.108</v>
       </c>
       <c r="L2">
-        <v>3.408</v>
+        <v>3.215</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2824,25 +2824,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>2.849</v>
+        <v>2.669</v>
       </c>
       <c r="F3">
-        <v>2.701</v>
+        <v>2.516</v>
       </c>
       <c r="G3">
-        <v>2.643</v>
+        <v>2.492</v>
       </c>
       <c r="H3">
-        <v>2.689</v>
+        <v>2.555</v>
       </c>
       <c r="I3">
-        <v>3.067</v>
+        <v>2.93</v>
       </c>
       <c r="J3">
-        <v>3.317</v>
+        <v>3.195</v>
       </c>
       <c r="L3">
-        <v>3.421</v>
+        <v>3.297</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2850,25 +2850,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>2.889</v>
+        <v>2.87</v>
       </c>
       <c r="F4">
-        <v>2.73</v>
+        <v>2.701</v>
       </c>
       <c r="G4">
-        <v>2.666</v>
+        <v>2.642</v>
       </c>
       <c r="H4">
-        <v>2.721</v>
+        <v>2.688</v>
       </c>
       <c r="I4">
-        <v>3.075</v>
+        <v>3.068</v>
       </c>
       <c r="J4">
-        <v>3.311</v>
+        <v>3.32</v>
       </c>
       <c r="L4">
-        <v>3.421</v>
+        <v>3.409</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2876,25 +2876,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>2.989</v>
+        <v>2.998</v>
       </c>
       <c r="F5">
-        <v>2.869</v>
+        <v>2.854</v>
       </c>
       <c r="G5">
-        <v>2.818</v>
+        <v>2.773</v>
       </c>
       <c r="H5">
-        <v>2.871</v>
+        <v>2.823</v>
       </c>
       <c r="I5">
-        <v>3.239</v>
+        <v>3.175</v>
       </c>
       <c r="J5">
-        <v>3.51</v>
+        <v>3.411</v>
       </c>
       <c r="L5">
-        <v>3.589</v>
+        <v>3.497</v>
       </c>
     </row>
   </sheetData>
@@ -2953,37 +2953,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.199</v>
+        <v>5.034</v>
       </c>
       <c r="C2">
-        <v>5.096</v>
+        <v>4.85</v>
       </c>
       <c r="D2">
-        <v>4.532</v>
+        <v>4.244</v>
       </c>
       <c r="E2">
-        <v>3.917</v>
+        <v>3.514</v>
       </c>
       <c r="F2">
-        <v>3.972</v>
+        <v>3.5695</v>
       </c>
       <c r="G2">
-        <v>3.897</v>
+        <v>3.5285</v>
       </c>
       <c r="H2">
-        <v>3.909</v>
+        <v>3.5735</v>
       </c>
       <c r="I2">
-        <v>4.103</v>
-      </c>
-      <c r="J2">
-        <v>4.388</v>
+        <v>3.804</v>
       </c>
       <c r="K2">
-        <v>4.582</v>
+        <v>4.311</v>
       </c>
       <c r="L2">
-        <v>4.663</v>
+        <v>4.416</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2991,37 +2988,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.217</v>
+        <v>5.141</v>
       </c>
       <c r="C3">
-        <v>5.158</v>
+        <v>5.057</v>
       </c>
       <c r="D3">
-        <v>4.599</v>
+        <v>4.461</v>
       </c>
       <c r="E3">
-        <v>4.022</v>
+        <v>3.811</v>
       </c>
       <c r="F3">
-        <v>4.026</v>
+        <v>3.834</v>
       </c>
       <c r="G3">
-        <v>3.942</v>
+        <v>3.766</v>
       </c>
       <c r="H3">
-        <v>3.944</v>
+        <v>3.777</v>
       </c>
       <c r="I3">
-        <v>4.127</v>
-      </c>
-      <c r="J3">
-        <v>4.394</v>
+        <v>3.971</v>
       </c>
       <c r="K3">
-        <v>4.575</v>
+        <v>4.455</v>
       </c>
       <c r="L3">
-        <v>4.637</v>
+        <v>4.536</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3029,37 +3023,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.22</v>
+        <v>5.233</v>
       </c>
       <c r="C4">
-        <v>5.151</v>
+        <v>5.163</v>
       </c>
       <c r="D4">
-        <v>4.577</v>
+        <v>4.569</v>
       </c>
       <c r="E4">
-        <v>4.052</v>
+        <v>3.999</v>
       </c>
       <c r="F4">
-        <v>4.022</v>
+        <v>4.014</v>
       </c>
       <c r="G4">
-        <v>3.923</v>
+        <v>3.933</v>
       </c>
       <c r="H4">
-        <v>3.91</v>
+        <v>3.944</v>
       </c>
       <c r="I4">
-        <v>4.079</v>
-      </c>
-      <c r="J4">
-        <v>4.352</v>
+        <v>4.126</v>
       </c>
       <c r="K4">
-        <v>4.529</v>
+        <v>4.575</v>
       </c>
       <c r="L4">
-        <v>4.592</v>
+        <v>4.637</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3067,37 +3058,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.233</v>
+        <v>5.203</v>
       </c>
       <c r="C5">
-        <v>5.174</v>
+        <v>5.141</v>
       </c>
       <c r="D5">
-        <v>4.676</v>
+        <v>4.632</v>
       </c>
       <c r="E5">
-        <v>4.219</v>
+        <v>4.134</v>
       </c>
       <c r="F5">
-        <v>4.117</v>
+        <v>4.074</v>
       </c>
       <c r="G5">
-        <v>4.025</v>
+        <v>3.984</v>
       </c>
       <c r="H5">
-        <v>4.024</v>
+        <v>3.97</v>
       </c>
       <c r="I5">
-        <v>4.176</v>
-      </c>
-      <c r="J5">
-        <v>4.438</v>
+        <v>4.129</v>
       </c>
       <c r="K5">
-        <v>4.615</v>
+        <v>4.571</v>
       </c>
       <c r="L5">
-        <v>4.665</v>
+        <v>4.629</v>
       </c>
     </row>
   </sheetData>
@@ -3156,37 +3144,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.051</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="C2">
-        <v>0.04</v>
+        <v>0.123</v>
       </c>
       <c r="D2">
-        <v>0.199</v>
+        <v>0.18</v>
       </c>
       <c r="E2">
-        <v>0.396</v>
+        <v>0.276</v>
       </c>
       <c r="F2">
-        <v>0.451</v>
+        <v>0.274</v>
       </c>
       <c r="G2">
-        <v>0.625</v>
+        <v>0.388</v>
       </c>
       <c r="H2">
-        <v>0.782</v>
+        <v>0.486</v>
       </c>
       <c r="I2">
-        <v>1.058</v>
+        <v>0.768</v>
       </c>
       <c r="J2">
-        <v>1.539</v>
+        <v>1.282</v>
       </c>
       <c r="K2">
-        <v>1.824</v>
+        <v>1.595</v>
       </c>
       <c r="L2">
-        <v>2.143</v>
+        <v>1.968</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3194,37 +3182,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.02</v>
+        <v>0.153</v>
       </c>
       <c r="C3">
-        <v>0.024</v>
+        <v>0.155</v>
       </c>
       <c r="D3">
-        <v>0.165</v>
+        <v>0.273</v>
       </c>
       <c r="E3">
-        <v>0.351</v>
+        <v>0.466</v>
       </c>
       <c r="F3">
-        <v>0.417</v>
+        <v>0.514</v>
       </c>
       <c r="G3">
-        <v>0.603</v>
+        <v>0.655</v>
       </c>
       <c r="H3">
-        <v>0.79</v>
+        <v>0.794</v>
       </c>
       <c r="I3">
-        <v>1.061</v>
+        <v>1.033</v>
       </c>
       <c r="J3">
-        <v>1.713</v>
+        <v>1.643</v>
       </c>
       <c r="K3">
-        <v>1.86</v>
+        <v>1.791</v>
       </c>
       <c r="L3">
-        <v>2.174</v>
+        <v>2.144</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3232,37 +3220,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.012</v>
+        <v>0.02</v>
       </c>
       <c r="C4">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="D4">
-        <v>0.139</v>
+        <v>0.165</v>
       </c>
       <c r="E4">
-        <v>0.326</v>
+        <v>0.351</v>
       </c>
       <c r="F4">
-        <v>0.397</v>
+        <v>0.417</v>
       </c>
       <c r="G4">
-        <v>0.584</v>
+        <v>0.603</v>
       </c>
       <c r="H4">
-        <v>0.765</v>
+        <v>0.79</v>
       </c>
       <c r="I4">
-        <v>1.047</v>
+        <v>1.061</v>
       </c>
       <c r="J4">
-        <v>1.715</v>
+        <v>1.713</v>
       </c>
       <c r="K4">
-        <v>1.871</v>
+        <v>1.86</v>
       </c>
       <c r="L4">
-        <v>2.179</v>
+        <v>2.174</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3270,37 +3258,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.022</v>
+        <v>0.012</v>
       </c>
       <c r="C5">
-        <v>-0.003</v>
+        <v>0.018</v>
       </c>
       <c r="D5">
-        <v>0.192</v>
+        <v>0.159</v>
       </c>
       <c r="E5">
-        <v>0.355</v>
+        <v>0.345</v>
       </c>
       <c r="F5">
-        <v>0.407</v>
+        <v>0.41</v>
       </c>
       <c r="G5">
-        <v>0.583</v>
+        <v>0.58</v>
       </c>
       <c r="H5">
-        <v>0.79</v>
+        <v>0.789</v>
       </c>
       <c r="I5">
-        <v>1.046</v>
+        <v>1.071</v>
       </c>
       <c r="J5">
-        <v>1.699</v>
+        <v>1.741</v>
       </c>
       <c r="K5">
-        <v>1.87</v>
+        <v>1.935</v>
       </c>
       <c r="L5">
-        <v>2.236</v>
+        <v>2.205</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -483,140 +483,104 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>4.3</v>
-      </c>
       <c r="C2">
-        <v>4.23</v>
+        <v>4.11</v>
       </c>
       <c r="D2">
-        <v>3.9</v>
-      </c>
-      <c r="E2">
-        <v>3.187</v>
+        <v>3.8</v>
       </c>
       <c r="F2">
-        <v>3.085</v>
-      </c>
-      <c r="G2">
-        <v>2.893</v>
+        <v>3.209</v>
       </c>
       <c r="H2">
-        <v>2.824</v>
+        <v>2.911</v>
       </c>
       <c r="I2">
-        <v>2.998</v>
+        <v>3.067</v>
       </c>
       <c r="K2">
-        <v>3.114</v>
+        <v>3.16</v>
       </c>
       <c r="L2">
-        <v>3.087</v>
+        <v>3.144</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>4.44</v>
-      </c>
       <c r="C3">
-        <v>4.35</v>
+        <v>4.225</v>
       </c>
       <c r="D3">
-        <v>4.11</v>
-      </c>
-      <c r="E3">
-        <v>3.501</v>
+        <v>3.883</v>
       </c>
       <c r="F3">
-        <v>3.399</v>
-      </c>
-      <c r="G3">
-        <v>3.155</v>
+        <v>3.136</v>
       </c>
       <c r="H3">
-        <v>3.084</v>
+        <v>2.852</v>
       </c>
       <c r="I3">
-        <v>3.233</v>
+        <v>3.034</v>
       </c>
       <c r="K3">
-        <v>3.313</v>
+        <v>3.149</v>
       </c>
       <c r="L3">
-        <v>3.281</v>
+        <v>3.134</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>4.48</v>
-      </c>
       <c r="C4">
-        <v>4.45</v>
+        <v>4.34</v>
       </c>
       <c r="D4">
-        <v>4.25</v>
-      </c>
-      <c r="E4">
-        <v>3.708</v>
+        <v>4.09</v>
       </c>
       <c r="F4">
-        <v>3.633</v>
-      </c>
-      <c r="G4">
-        <v>3.351</v>
+        <v>3.347</v>
       </c>
       <c r="H4">
-        <v>3.278</v>
+        <v>3.015</v>
       </c>
       <c r="I4">
-        <v>3.381</v>
+        <v>3.162</v>
       </c>
       <c r="K4">
-        <v>3.414</v>
+        <v>3.248</v>
       </c>
       <c r="L4">
-        <v>3.354</v>
+        <v>3.211</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>4.63</v>
-      </c>
       <c r="C5">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="D5">
-        <v>4.39</v>
-      </c>
-      <c r="E5">
-        <v>3.941</v>
+        <v>4.25</v>
       </c>
       <c r="F5">
-        <v>3.775</v>
-      </c>
-      <c r="G5">
-        <v>3.493</v>
+        <v>3.633</v>
       </c>
       <c r="H5">
-        <v>3.41</v>
+        <v>3.278</v>
       </c>
       <c r="I5">
-        <v>3.499</v>
+        <v>3.381</v>
       </c>
       <c r="K5">
-        <v>3.515</v>
+        <v>3.414</v>
       </c>
       <c r="L5">
-        <v>3.432</v>
+        <v>3.354</v>
       </c>
     </row>
   </sheetData>
@@ -675,28 +639,22 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.145</v>
+        <v>5.22</v>
       </c>
       <c r="C2">
-        <v>4.745</v>
-      </c>
-      <c r="D2">
-        <v>4.235</v>
-      </c>
-      <c r="E2">
-        <v>3.754</v>
+        <v>4.977</v>
       </c>
       <c r="F2">
-        <v>3.607</v>
+        <v>3.857</v>
       </c>
       <c r="G2">
-        <v>3.538</v>
+        <v>3.757</v>
       </c>
       <c r="H2">
-        <v>3.606</v>
+        <v>3.797</v>
       </c>
       <c r="L2">
-        <v>4.07</v>
+        <v>4.138</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -704,28 +662,22 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.264</v>
+        <v>5.199</v>
       </c>
       <c r="C3">
-        <v>5.051</v>
-      </c>
-      <c r="D3">
-        <v>4.658</v>
-      </c>
-      <c r="E3">
-        <v>4.156</v>
+        <v>4.932</v>
       </c>
       <c r="F3">
-        <v>3.967</v>
+        <v>3.754</v>
       </c>
       <c r="G3">
-        <v>3.844</v>
+        <v>3.677</v>
       </c>
       <c r="H3">
-        <v>3.889</v>
+        <v>3.729</v>
       </c>
       <c r="L3">
-        <v>4.28</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -733,28 +685,22 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.324</v>
+        <v>5.183</v>
       </c>
       <c r="C4">
-        <v>5.18</v>
-      </c>
-      <c r="D4">
-        <v>4.879</v>
-      </c>
-      <c r="E4">
-        <v>4.496</v>
+        <v>4.847</v>
       </c>
       <c r="F4">
-        <v>4.277</v>
+        <v>3.703</v>
       </c>
       <c r="G4">
-        <v>4.166</v>
+        <v>3.615</v>
       </c>
       <c r="H4">
-        <v>4.192</v>
+        <v>3.672</v>
       </c>
       <c r="L4">
-        <v>4.487</v>
+        <v>4.109</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -762,28 +708,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.373</v>
+        <v>5.344</v>
       </c>
       <c r="C5">
-        <v>5.291</v>
-      </c>
-      <c r="D5">
-        <v>5.006</v>
-      </c>
-      <c r="E5">
-        <v>4.606</v>
+        <v>5.192</v>
       </c>
       <c r="F5">
-        <v>4.398</v>
+        <v>4.239</v>
       </c>
       <c r="G5">
-        <v>4.227</v>
+        <v>4.117</v>
       </c>
       <c r="H5">
-        <v>4.23</v>
+        <v>4.139</v>
       </c>
       <c r="L5">
-        <v>4.476</v>
+        <v>4.421</v>
       </c>
     </row>
   </sheetData>
@@ -841,92 +781,44 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>18.35</v>
-      </c>
       <c r="E2">
         <v>18.09</v>
       </c>
       <c r="F2">
         <v>17.42</v>
-      </c>
-      <c r="G2">
-        <v>15.915</v>
-      </c>
-      <c r="I2">
-        <v>15.115</v>
-      </c>
-      <c r="J2">
-        <v>15.35</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>18.17</v>
-      </c>
       <c r="E3">
         <v>18.22</v>
       </c>
       <c r="F3">
         <v>17.15</v>
-      </c>
-      <c r="G3">
-        <v>15.765</v>
-      </c>
-      <c r="I3">
-        <v>14.995</v>
-      </c>
-      <c r="J3">
-        <v>15.26</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>18.035</v>
-      </c>
       <c r="E4">
         <v>17.78</v>
       </c>
       <c r="F4">
         <v>16.87</v>
-      </c>
-      <c r="G4">
-        <v>15.65</v>
-      </c>
-      <c r="I4">
-        <v>14.8</v>
-      </c>
-      <c r="J4">
-        <v>15.07</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>16.32</v>
-      </c>
       <c r="E5">
         <v>15.855</v>
       </c>
       <c r="F5">
         <v>14.97</v>
-      </c>
-      <c r="G5">
-        <v>14.025</v>
-      </c>
-      <c r="I5">
-        <v>14.535</v>
-      </c>
-      <c r="J5">
-        <v>13.865</v>
       </c>
     </row>
   </sheetData>
@@ -985,19 +877,13 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>3.959</v>
+        <v>4.204</v>
       </c>
       <c r="E2">
-        <v>3.532</v>
-      </c>
-      <c r="G2">
-        <v>3.449</v>
-      </c>
-      <c r="H2">
-        <v>3.672</v>
+        <v>3.617</v>
       </c>
       <c r="I2">
-        <v>3.886</v>
+        <v>3.935</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1005,19 +891,13 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.212</v>
+        <v>4.184</v>
       </c>
       <c r="E3">
-        <v>3.885</v>
-      </c>
-      <c r="G3">
-        <v>3.786</v>
-      </c>
-      <c r="H3">
-        <v>3.951</v>
+        <v>3.677</v>
       </c>
       <c r="I3">
-        <v>4.116</v>
+        <v>4.002</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1025,19 +905,13 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.399</v>
+        <v>4.183</v>
       </c>
       <c r="E4">
-        <v>4.142</v>
-      </c>
-      <c r="G4">
-        <v>4.029</v>
-      </c>
-      <c r="H4">
-        <v>4.159</v>
+        <v>3.838</v>
       </c>
       <c r="I4">
-        <v>4.295</v>
+        <v>4.065</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1045,19 +919,13 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>4.452</v>
+        <v>4.386</v>
       </c>
       <c r="E5">
-        <v>4.243</v>
-      </c>
-      <c r="G5">
-        <v>4.16</v>
-      </c>
-      <c r="H5">
-        <v>4.279</v>
+        <v>4.117</v>
       </c>
       <c r="I5">
-        <v>4.409</v>
+        <v>4.245</v>
       </c>
     </row>
   </sheetData>
@@ -1115,128 +983,80 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>3.198</v>
-      </c>
       <c r="C2">
-        <v>3.226</v>
-      </c>
-      <c r="D2">
-        <v>3.012</v>
+        <v>3.225</v>
       </c>
       <c r="E2">
-        <v>2.81</v>
+        <v>2.957</v>
       </c>
       <c r="F2">
-        <v>2.771</v>
-      </c>
-      <c r="G2">
-        <v>2.98</v>
+        <v>2.875</v>
       </c>
       <c r="H2">
-        <v>3.21</v>
-      </c>
-      <c r="I2">
-        <v>3.623</v>
+        <v>3.272</v>
       </c>
       <c r="J2">
-        <v>3.98</v>
+        <v>3.993</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>3.388</v>
-      </c>
       <c r="C3">
-        <v>3.376</v>
-      </c>
-      <c r="D3">
-        <v>3.239</v>
+        <v>3.203</v>
       </c>
       <c r="E3">
-        <v>2.975</v>
+        <v>2.819</v>
       </c>
       <c r="F3">
-        <v>2.911</v>
-      </c>
-      <c r="G3">
-        <v>3.082</v>
+        <v>2.77</v>
       </c>
       <c r="H3">
-        <v>3.269</v>
-      </c>
-      <c r="I3">
-        <v>3.653</v>
+        <v>3.188</v>
       </c>
       <c r="J3">
-        <v>4.028</v>
+        <v>3.946</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>3.447</v>
-      </c>
       <c r="C4">
-        <v>3.461</v>
-      </c>
-      <c r="D4">
         <v>3.377</v>
       </c>
       <c r="E4">
-        <v>3.159</v>
+        <v>2.951</v>
       </c>
       <c r="F4">
-        <v>3.1</v>
-      </c>
-      <c r="G4">
-        <v>3.243</v>
+        <v>2.883</v>
       </c>
       <c r="H4">
-        <v>3.413</v>
-      </c>
-      <c r="I4">
-        <v>3.779</v>
+        <v>3.251</v>
       </c>
       <c r="J4">
-        <v>4.145</v>
+        <v>4.012</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>3.479</v>
-      </c>
       <c r="C5">
-        <v>3.595</v>
-      </c>
-      <c r="D5">
-        <v>3.489</v>
+        <v>3.46</v>
       </c>
       <c r="E5">
-        <v>3.488</v>
+        <v>3.126</v>
       </c>
       <c r="F5">
-        <v>3.292</v>
-      </c>
-      <c r="G5">
-        <v>3.422</v>
+        <v>3.065</v>
       </c>
       <c r="H5">
-        <v>3.582</v>
-      </c>
-      <c r="I5">
-        <v>3.94</v>
+        <v>3.359</v>
       </c>
       <c r="J5">
-        <v>4.294</v>
+        <v>4.084</v>
       </c>
     </row>
   </sheetData>
@@ -1295,34 +1115,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="C2">
-        <v>0.79</v>
+        <v>0.9</v>
+      </c>
+      <c r="D2">
+        <v>0.92</v>
       </c>
       <c r="E2">
-        <v>0.399</v>
+        <v>0.573</v>
       </c>
       <c r="F2">
-        <v>0.367</v>
-      </c>
-      <c r="G2">
-        <v>0.361</v>
-      </c>
-      <c r="H2">
-        <v>0.35</v>
+        <v>0.506</v>
       </c>
       <c r="I2">
-        <v>0.353</v>
-      </c>
-      <c r="J2">
-        <v>0.344</v>
-      </c>
-      <c r="K2">
-        <v>0.337</v>
+        <v>0.433</v>
       </c>
       <c r="L2">
-        <v>0.307</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1330,34 +1141,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="C3">
-        <v>1.05</v>
+        <v>0.82</v>
+      </c>
+      <c r="D3">
+        <v>0.92</v>
       </c>
       <c r="E3">
-        <v>0.657</v>
+        <v>0.539</v>
       </c>
       <c r="F3">
-        <v>0.611</v>
-      </c>
-      <c r="G3">
-        <v>0.57</v>
-      </c>
-      <c r="H3">
-        <v>0.532</v>
+        <v>0.472</v>
       </c>
       <c r="I3">
-        <v>0.486</v>
-      </c>
-      <c r="J3">
-        <v>0.455</v>
-      </c>
-      <c r="K3">
-        <v>0.473</v>
+        <v>0.397</v>
       </c>
       <c r="L3">
-        <v>0.437</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1365,34 +1167,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01</v>
+        <v>0.95</v>
+      </c>
+      <c r="D4">
+        <v>0.97</v>
       </c>
       <c r="E4">
-        <v>0.731</v>
+        <v>0.649</v>
       </c>
       <c r="F4">
-        <v>0.674</v>
-      </c>
-      <c r="G4">
-        <v>0.649</v>
-      </c>
-      <c r="H4">
-        <v>0.608</v>
+        <v>0.584</v>
       </c>
       <c r="I4">
-        <v>0.5639999999999999</v>
-      </c>
-      <c r="J4">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="K4">
-        <v>0.5659999999999999</v>
+        <v>0.451</v>
       </c>
       <c r="L4">
-        <v>0.535</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1400,34 +1193,25 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="C5">
-        <v>1.13</v>
+        <v>1.01</v>
+      </c>
+      <c r="D5">
+        <v>1.06</v>
       </c>
       <c r="E5">
-        <v>0.799</v>
+        <v>0.731</v>
       </c>
       <c r="F5">
-        <v>0.746</v>
-      </c>
-      <c r="G5">
-        <v>0.733</v>
-      </c>
-      <c r="H5">
-        <v>0.695</v>
+        <v>0.674</v>
       </c>
       <c r="I5">
-        <v>0.665</v>
-      </c>
-      <c r="J5">
-        <v>0.67</v>
-      </c>
-      <c r="K5">
-        <v>0.6830000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="L5">
-        <v>0.636</v>
+        <v>0.535</v>
       </c>
     </row>
   </sheetData>
@@ -1485,128 +1269,80 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>1.433</v>
-      </c>
       <c r="E2">
-        <v>1.502</v>
-      </c>
-      <c r="F2">
-        <v>1.63</v>
+        <v>1.673</v>
       </c>
       <c r="G2">
-        <v>1.819</v>
+        <v>1.905</v>
       </c>
       <c r="H2">
-        <v>1.928</v>
+        <v>2.09</v>
       </c>
       <c r="I2">
-        <v>2.116</v>
-      </c>
-      <c r="J2">
-        <v>2.132</v>
-      </c>
-      <c r="K2">
-        <v>2.293</v>
+        <v>2.189</v>
       </c>
       <c r="L2">
-        <v>2.357</v>
+        <v>2.398</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>1.466</v>
-      </c>
       <c r="E3">
-        <v>1.519</v>
-      </c>
-      <c r="F3">
-        <v>1.68</v>
+        <v>1.613</v>
       </c>
       <c r="G3">
-        <v>1.858</v>
+        <v>1.92</v>
       </c>
       <c r="H3">
-        <v>1.995</v>
+        <v>2.114</v>
       </c>
       <c r="I3">
-        <v>2.148</v>
-      </c>
-      <c r="J3">
-        <v>2.208</v>
-      </c>
-      <c r="K3">
-        <v>2.336</v>
+        <v>2.197</v>
       </c>
       <c r="L3">
-        <v>2.389</v>
+        <v>2.411</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>1.512</v>
-      </c>
       <c r="E4">
-        <v>1.601</v>
-      </c>
-      <c r="F4">
-        <v>1.795</v>
+        <v>1.516</v>
       </c>
       <c r="G4">
-        <v>1.957</v>
+        <v>1.833</v>
       </c>
       <c r="H4">
-        <v>2.095</v>
+        <v>1.983</v>
       </c>
       <c r="I4">
-        <v>2.272</v>
-      </c>
-      <c r="J4">
-        <v>2.319</v>
-      </c>
-      <c r="K4">
-        <v>2.457</v>
+        <v>2.126</v>
       </c>
       <c r="L4">
-        <v>2.504</v>
+        <v>2.376</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>1.531</v>
-      </c>
       <c r="E5">
-        <v>1.642</v>
-      </c>
-      <c r="F5">
-        <v>1.806</v>
+        <v>1.62</v>
       </c>
       <c r="G5">
-        <v>1.991</v>
+        <v>1.97</v>
       </c>
       <c r="H5">
-        <v>2.125</v>
+        <v>2.108</v>
       </c>
       <c r="I5">
-        <v>2.262</v>
-      </c>
-      <c r="J5">
-        <v>2.322</v>
-      </c>
-      <c r="K5">
-        <v>2.449</v>
+        <v>2.264</v>
       </c>
       <c r="L5">
-        <v>2.512</v>
+        <v>2.502</v>
       </c>
     </row>
   </sheetData>
@@ -1664,80 +1400,32 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>8.15</v>
-      </c>
       <c r="G2">
-        <v>8.441000000000001</v>
-      </c>
-      <c r="I2">
-        <v>9.558</v>
-      </c>
-      <c r="K2">
-        <v>11.95</v>
-      </c>
-      <c r="L2">
-        <v>11.945</v>
+        <v>8.315</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>8.15</v>
-      </c>
       <c r="G3">
-        <v>8.335000000000001</v>
-      </c>
-      <c r="I3">
-        <v>9.404999999999999</v>
-      </c>
-      <c r="K3">
-        <v>11.525</v>
-      </c>
-      <c r="L3">
-        <v>11.485</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>8.1</v>
-      </c>
       <c r="G4">
-        <v>8.535</v>
-      </c>
-      <c r="I4">
-        <v>9.65</v>
-      </c>
-      <c r="K4">
-        <v>11.61</v>
-      </c>
-      <c r="L4">
-        <v>11.56</v>
+        <v>8.335000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>8.15</v>
-      </c>
       <c r="G5">
-        <v>8.795999999999999</v>
-      </c>
-      <c r="I5">
-        <v>9.978</v>
-      </c>
-      <c r="K5">
-        <v>12.046</v>
-      </c>
-      <c r="L5">
-        <v>12.028</v>
+        <v>8.505000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1796,22 +1484,16 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>41.13</v>
+        <v>47.184</v>
       </c>
       <c r="C2">
-        <v>41.173</v>
-      </c>
-      <c r="E2">
-        <v>38.3</v>
+        <v>46.412</v>
       </c>
       <c r="F2">
-        <v>29.69</v>
+        <v>33.125</v>
       </c>
       <c r="G2">
-        <v>31.055</v>
-      </c>
-      <c r="I2">
-        <v>27.96</v>
+        <v>32.515</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1819,22 +1501,16 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>42.518</v>
+        <v>42.558</v>
       </c>
       <c r="C3">
-        <v>42.347</v>
-      </c>
-      <c r="E3">
-        <v>38.77</v>
+        <v>42.996</v>
       </c>
       <c r="F3">
-        <v>30.19</v>
+        <v>30.81</v>
       </c>
       <c r="G3">
-        <v>29.27</v>
-      </c>
-      <c r="I3">
-        <v>26.58</v>
+        <v>30.31</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1842,22 +1518,16 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>44.009</v>
+        <v>41.691</v>
       </c>
       <c r="C4">
-        <v>45.147</v>
-      </c>
-      <c r="E4">
-        <v>38.37</v>
+        <v>40.248</v>
       </c>
       <c r="F4">
-        <v>29.29</v>
+        <v>29.74</v>
       </c>
       <c r="G4">
-        <v>29.1</v>
-      </c>
-      <c r="I4">
-        <v>26.27</v>
+        <v>28.93</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1865,22 +1535,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>48.964</v>
+        <v>44.001</v>
       </c>
       <c r="C5">
-        <v>47.373</v>
-      </c>
-      <c r="E5">
-        <v>36.49</v>
+        <v>45.205</v>
       </c>
       <c r="F5">
-        <v>27.01</v>
+        <v>29.24</v>
       </c>
       <c r="G5">
-        <v>28.62</v>
-      </c>
-      <c r="I5">
-        <v>25.67</v>
+        <v>29.01</v>
       </c>
     </row>
   </sheetData>
@@ -1938,140 +1602,68 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>6.779</v>
-      </c>
       <c r="C2">
-        <v>6.857</v>
-      </c>
-      <c r="D2">
-        <v>6.859</v>
+        <v>6.74</v>
       </c>
       <c r="E2">
-        <v>6.81</v>
-      </c>
-      <c r="F2">
-        <v>6.879</v>
+        <v>6.803</v>
       </c>
       <c r="G2">
-        <v>6.896</v>
-      </c>
-      <c r="H2">
-        <v>6.943</v>
-      </c>
-      <c r="I2">
-        <v>6.971</v>
+        <v>6.789</v>
       </c>
       <c r="J2">
-        <v>7.058</v>
-      </c>
-      <c r="L2">
-        <v>7.146</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>6.65</v>
-      </c>
       <c r="C3">
-        <v>6.79</v>
-      </c>
-      <c r="D3">
-        <v>6.839</v>
+        <v>6.73</v>
       </c>
       <c r="E3">
-        <v>6.817</v>
-      </c>
-      <c r="F3">
-        <v>6.828</v>
+        <v>6.8</v>
       </c>
       <c r="G3">
-        <v>6.846</v>
-      </c>
-      <c r="H3">
-        <v>6.883</v>
-      </c>
-      <c r="I3">
-        <v>6.924</v>
+        <v>6.793</v>
       </c>
       <c r="J3">
-        <v>6.998</v>
-      </c>
-      <c r="L3">
-        <v>7.055</v>
+        <v>6.952</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>6.76</v>
-      </c>
       <c r="C4">
-        <v>6.86</v>
-      </c>
-      <c r="D4">
-        <v>6.884</v>
+        <v>6.79</v>
       </c>
       <c r="E4">
-        <v>6.873</v>
-      </c>
-      <c r="F4">
-        <v>6.889</v>
+        <v>6.817</v>
       </c>
       <c r="G4">
-        <v>6.918</v>
-      </c>
-      <c r="H4">
-        <v>6.952</v>
-      </c>
-      <c r="I4">
-        <v>6.965</v>
+        <v>6.846</v>
       </c>
       <c r="J4">
-        <v>6.997</v>
-      </c>
-      <c r="L4">
-        <v>7.039</v>
+        <v>6.998</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>6.78</v>
-      </c>
       <c r="C5">
+        <v>6.85</v>
+      </c>
+      <c r="E5">
+        <v>6.876</v>
+      </c>
+      <c r="G5">
         <v>6.92</v>
       </c>
-      <c r="D5">
-        <v>6.919</v>
-      </c>
-      <c r="E5">
-        <v>6.949</v>
-      </c>
-      <c r="F5">
-        <v>6.955</v>
-      </c>
-      <c r="G5">
-        <v>6.994</v>
-      </c>
-      <c r="H5">
-        <v>7.006</v>
-      </c>
-      <c r="I5">
-        <v>6.993</v>
-      </c>
       <c r="J5">
-        <v>7.031</v>
-      </c>
-      <c r="L5">
-        <v>7.075</v>
+        <v>6.998</v>
       </c>
     </row>
   </sheetData>
@@ -2129,152 +1721,56 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>3.578</v>
-      </c>
-      <c r="C2">
-        <v>3.296</v>
-      </c>
-      <c r="D2">
-        <v>2.961</v>
-      </c>
-      <c r="E2">
-        <v>2.551</v>
-      </c>
       <c r="F2">
-        <v>2.507</v>
+        <v>2.644</v>
       </c>
       <c r="G2">
-        <v>2.553</v>
-      </c>
-      <c r="H2">
-        <v>2.632</v>
-      </c>
-      <c r="I2">
-        <v>2.929</v>
-      </c>
-      <c r="J2">
-        <v>3.131</v>
+        <v>2.664</v>
       </c>
       <c r="K2">
-        <v>3.252</v>
-      </c>
-      <c r="L2">
-        <v>3.478</v>
+        <v>3.303</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>3.609</v>
-      </c>
-      <c r="C3">
-        <v>3.473</v>
-      </c>
-      <c r="D3">
-        <v>3.215</v>
-      </c>
-      <c r="E3">
-        <v>2.788</v>
-      </c>
       <c r="F3">
-        <v>2.708</v>
+        <v>2.557</v>
       </c>
       <c r="G3">
-        <v>2.7</v>
-      </c>
-      <c r="H3">
-        <v>2.7554</v>
-      </c>
-      <c r="I3">
-        <v>3.013</v>
-      </c>
-      <c r="J3">
-        <v>3.205</v>
+        <v>2.58</v>
       </c>
       <c r="K3">
-        <v>3.326</v>
-      </c>
-      <c r="L3">
-        <v>3.524</v>
+        <v>3.254</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>3.64</v>
-      </c>
-      <c r="C4">
-        <v>3.564</v>
-      </c>
-      <c r="D4">
-        <v>3.388</v>
-      </c>
-      <c r="E4">
-        <v>2.959</v>
-      </c>
       <c r="F4">
-        <v>2.867</v>
+        <v>2.666</v>
       </c>
       <c r="G4">
-        <v>2.853</v>
-      </c>
-      <c r="H4">
-        <v>2.8934</v>
-      </c>
-      <c r="I4">
-        <v>3.13</v>
-      </c>
-      <c r="J4">
-        <v>3.32</v>
+        <v>2.659</v>
       </c>
       <c r="K4">
-        <v>3.434</v>
-      </c>
-      <c r="L4">
-        <v>3.627</v>
+        <v>3.305</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>3.704</v>
-      </c>
-      <c r="C5">
-        <v>3.62</v>
-      </c>
-      <c r="D5">
-        <v>3.464</v>
-      </c>
-      <c r="E5">
-        <v>3.095</v>
-      </c>
       <c r="F5">
-        <v>2.996</v>
+        <v>2.844</v>
       </c>
       <c r="G5">
-        <v>2.958</v>
-      </c>
-      <c r="H5">
-        <v>2.9861</v>
-      </c>
-      <c r="I5">
-        <v>3.212</v>
-      </c>
-      <c r="J5">
-        <v>3.377</v>
+        <v>2.82</v>
       </c>
       <c r="K5">
-        <v>3.478</v>
-      </c>
-      <c r="L5">
-        <v>3.655</v>
+        <v>3.384</v>
       </c>
     </row>
   </sheetData>
@@ -2332,152 +1828,68 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>3.309</v>
-      </c>
       <c r="C2">
-        <v>3.135</v>
+        <v>3.199</v>
       </c>
       <c r="D2">
-        <v>2.721</v>
+        <v>2.923</v>
       </c>
       <c r="E2">
-        <v>2.224</v>
-      </c>
-      <c r="F2">
-        <v>2.077</v>
-      </c>
-      <c r="G2">
-        <v>1.983</v>
-      </c>
-      <c r="H2">
-        <v>1.992</v>
-      </c>
-      <c r="I2">
-        <v>2.115</v>
+        <v>2.451</v>
       </c>
       <c r="J2">
-        <v>2.284</v>
-      </c>
-      <c r="K2">
-        <v>2.363</v>
-      </c>
-      <c r="L2">
-        <v>2.357</v>
+        <v>2.441</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>3.377</v>
-      </c>
       <c r="C3">
-        <v>3.299</v>
+        <v>3.171</v>
       </c>
       <c r="D3">
-        <v>3.012</v>
+        <v>2.865</v>
       </c>
       <c r="E3">
-        <v>2.533</v>
-      </c>
-      <c r="F3">
-        <v>2.375</v>
-      </c>
-      <c r="G3">
-        <v>2.233</v>
-      </c>
-      <c r="H3">
-        <v>2.223</v>
-      </c>
-      <c r="I3">
-        <v>2.302</v>
+        <v>2.339</v>
       </c>
       <c r="J3">
-        <v>2.463</v>
-      </c>
-      <c r="K3">
-        <v>2.531</v>
-      </c>
-      <c r="L3">
-        <v>2.514</v>
+        <v>2.373</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>3.462</v>
-      </c>
       <c r="C4">
-        <v>3.386</v>
+        <v>3.289</v>
       </c>
       <c r="D4">
-        <v>3.163</v>
+        <v>2.977</v>
       </c>
       <c r="E4">
-        <v>2.778</v>
-      </c>
-      <c r="F4">
-        <v>2.564</v>
-      </c>
-      <c r="G4">
-        <v>2.428</v>
-      </c>
-      <c r="H4">
-        <v>2.339</v>
-      </c>
-      <c r="I4">
         <v>2.463</v>
       </c>
       <c r="J4">
-        <v>2.621</v>
-      </c>
-      <c r="K4">
-        <v>2.682</v>
-      </c>
-      <c r="L4">
-        <v>2.663</v>
+        <v>2.414</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>3.401</v>
-      </c>
       <c r="C5">
-        <v>3.409</v>
+        <v>3.385</v>
       </c>
       <c r="D5">
-        <v>3.266</v>
+        <v>3.143</v>
       </c>
       <c r="E5">
-        <v>2.893</v>
-      </c>
-      <c r="F5">
-        <v>2.687</v>
-      </c>
-      <c r="G5">
-        <v>2.532</v>
-      </c>
-      <c r="H5">
-        <v>2.44</v>
-      </c>
-      <c r="I5">
-        <v>2.532</v>
+        <v>2.736</v>
       </c>
       <c r="J5">
-        <v>2.751</v>
-      </c>
-      <c r="K5">
-        <v>2.747</v>
-      </c>
-      <c r="L5">
-        <v>2.718</v>
+        <v>2.572</v>
       </c>
     </row>
   </sheetData>
@@ -2535,80 +1947,32 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>4.421</v>
-      </c>
       <c r="E2">
-        <v>4.691</v>
-      </c>
-      <c r="F2">
-        <v>4.775</v>
-      </c>
-      <c r="G2">
-        <v>4.951</v>
-      </c>
-      <c r="I2">
-        <v>5.102</v>
+        <v>4.922</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>4.517</v>
-      </c>
       <c r="E3">
-        <v>4.942</v>
-      </c>
-      <c r="F3">
-        <v>5.045</v>
-      </c>
-      <c r="G3">
-        <v>5.265</v>
-      </c>
-      <c r="I3">
-        <v>5.379</v>
+        <v>4.834</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>4.602</v>
-      </c>
       <c r="E4">
-        <v>5.105</v>
-      </c>
-      <c r="F4">
-        <v>5.251</v>
-      </c>
-      <c r="G4">
-        <v>5.497</v>
-      </c>
-      <c r="I4">
-        <v>5.607</v>
+        <v>4.942</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>4.855</v>
-      </c>
       <c r="E5">
-        <v>5.291</v>
-      </c>
-      <c r="F5">
-        <v>5.47</v>
-      </c>
-      <c r="G5">
-        <v>5.699</v>
-      </c>
-      <c r="I5">
-        <v>5.777</v>
+        <v>5.054</v>
       </c>
     </row>
   </sheetData>
@@ -2666,80 +2030,56 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>11.015</v>
-      </c>
       <c r="E2">
-        <v>11.41</v>
+        <v>11.635</v>
       </c>
       <c r="F2">
-        <v>11.455</v>
+        <v>11.565</v>
       </c>
       <c r="G2">
-        <v>11.72</v>
-      </c>
-      <c r="I2">
-        <v>11.845</v>
+        <v>11.555</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>11.248</v>
-      </c>
       <c r="E3">
-        <v>11.8</v>
+        <v>11.475</v>
       </c>
       <c r="F3">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="G3">
-        <v>12.08</v>
-      </c>
-      <c r="I3">
-        <v>12.085</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>11.065</v>
-      </c>
       <c r="E4">
-        <v>11.515</v>
+        <v>11.675</v>
       </c>
       <c r="F4">
-        <v>11.645</v>
+        <v>11.75</v>
       </c>
       <c r="G4">
-        <v>11.94</v>
-      </c>
-      <c r="I4">
-        <v>12.06</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>10.92</v>
-      </c>
       <c r="E5">
-        <v>11.37</v>
+        <v>11.515</v>
       </c>
       <c r="F5">
-        <v>11.545</v>
+        <v>11.645</v>
       </c>
       <c r="G5">
-        <v>11.875</v>
-      </c>
-      <c r="I5">
-        <v>11.98</v>
+        <v>11.94</v>
       </c>
     </row>
   </sheetData>
@@ -2797,104 +2137,44 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>2.383</v>
-      </c>
-      <c r="F2">
-        <v>2.278</v>
-      </c>
-      <c r="G2">
-        <v>2.323</v>
-      </c>
-      <c r="H2">
-        <v>2.404</v>
-      </c>
       <c r="I2">
-        <v>2.819</v>
-      </c>
-      <c r="J2">
-        <v>3.108</v>
+        <v>2.89</v>
       </c>
       <c r="L2">
-        <v>3.215</v>
+        <v>3.283</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>2.669</v>
-      </c>
-      <c r="F3">
-        <v>2.516</v>
-      </c>
-      <c r="G3">
-        <v>2.492</v>
-      </c>
-      <c r="H3">
-        <v>2.555</v>
-      </c>
       <c r="I3">
-        <v>2.93</v>
-      </c>
-      <c r="J3">
-        <v>3.195</v>
+        <v>2.815</v>
       </c>
       <c r="L3">
-        <v>3.297</v>
+        <v>3.214</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>2.87</v>
-      </c>
-      <c r="F4">
-        <v>2.701</v>
-      </c>
-      <c r="G4">
-        <v>2.642</v>
-      </c>
-      <c r="H4">
-        <v>2.688</v>
-      </c>
       <c r="I4">
-        <v>3.068</v>
-      </c>
-      <c r="J4">
-        <v>3.32</v>
+        <v>2.899</v>
       </c>
       <c r="L4">
-        <v>3.409</v>
+        <v>3.265</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>2.998</v>
-      </c>
-      <c r="F5">
-        <v>2.854</v>
-      </c>
-      <c r="G5">
-        <v>2.773</v>
-      </c>
-      <c r="H5">
-        <v>2.823</v>
-      </c>
       <c r="I5">
-        <v>3.175</v>
-      </c>
-      <c r="J5">
-        <v>3.411</v>
+        <v>3.009</v>
       </c>
       <c r="L5">
-        <v>3.497</v>
+        <v>3.353</v>
       </c>
     </row>
   </sheetData>
@@ -2952,140 +2232,80 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>5.034</v>
-      </c>
       <c r="C2">
-        <v>4.85</v>
+        <v>4.825</v>
       </c>
       <c r="D2">
-        <v>4.244</v>
-      </c>
-      <c r="E2">
-        <v>3.514</v>
+        <v>4.382</v>
       </c>
       <c r="F2">
-        <v>3.5695</v>
-      </c>
-      <c r="G2">
-        <v>3.5285</v>
+        <v>3.805</v>
       </c>
       <c r="H2">
-        <v>3.5735</v>
-      </c>
-      <c r="I2">
-        <v>3.804</v>
-      </c>
-      <c r="K2">
-        <v>4.311</v>
+        <v>3.725</v>
       </c>
       <c r="L2">
-        <v>4.416</v>
+        <v>4.472</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>5.141</v>
-      </c>
       <c r="C3">
-        <v>5.057</v>
+        <v>4.872</v>
       </c>
       <c r="D3">
-        <v>4.461</v>
-      </c>
-      <c r="E3">
-        <v>3.811</v>
+        <v>4.308</v>
       </c>
       <c r="F3">
-        <v>3.834</v>
-      </c>
-      <c r="G3">
-        <v>3.766</v>
+        <v>3.729</v>
       </c>
       <c r="H3">
-        <v>3.777</v>
-      </c>
-      <c r="I3">
-        <v>3.971</v>
-      </c>
-      <c r="K3">
-        <v>4.455</v>
+        <v>3.689</v>
       </c>
       <c r="L3">
-        <v>4.536</v>
+        <v>4.471</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>5.233</v>
-      </c>
       <c r="C4">
-        <v>5.163</v>
+        <v>4.952</v>
       </c>
       <c r="D4">
-        <v>4.569</v>
-      </c>
-      <c r="E4">
-        <v>3.999</v>
+        <v>4.375</v>
       </c>
       <c r="F4">
-        <v>4.014</v>
-      </c>
-      <c r="G4">
-        <v>3.933</v>
+        <v>3.731</v>
       </c>
       <c r="H4">
-        <v>3.944</v>
-      </c>
-      <c r="I4">
-        <v>4.126</v>
-      </c>
-      <c r="K4">
-        <v>4.575</v>
+        <v>3.686</v>
       </c>
       <c r="L4">
-        <v>4.637</v>
+        <v>4.482</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>5.203</v>
-      </c>
       <c r="C5">
-        <v>5.141</v>
+        <v>5.13</v>
       </c>
       <c r="D5">
-        <v>4.632</v>
-      </c>
-      <c r="E5">
-        <v>4.134</v>
+        <v>4.566</v>
       </c>
       <c r="F5">
-        <v>4.074</v>
-      </c>
-      <c r="G5">
-        <v>3.984</v>
+        <v>3.991</v>
       </c>
       <c r="H5">
-        <v>3.97</v>
-      </c>
-      <c r="I5">
-        <v>4.129</v>
-      </c>
-      <c r="K5">
-        <v>4.571</v>
+        <v>3.888</v>
       </c>
       <c r="L5">
-        <v>4.629</v>
+        <v>4.565</v>
       </c>
     </row>
   </sheetData>
@@ -3143,152 +2363,80 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>0.07099999999999999</v>
-      </c>
       <c r="C2">
-        <v>0.123</v>
-      </c>
-      <c r="D2">
-        <v>0.18</v>
+        <v>0.124</v>
       </c>
       <c r="E2">
-        <v>0.276</v>
+        <v>0.348</v>
       </c>
       <c r="F2">
-        <v>0.274</v>
-      </c>
-      <c r="G2">
-        <v>0.388</v>
+        <v>0.371</v>
       </c>
       <c r="H2">
-        <v>0.486</v>
-      </c>
-      <c r="I2">
-        <v>0.768</v>
+        <v>0.591</v>
       </c>
       <c r="J2">
-        <v>1.282</v>
-      </c>
-      <c r="K2">
-        <v>1.595</v>
-      </c>
-      <c r="L2">
-        <v>1.968</v>
+        <v>1.385</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>0.153</v>
-      </c>
       <c r="C3">
-        <v>0.155</v>
-      </c>
-      <c r="D3">
-        <v>0.273</v>
+        <v>0.133</v>
       </c>
       <c r="E3">
-        <v>0.466</v>
+        <v>0.301</v>
       </c>
       <c r="F3">
-        <v>0.514</v>
-      </c>
-      <c r="G3">
-        <v>0.655</v>
+        <v>0.322</v>
       </c>
       <c r="H3">
-        <v>0.794</v>
-      </c>
-      <c r="I3">
-        <v>1.033</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J3">
-        <v>1.643</v>
-      </c>
-      <c r="K3">
-        <v>1.791</v>
-      </c>
-      <c r="L3">
-        <v>2.144</v>
+        <v>1.481</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>0.02</v>
-      </c>
       <c r="C4">
-        <v>0.024</v>
-      </c>
-      <c r="D4">
-        <v>0.165</v>
+        <v>0.15</v>
       </c>
       <c r="E4">
-        <v>0.351</v>
+        <v>0.411</v>
       </c>
       <c r="F4">
-        <v>0.417</v>
-      </c>
-      <c r="G4">
-        <v>0.603</v>
+        <v>0.45</v>
       </c>
       <c r="H4">
-        <v>0.79</v>
-      </c>
-      <c r="I4">
-        <v>1.061</v>
+        <v>0.71</v>
       </c>
       <c r="J4">
-        <v>1.713</v>
-      </c>
-      <c r="K4">
-        <v>1.86</v>
-      </c>
-      <c r="L4">
-        <v>2.174</v>
+        <v>1.575</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>0.012</v>
-      </c>
       <c r="C5">
-        <v>0.018</v>
-      </c>
-      <c r="D5">
-        <v>0.159</v>
+        <v>0.024</v>
       </c>
       <c r="E5">
-        <v>0.345</v>
+        <v>0.338</v>
       </c>
       <c r="F5">
-        <v>0.41</v>
-      </c>
-      <c r="G5">
-        <v>0.58</v>
+        <v>0.406</v>
       </c>
       <c r="H5">
-        <v>0.789</v>
-      </c>
-      <c r="I5">
-        <v>1.071</v>
+        <v>0.763</v>
       </c>
       <c r="J5">
-        <v>1.741</v>
-      </c>
-      <c r="K5">
-        <v>1.935</v>
-      </c>
-      <c r="L5">
-        <v>2.205</v>
+        <v>1.685</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -483,104 +483,140 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>4.05</v>
+      </c>
       <c r="C2">
-        <v>4.11</v>
+        <v>3.85</v>
       </c>
       <c r="D2">
-        <v>3.8</v>
+        <v>3.46</v>
+      </c>
+      <c r="E2">
+        <v>2.947</v>
       </c>
       <c r="F2">
-        <v>3.209</v>
+        <v>2.879</v>
+      </c>
+      <c r="G2">
+        <v>2.723</v>
       </c>
       <c r="H2">
-        <v>2.911</v>
+        <v>2.657</v>
       </c>
       <c r="I2">
-        <v>3.067</v>
+        <v>2.906</v>
       </c>
       <c r="K2">
-        <v>3.16</v>
+        <v>3.061</v>
       </c>
       <c r="L2">
-        <v>3.144</v>
+        <v>3.094</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>4.06</v>
+      </c>
       <c r="C3">
-        <v>4.225</v>
+        <v>3.94</v>
       </c>
       <c r="D3">
-        <v>3.883</v>
+        <v>3.56</v>
+      </c>
+      <c r="E3">
+        <v>2.989</v>
       </c>
       <c r="F3">
-        <v>3.136</v>
+        <v>2.917</v>
+      </c>
+      <c r="G3">
+        <v>2.731</v>
       </c>
       <c r="H3">
-        <v>2.852</v>
+        <v>2.663</v>
       </c>
       <c r="I3">
-        <v>3.034</v>
+        <v>2.898</v>
       </c>
       <c r="K3">
-        <v>3.149</v>
+        <v>3.045</v>
       </c>
       <c r="L3">
-        <v>3.134</v>
+        <v>3.062</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>4.19</v>
+      </c>
       <c r="C4">
-        <v>4.34</v>
+        <v>4.07</v>
       </c>
       <c r="D4">
-        <v>4.09</v>
+        <v>3.74</v>
+      </c>
+      <c r="E4">
+        <v>3.274</v>
       </c>
       <c r="F4">
-        <v>3.347</v>
+        <v>3.18</v>
+      </c>
+      <c r="G4">
+        <v>2.976</v>
       </c>
       <c r="H4">
-        <v>3.015</v>
+        <v>2.906</v>
       </c>
       <c r="I4">
-        <v>3.162</v>
+        <v>3.09</v>
       </c>
       <c r="K4">
-        <v>3.248</v>
+        <v>3.182</v>
       </c>
       <c r="L4">
-        <v>3.211</v>
+        <v>3.186</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>4.235</v>
+      </c>
       <c r="C5">
-        <v>4.45</v>
+        <v>4.11</v>
       </c>
       <c r="D5">
-        <v>4.25</v>
+        <v>3.8</v>
+      </c>
+      <c r="E5">
+        <v>3.316</v>
       </c>
       <c r="F5">
-        <v>3.633</v>
+        <v>3.209</v>
+      </c>
+      <c r="G5">
+        <v>2.984</v>
       </c>
       <c r="H5">
-        <v>3.278</v>
+        <v>2.911</v>
       </c>
       <c r="I5">
-        <v>3.381</v>
+        <v>3.067</v>
       </c>
       <c r="K5">
-        <v>3.414</v>
+        <v>3.16</v>
       </c>
       <c r="L5">
-        <v>3.354</v>
+        <v>3.144</v>
       </c>
     </row>
   </sheetData>
@@ -639,22 +675,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5.22</v>
+        <v>4.897</v>
       </c>
       <c r="C2">
-        <v>4.977</v>
+        <v>4.634</v>
+      </c>
+      <c r="D2">
+        <v>4.033</v>
+      </c>
+      <c r="E2">
+        <v>3.557</v>
       </c>
       <c r="F2">
-        <v>3.857</v>
+        <v>3.418</v>
       </c>
       <c r="G2">
-        <v>3.757</v>
+        <v>3.409</v>
       </c>
       <c r="H2">
-        <v>3.797</v>
+        <v>3.515</v>
+      </c>
+      <c r="I2">
+        <v>3.639</v>
       </c>
       <c r="L2">
-        <v>4.138</v>
+        <v>3.971</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -662,22 +707,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.199</v>
+        <v>4.993</v>
       </c>
       <c r="C3">
-        <v>4.932</v>
+        <v>4.716</v>
+      </c>
+      <c r="D3">
+        <v>4.121</v>
+      </c>
+      <c r="E3">
+        <v>3.602</v>
       </c>
       <c r="F3">
-        <v>3.754</v>
+        <v>3.445</v>
       </c>
       <c r="G3">
-        <v>3.677</v>
+        <v>3.433</v>
       </c>
       <c r="H3">
-        <v>3.729</v>
+        <v>3.53</v>
+      </c>
+      <c r="I3">
+        <v>3.648</v>
       </c>
       <c r="L3">
-        <v>4.16</v>
+        <v>3.968</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -685,22 +739,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.183</v>
+        <v>5.11</v>
       </c>
       <c r="C4">
-        <v>4.847</v>
+        <v>4.851</v>
+      </c>
+      <c r="D4">
+        <v>4.391</v>
+      </c>
+      <c r="E4">
+        <v>3.863</v>
       </c>
       <c r="F4">
-        <v>3.703</v>
+        <v>3.724</v>
       </c>
       <c r="G4">
-        <v>3.615</v>
+        <v>3.639</v>
       </c>
       <c r="H4">
-        <v>3.672</v>
+        <v>3.726</v>
+      </c>
+      <c r="I4">
+        <v>3.831</v>
       </c>
       <c r="L4">
-        <v>4.109</v>
+        <v>4.123</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -708,22 +771,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.344</v>
+        <v>5.22</v>
       </c>
       <c r="C5">
-        <v>5.192</v>
+        <v>4.982</v>
+      </c>
+      <c r="D5">
+        <v>4.503</v>
+      </c>
+      <c r="E5">
+        <v>4.054</v>
       </c>
       <c r="F5">
-        <v>4.239</v>
+        <v>3.857</v>
       </c>
       <c r="G5">
-        <v>4.117</v>
+        <v>3.757</v>
       </c>
       <c r="H5">
-        <v>4.139</v>
+        <v>3.797</v>
+      </c>
+      <c r="I5">
+        <v>3.883</v>
       </c>
       <c r="L5">
-        <v>4.421</v>
+        <v>4.138</v>
       </c>
     </row>
   </sheetData>
@@ -781,44 +853,92 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="D2">
+        <v>18.35</v>
+      </c>
       <c r="E2">
         <v>18.09</v>
       </c>
       <c r="F2">
         <v>17.42</v>
+      </c>
+      <c r="G2">
+        <v>15.915</v>
+      </c>
+      <c r="I2">
+        <v>15.115</v>
+      </c>
+      <c r="J2">
+        <v>15.35</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="D3">
+        <v>18.17</v>
+      </c>
       <c r="E3">
         <v>18.22</v>
       </c>
       <c r="F3">
         <v>17.15</v>
+      </c>
+      <c r="G3">
+        <v>15.765</v>
+      </c>
+      <c r="I3">
+        <v>14.995</v>
+      </c>
+      <c r="J3">
+        <v>15.26</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="D4">
+        <v>18.035</v>
+      </c>
       <c r="E4">
         <v>17.78</v>
       </c>
       <c r="F4">
         <v>16.87</v>
+      </c>
+      <c r="G4">
+        <v>15.65</v>
+      </c>
+      <c r="I4">
+        <v>14.8</v>
+      </c>
+      <c r="J4">
+        <v>15.07</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="D5">
+        <v>16.32</v>
+      </c>
       <c r="E5">
         <v>15.855</v>
       </c>
       <c r="F5">
         <v>14.97</v>
+      </c>
+      <c r="G5">
+        <v>14.025</v>
+      </c>
+      <c r="I5">
+        <v>14.535</v>
+      </c>
+      <c r="J5">
+        <v>13.865</v>
       </c>
     </row>
   </sheetData>
@@ -876,56 +996,92 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>4.204</v>
-      </c>
       <c r="E2">
-        <v>3.617</v>
+        <v>3.503</v>
+      </c>
+      <c r="F2">
+        <v>3.42</v>
+      </c>
+      <c r="G2">
+        <v>3.489</v>
+      </c>
+      <c r="H2">
+        <v>3.652</v>
       </c>
       <c r="I2">
-        <v>3.935</v>
+        <v>3.85</v>
+      </c>
+      <c r="J2">
+        <v>4.082</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>4.184</v>
-      </c>
       <c r="E3">
-        <v>3.677</v>
+        <v>3.556</v>
+      </c>
+      <c r="F3">
+        <v>3.472</v>
+      </c>
+      <c r="G3">
+        <v>3.542</v>
+      </c>
+      <c r="H3">
+        <v>3.688</v>
       </c>
       <c r="I3">
-        <v>4.002</v>
+        <v>3.859</v>
+      </c>
+      <c r="J3">
+        <v>4.101</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>4.183</v>
-      </c>
       <c r="E4">
-        <v>3.838</v>
+        <v>3.621</v>
+      </c>
+      <c r="F4">
+        <v>3.567</v>
+      </c>
+      <c r="G4">
+        <v>3.61</v>
+      </c>
+      <c r="H4">
+        <v>3.795</v>
       </c>
       <c r="I4">
-        <v>4.065</v>
+        <v>3.973</v>
+      </c>
+      <c r="J4">
+        <v>4.22</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>4.386</v>
-      </c>
       <c r="E5">
-        <v>4.117</v>
+        <v>3.617</v>
+      </c>
+      <c r="F5">
+        <v>3.58</v>
+      </c>
+      <c r="G5">
+        <v>3.607</v>
+      </c>
+      <c r="H5">
+        <v>3.775</v>
       </c>
       <c r="I5">
-        <v>4.245</v>
+        <v>3.935</v>
+      </c>
+      <c r="J5">
+        <v>4.183</v>
       </c>
     </row>
   </sheetData>
@@ -983,80 +1139,128 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>3.174</v>
+      </c>
       <c r="C2">
-        <v>3.225</v>
+        <v>3.191</v>
+      </c>
+      <c r="D2">
+        <v>2.896</v>
       </c>
       <c r="E2">
-        <v>2.957</v>
+        <v>2.599</v>
       </c>
       <c r="F2">
-        <v>2.875</v>
+        <v>2.54</v>
+      </c>
+      <c r="G2">
+        <v>2.782</v>
       </c>
       <c r="H2">
-        <v>3.272</v>
+        <v>3.078</v>
+      </c>
+      <c r="I2">
+        <v>3.508</v>
       </c>
       <c r="J2">
-        <v>3.993</v>
+        <v>3.853</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>3.247</v>
+      </c>
       <c r="C3">
-        <v>3.203</v>
+        <v>3.169</v>
+      </c>
+      <c r="D3">
+        <v>2.939</v>
       </c>
       <c r="E3">
-        <v>2.819</v>
+        <v>2.597</v>
       </c>
       <c r="F3">
-        <v>2.77</v>
+        <v>2.54</v>
+      </c>
+      <c r="G3">
+        <v>2.798</v>
       </c>
       <c r="H3">
-        <v>3.188</v>
+        <v>3.032</v>
+      </c>
+      <c r="I3">
+        <v>3.464</v>
       </c>
       <c r="J3">
-        <v>3.946</v>
+        <v>3.871</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>3.219</v>
+      </c>
       <c r="C4">
-        <v>3.377</v>
+        <v>3.285</v>
+      </c>
+      <c r="D4">
+        <v>3.057</v>
       </c>
       <c r="E4">
-        <v>2.951</v>
+        <v>2.861</v>
       </c>
       <c r="F4">
-        <v>2.883</v>
+        <v>2.818</v>
+      </c>
+      <c r="G4">
+        <v>3.052</v>
       </c>
       <c r="H4">
-        <v>3.251</v>
+        <v>3.28</v>
+      </c>
+      <c r="I4">
+        <v>3.691</v>
       </c>
       <c r="J4">
-        <v>4.012</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>3.327</v>
+      </c>
       <c r="C5">
-        <v>3.46</v>
+        <v>3.225</v>
+      </c>
+      <c r="D5">
+        <v>3.124</v>
       </c>
       <c r="E5">
-        <v>3.126</v>
+        <v>2.957</v>
       </c>
       <c r="F5">
-        <v>3.065</v>
+        <v>2.875</v>
+      </c>
+      <c r="G5">
+        <v>3.073</v>
       </c>
       <c r="H5">
-        <v>3.359</v>
+        <v>3.272</v>
+      </c>
+      <c r="I5">
+        <v>3.641</v>
       </c>
       <c r="J5">
-        <v>4.084</v>
+        <v>3.993</v>
       </c>
     </row>
   </sheetData>
@@ -1115,25 +1319,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>0.74</v>
       </c>
       <c r="D2">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="E2">
-        <v>0.573</v>
+        <v>0.469</v>
       </c>
       <c r="F2">
-        <v>0.506</v>
+        <v>0.404</v>
+      </c>
+      <c r="G2">
+        <v>0.408</v>
+      </c>
+      <c r="H2">
+        <v>0.396</v>
       </c>
       <c r="I2">
-        <v>0.433</v>
+        <v>0.395</v>
+      </c>
+      <c r="J2">
+        <v>0.427</v>
+      </c>
+      <c r="K2">
+        <v>0.415</v>
       </c>
       <c r="L2">
-        <v>0.373</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1141,25 +1357,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="C3">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="D3">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="E3">
-        <v>0.539</v>
+        <v>0.501</v>
       </c>
       <c r="F3">
-        <v>0.472</v>
+        <v>0.444</v>
+      </c>
+      <c r="G3">
+        <v>0.428</v>
+      </c>
+      <c r="H3">
+        <v>0.418</v>
       </c>
       <c r="I3">
-        <v>0.397</v>
+        <v>0.421</v>
+      </c>
+      <c r="J3">
+        <v>0.453</v>
+      </c>
+      <c r="K3">
+        <v>0.44</v>
       </c>
       <c r="L3">
-        <v>0.378</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1167,25 +1395,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="C4">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="D4">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
       <c r="E4">
-        <v>0.649</v>
+        <v>0.547</v>
       </c>
       <c r="F4">
-        <v>0.584</v>
+        <v>0.521</v>
+      </c>
+      <c r="G4">
+        <v>0.509</v>
+      </c>
+      <c r="H4">
+        <v>0.491</v>
       </c>
       <c r="I4">
-        <v>0.451</v>
+        <v>0.468</v>
+      </c>
+      <c r="J4">
+        <v>0.47</v>
+      </c>
+      <c r="K4">
+        <v>0.47</v>
       </c>
       <c r="L4">
-        <v>0.407</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1193,25 +1433,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.09</v>
+        <v>0.86</v>
       </c>
       <c r="C5">
-        <v>1.01</v>
+        <v>0.83</v>
       </c>
       <c r="D5">
-        <v>1.06</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0.731</v>
+        <v>0.573</v>
       </c>
       <c r="F5">
-        <v>0.674</v>
+        <v>0.506</v>
+      </c>
+      <c r="G5">
+        <v>0.491</v>
+      </c>
+      <c r="H5">
+        <v>0.462</v>
       </c>
       <c r="I5">
-        <v>0.5639999999999999</v>
+        <v>0.433</v>
+      </c>
+      <c r="J5">
+        <v>0.413</v>
+      </c>
+      <c r="K5">
+        <v>0.403</v>
       </c>
       <c r="L5">
-        <v>0.535</v>
+        <v>0.373</v>
       </c>
     </row>
   </sheetData>
@@ -1269,80 +1521,128 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="D2">
+        <v>1.32</v>
+      </c>
       <c r="E2">
-        <v>1.673</v>
+        <v>1.36</v>
+      </c>
+      <c r="F2">
+        <v>1.474</v>
       </c>
       <c r="G2">
-        <v>1.905</v>
+        <v>1.715</v>
       </c>
       <c r="H2">
-        <v>2.09</v>
+        <v>1.909</v>
       </c>
       <c r="I2">
-        <v>2.189</v>
+        <v>2.068</v>
+      </c>
+      <c r="J2">
+        <v>2.066</v>
+      </c>
+      <c r="K2">
+        <v>2.23</v>
       </c>
       <c r="L2">
-        <v>2.398</v>
+        <v>2.238</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="D3">
+        <v>1.363</v>
+      </c>
       <c r="E3">
-        <v>1.613</v>
+        <v>1.383</v>
+      </c>
+      <c r="F3">
+        <v>1.453</v>
       </c>
       <c r="G3">
-        <v>1.92</v>
+        <v>1.705</v>
       </c>
       <c r="H3">
-        <v>2.114</v>
+        <v>1.93</v>
       </c>
       <c r="I3">
-        <v>2.197</v>
+        <v>2.066</v>
+      </c>
+      <c r="J3">
+        <v>2.107</v>
+      </c>
+      <c r="K3">
+        <v>2.267</v>
       </c>
       <c r="L3">
-        <v>2.411</v>
+        <v>2.285</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="D4">
+        <v>1.513</v>
+      </c>
       <c r="E4">
-        <v>1.516</v>
+        <v>1.537</v>
+      </c>
+      <c r="F4">
+        <v>1.685</v>
       </c>
       <c r="G4">
-        <v>1.833</v>
+        <v>1.856</v>
       </c>
       <c r="H4">
-        <v>1.983</v>
+        <v>2.084</v>
       </c>
       <c r="I4">
-        <v>2.126</v>
+        <v>2.183</v>
+      </c>
+      <c r="J4">
+        <v>2.158</v>
+      </c>
+      <c r="K4">
+        <v>2.367</v>
       </c>
       <c r="L4">
-        <v>2.376</v>
+        <v>2.408</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="D5">
+        <v>1.518</v>
+      </c>
       <c r="E5">
-        <v>1.62</v>
+        <v>1.673</v>
+      </c>
+      <c r="F5">
+        <v>1.778</v>
       </c>
       <c r="G5">
-        <v>1.97</v>
+        <v>1.905</v>
       </c>
       <c r="H5">
-        <v>2.108</v>
+        <v>2.09</v>
       </c>
       <c r="I5">
-        <v>2.264</v>
+        <v>2.189</v>
+      </c>
+      <c r="J5">
+        <v>2.206</v>
+      </c>
+      <c r="K5">
+        <v>2.367</v>
       </c>
       <c r="L5">
-        <v>2.502</v>
+        <v>2.398</v>
       </c>
     </row>
   </sheetData>
@@ -1400,32 +1700,80 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>7.95</v>
+      </c>
       <c r="G2">
-        <v>8.315</v>
+        <v>8.093</v>
+      </c>
+      <c r="I2">
+        <v>9.026999999999999</v>
+      </c>
+      <c r="K2">
+        <v>11.191</v>
+      </c>
+      <c r="L2">
+        <v>11.137</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>7.95</v>
+      </c>
       <c r="G3">
-        <v>8.24</v>
+        <v>8.037000000000001</v>
+      </c>
+      <c r="I3">
+        <v>8.997999999999999</v>
+      </c>
+      <c r="K3">
+        <v>11.015</v>
+      </c>
+      <c r="L3">
+        <v>10.993</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>8.050000000000001</v>
+      </c>
       <c r="G4">
-        <v>8.335000000000001</v>
+        <v>8.19</v>
+      </c>
+      <c r="I4">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K4">
+        <v>11.225</v>
+      </c>
+      <c r="L4">
+        <v>11.215</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>8.15</v>
+      </c>
       <c r="G5">
-        <v>8.505000000000001</v>
+        <v>8.315</v>
+      </c>
+      <c r="I5">
+        <v>9.32</v>
+      </c>
+      <c r="K5">
+        <v>11.37</v>
+      </c>
+      <c r="L5">
+        <v>11.34</v>
       </c>
     </row>
   </sheetData>
@@ -1484,16 +1832,22 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>47.184</v>
+        <v>47.027</v>
       </c>
       <c r="C2">
-        <v>46.412</v>
+        <v>46.367</v>
+      </c>
+      <c r="E2">
+        <v>42.275</v>
       </c>
       <c r="F2">
-        <v>33.125</v>
+        <v>33.625</v>
       </c>
       <c r="G2">
-        <v>32.515</v>
+        <v>33.295</v>
+      </c>
+      <c r="I2">
+        <v>28.875</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1501,16 +1855,22 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>42.558</v>
+        <v>46.662</v>
       </c>
       <c r="C3">
-        <v>42.996</v>
+        <v>45.364</v>
+      </c>
+      <c r="E3">
+        <v>42.125</v>
       </c>
       <c r="F3">
-        <v>30.81</v>
+        <v>33.105</v>
       </c>
       <c r="G3">
-        <v>30.31</v>
+        <v>32.88</v>
+      </c>
+      <c r="I3">
+        <v>28.655</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1518,16 +1878,22 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>41.691</v>
+        <v>47.035</v>
       </c>
       <c r="C4">
-        <v>40.248</v>
+        <v>46.135</v>
+      </c>
+      <c r="E4">
+        <v>38.5</v>
       </c>
       <c r="F4">
-        <v>29.74</v>
+        <v>30.71</v>
       </c>
       <c r="G4">
-        <v>28.93</v>
+        <v>30.14</v>
+      </c>
+      <c r="I4">
+        <v>26.72</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1535,16 +1901,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>44.001</v>
+        <v>47.184</v>
       </c>
       <c r="C5">
-        <v>45.205</v>
+        <v>46.412</v>
+      </c>
+      <c r="E5">
+        <v>38.67</v>
       </c>
       <c r="F5">
-        <v>29.24</v>
+        <v>30.81</v>
       </c>
       <c r="G5">
-        <v>29.01</v>
+        <v>30.16</v>
+      </c>
+      <c r="I5">
+        <v>26.91</v>
       </c>
     </row>
   </sheetData>
@@ -1602,68 +1974,140 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>6.716</v>
+      </c>
       <c r="C2">
-        <v>6.74</v>
+        <v>6.764</v>
+      </c>
+      <c r="D2">
+        <v>6.701</v>
       </c>
       <c r="E2">
-        <v>6.803</v>
+        <v>6.813</v>
+      </c>
+      <c r="F2">
+        <v>6.81</v>
       </c>
       <c r="G2">
-        <v>6.789</v>
+        <v>6.808</v>
+      </c>
+      <c r="H2">
+        <v>6.857</v>
+      </c>
+      <c r="I2">
+        <v>6.894</v>
       </c>
       <c r="J2">
-        <v>6.94</v>
+        <v>6.957</v>
+      </c>
+      <c r="L2">
+        <v>7.065</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>6.63</v>
+      </c>
       <c r="C3">
-        <v>6.73</v>
+        <v>6.72</v>
+      </c>
+      <c r="D3">
+        <v>6.752</v>
       </c>
       <c r="E3">
-        <v>6.8</v>
+        <v>6.732</v>
+      </c>
+      <c r="F3">
+        <v>6.716</v>
       </c>
       <c r="G3">
-        <v>6.793</v>
+        <v>6.723</v>
+      </c>
+      <c r="H3">
+        <v>6.799</v>
+      </c>
+      <c r="I3">
+        <v>6.83</v>
       </c>
       <c r="J3">
-        <v>6.952</v>
+        <v>6.882</v>
+      </c>
+      <c r="L3">
+        <v>6.976</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>6.65</v>
+      </c>
       <c r="C4">
-        <v>6.79</v>
+        <v>6.73</v>
+      </c>
+      <c r="D4">
+        <v>6.743</v>
       </c>
       <c r="E4">
-        <v>6.817</v>
+        <v>6.745</v>
+      </c>
+      <c r="F4">
+        <v>6.75</v>
       </c>
       <c r="G4">
-        <v>6.846</v>
+        <v>6.772</v>
+      </c>
+      <c r="H4">
+        <v>6.828</v>
+      </c>
+      <c r="I4">
+        <v>6.863</v>
       </c>
       <c r="J4">
-        <v>6.998</v>
+        <v>6.915</v>
+      </c>
+      <c r="L4">
+        <v>6.999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>6.63</v>
+      </c>
       <c r="C5">
-        <v>6.85</v>
+        <v>6.74</v>
+      </c>
+      <c r="D5">
+        <v>6.763</v>
       </c>
       <c r="E5">
-        <v>6.876</v>
+        <v>6.803</v>
+      </c>
+      <c r="F5">
+        <v>6.739</v>
       </c>
       <c r="G5">
-        <v>6.92</v>
+        <v>6.789</v>
+      </c>
+      <c r="H5">
+        <v>6.848</v>
+      </c>
+      <c r="I5">
+        <v>6.867</v>
       </c>
       <c r="J5">
-        <v>6.998</v>
+        <v>6.94</v>
+      </c>
+      <c r="L5">
+        <v>7.013</v>
       </c>
     </row>
   </sheetData>
@@ -1721,56 +2165,152 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>3.456</v>
+      </c>
+      <c r="C2">
+        <v>3.285</v>
+      </c>
+      <c r="D2">
+        <v>2.85</v>
+      </c>
+      <c r="E2">
+        <v>2.424</v>
+      </c>
       <c r="F2">
-        <v>2.644</v>
+        <v>2.393</v>
       </c>
       <c r="G2">
-        <v>2.664</v>
+        <v>2.457</v>
+      </c>
+      <c r="H2">
+        <v>2.539</v>
+      </c>
+      <c r="I2">
+        <v>2.835</v>
+      </c>
+      <c r="J2">
+        <v>3.067</v>
       </c>
       <c r="K2">
-        <v>3.303</v>
+        <v>3.221</v>
+      </c>
+      <c r="L2">
+        <v>3.423</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>3.433</v>
+      </c>
+      <c r="C3">
+        <v>3.265</v>
+      </c>
+      <c r="D3">
+        <v>2.867</v>
+      </c>
+      <c r="E3">
+        <v>2.411</v>
+      </c>
       <c r="F3">
-        <v>2.557</v>
+        <v>2.361</v>
       </c>
       <c r="G3">
-        <v>2.58</v>
+        <v>2.426</v>
+      </c>
+      <c r="H3">
+        <v>2.5164</v>
+      </c>
+      <c r="I3">
+        <v>2.817</v>
+      </c>
+      <c r="J3">
+        <v>3.056</v>
       </c>
       <c r="K3">
-        <v>3.254</v>
+        <v>3.202</v>
+      </c>
+      <c r="L3">
+        <v>3.412</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>3.476</v>
+      </c>
+      <c r="C4">
+        <v>3.338</v>
+      </c>
+      <c r="D4">
+        <v>3.014</v>
+      </c>
+      <c r="E4">
+        <v>2.64</v>
+      </c>
       <c r="F4">
-        <v>2.666</v>
+        <v>2.591</v>
       </c>
       <c r="G4">
-        <v>2.659</v>
+        <v>2.651</v>
+      </c>
+      <c r="H4">
+        <v>2.7257</v>
+      </c>
+      <c r="I4">
+        <v>3.012</v>
+      </c>
+      <c r="J4">
+        <v>3.229</v>
       </c>
       <c r="K4">
-        <v>3.305</v>
+        <v>3.358</v>
+      </c>
+      <c r="L4">
+        <v>3.57</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>3.536</v>
+      </c>
+      <c r="C5">
+        <v>3.401</v>
+      </c>
+      <c r="D5">
+        <v>3.096</v>
+      </c>
+      <c r="E5">
+        <v>2.689</v>
+      </c>
       <c r="F5">
-        <v>2.844</v>
+        <v>2.644</v>
       </c>
       <c r="G5">
-        <v>2.82</v>
+        <v>2.664</v>
+      </c>
+      <c r="H5">
+        <v>2.7212</v>
+      </c>
+      <c r="I5">
+        <v>2.983</v>
+      </c>
+      <c r="J5">
+        <v>3.19</v>
       </c>
       <c r="K5">
-        <v>3.384</v>
+        <v>3.303</v>
+      </c>
+      <c r="L5">
+        <v>3.507</v>
       </c>
     </row>
   </sheetData>
@@ -1828,68 +2368,152 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>3.206</v>
+      </c>
       <c r="C2">
-        <v>3.199</v>
+        <v>3.137</v>
       </c>
       <c r="D2">
-        <v>2.923</v>
+        <v>2.698</v>
       </c>
       <c r="E2">
-        <v>2.451</v>
+        <v>2.202</v>
+      </c>
+      <c r="F2">
+        <v>2.05</v>
+      </c>
+      <c r="G2">
+        <v>2.009</v>
+      </c>
+      <c r="H2">
+        <v>2.026</v>
+      </c>
+      <c r="I2">
+        <v>2.137</v>
       </c>
       <c r="J2">
-        <v>2.441</v>
+        <v>2.33</v>
+      </c>
+      <c r="K2">
+        <v>2.438</v>
+      </c>
+      <c r="L2">
+        <v>2.416</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>3.224</v>
+      </c>
       <c r="C3">
-        <v>3.171</v>
+        <v>3.146</v>
       </c>
       <c r="D3">
-        <v>2.865</v>
+        <v>2.677</v>
       </c>
       <c r="E3">
-        <v>2.339</v>
+        <v>2.134</v>
+      </c>
+      <c r="F3">
+        <v>1.991</v>
+      </c>
+      <c r="G3">
+        <v>1.954</v>
+      </c>
+      <c r="H3">
+        <v>1.977</v>
+      </c>
+      <c r="I3">
+        <v>2.098</v>
       </c>
       <c r="J3">
-        <v>2.373</v>
+        <v>2.295</v>
+      </c>
+      <c r="K3">
+        <v>2.404</v>
+      </c>
+      <c r="L3">
+        <v>2.384</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>3.232</v>
+      </c>
       <c r="C4">
-        <v>3.289</v>
+        <v>3.128</v>
       </c>
       <c r="D4">
-        <v>2.977</v>
+        <v>2.833</v>
       </c>
       <c r="E4">
-        <v>2.463</v>
+        <v>2.384</v>
+      </c>
+      <c r="F4">
+        <v>2.25</v>
+      </c>
+      <c r="G4">
+        <v>2.18</v>
+      </c>
+      <c r="H4">
+        <v>2.189</v>
+      </c>
+      <c r="I4">
+        <v>2.29</v>
       </c>
       <c r="J4">
-        <v>2.414</v>
+        <v>2.48</v>
+      </c>
+      <c r="K4">
+        <v>2.568</v>
+      </c>
+      <c r="L4">
+        <v>2.539</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>3.341</v>
+      </c>
       <c r="C5">
-        <v>3.385</v>
+        <v>3.199</v>
       </c>
       <c r="D5">
-        <v>3.143</v>
+        <v>2.923</v>
       </c>
       <c r="E5">
-        <v>2.736</v>
+        <v>2.451</v>
+      </c>
+      <c r="F5">
+        <v>2.306</v>
+      </c>
+      <c r="G5">
+        <v>2.189</v>
+      </c>
+      <c r="H5">
+        <v>2.184</v>
+      </c>
+      <c r="I5">
+        <v>2.258</v>
       </c>
       <c r="J5">
-        <v>2.572</v>
+        <v>2.441</v>
+      </c>
+      <c r="K5">
+        <v>2.505</v>
+      </c>
+      <c r="L5">
+        <v>2.477</v>
       </c>
     </row>
   </sheetData>
@@ -1947,32 +2571,68 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="D2">
+        <v>3.611</v>
+      </c>
       <c r="E2">
-        <v>4.922</v>
+        <v>4.608</v>
+      </c>
+      <c r="G2">
+        <v>4.95</v>
+      </c>
+      <c r="I2">
+        <v>5.242</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="D3">
+        <v>3.735</v>
+      </c>
       <c r="E3">
-        <v>4.834</v>
+        <v>4.64</v>
+      </c>
+      <c r="G3">
+        <v>4.989</v>
+      </c>
+      <c r="I3">
+        <v>5.268</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="D4">
+        <v>4.015</v>
+      </c>
       <c r="E4">
-        <v>4.942</v>
+        <v>4.8</v>
+      </c>
+      <c r="G4">
+        <v>5.188</v>
+      </c>
+      <c r="I4">
+        <v>5.464</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="D5">
+        <v>4.325</v>
+      </c>
       <c r="E5">
-        <v>5.054</v>
+        <v>4.922</v>
+      </c>
+      <c r="G5">
+        <v>5.154</v>
+      </c>
+      <c r="I5">
+        <v>5.349</v>
       </c>
     </row>
   </sheetData>
@@ -2030,56 +2690,80 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="D2">
+        <v>11.735</v>
+      </c>
       <c r="E2">
-        <v>11.635</v>
+        <v>11.85</v>
       </c>
       <c r="F2">
-        <v>11.565</v>
+        <v>11.85</v>
       </c>
       <c r="G2">
-        <v>11.555</v>
+        <v>11.96</v>
+      </c>
+      <c r="I2">
+        <v>11.95</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="D3">
+        <v>11.632</v>
+      </c>
       <c r="E3">
-        <v>11.475</v>
+        <v>11.8</v>
       </c>
       <c r="F3">
-        <v>11.4</v>
+        <v>11.76</v>
       </c>
       <c r="G3">
-        <v>11.43</v>
+        <v>11.89</v>
+      </c>
+      <c r="I3">
+        <v>11.83</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="D4">
+        <v>11.745</v>
+      </c>
       <c r="E4">
-        <v>11.675</v>
+        <v>11.828</v>
       </c>
       <c r="F4">
-        <v>11.75</v>
+        <v>11.815</v>
       </c>
       <c r="G4">
-        <v>11.97</v>
+        <v>11.945</v>
+      </c>
+      <c r="I4">
+        <v>11.91</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="D5">
+        <v>11.565</v>
+      </c>
       <c r="E5">
-        <v>11.515</v>
+        <v>11.635</v>
       </c>
       <c r="F5">
-        <v>11.645</v>
+        <v>11.565</v>
       </c>
       <c r="G5">
-        <v>11.94</v>
+        <v>11.555</v>
+      </c>
+      <c r="I5">
+        <v>11.5</v>
       </c>
     </row>
   </sheetData>
@@ -2137,44 +2821,104 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="E2">
+        <v>2.279</v>
+      </c>
+      <c r="F2">
+        <v>2.169</v>
+      </c>
+      <c r="G2">
+        <v>2.241</v>
+      </c>
+      <c r="H2">
+        <v>2.308</v>
+      </c>
       <c r="I2">
-        <v>2.89</v>
+        <v>2.72</v>
+      </c>
+      <c r="J2">
+        <v>3.049</v>
       </c>
       <c r="L2">
-        <v>3.283</v>
+        <v>3.176</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="E3">
+        <v>2.26</v>
+      </c>
+      <c r="F3">
+        <v>2.164</v>
+      </c>
+      <c r="G3">
+        <v>2.225</v>
+      </c>
+      <c r="H3">
+        <v>2.294</v>
+      </c>
       <c r="I3">
-        <v>2.815</v>
+        <v>2.725</v>
+      </c>
+      <c r="J3">
+        <v>3.047</v>
       </c>
       <c r="L3">
-        <v>3.214</v>
+        <v>3.188</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="E4">
+        <v>2.46</v>
+      </c>
+      <c r="F4">
+        <v>2.382</v>
+      </c>
+      <c r="G4">
+        <v>2.438</v>
+      </c>
+      <c r="H4">
+        <v>2.51</v>
+      </c>
       <c r="I4">
-        <v>2.899</v>
+        <v>2.897</v>
+      </c>
+      <c r="J4">
+        <v>3.19</v>
       </c>
       <c r="L4">
-        <v>3.265</v>
+        <v>3.333</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="E5">
+        <v>2.609</v>
+      </c>
+      <c r="F5">
+        <v>2.491</v>
+      </c>
+      <c r="G5">
+        <v>2.47</v>
+      </c>
+      <c r="H5">
+        <v>2.523</v>
+      </c>
       <c r="I5">
-        <v>3.009</v>
+        <v>2.89</v>
+      </c>
+      <c r="J5">
+        <v>3.16</v>
       </c>
       <c r="L5">
-        <v>3.353</v>
+        <v>3.283</v>
       </c>
     </row>
   </sheetData>
@@ -2232,80 +2976,152 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>4.935</v>
+      </c>
       <c r="C2">
-        <v>4.825</v>
+        <v>4.729</v>
       </c>
       <c r="D2">
-        <v>4.382</v>
+        <v>4.2725</v>
+      </c>
+      <c r="E2">
+        <v>3.8185</v>
       </c>
       <c r="F2">
-        <v>3.805</v>
+        <v>3.566</v>
+      </c>
+      <c r="G2">
+        <v>3.648</v>
       </c>
       <c r="H2">
-        <v>3.725</v>
+        <v>3.6585</v>
+      </c>
+      <c r="I2">
+        <v>3.7955</v>
+      </c>
+      <c r="J2">
+        <v>4.0715</v>
+      </c>
+      <c r="K2">
+        <v>4.321</v>
       </c>
       <c r="L2">
-        <v>4.472</v>
+        <v>4.398</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>4.99</v>
+      </c>
       <c r="C3">
-        <v>4.872</v>
+        <v>4.831</v>
       </c>
       <c r="D3">
-        <v>4.308</v>
+        <v>4.252</v>
+      </c>
+      <c r="E3">
+        <v>3.802</v>
       </c>
       <c r="F3">
-        <v>3.729</v>
+        <v>3.545</v>
+      </c>
+      <c r="G3">
+        <v>3.623</v>
       </c>
       <c r="H3">
-        <v>3.689</v>
+        <v>3.632</v>
+      </c>
+      <c r="I3">
+        <v>3.762</v>
+      </c>
+      <c r="J3">
+        <v>4.063</v>
+      </c>
+      <c r="K3">
+        <v>4.288</v>
       </c>
       <c r="L3">
-        <v>4.471</v>
+        <v>4.375</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>4.98</v>
+      </c>
       <c r="C4">
-        <v>4.952</v>
+        <v>4.894</v>
       </c>
       <c r="D4">
-        <v>4.375</v>
+        <v>4.477</v>
+      </c>
+      <c r="E4">
+        <v>4.113</v>
       </c>
       <c r="F4">
-        <v>3.731</v>
+        <v>3.863</v>
+      </c>
+      <c r="G4">
+        <v>3.912</v>
       </c>
       <c r="H4">
-        <v>3.686</v>
+        <v>3.915</v>
+      </c>
+      <c r="I4">
+        <v>4.016</v>
+      </c>
+      <c r="J4">
+        <v>4.281</v>
+      </c>
+      <c r="K4">
+        <v>4.46</v>
       </c>
       <c r="L4">
-        <v>4.482</v>
+        <v>4.539</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>5.036</v>
+      </c>
       <c r="C5">
-        <v>5.13</v>
+        <v>4.825</v>
       </c>
       <c r="D5">
-        <v>4.566</v>
+        <v>4.382</v>
+      </c>
+      <c r="E5">
+        <v>3.677</v>
       </c>
       <c r="F5">
-        <v>3.991</v>
+        <v>3.805</v>
+      </c>
+      <c r="G5">
+        <v>3.735</v>
       </c>
       <c r="H5">
-        <v>3.888</v>
+        <v>3.725</v>
+      </c>
+      <c r="I5">
+        <v>3.93</v>
+      </c>
+      <c r="J5">
+        <v>4.187</v>
+      </c>
+      <c r="K5">
+        <v>4.386</v>
       </c>
       <c r="L5">
-        <v>4.565</v>
+        <v>4.472</v>
       </c>
     </row>
   </sheetData>
@@ -2363,80 +3179,152 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>0.092</v>
+      </c>
       <c r="C2">
-        <v>0.124</v>
+        <v>0.098</v>
+      </c>
+      <c r="D2">
+        <v>0.238</v>
       </c>
       <c r="E2">
-        <v>0.348</v>
+        <v>0.387</v>
       </c>
       <c r="F2">
-        <v>0.371</v>
+        <v>0.394</v>
+      </c>
+      <c r="G2">
+        <v>0.499</v>
       </c>
       <c r="H2">
-        <v>0.591</v>
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.851</v>
       </c>
       <c r="J2">
-        <v>1.385</v>
+        <v>1.365</v>
+      </c>
+      <c r="K2">
+        <v>1.671</v>
+      </c>
+      <c r="L2">
+        <v>2.053</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>0.099</v>
+      </c>
       <c r="C3">
-        <v>0.133</v>
+        <v>0.091</v>
+      </c>
+      <c r="D3">
+        <v>0.247</v>
       </c>
       <c r="E3">
-        <v>0.301</v>
+        <v>0.391</v>
       </c>
       <c r="F3">
-        <v>0.322</v>
+        <v>0.416</v>
+      </c>
+      <c r="G3">
+        <v>0.524</v>
       </c>
       <c r="H3">
-        <v>0.5600000000000001</v>
+        <v>0.616</v>
+      </c>
+      <c r="I3">
+        <v>0.891</v>
       </c>
       <c r="J3">
-        <v>1.481</v>
+        <v>1.531</v>
+      </c>
+      <c r="K3">
+        <v>1.701</v>
+      </c>
+      <c r="L3">
+        <v>2.066</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>0.104</v>
+      </c>
       <c r="C4">
-        <v>0.15</v>
+        <v>0.098</v>
+      </c>
+      <c r="D4">
+        <v>0.25</v>
       </c>
       <c r="E4">
-        <v>0.411</v>
+        <v>0.361</v>
       </c>
       <c r="F4">
-        <v>0.45</v>
+        <v>0.385</v>
+      </c>
+      <c r="G4">
+        <v>0.498</v>
       </c>
       <c r="H4">
-        <v>0.71</v>
+        <v>0.626</v>
+      </c>
+      <c r="I4">
+        <v>0.891</v>
       </c>
       <c r="J4">
-        <v>1.575</v>
+        <v>1.533</v>
+      </c>
+      <c r="K4">
+        <v>1.711</v>
+      </c>
+      <c r="L4">
+        <v>2.085</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>0.12</v>
+      </c>
       <c r="C5">
-        <v>0.024</v>
+        <v>0.124</v>
+      </c>
+      <c r="D5">
+        <v>0.238</v>
       </c>
       <c r="E5">
-        <v>0.338</v>
+        <v>0.356</v>
       </c>
       <c r="F5">
-        <v>0.406</v>
+        <v>0.383</v>
+      </c>
+      <c r="G5">
+        <v>0.494</v>
       </c>
       <c r="H5">
-        <v>0.763</v>
+        <v>0.608</v>
+      </c>
+      <c r="I5">
+        <v>0.876</v>
       </c>
       <c r="J5">
-        <v>1.685</v>
+        <v>1.495</v>
+      </c>
+      <c r="K5">
+        <v>1.688</v>
+      </c>
+      <c r="L5">
+        <v>2.042</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -484,34 +484,28 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="C2">
-        <v>3.85</v>
+        <v>3.76</v>
       </c>
       <c r="D2">
-        <v>3.46</v>
+        <v>3.35</v>
       </c>
       <c r="E2">
-        <v>2.947</v>
+        <v>2.943</v>
       </c>
       <c r="F2">
-        <v>2.879</v>
+        <v>2.875</v>
       </c>
       <c r="G2">
-        <v>2.723</v>
+        <v>2.752</v>
       </c>
       <c r="H2">
-        <v>2.657</v>
-      </c>
-      <c r="I2">
-        <v>2.906</v>
+        <v>2.684</v>
       </c>
       <c r="K2">
-        <v>3.061</v>
-      </c>
-      <c r="L2">
-        <v>3.094</v>
+        <v>3.089</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -519,34 +513,28 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="C3">
-        <v>3.94</v>
+        <v>3.79</v>
       </c>
       <c r="D3">
-        <v>3.56</v>
+        <v>3.34</v>
       </c>
       <c r="E3">
-        <v>2.989</v>
+        <v>2.922</v>
       </c>
       <c r="F3">
-        <v>2.917</v>
+        <v>2.853</v>
       </c>
       <c r="G3">
-        <v>2.731</v>
+        <v>2.717</v>
       </c>
       <c r="H3">
-        <v>2.663</v>
-      </c>
-      <c r="I3">
-        <v>2.898</v>
+        <v>2.651</v>
       </c>
       <c r="K3">
-        <v>3.045</v>
-      </c>
-      <c r="L3">
-        <v>3.062</v>
+        <v>3.039</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -554,34 +542,28 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.19</v>
+        <v>4.095</v>
       </c>
       <c r="C4">
-        <v>4.07</v>
+        <v>3.99</v>
       </c>
       <c r="D4">
-        <v>3.74</v>
+        <v>3.64</v>
       </c>
       <c r="E4">
-        <v>3.274</v>
+        <v>3.137</v>
       </c>
       <c r="F4">
-        <v>3.18</v>
+        <v>3.047</v>
       </c>
       <c r="G4">
-        <v>2.976</v>
+        <v>2.846</v>
       </c>
       <c r="H4">
-        <v>2.906</v>
-      </c>
-      <c r="I4">
-        <v>3.09</v>
+        <v>2.762</v>
       </c>
       <c r="K4">
-        <v>3.182</v>
-      </c>
-      <c r="L4">
-        <v>3.186</v>
+        <v>3.104</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -589,34 +571,28 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4.235</v>
+        <v>4.225</v>
       </c>
       <c r="C5">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="D5">
-        <v>3.8</v>
+        <v>3.76</v>
       </c>
       <c r="E5">
-        <v>3.316</v>
+        <v>3.253</v>
       </c>
       <c r="F5">
-        <v>3.209</v>
+        <v>3.156</v>
       </c>
       <c r="G5">
-        <v>2.984</v>
+        <v>2.929</v>
       </c>
       <c r="H5">
-        <v>2.911</v>
-      </c>
-      <c r="I5">
-        <v>3.067</v>
+        <v>2.856</v>
       </c>
       <c r="K5">
-        <v>3.16</v>
-      </c>
-      <c r="L5">
-        <v>3.144</v>
+        <v>3.118</v>
       </c>
     </row>
   </sheetData>
@@ -675,31 +651,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>4.897</v>
+        <v>4.672</v>
       </c>
       <c r="C2">
-        <v>4.634</v>
+        <v>4.478</v>
       </c>
       <c r="D2">
-        <v>4.033</v>
+        <v>3.951</v>
       </c>
       <c r="E2">
-        <v>3.557</v>
+        <v>3.597</v>
       </c>
       <c r="F2">
-        <v>3.418</v>
+        <v>3.482</v>
       </c>
       <c r="G2">
-        <v>3.409</v>
+        <v>3.5</v>
       </c>
       <c r="H2">
-        <v>3.515</v>
+        <v>3.614</v>
       </c>
       <c r="I2">
-        <v>3.639</v>
+        <v>3.741</v>
       </c>
       <c r="L2">
-        <v>3.971</v>
+        <v>4.083</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -707,31 +683,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.993</v>
+        <v>4.869</v>
       </c>
       <c r="C3">
-        <v>4.716</v>
+        <v>4.571</v>
       </c>
       <c r="D3">
-        <v>4.121</v>
+        <v>4.004</v>
       </c>
       <c r="E3">
-        <v>3.602</v>
+        <v>3.607</v>
       </c>
       <c r="F3">
-        <v>3.445</v>
+        <v>3.465</v>
       </c>
       <c r="G3">
-        <v>3.433</v>
+        <v>3.443</v>
       </c>
       <c r="H3">
-        <v>3.53</v>
+        <v>3.535</v>
       </c>
       <c r="I3">
         <v>3.648</v>
       </c>
       <c r="L3">
-        <v>3.968</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -739,31 +715,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.11</v>
+        <v>5.056</v>
       </c>
       <c r="C4">
-        <v>4.851</v>
+        <v>4.725</v>
       </c>
       <c r="D4">
-        <v>4.391</v>
+        <v>4.111</v>
       </c>
       <c r="E4">
-        <v>3.863</v>
+        <v>3.654</v>
       </c>
       <c r="F4">
-        <v>3.724</v>
+        <v>3.533</v>
       </c>
       <c r="G4">
-        <v>3.639</v>
+        <v>3.496</v>
       </c>
       <c r="H4">
-        <v>3.726</v>
+        <v>3.597</v>
       </c>
       <c r="I4">
-        <v>3.831</v>
+        <v>3.716</v>
       </c>
       <c r="L4">
-        <v>4.123</v>
+        <v>4.024</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -771,31 +747,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.22</v>
+        <v>5.15</v>
       </c>
       <c r="C5">
-        <v>4.982</v>
+        <v>4.884</v>
       </c>
       <c r="D5">
-        <v>4.503</v>
+        <v>4.385</v>
       </c>
       <c r="E5">
-        <v>4.054</v>
+        <v>3.933</v>
       </c>
       <c r="F5">
-        <v>3.857</v>
+        <v>3.741</v>
       </c>
       <c r="G5">
-        <v>3.757</v>
+        <v>3.655</v>
       </c>
       <c r="H5">
-        <v>3.797</v>
+        <v>3.701</v>
       </c>
       <c r="I5">
-        <v>3.883</v>
+        <v>3.799</v>
       </c>
       <c r="L5">
-        <v>4.138</v>
+        <v>4.076</v>
       </c>
     </row>
   </sheetData>
@@ -996,92 +972,104 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="D2">
+        <v>3.799</v>
+      </c>
       <c r="E2">
+        <v>3.578</v>
+      </c>
+      <c r="F2">
         <v>3.503</v>
       </c>
-      <c r="F2">
-        <v>3.42</v>
-      </c>
       <c r="G2">
-        <v>3.489</v>
+        <v>3.583</v>
       </c>
       <c r="H2">
-        <v>3.652</v>
+        <v>3.739</v>
       </c>
       <c r="I2">
-        <v>3.85</v>
+        <v>3.925</v>
       </c>
       <c r="J2">
-        <v>4.082</v>
+        <v>4.166</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="D3">
+        <v>3.751</v>
+      </c>
       <c r="E3">
-        <v>3.556</v>
+        <v>3.515</v>
       </c>
       <c r="F3">
-        <v>3.472</v>
+        <v>3.435</v>
       </c>
       <c r="G3">
-        <v>3.542</v>
+        <v>3.503</v>
       </c>
       <c r="H3">
-        <v>3.688</v>
+        <v>3.652</v>
       </c>
       <c r="I3">
-        <v>3.859</v>
+        <v>3.838</v>
       </c>
       <c r="J3">
-        <v>4.101</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="D4">
+        <v>4.2</v>
+      </c>
       <c r="E4">
-        <v>3.621</v>
+        <v>3.615</v>
       </c>
       <c r="F4">
-        <v>3.567</v>
+        <v>3.55</v>
       </c>
       <c r="G4">
-        <v>3.61</v>
+        <v>3.574</v>
       </c>
       <c r="H4">
-        <v>3.795</v>
+        <v>3.758</v>
       </c>
       <c r="I4">
-        <v>3.973</v>
+        <v>3.932</v>
       </c>
       <c r="J4">
-        <v>4.22</v>
+        <v>4.185</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="D5">
+        <v>4.194</v>
+      </c>
       <c r="E5">
-        <v>3.617</v>
+        <v>3.574</v>
       </c>
       <c r="F5">
-        <v>3.58</v>
+        <v>3.538</v>
       </c>
       <c r="G5">
-        <v>3.607</v>
+        <v>3.561</v>
       </c>
       <c r="H5">
-        <v>3.775</v>
+        <v>3.72</v>
       </c>
       <c r="I5">
-        <v>3.935</v>
+        <v>3.871</v>
       </c>
       <c r="J5">
-        <v>4.183</v>
+        <v>4.117</v>
       </c>
     </row>
   </sheetData>
@@ -1140,31 +1128,28 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.174</v>
-      </c>
-      <c r="C2">
-        <v>3.191</v>
+        <v>3.171</v>
       </c>
       <c r="D2">
-        <v>2.896</v>
+        <v>2.984</v>
       </c>
       <c r="E2">
-        <v>2.599</v>
+        <v>2.629</v>
       </c>
       <c r="F2">
-        <v>2.54</v>
+        <v>2.573</v>
       </c>
       <c r="G2">
-        <v>2.782</v>
+        <v>2.821</v>
       </c>
       <c r="H2">
-        <v>3.078</v>
+        <v>3.106</v>
       </c>
       <c r="I2">
-        <v>3.508</v>
+        <v>3.56</v>
       </c>
       <c r="J2">
-        <v>3.853</v>
+        <v>3.904</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1172,31 +1157,28 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.247</v>
-      </c>
-      <c r="C3">
-        <v>3.169</v>
+        <v>3.045</v>
       </c>
       <c r="D3">
-        <v>2.939</v>
+        <v>2.904</v>
       </c>
       <c r="E3">
-        <v>2.597</v>
+        <v>2.627</v>
       </c>
       <c r="F3">
-        <v>2.54</v>
+        <v>2.565</v>
       </c>
       <c r="G3">
         <v>2.798</v>
       </c>
       <c r="H3">
-        <v>3.032</v>
+        <v>3.068</v>
       </c>
       <c r="I3">
-        <v>3.464</v>
+        <v>3.5</v>
       </c>
       <c r="J3">
-        <v>3.871</v>
+        <v>3.837</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1204,31 +1186,28 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.219</v>
-      </c>
-      <c r="C4">
-        <v>3.285</v>
+        <v>3.24</v>
       </c>
       <c r="D4">
-        <v>3.057</v>
+        <v>3.033</v>
       </c>
       <c r="E4">
-        <v>2.861</v>
+        <v>2.73</v>
       </c>
       <c r="F4">
-        <v>2.818</v>
+        <v>2.677</v>
       </c>
       <c r="G4">
-        <v>3.052</v>
+        <v>2.926</v>
       </c>
       <c r="H4">
-        <v>3.28</v>
+        <v>3.153</v>
       </c>
       <c r="I4">
-        <v>3.691</v>
+        <v>3.567</v>
       </c>
       <c r="J4">
-        <v>4.06</v>
+        <v>3.943</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1236,31 +1215,28 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.327</v>
-      </c>
-      <c r="C5">
-        <v>3.225</v>
+        <v>3.156</v>
       </c>
       <c r="D5">
-        <v>3.124</v>
+        <v>3.072</v>
       </c>
       <c r="E5">
-        <v>2.957</v>
+        <v>2.809</v>
       </c>
       <c r="F5">
-        <v>2.875</v>
+        <v>2.751</v>
       </c>
       <c r="G5">
-        <v>3.073</v>
+        <v>2.961</v>
       </c>
       <c r="H5">
-        <v>3.272</v>
+        <v>3.168</v>
       </c>
       <c r="I5">
-        <v>3.641</v>
+        <v>3.565</v>
       </c>
       <c r="J5">
-        <v>3.993</v>
+        <v>3.932</v>
       </c>
     </row>
   </sheetData>
@@ -1319,37 +1295,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="C2">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="E2">
-        <v>0.469</v>
+        <v>0.535</v>
       </c>
       <c r="F2">
-        <v>0.404</v>
+        <v>0.574</v>
       </c>
       <c r="G2">
-        <v>0.408</v>
+        <v>0.509</v>
       </c>
       <c r="H2">
-        <v>0.396</v>
+        <v>0.5</v>
       </c>
       <c r="I2">
-        <v>0.395</v>
+        <v>0.503</v>
       </c>
       <c r="J2">
-        <v>0.427</v>
+        <v>0.535</v>
       </c>
       <c r="K2">
-        <v>0.415</v>
+        <v>0.527</v>
       </c>
       <c r="L2">
-        <v>0.378</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1357,37 +1333,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>0.73</v>
       </c>
       <c r="D3">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="E3">
-        <v>0.501</v>
+        <v>0.506</v>
       </c>
       <c r="F3">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="G3">
+        <v>0.438</v>
+      </c>
+      <c r="H3">
         <v>0.428</v>
-      </c>
-      <c r="H3">
-        <v>0.418</v>
       </c>
       <c r="I3">
         <v>0.421</v>
       </c>
       <c r="J3">
-        <v>0.453</v>
+        <v>0.436</v>
       </c>
       <c r="K3">
-        <v>0.44</v>
+        <v>0.426</v>
       </c>
       <c r="L3">
-        <v>0.411</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1398,34 +1374,34 @@
         <v>0.79</v>
       </c>
       <c r="C4">
+        <v>0.79</v>
+      </c>
+      <c r="D4">
         <v>0.78</v>
       </c>
-      <c r="D4">
-        <v>0.87</v>
-      </c>
       <c r="E4">
-        <v>0.547</v>
+        <v>0.529</v>
       </c>
       <c r="F4">
-        <v>0.521</v>
+        <v>0.478</v>
       </c>
       <c r="G4">
-        <v>0.509</v>
+        <v>0.455</v>
       </c>
       <c r="H4">
-        <v>0.491</v>
+        <v>0.457</v>
       </c>
       <c r="I4">
         <v>0.468</v>
       </c>
       <c r="J4">
-        <v>0.47</v>
+        <v>0.488</v>
       </c>
       <c r="K4">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="L4">
-        <v>0.435</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1433,37 +1409,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="C5">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D5">
         <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0.573</v>
+        <v>0.53</v>
       </c>
       <c r="F5">
-        <v>0.506</v>
+        <v>0.468</v>
       </c>
       <c r="G5">
-        <v>0.491</v>
+        <v>0.432</v>
       </c>
       <c r="H5">
-        <v>0.462</v>
+        <v>0.406</v>
       </c>
       <c r="I5">
-        <v>0.433</v>
+        <v>0.389</v>
       </c>
       <c r="J5">
-        <v>0.413</v>
+        <v>0.388</v>
       </c>
       <c r="K5">
-        <v>0.403</v>
+        <v>0.37</v>
       </c>
       <c r="L5">
-        <v>0.373</v>
+        <v>0.342</v>
       </c>
     </row>
   </sheetData>
@@ -1522,31 +1498,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1.32</v>
+        <v>1.408</v>
       </c>
       <c r="E2">
-        <v>1.36</v>
+        <v>1.383</v>
       </c>
       <c r="F2">
-        <v>1.474</v>
+        <v>1.508</v>
       </c>
       <c r="G2">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="H2">
         <v>1.909</v>
       </c>
       <c r="I2">
-        <v>2.068</v>
+        <v>2.047</v>
       </c>
       <c r="J2">
-        <v>2.066</v>
+        <v>2.045</v>
       </c>
       <c r="K2">
-        <v>2.23</v>
+        <v>2.178</v>
       </c>
       <c r="L2">
-        <v>2.238</v>
+        <v>2.195</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1554,31 +1530,31 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>1.363</v>
+        <v>1.32</v>
       </c>
       <c r="E3">
-        <v>1.383</v>
+        <v>1.36</v>
       </c>
       <c r="F3">
-        <v>1.453</v>
+        <v>1.474</v>
       </c>
       <c r="G3">
-        <v>1.705</v>
+        <v>1.715</v>
       </c>
       <c r="H3">
-        <v>1.93</v>
+        <v>1.909</v>
       </c>
       <c r="I3">
+        <v>2.068</v>
+      </c>
+      <c r="J3">
         <v>2.066</v>
       </c>
-      <c r="J3">
-        <v>2.107</v>
-      </c>
       <c r="K3">
-        <v>2.267</v>
+        <v>2.23</v>
       </c>
       <c r="L3">
-        <v>2.285</v>
+        <v>2.238</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1586,31 +1562,31 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>1.513</v>
+        <v>1.463</v>
       </c>
       <c r="E4">
-        <v>1.537</v>
+        <v>1.471</v>
       </c>
       <c r="F4">
-        <v>1.685</v>
+        <v>1.55</v>
       </c>
       <c r="G4">
-        <v>1.856</v>
+        <v>1.781</v>
       </c>
       <c r="H4">
-        <v>2.084</v>
+        <v>1.999</v>
       </c>
       <c r="I4">
-        <v>2.183</v>
+        <v>2.142</v>
       </c>
       <c r="J4">
-        <v>2.158</v>
+        <v>2.125</v>
       </c>
       <c r="K4">
-        <v>2.367</v>
+        <v>2.328</v>
       </c>
       <c r="L4">
-        <v>2.408</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1618,31 +1594,31 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1.518</v>
+        <v>1.527</v>
       </c>
       <c r="E5">
-        <v>1.673</v>
+        <v>1.664</v>
       </c>
       <c r="F5">
-        <v>1.778</v>
+        <v>1.775</v>
       </c>
       <c r="G5">
-        <v>1.905</v>
+        <v>1.901</v>
       </c>
       <c r="H5">
-        <v>2.09</v>
+        <v>2.055</v>
       </c>
       <c r="I5">
-        <v>2.189</v>
+        <v>2.162</v>
       </c>
       <c r="J5">
-        <v>2.206</v>
+        <v>2.163</v>
       </c>
       <c r="K5">
-        <v>2.367</v>
+        <v>2.364</v>
       </c>
       <c r="L5">
-        <v>2.398</v>
+        <v>2.379</v>
       </c>
     </row>
   </sheetData>
@@ -1701,19 +1677,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.95</v>
+        <v>7.8</v>
       </c>
       <c r="G2">
-        <v>8.093</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>9.026999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="K2">
-        <v>11.191</v>
+        <v>10.745</v>
       </c>
       <c r="L2">
-        <v>11.137</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1721,19 +1697,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>7.95</v>
+        <v>7.85</v>
       </c>
       <c r="G3">
-        <v>8.037000000000001</v>
+        <v>7.97</v>
       </c>
       <c r="I3">
-        <v>8.997999999999999</v>
+        <v>8.855</v>
       </c>
       <c r="K3">
-        <v>11.015</v>
+        <v>10.83</v>
       </c>
       <c r="L3">
-        <v>10.993</v>
+        <v>10.805</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1741,19 +1717,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>8.19</v>
+        <v>8.005000000000001</v>
       </c>
       <c r="I4">
-        <v>9.199999999999999</v>
+        <v>9.005000000000001</v>
       </c>
       <c r="K4">
-        <v>11.225</v>
+        <v>11.05</v>
       </c>
       <c r="L4">
-        <v>11.215</v>
+        <v>11.015</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1761,19 +1737,19 @@
         <v>15</v>
       </c>
       <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="G5">
         <v>8.15</v>
       </c>
-      <c r="G5">
-        <v>8.315</v>
-      </c>
       <c r="I5">
-        <v>9.32</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="K5">
-        <v>11.37</v>
+        <v>11.235</v>
       </c>
       <c r="L5">
-        <v>11.34</v>
+        <v>11.215</v>
       </c>
     </row>
   </sheetData>
@@ -1832,22 +1808,22 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>47.027</v>
+        <v>46.879</v>
       </c>
       <c r="C2">
-        <v>46.367</v>
+        <v>46.089</v>
       </c>
       <c r="E2">
-        <v>42.275</v>
+        <v>41.83</v>
       </c>
       <c r="F2">
-        <v>33.625</v>
+        <v>33.63</v>
       </c>
       <c r="G2">
-        <v>33.295</v>
+        <v>32.64</v>
       </c>
       <c r="I2">
-        <v>28.875</v>
+        <v>28.505</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1855,22 +1831,22 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>46.662</v>
+        <v>47.013</v>
       </c>
       <c r="C3">
-        <v>45.364</v>
+        <v>46.36</v>
       </c>
       <c r="E3">
-        <v>42.125</v>
+        <v>42.86</v>
       </c>
       <c r="F3">
-        <v>33.105</v>
+        <v>34.48</v>
       </c>
       <c r="G3">
-        <v>32.88</v>
+        <v>34.075</v>
       </c>
       <c r="I3">
-        <v>28.655</v>
+        <v>29.35</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1878,22 +1854,22 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>47.035</v>
+        <v>46.925</v>
       </c>
       <c r="C4">
-        <v>46.135</v>
+        <v>45.963</v>
       </c>
       <c r="E4">
-        <v>38.5</v>
+        <v>42.47</v>
       </c>
       <c r="F4">
-        <v>30.71</v>
+        <v>33.225</v>
       </c>
       <c r="G4">
-        <v>30.14</v>
+        <v>33.01</v>
       </c>
       <c r="I4">
-        <v>26.72</v>
+        <v>28.82</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1901,22 +1877,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>47.184</v>
+        <v>47.138</v>
       </c>
       <c r="C5">
-        <v>46.412</v>
+        <v>46.295</v>
       </c>
       <c r="E5">
-        <v>38.67</v>
+        <v>38.61</v>
       </c>
       <c r="F5">
-        <v>30.81</v>
+        <v>30.64</v>
       </c>
       <c r="G5">
-        <v>30.16</v>
+        <v>30.1</v>
       </c>
       <c r="I5">
-        <v>26.91</v>
+        <v>26.77</v>
       </c>
     </row>
   </sheetData>
@@ -1975,34 +1951,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.716</v>
+        <v>6.57</v>
       </c>
       <c r="C2">
-        <v>6.764</v>
+        <v>6.6</v>
       </c>
       <c r="D2">
-        <v>6.701</v>
+        <v>6.619</v>
       </c>
       <c r="E2">
-        <v>6.813</v>
+        <v>6.661</v>
       </c>
       <c r="F2">
-        <v>6.81</v>
+        <v>6.685</v>
       </c>
       <c r="G2">
-        <v>6.808</v>
+        <v>6.795</v>
       </c>
       <c r="H2">
-        <v>6.857</v>
+        <v>6.72</v>
       </c>
       <c r="I2">
-        <v>6.894</v>
+        <v>6.761</v>
       </c>
       <c r="J2">
-        <v>6.957</v>
+        <v>6.824</v>
       </c>
       <c r="L2">
-        <v>7.065</v>
+        <v>6.949</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2010,34 +1986,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.63</v>
+        <v>6.58</v>
       </c>
       <c r="C3">
-        <v>6.72</v>
+        <v>6.67</v>
       </c>
       <c r="D3">
-        <v>6.752</v>
+        <v>6.697</v>
       </c>
       <c r="E3">
+        <v>6.684</v>
+      </c>
+      <c r="F3">
+        <v>6.695</v>
+      </c>
+      <c r="G3">
+        <v>6.685</v>
+      </c>
+      <c r="H3">
         <v>6.732</v>
       </c>
-      <c r="F3">
-        <v>6.716</v>
-      </c>
-      <c r="G3">
-        <v>6.723</v>
-      </c>
-      <c r="H3">
-        <v>6.799</v>
-      </c>
       <c r="I3">
-        <v>6.83</v>
+        <v>6.762</v>
       </c>
       <c r="J3">
-        <v>6.882</v>
+        <v>6.814</v>
       </c>
       <c r="L3">
-        <v>6.976</v>
+        <v>6.939</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2048,31 +2024,31 @@
         <v>6.65</v>
       </c>
       <c r="C4">
-        <v>6.73</v>
+        <v>6.74</v>
       </c>
       <c r="D4">
-        <v>6.743</v>
+        <v>6.746</v>
       </c>
       <c r="E4">
-        <v>6.745</v>
+        <v>6.759</v>
       </c>
       <c r="F4">
-        <v>6.75</v>
+        <v>6.741</v>
       </c>
       <c r="G4">
-        <v>6.772</v>
+        <v>6.763</v>
       </c>
       <c r="H4">
         <v>6.828</v>
       </c>
       <c r="I4">
-        <v>6.863</v>
+        <v>6.859</v>
       </c>
       <c r="J4">
-        <v>6.915</v>
+        <v>6.91</v>
       </c>
       <c r="L4">
-        <v>6.999</v>
+        <v>6.995</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2080,34 +2056,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.63</v>
+        <v>6.61</v>
       </c>
       <c r="C5">
-        <v>6.74</v>
+        <v>6.73</v>
       </c>
       <c r="D5">
-        <v>6.763</v>
+        <v>6.757</v>
       </c>
       <c r="E5">
-        <v>6.803</v>
+        <v>6.771</v>
       </c>
       <c r="F5">
-        <v>6.739</v>
+        <v>6.749</v>
       </c>
       <c r="G5">
-        <v>6.789</v>
+        <v>6.781</v>
       </c>
       <c r="H5">
-        <v>6.848</v>
+        <v>6.839</v>
       </c>
       <c r="I5">
-        <v>6.867</v>
+        <v>6.853</v>
       </c>
       <c r="J5">
-        <v>6.94</v>
+        <v>6.908</v>
       </c>
       <c r="L5">
-        <v>7.013</v>
+        <v>6.969</v>
       </c>
     </row>
   </sheetData>
@@ -2166,37 +2142,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.456</v>
+        <v>3.361</v>
       </c>
       <c r="C2">
-        <v>3.285</v>
+        <v>3.221</v>
       </c>
       <c r="D2">
-        <v>2.85</v>
+        <v>2.863</v>
       </c>
       <c r="E2">
-        <v>2.424</v>
+        <v>2.478</v>
       </c>
       <c r="F2">
-        <v>2.393</v>
+        <v>2.471</v>
       </c>
       <c r="G2">
-        <v>2.457</v>
+        <v>2.562</v>
       </c>
       <c r="H2">
-        <v>2.539</v>
+        <v>2.6567</v>
       </c>
       <c r="I2">
-        <v>2.835</v>
+        <v>2.964</v>
       </c>
       <c r="J2">
-        <v>3.067</v>
+        <v>3.202</v>
       </c>
       <c r="K2">
-        <v>3.221</v>
+        <v>3.359</v>
       </c>
       <c r="L2">
-        <v>3.423</v>
+        <v>3.566</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2204,37 +2180,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.433</v>
+        <v>3.383</v>
       </c>
       <c r="C3">
-        <v>3.265</v>
+        <v>3.238</v>
       </c>
       <c r="D3">
-        <v>2.867</v>
+        <v>2.849</v>
       </c>
       <c r="E3">
-        <v>2.411</v>
+        <v>2.466</v>
       </c>
       <c r="F3">
-        <v>2.361</v>
+        <v>2.421</v>
       </c>
       <c r="G3">
-        <v>2.426</v>
+        <v>2.494</v>
       </c>
       <c r="H3">
-        <v>2.5164</v>
+        <v>2.5727</v>
       </c>
       <c r="I3">
-        <v>2.817</v>
+        <v>2.857</v>
       </c>
       <c r="J3">
-        <v>3.056</v>
+        <v>3.083</v>
       </c>
       <c r="K3">
-        <v>3.202</v>
+        <v>3.226</v>
       </c>
       <c r="L3">
-        <v>3.412</v>
+        <v>3.424</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2242,37 +2218,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.476</v>
+        <v>3.448</v>
       </c>
       <c r="C4">
-        <v>3.338</v>
+        <v>3.299</v>
       </c>
       <c r="D4">
-        <v>3.014</v>
+        <v>2.959</v>
       </c>
       <c r="E4">
-        <v>2.64</v>
+        <v>2.555</v>
       </c>
       <c r="F4">
-        <v>2.591</v>
+        <v>2.512</v>
       </c>
       <c r="G4">
-        <v>2.651</v>
+        <v>2.551</v>
       </c>
       <c r="H4">
-        <v>2.7257</v>
+        <v>2.6252</v>
       </c>
       <c r="I4">
-        <v>3.012</v>
+        <v>2.907</v>
       </c>
       <c r="J4">
-        <v>3.229</v>
+        <v>3.119</v>
       </c>
       <c r="K4">
-        <v>3.358</v>
+        <v>3.248</v>
       </c>
       <c r="L4">
-        <v>3.57</v>
+        <v>3.457</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2280,37 +2256,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.536</v>
+        <v>3.514</v>
       </c>
       <c r="C5">
-        <v>3.401</v>
+        <v>3.341</v>
       </c>
       <c r="D5">
-        <v>3.096</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>2.689</v>
+        <v>2.601</v>
       </c>
       <c r="F5">
-        <v>2.644</v>
+        <v>2.559</v>
       </c>
       <c r="G5">
-        <v>2.664</v>
+        <v>2.581</v>
       </c>
       <c r="H5">
-        <v>2.7212</v>
+        <v>2.6425</v>
       </c>
       <c r="I5">
-        <v>2.983</v>
+        <v>2.908</v>
       </c>
       <c r="J5">
-        <v>3.19</v>
+        <v>3.119</v>
       </c>
       <c r="K5">
-        <v>3.303</v>
+        <v>3.244</v>
       </c>
       <c r="L5">
-        <v>3.507</v>
+        <v>3.45</v>
       </c>
     </row>
   </sheetData>
@@ -2369,37 +2345,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.206</v>
+        <v>3.081</v>
       </c>
       <c r="C2">
-        <v>3.137</v>
+        <v>3.109</v>
       </c>
       <c r="D2">
-        <v>2.698</v>
+        <v>2.723</v>
       </c>
       <c r="E2">
-        <v>2.202</v>
+        <v>2.253</v>
       </c>
       <c r="F2">
-        <v>2.05</v>
+        <v>2.119</v>
       </c>
       <c r="G2">
-        <v>2.009</v>
+        <v>2.084</v>
       </c>
       <c r="H2">
-        <v>2.026</v>
+        <v>2.104</v>
       </c>
       <c r="I2">
-        <v>2.137</v>
+        <v>2.221</v>
       </c>
       <c r="J2">
-        <v>2.33</v>
+        <v>2.422</v>
       </c>
       <c r="K2">
-        <v>2.438</v>
+        <v>2.529</v>
       </c>
       <c r="L2">
-        <v>2.416</v>
+        <v>2.514</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2407,37 +2383,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.224</v>
+        <v>3.21</v>
       </c>
       <c r="C3">
-        <v>3.146</v>
+        <v>3.133</v>
       </c>
       <c r="D3">
-        <v>2.677</v>
+        <v>2.707</v>
       </c>
       <c r="E3">
-        <v>2.134</v>
+        <v>2.231</v>
       </c>
       <c r="F3">
-        <v>1.991</v>
+        <v>2.09</v>
       </c>
       <c r="G3">
-        <v>1.954</v>
+        <v>2.032</v>
       </c>
       <c r="H3">
-        <v>1.977</v>
+        <v>2.046</v>
       </c>
       <c r="I3">
-        <v>2.098</v>
+        <v>2.147</v>
       </c>
       <c r="J3">
-        <v>2.295</v>
+        <v>2.336</v>
       </c>
       <c r="K3">
-        <v>2.404</v>
+        <v>2.43</v>
       </c>
       <c r="L3">
-        <v>2.384</v>
+        <v>2.402</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2445,37 +2421,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.232</v>
+        <v>3.222</v>
       </c>
       <c r="C4">
-        <v>3.128</v>
+        <v>3.155</v>
       </c>
       <c r="D4">
-        <v>2.833</v>
+        <v>2.786</v>
       </c>
       <c r="E4">
-        <v>2.384</v>
+        <v>2.296</v>
       </c>
       <c r="F4">
-        <v>2.25</v>
+        <v>2.146</v>
       </c>
       <c r="G4">
-        <v>2.18</v>
+        <v>2.093</v>
       </c>
       <c r="H4">
-        <v>2.189</v>
+        <v>2.108</v>
       </c>
       <c r="I4">
-        <v>2.29</v>
+        <v>2.208</v>
       </c>
       <c r="J4">
-        <v>2.48</v>
+        <v>2.393</v>
       </c>
       <c r="K4">
-        <v>2.568</v>
+        <v>2.481</v>
       </c>
       <c r="L4">
-        <v>2.539</v>
+        <v>2.457</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2483,37 +2459,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.341</v>
+        <v>3.257</v>
       </c>
       <c r="C5">
-        <v>3.199</v>
+        <v>3.154</v>
       </c>
       <c r="D5">
-        <v>2.923</v>
+        <v>2.855</v>
       </c>
       <c r="E5">
-        <v>2.451</v>
+        <v>2.371</v>
       </c>
       <c r="F5">
-        <v>2.306</v>
+        <v>2.236</v>
       </c>
       <c r="G5">
-        <v>2.189</v>
+        <v>2.119</v>
       </c>
       <c r="H5">
-        <v>2.184</v>
+        <v>2.12</v>
       </c>
       <c r="I5">
-        <v>2.258</v>
+        <v>2.201</v>
       </c>
       <c r="J5">
-        <v>2.441</v>
+        <v>2.387</v>
       </c>
       <c r="K5">
-        <v>2.505</v>
+        <v>2.463</v>
       </c>
       <c r="L5">
-        <v>2.477</v>
+        <v>2.438</v>
       </c>
     </row>
   </sheetData>
@@ -2572,16 +2548,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>3.611</v>
+        <v>3.743</v>
       </c>
       <c r="E2">
-        <v>4.608</v>
+        <v>4.662</v>
+      </c>
+      <c r="F2">
+        <v>4.77</v>
       </c>
       <c r="G2">
-        <v>4.95</v>
+        <v>5.027</v>
       </c>
       <c r="I2">
-        <v>5.242</v>
+        <v>5.354</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2589,16 +2568,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>3.735</v>
+        <v>3.715</v>
       </c>
       <c r="E3">
-        <v>4.64</v>
+        <v>4.664</v>
+      </c>
+      <c r="F3">
+        <v>4.766</v>
       </c>
       <c r="G3">
-        <v>4.989</v>
+        <v>5.001</v>
       </c>
       <c r="I3">
-        <v>5.268</v>
+        <v>5.314</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2606,16 +2588,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.015</v>
+        <v>3.889</v>
       </c>
       <c r="E4">
-        <v>4.8</v>
+        <v>4.78</v>
+      </c>
+      <c r="F4">
+        <v>4.88</v>
       </c>
       <c r="G4">
-        <v>5.188</v>
+        <v>5.141</v>
       </c>
       <c r="I4">
-        <v>5.464</v>
+        <v>5.359</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2623,13 +2608,16 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>4.325</v>
+        <v>4.266</v>
       </c>
       <c r="E5">
-        <v>4.922</v>
+        <v>4.886</v>
+      </c>
+      <c r="F5">
+        <v>4.927</v>
       </c>
       <c r="G5">
-        <v>5.154</v>
+        <v>5.081</v>
       </c>
       <c r="I5">
         <v>5.349</v>
@@ -2691,19 +2679,16 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>11.735</v>
+        <v>12.035</v>
       </c>
       <c r="E2">
-        <v>11.85</v>
+        <v>12.255</v>
       </c>
       <c r="F2">
-        <v>11.85</v>
-      </c>
-      <c r="G2">
-        <v>11.96</v>
+        <v>12.265</v>
       </c>
       <c r="I2">
-        <v>11.95</v>
+        <v>12.345</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2711,19 +2696,16 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>11.632</v>
+        <v>11.72</v>
       </c>
       <c r="E3">
-        <v>11.8</v>
+        <v>11.87</v>
       </c>
       <c r="F3">
-        <v>11.76</v>
-      </c>
-      <c r="G3">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="I3">
-        <v>11.83</v>
+        <v>12.045</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2731,19 +2713,16 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>11.745</v>
+        <v>11.615</v>
       </c>
       <c r="E4">
-        <v>11.828</v>
+        <v>11.775</v>
       </c>
       <c r="F4">
-        <v>11.815</v>
-      </c>
-      <c r="G4">
-        <v>11.945</v>
+        <v>11.795</v>
       </c>
       <c r="I4">
-        <v>11.91</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2751,19 +2730,16 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>11.565</v>
+        <v>11.435</v>
       </c>
       <c r="E5">
-        <v>11.635</v>
+        <v>11.49</v>
       </c>
       <c r="F5">
-        <v>11.565</v>
-      </c>
-      <c r="G5">
-        <v>11.555</v>
+        <v>11.455</v>
       </c>
       <c r="I5">
-        <v>11.5</v>
+        <v>11.56</v>
       </c>
     </row>
   </sheetData>
@@ -2822,25 +2798,22 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>2.279</v>
+        <v>2.312</v>
       </c>
       <c r="F2">
-        <v>2.169</v>
+        <v>2.241</v>
       </c>
       <c r="G2">
-        <v>2.241</v>
+        <v>2.298</v>
       </c>
       <c r="H2">
-        <v>2.308</v>
+        <v>2.376</v>
       </c>
       <c r="I2">
-        <v>2.72</v>
+        <v>2.772</v>
       </c>
       <c r="J2">
-        <v>3.049</v>
-      </c>
-      <c r="L2">
-        <v>3.176</v>
+        <v>3.095</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2848,25 +2821,22 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>2.26</v>
+        <v>2.315</v>
       </c>
       <c r="F3">
-        <v>2.164</v>
+        <v>2.241</v>
       </c>
       <c r="G3">
-        <v>2.225</v>
+        <v>2.268</v>
       </c>
       <c r="H3">
-        <v>2.294</v>
+        <v>2.331</v>
       </c>
       <c r="I3">
-        <v>2.725</v>
+        <v>2.726</v>
       </c>
       <c r="J3">
-        <v>3.047</v>
-      </c>
-      <c r="L3">
-        <v>3.188</v>
+        <v>3.045</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2874,25 +2844,22 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>2.46</v>
+        <v>2.403</v>
       </c>
       <c r="F4">
-        <v>2.382</v>
+        <v>2.317</v>
       </c>
       <c r="G4">
-        <v>2.438</v>
+        <v>2.353</v>
       </c>
       <c r="H4">
-        <v>2.51</v>
+        <v>2.418</v>
       </c>
       <c r="I4">
-        <v>2.897</v>
+        <v>2.815</v>
       </c>
       <c r="J4">
-        <v>3.19</v>
-      </c>
-      <c r="L4">
-        <v>3.333</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2900,25 +2867,22 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>2.609</v>
+        <v>2.487</v>
       </c>
       <c r="F5">
-        <v>2.491</v>
+        <v>2.401</v>
       </c>
       <c r="G5">
-        <v>2.47</v>
+        <v>2.374</v>
       </c>
       <c r="H5">
-        <v>2.523</v>
+        <v>2.427</v>
       </c>
       <c r="I5">
-        <v>2.89</v>
+        <v>2.8</v>
       </c>
       <c r="J5">
-        <v>3.16</v>
-      </c>
-      <c r="L5">
-        <v>3.283</v>
+        <v>3.105</v>
       </c>
     </row>
   </sheetData>
@@ -2977,37 +2941,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>4.935</v>
+        <v>4.941</v>
       </c>
       <c r="C2">
-        <v>4.729</v>
+        <v>4.499</v>
       </c>
       <c r="D2">
-        <v>4.2725</v>
+        <v>4.325</v>
       </c>
       <c r="E2">
-        <v>3.8185</v>
+        <v>3.922</v>
       </c>
       <c r="F2">
-        <v>3.566</v>
+        <v>3.685</v>
       </c>
       <c r="G2">
-        <v>3.648</v>
+        <v>3.745</v>
       </c>
       <c r="H2">
-        <v>3.6585</v>
+        <v>3.779</v>
       </c>
       <c r="I2">
-        <v>3.7955</v>
+        <v>3.904</v>
       </c>
       <c r="J2">
-        <v>4.0715</v>
+        <v>4.191</v>
       </c>
       <c r="K2">
-        <v>4.321</v>
+        <v>4.397</v>
       </c>
       <c r="L2">
-        <v>4.398</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3015,37 +2979,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.99</v>
+        <v>4.909</v>
       </c>
       <c r="C3">
-        <v>4.831</v>
+        <v>4.412</v>
       </c>
       <c r="D3">
-        <v>4.252</v>
+        <v>4.247</v>
       </c>
       <c r="E3">
-        <v>3.802</v>
+        <v>3.828</v>
       </c>
       <c r="F3">
-        <v>3.545</v>
+        <v>3.569</v>
       </c>
       <c r="G3">
-        <v>3.623</v>
+        <v>3.639</v>
       </c>
       <c r="H3">
-        <v>3.632</v>
+        <v>3.648</v>
       </c>
       <c r="I3">
-        <v>3.762</v>
+        <v>3.768</v>
       </c>
       <c r="J3">
-        <v>4.063</v>
+        <v>4.057</v>
       </c>
       <c r="K3">
-        <v>4.288</v>
+        <v>4.269</v>
       </c>
       <c r="L3">
-        <v>4.375</v>
+        <v>4.352</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3053,37 +3017,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.98</v>
+        <v>4.978</v>
       </c>
       <c r="C4">
-        <v>4.894</v>
+        <v>4.86</v>
       </c>
       <c r="D4">
-        <v>4.477</v>
+        <v>4.376</v>
       </c>
       <c r="E4">
-        <v>4.113</v>
+        <v>4.002</v>
       </c>
       <c r="F4">
-        <v>3.863</v>
+        <v>3.751</v>
       </c>
       <c r="G4">
-        <v>3.912</v>
+        <v>3.81</v>
       </c>
       <c r="H4">
-        <v>3.915</v>
+        <v>3.801</v>
       </c>
       <c r="I4">
-        <v>4.016</v>
+        <v>3.916</v>
       </c>
       <c r="J4">
-        <v>4.281</v>
+        <v>4.196</v>
       </c>
       <c r="K4">
-        <v>4.46</v>
+        <v>4.378</v>
       </c>
       <c r="L4">
-        <v>4.539</v>
+        <v>4.444</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3091,37 +3055,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.036</v>
+        <v>5.019</v>
       </c>
       <c r="C5">
-        <v>4.825</v>
+        <v>4.897</v>
       </c>
       <c r="D5">
-        <v>4.382</v>
+        <v>4.351</v>
       </c>
       <c r="E5">
-        <v>3.677</v>
+        <v>3.662</v>
       </c>
       <c r="F5">
-        <v>3.805</v>
+        <v>3.788</v>
       </c>
       <c r="G5">
-        <v>3.735</v>
+        <v>3.702</v>
       </c>
       <c r="H5">
-        <v>3.725</v>
+        <v>3.702</v>
       </c>
       <c r="I5">
-        <v>3.93</v>
+        <v>3.893</v>
       </c>
       <c r="J5">
-        <v>4.187</v>
+        <v>4.141</v>
       </c>
       <c r="K5">
-        <v>4.386</v>
+        <v>4.349</v>
       </c>
       <c r="L5">
-        <v>4.472</v>
+        <v>4.439</v>
       </c>
     </row>
   </sheetData>
@@ -3180,37 +3144,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.092</v>
+        <v>0.054</v>
       </c>
       <c r="C2">
-        <v>0.098</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D2">
-        <v>0.238</v>
+        <v>0.262</v>
       </c>
       <c r="E2">
-        <v>0.387</v>
+        <v>0.371</v>
       </c>
       <c r="F2">
-        <v>0.394</v>
+        <v>0.381</v>
       </c>
       <c r="G2">
-        <v>0.499</v>
+        <v>0.503</v>
       </c>
       <c r="H2">
-        <v>0.5679999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="I2">
-        <v>0.851</v>
+        <v>0.847</v>
       </c>
       <c r="J2">
-        <v>1.365</v>
+        <v>1.394</v>
       </c>
       <c r="K2">
-        <v>1.671</v>
+        <v>1.704</v>
       </c>
       <c r="L2">
-        <v>2.053</v>
+        <v>2.091</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3218,37 +3182,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.099</v>
+        <v>0.08</v>
       </c>
       <c r="C3">
-        <v>0.091</v>
+        <v>0.092</v>
       </c>
       <c r="D3">
-        <v>0.247</v>
+        <v>0.235</v>
       </c>
       <c r="E3">
-        <v>0.391</v>
+        <v>0.386</v>
       </c>
       <c r="F3">
-        <v>0.416</v>
+        <v>0.39</v>
       </c>
       <c r="G3">
-        <v>0.524</v>
+        <v>0.489</v>
       </c>
       <c r="H3">
-        <v>0.616</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="I3">
-        <v>0.891</v>
+        <v>0.826</v>
       </c>
       <c r="J3">
-        <v>1.531</v>
+        <v>1.454</v>
       </c>
       <c r="K3">
-        <v>1.701</v>
+        <v>1.624</v>
       </c>
       <c r="L3">
-        <v>2.066</v>
+        <v>1.981</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3256,37 +3220,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.104</v>
+        <v>0.1</v>
       </c>
       <c r="C4">
-        <v>0.098</v>
+        <v>0.105</v>
       </c>
       <c r="D4">
-        <v>0.25</v>
+        <v>0.252</v>
       </c>
       <c r="E4">
-        <v>0.361</v>
+        <v>0.38</v>
       </c>
       <c r="F4">
-        <v>0.385</v>
+        <v>0.393</v>
       </c>
       <c r="G4">
-        <v>0.498</v>
+        <v>0.495</v>
       </c>
       <c r="H4">
-        <v>0.626</v>
+        <v>0.576</v>
       </c>
       <c r="I4">
-        <v>0.891</v>
+        <v>0.851</v>
       </c>
       <c r="J4">
-        <v>1.533</v>
+        <v>1.484</v>
       </c>
       <c r="K4">
-        <v>1.711</v>
+        <v>1.66</v>
       </c>
       <c r="L4">
-        <v>2.085</v>
+        <v>2.011</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3294,37 +3258,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.12</v>
+        <v>0.113</v>
       </c>
       <c r="C5">
-        <v>0.124</v>
+        <v>0.14</v>
       </c>
       <c r="D5">
-        <v>0.238</v>
+        <v>0.249</v>
       </c>
       <c r="E5">
-        <v>0.356</v>
+        <v>0.351</v>
       </c>
       <c r="F5">
-        <v>0.383</v>
+        <v>0.37</v>
       </c>
       <c r="G5">
-        <v>0.494</v>
+        <v>0.475</v>
       </c>
       <c r="H5">
-        <v>0.608</v>
+        <v>0.595</v>
       </c>
       <c r="I5">
-        <v>0.876</v>
+        <v>0.871</v>
       </c>
       <c r="J5">
-        <v>1.495</v>
+        <v>1.52</v>
       </c>
       <c r="K5">
-        <v>1.688</v>
+        <v>1.706</v>
       </c>
       <c r="L5">
-        <v>2.042</v>
+        <v>2.08</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -484,28 +484,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>4.04</v>
+        <v>3.94</v>
       </c>
       <c r="C2">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="D2">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="E2">
-        <v>2.943</v>
+        <v>2.909</v>
       </c>
       <c r="F2">
-        <v>2.875</v>
+        <v>2.838</v>
       </c>
       <c r="G2">
-        <v>2.752</v>
+        <v>2.739</v>
       </c>
       <c r="H2">
-        <v>2.684</v>
+        <v>2.668</v>
+      </c>
+      <c r="I2">
+        <v>2.956</v>
       </c>
       <c r="K2">
-        <v>3.089</v>
+        <v>3.094</v>
+      </c>
+      <c r="L2">
+        <v>3.141</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -516,25 +522,31 @@
         <v>4.05</v>
       </c>
       <c r="C3">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="D3">
-        <v>3.34</v>
+        <v>3.35</v>
       </c>
       <c r="E3">
-        <v>2.922</v>
+        <v>2.9</v>
       </c>
       <c r="F3">
-        <v>2.853</v>
+        <v>2.832</v>
       </c>
       <c r="G3">
-        <v>2.717</v>
+        <v>2.739</v>
       </c>
       <c r="H3">
-        <v>2.651</v>
+        <v>2.671</v>
+      </c>
+      <c r="I3">
+        <v>2.957</v>
       </c>
       <c r="K3">
-        <v>3.039</v>
+        <v>3.09</v>
+      </c>
+      <c r="L3">
+        <v>3.155</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -542,28 +554,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.095</v>
+        <v>4.05</v>
       </c>
       <c r="C4">
-        <v>3.99</v>
+        <v>3.86</v>
       </c>
       <c r="D4">
-        <v>3.64</v>
+        <v>3.5</v>
       </c>
       <c r="E4">
-        <v>3.137</v>
+        <v>3.002</v>
       </c>
       <c r="F4">
-        <v>3.047</v>
+        <v>2.929</v>
       </c>
       <c r="G4">
-        <v>2.846</v>
+        <v>2.746</v>
       </c>
       <c r="H4">
-        <v>2.762</v>
+        <v>2.68</v>
+      </c>
+      <c r="I4">
+        <v>2.915</v>
       </c>
       <c r="K4">
-        <v>3.104</v>
+        <v>3.064</v>
+      </c>
+      <c r="L4">
+        <v>3.087</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -571,28 +589,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4.225</v>
+        <v>4.16</v>
       </c>
       <c r="C5">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="D5">
         <v>3.76</v>
       </c>
       <c r="E5">
-        <v>3.253</v>
+        <v>3.33</v>
       </c>
       <c r="F5">
-        <v>3.156</v>
+        <v>3.242</v>
       </c>
       <c r="G5">
-        <v>2.929</v>
+        <v>3.037</v>
       </c>
       <c r="H5">
-        <v>2.856</v>
+        <v>2.965</v>
+      </c>
+      <c r="I5">
+        <v>3.16</v>
       </c>
       <c r="K5">
-        <v>3.118</v>
+        <v>3.263</v>
+      </c>
+      <c r="L5">
+        <v>3.265</v>
       </c>
     </row>
   </sheetData>
@@ -651,31 +675,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>4.672</v>
+        <v>4.646</v>
       </c>
       <c r="C2">
-        <v>4.478</v>
+        <v>4.412</v>
       </c>
       <c r="D2">
-        <v>3.951</v>
+        <v>3.978</v>
       </c>
       <c r="E2">
-        <v>3.597</v>
+        <v>3.567</v>
       </c>
       <c r="F2">
-        <v>3.482</v>
+        <v>3.488</v>
       </c>
       <c r="G2">
-        <v>3.5</v>
+        <v>3.515</v>
       </c>
       <c r="H2">
-        <v>3.614</v>
+        <v>3.62</v>
       </c>
       <c r="I2">
-        <v>3.741</v>
+        <v>3.764</v>
       </c>
       <c r="L2">
-        <v>4.083</v>
+        <v>4.115</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -683,31 +707,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.869</v>
+        <v>4.62</v>
       </c>
       <c r="C3">
-        <v>4.571</v>
+        <v>4.414</v>
       </c>
       <c r="D3">
-        <v>4.004</v>
+        <v>3.985</v>
       </c>
       <c r="E3">
-        <v>3.607</v>
+        <v>3.627</v>
       </c>
       <c r="F3">
-        <v>3.465</v>
+        <v>3.547</v>
       </c>
       <c r="G3">
-        <v>3.443</v>
+        <v>3.565</v>
       </c>
       <c r="H3">
-        <v>3.535</v>
+        <v>3.663</v>
       </c>
       <c r="I3">
-        <v>3.648</v>
+        <v>3.796</v>
       </c>
       <c r="L3">
-        <v>3.96</v>
+        <v>4.131</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -715,31 +739,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.056</v>
+        <v>4.879</v>
       </c>
       <c r="C4">
-        <v>4.725</v>
+        <v>4.61</v>
       </c>
       <c r="D4">
-        <v>4.111</v>
+        <v>3.977</v>
       </c>
       <c r="E4">
-        <v>3.654</v>
+        <v>3.555</v>
       </c>
       <c r="F4">
-        <v>3.533</v>
+        <v>3.417</v>
       </c>
       <c r="G4">
-        <v>3.496</v>
+        <v>3.404</v>
       </c>
       <c r="H4">
-        <v>3.597</v>
+        <v>3.5</v>
       </c>
       <c r="I4">
-        <v>3.716</v>
+        <v>3.618</v>
       </c>
       <c r="L4">
-        <v>4.024</v>
+        <v>3.931</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -747,31 +771,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.15</v>
+        <v>5.103</v>
       </c>
       <c r="C5">
-        <v>4.884</v>
+        <v>4.859</v>
       </c>
       <c r="D5">
-        <v>4.385</v>
+        <v>4.418</v>
       </c>
       <c r="E5">
-        <v>3.933</v>
+        <v>3.919</v>
       </c>
       <c r="F5">
-        <v>3.741</v>
+        <v>3.782</v>
       </c>
       <c r="G5">
-        <v>3.655</v>
+        <v>3.708</v>
       </c>
       <c r="H5">
-        <v>3.701</v>
+        <v>3.804</v>
       </c>
       <c r="I5">
-        <v>3.799</v>
+        <v>3.909</v>
       </c>
       <c r="L5">
-        <v>4.076</v>
+        <v>4.201</v>
       </c>
     </row>
   </sheetData>
@@ -973,25 +997,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>3.799</v>
+        <v>3.831</v>
       </c>
       <c r="E2">
-        <v>3.578</v>
+        <v>3.621</v>
       </c>
       <c r="F2">
-        <v>3.503</v>
+        <v>3.559</v>
       </c>
       <c r="G2">
-        <v>3.583</v>
+        <v>3.654</v>
       </c>
       <c r="H2">
-        <v>3.739</v>
+        <v>3.823</v>
       </c>
       <c r="I2">
-        <v>3.925</v>
+        <v>4.01</v>
       </c>
       <c r="J2">
-        <v>4.166</v>
+        <v>4.276</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -999,25 +1023,25 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>3.751</v>
+        <v>3.759</v>
       </c>
       <c r="E3">
-        <v>3.515</v>
+        <v>3.537</v>
       </c>
       <c r="F3">
-        <v>3.435</v>
+        <v>3.471</v>
       </c>
       <c r="G3">
-        <v>3.503</v>
+        <v>3.566</v>
       </c>
       <c r="H3">
-        <v>3.652</v>
+        <v>3.727</v>
       </c>
       <c r="I3">
-        <v>3.838</v>
+        <v>3.918</v>
       </c>
       <c r="J3">
-        <v>4.07</v>
+        <v>4.178</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1025,25 +1049,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.2</v>
+        <v>3.757</v>
       </c>
       <c r="E4">
-        <v>3.615</v>
+        <v>3.51</v>
       </c>
       <c r="F4">
-        <v>3.55</v>
+        <v>3.426</v>
       </c>
       <c r="G4">
-        <v>3.574</v>
+        <v>3.493</v>
       </c>
       <c r="H4">
-        <v>3.758</v>
+        <v>3.649</v>
       </c>
       <c r="I4">
-        <v>3.932</v>
+        <v>3.824</v>
       </c>
       <c r="J4">
-        <v>4.185</v>
+        <v>4.062</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1051,25 +1075,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>4.194</v>
+        <v>4.21</v>
       </c>
       <c r="E5">
-        <v>3.574</v>
+        <v>3.621</v>
       </c>
       <c r="F5">
-        <v>3.538</v>
+        <v>3.568</v>
       </c>
       <c r="G5">
-        <v>3.561</v>
+        <v>3.607</v>
       </c>
       <c r="H5">
-        <v>3.72</v>
+        <v>3.798</v>
       </c>
       <c r="I5">
-        <v>3.871</v>
+        <v>3.974</v>
       </c>
       <c r="J5">
-        <v>4.117</v>
+        <v>4.217</v>
       </c>
     </row>
   </sheetData>
@@ -1128,28 +1152,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.171</v>
+        <v>3.157</v>
+      </c>
+      <c r="C2">
+        <v>3.101</v>
       </c>
       <c r="D2">
-        <v>2.984</v>
+        <v>2.75</v>
       </c>
       <c r="E2">
-        <v>2.629</v>
+        <v>2.442</v>
       </c>
       <c r="F2">
-        <v>2.573</v>
+        <v>2.389</v>
       </c>
       <c r="G2">
-        <v>2.821</v>
+        <v>2.684</v>
       </c>
       <c r="H2">
-        <v>3.106</v>
+        <v>3.031</v>
       </c>
       <c r="I2">
-        <v>3.56</v>
+        <v>3.486</v>
       </c>
       <c r="J2">
-        <v>3.904</v>
+        <v>3.832</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1157,28 +1184,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.045</v>
+        <v>3.147</v>
+      </c>
+      <c r="C3">
+        <v>3.168</v>
       </c>
       <c r="D3">
-        <v>2.904</v>
+        <v>2.87</v>
       </c>
       <c r="E3">
-        <v>2.627</v>
+        <v>2.536</v>
       </c>
       <c r="F3">
-        <v>2.565</v>
+        <v>2.466</v>
       </c>
       <c r="G3">
-        <v>2.798</v>
+        <v>2.759</v>
       </c>
       <c r="H3">
-        <v>3.068</v>
+        <v>3.072</v>
       </c>
       <c r="I3">
-        <v>3.5</v>
+        <v>3.538</v>
       </c>
       <c r="J3">
-        <v>3.837</v>
+        <v>3.895</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1186,28 +1216,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.24</v>
+        <v>3.18</v>
+      </c>
+      <c r="C4">
+        <v>3.191</v>
       </c>
       <c r="D4">
-        <v>3.033</v>
+        <v>2.908</v>
       </c>
       <c r="E4">
-        <v>2.73</v>
+        <v>2.613</v>
       </c>
       <c r="F4">
-        <v>2.677</v>
+        <v>2.559</v>
       </c>
       <c r="G4">
-        <v>2.926</v>
+        <v>2.797</v>
       </c>
       <c r="H4">
-        <v>3.153</v>
+        <v>3.079</v>
       </c>
       <c r="I4">
-        <v>3.567</v>
+        <v>3.514</v>
       </c>
       <c r="J4">
-        <v>3.943</v>
+        <v>3.867</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1215,28 +1248,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.156</v>
+        <v>3.219</v>
+      </c>
+      <c r="C5">
+        <v>3.285</v>
       </c>
       <c r="D5">
-        <v>3.072</v>
+        <v>3.057</v>
       </c>
       <c r="E5">
-        <v>2.809</v>
+        <v>2.861</v>
       </c>
       <c r="F5">
-        <v>2.751</v>
+        <v>2.818</v>
       </c>
       <c r="G5">
-        <v>2.961</v>
+        <v>3.052</v>
       </c>
       <c r="H5">
-        <v>3.168</v>
+        <v>3.28</v>
       </c>
       <c r="I5">
-        <v>3.565</v>
+        <v>3.691</v>
       </c>
       <c r="J5">
-        <v>3.932</v>
+        <v>4.06</v>
       </c>
     </row>
   </sheetData>
@@ -1295,37 +1331,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D2">
-        <v>0.79</v>
+        <v>0.61</v>
       </c>
       <c r="E2">
-        <v>0.535</v>
+        <v>0.402</v>
       </c>
       <c r="F2">
-        <v>0.574</v>
+        <v>0.332</v>
       </c>
       <c r="G2">
-        <v>0.509</v>
+        <v>0.351</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="I2">
-        <v>0.503</v>
+        <v>0.401</v>
       </c>
       <c r="J2">
-        <v>0.535</v>
+        <v>0.442</v>
       </c>
       <c r="K2">
-        <v>0.527</v>
+        <v>0.441</v>
       </c>
       <c r="L2">
-        <v>0.498</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1333,37 +1369,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="C3">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="D3">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="E3">
-        <v>0.506</v>
+        <v>0.49</v>
       </c>
       <c r="F3">
-        <v>0.442</v>
+        <v>0.458</v>
       </c>
       <c r="G3">
-        <v>0.438</v>
+        <v>0.436</v>
       </c>
       <c r="H3">
-        <v>0.428</v>
+        <v>0.476</v>
       </c>
       <c r="I3">
-        <v>0.421</v>
+        <v>0.49</v>
       </c>
       <c r="J3">
-        <v>0.436</v>
+        <v>0.53</v>
       </c>
       <c r="K3">
-        <v>0.426</v>
+        <v>0.497</v>
       </c>
       <c r="L3">
-        <v>0.422</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1371,37 +1407,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="C4">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="E4">
-        <v>0.529</v>
+        <v>0.543</v>
       </c>
       <c r="F4">
-        <v>0.478</v>
+        <v>0.526</v>
       </c>
       <c r="G4">
-        <v>0.455</v>
+        <v>0.449</v>
       </c>
       <c r="H4">
-        <v>0.457</v>
+        <v>0.453</v>
       </c>
       <c r="I4">
-        <v>0.468</v>
+        <v>0.446</v>
       </c>
       <c r="J4">
-        <v>0.488</v>
+        <v>0.469</v>
       </c>
       <c r="K4">
-        <v>0.471</v>
+        <v>0.465</v>
       </c>
       <c r="L4">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1409,37 +1445,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.98</v>
+        <v>0.79</v>
       </c>
       <c r="C5">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="D5">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="E5">
-        <v>0.53</v>
+        <v>0.547</v>
       </c>
       <c r="F5">
+        <v>0.521</v>
+      </c>
+      <c r="G5">
+        <v>0.509</v>
+      </c>
+      <c r="H5">
+        <v>0.491</v>
+      </c>
+      <c r="I5">
         <v>0.468</v>
       </c>
-      <c r="G5">
-        <v>0.432</v>
-      </c>
-      <c r="H5">
-        <v>0.406</v>
-      </c>
-      <c r="I5">
-        <v>0.389</v>
-      </c>
       <c r="J5">
-        <v>0.388</v>
+        <v>0.47</v>
       </c>
       <c r="K5">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="L5">
-        <v>0.342</v>
+        <v>0.435</v>
       </c>
     </row>
   </sheetData>
@@ -1498,31 +1534,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1.408</v>
+        <v>1.405</v>
       </c>
       <c r="E2">
-        <v>1.383</v>
+        <v>1.38</v>
       </c>
       <c r="F2">
-        <v>1.508</v>
+        <v>1.575</v>
       </c>
       <c r="G2">
-        <v>1.71</v>
+        <v>1.845</v>
       </c>
       <c r="H2">
-        <v>1.909</v>
+        <v>2.078</v>
       </c>
       <c r="I2">
-        <v>2.047</v>
+        <v>2.175</v>
       </c>
       <c r="J2">
-        <v>2.045</v>
+        <v>2.014</v>
       </c>
       <c r="K2">
-        <v>2.178</v>
+        <v>2.384</v>
       </c>
       <c r="L2">
-        <v>2.195</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1530,31 +1566,31 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>1.32</v>
+        <v>1.405</v>
       </c>
       <c r="E3">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="F3">
-        <v>1.474</v>
+        <v>1.507</v>
       </c>
       <c r="G3">
-        <v>1.715</v>
+        <v>1.724</v>
       </c>
       <c r="H3">
-        <v>1.909</v>
+        <v>1.938</v>
       </c>
       <c r="I3">
-        <v>2.068</v>
+        <v>2.09</v>
       </c>
       <c r="J3">
-        <v>2.066</v>
+        <v>2.023</v>
       </c>
       <c r="K3">
-        <v>2.23</v>
+        <v>2.202</v>
       </c>
       <c r="L3">
-        <v>2.238</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1562,31 +1598,31 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>1.463</v>
+        <v>1.368</v>
       </c>
       <c r="E4">
-        <v>1.471</v>
+        <v>1.393</v>
       </c>
       <c r="F4">
-        <v>1.55</v>
+        <v>1.508</v>
       </c>
       <c r="G4">
-        <v>1.781</v>
+        <v>1.72</v>
       </c>
       <c r="H4">
-        <v>1.999</v>
+        <v>1.896</v>
       </c>
       <c r="I4">
-        <v>2.142</v>
+        <v>2.052</v>
       </c>
       <c r="J4">
-        <v>2.125</v>
+        <v>2.01</v>
       </c>
       <c r="K4">
-        <v>2.328</v>
+        <v>2.169</v>
       </c>
       <c r="L4">
-        <v>2.36</v>
+        <v>2.175</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1594,31 +1630,31 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1.527</v>
+        <v>1.513</v>
       </c>
       <c r="E5">
-        <v>1.664</v>
+        <v>1.537</v>
       </c>
       <c r="F5">
-        <v>1.775</v>
+        <v>1.685</v>
       </c>
       <c r="G5">
-        <v>1.901</v>
+        <v>1.856</v>
       </c>
       <c r="H5">
-        <v>2.055</v>
+        <v>2.084</v>
       </c>
       <c r="I5">
-        <v>2.162</v>
+        <v>2.183</v>
       </c>
       <c r="J5">
-        <v>2.163</v>
+        <v>2.158</v>
       </c>
       <c r="K5">
-        <v>2.364</v>
+        <v>2.367</v>
       </c>
       <c r="L5">
-        <v>2.379</v>
+        <v>2.408</v>
       </c>
     </row>
   </sheetData>
@@ -1677,19 +1713,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.8</v>
+        <v>7.64</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>8.077</v>
       </c>
       <c r="I2">
-        <v>8.880000000000001</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="K2">
-        <v>10.745</v>
+        <v>10.906</v>
       </c>
       <c r="L2">
-        <v>10.72</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1700,16 +1736,16 @@
         <v>7.85</v>
       </c>
       <c r="G3">
-        <v>7.97</v>
+        <v>7.985</v>
       </c>
       <c r="I3">
-        <v>8.855</v>
+        <v>8.845000000000001</v>
       </c>
       <c r="K3">
-        <v>10.83</v>
+        <v>10.7</v>
       </c>
       <c r="L3">
-        <v>10.805</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1717,19 +1753,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>7.85</v>
       </c>
       <c r="G4">
-        <v>8.005000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="I4">
-        <v>9.005000000000001</v>
+        <v>9</v>
       </c>
       <c r="K4">
-        <v>11.05</v>
+        <v>11.04</v>
       </c>
       <c r="L4">
-        <v>11.015</v>
+        <v>11.005</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1737,16 +1773,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G5">
-        <v>8.15</v>
+        <v>8.19</v>
       </c>
       <c r="I5">
-        <v>9.119999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K5">
-        <v>11.235</v>
+        <v>11.225</v>
       </c>
       <c r="L5">
         <v>11.215</v>
@@ -1808,22 +1844,22 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>46.879</v>
+        <v>46.745</v>
       </c>
       <c r="C2">
-        <v>46.089</v>
+        <v>45.915</v>
       </c>
       <c r="E2">
-        <v>41.83</v>
+        <v>41.39</v>
       </c>
       <c r="F2">
-        <v>33.63</v>
+        <v>33.76</v>
       </c>
       <c r="G2">
-        <v>32.64</v>
+        <v>32.265</v>
       </c>
       <c r="I2">
-        <v>28.505</v>
+        <v>28.575</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1831,22 +1867,22 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>47.013</v>
+        <v>45.908</v>
       </c>
       <c r="C3">
-        <v>46.36</v>
+        <v>44.891</v>
       </c>
       <c r="E3">
-        <v>42.86</v>
+        <v>37.89</v>
       </c>
       <c r="F3">
-        <v>34.48</v>
+        <v>31.17</v>
       </c>
       <c r="G3">
-        <v>34.075</v>
+        <v>29.89</v>
       </c>
       <c r="I3">
-        <v>29.35</v>
+        <v>26.49</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1854,22 +1890,22 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>46.925</v>
+        <v>46.787</v>
       </c>
       <c r="C4">
-        <v>45.963</v>
+        <v>45.755</v>
       </c>
       <c r="E4">
-        <v>42.47</v>
+        <v>38.48</v>
       </c>
       <c r="F4">
-        <v>33.225</v>
+        <v>30.97</v>
       </c>
       <c r="G4">
-        <v>33.01</v>
+        <v>30.72</v>
       </c>
       <c r="I4">
-        <v>28.82</v>
+        <v>26.95</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1877,22 +1913,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>47.138</v>
+        <v>46.853</v>
       </c>
       <c r="C5">
-        <v>46.295</v>
+        <v>45.696</v>
       </c>
       <c r="E5">
-        <v>38.61</v>
+        <v>38.19</v>
       </c>
       <c r="F5">
-        <v>30.64</v>
+        <v>30.34</v>
       </c>
       <c r="G5">
-        <v>30.1</v>
+        <v>29.96</v>
       </c>
       <c r="I5">
-        <v>26.77</v>
+        <v>26.51</v>
       </c>
     </row>
   </sheetData>
@@ -1951,34 +1987,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.57</v>
+        <v>6.567</v>
       </c>
       <c r="C2">
-        <v>6.6</v>
+        <v>6.659</v>
       </c>
       <c r="D2">
-        <v>6.619</v>
+        <v>6.645</v>
       </c>
       <c r="E2">
-        <v>6.661</v>
+        <v>6.783</v>
       </c>
       <c r="F2">
-        <v>6.685</v>
+        <v>6.788</v>
       </c>
       <c r="G2">
-        <v>6.795</v>
+        <v>6.79</v>
       </c>
       <c r="H2">
-        <v>6.72</v>
+        <v>6.814</v>
       </c>
       <c r="I2">
-        <v>6.761</v>
+        <v>6.872</v>
       </c>
       <c r="J2">
-        <v>6.824</v>
+        <v>6.913</v>
       </c>
       <c r="L2">
-        <v>6.949</v>
+        <v>7.035</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1989,31 +2025,31 @@
         <v>6.58</v>
       </c>
       <c r="C3">
-        <v>6.67</v>
+        <v>6.63</v>
       </c>
       <c r="D3">
-        <v>6.697</v>
+        <v>6.637</v>
       </c>
       <c r="E3">
-        <v>6.684</v>
+        <v>6.696</v>
       </c>
       <c r="F3">
-        <v>6.695</v>
+        <v>6.681</v>
       </c>
       <c r="G3">
-        <v>6.685</v>
+        <v>6.673</v>
       </c>
       <c r="H3">
-        <v>6.732</v>
+        <v>6.713</v>
       </c>
       <c r="I3">
-        <v>6.762</v>
+        <v>6.738</v>
       </c>
       <c r="J3">
-        <v>6.814</v>
+        <v>6.792</v>
       </c>
       <c r="L3">
-        <v>6.939</v>
+        <v>6.894</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2024,31 +2060,31 @@
         <v>6.65</v>
       </c>
       <c r="C4">
-        <v>6.74</v>
+        <v>6.72</v>
       </c>
       <c r="D4">
-        <v>6.746</v>
+        <v>6.73</v>
       </c>
       <c r="E4">
-        <v>6.759</v>
+        <v>6.731</v>
       </c>
       <c r="F4">
-        <v>6.741</v>
+        <v>6.714</v>
       </c>
       <c r="G4">
-        <v>6.763</v>
+        <v>6.718</v>
       </c>
       <c r="H4">
-        <v>6.828</v>
+        <v>6.783</v>
       </c>
       <c r="I4">
-        <v>6.859</v>
+        <v>6.811</v>
       </c>
       <c r="J4">
-        <v>6.91</v>
+        <v>6.866</v>
       </c>
       <c r="L4">
-        <v>6.995</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2056,34 +2092,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.61</v>
+        <v>6.65</v>
       </c>
       <c r="C5">
         <v>6.73</v>
       </c>
       <c r="D5">
-        <v>6.757</v>
+        <v>6.743</v>
       </c>
       <c r="E5">
-        <v>6.771</v>
+        <v>6.745</v>
       </c>
       <c r="F5">
-        <v>6.749</v>
+        <v>6.75</v>
       </c>
       <c r="G5">
-        <v>6.781</v>
+        <v>6.772</v>
       </c>
       <c r="H5">
-        <v>6.839</v>
+        <v>6.828</v>
       </c>
       <c r="I5">
-        <v>6.853</v>
+        <v>6.863</v>
       </c>
       <c r="J5">
-        <v>6.908</v>
+        <v>6.915</v>
       </c>
       <c r="L5">
-        <v>6.969</v>
+        <v>6.999</v>
       </c>
     </row>
   </sheetData>
@@ -2142,37 +2178,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.361</v>
+        <v>3.306</v>
       </c>
       <c r="C2">
-        <v>3.221</v>
+        <v>3.036</v>
       </c>
       <c r="D2">
-        <v>2.863</v>
+        <v>2.71</v>
       </c>
       <c r="E2">
-        <v>2.478</v>
+        <v>2.315</v>
       </c>
       <c r="F2">
-        <v>2.471</v>
+        <v>2.346</v>
       </c>
       <c r="G2">
-        <v>2.562</v>
+        <v>2.452</v>
       </c>
       <c r="H2">
-        <v>2.6567</v>
+        <v>2.611</v>
       </c>
       <c r="I2">
-        <v>2.964</v>
+        <v>2.929</v>
       </c>
       <c r="J2">
         <v>3.202</v>
       </c>
       <c r="K2">
-        <v>3.359</v>
+        <v>3.364</v>
       </c>
       <c r="L2">
-        <v>3.566</v>
+        <v>3.598</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2180,37 +2216,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.383</v>
+        <v>3.248</v>
       </c>
       <c r="C3">
-        <v>3.238</v>
+        <v>3.119</v>
       </c>
       <c r="D3">
-        <v>2.849</v>
+        <v>2.76</v>
       </c>
       <c r="E3">
-        <v>2.466</v>
+        <v>2.362</v>
       </c>
       <c r="F3">
-        <v>2.421</v>
+        <v>2.405</v>
       </c>
       <c r="G3">
-        <v>2.494</v>
+        <v>2.525</v>
       </c>
       <c r="H3">
-        <v>2.5727</v>
+        <v>2.6471</v>
       </c>
       <c r="I3">
-        <v>2.857</v>
+        <v>2.981</v>
       </c>
       <c r="J3">
-        <v>3.083</v>
+        <v>3.225</v>
       </c>
       <c r="K3">
-        <v>3.226</v>
+        <v>3.388</v>
       </c>
       <c r="L3">
-        <v>3.424</v>
+        <v>3.607</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2218,37 +2254,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.448</v>
+        <v>3.423</v>
       </c>
       <c r="C4">
-        <v>3.299</v>
+        <v>3.265</v>
       </c>
       <c r="D4">
-        <v>2.959</v>
+        <v>2.911</v>
       </c>
       <c r="E4">
-        <v>2.555</v>
+        <v>2.448</v>
       </c>
       <c r="F4">
-        <v>2.512</v>
+        <v>2.41</v>
       </c>
       <c r="G4">
-        <v>2.551</v>
+        <v>2.469</v>
       </c>
       <c r="H4">
-        <v>2.6252</v>
+        <v>2.5529</v>
       </c>
       <c r="I4">
-        <v>2.907</v>
+        <v>2.84</v>
       </c>
       <c r="J4">
-        <v>3.119</v>
+        <v>3.078</v>
       </c>
       <c r="K4">
-        <v>3.248</v>
+        <v>3.224</v>
       </c>
       <c r="L4">
-        <v>3.457</v>
+        <v>3.434</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2256,37 +2292,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.514</v>
+        <v>3.48</v>
       </c>
       <c r="C5">
-        <v>3.341</v>
+        <v>3.339</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="E5">
-        <v>2.601</v>
+        <v>2.64</v>
       </c>
       <c r="F5">
-        <v>2.559</v>
+        <v>2.591</v>
       </c>
       <c r="G5">
-        <v>2.581</v>
+        <v>2.651</v>
       </c>
       <c r="H5">
-        <v>2.6425</v>
+        <v>2.7257</v>
       </c>
       <c r="I5">
-        <v>2.908</v>
+        <v>3.012</v>
       </c>
       <c r="J5">
-        <v>3.119</v>
+        <v>3.229</v>
       </c>
       <c r="K5">
-        <v>3.244</v>
+        <v>3.358</v>
       </c>
       <c r="L5">
-        <v>3.45</v>
+        <v>3.57</v>
       </c>
     </row>
   </sheetData>
@@ -2345,37 +2381,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.081</v>
+        <v>3.095</v>
       </c>
       <c r="C2">
-        <v>3.109</v>
+        <v>3.012</v>
       </c>
       <c r="D2">
-        <v>2.723</v>
+        <v>2.536</v>
       </c>
       <c r="E2">
-        <v>2.253</v>
+        <v>2.051</v>
       </c>
       <c r="F2">
-        <v>2.119</v>
+        <v>1.91</v>
       </c>
       <c r="G2">
-        <v>2.084</v>
+        <v>1.93</v>
       </c>
       <c r="H2">
-        <v>2.104</v>
+        <v>1.987</v>
       </c>
       <c r="I2">
-        <v>2.221</v>
+        <v>2.1545</v>
       </c>
       <c r="J2">
-        <v>2.422</v>
+        <v>2.367</v>
       </c>
       <c r="K2">
-        <v>2.529</v>
+        <v>2.496</v>
       </c>
       <c r="L2">
-        <v>2.514</v>
+        <v>2.468</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2383,37 +2419,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.21</v>
+        <v>3.019</v>
       </c>
       <c r="C3">
-        <v>3.133</v>
+        <v>3.063</v>
       </c>
       <c r="D3">
-        <v>2.707</v>
+        <v>2.634</v>
       </c>
       <c r="E3">
-        <v>2.231</v>
+        <v>2.134</v>
       </c>
       <c r="F3">
-        <v>2.09</v>
+        <v>1.992</v>
       </c>
       <c r="G3">
-        <v>2.032</v>
+        <v>2.012</v>
       </c>
       <c r="H3">
-        <v>2.046</v>
+        <v>2.037</v>
       </c>
       <c r="I3">
-        <v>2.147</v>
+        <v>2.189</v>
       </c>
       <c r="J3">
-        <v>2.336</v>
+        <v>2.401</v>
       </c>
       <c r="K3">
-        <v>2.43</v>
+        <v>2.522</v>
       </c>
       <c r="L3">
-        <v>2.402</v>
+        <v>2.507</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2421,37 +2457,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.222</v>
+        <v>3.206</v>
       </c>
       <c r="C4">
-        <v>3.155</v>
+        <v>3.142</v>
       </c>
       <c r="D4">
-        <v>2.786</v>
+        <v>2.708</v>
       </c>
       <c r="E4">
-        <v>2.296</v>
+        <v>2.206</v>
       </c>
       <c r="F4">
-        <v>2.146</v>
+        <v>2.074</v>
       </c>
       <c r="G4">
-        <v>2.093</v>
+        <v>2.019</v>
       </c>
       <c r="H4">
-        <v>2.108</v>
+        <v>2.038</v>
       </c>
       <c r="I4">
-        <v>2.208</v>
+        <v>2.149</v>
       </c>
       <c r="J4">
-        <v>2.393</v>
+        <v>2.347</v>
       </c>
       <c r="K4">
-        <v>2.481</v>
+        <v>2.451</v>
       </c>
       <c r="L4">
-        <v>2.457</v>
+        <v>2.432</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2459,37 +2495,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.257</v>
+        <v>3.232</v>
       </c>
       <c r="C5">
-        <v>3.154</v>
+        <v>3.128</v>
       </c>
       <c r="D5">
-        <v>2.855</v>
+        <v>2.833</v>
       </c>
       <c r="E5">
-        <v>2.371</v>
+        <v>2.384</v>
       </c>
       <c r="F5">
-        <v>2.236</v>
+        <v>2.25</v>
       </c>
       <c r="G5">
-        <v>2.119</v>
+        <v>2.18</v>
       </c>
       <c r="H5">
-        <v>2.12</v>
+        <v>2.189</v>
       </c>
       <c r="I5">
-        <v>2.201</v>
+        <v>2.29</v>
       </c>
       <c r="J5">
-        <v>2.387</v>
+        <v>2.48</v>
       </c>
       <c r="K5">
-        <v>2.463</v>
+        <v>2.568</v>
       </c>
       <c r="L5">
-        <v>2.438</v>
+        <v>2.539</v>
       </c>
     </row>
   </sheetData>
@@ -2548,19 +2584,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>3.743</v>
+        <v>4.37</v>
       </c>
       <c r="E2">
-        <v>4.662</v>
+        <v>4.653</v>
       </c>
       <c r="F2">
-        <v>4.77</v>
+        <v>4.694</v>
       </c>
       <c r="G2">
-        <v>5.027</v>
+        <v>4.871</v>
       </c>
       <c r="I2">
-        <v>5.354</v>
+        <v>5.249</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2568,19 +2604,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>3.715</v>
+        <v>4.493</v>
       </c>
       <c r="E3">
-        <v>4.664</v>
+        <v>4.742</v>
       </c>
       <c r="F3">
-        <v>4.766</v>
+        <v>4.82</v>
       </c>
       <c r="G3">
-        <v>5.001</v>
+        <v>5.002</v>
       </c>
       <c r="I3">
-        <v>5.314</v>
+        <v>5.419</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2588,19 +2624,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>3.889</v>
+        <v>3.716</v>
       </c>
       <c r="E4">
-        <v>4.78</v>
+        <v>4.639</v>
       </c>
       <c r="F4">
-        <v>4.88</v>
+        <v>4.742</v>
       </c>
       <c r="G4">
-        <v>5.141</v>
+        <v>4.988</v>
       </c>
       <c r="I4">
-        <v>5.359</v>
+        <v>5.287</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2608,19 +2644,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>4.266</v>
+        <v>4.015</v>
       </c>
       <c r="E5">
-        <v>4.886</v>
+        <v>4.8</v>
       </c>
       <c r="F5">
-        <v>4.927</v>
+        <v>4.903</v>
       </c>
       <c r="G5">
-        <v>5.081</v>
+        <v>5.188</v>
       </c>
       <c r="I5">
-        <v>5.349</v>
+        <v>5.464</v>
       </c>
     </row>
   </sheetData>
@@ -2679,16 +2715,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>12.035</v>
+        <v>12.115</v>
       </c>
       <c r="E2">
-        <v>12.255</v>
+        <v>12.33</v>
       </c>
       <c r="F2">
-        <v>12.265</v>
+        <v>12.31</v>
+      </c>
+      <c r="G2">
+        <v>12.365</v>
       </c>
       <c r="I2">
-        <v>12.345</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2696,16 +2735,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>11.72</v>
+        <v>11.98</v>
       </c>
       <c r="E3">
-        <v>11.87</v>
+        <v>12.185</v>
       </c>
       <c r="F3">
-        <v>11.9</v>
+        <v>12.205</v>
+      </c>
+      <c r="G3">
+        <v>12.33</v>
       </c>
       <c r="I3">
-        <v>12.045</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2713,16 +2755,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>11.615</v>
+        <v>11.676</v>
       </c>
       <c r="E4">
-        <v>11.775</v>
+        <v>11.885</v>
       </c>
       <c r="F4">
-        <v>11.795</v>
+        <v>11.865</v>
+      </c>
+      <c r="G4">
+        <v>11.99</v>
       </c>
       <c r="I4">
-        <v>12.01</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2730,16 +2775,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>11.435</v>
+        <v>11.783</v>
       </c>
       <c r="E5">
-        <v>11.49</v>
+        <v>11.927</v>
       </c>
       <c r="F5">
-        <v>11.455</v>
+        <v>12.01</v>
+      </c>
+      <c r="G5">
+        <v>12.215</v>
       </c>
       <c r="I5">
-        <v>11.56</v>
+        <v>12.19</v>
       </c>
     </row>
   </sheetData>
@@ -2798,22 +2846,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>2.312</v>
+        <v>2.117</v>
       </c>
       <c r="F2">
-        <v>2.241</v>
+        <v>2.012</v>
       </c>
       <c r="G2">
-        <v>2.298</v>
+        <v>2.193</v>
       </c>
       <c r="H2">
-        <v>2.376</v>
+        <v>2.272</v>
       </c>
       <c r="I2">
-        <v>2.772</v>
+        <v>2.718</v>
       </c>
       <c r="J2">
-        <v>3.095</v>
+        <v>3.033</v>
+      </c>
+      <c r="L2">
+        <v>3.207</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2821,22 +2872,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>2.315</v>
+        <v>2.195</v>
       </c>
       <c r="F3">
-        <v>2.241</v>
+        <v>2.079</v>
       </c>
       <c r="G3">
-        <v>2.268</v>
+        <v>2.224</v>
       </c>
       <c r="H3">
-        <v>2.331</v>
+        <v>2.32</v>
       </c>
       <c r="I3">
-        <v>2.726</v>
+        <v>2.78</v>
       </c>
       <c r="J3">
-        <v>3.045</v>
+        <v>3.089</v>
+      </c>
+      <c r="L3">
+        <v>3.249</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2844,22 +2898,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>2.403</v>
+        <v>2.31</v>
       </c>
       <c r="F4">
-        <v>2.317</v>
+        <v>2.21</v>
       </c>
       <c r="G4">
-        <v>2.353</v>
+        <v>2.258</v>
       </c>
       <c r="H4">
-        <v>2.418</v>
+        <v>2.329</v>
       </c>
       <c r="I4">
-        <v>2.815</v>
+        <v>2.736</v>
       </c>
       <c r="J4">
-        <v>3.125</v>
+        <v>3.063</v>
+      </c>
+      <c r="L4">
+        <v>3.192</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2867,22 +2924,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>2.487</v>
+        <v>2.46</v>
       </c>
       <c r="F5">
-        <v>2.401</v>
+        <v>2.382</v>
       </c>
       <c r="G5">
-        <v>2.374</v>
+        <v>2.438</v>
       </c>
       <c r="H5">
-        <v>2.427</v>
+        <v>2.51</v>
       </c>
       <c r="I5">
-        <v>2.8</v>
+        <v>2.897</v>
       </c>
       <c r="J5">
-        <v>3.105</v>
+        <v>3.19</v>
+      </c>
+      <c r="L5">
+        <v>3.333</v>
       </c>
     </row>
   </sheetData>
@@ -2941,37 +3001,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>4.941</v>
+        <v>4.935</v>
       </c>
       <c r="C2">
-        <v>4.499</v>
+        <v>4.77</v>
       </c>
       <c r="D2">
-        <v>4.325</v>
+        <v>4.38</v>
       </c>
       <c r="E2">
-        <v>3.922</v>
+        <v>4.0075</v>
       </c>
       <c r="F2">
-        <v>3.685</v>
+        <v>3.789</v>
       </c>
       <c r="G2">
-        <v>3.745</v>
+        <v>3.8915</v>
       </c>
       <c r="H2">
-        <v>3.779</v>
+        <v>3.9405</v>
       </c>
       <c r="I2">
-        <v>3.904</v>
+        <v>4.0455</v>
       </c>
       <c r="J2">
-        <v>4.191</v>
+        <v>4.3535</v>
       </c>
       <c r="K2">
-        <v>4.397</v>
+        <v>4.582</v>
       </c>
       <c r="L2">
-        <v>4.47</v>
+        <v>4.664</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2979,37 +3039,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.909</v>
+        <v>4.935</v>
       </c>
       <c r="C3">
-        <v>4.412</v>
+        <v>4.729</v>
       </c>
       <c r="D3">
-        <v>4.247</v>
+        <v>4.346</v>
       </c>
       <c r="E3">
-        <v>3.828</v>
+        <v>3.964</v>
       </c>
       <c r="F3">
-        <v>3.569</v>
+        <v>3.743</v>
       </c>
       <c r="G3">
-        <v>3.639</v>
+        <v>3.838</v>
       </c>
       <c r="H3">
-        <v>3.648</v>
+        <v>3.878</v>
       </c>
       <c r="I3">
-        <v>3.768</v>
+        <v>3.992</v>
       </c>
       <c r="J3">
-        <v>4.057</v>
+        <v>4.287</v>
       </c>
       <c r="K3">
-        <v>4.269</v>
+        <v>4.491</v>
       </c>
       <c r="L3">
-        <v>4.352</v>
+        <v>4.565</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3017,37 +3077,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.978</v>
+        <v>4.911</v>
       </c>
       <c r="C4">
-        <v>4.86</v>
+        <v>4.746</v>
       </c>
       <c r="D4">
-        <v>4.376</v>
+        <v>4.246</v>
       </c>
       <c r="E4">
-        <v>4.002</v>
+        <v>3.803</v>
       </c>
       <c r="F4">
-        <v>3.751</v>
+        <v>3.545</v>
       </c>
       <c r="G4">
-        <v>3.81</v>
+        <v>3.624</v>
       </c>
       <c r="H4">
-        <v>3.801</v>
+        <v>3.636</v>
       </c>
       <c r="I4">
-        <v>3.916</v>
+        <v>3.769</v>
       </c>
       <c r="J4">
-        <v>4.196</v>
+        <v>4.058</v>
       </c>
       <c r="K4">
-        <v>4.378</v>
+        <v>4.274</v>
       </c>
       <c r="L4">
-        <v>4.444</v>
+        <v>4.361</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3055,37 +3115,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.019</v>
+        <v>4.98</v>
       </c>
       <c r="C5">
-        <v>4.897</v>
+        <v>4.894</v>
       </c>
       <c r="D5">
-        <v>4.351</v>
+        <v>4.477</v>
       </c>
       <c r="E5">
-        <v>3.662</v>
+        <v>4.113</v>
       </c>
       <c r="F5">
-        <v>3.788</v>
+        <v>3.863</v>
       </c>
       <c r="G5">
-        <v>3.702</v>
+        <v>3.912</v>
       </c>
       <c r="H5">
-        <v>3.702</v>
+        <v>3.915</v>
       </c>
       <c r="I5">
-        <v>3.893</v>
+        <v>4.016</v>
       </c>
       <c r="J5">
-        <v>4.141</v>
+        <v>4.281</v>
       </c>
       <c r="K5">
-        <v>4.349</v>
+        <v>4.46</v>
       </c>
       <c r="L5">
-        <v>4.439</v>
+        <v>4.539</v>
       </c>
     </row>
   </sheetData>
@@ -3144,37 +3204,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.054</v>
+        <v>0.03</v>
       </c>
       <c r="C2">
-        <v>0.08699999999999999</v>
+        <v>0.083</v>
       </c>
       <c r="D2">
-        <v>0.262</v>
+        <v>0.263</v>
       </c>
       <c r="E2">
-        <v>0.371</v>
+        <v>0.38</v>
       </c>
       <c r="F2">
-        <v>0.381</v>
+        <v>0.393</v>
       </c>
       <c r="G2">
-        <v>0.503</v>
+        <v>0.5</v>
       </c>
       <c r="H2">
-        <v>0.58</v>
+        <v>0.595</v>
       </c>
       <c r="I2">
-        <v>0.847</v>
+        <v>0.865</v>
       </c>
       <c r="J2">
-        <v>1.394</v>
+        <v>1.396</v>
       </c>
       <c r="K2">
-        <v>1.704</v>
+        <v>1.703</v>
       </c>
       <c r="L2">
-        <v>2.091</v>
+        <v>2.105</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3182,37 +3242,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.08</v>
+        <v>0.053</v>
       </c>
       <c r="C3">
-        <v>0.092</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D3">
-        <v>0.235</v>
+        <v>0.215</v>
       </c>
       <c r="E3">
-        <v>0.386</v>
+        <v>0.316</v>
       </c>
       <c r="F3">
-        <v>0.39</v>
+        <v>0.356</v>
       </c>
       <c r="G3">
-        <v>0.489</v>
+        <v>0.464</v>
       </c>
       <c r="H3">
-        <v>0.5649999999999999</v>
+        <v>0.586</v>
       </c>
       <c r="I3">
-        <v>0.826</v>
+        <v>0.831</v>
       </c>
       <c r="J3">
-        <v>1.454</v>
+        <v>1.502</v>
       </c>
       <c r="K3">
-        <v>1.624</v>
+        <v>1.667</v>
       </c>
       <c r="L3">
-        <v>1.981</v>
+        <v>2.102</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3220,37 +3280,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.098</v>
       </c>
       <c r="C4">
-        <v>0.105</v>
+        <v>0.098</v>
       </c>
       <c r="D4">
-        <v>0.252</v>
+        <v>0.235</v>
       </c>
       <c r="E4">
-        <v>0.38</v>
+        <v>0.377</v>
       </c>
       <c r="F4">
-        <v>0.393</v>
+        <v>0.383</v>
       </c>
       <c r="G4">
-        <v>0.495</v>
+        <v>0.485</v>
       </c>
       <c r="H4">
-        <v>0.576</v>
+        <v>0.548</v>
       </c>
       <c r="I4">
-        <v>0.851</v>
+        <v>0.833</v>
       </c>
       <c r="J4">
-        <v>1.484</v>
+        <v>1.344</v>
       </c>
       <c r="K4">
-        <v>1.66</v>
+        <v>1.652</v>
       </c>
       <c r="L4">
-        <v>2.011</v>
+        <v>2.035</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3258,37 +3318,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.113</v>
+        <v>0.104</v>
       </c>
       <c r="C5">
-        <v>0.14</v>
+        <v>0.098</v>
       </c>
       <c r="D5">
-        <v>0.249</v>
+        <v>0.25</v>
       </c>
       <c r="E5">
-        <v>0.351</v>
+        <v>0.361</v>
       </c>
       <c r="F5">
-        <v>0.37</v>
+        <v>0.385</v>
       </c>
       <c r="G5">
-        <v>0.475</v>
+        <v>0.498</v>
       </c>
       <c r="H5">
-        <v>0.595</v>
+        <v>0.626</v>
       </c>
       <c r="I5">
-        <v>0.871</v>
+        <v>0.891</v>
       </c>
       <c r="J5">
-        <v>1.52</v>
+        <v>1.533</v>
       </c>
       <c r="K5">
-        <v>1.706</v>
+        <v>1.711</v>
       </c>
       <c r="L5">
-        <v>2.08</v>
+        <v>2.085</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -487,31 +487,31 @@
         <v>3.94</v>
       </c>
       <c r="C2">
-        <v>3.74</v>
+        <v>3.82</v>
       </c>
       <c r="D2">
-        <v>3.32</v>
+        <v>3.49</v>
       </c>
       <c r="E2">
-        <v>2.909</v>
+        <v>3.228</v>
       </c>
       <c r="F2">
-        <v>2.838</v>
+        <v>3.157</v>
       </c>
       <c r="G2">
-        <v>2.739</v>
+        <v>3.02</v>
       </c>
       <c r="H2">
-        <v>2.668</v>
+        <v>2.949</v>
       </c>
       <c r="I2">
-        <v>2.956</v>
+        <v>3.199</v>
       </c>
       <c r="K2">
-        <v>3.094</v>
+        <v>3.287</v>
       </c>
       <c r="L2">
-        <v>3.141</v>
+        <v>3.327</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -519,34 +519,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.05</v>
+        <v>3.93</v>
       </c>
       <c r="C3">
-        <v>3.76</v>
+        <v>3.766</v>
       </c>
       <c r="D3">
-        <v>3.35</v>
+        <v>3.321</v>
       </c>
       <c r="E3">
-        <v>2.9</v>
+        <v>2.932</v>
       </c>
       <c r="F3">
-        <v>2.832</v>
+        <v>2.862</v>
       </c>
       <c r="G3">
-        <v>2.739</v>
+        <v>2.755</v>
       </c>
       <c r="H3">
-        <v>2.671</v>
+        <v>2.677</v>
       </c>
       <c r="I3">
-        <v>2.957</v>
+        <v>2.946</v>
       </c>
       <c r="K3">
-        <v>3.09</v>
+        <v>3.074</v>
       </c>
       <c r="L3">
-        <v>3.155</v>
+        <v>3.121</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -554,34 +554,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="C4">
-        <v>3.86</v>
+        <v>3.78</v>
       </c>
       <c r="D4">
-        <v>3.5</v>
+        <v>3.37</v>
       </c>
       <c r="E4">
-        <v>3.002</v>
+        <v>2.923</v>
       </c>
       <c r="F4">
-        <v>2.929</v>
+        <v>2.856</v>
       </c>
       <c r="G4">
-        <v>2.746</v>
+        <v>2.733</v>
       </c>
       <c r="H4">
-        <v>2.68</v>
+        <v>2.667</v>
       </c>
       <c r="I4">
-        <v>2.915</v>
+        <v>2.928</v>
       </c>
       <c r="K4">
-        <v>3.064</v>
+        <v>3.08</v>
       </c>
       <c r="L4">
-        <v>3.087</v>
+        <v>3.126</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -589,34 +589,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4.16</v>
+        <v>4.09</v>
       </c>
       <c r="C5">
-        <v>4.06</v>
+        <v>3.96</v>
       </c>
       <c r="D5">
-        <v>3.76</v>
+        <v>3.58</v>
       </c>
       <c r="E5">
-        <v>3.33</v>
+        <v>3.05</v>
       </c>
       <c r="F5">
-        <v>3.242</v>
+        <v>2.975</v>
       </c>
       <c r="G5">
-        <v>3.037</v>
+        <v>2.807</v>
       </c>
       <c r="H5">
-        <v>2.965</v>
+        <v>2.733</v>
       </c>
       <c r="I5">
-        <v>3.16</v>
+        <v>2.966</v>
       </c>
       <c r="K5">
-        <v>3.263</v>
+        <v>3.103</v>
       </c>
       <c r="L5">
-        <v>3.265</v>
+        <v>3.116</v>
       </c>
     </row>
   </sheetData>
@@ -675,31 +675,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>4.646</v>
+        <v>4.649</v>
       </c>
       <c r="C2">
-        <v>4.412</v>
+        <v>4.46</v>
       </c>
       <c r="D2">
-        <v>3.978</v>
+        <v>4.2</v>
       </c>
       <c r="E2">
-        <v>3.567</v>
+        <v>3.924</v>
       </c>
       <c r="F2">
-        <v>3.488</v>
+        <v>3.834</v>
       </c>
       <c r="G2">
-        <v>3.515</v>
+        <v>3.804</v>
       </c>
       <c r="H2">
-        <v>3.62</v>
+        <v>3.866</v>
       </c>
       <c r="I2">
-        <v>3.764</v>
+        <v>3.969</v>
       </c>
       <c r="L2">
-        <v>4.115</v>
+        <v>4.253</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -707,31 +707,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.62</v>
+        <v>4.618</v>
       </c>
       <c r="C3">
-        <v>4.414</v>
+        <v>4.375</v>
       </c>
       <c r="D3">
-        <v>3.985</v>
+        <v>3.991</v>
       </c>
       <c r="E3">
-        <v>3.627</v>
+        <v>3.606</v>
       </c>
       <c r="F3">
-        <v>3.547</v>
+        <v>3.514</v>
       </c>
       <c r="G3">
-        <v>3.565</v>
+        <v>3.509</v>
       </c>
       <c r="H3">
-        <v>3.663</v>
+        <v>3.596</v>
       </c>
       <c r="I3">
-        <v>3.796</v>
+        <v>3.731</v>
       </c>
       <c r="L3">
-        <v>4.131</v>
+        <v>4.071</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -739,31 +739,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.879</v>
+        <v>4.734</v>
       </c>
       <c r="C4">
-        <v>4.61</v>
+        <v>4.493</v>
       </c>
       <c r="D4">
-        <v>3.977</v>
+        <v>3.973</v>
       </c>
       <c r="E4">
-        <v>3.555</v>
+        <v>3.588</v>
       </c>
       <c r="F4">
-        <v>3.417</v>
+        <v>3.473</v>
       </c>
       <c r="G4">
-        <v>3.404</v>
+        <v>3.486</v>
       </c>
       <c r="H4">
-        <v>3.5</v>
+        <v>3.596</v>
       </c>
       <c r="I4">
-        <v>3.618</v>
+        <v>3.719</v>
       </c>
       <c r="L4">
-        <v>3.931</v>
+        <v>4.054</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -771,31 +771,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.103</v>
+        <v>5.056</v>
       </c>
       <c r="C5">
-        <v>4.859</v>
+        <v>4.725</v>
       </c>
       <c r="D5">
-        <v>4.418</v>
+        <v>4.111</v>
       </c>
       <c r="E5">
-        <v>3.919</v>
+        <v>3.654</v>
       </c>
       <c r="F5">
-        <v>3.782</v>
+        <v>3.533</v>
       </c>
       <c r="G5">
-        <v>3.708</v>
+        <v>3.496</v>
       </c>
       <c r="H5">
-        <v>3.804</v>
+        <v>3.597</v>
       </c>
       <c r="I5">
-        <v>3.909</v>
+        <v>3.716</v>
       </c>
       <c r="L5">
-        <v>4.201</v>
+        <v>4.024</v>
       </c>
     </row>
   </sheetData>
@@ -997,25 +997,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>3.831</v>
+        <v>3.885</v>
       </c>
       <c r="E2">
-        <v>3.621</v>
+        <v>3.682</v>
       </c>
       <c r="F2">
-        <v>3.559</v>
+        <v>3.632</v>
       </c>
       <c r="G2">
-        <v>3.654</v>
+        <v>3.729</v>
       </c>
       <c r="H2">
-        <v>3.823</v>
+        <v>3.876</v>
       </c>
       <c r="I2">
-        <v>4.01</v>
+        <v>4.062</v>
       </c>
       <c r="J2">
-        <v>4.276</v>
+        <v>4.309</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>3.759</v>
+        <v>3.837</v>
       </c>
       <c r="E3">
-        <v>3.537</v>
+        <v>3.623</v>
       </c>
       <c r="F3">
-        <v>3.471</v>
+        <v>3.56</v>
       </c>
       <c r="G3">
-        <v>3.566</v>
+        <v>3.656</v>
       </c>
       <c r="H3">
-        <v>3.727</v>
+        <v>3.811</v>
       </c>
       <c r="I3">
-        <v>3.918</v>
+        <v>3.991</v>
       </c>
       <c r="J3">
-        <v>4.178</v>
+        <v>4.248</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1049,25 +1049,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>3.757</v>
+        <v>3.824</v>
       </c>
       <c r="E4">
-        <v>3.51</v>
+        <v>3.602</v>
       </c>
       <c r="F4">
-        <v>3.426</v>
+        <v>3.526</v>
       </c>
       <c r="G4">
-        <v>3.493</v>
+        <v>3.601</v>
       </c>
       <c r="H4">
-        <v>3.649</v>
+        <v>3.753</v>
       </c>
       <c r="I4">
-        <v>3.824</v>
+        <v>3.935</v>
       </c>
       <c r="J4">
-        <v>4.062</v>
+        <v>4.169</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1075,25 +1075,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>4.21</v>
+        <v>4.19</v>
       </c>
       <c r="E5">
-        <v>3.621</v>
+        <v>3.586</v>
       </c>
       <c r="F5">
-        <v>3.568</v>
+        <v>3.523</v>
       </c>
       <c r="G5">
-        <v>3.607</v>
+        <v>3.542</v>
       </c>
       <c r="H5">
-        <v>3.798</v>
+        <v>3.728</v>
       </c>
       <c r="I5">
-        <v>3.974</v>
+        <v>3.898</v>
       </c>
       <c r="J5">
-        <v>4.217</v>
+        <v>4.145</v>
       </c>
     </row>
   </sheetData>
@@ -1152,31 +1152,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.157</v>
+        <v>2.897</v>
       </c>
       <c r="C2">
-        <v>3.101</v>
+        <v>3.076</v>
       </c>
       <c r="D2">
-        <v>2.75</v>
+        <v>2.806</v>
       </c>
       <c r="E2">
-        <v>2.442</v>
+        <v>2.63</v>
       </c>
       <c r="F2">
-        <v>2.389</v>
+        <v>2.517</v>
       </c>
       <c r="G2">
-        <v>2.684</v>
+        <v>2.903</v>
       </c>
       <c r="H2">
-        <v>3.031</v>
+        <v>3.07</v>
       </c>
       <c r="I2">
-        <v>3.486</v>
+        <v>3.514</v>
       </c>
       <c r="J2">
-        <v>3.832</v>
+        <v>3.857</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1184,31 +1184,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.147</v>
+        <v>3.079</v>
       </c>
       <c r="C3">
-        <v>3.168</v>
+        <v>3.044</v>
       </c>
       <c r="D3">
-        <v>2.87</v>
+        <v>2.787</v>
       </c>
       <c r="E3">
-        <v>2.536</v>
+        <v>2.443</v>
       </c>
       <c r="F3">
-        <v>2.466</v>
+        <v>2.37</v>
       </c>
       <c r="G3">
-        <v>2.759</v>
+        <v>2.635</v>
       </c>
       <c r="H3">
-        <v>3.072</v>
+        <v>2.924</v>
       </c>
       <c r="I3">
-        <v>3.538</v>
+        <v>3.377</v>
       </c>
       <c r="J3">
-        <v>3.895</v>
+        <v>3.728</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1216,31 +1216,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.18</v>
+        <v>3.101</v>
       </c>
       <c r="C4">
-        <v>3.191</v>
+        <v>3.19</v>
       </c>
       <c r="D4">
-        <v>2.908</v>
+        <v>2.896</v>
       </c>
       <c r="E4">
-        <v>2.613</v>
+        <v>2.621</v>
       </c>
       <c r="F4">
-        <v>2.559</v>
+        <v>2.557</v>
       </c>
       <c r="G4">
-        <v>2.797</v>
+        <v>2.816</v>
       </c>
       <c r="H4">
-        <v>3.079</v>
+        <v>3.101</v>
       </c>
       <c r="I4">
-        <v>3.514</v>
+        <v>3.555</v>
       </c>
       <c r="J4">
-        <v>3.867</v>
+        <v>3.897</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1248,31 +1248,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.219</v>
+        <v>3.239</v>
       </c>
       <c r="C5">
-        <v>3.285</v>
+        <v>3.186</v>
       </c>
       <c r="D5">
-        <v>3.057</v>
+        <v>2.995</v>
       </c>
       <c r="E5">
-        <v>2.861</v>
+        <v>2.693</v>
       </c>
       <c r="F5">
-        <v>2.818</v>
+        <v>2.646</v>
       </c>
       <c r="G5">
-        <v>3.052</v>
+        <v>2.903</v>
       </c>
       <c r="H5">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="I5">
-        <v>3.691</v>
+        <v>3.556</v>
       </c>
       <c r="J5">
-        <v>4.06</v>
+        <v>3.941</v>
       </c>
     </row>
   </sheetData>
@@ -1331,37 +1331,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="C2">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="D2">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="E2">
-        <v>0.402</v>
+        <v>0.482</v>
       </c>
       <c r="F2">
-        <v>0.332</v>
+        <v>0.422</v>
       </c>
       <c r="G2">
-        <v>0.351</v>
+        <v>0.43</v>
       </c>
       <c r="H2">
-        <v>0.36</v>
+        <v>0.439</v>
       </c>
       <c r="I2">
-        <v>0.401</v>
+        <v>0.475</v>
       </c>
       <c r="J2">
-        <v>0.442</v>
+        <v>0.514</v>
       </c>
       <c r="K2">
-        <v>0.441</v>
+        <v>0.475</v>
       </c>
       <c r="L2">
-        <v>0.381</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1369,37 +1369,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="C3">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
       <c r="D3">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="E3">
-        <v>0.49</v>
+        <v>0.404</v>
       </c>
       <c r="F3">
-        <v>0.458</v>
+        <v>0.351</v>
       </c>
       <c r="G3">
-        <v>0.436</v>
+        <v>0.357</v>
       </c>
       <c r="H3">
-        <v>0.476</v>
+        <v>0.354</v>
       </c>
       <c r="I3">
-        <v>0.49</v>
+        <v>0.381</v>
       </c>
       <c r="J3">
-        <v>0.53</v>
+        <v>0.438</v>
       </c>
       <c r="K3">
-        <v>0.497</v>
+        <v>0.435</v>
       </c>
       <c r="L3">
-        <v>0.53</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1407,37 +1407,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D4">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0.543</v>
+        <v>0.536</v>
       </c>
       <c r="F4">
-        <v>0.526</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.449</v>
+        <v>0.481</v>
       </c>
       <c r="H4">
-        <v>0.453</v>
+        <v>0.476</v>
       </c>
       <c r="I4">
-        <v>0.446</v>
+        <v>0.484</v>
       </c>
       <c r="J4">
-        <v>0.469</v>
+        <v>0.514</v>
       </c>
       <c r="K4">
-        <v>0.465</v>
+        <v>0.496</v>
       </c>
       <c r="L4">
-        <v>0.447</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1445,37 +1445,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="C5">
         <v>0.78</v>
       </c>
       <c r="D5">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="E5">
-        <v>0.547</v>
+        <v>0.528</v>
       </c>
       <c r="F5">
-        <v>0.521</v>
+        <v>0.458</v>
       </c>
       <c r="G5">
-        <v>0.509</v>
+        <v>0.451</v>
       </c>
       <c r="H5">
-        <v>0.491</v>
+        <v>0.457</v>
       </c>
       <c r="I5">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="J5">
-        <v>0.47</v>
+        <v>0.481</v>
       </c>
       <c r="K5">
-        <v>0.47</v>
+        <v>0.451</v>
       </c>
       <c r="L5">
-        <v>0.435</v>
+        <v>0.424</v>
       </c>
     </row>
   </sheetData>
@@ -1534,31 +1534,31 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1.405</v>
+        <v>1.451</v>
       </c>
       <c r="E2">
-        <v>1.38</v>
+        <v>1.431</v>
       </c>
       <c r="F2">
-        <v>1.575</v>
+        <v>1.654</v>
       </c>
       <c r="G2">
-        <v>1.845</v>
+        <v>1.86</v>
       </c>
       <c r="H2">
-        <v>2.078</v>
+        <v>2.1</v>
       </c>
       <c r="I2">
-        <v>2.175</v>
+        <v>2.16</v>
       </c>
       <c r="J2">
-        <v>2.014</v>
+        <v>2.115</v>
       </c>
       <c r="K2">
-        <v>2.384</v>
+        <v>2.405</v>
       </c>
       <c r="L2">
-        <v>2.35</v>
+        <v>2.455</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1566,31 +1566,31 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>1.405</v>
+        <v>1.451</v>
       </c>
       <c r="E3">
-        <v>1.38</v>
+        <v>1.431</v>
       </c>
       <c r="F3">
-        <v>1.507</v>
+        <v>1.654</v>
       </c>
       <c r="G3">
-        <v>1.724</v>
+        <v>1.86</v>
       </c>
       <c r="H3">
-        <v>1.938</v>
+        <v>2.1</v>
       </c>
       <c r="I3">
-        <v>2.09</v>
+        <v>2.16</v>
       </c>
       <c r="J3">
-        <v>2.023</v>
+        <v>2.115</v>
       </c>
       <c r="K3">
-        <v>2.202</v>
+        <v>2.405</v>
       </c>
       <c r="L3">
-        <v>2.2</v>
+        <v>2.455</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1598,31 +1598,31 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>1.368</v>
+        <v>1.451</v>
       </c>
       <c r="E4">
-        <v>1.393</v>
+        <v>1.431</v>
       </c>
       <c r="F4">
-        <v>1.508</v>
+        <v>1.654</v>
       </c>
       <c r="G4">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="H4">
-        <v>1.896</v>
+        <v>2.1</v>
       </c>
       <c r="I4">
-        <v>2.052</v>
+        <v>2.16</v>
       </c>
       <c r="J4">
-        <v>2.01</v>
+        <v>2.115</v>
       </c>
       <c r="K4">
-        <v>2.169</v>
+        <v>2.405</v>
       </c>
       <c r="L4">
-        <v>2.175</v>
+        <v>2.455</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1630,31 +1630,31 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1.513</v>
+        <v>1.465</v>
       </c>
       <c r="E5">
-        <v>1.537</v>
+        <v>1.469</v>
       </c>
       <c r="F5">
-        <v>1.685</v>
+        <v>1.569</v>
       </c>
       <c r="G5">
-        <v>1.856</v>
+        <v>1.788</v>
       </c>
       <c r="H5">
-        <v>2.084</v>
+        <v>1.994</v>
       </c>
       <c r="I5">
-        <v>2.183</v>
+        <v>2.138</v>
       </c>
       <c r="J5">
-        <v>2.158</v>
+        <v>2.121</v>
       </c>
       <c r="K5">
-        <v>2.367</v>
+        <v>2.296</v>
       </c>
       <c r="L5">
-        <v>2.408</v>
+        <v>2.325</v>
       </c>
     </row>
   </sheetData>
@@ -1713,19 +1713,16 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.64</v>
+        <v>7.85</v>
       </c>
       <c r="G2">
-        <v>8.077</v>
-      </c>
-      <c r="I2">
-        <v>8.970000000000001</v>
+        <v>8.234999999999999</v>
       </c>
       <c r="K2">
-        <v>10.906</v>
+        <v>11.065</v>
       </c>
       <c r="L2">
-        <v>10.9</v>
+        <v>11.045</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1736,16 +1733,13 @@
         <v>7.85</v>
       </c>
       <c r="G3">
-        <v>7.985</v>
-      </c>
-      <c r="I3">
-        <v>8.845000000000001</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="K3">
-        <v>10.7</v>
+        <v>10.84</v>
       </c>
       <c r="L3">
-        <v>10.68</v>
+        <v>10.835</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1753,19 +1747,16 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7.85</v>
+        <v>7.75</v>
       </c>
       <c r="G4">
-        <v>8.06</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
+        <v>7.955</v>
       </c>
       <c r="K4">
-        <v>11.04</v>
+        <v>10.77</v>
       </c>
       <c r="L4">
-        <v>11.005</v>
+        <v>10.745</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1773,19 +1764,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>8.19</v>
-      </c>
-      <c r="I5">
-        <v>9.199999999999999</v>
+        <v>7.96</v>
       </c>
       <c r="K5">
-        <v>11.225</v>
+        <v>11.005</v>
       </c>
       <c r="L5">
-        <v>11.215</v>
+        <v>10.96</v>
       </c>
     </row>
   </sheetData>
@@ -1844,22 +1832,22 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>46.745</v>
+        <v>46.583</v>
       </c>
       <c r="C2">
-        <v>45.915</v>
+        <v>45.621</v>
       </c>
       <c r="E2">
-        <v>41.39</v>
+        <v>37.9</v>
       </c>
       <c r="F2">
-        <v>33.76</v>
+        <v>33</v>
       </c>
       <c r="G2">
-        <v>32.265</v>
+        <v>30.77</v>
       </c>
       <c r="I2">
-        <v>28.575</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1867,22 +1855,22 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>45.908</v>
+        <v>45.088</v>
       </c>
       <c r="C3">
-        <v>44.891</v>
+        <v>44.96</v>
       </c>
       <c r="E3">
-        <v>37.89</v>
+        <v>37.86</v>
       </c>
       <c r="F3">
-        <v>31.17</v>
+        <v>31.59</v>
       </c>
       <c r="G3">
-        <v>29.89</v>
+        <v>30.16</v>
       </c>
       <c r="I3">
-        <v>26.49</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1890,22 +1878,22 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>46.787</v>
+        <v>47.219</v>
       </c>
       <c r="C4">
-        <v>45.755</v>
+        <v>46.872</v>
       </c>
       <c r="E4">
-        <v>38.48</v>
+        <v>38.45</v>
       </c>
       <c r="F4">
-        <v>30.97</v>
+        <v>31.27</v>
       </c>
       <c r="G4">
-        <v>30.72</v>
+        <v>30.49</v>
       </c>
       <c r="I4">
-        <v>26.95</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1913,22 +1901,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>46.853</v>
+        <v>46.924</v>
       </c>
       <c r="C5">
-        <v>45.696</v>
+        <v>46.003</v>
       </c>
       <c r="E5">
-        <v>38.19</v>
+        <v>38.64</v>
       </c>
       <c r="F5">
-        <v>30.34</v>
+        <v>30.84</v>
       </c>
       <c r="G5">
-        <v>29.96</v>
+        <v>30.66</v>
       </c>
       <c r="I5">
-        <v>26.51</v>
+        <v>26.99</v>
       </c>
     </row>
   </sheetData>
@@ -1987,34 +1975,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.567</v>
+        <v>6.48</v>
       </c>
       <c r="C2">
-        <v>6.659</v>
+        <v>6.58</v>
       </c>
       <c r="D2">
-        <v>6.645</v>
+        <v>6.594</v>
       </c>
       <c r="E2">
-        <v>6.783</v>
+        <v>6.655</v>
       </c>
       <c r="F2">
-        <v>6.788</v>
+        <v>6.696</v>
       </c>
       <c r="G2">
-        <v>6.79</v>
+        <v>6.739</v>
       </c>
       <c r="H2">
-        <v>6.814</v>
+        <v>6.775</v>
       </c>
       <c r="I2">
-        <v>6.872</v>
+        <v>6.829</v>
       </c>
       <c r="J2">
-        <v>6.913</v>
+        <v>6.877</v>
       </c>
       <c r="L2">
-        <v>7.035</v>
+        <v>6.966</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2022,34 +2010,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.58</v>
+        <v>6.45</v>
       </c>
       <c r="C3">
-        <v>6.63</v>
+        <v>6.59</v>
       </c>
       <c r="D3">
-        <v>6.637</v>
+        <v>6.615</v>
       </c>
       <c r="E3">
-        <v>6.696</v>
+        <v>6.656</v>
       </c>
       <c r="F3">
-        <v>6.681</v>
+        <v>6.664</v>
       </c>
       <c r="G3">
-        <v>6.673</v>
+        <v>6.669</v>
       </c>
       <c r="H3">
-        <v>6.713</v>
+        <v>6.695</v>
       </c>
       <c r="I3">
-        <v>6.738</v>
+        <v>6.75</v>
       </c>
       <c r="J3">
-        <v>6.792</v>
+        <v>6.79</v>
       </c>
       <c r="L3">
-        <v>6.894</v>
+        <v>6.908</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2057,34 +2045,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.65</v>
+        <v>6.6</v>
       </c>
       <c r="C4">
-        <v>6.72</v>
+        <v>6.66</v>
       </c>
       <c r="D4">
-        <v>6.73</v>
+        <v>6.678</v>
       </c>
       <c r="E4">
-        <v>6.731</v>
+        <v>6.655</v>
       </c>
       <c r="F4">
-        <v>6.714</v>
+        <v>6.696</v>
       </c>
       <c r="G4">
-        <v>6.718</v>
+        <v>6.688</v>
       </c>
       <c r="H4">
-        <v>6.783</v>
+        <v>6.742</v>
       </c>
       <c r="I4">
-        <v>6.811</v>
+        <v>6.779</v>
       </c>
       <c r="J4">
-        <v>6.866</v>
+        <v>6.837</v>
       </c>
       <c r="L4">
-        <v>6.96</v>
+        <v>6.957</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2092,34 +2080,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.65</v>
+        <v>6.64</v>
       </c>
       <c r="C5">
         <v>6.73</v>
       </c>
       <c r="D5">
+        <v>6.729</v>
+      </c>
+      <c r="E5">
         <v>6.743</v>
       </c>
-      <c r="E5">
-        <v>6.745</v>
-      </c>
       <c r="F5">
-        <v>6.75</v>
+        <v>6.73</v>
       </c>
       <c r="G5">
-        <v>6.772</v>
+        <v>6.752</v>
       </c>
       <c r="H5">
-        <v>6.828</v>
+        <v>6.824</v>
       </c>
       <c r="I5">
-        <v>6.863</v>
+        <v>6.854</v>
       </c>
       <c r="J5">
-        <v>6.915</v>
+        <v>6.911</v>
       </c>
       <c r="L5">
-        <v>6.999</v>
+        <v>7.003</v>
       </c>
     </row>
   </sheetData>
@@ -2178,37 +2166,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.306</v>
+        <v>3.213</v>
       </c>
       <c r="C2">
-        <v>3.036</v>
+        <v>3.041</v>
       </c>
       <c r="D2">
-        <v>2.71</v>
+        <v>2.772</v>
       </c>
       <c r="E2">
-        <v>2.315</v>
+        <v>2.407</v>
       </c>
       <c r="F2">
-        <v>2.346</v>
+        <v>2.428</v>
       </c>
       <c r="G2">
-        <v>2.452</v>
+        <v>2.566</v>
       </c>
       <c r="H2">
-        <v>2.611</v>
+        <v>2.6724</v>
       </c>
       <c r="I2">
-        <v>2.929</v>
+        <v>2.988</v>
       </c>
       <c r="J2">
-        <v>3.202</v>
+        <v>3.221</v>
       </c>
       <c r="K2">
-        <v>3.364</v>
+        <v>3.349</v>
       </c>
       <c r="L2">
-        <v>3.598</v>
+        <v>3.576</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2216,37 +2204,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.248</v>
+        <v>3.252</v>
       </c>
       <c r="C3">
-        <v>3.119</v>
+        <v>2.994</v>
       </c>
       <c r="D3">
-        <v>2.76</v>
+        <v>2.657</v>
       </c>
       <c r="E3">
-        <v>2.362</v>
+        <v>2.263</v>
       </c>
       <c r="F3">
-        <v>2.405</v>
+        <v>2.257</v>
       </c>
       <c r="G3">
-        <v>2.525</v>
+        <v>2.379</v>
       </c>
       <c r="H3">
-        <v>2.6471</v>
+        <v>2.4959</v>
       </c>
       <c r="I3">
-        <v>2.981</v>
+        <v>2.821</v>
       </c>
       <c r="J3">
-        <v>3.225</v>
+        <v>3.07</v>
       </c>
       <c r="K3">
-        <v>3.388</v>
+        <v>3.22</v>
       </c>
       <c r="L3">
-        <v>3.607</v>
+        <v>3.453</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2254,37 +2242,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.423</v>
+        <v>3.358</v>
       </c>
       <c r="C4">
-        <v>3.265</v>
+        <v>3.221</v>
       </c>
       <c r="D4">
-        <v>2.911</v>
+        <v>2.837</v>
       </c>
       <c r="E4">
-        <v>2.448</v>
+        <v>2.46</v>
       </c>
       <c r="F4">
-        <v>2.41</v>
+        <v>2.447</v>
       </c>
       <c r="G4">
-        <v>2.469</v>
+        <v>2.536</v>
       </c>
       <c r="H4">
-        <v>2.5529</v>
+        <v>2.6277</v>
       </c>
       <c r="I4">
-        <v>2.84</v>
+        <v>2.93</v>
       </c>
       <c r="J4">
-        <v>3.078</v>
+        <v>3.171</v>
       </c>
       <c r="K4">
-        <v>3.224</v>
+        <v>3.332</v>
       </c>
       <c r="L4">
-        <v>3.434</v>
+        <v>3.546</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2292,37 +2280,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.48</v>
+        <v>3.445</v>
       </c>
       <c r="C5">
-        <v>3.339</v>
+        <v>3.264</v>
       </c>
       <c r="D5">
-        <v>3.01</v>
+        <v>2.897</v>
       </c>
       <c r="E5">
-        <v>2.64</v>
+        <v>2.51</v>
       </c>
       <c r="F5">
-        <v>2.591</v>
+        <v>2.453</v>
       </c>
       <c r="G5">
-        <v>2.651</v>
+        <v>2.508</v>
       </c>
       <c r="H5">
-        <v>2.7257</v>
+        <v>2.5897</v>
       </c>
       <c r="I5">
-        <v>3.012</v>
+        <v>2.885</v>
       </c>
       <c r="J5">
-        <v>3.229</v>
+        <v>3.1</v>
       </c>
       <c r="K5">
-        <v>3.358</v>
+        <v>3.231</v>
       </c>
       <c r="L5">
-        <v>3.57</v>
+        <v>3.444</v>
       </c>
     </row>
   </sheetData>
@@ -2381,37 +2369,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3.095</v>
+        <v>3.088</v>
       </c>
       <c r="C2">
-        <v>3.012</v>
+        <v>2.976</v>
       </c>
       <c r="D2">
-        <v>2.536</v>
+        <v>2.602</v>
       </c>
       <c r="E2">
-        <v>2.051</v>
+        <v>2.206</v>
       </c>
       <c r="F2">
-        <v>1.91</v>
+        <v>2.066</v>
       </c>
       <c r="G2">
-        <v>1.93</v>
+        <v>2.073</v>
       </c>
       <c r="H2">
-        <v>1.987</v>
+        <v>2.092</v>
       </c>
       <c r="I2">
-        <v>2.1545</v>
+        <v>2.212</v>
       </c>
       <c r="J2">
-        <v>2.367</v>
+        <v>2.418</v>
       </c>
       <c r="K2">
-        <v>2.496</v>
+        <v>2.517</v>
       </c>
       <c r="L2">
-        <v>2.468</v>
+        <v>2.493</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2419,37 +2407,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.019</v>
+        <v>3.021</v>
       </c>
       <c r="C3">
-        <v>3.063</v>
+        <v>2.98</v>
       </c>
       <c r="D3">
-        <v>2.634</v>
+        <v>2.51</v>
       </c>
       <c r="E3">
-        <v>2.134</v>
+        <v>2.027</v>
       </c>
       <c r="F3">
-        <v>1.992</v>
+        <v>1.873</v>
       </c>
       <c r="G3">
-        <v>2.012</v>
+        <v>1.884</v>
       </c>
       <c r="H3">
-        <v>2.037</v>
+        <v>1.906</v>
       </c>
       <c r="I3">
-        <v>2.189</v>
+        <v>2.043</v>
       </c>
       <c r="J3">
-        <v>2.401</v>
+        <v>2.26</v>
       </c>
       <c r="K3">
-        <v>2.522</v>
+        <v>2.378</v>
       </c>
       <c r="L3">
-        <v>2.507</v>
+        <v>2.365</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2457,37 +2445,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.206</v>
+        <v>3.167</v>
       </c>
       <c r="C4">
-        <v>3.142</v>
+        <v>3.138</v>
       </c>
       <c r="D4">
-        <v>2.708</v>
+        <v>2.703</v>
       </c>
       <c r="E4">
-        <v>2.206</v>
+        <v>2.215</v>
       </c>
       <c r="F4">
-        <v>2.074</v>
+        <v>2.078</v>
       </c>
       <c r="G4">
-        <v>2.019</v>
+        <v>2.046</v>
       </c>
       <c r="H4">
-        <v>2.038</v>
+        <v>2.071</v>
       </c>
       <c r="I4">
-        <v>2.149</v>
+        <v>2.192</v>
       </c>
       <c r="J4">
-        <v>2.347</v>
+        <v>2.399</v>
       </c>
       <c r="K4">
-        <v>2.451</v>
+        <v>2.51</v>
       </c>
       <c r="L4">
-        <v>2.432</v>
+        <v>2.501</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2495,37 +2483,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.232</v>
+        <v>3.21</v>
       </c>
       <c r="C5">
-        <v>3.128</v>
+        <v>3.155</v>
       </c>
       <c r="D5">
-        <v>2.833</v>
+        <v>2.712</v>
       </c>
       <c r="E5">
-        <v>2.384</v>
+        <v>2.229</v>
       </c>
       <c r="F5">
-        <v>2.25</v>
+        <v>2.085</v>
       </c>
       <c r="G5">
-        <v>2.18</v>
+        <v>2.047</v>
       </c>
       <c r="H5">
-        <v>2.189</v>
+        <v>2.062</v>
       </c>
       <c r="I5">
-        <v>2.29</v>
+        <v>2.171</v>
       </c>
       <c r="J5">
-        <v>2.48</v>
+        <v>2.362</v>
       </c>
       <c r="K5">
-        <v>2.568</v>
+        <v>2.455</v>
       </c>
       <c r="L5">
-        <v>2.539</v>
+        <v>2.434</v>
       </c>
     </row>
   </sheetData>
@@ -2584,19 +2572,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.37</v>
+        <v>4.414</v>
       </c>
       <c r="E2">
-        <v>4.653</v>
+        <v>4.793</v>
       </c>
       <c r="F2">
-        <v>4.694</v>
+        <v>4.835</v>
       </c>
       <c r="G2">
-        <v>4.871</v>
+        <v>5.119</v>
       </c>
       <c r="I2">
-        <v>5.249</v>
+        <v>5.443</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2604,19 +2592,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4.493</v>
+        <v>4.487</v>
       </c>
       <c r="E3">
-        <v>4.742</v>
+        <v>4.856</v>
       </c>
       <c r="F3">
-        <v>4.82</v>
+        <v>4.793</v>
       </c>
       <c r="G3">
-        <v>5.002</v>
+        <v>4.922</v>
       </c>
       <c r="I3">
-        <v>5.419</v>
+        <v>5.304</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2624,19 +2612,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>3.716</v>
+        <v>3.793</v>
       </c>
       <c r="E4">
-        <v>4.639</v>
+        <v>4.632</v>
       </c>
       <c r="F4">
-        <v>4.742</v>
+        <v>4.766</v>
       </c>
       <c r="G4">
-        <v>4.988</v>
+        <v>4.994</v>
       </c>
       <c r="I4">
-        <v>5.287</v>
+        <v>5.338</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2644,19 +2632,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>4.015</v>
+        <v>3.756</v>
       </c>
       <c r="E5">
-        <v>4.8</v>
+        <v>4.699</v>
       </c>
       <c r="F5">
-        <v>4.903</v>
+        <v>4.787</v>
       </c>
       <c r="G5">
-        <v>5.188</v>
+        <v>5.082</v>
       </c>
       <c r="I5">
-        <v>5.464</v>
+        <v>5.295</v>
       </c>
     </row>
   </sheetData>
@@ -2715,19 +2703,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>12.115</v>
+        <v>12.185</v>
       </c>
       <c r="E2">
+        <v>12.432</v>
+      </c>
+      <c r="F2">
+        <v>12.385</v>
+      </c>
+      <c r="G2">
+        <v>12.405</v>
+      </c>
+      <c r="I2">
         <v>12.33</v>
-      </c>
-      <c r="F2">
-        <v>12.31</v>
-      </c>
-      <c r="G2">
-        <v>12.365</v>
-      </c>
-      <c r="I2">
-        <v>12.3</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2735,19 +2723,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>11.98</v>
+        <v>12.095</v>
       </c>
       <c r="E3">
-        <v>12.185</v>
+        <v>12.37</v>
       </c>
       <c r="F3">
-        <v>12.205</v>
+        <v>12.36</v>
       </c>
       <c r="G3">
-        <v>12.33</v>
+        <v>12.445</v>
       </c>
       <c r="I3">
-        <v>12.3</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2755,19 +2743,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>11.676</v>
+        <v>11.905</v>
       </c>
       <c r="E4">
-        <v>11.885</v>
+        <v>12.063</v>
       </c>
       <c r="F4">
-        <v>11.865</v>
+        <v>12.065</v>
       </c>
       <c r="G4">
-        <v>11.99</v>
+        <v>12.135</v>
       </c>
       <c r="I4">
-        <v>11.99</v>
+        <v>12.14</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2775,19 +2763,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>11.783</v>
+        <v>11.605</v>
       </c>
       <c r="E5">
-        <v>11.927</v>
+        <v>11.745</v>
       </c>
       <c r="F5">
-        <v>12.01</v>
+        <v>11.725</v>
       </c>
       <c r="G5">
-        <v>12.215</v>
+        <v>11.86</v>
       </c>
       <c r="I5">
-        <v>12.19</v>
+        <v>11.83</v>
       </c>
     </row>
   </sheetData>
@@ -2846,25 +2834,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>2.117</v>
+        <v>2.185</v>
       </c>
       <c r="F2">
-        <v>2.012</v>
+        <v>2.096</v>
       </c>
       <c r="G2">
-        <v>2.193</v>
+        <v>2.228</v>
       </c>
       <c r="H2">
-        <v>2.272</v>
+        <v>2.296</v>
       </c>
       <c r="I2">
-        <v>2.718</v>
+        <v>2.742</v>
       </c>
       <c r="J2">
-        <v>3.033</v>
+        <v>3.036</v>
       </c>
       <c r="L2">
-        <v>3.207</v>
+        <v>3.193</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2872,25 +2860,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>2.195</v>
+        <v>2.097</v>
       </c>
       <c r="F3">
-        <v>2.079</v>
+        <v>1.965</v>
       </c>
       <c r="G3">
-        <v>2.224</v>
+        <v>2.106</v>
       </c>
       <c r="H3">
-        <v>2.32</v>
+        <v>2.191</v>
       </c>
       <c r="I3">
-        <v>2.78</v>
+        <v>2.629</v>
       </c>
       <c r="J3">
-        <v>3.089</v>
+        <v>2.928</v>
       </c>
       <c r="L3">
-        <v>3.249</v>
+        <v>3.097</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2898,25 +2886,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>2.31</v>
+        <v>2.289</v>
       </c>
       <c r="F4">
-        <v>2.21</v>
+        <v>2.223</v>
       </c>
       <c r="G4">
-        <v>2.258</v>
+        <v>2.281</v>
       </c>
       <c r="H4">
-        <v>2.329</v>
+        <v>2.356</v>
       </c>
       <c r="I4">
-        <v>2.736</v>
+        <v>2.778</v>
       </c>
       <c r="J4">
-        <v>3.063</v>
+        <v>3.102</v>
       </c>
       <c r="L4">
-        <v>3.192</v>
+        <v>3.245</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2924,25 +2912,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>2.46</v>
+        <v>2.377</v>
       </c>
       <c r="F5">
-        <v>2.382</v>
+        <v>2.26</v>
       </c>
       <c r="G5">
-        <v>2.438</v>
+        <v>2.316</v>
       </c>
       <c r="H5">
-        <v>2.51</v>
+        <v>2.384</v>
       </c>
       <c r="I5">
-        <v>2.897</v>
+        <v>2.803</v>
       </c>
       <c r="J5">
-        <v>3.19</v>
+        <v>3.1</v>
       </c>
       <c r="L5">
-        <v>3.333</v>
+        <v>3.24</v>
       </c>
     </row>
   </sheetData>
@@ -3001,37 +2989,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>4.935</v>
+        <v>4.885</v>
       </c>
       <c r="C2">
-        <v>4.77</v>
+        <v>4.754</v>
       </c>
       <c r="D2">
-        <v>4.38</v>
+        <v>4.458</v>
       </c>
       <c r="E2">
-        <v>4.0075</v>
+        <v>4.135</v>
       </c>
       <c r="F2">
-        <v>3.789</v>
+        <v>3.916</v>
       </c>
       <c r="G2">
-        <v>3.8915</v>
+        <v>4.018</v>
       </c>
       <c r="H2">
-        <v>3.9405</v>
+        <v>4.033</v>
       </c>
       <c r="I2">
-        <v>4.0455</v>
+        <v>4.133</v>
       </c>
       <c r="J2">
-        <v>4.3535</v>
+        <v>4.415</v>
       </c>
       <c r="K2">
-        <v>4.582</v>
+        <v>4.609</v>
       </c>
       <c r="L2">
-        <v>4.664</v>
+        <v>4.678</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3039,37 +3027,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.935</v>
+        <v>4.918</v>
       </c>
       <c r="C3">
-        <v>4.729</v>
+        <v>4.714</v>
       </c>
       <c r="D3">
-        <v>4.346</v>
+        <v>4.383</v>
       </c>
       <c r="E3">
-        <v>3.964</v>
+        <v>3.954</v>
       </c>
       <c r="F3">
-        <v>3.743</v>
+        <v>3.739</v>
       </c>
       <c r="G3">
-        <v>3.838</v>
+        <v>3.822</v>
       </c>
       <c r="H3">
-        <v>3.878</v>
+        <v>3.837</v>
       </c>
       <c r="I3">
-        <v>3.992</v>
+        <v>3.943</v>
       </c>
       <c r="J3">
-        <v>4.287</v>
+        <v>4.231</v>
       </c>
       <c r="K3">
-        <v>4.491</v>
+        <v>4.44</v>
       </c>
       <c r="L3">
-        <v>4.565</v>
+        <v>4.514</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3077,37 +3065,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.911</v>
+        <v>4.961</v>
       </c>
       <c r="C4">
-        <v>4.746</v>
+        <v>4.67</v>
       </c>
       <c r="D4">
-        <v>4.246</v>
+        <v>4.323</v>
       </c>
       <c r="E4">
-        <v>3.803</v>
+        <v>3.925</v>
       </c>
       <c r="F4">
-        <v>3.545</v>
+        <v>3.681</v>
       </c>
       <c r="G4">
-        <v>3.624</v>
+        <v>3.748</v>
       </c>
       <c r="H4">
-        <v>3.636</v>
+        <v>3.77</v>
       </c>
       <c r="I4">
-        <v>3.769</v>
+        <v>3.893</v>
       </c>
       <c r="J4">
-        <v>4.058</v>
+        <v>4.179</v>
       </c>
       <c r="K4">
-        <v>4.274</v>
+        <v>4.385</v>
       </c>
       <c r="L4">
-        <v>4.361</v>
+        <v>4.463</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3118,34 +3106,34 @@
         <v>4.98</v>
       </c>
       <c r="C5">
-        <v>4.894</v>
+        <v>4.834</v>
       </c>
       <c r="D5">
-        <v>4.477</v>
+        <v>4.315</v>
       </c>
       <c r="E5">
-        <v>4.113</v>
+        <v>3.956</v>
       </c>
       <c r="F5">
-        <v>3.863</v>
+        <v>3.706</v>
       </c>
       <c r="G5">
-        <v>3.912</v>
+        <v>3.773</v>
       </c>
       <c r="H5">
-        <v>3.915</v>
+        <v>3.772</v>
       </c>
       <c r="I5">
-        <v>4.016</v>
+        <v>3.891</v>
       </c>
       <c r="J5">
-        <v>4.281</v>
+        <v>4.176</v>
       </c>
       <c r="K5">
-        <v>4.46</v>
+        <v>4.367</v>
       </c>
       <c r="L5">
-        <v>4.539</v>
+        <v>4.435</v>
       </c>
     </row>
   </sheetData>
@@ -3204,37 +3192,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="C2">
         <v>0.083</v>
       </c>
       <c r="D2">
-        <v>0.263</v>
+        <v>0.236</v>
       </c>
       <c r="E2">
-        <v>0.38</v>
+        <v>0.384</v>
       </c>
       <c r="F2">
-        <v>0.393</v>
+        <v>0.381</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H2">
-        <v>0.595</v>
+        <v>0.608</v>
       </c>
       <c r="I2">
-        <v>0.865</v>
+        <v>0.904</v>
       </c>
       <c r="J2">
-        <v>1.396</v>
+        <v>1.386</v>
       </c>
       <c r="K2">
-        <v>1.703</v>
+        <v>1.692</v>
       </c>
       <c r="L2">
-        <v>2.105</v>
+        <v>2.112</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3242,37 +3230,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.053</v>
+        <v>0.035</v>
       </c>
       <c r="C3">
-        <v>0.08599999999999999</v>
+        <v>0.089</v>
       </c>
       <c r="D3">
-        <v>0.215</v>
+        <v>0.245</v>
       </c>
       <c r="E3">
-        <v>0.316</v>
+        <v>0.387</v>
       </c>
       <c r="F3">
-        <v>0.356</v>
+        <v>0.401</v>
       </c>
       <c r="G3">
-        <v>0.464</v>
+        <v>0.499</v>
       </c>
       <c r="H3">
-        <v>0.586</v>
+        <v>0.606</v>
       </c>
       <c r="I3">
-        <v>0.831</v>
+        <v>0.855</v>
       </c>
       <c r="J3">
-        <v>1.502</v>
+        <v>1.506</v>
       </c>
       <c r="K3">
         <v>1.667</v>
       </c>
       <c r="L3">
-        <v>2.102</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3280,37 +3268,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.098</v>
+        <v>0.054</v>
       </c>
       <c r="C4">
-        <v>0.098</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D4">
-        <v>0.235</v>
+        <v>0.262</v>
       </c>
       <c r="E4">
-        <v>0.377</v>
+        <v>0.391</v>
       </c>
       <c r="F4">
-        <v>0.383</v>
+        <v>0.41</v>
       </c>
       <c r="G4">
-        <v>0.485</v>
+        <v>0.506</v>
       </c>
       <c r="H4">
-        <v>0.548</v>
+        <v>0.627</v>
       </c>
       <c r="I4">
-        <v>0.833</v>
+        <v>0.866</v>
       </c>
       <c r="J4">
-        <v>1.344</v>
+        <v>1.537</v>
       </c>
       <c r="K4">
-        <v>1.652</v>
+        <v>1.699</v>
       </c>
       <c r="L4">
-        <v>2.035</v>
+        <v>2.085</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3318,37 +3306,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.104</v>
+        <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.098</v>
+        <v>0.105</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>0.252</v>
       </c>
       <c r="E5">
-        <v>0.361</v>
+        <v>0.38</v>
       </c>
       <c r="F5">
-        <v>0.385</v>
+        <v>0.393</v>
       </c>
       <c r="G5">
-        <v>0.498</v>
+        <v>0.495</v>
       </c>
       <c r="H5">
-        <v>0.626</v>
+        <v>0.576</v>
       </c>
       <c r="I5">
-        <v>0.891</v>
+        <v>0.851</v>
       </c>
       <c r="J5">
-        <v>1.533</v>
+        <v>1.484</v>
       </c>
       <c r="K5">
-        <v>1.711</v>
+        <v>1.66</v>
       </c>
       <c r="L5">
-        <v>2.085</v>
+        <v>2.011</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -8,26 +8,28 @@
   </bookViews>
   <sheets>
     <sheet name="Canada" sheetId="1" r:id="rId1"/>
-    <sheet name="France" sheetId="2" r:id="rId2"/>
-    <sheet name="Germany" sheetId="3" r:id="rId3"/>
-    <sheet name="Brazil" sheetId="4" r:id="rId4"/>
-    <sheet name="Portugal" sheetId="5" r:id="rId5"/>
-    <sheet name="UK" sheetId="6" r:id="rId6"/>
-    <sheet name="Japan" sheetId="7" r:id="rId7"/>
-    <sheet name="US" sheetId="8" r:id="rId8"/>
-    <sheet name="Australia" sheetId="9" r:id="rId9"/>
-    <sheet name="Italy" sheetId="10" r:id="rId10"/>
-    <sheet name="Switzerland" sheetId="11" r:id="rId11"/>
-    <sheet name="China" sheetId="12" r:id="rId12"/>
-    <sheet name="South Africa" sheetId="13" r:id="rId13"/>
-    <sheet name="Turkey" sheetId="14" r:id="rId14"/>
+    <sheet name="India" sheetId="2" r:id="rId2"/>
+    <sheet name="France" sheetId="3" r:id="rId3"/>
+    <sheet name="Germany" sheetId="4" r:id="rId4"/>
+    <sheet name="Poland" sheetId="5" r:id="rId5"/>
+    <sheet name="Brazil" sheetId="6" r:id="rId6"/>
+    <sheet name="UK" sheetId="7" r:id="rId7"/>
+    <sheet name="Japan" sheetId="8" r:id="rId8"/>
+    <sheet name="US" sheetId="9" r:id="rId9"/>
+    <sheet name="Russia" sheetId="10" r:id="rId10"/>
+    <sheet name="Australia" sheetId="11" r:id="rId11"/>
+    <sheet name="Italy" sheetId="12" r:id="rId12"/>
+    <sheet name="Switzerland" sheetId="13" r:id="rId13"/>
+    <sheet name="China" sheetId="14" r:id="rId14"/>
+    <sheet name="South Africa" sheetId="15" r:id="rId15"/>
+    <sheet name="Turkey" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="16">
   <si>
     <t>Period</t>
   </si>
@@ -480,32 +482,32 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>3.51</v>
+      <c r="I2">
+        <v>3.297</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>3.52</v>
+      <c r="I3">
+        <v>3.254</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>3.52</v>
+      <c r="I4">
+        <v>3.16</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>3.85</v>
+      <c r="I5">
+        <v>3.717</v>
       </c>
     </row>
   </sheetData>
@@ -563,32 +565,68 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>2.917</v>
+      <c r="E2">
+        <v>18.09</v>
+      </c>
+      <c r="F2">
+        <v>17.42</v>
+      </c>
+      <c r="I2">
+        <v>15.115</v>
+      </c>
+      <c r="J2">
+        <v>15.35</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>2.982</v>
+      <c r="E3">
+        <v>18.22</v>
+      </c>
+      <c r="F3">
+        <v>17.15</v>
+      </c>
+      <c r="I3">
+        <v>14.995</v>
+      </c>
+      <c r="J3">
+        <v>15.26</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
-        <v>2.916</v>
+      <c r="E4">
+        <v>17.78</v>
+      </c>
+      <c r="F4">
+        <v>16.87</v>
+      </c>
+      <c r="I4">
+        <v>14.8</v>
+      </c>
+      <c r="J4">
+        <v>15.07</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>3.091</v>
+      <c r="E5">
+        <v>15.855</v>
+      </c>
+      <c r="F5">
+        <v>14.97</v>
+      </c>
+      <c r="I5">
+        <v>14.535</v>
+      </c>
+      <c r="J5">
+        <v>13.865</v>
       </c>
     </row>
   </sheetData>
@@ -646,32 +684,44 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="H2">
-        <v>0.297</v>
+      <c r="G2">
+        <v>4.275</v>
+      </c>
+      <c r="J2">
+        <v>4.819</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="H3">
-        <v>0.368</v>
+      <c r="G3">
+        <v>4.208</v>
+      </c>
+      <c r="J3">
+        <v>4.747</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="H4">
-        <v>0.435</v>
+      <c r="G4">
+        <v>4.135</v>
+      </c>
+      <c r="J4">
+        <v>4.716</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="H5">
-        <v>0.966</v>
+      <c r="G5">
+        <v>3.853</v>
+      </c>
+      <c r="J5">
+        <v>4.427</v>
       </c>
     </row>
   </sheetData>
@@ -729,44 +779,56 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>1.41</v>
-      </c>
-      <c r="I2">
-        <v>2.12</v>
+      <c r="D2">
+        <v>2.542</v>
+      </c>
+      <c r="F2">
+        <v>2.507</v>
+      </c>
+      <c r="G2">
+        <v>2.93</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>1.43</v>
-      </c>
-      <c r="I3">
-        <v>2.12</v>
+      <c r="D3">
+        <v>2.621</v>
+      </c>
+      <c r="F3">
+        <v>2.577</v>
+      </c>
+      <c r="G3">
+        <v>3.013</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>1.551</v>
-      </c>
-      <c r="I4">
-        <v>2.144</v>
+      <c r="D4">
+        <v>2.796</v>
+      </c>
+      <c r="F4">
+        <v>2.706</v>
+      </c>
+      <c r="G4">
+        <v>3.08</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>1.441</v>
-      </c>
-      <c r="I5">
-        <v>2.142</v>
+      <c r="D5">
+        <v>2.78</v>
+      </c>
+      <c r="F5">
+        <v>2.47</v>
+      </c>
+      <c r="G5">
+        <v>2.805</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +887,16 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.95</v>
+        <v>0.585</v>
+      </c>
+      <c r="F2">
+        <v>0.234</v>
+      </c>
+      <c r="G2">
+        <v>0.251</v>
+      </c>
+      <c r="H2">
+        <v>0.292</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -833,7 +904,16 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>8.050000000000001</v>
+        <v>0.78</v>
+      </c>
+      <c r="F3">
+        <v>0.243</v>
+      </c>
+      <c r="G3">
+        <v>0.264</v>
+      </c>
+      <c r="H3">
+        <v>0.287</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -841,7 +921,16 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7.7</v>
+        <v>0.655</v>
+      </c>
+      <c r="F4">
+        <v>0.308</v>
+      </c>
+      <c r="G4">
+        <v>0.313</v>
+      </c>
+      <c r="H4">
+        <v>0.34</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -849,7 +938,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>7.8</v>
+        <v>0.59</v>
+      </c>
+      <c r="F5">
+        <v>0.355</v>
+      </c>
+      <c r="G5">
+        <v>0.356</v>
+      </c>
+      <c r="H5">
+        <v>0.389</v>
       </c>
     </row>
   </sheetData>
@@ -907,32 +1005,294 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>41.114</v>
+      <c r="D2">
+        <v>1.36</v>
+      </c>
+      <c r="E2">
+        <v>1.4</v>
+      </c>
+      <c r="G2">
+        <v>1.7</v>
+      </c>
+      <c r="H2">
+        <v>1.92</v>
+      </c>
+      <c r="K2">
+        <v>2.29</v>
+      </c>
+      <c r="L2">
+        <v>2.26</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>42.217</v>
+      <c r="D3">
+        <v>1.36</v>
+      </c>
+      <c r="E3">
+        <v>1.41</v>
+      </c>
+      <c r="G3">
+        <v>1.71</v>
+      </c>
+      <c r="H3">
+        <v>1.91</v>
+      </c>
+      <c r="K3">
+        <v>2.26</v>
+      </c>
+      <c r="L3">
+        <v>2.23</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>41.757</v>
+      <c r="D4">
+        <v>1.371</v>
+      </c>
+      <c r="E4">
+        <v>1.468</v>
+      </c>
+      <c r="G4">
+        <v>1.81</v>
+      </c>
+      <c r="H4">
+        <v>2.028</v>
+      </c>
+      <c r="K4">
+        <v>2.36</v>
+      </c>
+      <c r="L4">
+        <v>2.334</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="D5">
+        <v>1.46</v>
+      </c>
+      <c r="E5">
+        <v>1.423</v>
+      </c>
+      <c r="G5">
+        <v>1.727</v>
+      </c>
+      <c r="H5">
+        <v>2.015</v>
+      </c>
+      <c r="K5">
+        <v>2.33</v>
+      </c>
+      <c r="L5">
+        <v>2.245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>9.137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>9.205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>9.295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
       <c r="B5">
-        <v>49.051</v>
+        <v>7.7</v>
+      </c>
+      <c r="I5">
+        <v>9.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>39.17</v>
+      </c>
+      <c r="C2">
+        <v>43.573</v>
+      </c>
+      <c r="G2">
+        <v>35.445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>42.058</v>
+      </c>
+      <c r="C3">
+        <v>44.011</v>
+      </c>
+      <c r="G3">
+        <v>32.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>42.117</v>
+      </c>
+      <c r="C4">
+        <v>44.91</v>
+      </c>
+      <c r="G4">
+        <v>32.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>41.507</v>
+      </c>
+      <c r="C5">
+        <v>45.207</v>
+      </c>
+      <c r="G5">
+        <v>31.49</v>
       </c>
     </row>
   </sheetData>
@@ -990,56 +1350,56 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>2.999</v>
-      </c>
-      <c r="D2">
-        <v>2.589</v>
-      </c>
-      <c r="J2">
-        <v>3.29</v>
+      <c r="C2">
+        <v>6.6</v>
+      </c>
+      <c r="E2">
+        <v>6.67</v>
+      </c>
+      <c r="I2">
+        <v>6.82</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>3.08</v>
-      </c>
-      <c r="D3">
-        <v>2.659</v>
-      </c>
-      <c r="J3">
-        <v>3.312</v>
+      <c r="C3">
+        <v>6.58</v>
+      </c>
+      <c r="E3">
+        <v>6.67</v>
+      </c>
+      <c r="I3">
+        <v>6.78</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>3.063</v>
-      </c>
-      <c r="D4">
-        <v>2.527</v>
-      </c>
-      <c r="J4">
-        <v>3.22</v>
+      <c r="C4">
+        <v>6.62</v>
+      </c>
+      <c r="E4">
+        <v>6.698</v>
+      </c>
+      <c r="I4">
+        <v>6.847</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>3.17</v>
-      </c>
-      <c r="D5">
-        <v>2.786</v>
-      </c>
-      <c r="J5">
-        <v>3.239</v>
+      <c r="C5">
+        <v>6.57</v>
+      </c>
+      <c r="E5">
+        <v>6.654</v>
+      </c>
+      <c r="I5">
+        <v>6.773</v>
       </c>
     </row>
   </sheetData>
@@ -1097,32 +1457,80 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="I2">
-        <v>2.364</v>
+      <c r="B2">
+        <v>2.941</v>
+      </c>
+      <c r="E2">
+        <v>2.278</v>
+      </c>
+      <c r="H2">
+        <v>2.7674</v>
+      </c>
+      <c r="J2">
+        <v>3.243</v>
+      </c>
+      <c r="K2">
+        <v>3.361</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="I3">
-        <v>2.43</v>
+      <c r="B3">
+        <v>2.968</v>
+      </c>
+      <c r="E3">
+        <v>2.316</v>
+      </c>
+      <c r="H3">
+        <v>2.8043</v>
+      </c>
+      <c r="J3">
+        <v>3.294</v>
+      </c>
+      <c r="K3">
+        <v>3.408</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="I4">
-        <v>2.257</v>
+      <c r="B4">
+        <v>3.095</v>
+      </c>
+      <c r="E4">
+        <v>2.433</v>
+      </c>
+      <c r="H4">
+        <v>2.849</v>
+      </c>
+      <c r="J4">
+        <v>3.315</v>
+      </c>
+      <c r="K4">
+        <v>3.42</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="I5">
-        <v>2.253</v>
+      <c r="B5">
+        <v>3.146</v>
+      </c>
+      <c r="E5">
+        <v>2.362</v>
+      </c>
+      <c r="H5">
+        <v>2.607</v>
+      </c>
+      <c r="J5">
+        <v>3.145</v>
+      </c>
+      <c r="K5">
+        <v>3.288</v>
       </c>
     </row>
   </sheetData>
@@ -1180,56 +1588,92 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>13.19</v>
-      </c>
-      <c r="G2">
-        <v>13.025</v>
+      <c r="B2">
+        <v>2.88</v>
+      </c>
+      <c r="D2">
+        <v>2.424</v>
+      </c>
+      <c r="F2">
+        <v>2.045</v>
       </c>
       <c r="I2">
-        <v>12.755</v>
+        <v>2.3485</v>
+      </c>
+      <c r="J2">
+        <v>2.581</v>
+      </c>
+      <c r="L2">
+        <v>2.568</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>12.94</v>
-      </c>
-      <c r="G3">
-        <v>12.99</v>
+      <c r="B3">
+        <v>2.9</v>
+      </c>
+      <c r="D3">
+        <v>2.46</v>
+      </c>
+      <c r="F3">
+        <v>2.049</v>
       </c>
       <c r="I3">
-        <v>12.82</v>
+        <v>2.3525</v>
+      </c>
+      <c r="J3">
+        <v>2.576</v>
+      </c>
+      <c r="L3">
+        <v>2.558</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>12.788</v>
-      </c>
-      <c r="G4">
-        <v>12.895</v>
+      <c r="B4">
+        <v>2.75</v>
+      </c>
+      <c r="D4">
+        <v>2.466</v>
+      </c>
+      <c r="F4">
+        <v>2.147</v>
       </c>
       <c r="I4">
-        <v>12.785</v>
+        <v>2.3915</v>
+      </c>
+      <c r="J4">
+        <v>2.624</v>
+      </c>
+      <c r="L4">
+        <v>2.597</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>12.675</v>
-      </c>
-      <c r="G5">
-        <v>12.615</v>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2.51</v>
+      </c>
+      <c r="F5">
+        <v>2.016</v>
       </c>
       <c r="I5">
-        <v>12.46</v>
+        <v>2.177</v>
+      </c>
+      <c r="J5">
+        <v>2.46</v>
+      </c>
+      <c r="L5">
+        <v>2.47</v>
       </c>
     </row>
   </sheetData>
@@ -1287,32 +1731,44 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="H2">
-        <v>2.438</v>
+      <c r="F2">
+        <v>5.014</v>
+      </c>
+      <c r="G2">
+        <v>5.377</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="H3">
-        <v>2.483</v>
+      <c r="F3">
+        <v>5.055</v>
+      </c>
+      <c r="G3">
+        <v>5.391</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="H4">
-        <v>2.259</v>
+      <c r="F4">
+        <v>5.016</v>
+      </c>
+      <c r="G4">
+        <v>5.527</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="H5">
-        <v>2.336</v>
+      <c r="F5">
+        <v>5.001</v>
+      </c>
+      <c r="G5">
+        <v>5.288</v>
       </c>
     </row>
   </sheetData>
@@ -1370,44 +1826,32 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>4.856</v>
-      </c>
       <c r="D2">
-        <v>4.6375</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>4.856</v>
-      </c>
       <c r="D3">
-        <v>4.6635</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
-        <v>4.653</v>
-      </c>
       <c r="D4">
-        <v>4.435</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>4.745</v>
-      </c>
       <c r="D5">
-        <v>4.468</v>
+        <v>12.425</v>
       </c>
     </row>
   </sheetData>
@@ -1465,68 +1909,80 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>0.201</v>
-      </c>
-      <c r="D2">
-        <v>0.378</v>
-      </c>
-      <c r="E2">
-        <v>0.506</v>
+      <c r="B2">
+        <v>4.735</v>
+      </c>
+      <c r="F2">
+        <v>4.207</v>
+      </c>
+      <c r="H2">
+        <v>4.3665</v>
       </c>
       <c r="J2">
-        <v>1.505</v>
+        <v>4.7235</v>
+      </c>
+      <c r="L2">
+        <v>4.922</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>0.135</v>
-      </c>
-      <c r="D3">
-        <v>0.335</v>
-      </c>
-      <c r="E3">
-        <v>0.455</v>
+      <c r="B3">
+        <v>4.764</v>
+      </c>
+      <c r="F3">
+        <v>4.3</v>
+      </c>
+      <c r="H3">
+        <v>4.4225</v>
       </c>
       <c r="J3">
-        <v>1.452</v>
+        <v>4.734</v>
+      </c>
+      <c r="L3">
+        <v>4.916</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
-        <v>0.097</v>
-      </c>
-      <c r="D4">
-        <v>0.339</v>
-      </c>
-      <c r="E4">
-        <v>0.449</v>
+      <c r="B4">
+        <v>4.851</v>
+      </c>
+      <c r="F4">
+        <v>4.22</v>
+      </c>
+      <c r="H4">
+        <v>4.345</v>
       </c>
       <c r="J4">
-        <v>1.601</v>
+        <v>4.683</v>
+      </c>
+      <c r="L4">
+        <v>4.866</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>0.079</v>
-      </c>
-      <c r="D5">
-        <v>0.266</v>
-      </c>
-      <c r="E5">
-        <v>0.412</v>
+      <c r="B5">
+        <v>4.78</v>
+      </c>
+      <c r="F5">
+        <v>3.787</v>
+      </c>
+      <c r="H5">
+        <v>3.963</v>
       </c>
       <c r="J5">
-        <v>1.603</v>
+        <v>4.332</v>
+      </c>
+      <c r="L5">
+        <v>4.595</v>
       </c>
     </row>
   </sheetData>
@@ -1584,44 +2040,56 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="F2">
+        <v>0.578</v>
+      </c>
       <c r="G2">
-        <v>4.192</v>
+        <v>0.705</v>
       </c>
       <c r="L2">
-        <v>4.472</v>
+        <v>2.264</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="F3">
+        <v>0.525</v>
+      </c>
       <c r="G3">
-        <v>4.156</v>
+        <v>0.654</v>
       </c>
       <c r="L3">
-        <v>4.44</v>
+        <v>2.232</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="F4">
+        <v>0.458</v>
+      </c>
       <c r="G4">
-        <v>4.021</v>
+        <v>0.582</v>
       </c>
       <c r="L4">
-        <v>4.467</v>
+        <v>2.201</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="F5">
+        <v>0.441</v>
+      </c>
       <c r="G5">
-        <v>3.889</v>
+        <v>0.579</v>
       </c>
       <c r="L5">
-        <v>4.385</v>
+        <v>2.156</v>
       </c>
     </row>
   </sheetData>
@@ -1679,32 +2147,32 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>4.177</v>
+      <c r="H2">
+        <v>4.38</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
-        <v>4.19</v>
+      <c r="H3">
+        <v>4.378</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="G4">
-        <v>4.059</v>
+      <c r="H4">
+        <v>4.223</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="G5">
-        <v>3.877</v>
+      <c r="H5">
+        <v>3.921</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -7,29 +7,27 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Canada" sheetId="1" r:id="rId1"/>
-    <sheet name="India" sheetId="2" r:id="rId2"/>
-    <sheet name="France" sheetId="3" r:id="rId3"/>
-    <sheet name="Germany" sheetId="4" r:id="rId4"/>
-    <sheet name="Poland" sheetId="5" r:id="rId5"/>
-    <sheet name="Brazil" sheetId="6" r:id="rId6"/>
-    <sheet name="UK" sheetId="7" r:id="rId7"/>
-    <sheet name="Japan" sheetId="8" r:id="rId8"/>
-    <sheet name="US" sheetId="9" r:id="rId9"/>
-    <sheet name="Russia" sheetId="10" r:id="rId10"/>
-    <sheet name="Australia" sheetId="11" r:id="rId11"/>
-    <sheet name="Italy" sheetId="12" r:id="rId12"/>
-    <sheet name="Switzerland" sheetId="13" r:id="rId13"/>
-    <sheet name="China" sheetId="14" r:id="rId14"/>
-    <sheet name="South Africa" sheetId="15" r:id="rId15"/>
-    <sheet name="Turkey" sheetId="16" r:id="rId16"/>
+    <sheet name="India" sheetId="1" r:id="rId1"/>
+    <sheet name="France" sheetId="2" r:id="rId2"/>
+    <sheet name="Germany" sheetId="3" r:id="rId3"/>
+    <sheet name="Brazil" sheetId="4" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="5" r:id="rId5"/>
+    <sheet name="Japan" sheetId="6" r:id="rId6"/>
+    <sheet name="US" sheetId="7" r:id="rId7"/>
+    <sheet name="Russia" sheetId="8" r:id="rId8"/>
+    <sheet name="Australia" sheetId="9" r:id="rId9"/>
+    <sheet name="Italy" sheetId="10" r:id="rId10"/>
+    <sheet name="Switzerland" sheetId="11" r:id="rId11"/>
+    <sheet name="China" sheetId="12" r:id="rId12"/>
+    <sheet name="South Africa" sheetId="13" r:id="rId13"/>
+    <sheet name="Turkey" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="16">
   <si>
     <t>Period</t>
   </si>
@@ -482,32 +480,68 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="I2">
-        <v>3.297</v>
+      <c r="B2">
+        <v>6.47</v>
+      </c>
+      <c r="F2">
+        <v>6.72</v>
+      </c>
+      <c r="G2">
+        <v>6.7</v>
+      </c>
+      <c r="J2">
+        <v>6.89</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="I3">
-        <v>3.254</v>
+      <c r="B3">
+        <v>6.47</v>
+      </c>
+      <c r="F3">
+        <v>6.72</v>
+      </c>
+      <c r="G3">
+        <v>6.7</v>
+      </c>
+      <c r="J3">
+        <v>6.89</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="I4">
-        <v>3.16</v>
+      <c r="B4">
+        <v>6.47</v>
+      </c>
+      <c r="F4">
+        <v>6.72</v>
+      </c>
+      <c r="G4">
+        <v>6.7</v>
+      </c>
+      <c r="J4">
+        <v>6.89</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="I5">
-        <v>3.717</v>
+      <c r="B5">
+        <v>6.53</v>
+      </c>
+      <c r="F5">
+        <v>6.746</v>
+      </c>
+      <c r="G5">
+        <v>6.767</v>
+      </c>
+      <c r="J5">
+        <v>6.879</v>
       </c>
     </row>
   </sheetData>
@@ -565,68 +599,32 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>18.09</v>
-      </c>
-      <c r="F2">
-        <v>17.42</v>
-      </c>
-      <c r="I2">
-        <v>15.115</v>
-      </c>
       <c r="J2">
-        <v>15.35</v>
+        <v>3.612</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>18.22</v>
-      </c>
-      <c r="F3">
-        <v>17.15</v>
-      </c>
-      <c r="I3">
-        <v>14.995</v>
-      </c>
       <c r="J3">
-        <v>15.26</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>17.78</v>
-      </c>
-      <c r="F4">
-        <v>16.87</v>
-      </c>
-      <c r="I4">
-        <v>14.8</v>
-      </c>
       <c r="J4">
-        <v>15.07</v>
+        <v>3.864</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>15.855</v>
-      </c>
-      <c r="F5">
-        <v>14.97</v>
-      </c>
-      <c r="I5">
-        <v>14.535</v>
-      </c>
       <c r="J5">
-        <v>13.865</v>
+        <v>3.988</v>
       </c>
     </row>
   </sheetData>
@@ -685,10 +683,10 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>4.275</v>
-      </c>
-      <c r="J2">
-        <v>4.819</v>
+        <v>0.083</v>
+      </c>
+      <c r="L2">
+        <v>0.221</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -696,10 +694,10 @@
         <v>13</v>
       </c>
       <c r="G3">
-        <v>4.208</v>
-      </c>
-      <c r="J3">
-        <v>4.747</v>
+        <v>0.184</v>
+      </c>
+      <c r="L3">
+        <v>0.336</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -707,10 +705,10 @@
         <v>14</v>
       </c>
       <c r="G4">
-        <v>4.135</v>
-      </c>
-      <c r="J4">
-        <v>4.716</v>
+        <v>0.24</v>
+      </c>
+      <c r="L4">
+        <v>0.403</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -718,10 +716,10 @@
         <v>15</v>
       </c>
       <c r="G5">
-        <v>3.853</v>
-      </c>
-      <c r="J5">
-        <v>4.427</v>
+        <v>0.294</v>
+      </c>
+      <c r="L5">
+        <v>0.383</v>
       </c>
     </row>
   </sheetData>
@@ -780,13 +778,10 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>2.542</v>
-      </c>
-      <c r="F2">
-        <v>2.507</v>
-      </c>
-      <c r="G2">
-        <v>2.93</v>
+        <v>1.37</v>
+      </c>
+      <c r="L2">
+        <v>2.2</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -794,13 +789,10 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>2.621</v>
-      </c>
-      <c r="F3">
-        <v>2.577</v>
-      </c>
-      <c r="G3">
-        <v>3.013</v>
+        <v>1.34</v>
+      </c>
+      <c r="L3">
+        <v>2.24</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -808,13 +800,10 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>2.796</v>
-      </c>
-      <c r="F4">
-        <v>2.706</v>
-      </c>
-      <c r="G4">
-        <v>3.08</v>
+        <v>1.38</v>
+      </c>
+      <c r="L4">
+        <v>2.277</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -822,13 +811,10 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>2.78</v>
-      </c>
-      <c r="F5">
-        <v>2.47</v>
-      </c>
-      <c r="G5">
-        <v>2.805</v>
+        <v>1.376</v>
+      </c>
+      <c r="L5">
+        <v>2.334</v>
       </c>
     </row>
   </sheetData>
@@ -886,68 +872,44 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>0.585</v>
-      </c>
-      <c r="F2">
-        <v>0.234</v>
-      </c>
-      <c r="G2">
-        <v>0.251</v>
-      </c>
-      <c r="H2">
-        <v>0.292</v>
+      <c r="I2">
+        <v>8.903</v>
+      </c>
+      <c r="L2">
+        <v>10.855</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>0.78</v>
-      </c>
-      <c r="F3">
-        <v>0.243</v>
-      </c>
-      <c r="G3">
-        <v>0.264</v>
-      </c>
-      <c r="H3">
-        <v>0.287</v>
+      <c r="I3">
+        <v>9.035</v>
+      </c>
+      <c r="L3">
+        <v>10.905</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>0.655</v>
-      </c>
-      <c r="F4">
-        <v>0.308</v>
-      </c>
-      <c r="G4">
-        <v>0.313</v>
-      </c>
-      <c r="H4">
-        <v>0.34</v>
+      <c r="I4">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="L4">
+        <v>11.145</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>0.59</v>
-      </c>
-      <c r="F5">
-        <v>0.355</v>
-      </c>
-      <c r="G5">
-        <v>0.356</v>
-      </c>
-      <c r="H5">
-        <v>0.389</v>
+      <c r="I5">
+        <v>9.307</v>
+      </c>
+      <c r="L5">
+        <v>11.305</v>
       </c>
     </row>
   </sheetData>
@@ -1005,294 +967,32 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>1.36</v>
-      </c>
       <c r="E2">
-        <v>1.4</v>
-      </c>
-      <c r="G2">
-        <v>1.7</v>
-      </c>
-      <c r="H2">
-        <v>1.92</v>
-      </c>
-      <c r="K2">
-        <v>2.29</v>
-      </c>
-      <c r="L2">
-        <v>2.26</v>
+        <v>37.29</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>1.36</v>
-      </c>
       <c r="E3">
-        <v>1.41</v>
-      </c>
-      <c r="G3">
-        <v>1.71</v>
-      </c>
-      <c r="H3">
-        <v>1.91</v>
-      </c>
-      <c r="K3">
-        <v>2.26</v>
-      </c>
-      <c r="L3">
-        <v>2.23</v>
+        <v>37.35</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>1.371</v>
-      </c>
       <c r="E4">
-        <v>1.468</v>
-      </c>
-      <c r="G4">
-        <v>1.81</v>
-      </c>
-      <c r="H4">
-        <v>2.028</v>
-      </c>
-      <c r="K4">
-        <v>2.36</v>
-      </c>
-      <c r="L4">
-        <v>2.334</v>
+        <v>38.95</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>1.46</v>
-      </c>
       <c r="E5">
-        <v>1.423</v>
-      </c>
-      <c r="G5">
-        <v>1.727</v>
-      </c>
-      <c r="H5">
-        <v>2.015</v>
-      </c>
-      <c r="K5">
-        <v>2.33</v>
-      </c>
-      <c r="L5">
-        <v>2.245</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>9.137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>9.205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>9.295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>7.7</v>
-      </c>
-      <c r="I5">
-        <v>9.23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>39.17</v>
-      </c>
-      <c r="C2">
-        <v>43.573</v>
-      </c>
-      <c r="G2">
-        <v>35.445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>42.058</v>
-      </c>
-      <c r="C3">
-        <v>44.011</v>
-      </c>
-      <c r="G3">
-        <v>32.71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>42.117</v>
-      </c>
-      <c r="C4">
-        <v>44.91</v>
-      </c>
-      <c r="G4">
-        <v>32.51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>41.507</v>
-      </c>
-      <c r="C5">
-        <v>45.207</v>
-      </c>
-      <c r="G5">
-        <v>31.49</v>
+        <v>39.21</v>
       </c>
     </row>
   </sheetData>
@@ -1350,56 +1050,32 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>6.6</v>
-      </c>
-      <c r="E2">
-        <v>6.67</v>
-      </c>
-      <c r="I2">
-        <v>6.82</v>
+      <c r="D2">
+        <v>2.383</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>6.58</v>
-      </c>
-      <c r="E3">
-        <v>6.67</v>
-      </c>
-      <c r="I3">
-        <v>6.78</v>
+      <c r="D3">
+        <v>2.417</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
-        <v>6.62</v>
-      </c>
-      <c r="E4">
-        <v>6.698</v>
-      </c>
-      <c r="I4">
-        <v>6.847</v>
+      <c r="D4">
+        <v>2.461</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>6.57</v>
-      </c>
-      <c r="E5">
-        <v>6.654</v>
-      </c>
-      <c r="I5">
-        <v>6.773</v>
+      <c r="D5">
+        <v>2.643</v>
       </c>
     </row>
   </sheetData>
@@ -1457,80 +1133,32 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>2.941</v>
-      </c>
-      <c r="E2">
-        <v>2.278</v>
-      </c>
-      <c r="H2">
-        <v>2.7674</v>
-      </c>
-      <c r="J2">
-        <v>3.243</v>
-      </c>
-      <c r="K2">
-        <v>3.361</v>
+      <c r="D2">
+        <v>2.237</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>2.968</v>
-      </c>
-      <c r="E3">
-        <v>2.316</v>
-      </c>
-      <c r="H3">
-        <v>2.8043</v>
-      </c>
-      <c r="J3">
-        <v>3.294</v>
-      </c>
-      <c r="K3">
-        <v>3.408</v>
+      <c r="D3">
+        <v>2.307</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>3.095</v>
-      </c>
-      <c r="E4">
-        <v>2.433</v>
-      </c>
-      <c r="H4">
-        <v>2.849</v>
-      </c>
-      <c r="J4">
-        <v>3.315</v>
-      </c>
-      <c r="K4">
-        <v>3.42</v>
+      <c r="D4">
+        <v>2.417</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>3.146</v>
-      </c>
-      <c r="E5">
-        <v>2.362</v>
-      </c>
-      <c r="H5">
-        <v>2.607</v>
-      </c>
-      <c r="J5">
-        <v>3.145</v>
-      </c>
-      <c r="K5">
-        <v>3.288</v>
+      <c r="D5">
+        <v>2.434</v>
       </c>
     </row>
   </sheetData>
@@ -1588,92 +1216,32 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>2.88</v>
-      </c>
-      <c r="D2">
-        <v>2.424</v>
-      </c>
       <c r="F2">
-        <v>2.045</v>
-      </c>
-      <c r="I2">
-        <v>2.3485</v>
-      </c>
-      <c r="J2">
-        <v>2.581</v>
-      </c>
-      <c r="L2">
-        <v>2.568</v>
+        <v>14.065</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>2.9</v>
-      </c>
-      <c r="D3">
-        <v>2.46</v>
-      </c>
       <c r="F3">
-        <v>2.049</v>
-      </c>
-      <c r="I3">
-        <v>2.3525</v>
-      </c>
-      <c r="J3">
-        <v>2.576</v>
-      </c>
-      <c r="L3">
-        <v>2.558</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>2.75</v>
-      </c>
-      <c r="D4">
-        <v>2.466</v>
-      </c>
       <c r="F4">
-        <v>2.147</v>
-      </c>
-      <c r="I4">
-        <v>2.3915</v>
-      </c>
-      <c r="J4">
-        <v>2.624</v>
-      </c>
-      <c r="L4">
-        <v>2.597</v>
+        <v>13.395</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>2.51</v>
-      </c>
       <c r="F5">
-        <v>2.016</v>
-      </c>
-      <c r="I5">
-        <v>2.177</v>
-      </c>
-      <c r="J5">
-        <v>2.46</v>
-      </c>
-      <c r="L5">
-        <v>2.47</v>
+        <v>13.225</v>
       </c>
     </row>
   </sheetData>
@@ -1731,44 +1299,32 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>5.014</v>
-      </c>
-      <c r="G2">
-        <v>5.377</v>
+      <c r="J2">
+        <v>2.792</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
-        <v>5.055</v>
-      </c>
-      <c r="G3">
-        <v>5.391</v>
+      <c r="J3">
+        <v>2.928</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
-        <v>5.016</v>
-      </c>
-      <c r="G4">
-        <v>5.527</v>
+      <c r="J4">
+        <v>3.042</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="F5">
-        <v>5.001</v>
-      </c>
-      <c r="G5">
-        <v>5.288</v>
+      <c r="J5">
+        <v>3.106</v>
       </c>
     </row>
   </sheetData>
@@ -1826,32 +1382,44 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>12.89</v>
+      <c r="E2">
+        <v>0.589</v>
+      </c>
+      <c r="K2">
+        <v>1.845</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>12.9</v>
+      <c r="E3">
+        <v>0.59</v>
+      </c>
+      <c r="K3">
+        <v>1.863</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>12.55</v>
+      <c r="E4">
+        <v>0.535</v>
+      </c>
+      <c r="K4">
+        <v>1.883</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>12.425</v>
+      <c r="E5">
+        <v>0.461</v>
+      </c>
+      <c r="K5">
+        <v>1.784</v>
       </c>
     </row>
   </sheetData>
@@ -1909,80 +1477,32 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>4.735</v>
-      </c>
-      <c r="F2">
-        <v>4.207</v>
-      </c>
       <c r="H2">
-        <v>4.3665</v>
-      </c>
-      <c r="J2">
-        <v>4.7235</v>
-      </c>
-      <c r="L2">
-        <v>4.922</v>
+        <v>4.112</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>4.764</v>
-      </c>
-      <c r="F3">
-        <v>4.3</v>
-      </c>
       <c r="H3">
-        <v>4.4225</v>
-      </c>
-      <c r="J3">
-        <v>4.734</v>
-      </c>
-      <c r="L3">
-        <v>4.916</v>
+        <v>4.213</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>4.851</v>
-      </c>
-      <c r="F4">
-        <v>4.22</v>
-      </c>
       <c r="H4">
-        <v>4.345</v>
-      </c>
-      <c r="J4">
-        <v>4.683</v>
-      </c>
-      <c r="L4">
-        <v>4.866</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>4.78</v>
-      </c>
-      <c r="F5">
-        <v>3.787</v>
-      </c>
       <c r="H5">
-        <v>3.963</v>
-      </c>
-      <c r="J5">
-        <v>4.332</v>
-      </c>
-      <c r="L5">
-        <v>4.595</v>
+        <v>4.31</v>
       </c>
     </row>
   </sheetData>
@@ -2040,56 +1560,44 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="D2">
+        <v>18.35</v>
+      </c>
       <c r="F2">
-        <v>0.578</v>
-      </c>
-      <c r="G2">
-        <v>0.705</v>
-      </c>
-      <c r="L2">
-        <v>2.264</v>
+        <v>17.42</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="D3">
+        <v>18.17</v>
+      </c>
       <c r="F3">
-        <v>0.525</v>
-      </c>
-      <c r="G3">
-        <v>0.654</v>
-      </c>
-      <c r="L3">
-        <v>2.232</v>
+        <v>17.15</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="D4">
+        <v>18.035</v>
+      </c>
       <c r="F4">
-        <v>0.458</v>
-      </c>
-      <c r="G4">
-        <v>0.582</v>
-      </c>
-      <c r="L4">
-        <v>2.201</v>
+        <v>16.87</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="D5">
+        <v>16.32</v>
+      </c>
       <c r="F5">
-        <v>0.441</v>
-      </c>
-      <c r="G5">
-        <v>0.579</v>
-      </c>
-      <c r="L5">
-        <v>2.156</v>
+        <v>14.97</v>
       </c>
     </row>
   </sheetData>
@@ -2147,32 +1655,44 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="H2">
-        <v>4.38</v>
+      <c r="G2">
+        <v>4.012</v>
+      </c>
+      <c r="I2">
+        <v>4.372</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="H3">
-        <v>4.378</v>
+      <c r="G3">
+        <v>4.068</v>
+      </c>
+      <c r="I3">
+        <v>4.436</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="H4">
-        <v>4.223</v>
+      <c r="G4">
+        <v>4.327</v>
+      </c>
+      <c r="I4">
+        <v>4.703</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="H5">
-        <v>3.921</v>
+      <c r="G5">
+        <v>4.176</v>
+      </c>
+      <c r="I5">
+        <v>4.555</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -7,27 +7,29 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="India" sheetId="1" r:id="rId1"/>
-    <sheet name="France" sheetId="2" r:id="rId2"/>
-    <sheet name="Germany" sheetId="3" r:id="rId3"/>
-    <sheet name="Brazil" sheetId="4" r:id="rId4"/>
-    <sheet name="Portugal" sheetId="5" r:id="rId5"/>
-    <sheet name="Japan" sheetId="6" r:id="rId6"/>
-    <sheet name="US" sheetId="7" r:id="rId7"/>
-    <sheet name="Russia" sheetId="8" r:id="rId8"/>
-    <sheet name="Australia" sheetId="9" r:id="rId9"/>
-    <sheet name="Italy" sheetId="10" r:id="rId10"/>
-    <sheet name="Switzerland" sheetId="11" r:id="rId11"/>
-    <sheet name="China" sheetId="12" r:id="rId12"/>
-    <sheet name="South Africa" sheetId="13" r:id="rId13"/>
-    <sheet name="Turkey" sheetId="14" r:id="rId14"/>
+    <sheet name="Canada" sheetId="1" r:id="rId1"/>
+    <sheet name="India" sheetId="2" r:id="rId2"/>
+    <sheet name="France" sheetId="3" r:id="rId3"/>
+    <sheet name="Germany" sheetId="4" r:id="rId4"/>
+    <sheet name="Poland" sheetId="5" r:id="rId5"/>
+    <sheet name="Brazil" sheetId="6" r:id="rId6"/>
+    <sheet name="Portugal" sheetId="7" r:id="rId7"/>
+    <sheet name="UK" sheetId="8" r:id="rId8"/>
+    <sheet name="Japan" sheetId="9" r:id="rId9"/>
+    <sheet name="US" sheetId="10" r:id="rId10"/>
+    <sheet name="Australia" sheetId="11" r:id="rId11"/>
+    <sheet name="Italy" sheetId="12" r:id="rId12"/>
+    <sheet name="Switzerland" sheetId="13" r:id="rId13"/>
+    <sheet name="China" sheetId="14" r:id="rId14"/>
+    <sheet name="South Africa" sheetId="15" r:id="rId15"/>
+    <sheet name="Turkey" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="16">
   <si>
     <t>Period</t>
   </si>
@@ -480,68 +482,80 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>6.47</v>
-      </c>
-      <c r="F2">
-        <v>6.72</v>
+      <c r="C2">
+        <v>2.78</v>
+      </c>
+      <c r="D2">
+        <v>2.735</v>
       </c>
       <c r="G2">
-        <v>6.7</v>
-      </c>
-      <c r="J2">
-        <v>6.89</v>
+        <v>2.73</v>
+      </c>
+      <c r="K2">
+        <v>3.188</v>
+      </c>
+      <c r="L2">
+        <v>3.239</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>6.47</v>
-      </c>
-      <c r="F3">
-        <v>6.72</v>
+      <c r="C3">
+        <v>2.943</v>
+      </c>
+      <c r="D3">
+        <v>2.915</v>
       </c>
       <c r="G3">
-        <v>6.7</v>
-      </c>
-      <c r="J3">
-        <v>6.89</v>
+        <v>2.893</v>
+      </c>
+      <c r="K3">
+        <v>3.309</v>
+      </c>
+      <c r="L3">
+        <v>3.362</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>6.47</v>
-      </c>
-      <c r="F4">
-        <v>6.72</v>
+      <c r="C4">
+        <v>3.04</v>
+      </c>
+      <c r="D4">
+        <v>3.03</v>
       </c>
       <c r="G4">
-        <v>6.7</v>
-      </c>
-      <c r="J4">
-        <v>6.89</v>
+        <v>3.053</v>
+      </c>
+      <c r="K4">
+        <v>3.434</v>
+      </c>
+      <c r="L4">
+        <v>3.468</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>6.53</v>
-      </c>
-      <c r="F5">
-        <v>6.746</v>
+      <c r="C5">
+        <v>3.07</v>
+      </c>
+      <c r="D5">
+        <v>3.015</v>
       </c>
       <c r="G5">
-        <v>6.767</v>
-      </c>
-      <c r="J5">
-        <v>6.879</v>
+        <v>2.957</v>
+      </c>
+      <c r="K5">
+        <v>3.299</v>
+      </c>
+      <c r="L5">
+        <v>3.33</v>
       </c>
     </row>
   </sheetData>
@@ -599,32 +613,68 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="J2">
-        <v>3.612</v>
+      <c r="B2">
+        <v>4.289</v>
+      </c>
+      <c r="D2">
+        <v>4.155</v>
+      </c>
+      <c r="F2">
+        <v>4.244</v>
+      </c>
+      <c r="I2">
+        <v>4.542</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="J3">
-        <v>3.78</v>
+      <c r="B3">
+        <v>4.294</v>
+      </c>
+      <c r="D3">
+        <v>4.13</v>
+      </c>
+      <c r="F3">
+        <v>4.24</v>
+      </c>
+      <c r="I3">
+        <v>4.533</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="J4">
-        <v>3.864</v>
+      <c r="B4">
+        <v>4.307</v>
+      </c>
+      <c r="D4">
+        <v>4.174</v>
+      </c>
+      <c r="F4">
+        <v>4.34</v>
+      </c>
+      <c r="I4">
+        <v>4.654</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="J5">
-        <v>3.988</v>
+      <c r="B5">
+        <v>4.313</v>
+      </c>
+      <c r="D5">
+        <v>4.153</v>
+      </c>
+      <c r="F5">
+        <v>4.279</v>
+      </c>
+      <c r="I5">
+        <v>4.561</v>
       </c>
     </row>
   </sheetData>
@@ -682,44 +732,80 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="E2">
+        <v>3.847</v>
+      </c>
+      <c r="F2">
+        <v>3.814</v>
+      </c>
       <c r="G2">
-        <v>0.083</v>
-      </c>
-      <c r="L2">
-        <v>0.221</v>
+        <v>3.947</v>
+      </c>
+      <c r="H2">
+        <v>4.193</v>
+      </c>
+      <c r="J2">
+        <v>4.64</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="E3">
+        <v>3.881</v>
+      </c>
+      <c r="F3">
+        <v>3.852</v>
+      </c>
       <c r="G3">
-        <v>0.184</v>
-      </c>
-      <c r="L3">
-        <v>0.336</v>
+        <v>3.968</v>
+      </c>
+      <c r="H3">
+        <v>4.205</v>
+      </c>
+      <c r="J3">
+        <v>4.639</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="E4">
+        <v>4.01</v>
+      </c>
+      <c r="F4">
+        <v>4.051</v>
+      </c>
       <c r="G4">
-        <v>0.24</v>
-      </c>
-      <c r="L4">
-        <v>0.403</v>
+        <v>4.181</v>
+      </c>
+      <c r="H4">
+        <v>4.412</v>
+      </c>
+      <c r="J4">
+        <v>4.847</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="E5">
+        <v>3.888</v>
+      </c>
+      <c r="F5">
+        <v>3.883</v>
+      </c>
       <c r="G5">
-        <v>0.294</v>
-      </c>
-      <c r="L5">
-        <v>0.383</v>
+        <v>3.989</v>
+      </c>
+      <c r="H5">
+        <v>4.22</v>
+      </c>
+      <c r="J5">
+        <v>4.637</v>
       </c>
     </row>
   </sheetData>
@@ -777,44 +863,92 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>1.37</v>
-      </c>
-      <c r="L2">
-        <v>2.2</v>
+      <c r="B2">
+        <v>2.413</v>
+      </c>
+      <c r="C2">
+        <v>2.462</v>
+      </c>
+      <c r="E2">
+        <v>2.427</v>
+      </c>
+      <c r="F2">
+        <v>2.503</v>
+      </c>
+      <c r="H2">
+        <v>3.155</v>
+      </c>
+      <c r="J2">
+        <v>3.908</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>1.34</v>
-      </c>
-      <c r="L3">
-        <v>2.24</v>
+      <c r="B3">
+        <v>2.479</v>
+      </c>
+      <c r="C3">
+        <v>2.497</v>
+      </c>
+      <c r="E3">
+        <v>2.586</v>
+      </c>
+      <c r="F3">
+        <v>2.658</v>
+      </c>
+      <c r="H3">
+        <v>3.267</v>
+      </c>
+      <c r="J3">
+        <v>3.985</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>1.38</v>
-      </c>
-      <c r="L4">
-        <v>2.277</v>
+      <c r="B4">
+        <v>2.567</v>
+      </c>
+      <c r="C4">
+        <v>2.527</v>
+      </c>
+      <c r="E4">
+        <v>2.557</v>
+      </c>
+      <c r="F4">
+        <v>2.636</v>
+      </c>
+      <c r="H4">
+        <v>3.257</v>
+      </c>
+      <c r="J4">
+        <v>3.987</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>1.376</v>
-      </c>
-      <c r="L5">
-        <v>2.334</v>
+      <c r="B5">
+        <v>2.409</v>
+      </c>
+      <c r="C5">
+        <v>2.417</v>
+      </c>
+      <c r="E5">
+        <v>2.428</v>
+      </c>
+      <c r="F5">
+        <v>2.397</v>
+      </c>
+      <c r="H5">
+        <v>3.067</v>
+      </c>
+      <c r="J5">
+        <v>3.871</v>
       </c>
     </row>
   </sheetData>
@@ -872,44 +1006,92 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="C2">
+        <v>0.285</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="G2">
+        <v>0.156</v>
+      </c>
       <c r="I2">
-        <v>8.903</v>
+        <v>0.362</v>
+      </c>
+      <c r="K2">
+        <v>0.487</v>
       </c>
       <c r="L2">
-        <v>10.855</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="C3">
+        <v>0.325</v>
+      </c>
+      <c r="E3">
+        <v>0.155</v>
+      </c>
+      <c r="G3">
+        <v>0.256</v>
+      </c>
       <c r="I3">
-        <v>9.035</v>
+        <v>0.437</v>
+      </c>
+      <c r="K3">
+        <v>0.536</v>
       </c>
       <c r="L3">
-        <v>10.905</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="C4">
+        <v>0.305</v>
+      </c>
+      <c r="E4">
+        <v>0.082</v>
+      </c>
+      <c r="G4">
+        <v>0.175</v>
+      </c>
       <c r="I4">
-        <v>9.119999999999999</v>
+        <v>0.388</v>
+      </c>
+      <c r="K4">
+        <v>0.539</v>
       </c>
       <c r="L4">
-        <v>11.145</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="C5">
+        <v>0.305</v>
+      </c>
+      <c r="E5">
+        <v>0.03</v>
+      </c>
+      <c r="G5">
+        <v>0.063</v>
+      </c>
       <c r="I5">
-        <v>9.307</v>
+        <v>0.259</v>
+      </c>
+      <c r="K5">
+        <v>0.403</v>
       </c>
       <c r="L5">
-        <v>11.305</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -967,32 +1149,330 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>37.29</v>
+      <c r="D2">
+        <v>1.24</v>
+      </c>
+      <c r="F2">
+        <v>1.29</v>
+      </c>
+      <c r="H2">
+        <v>1.57</v>
+      </c>
+      <c r="K2">
+        <v>1.92</v>
+      </c>
+      <c r="L2">
+        <v>1.84</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>37.35</v>
+      <c r="D3">
+        <v>1.26</v>
+      </c>
+      <c r="F3">
+        <v>1.28</v>
+      </c>
+      <c r="H3">
+        <v>1.56</v>
+      </c>
+      <c r="K3">
+        <v>1.96</v>
+      </c>
+      <c r="L3">
+        <v>1.87</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>38.95</v>
+      <c r="D4">
+        <v>1.26</v>
+      </c>
+      <c r="F4">
+        <v>1.299</v>
+      </c>
+      <c r="H4">
+        <v>1.566</v>
+      </c>
+      <c r="K4">
+        <v>1.991</v>
+      </c>
+      <c r="L4">
+        <v>1.906</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="D5">
+        <v>1.043</v>
+      </c>
+      <c r="F5">
+        <v>1.186</v>
+      </c>
+      <c r="H5">
+        <v>1.544</v>
+      </c>
+      <c r="K5">
+        <v>1.913</v>
+      </c>
+      <c r="L5">
+        <v>1.845</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I2">
+        <v>10.375</v>
+      </c>
+      <c r="K2">
+        <v>11.27</v>
+      </c>
+      <c r="L2">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>8.25</v>
+      </c>
+      <c r="I3">
+        <v>9.02</v>
+      </c>
+      <c r="K3">
+        <v>11.115</v>
+      </c>
+      <c r="L3">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="I4">
+        <v>9.193</v>
+      </c>
+      <c r="K4">
+        <v>11.26</v>
+      </c>
+      <c r="L4">
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>8.24</v>
+      </c>
+      <c r="I5">
+        <v>9.005000000000001</v>
+      </c>
+      <c r="K5">
+        <v>10.96</v>
+      </c>
+      <c r="L5">
+        <v>11.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>21.844</v>
+      </c>
+      <c r="C2">
+        <v>37.95</v>
+      </c>
+      <c r="E2">
+        <v>38.25</v>
+      </c>
+      <c r="F2">
+        <v>30.51</v>
+      </c>
+      <c r="G2">
+        <v>30.385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>38.3</v>
+      </c>
+      <c r="C3">
+        <v>38.214</v>
+      </c>
+      <c r="E3">
+        <v>35.05</v>
+      </c>
+      <c r="F3">
+        <v>30.51</v>
+      </c>
+      <c r="G3">
+        <v>28.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>39.5</v>
+      </c>
+      <c r="C4">
+        <v>39.5</v>
+      </c>
+      <c r="E4">
+        <v>35.49</v>
+      </c>
+      <c r="F4">
+        <v>31.24</v>
+      </c>
+      <c r="G4">
+        <v>28.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>39.802</v>
+      </c>
+      <c r="C5">
+        <v>40.414</v>
+      </c>
       <c r="E5">
-        <v>39.21</v>
+        <v>36.67</v>
+      </c>
+      <c r="F5">
+        <v>33.25</v>
+      </c>
+      <c r="G5">
+        <v>30.19</v>
       </c>
     </row>
   </sheetData>
@@ -1050,32 +1530,104 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>6.705</v>
+      </c>
+      <c r="C2">
+        <v>6.743</v>
+      </c>
       <c r="D2">
-        <v>2.383</v>
+        <v>6.709</v>
+      </c>
+      <c r="E2">
+        <v>6.712</v>
+      </c>
+      <c r="F2">
+        <v>6.726</v>
+      </c>
+      <c r="G2">
+        <v>6.735</v>
+      </c>
+      <c r="J2">
+        <v>6.938</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>6.55</v>
+      </c>
+      <c r="C3">
+        <v>6.65</v>
+      </c>
       <c r="D3">
-        <v>2.417</v>
+        <v>6.518</v>
+      </c>
+      <c r="E3">
+        <v>6.59</v>
+      </c>
+      <c r="F3">
+        <v>6.6</v>
+      </c>
+      <c r="G3">
+        <v>6.62</v>
+      </c>
+      <c r="J3">
+        <v>6.8</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>6.59</v>
+      </c>
+      <c r="C4">
+        <v>6.68</v>
+      </c>
       <c r="D4">
-        <v>2.461</v>
+        <v>6.641</v>
+      </c>
+      <c r="E4">
+        <v>6.651</v>
+      </c>
+      <c r="F4">
+        <v>6.68</v>
+      </c>
+      <c r="G4">
+        <v>6.696</v>
+      </c>
+      <c r="J4">
+        <v>6.882</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>6.58</v>
+      </c>
+      <c r="C5">
+        <v>6.71</v>
+      </c>
       <c r="D5">
-        <v>2.643</v>
+        <v>6.681</v>
+      </c>
+      <c r="E5">
+        <v>6.732</v>
+      </c>
+      <c r="F5">
+        <v>6.707</v>
+      </c>
+      <c r="G5">
+        <v>6.726</v>
+      </c>
+      <c r="J5">
+        <v>6.89</v>
       </c>
     </row>
   </sheetData>
@@ -1133,32 +1685,104 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>2.237</v>
+      <c r="B2">
+        <v>2.548</v>
+      </c>
+      <c r="E2">
+        <v>2.284</v>
+      </c>
+      <c r="F2">
+        <v>2.39</v>
+      </c>
+      <c r="H2">
+        <v>2.888</v>
+      </c>
+      <c r="I2">
+        <v>3.201</v>
+      </c>
+      <c r="J2">
+        <v>3.435</v>
+      </c>
+      <c r="L2">
+        <v>3.779</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>2.307</v>
+      <c r="B3">
+        <v>2.603</v>
+      </c>
+      <c r="E3">
+        <v>2.422</v>
+      </c>
+      <c r="F3">
+        <v>2.523</v>
+      </c>
+      <c r="H3">
+        <v>2.9905</v>
+      </c>
+      <c r="I3">
+        <v>3.289</v>
+      </c>
+      <c r="J3">
+        <v>3.5</v>
+      </c>
+      <c r="L3">
+        <v>3.832</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>2.417</v>
+      <c r="B4">
+        <v>2.669</v>
+      </c>
+      <c r="E4">
+        <v>2.398</v>
+      </c>
+      <c r="F4">
+        <v>2.529</v>
+      </c>
+      <c r="H4">
+        <v>3.022</v>
+      </c>
+      <c r="I4">
+        <v>3.329</v>
+      </c>
+      <c r="J4">
+        <v>3.54</v>
+      </c>
+      <c r="L4">
+        <v>3.88</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>2.434</v>
+      <c r="B5">
+        <v>2.698</v>
+      </c>
+      <c r="E5">
+        <v>2.285</v>
+      </c>
+      <c r="F5">
+        <v>2.401</v>
+      </c>
+      <c r="H5">
+        <v>2.91</v>
+      </c>
+      <c r="I5">
+        <v>3.219</v>
+      </c>
+      <c r="J5">
+        <v>3.428</v>
+      </c>
+      <c r="L5">
+        <v>3.776</v>
       </c>
     </row>
   </sheetData>
@@ -1216,32 +1840,104 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>14.065</v>
+      <c r="C2">
+        <v>2.32</v>
+      </c>
+      <c r="D2">
+        <v>2.111</v>
+      </c>
+      <c r="E2">
+        <v>2.111</v>
+      </c>
+      <c r="G2">
+        <v>2.235</v>
+      </c>
+      <c r="H2">
+        <v>2.25</v>
+      </c>
+      <c r="I2">
+        <v>2.459</v>
+      </c>
+      <c r="K2">
+        <v>2.711</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
-        <v>13.95</v>
+      <c r="C3">
+        <v>2.41</v>
+      </c>
+      <c r="D3">
+        <v>2.263</v>
+      </c>
+      <c r="E3">
+        <v>2.262</v>
+      </c>
+      <c r="G3">
+        <v>2.362</v>
+      </c>
+      <c r="H3">
+        <v>2.374</v>
+      </c>
+      <c r="I3">
+        <v>2.5605</v>
+      </c>
+      <c r="K3">
+        <v>2.781</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
-        <v>13.395</v>
+      <c r="C4">
+        <v>2.45</v>
+      </c>
+      <c r="D4">
+        <v>2.349</v>
+      </c>
+      <c r="E4">
+        <v>2.224</v>
+      </c>
+      <c r="G4">
+        <v>2.313</v>
+      </c>
+      <c r="H4">
+        <v>2.352</v>
+      </c>
+      <c r="I4">
+        <v>2.5205</v>
+      </c>
+      <c r="K4">
+        <v>2.785</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="F5">
-        <v>13.225</v>
+      <c r="C5">
+        <v>2.41</v>
+      </c>
+      <c r="D5">
+        <v>2.253</v>
+      </c>
+      <c r="E5">
+        <v>2.085</v>
+      </c>
+      <c r="G5">
+        <v>2.157</v>
+      </c>
+      <c r="H5">
+        <v>2.187</v>
+      </c>
+      <c r="I5">
+        <v>2.3665</v>
+      </c>
+      <c r="K5">
+        <v>2.604</v>
       </c>
     </row>
   </sheetData>
@@ -1299,32 +1995,44 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="J2">
-        <v>2.792</v>
+      <c r="E2">
+        <v>5.208</v>
+      </c>
+      <c r="G2">
+        <v>5.583</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="J3">
-        <v>2.928</v>
+      <c r="E3">
+        <v>5.235</v>
+      </c>
+      <c r="G3">
+        <v>5.667</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="J4">
-        <v>3.042</v>
+      <c r="E4">
+        <v>5.22</v>
+      </c>
+      <c r="G4">
+        <v>5.68</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="J5">
-        <v>3.106</v>
+      <c r="E5">
+        <v>5.128</v>
+      </c>
+      <c r="G5">
+        <v>5.531</v>
       </c>
     </row>
   </sheetData>
@@ -1382,44 +2090,32 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>0.589</v>
-      </c>
-      <c r="K2">
-        <v>1.845</v>
+      <c r="D2">
+        <v>14.86</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>0.59</v>
-      </c>
-      <c r="K3">
-        <v>1.863</v>
+      <c r="D3">
+        <v>15.006</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>0.535</v>
-      </c>
-      <c r="K4">
-        <v>1.883</v>
+      <c r="D4">
+        <v>12.89</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>0.461</v>
-      </c>
-      <c r="K5">
-        <v>1.784</v>
+      <c r="D5">
+        <v>9.965</v>
       </c>
     </row>
   </sheetData>
@@ -1477,32 +2173,68 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="E2">
+        <v>2.073</v>
+      </c>
+      <c r="G2">
+        <v>2.358</v>
+      </c>
       <c r="H2">
-        <v>4.112</v>
+        <v>2.632</v>
+      </c>
+      <c r="J2">
+        <v>3.161</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="E3">
+        <v>2.218</v>
+      </c>
+      <c r="G3">
+        <v>2.411</v>
+      </c>
       <c r="H3">
-        <v>4.213</v>
+        <v>2.507</v>
+      </c>
+      <c r="J3">
+        <v>3.23</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="E4">
+        <v>2.204</v>
+      </c>
+      <c r="G4">
+        <v>2.398</v>
+      </c>
       <c r="H4">
-        <v>4.38</v>
+        <v>2.501</v>
+      </c>
+      <c r="J4">
+        <v>3.253</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="E5">
+        <v>2.153</v>
+      </c>
+      <c r="G5">
+        <v>2.242</v>
+      </c>
       <c r="H5">
-        <v>4.31</v>
+        <v>2.352</v>
+      </c>
+      <c r="J5">
+        <v>3.088</v>
       </c>
     </row>
   </sheetData>
@@ -1561,10 +2293,22 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>18.35</v>
-      </c>
-      <c r="F2">
-        <v>17.42</v>
+        <v>4.409</v>
+      </c>
+      <c r="E2">
+        <v>4.21</v>
+      </c>
+      <c r="H2">
+        <v>4.351</v>
+      </c>
+      <c r="J2">
+        <v>4.849</v>
+      </c>
+      <c r="K2">
+        <v>5.06</v>
+      </c>
+      <c r="L2">
+        <v>5.123</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1572,10 +2316,22 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>18.17</v>
-      </c>
-      <c r="F3">
-        <v>17.15</v>
+        <v>4.467</v>
+      </c>
+      <c r="E3">
+        <v>4.3065</v>
+      </c>
+      <c r="H3">
+        <v>4.4215</v>
+      </c>
+      <c r="J3">
+        <v>4.9045</v>
+      </c>
+      <c r="K3">
+        <v>5.113</v>
+      </c>
+      <c r="L3">
+        <v>5.172</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1583,10 +2339,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>18.035</v>
-      </c>
-      <c r="F4">
-        <v>16.87</v>
+        <v>4.5015</v>
+      </c>
+      <c r="E4">
+        <v>4.381</v>
+      </c>
+      <c r="H4">
+        <v>4.5075</v>
+      </c>
+      <c r="J4">
+        <v>4.9945</v>
+      </c>
+      <c r="K4">
+        <v>5.183</v>
+      </c>
+      <c r="L4">
+        <v>5.244</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1594,10 +2362,22 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>16.32</v>
-      </c>
-      <c r="F5">
-        <v>14.97</v>
+        <v>4.642</v>
+      </c>
+      <c r="E5">
+        <v>4.405</v>
+      </c>
+      <c r="H5">
+        <v>4.4485</v>
+      </c>
+      <c r="J5">
+        <v>4.903</v>
+      </c>
+      <c r="K5">
+        <v>5.105</v>
+      </c>
+      <c r="L5">
+        <v>5.163</v>
       </c>
     </row>
   </sheetData>
@@ -1655,44 +2435,101 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="C2">
+        <v>0.341</v>
+      </c>
+      <c r="D2">
+        <v>0.576</v>
+      </c>
+      <c r="E2">
+        <v>0.723</v>
+      </c>
+      <c r="F2">
+        <v>0.774</v>
+      </c>
       <c r="G2">
-        <v>4.012</v>
-      </c>
-      <c r="I2">
-        <v>4.372</v>
+        <v>0.907</v>
+      </c>
+      <c r="H2">
+        <v>0.99</v>
+      </c>
+      <c r="K2">
+        <v>1.945</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="C3">
+        <v>0.34</v>
+      </c>
+      <c r="D3">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.709</v>
+      </c>
+      <c r="F3">
+        <v>0.759</v>
+      </c>
       <c r="G3">
-        <v>4.068</v>
-      </c>
-      <c r="I3">
-        <v>4.436</v>
+        <v>0.881</v>
+      </c>
+      <c r="H3">
+        <v>0.957</v>
+      </c>
+      <c r="K3">
+        <v>1.917</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="C4">
+        <v>0.342</v>
+      </c>
+      <c r="D4">
+        <v>0.577</v>
+      </c>
+      <c r="E4">
+        <v>0.715</v>
+      </c>
+      <c r="F4">
+        <v>0.763</v>
+      </c>
       <c r="G4">
-        <v>4.327</v>
-      </c>
-      <c r="I4">
-        <v>4.703</v>
+        <v>0.906</v>
+      </c>
+      <c r="H4">
+        <v>0.988</v>
+      </c>
+      <c r="K4">
+        <v>1.919</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="C5">
+        <v>0.242</v>
+      </c>
+      <c r="D5">
+        <v>0.483</v>
+      </c>
+      <c r="F5">
+        <v>0.653</v>
+      </c>
       <c r="G5">
-        <v>4.176</v>
-      </c>
-      <c r="I5">
-        <v>4.555</v>
+        <v>0.779</v>
+      </c>
+      <c r="H5">
+        <v>0.885</v>
+      </c>
+      <c r="K5">
+        <v>1.901</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
+++ b/Weekly Files/Fixed Income/Multi_Yield_Curves.xlsx
@@ -17,19 +17,20 @@
     <sheet name="UK" sheetId="8" r:id="rId8"/>
     <sheet name="Japan" sheetId="9" r:id="rId9"/>
     <sheet name="US" sheetId="10" r:id="rId10"/>
-    <sheet name="Australia" sheetId="11" r:id="rId11"/>
-    <sheet name="Italy" sheetId="12" r:id="rId12"/>
-    <sheet name="Switzerland" sheetId="13" r:id="rId13"/>
-    <sheet name="China" sheetId="14" r:id="rId14"/>
-    <sheet name="South Africa" sheetId="15" r:id="rId15"/>
-    <sheet name="Turkey" sheetId="16" r:id="rId16"/>
+    <sheet name="Russia" sheetId="11" r:id="rId11"/>
+    <sheet name="Australia" sheetId="12" r:id="rId12"/>
+    <sheet name="Italy" sheetId="13" r:id="rId13"/>
+    <sheet name="Switzerland" sheetId="14" r:id="rId14"/>
+    <sheet name="China" sheetId="15" r:id="rId15"/>
+    <sheet name="South Africa" sheetId="16" r:id="rId16"/>
+    <sheet name="Turkey" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="16">
   <si>
     <t>Period</t>
   </si>
@@ -482,80 +483,128 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>2.202</v>
+      </c>
       <c r="C2">
-        <v>2.78</v>
+        <v>2.245</v>
       </c>
       <c r="D2">
-        <v>2.735</v>
+        <v>2.34</v>
+      </c>
+      <c r="E2">
+        <v>2.552</v>
+      </c>
+      <c r="F2">
+        <v>2.574</v>
       </c>
       <c r="G2">
-        <v>2.73</v>
+        <v>2.916</v>
+      </c>
+      <c r="H2">
+        <v>3.109</v>
       </c>
       <c r="K2">
-        <v>3.188</v>
+        <v>3.727</v>
       </c>
       <c r="L2">
-        <v>3.239</v>
+        <v>3.849</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>2.195</v>
+      </c>
       <c r="C3">
-        <v>2.943</v>
+        <v>2.23</v>
       </c>
       <c r="D3">
-        <v>2.915</v>
+        <v>2.362</v>
+      </c>
+      <c r="E3">
+        <v>2.549</v>
+      </c>
+      <c r="F3">
+        <v>2.616</v>
       </c>
       <c r="G3">
-        <v>2.893</v>
+        <v>2.92</v>
+      </c>
+      <c r="H3">
+        <v>3.109</v>
       </c>
       <c r="K3">
-        <v>3.309</v>
+        <v>3.679</v>
       </c>
       <c r="L3">
-        <v>3.362</v>
+        <v>3.799</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>2.2</v>
+      </c>
       <c r="C4">
-        <v>3.04</v>
+        <v>2.24</v>
       </c>
       <c r="D4">
-        <v>3.03</v>
+        <v>2.315</v>
+      </c>
+      <c r="E4">
+        <v>2.451</v>
+      </c>
+      <c r="F4">
+        <v>2.489</v>
       </c>
       <c r="G4">
-        <v>3.053</v>
+        <v>2.773</v>
+      </c>
+      <c r="H4">
+        <v>2.968</v>
       </c>
       <c r="K4">
-        <v>3.434</v>
+        <v>3.551</v>
       </c>
       <c r="L4">
-        <v>3.468</v>
+        <v>3.659</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>2.832</v>
+      </c>
       <c r="C5">
-        <v>3.07</v>
+        <v>2.815</v>
       </c>
       <c r="D5">
-        <v>3.015</v>
+        <v>2.785</v>
+      </c>
+      <c r="E5">
+        <v>2.727</v>
+      </c>
+      <c r="F5">
+        <v>2.716</v>
       </c>
       <c r="G5">
-        <v>2.957</v>
+        <v>2.809</v>
+      </c>
+      <c r="H5">
+        <v>2.993</v>
       </c>
       <c r="K5">
-        <v>3.299</v>
+        <v>3.234</v>
       </c>
       <c r="L5">
-        <v>3.33</v>
+        <v>3.298</v>
       </c>
     </row>
   </sheetData>
@@ -614,16 +663,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>4.289</v>
+        <v>3.67</v>
+      </c>
+      <c r="C2">
+        <v>3.607</v>
       </c>
       <c r="D2">
-        <v>4.155</v>
+        <v>3.447</v>
+      </c>
+      <c r="E2">
+        <v>3.495</v>
       </c>
       <c r="F2">
-        <v>4.244</v>
+        <v>3.567</v>
+      </c>
+      <c r="G2">
+        <v>3.755</v>
+      </c>
+      <c r="H2">
+        <v>3.973</v>
       </c>
       <c r="I2">
-        <v>4.542</v>
+        <v>4.206</v>
+      </c>
+      <c r="L2">
+        <v>4.855</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -631,16 +695,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.294</v>
+        <v>3.648</v>
+      </c>
+      <c r="C3">
+        <v>3.626</v>
       </c>
       <c r="D3">
-        <v>4.13</v>
+        <v>3.553</v>
+      </c>
+      <c r="E3">
+        <v>3.599</v>
       </c>
       <c r="F3">
-        <v>4.24</v>
+        <v>3.667</v>
+      </c>
+      <c r="G3">
+        <v>3.828</v>
+      </c>
+      <c r="H3">
+        <v>4.023</v>
       </c>
       <c r="I3">
-        <v>4.533</v>
+        <v>4.231</v>
+      </c>
+      <c r="L3">
+        <v>4.84</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -648,16 +727,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.307</v>
+        <v>3.837</v>
+      </c>
+      <c r="C4">
+        <v>3.779</v>
       </c>
       <c r="D4">
-        <v>4.174</v>
+        <v>3.628</v>
+      </c>
+      <c r="E4">
+        <v>3.514</v>
       </c>
       <c r="F4">
-        <v>4.34</v>
+        <v>3.501</v>
+      </c>
+      <c r="G4">
+        <v>3.618</v>
+      </c>
+      <c r="H4">
+        <v>3.813</v>
       </c>
       <c r="I4">
-        <v>4.654</v>
+        <v>4.063</v>
+      </c>
+      <c r="L4">
+        <v>4.715</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -665,16 +759,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4.313</v>
+        <v>4.32</v>
+      </c>
+      <c r="C5">
+        <v>4.353</v>
       </c>
       <c r="D5">
-        <v>4.153</v>
+        <v>4.219</v>
+      </c>
+      <c r="E5">
+        <v>4.26</v>
       </c>
       <c r="F5">
-        <v>4.279</v>
+        <v>4.27</v>
+      </c>
+      <c r="G5">
+        <v>4.328</v>
+      </c>
+      <c r="H5">
+        <v>4.402</v>
       </c>
       <c r="I5">
-        <v>4.561</v>
+        <v>4.477</v>
+      </c>
+      <c r="L5">
+        <v>4.698</v>
       </c>
     </row>
   </sheetData>
@@ -732,80 +841,116 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>13.476</v>
+      </c>
+      <c r="C2">
+        <v>13.688</v>
+      </c>
+      <c r="D2">
+        <v>13.996</v>
+      </c>
       <c r="E2">
-        <v>3.847</v>
+        <v>14.36</v>
       </c>
       <c r="F2">
-        <v>3.814</v>
+        <v>14.579</v>
       </c>
       <c r="G2">
-        <v>3.947</v>
-      </c>
-      <c r="H2">
-        <v>4.193</v>
+        <v>14.755</v>
+      </c>
+      <c r="I2">
+        <v>14.595</v>
       </c>
       <c r="J2">
-        <v>4.64</v>
+        <v>14.354</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>12.732</v>
+      </c>
+      <c r="C3">
+        <v>13.106</v>
+      </c>
+      <c r="D3">
+        <v>14.035</v>
+      </c>
       <c r="E3">
-        <v>3.881</v>
+        <v>14.295</v>
       </c>
       <c r="F3">
-        <v>3.852</v>
+        <v>14.616</v>
       </c>
       <c r="G3">
-        <v>3.968</v>
-      </c>
-      <c r="H3">
-        <v>4.205</v>
+        <v>14.8</v>
+      </c>
+      <c r="I3">
+        <v>14.462</v>
       </c>
       <c r="J3">
-        <v>4.639</v>
+        <v>14.054</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>14.606</v>
+      </c>
+      <c r="C4">
+        <v>13.982</v>
+      </c>
+      <c r="D4">
+        <v>13.461</v>
+      </c>
       <c r="E4">
-        <v>4.01</v>
+        <v>13.355</v>
       </c>
       <c r="F4">
-        <v>4.051</v>
+        <v>13.448</v>
       </c>
       <c r="G4">
-        <v>4.181</v>
-      </c>
-      <c r="H4">
-        <v>4.412</v>
+        <v>13.592</v>
+      </c>
+      <c r="I4">
+        <v>13.69</v>
       </c>
       <c r="J4">
-        <v>4.847</v>
+        <v>13.684</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>21.407</v>
+      </c>
+      <c r="C5">
+        <v>19.982</v>
+      </c>
+      <c r="D5">
+        <v>18.306</v>
+      </c>
       <c r="E5">
-        <v>3.888</v>
+        <v>16.976</v>
       </c>
       <c r="F5">
-        <v>3.883</v>
+        <v>16.467</v>
       </c>
       <c r="G5">
-        <v>3.989</v>
-      </c>
-      <c r="H5">
-        <v>4.22</v>
+        <v>16.046</v>
+      </c>
+      <c r="I5">
+        <v>15.695</v>
       </c>
       <c r="J5">
-        <v>4.637</v>
+        <v>15.566</v>
       </c>
     </row>
   </sheetData>
@@ -863,92 +1008,104 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>2.413</v>
-      </c>
-      <c r="C2">
-        <v>2.462</v>
+      <c r="D2">
+        <v>4.151</v>
       </c>
       <c r="E2">
-        <v>2.427</v>
+        <v>4.247</v>
       </c>
       <c r="F2">
-        <v>2.503</v>
+        <v>4.279</v>
+      </c>
+      <c r="G2">
+        <v>4.394</v>
       </c>
       <c r="H2">
-        <v>3.155</v>
+        <v>4.582</v>
+      </c>
+      <c r="I2">
+        <v>4.812</v>
       </c>
       <c r="J2">
-        <v>3.908</v>
+        <v>5.072</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>2.479</v>
-      </c>
-      <c r="C3">
-        <v>2.497</v>
+      <c r="D3">
+        <v>3.928</v>
       </c>
       <c r="E3">
-        <v>2.586</v>
+        <v>4.02</v>
       </c>
       <c r="F3">
-        <v>2.658</v>
+        <v>4.079</v>
+      </c>
+      <c r="G3">
+        <v>4.243</v>
       </c>
       <c r="H3">
-        <v>3.267</v>
+        <v>4.465</v>
+      </c>
+      <c r="I3">
+        <v>4.704</v>
       </c>
       <c r="J3">
-        <v>3.985</v>
+        <v>4.987</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>2.567</v>
-      </c>
-      <c r="C4">
-        <v>2.527</v>
+      <c r="D4">
+        <v>3.658</v>
       </c>
       <c r="E4">
-        <v>2.557</v>
+        <v>3.698</v>
       </c>
       <c r="F4">
-        <v>2.636</v>
+        <v>3.761</v>
+      </c>
+      <c r="G4">
+        <v>3.957</v>
       </c>
       <c r="H4">
-        <v>3.257</v>
+        <v>4.208</v>
+      </c>
+      <c r="I4">
+        <v>4.468</v>
       </c>
       <c r="J4">
-        <v>3.987</v>
+        <v>4.795</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>2.409</v>
-      </c>
-      <c r="C5">
-        <v>2.417</v>
+      <c r="D5">
+        <v>3.892</v>
       </c>
       <c r="E5">
-        <v>2.428</v>
+        <v>3.828</v>
       </c>
       <c r="F5">
-        <v>2.397</v>
+        <v>3.829</v>
+      </c>
+      <c r="G5">
+        <v>3.953</v>
       </c>
       <c r="H5">
-        <v>3.067</v>
+        <v>4.207</v>
+      </c>
+      <c r="I5">
+        <v>4.432</v>
       </c>
       <c r="J5">
-        <v>3.871</v>
+        <v>4.636</v>
       </c>
     </row>
   </sheetData>
@@ -1006,92 +1163,128 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>1.972</v>
+      </c>
       <c r="C2">
-        <v>0.285</v>
+        <v>2.009</v>
+      </c>
+      <c r="D2">
+        <v>2.101</v>
       </c>
       <c r="E2">
-        <v>0.1</v>
+        <v>2.184</v>
+      </c>
+      <c r="F2">
+        <v>2.443</v>
       </c>
       <c r="G2">
-        <v>0.156</v>
+        <v>2.758</v>
+      </c>
+      <c r="H2">
+        <v>3.102</v>
       </c>
       <c r="I2">
-        <v>0.362</v>
-      </c>
-      <c r="K2">
-        <v>0.487</v>
-      </c>
-      <c r="L2">
-        <v>0.46</v>
+        <v>3.476</v>
+      </c>
+      <c r="J2">
+        <v>3.907</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>2.002</v>
+      </c>
       <c r="C3">
-        <v>0.325</v>
+        <v>2.018</v>
+      </c>
+      <c r="D3">
+        <v>2.114</v>
       </c>
       <c r="E3">
-        <v>0.155</v>
+        <v>2.232</v>
+      </c>
+      <c r="F3">
+        <v>2.457</v>
       </c>
       <c r="G3">
-        <v>0.256</v>
+        <v>2.786</v>
+      </c>
+      <c r="H3">
+        <v>3.011</v>
       </c>
       <c r="I3">
-        <v>0.437</v>
-      </c>
-      <c r="K3">
-        <v>0.536</v>
-      </c>
-      <c r="L3">
-        <v>0.488</v>
+        <v>3.416</v>
+      </c>
+      <c r="J3">
+        <v>3.858</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>1.948</v>
+      </c>
       <c r="C4">
-        <v>0.305</v>
+        <v>2.002</v>
+      </c>
+      <c r="D4">
+        <v>2.061</v>
       </c>
       <c r="E4">
-        <v>0.082</v>
+        <v>2.23</v>
+      </c>
+      <c r="F4">
+        <v>2.33</v>
       </c>
       <c r="G4">
-        <v>0.175</v>
+        <v>2.791</v>
+      </c>
+      <c r="H4">
+        <v>3.036</v>
       </c>
       <c r="I4">
-        <v>0.388</v>
-      </c>
-      <c r="K4">
-        <v>0.539</v>
-      </c>
-      <c r="L4">
-        <v>0.458</v>
+        <v>3.464</v>
+      </c>
+      <c r="J4">
+        <v>3.924</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>2.4</v>
+      </c>
       <c r="C5">
-        <v>0.305</v>
+        <v>2.38</v>
+      </c>
+      <c r="D5">
+        <v>2.312</v>
       </c>
       <c r="E5">
-        <v>0.03</v>
+        <v>2.422</v>
+      </c>
+      <c r="F5">
+        <v>2.489</v>
       </c>
       <c r="G5">
-        <v>0.063</v>
+        <v>2.843</v>
+      </c>
+      <c r="H5">
+        <v>3.134</v>
       </c>
       <c r="I5">
-        <v>0.259</v>
-      </c>
-      <c r="K5">
-        <v>0.403</v>
-      </c>
-      <c r="L5">
-        <v>0.35</v>
+        <v>3.516</v>
+      </c>
+      <c r="J5">
+        <v>3.891</v>
       </c>
     </row>
   </sheetData>
@@ -1149,80 +1342,152 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>-0.08</v>
+      </c>
+      <c r="C2">
+        <v>-0.03</v>
+      </c>
       <c r="D2">
-        <v>1.24</v>
+        <v>0.08</v>
+      </c>
+      <c r="E2">
+        <v>-0.119</v>
       </c>
       <c r="F2">
-        <v>1.29</v>
+        <v>-0.033</v>
+      </c>
+      <c r="G2">
+        <v>0.115</v>
       </c>
       <c r="H2">
-        <v>1.57</v>
+        <v>0.19</v>
+      </c>
+      <c r="I2">
+        <v>0.254</v>
+      </c>
+      <c r="J2">
+        <v>0.394</v>
       </c>
       <c r="K2">
-        <v>1.92</v>
+        <v>0.494</v>
       </c>
       <c r="L2">
-        <v>1.84</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>-0.08</v>
+      </c>
+      <c r="C3">
+        <v>-0.01</v>
+      </c>
       <c r="D3">
-        <v>1.26</v>
+        <v>0.15</v>
+      </c>
+      <c r="E3">
+        <v>-0.053</v>
       </c>
       <c r="F3">
-        <v>1.28</v>
+        <v>0.019</v>
+      </c>
+      <c r="G3">
+        <v>0.148</v>
       </c>
       <c r="H3">
-        <v>1.56</v>
+        <v>0.199</v>
+      </c>
+      <c r="I3">
+        <v>0.257</v>
+      </c>
+      <c r="J3">
+        <v>0.378</v>
       </c>
       <c r="K3">
-        <v>1.96</v>
+        <v>0.463</v>
       </c>
       <c r="L3">
-        <v>1.87</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>-0.12</v>
+      </c>
+      <c r="C4">
+        <v>-0.04</v>
+      </c>
       <c r="D4">
-        <v>1.26</v>
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>-0.144</v>
       </c>
       <c r="F4">
-        <v>1.299</v>
+        <v>-0.061</v>
+      </c>
+      <c r="G4">
+        <v>0.027</v>
       </c>
       <c r="H4">
-        <v>1.566</v>
+        <v>0.079</v>
+      </c>
+      <c r="I4">
+        <v>0.176</v>
+      </c>
+      <c r="J4">
+        <v>0.295</v>
       </c>
       <c r="K4">
-        <v>1.991</v>
+        <v>0.352</v>
       </c>
       <c r="L4">
-        <v>1.906</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>0.245</v>
+      </c>
+      <c r="C5">
+        <v>0.265</v>
+      </c>
       <c r="D5">
-        <v>1.043</v>
+        <v>0.35</v>
+      </c>
+      <c r="E5">
+        <v>0.164</v>
       </c>
       <c r="F5">
-        <v>1.186</v>
+        <v>0.221</v>
+      </c>
+      <c r="G5">
+        <v>0.283</v>
       </c>
       <c r="H5">
-        <v>1.544</v>
+        <v>0.354</v>
+      </c>
+      <c r="I5">
+        <v>0.448</v>
+      </c>
+      <c r="J5">
+        <v>0.533</v>
       </c>
       <c r="K5">
-        <v>1.913</v>
+        <v>0.555</v>
       </c>
       <c r="L5">
-        <v>1.845</v>
+        <v>0.538</v>
       </c>
     </row>
   </sheetData>
@@ -1280,68 +1545,128 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="D2">
+        <v>1.25</v>
+      </c>
+      <c r="E2">
+        <v>1.37</v>
+      </c>
+      <c r="F2">
+        <v>1.39</v>
+      </c>
       <c r="G2">
-        <v>9.039999999999999</v>
+        <v>1.565</v>
+      </c>
+      <c r="H2">
+        <v>1.667</v>
       </c>
       <c r="I2">
-        <v>10.375</v>
+        <v>1.807</v>
+      </c>
+      <c r="J2">
+        <v>2.058</v>
       </c>
       <c r="K2">
-        <v>11.27</v>
+        <v>2.333</v>
       </c>
       <c r="L2">
-        <v>11.18</v>
+        <v>2.243</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="D3">
+        <v>1.27</v>
+      </c>
+      <c r="E3">
+        <v>1.413</v>
+      </c>
+      <c r="F3">
+        <v>1.435</v>
+      </c>
       <c r="G3">
-        <v>8.25</v>
+        <v>1.602</v>
+      </c>
+      <c r="H3">
+        <v>1.721</v>
       </c>
       <c r="I3">
-        <v>9.02</v>
+        <v>1.845</v>
+      </c>
+      <c r="J3">
+        <v>2.099</v>
       </c>
       <c r="K3">
-        <v>11.115</v>
+        <v>2.393</v>
       </c>
       <c r="L3">
-        <v>11.2</v>
+        <v>2.306</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="D4">
+        <v>1.355</v>
+      </c>
+      <c r="E4">
+        <v>1.442</v>
+      </c>
+      <c r="F4">
+        <v>1.447</v>
+      </c>
       <c r="G4">
-        <v>8.359999999999999</v>
+        <v>1.545</v>
+      </c>
+      <c r="H4">
+        <v>1.667</v>
       </c>
       <c r="I4">
-        <v>9.193</v>
+        <v>1.821</v>
+      </c>
+      <c r="J4">
+        <v>2.03</v>
       </c>
       <c r="K4">
-        <v>11.26</v>
+        <v>2.185</v>
       </c>
       <c r="L4">
-        <v>11.33</v>
+        <v>2.123</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="D5">
+        <v>1.27</v>
+      </c>
+      <c r="E5">
+        <v>1.31</v>
+      </c>
+      <c r="F5">
+        <v>1.32</v>
+      </c>
       <c r="G5">
-        <v>8.24</v>
+        <v>1.44</v>
+      </c>
+      <c r="H5">
+        <v>1.57</v>
       </c>
       <c r="I5">
-        <v>9.005000000000001</v>
+        <v>1.64</v>
+      </c>
+      <c r="J5">
+        <v>1.85</v>
       </c>
       <c r="K5">
-        <v>10.96</v>
+        <v>1.91</v>
       </c>
       <c r="L5">
-        <v>11.04</v>
+        <v>1.86</v>
       </c>
     </row>
   </sheetData>
@@ -1400,19 +1725,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>21.844</v>
-      </c>
-      <c r="C2">
-        <v>37.95</v>
-      </c>
-      <c r="E2">
-        <v>38.25</v>
-      </c>
-      <c r="F2">
-        <v>30.51</v>
+        <v>6.23</v>
       </c>
       <c r="G2">
-        <v>30.385</v>
+        <v>7.175</v>
+      </c>
+      <c r="I2">
+        <v>8.055</v>
+      </c>
+      <c r="K2">
+        <v>8.815</v>
+      </c>
+      <c r="L2">
+        <v>8.69</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1420,19 +1745,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>38.3</v>
-      </c>
-      <c r="C3">
-        <v>38.214</v>
-      </c>
-      <c r="E3">
-        <v>35.05</v>
-      </c>
-      <c r="F3">
-        <v>30.51</v>
+        <v>6.17</v>
       </c>
       <c r="G3">
-        <v>28.38</v>
+        <v>7.395</v>
+      </c>
+      <c r="I3">
+        <v>8.345000000000001</v>
+      </c>
+      <c r="K3">
+        <v>9.285</v>
+      </c>
+      <c r="L3">
+        <v>9.09</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1440,19 +1765,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>39.5</v>
-      </c>
-      <c r="C4">
-        <v>39.5</v>
-      </c>
-      <c r="E4">
-        <v>35.49</v>
-      </c>
-      <c r="F4">
-        <v>31.24</v>
+        <v>6.43</v>
       </c>
       <c r="G4">
-        <v>28.77</v>
+        <v>7.64</v>
+      </c>
+      <c r="I4">
+        <v>8.66</v>
+      </c>
+      <c r="K4">
+        <v>9.645</v>
+      </c>
+      <c r="L4">
+        <v>9.49</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1460,19 +1785,162 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>39.802</v>
+        <v>7.7</v>
+      </c>
+      <c r="G5">
+        <v>9.08</v>
+      </c>
+      <c r="I5">
+        <v>10.475</v>
+      </c>
+      <c r="K5">
+        <v>11.345</v>
+      </c>
+      <c r="L5">
+        <v>11.255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>33.28</v>
+      </c>
+      <c r="C2">
+        <v>33.643</v>
+      </c>
+      <c r="E2">
+        <v>32.48</v>
+      </c>
+      <c r="F2">
+        <v>31.2</v>
+      </c>
+      <c r="G2">
+        <v>30.6</v>
+      </c>
+      <c r="I2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>33.761</v>
+      </c>
+      <c r="C3">
+        <v>33.921</v>
+      </c>
+      <c r="E3">
+        <v>33.65</v>
+      </c>
+      <c r="F3">
+        <v>31.63</v>
+      </c>
+      <c r="G3">
+        <v>31.01</v>
+      </c>
+      <c r="I3">
+        <v>28.07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>34.314</v>
+      </c>
+      <c r="C4">
+        <v>36.61</v>
+      </c>
+      <c r="E4">
+        <v>36.4</v>
+      </c>
+      <c r="F4">
+        <v>34.14</v>
+      </c>
+      <c r="G4">
+        <v>33.58</v>
+      </c>
+      <c r="I4">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>40.849</v>
       </c>
       <c r="C5">
-        <v>40.414</v>
+        <v>38.016</v>
       </c>
       <c r="E5">
-        <v>36.67</v>
+        <v>36.06</v>
       </c>
       <c r="F5">
-        <v>33.25</v>
+        <v>29.28</v>
       </c>
       <c r="G5">
-        <v>30.19</v>
+        <v>30.04</v>
+      </c>
+      <c r="I5">
+        <v>26.27</v>
       </c>
     </row>
   </sheetData>
@@ -1531,25 +1999,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.705</v>
+        <v>5.31</v>
       </c>
       <c r="C2">
-        <v>6.743</v>
+        <v>5.548</v>
       </c>
       <c r="D2">
-        <v>6.709</v>
+        <v>5.669</v>
       </c>
       <c r="E2">
-        <v>6.712</v>
+        <v>5.742</v>
       </c>
       <c r="F2">
-        <v>6.726</v>
+        <v>6.099</v>
       </c>
       <c r="G2">
-        <v>6.735</v>
+        <v>6.525</v>
+      </c>
+      <c r="H2">
+        <v>6.711</v>
+      </c>
+      <c r="I2">
+        <v>6.733</v>
       </c>
       <c r="J2">
-        <v>6.938</v>
+        <v>7.174</v>
+      </c>
+      <c r="L2">
+        <v>7.454</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1557,25 +2034,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.55</v>
+        <v>5.37</v>
       </c>
       <c r="C3">
-        <v>6.65</v>
+        <v>5.601</v>
       </c>
       <c r="D3">
-        <v>6.518</v>
+        <v>5.713</v>
       </c>
       <c r="E3">
-        <v>6.59</v>
+        <v>5.861</v>
       </c>
       <c r="F3">
-        <v>6.6</v>
+        <v>6.117</v>
       </c>
       <c r="G3">
-        <v>6.62</v>
+        <v>6.47</v>
+      </c>
+      <c r="H3">
+        <v>6.698</v>
+      </c>
+      <c r="I3">
+        <v>6.678</v>
       </c>
       <c r="J3">
-        <v>6.8</v>
+        <v>7.125</v>
+      </c>
+      <c r="L3">
+        <v>7.396</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1583,25 +2069,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.59</v>
+        <v>5.38</v>
       </c>
       <c r="C4">
-        <v>6.68</v>
+        <v>5.55</v>
       </c>
       <c r="D4">
-        <v>6.641</v>
+        <v>5.528</v>
       </c>
       <c r="E4">
-        <v>6.651</v>
+        <v>5.751</v>
       </c>
       <c r="F4">
-        <v>6.68</v>
+        <v>5.813</v>
       </c>
       <c r="G4">
-        <v>6.696</v>
+        <v>6.206</v>
+      </c>
+      <c r="H4">
+        <v>6.474</v>
+      </c>
+      <c r="I4">
+        <v>6.56</v>
       </c>
       <c r="J4">
-        <v>6.882</v>
+        <v>6.905</v>
+      </c>
+      <c r="L4">
+        <v>7.276</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1609,25 +2104,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.58</v>
+        <v>6.43</v>
       </c>
       <c r="C5">
-        <v>6.71</v>
+        <v>6.55</v>
       </c>
       <c r="D5">
-        <v>6.681</v>
+        <v>6.55</v>
       </c>
       <c r="E5">
-        <v>6.732</v>
+        <v>6.62</v>
       </c>
       <c r="F5">
-        <v>6.707</v>
+        <v>6.63</v>
       </c>
       <c r="G5">
-        <v>6.726</v>
+        <v>6.62</v>
+      </c>
+      <c r="H5">
+        <v>6.69</v>
+      </c>
+      <c r="I5">
+        <v>6.7</v>
       </c>
       <c r="J5">
-        <v>6.89</v>
+        <v>6.85</v>
+      </c>
+      <c r="L5">
+        <v>7.05</v>
       </c>
     </row>
   </sheetData>
@@ -1686,25 +2190,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2.548</v>
+        <v>2.023</v>
+      </c>
+      <c r="C2">
+        <v>2.105</v>
+      </c>
+      <c r="D2">
+        <v>2.135</v>
       </c>
       <c r="E2">
-        <v>2.284</v>
+        <v>2.183</v>
       </c>
       <c r="F2">
-        <v>2.39</v>
+        <v>2.345</v>
+      </c>
+      <c r="G2">
+        <v>2.732</v>
       </c>
       <c r="H2">
-        <v>2.888</v>
+        <v>3.0162</v>
       </c>
       <c r="I2">
-        <v>3.201</v>
+        <v>3.447</v>
       </c>
       <c r="J2">
-        <v>3.435</v>
+        <v>3.911</v>
+      </c>
+      <c r="K2">
+        <v>4.113</v>
       </c>
       <c r="L2">
-        <v>3.779</v>
+        <v>4.414</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1712,25 +2228,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2.603</v>
+        <v>2.011</v>
+      </c>
+      <c r="C3">
+        <v>2.092</v>
+      </c>
+      <c r="D3">
+        <v>2.17</v>
       </c>
       <c r="E3">
-        <v>2.422</v>
+        <v>2.225</v>
       </c>
       <c r="F3">
-        <v>2.523</v>
+        <v>2.412</v>
+      </c>
+      <c r="G3">
+        <v>2.822</v>
       </c>
       <c r="H3">
-        <v>2.9905</v>
+        <v>3.105</v>
       </c>
       <c r="I3">
-        <v>3.289</v>
+        <v>3.517</v>
       </c>
       <c r="J3">
-        <v>3.5</v>
+        <v>3.932</v>
+      </c>
+      <c r="K3">
+        <v>4.121</v>
       </c>
       <c r="L3">
-        <v>3.832</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1738,25 +2266,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2.669</v>
+        <v>2.036</v>
+      </c>
+      <c r="C4">
+        <v>2.054</v>
+      </c>
+      <c r="D4">
+        <v>2.073</v>
       </c>
       <c r="E4">
-        <v>2.398</v>
+        <v>2.197</v>
       </c>
       <c r="F4">
-        <v>2.529</v>
+        <v>2.385</v>
+      </c>
+      <c r="G4">
+        <v>2.777</v>
       </c>
       <c r="H4">
-        <v>3.022</v>
+        <v>3.0575</v>
       </c>
       <c r="I4">
-        <v>3.329</v>
+        <v>3.475</v>
       </c>
       <c r="J4">
-        <v>3.54</v>
+        <v>3.89</v>
+      </c>
+      <c r="K4">
+        <v>4.078</v>
       </c>
       <c r="L4">
-        <v>3.88</v>
+        <v>4.387</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1764,25 +2304,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.698</v>
+        <v>2.464</v>
+      </c>
+      <c r="C5">
+        <v>2.404</v>
+      </c>
+      <c r="D5">
+        <v>2.286</v>
       </c>
       <c r="E5">
-        <v>2.285</v>
+        <v>2.243</v>
       </c>
       <c r="F5">
-        <v>2.401</v>
+        <v>2.349</v>
+      </c>
+      <c r="G5">
+        <v>2.623</v>
       </c>
       <c r="H5">
-        <v>2.91</v>
+        <v>2.824</v>
       </c>
       <c r="I5">
-        <v>3.219</v>
+        <v>3.121</v>
       </c>
       <c r="J5">
-        <v>3.428</v>
+        <v>3.349</v>
+      </c>
+      <c r="K5">
+        <v>3.463</v>
       </c>
       <c r="L5">
-        <v>3.776</v>
+        <v>3.694</v>
       </c>
     </row>
   </sheetData>
@@ -1840,104 +2392,140 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>1.957</v>
+      </c>
       <c r="C2">
-        <v>2.32</v>
+        <v>2.023</v>
       </c>
       <c r="D2">
-        <v>2.111</v>
+        <v>1.986</v>
       </c>
       <c r="E2">
-        <v>2.111</v>
+        <v>2.069</v>
       </c>
       <c r="G2">
-        <v>2.235</v>
+        <v>2.421</v>
       </c>
       <c r="H2">
-        <v>2.25</v>
+        <v>2.576</v>
       </c>
       <c r="I2">
-        <v>2.459</v>
+        <v>2.8476</v>
+      </c>
+      <c r="J2">
+        <v>3.235</v>
       </c>
       <c r="K2">
-        <v>2.711</v>
+        <v>3.402</v>
+      </c>
+      <c r="L2">
+        <v>3.516</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>1.95</v>
+      </c>
       <c r="C3">
-        <v>2.41</v>
+        <v>2.008</v>
       </c>
       <c r="D3">
-        <v>2.263</v>
+        <v>2.013</v>
       </c>
       <c r="E3">
-        <v>2.262</v>
+        <v>2.119</v>
       </c>
       <c r="G3">
-        <v>2.362</v>
+        <v>2.455</v>
       </c>
       <c r="H3">
-        <v>2.374</v>
+        <v>2.595</v>
       </c>
       <c r="I3">
-        <v>2.5605</v>
+        <v>2.8382</v>
+      </c>
+      <c r="J3">
+        <v>3.195</v>
       </c>
       <c r="K3">
-        <v>2.781</v>
+        <v>3.337</v>
+      </c>
+      <c r="L3">
+        <v>3.426</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>1.824</v>
+      </c>
       <c r="C4">
-        <v>2.45</v>
+        <v>1.927</v>
       </c>
       <c r="D4">
-        <v>2.349</v>
+        <v>1.929</v>
       </c>
       <c r="E4">
-        <v>2.224</v>
+        <v>2.011</v>
       </c>
       <c r="G4">
-        <v>2.313</v>
+        <v>2.28</v>
       </c>
       <c r="H4">
-        <v>2.352</v>
+        <v>2.429</v>
       </c>
       <c r="I4">
-        <v>2.5205</v>
+        <v>2.698</v>
+      </c>
+      <c r="J4">
+        <v>3.096</v>
       </c>
       <c r="K4">
-        <v>2.785</v>
+        <v>3.226</v>
+      </c>
+      <c r="L4">
+        <v>3.337</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>2.4</v>
+      </c>
       <c r="C5">
-        <v>2.41</v>
+        <v>2.24</v>
       </c>
       <c r="D5">
-        <v>2.253</v>
+        <v>2.056</v>
       </c>
       <c r="E5">
-        <v>2.085</v>
+        <v>2.102</v>
       </c>
       <c r="G5">
-        <v>2.157</v>
+        <v>2.216</v>
       </c>
       <c r="H5">
-        <v>2.187</v>
+        <v>2.251</v>
       </c>
       <c r="I5">
-        <v>2.3665</v>
+        <v>2.423</v>
+      </c>
+      <c r="J5">
+        <v>2.657</v>
       </c>
       <c r="K5">
-        <v>2.604</v>
+        <v>2.655</v>
+      </c>
+      <c r="L5">
+        <v>2.666</v>
       </c>
     </row>
   </sheetData>
@@ -1995,44 +2583,80 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="D2">
+        <v>3.266</v>
+      </c>
       <c r="E2">
-        <v>5.208</v>
+        <v>3.512</v>
+      </c>
+      <c r="F2">
+        <v>3.891</v>
       </c>
       <c r="G2">
-        <v>5.583</v>
+        <v>4.428</v>
+      </c>
+      <c r="I2">
+        <v>5.069</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="D3">
+        <v>3.444</v>
+      </c>
       <c r="E3">
-        <v>5.235</v>
+        <v>3.647</v>
+      </c>
+      <c r="F3">
+        <v>3.964</v>
       </c>
       <c r="G3">
-        <v>5.667</v>
+        <v>4.518</v>
+      </c>
+      <c r="I3">
+        <v>5.097</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="D4">
+        <v>3.323</v>
+      </c>
       <c r="E4">
-        <v>5.22</v>
+        <v>4.163</v>
+      </c>
+      <c r="F4">
+        <v>4.218</v>
       </c>
       <c r="G4">
-        <v>5.68</v>
+        <v>4.716</v>
+      </c>
+      <c r="I4">
+        <v>5.348</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="D5">
+        <v>5.175</v>
+      </c>
       <c r="E5">
-        <v>5.128</v>
+        <v>5.296</v>
+      </c>
+      <c r="F5">
+        <v>5.237</v>
       </c>
       <c r="G5">
-        <v>5.531</v>
+        <v>5.524</v>
+      </c>
+      <c r="I5">
+        <v>5.733</v>
       </c>
     </row>
   </sheetData>
@@ -2091,7 +2715,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>14.86</v>
+        <v>12.852</v>
+      </c>
+      <c r="E2">
+        <v>12.655</v>
+      </c>
+      <c r="F2">
+        <v>12.695</v>
+      </c>
+      <c r="G2">
+        <v>13.075</v>
+      </c>
+      <c r="I2">
+        <v>13.618</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2099,7 +2735,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>15.006</v>
+        <v>13.365</v>
+      </c>
+      <c r="E3">
+        <v>13.17</v>
+      </c>
+      <c r="F3">
+        <v>13.185</v>
+      </c>
+      <c r="G3">
+        <v>13.488</v>
+      </c>
+      <c r="I3">
+        <v>13.868</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2107,7 +2755,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>12.89</v>
+        <v>13.97</v>
+      </c>
+      <c r="E4">
+        <v>13.21</v>
+      </c>
+      <c r="F4">
+        <v>12.905</v>
+      </c>
+      <c r="G4">
+        <v>13.188</v>
+      </c>
+      <c r="I4">
+        <v>13.648</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2115,7 +2775,19 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>9.965</v>
+        <v>14.788</v>
+      </c>
+      <c r="E5">
+        <v>14.92</v>
+      </c>
+      <c r="F5">
+        <v>14.84</v>
+      </c>
+      <c r="G5">
+        <v>14.745</v>
+      </c>
+      <c r="I5">
+        <v>14.738</v>
       </c>
     </row>
   </sheetData>
@@ -2174,16 +2846,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>2.073</v>
+        <v>2.139</v>
+      </c>
+      <c r="F2">
+        <v>2.264</v>
       </c>
       <c r="G2">
-        <v>2.358</v>
+        <v>2.612</v>
       </c>
       <c r="H2">
-        <v>2.632</v>
+        <v>2.909</v>
+      </c>
+      <c r="I2">
+        <v>3.218</v>
       </c>
       <c r="J2">
-        <v>3.161</v>
+        <v>3.567</v>
+      </c>
+      <c r="L2">
+        <v>3.753</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2191,16 +2872,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>2.218</v>
+        <v>2.131</v>
+      </c>
+      <c r="F3">
+        <v>2.25</v>
       </c>
       <c r="G3">
-        <v>2.411</v>
+        <v>2.619</v>
       </c>
       <c r="H3">
-        <v>2.507</v>
+        <v>2.907</v>
+      </c>
+      <c r="I3">
+        <v>3.22</v>
       </c>
       <c r="J3">
-        <v>3.23</v>
+        <v>3.552</v>
+      </c>
+      <c r="L3">
+        <v>3.694</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2208,16 +2898,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>2.204</v>
+        <v>1.994</v>
+      </c>
+      <c r="F4">
+        <v>2.076</v>
       </c>
       <c r="G4">
         <v>2.398</v>
       </c>
       <c r="H4">
-        <v>2.501</v>
+        <v>2.697</v>
+      </c>
+      <c r="I4">
+        <v>3.05</v>
       </c>
       <c r="J4">
-        <v>3.253</v>
+        <v>3.512</v>
+      </c>
+      <c r="L4">
+        <v>3.702</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2225,16 +2924,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>2.153</v>
+        <v>2.03</v>
+      </c>
+      <c r="F5">
+        <v>2.222</v>
       </c>
       <c r="G5">
-        <v>2.242</v>
+        <v>2.362</v>
       </c>
       <c r="H5">
-        <v>2.352</v>
+        <v>2.629</v>
+      </c>
+      <c r="I5">
+        <v>2.943</v>
       </c>
       <c r="J5">
-        <v>3.088</v>
+        <v>3.168</v>
+      </c>
+      <c r="L5">
+        <v>3.417</v>
       </c>
     </row>
   </sheetData>
@@ -2292,92 +3000,152 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>3.738</v>
+      </c>
+      <c r="C2">
+        <v>3.704</v>
+      </c>
       <c r="D2">
-        <v>4.409</v>
+        <v>3.526</v>
       </c>
       <c r="E2">
-        <v>4.21</v>
+        <v>3.629</v>
+      </c>
+      <c r="F2">
+        <v>3.695</v>
+      </c>
+      <c r="G2">
+        <v>3.901</v>
       </c>
       <c r="H2">
-        <v>4.351</v>
+        <v>4.083</v>
+      </c>
+      <c r="I2">
+        <v>4.515</v>
       </c>
       <c r="J2">
-        <v>4.849</v>
+        <v>4.945</v>
       </c>
       <c r="K2">
-        <v>5.06</v>
+        <v>5.211</v>
       </c>
       <c r="L2">
-        <v>5.123</v>
+        <v>5.338</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>3.84</v>
+      </c>
+      <c r="C3">
+        <v>3.799</v>
+      </c>
       <c r="D3">
-        <v>4.467</v>
+        <v>3.667</v>
       </c>
       <c r="E3">
-        <v>4.3065</v>
+        <v>3.681</v>
+      </c>
+      <c r="F3">
+        <v>3.729</v>
+      </c>
+      <c r="G3">
+        <v>3.88</v>
       </c>
       <c r="H3">
-        <v>4.4215</v>
+        <v>4.017</v>
+      </c>
+      <c r="I3">
+        <v>4.401</v>
       </c>
       <c r="J3">
-        <v>4.9045</v>
+        <v>4.787</v>
       </c>
       <c r="K3">
-        <v>5.113</v>
+        <v>5.03</v>
       </c>
       <c r="L3">
-        <v>5.172</v>
+        <v>5.137</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>3.986</v>
+      </c>
+      <c r="C4">
+        <v>3.895</v>
+      </c>
       <c r="D4">
-        <v>4.5015</v>
+        <v>3.777</v>
       </c>
       <c r="E4">
-        <v>4.381</v>
+        <v>3.781</v>
+      </c>
+      <c r="F4">
+        <v>3.799</v>
+      </c>
+      <c r="G4">
+        <v>3.965</v>
       </c>
       <c r="H4">
-        <v>4.5075</v>
+        <v>4.127</v>
+      </c>
+      <c r="I4">
+        <v>4.546</v>
       </c>
       <c r="J4">
-        <v>4.9945</v>
+        <v>4.962</v>
       </c>
       <c r="K4">
-        <v>5.183</v>
+        <v>5.229</v>
       </c>
       <c r="L4">
-        <v>5.244</v>
+        <v>5.368</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>4.495</v>
+      </c>
+      <c r="C5">
+        <v>4.495</v>
+      </c>
       <c r="D5">
-        <v>4.642</v>
+        <v>4.351</v>
       </c>
       <c r="E5">
-        <v>4.405</v>
+        <v>4.1965</v>
+      </c>
+      <c r="F5">
+        <v>3.9865</v>
+      </c>
+      <c r="G5">
+        <v>4.212</v>
       </c>
       <c r="H5">
-        <v>4.4485</v>
+        <v>4.328</v>
+      </c>
+      <c r="I5">
+        <v>4.499</v>
       </c>
       <c r="J5">
-        <v>4.903</v>
+        <v>4.799</v>
       </c>
       <c r="K5">
-        <v>5.105</v>
+        <v>5.009</v>
       </c>
       <c r="L5">
-        <v>5.163</v>
+        <v>5.087</v>
       </c>
     </row>
   </sheetData>
@@ -2435,101 +3203,152 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>0.735</v>
+      </c>
       <c r="C2">
-        <v>0.341</v>
+        <v>0.827</v>
       </c>
       <c r="D2">
-        <v>0.576</v>
+        <v>1.049</v>
       </c>
       <c r="E2">
-        <v>0.723</v>
+        <v>1.293</v>
       </c>
       <c r="F2">
-        <v>0.774</v>
+        <v>1.465</v>
       </c>
       <c r="G2">
-        <v>0.907</v>
+        <v>1.721</v>
       </c>
       <c r="H2">
-        <v>0.99</v>
+        <v>2.043</v>
+      </c>
+      <c r="I2">
+        <v>2.273</v>
+      </c>
+      <c r="J2">
+        <v>3.352</v>
       </c>
       <c r="K2">
-        <v>1.945</v>
+        <v>3.144</v>
+      </c>
+      <c r="L2">
+        <v>3.56</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>0.755</v>
+      </c>
       <c r="C3">
-        <v>0.34</v>
+        <v>0.791</v>
       </c>
       <c r="D3">
-        <v>0.5669999999999999</v>
+        <v>1.024</v>
       </c>
       <c r="E3">
-        <v>0.709</v>
+        <v>1.254</v>
       </c>
       <c r="F3">
-        <v>0.759</v>
+        <v>1.452</v>
       </c>
       <c r="G3">
-        <v>0.881</v>
+        <v>1.692</v>
       </c>
       <c r="H3">
-        <v>0.957</v>
+        <v>2.011</v>
+      </c>
+      <c r="I3">
+        <v>2.26</v>
+      </c>
+      <c r="J3">
+        <v>3.384</v>
       </c>
       <c r="K3">
-        <v>1.917</v>
+        <v>3.197</v>
+      </c>
+      <c r="L3">
+        <v>3.648</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>0.539</v>
+      </c>
       <c r="C4">
-        <v>0.342</v>
+        <v>0.621</v>
       </c>
       <c r="D4">
-        <v>0.577</v>
+        <v>0.791</v>
       </c>
       <c r="E4">
-        <v>0.715</v>
+        <v>0.973</v>
       </c>
       <c r="F4">
-        <v>0.763</v>
+        <v>1.099</v>
       </c>
       <c r="G4">
-        <v>0.906</v>
+        <v>1.319</v>
       </c>
       <c r="H4">
-        <v>0.988</v>
+        <v>1.578</v>
+      </c>
+      <c r="I4">
+        <v>1.807</v>
+      </c>
+      <c r="J4">
+        <v>2.753</v>
       </c>
       <c r="K4">
-        <v>1.919</v>
+        <v>2.835</v>
+      </c>
+      <c r="L4">
+        <v>3.344</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>0.305</v>
+      </c>
       <c r="C5">
-        <v>0.242</v>
+        <v>0.306</v>
       </c>
       <c r="D5">
-        <v>0.483</v>
+        <v>0.605</v>
+      </c>
+      <c r="E5">
+        <v>0.794</v>
       </c>
       <c r="F5">
-        <v>0.653</v>
+        <v>0.847</v>
       </c>
       <c r="G5">
-        <v>0.779</v>
+        <v>1.004</v>
       </c>
       <c r="H5">
-        <v>0.885</v>
+        <v>1.093</v>
+      </c>
+      <c r="I5">
+        <v>1.341</v>
+      </c>
+      <c r="J5">
+        <v>1.757</v>
       </c>
       <c r="K5">
-        <v>1.901</v>
+        <v>2.007</v>
+      </c>
+      <c r="L5">
+        <v>2.309</v>
       </c>
     </row>
   </sheetData>
